--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FF6B7A-2449-9D4D-987E-EB77751783B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396BA673-1E72-1247-B250-D3C125961D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="3060" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
+    <workbookView xWindow="2420" yWindow="1460" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1463,7 +1463,29 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Georgia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1474,6 +1496,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16CEB027-FB46-1A44-BA46-BD4AD30C864F}" name="Table1" displayName="Table1" ref="A1:M222" totalsRowShown="0">
+  <autoFilter ref="A1:M222" xr:uid="{16CEB027-FB46-1A44-BA46-BD4AD30C864F}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{1B9A59CC-67BA-3D4E-8BF2-E846FAA4CCF7}" name="Surname"/>
+    <tableColumn id="2" xr3:uid="{F58DECFD-039A-A04B-8F5C-EAB87EBDF67E}" name="Reg" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{B367B5B8-26A8-004D-8405-A55D6B3FB2B6}" name="Dept"/>
+    <tableColumn id="4" xr3:uid="{248CFFC4-D566-4C47-A784-2D182108B777}" name="Quiz_1" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{4A2A2B68-EF30-7742-9921-AE9C8CB19994}" name="Quiz_2"/>
+    <tableColumn id="6" xr3:uid="{F4845CBF-1A2D-6F4D-8189-BDA9FF51FC40}" name="Quiz_3"/>
+    <tableColumn id="7" xr3:uid="{C50393AC-DA9E-B244-B444-966939E941DB}" name="Test_1"/>
+    <tableColumn id="8" xr3:uid="{8357C7A6-F90C-A948-931D-7D4829EE9A20}" name="Test_2 "/>
+    <tableColumn id="9" xr3:uid="{AF37A560-C5F8-4E49-A224-CE84A49E046A}" name="Test_3 "/>
+    <tableColumn id="10" xr3:uid="{E7DCE493-9761-F446-9017-EFE5CA173E6F}" name="AS_1"/>
+    <tableColumn id="11" xr3:uid="{22CC7E9A-51CA-274B-9C92-B1E8F88F4324}" name="AS_2 "/>
+    <tableColumn id="12" xr3:uid="{912F9A7A-D63B-9A42-91A4-38F3D4DCB1F9}" name="AS_3"/>
+    <tableColumn id="13" xr3:uid="{C1D2D2AB-5806-CA4E-9587-399F7BCCF779}" name="CW"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1795,8 +1839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M222"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="J87" sqref="J87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2724,7 +2768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>130</v>
       </c>
@@ -2737,8 +2781,11 @@
       <c r="D65" s="5">
         <v>0.81</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J65">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>132</v>
       </c>
@@ -2752,7 +2799,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>133</v>
       </c>
@@ -2765,8 +2812,11 @@
       <c r="D67" s="5">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J67">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>135</v>
       </c>
@@ -2780,7 +2830,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>137</v>
       </c>
@@ -2794,7 +2844,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>139</v>
       </c>
@@ -2808,7 +2858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>141</v>
       </c>
@@ -2822,7 +2872,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>143</v>
       </c>
@@ -2836,7 +2886,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>145</v>
       </c>
@@ -2850,7 +2900,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>147</v>
       </c>
@@ -2864,7 +2914,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>149</v>
       </c>
@@ -2877,8 +2927,11 @@
       <c r="D75" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J75">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>151</v>
       </c>
@@ -2892,7 +2945,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -2906,7 +2959,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>155</v>
       </c>
@@ -2919,8 +2972,11 @@
       <c r="D78" s="5">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J78">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>157</v>
       </c>
@@ -2934,7 +2990,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>159</v>
       </c>
@@ -2948,7 +3004,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -2962,7 +3018,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>163</v>
       </c>
@@ -2976,7 +3032,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>165</v>
       </c>
@@ -2990,7 +3046,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>167</v>
       </c>
@@ -3004,7 +3060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>169</v>
       </c>
@@ -3018,7 +3074,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>171</v>
       </c>
@@ -3031,8 +3087,11 @@
       <c r="D86" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J86">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>68</v>
       </c>
@@ -3046,7 +3105,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>174</v>
       </c>
@@ -3060,7 +3119,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>176</v>
       </c>
@@ -3074,7 +3133,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>178</v>
       </c>
@@ -3088,7 +3147,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>180</v>
       </c>
@@ -3102,7 +3161,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>182</v>
       </c>
@@ -3116,7 +3175,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>184</v>
       </c>
@@ -3130,7 +3189,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>186</v>
       </c>
@@ -3144,7 +3203,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>188</v>
       </c>
@@ -3157,8 +3216,11 @@
       <c r="D95" s="5">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J95">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>190</v>
       </c>
@@ -3172,7 +3234,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>192</v>
       </c>
@@ -3186,7 +3248,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>192</v>
       </c>
@@ -3200,7 +3262,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>195</v>
       </c>
@@ -3214,7 +3276,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>197</v>
       </c>
@@ -3228,7 +3290,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>199</v>
       </c>
@@ -3242,7 +3304,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>201</v>
       </c>
@@ -3256,7 +3318,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>203</v>
       </c>
@@ -3269,8 +3331,11 @@
       <c r="D103" s="5">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J103">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>206</v>
       </c>
@@ -3284,7 +3349,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>208</v>
       </c>
@@ -3298,7 +3363,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>210</v>
       </c>
@@ -3312,7 +3377,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>212</v>
       </c>
@@ -3326,7 +3391,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>214</v>
       </c>
@@ -3340,7 +3405,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>216</v>
       </c>
@@ -3353,8 +3418,11 @@
       <c r="D109" s="5">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J109">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>218</v>
       </c>
@@ -3368,7 +3436,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>220</v>
       </c>
@@ -3382,7 +3450,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>222</v>
       </c>
@@ -3395,8 +3463,11 @@
       <c r="D112" s="5">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J112">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>224</v>
       </c>
@@ -3410,7 +3481,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>114</v>
       </c>
@@ -3424,7 +3495,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>227</v>
       </c>
@@ -3437,8 +3508,11 @@
       <c r="D115" s="5">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J115">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>229</v>
       </c>
@@ -3452,7 +3526,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>231</v>
       </c>
@@ -3466,7 +3540,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>233</v>
       </c>
@@ -3479,8 +3553,11 @@
       <c r="D118" s="5">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J118">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>235</v>
       </c>
@@ -3494,7 +3571,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>237</v>
       </c>
@@ -3508,7 +3585,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>239</v>
       </c>
@@ -3522,7 +3599,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>241</v>
       </c>
@@ -3536,7 +3613,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>243</v>
       </c>
@@ -3550,7 +3627,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>245</v>
       </c>
@@ -3564,7 +3641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>247</v>
       </c>
@@ -3578,7 +3655,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>249</v>
       </c>
@@ -3592,7 +3669,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>251</v>
       </c>
@@ -3606,7 +3683,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>253</v>
       </c>
@@ -3619,8 +3696,11 @@
       <c r="D128" s="5">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J128">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>255</v>
       </c>
@@ -3634,7 +3714,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>257</v>
       </c>
@@ -3648,7 +3728,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>259</v>
       </c>
@@ -3661,8 +3741,11 @@
       <c r="D131" s="5">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J131">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>261</v>
       </c>
@@ -3676,7 +3759,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>263</v>
       </c>
@@ -3690,7 +3773,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>265</v>
       </c>
@@ -3704,7 +3787,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>267</v>
       </c>
@@ -3718,7 +3801,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>70</v>
       </c>
@@ -3732,7 +3815,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>270</v>
       </c>
@@ -3746,7 +3829,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>272</v>
       </c>
@@ -3759,8 +3842,11 @@
       <c r="D138" s="5">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J138">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>274</v>
       </c>
@@ -3774,7 +3860,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>276</v>
       </c>
@@ -3788,7 +3874,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>278</v>
       </c>
@@ -3802,7 +3888,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>280</v>
       </c>
@@ -3816,7 +3902,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>282</v>
       </c>
@@ -3830,7 +3916,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>284</v>
       </c>
@@ -3844,7 +3930,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>286</v>
       </c>
@@ -3857,8 +3943,11 @@
       <c r="D145" s="5">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J145">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>288</v>
       </c>
@@ -3872,7 +3961,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>290</v>
       </c>
@@ -3885,8 +3974,11 @@
       <c r="D147" s="5">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J147">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>292</v>
       </c>
@@ -3899,8 +3991,11 @@
       <c r="D148" s="5">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J148">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>294</v>
       </c>
@@ -3914,7 +4009,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>296</v>
       </c>
@@ -3928,7 +4023,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>298</v>
       </c>
@@ -3942,7 +4037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>300</v>
       </c>
@@ -3956,7 +4051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>302</v>
       </c>
@@ -3970,7 +4065,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>304</v>
       </c>
@@ -3984,7 +4079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>306</v>
       </c>
@@ -3998,7 +4093,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>308</v>
       </c>
@@ -4012,7 +4107,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>310</v>
       </c>
@@ -4026,7 +4121,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>313</v>
       </c>
@@ -4040,7 +4135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>315</v>
       </c>
@@ -4054,7 +4149,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>317</v>
       </c>
@@ -4938,5 +5033,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396BA673-1E72-1247-B250-D3C125961D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B26ECD6-4FC1-2949-A9AE-31D65E1BC56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2420" yWindow="1460" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -1839,8 +1839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="J87" sqref="J87"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="J142" sqref="J142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2096,7 +2096,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -2263,8 +2263,11 @@
       <c r="D28" s="5">
         <v>0.81</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -2278,7 +2281,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -2291,8 +2294,11 @@
       <c r="D30" s="5">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -2306,7 +2312,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -2544,7 +2550,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -2558,7 +2564,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -2572,7 +2578,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -2586,7 +2592,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -2599,8 +2605,11 @@
       <c r="D52" s="5">
         <v>0.81</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J52">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -2614,7 +2623,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>108</v>
       </c>
@@ -2628,7 +2637,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>110</v>
       </c>
@@ -2641,8 +2650,11 @@
       <c r="D55" s="5">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J55">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>112</v>
       </c>
@@ -2656,7 +2668,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>114</v>
       </c>
@@ -2670,7 +2682,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>116</v>
       </c>
@@ -2684,7 +2696,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>118</v>
       </c>
@@ -2698,7 +2710,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>120</v>
       </c>
@@ -2711,8 +2723,11 @@
       <c r="D60" s="5">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J60">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>122</v>
       </c>
@@ -2726,7 +2741,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>124</v>
       </c>
@@ -2740,7 +2755,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>126</v>
       </c>
@@ -2753,8 +2768,11 @@
       <c r="D63" s="5">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J63">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>128</v>
       </c>
@@ -2913,6 +2931,9 @@
       <c r="D74" s="5">
         <v>0.94</v>
       </c>
+      <c r="J74">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
@@ -2989,6 +3010,9 @@
       <c r="D79" s="5">
         <v>0.94</v>
       </c>
+      <c r="J79">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
@@ -3003,6 +3027,9 @@
       <c r="D80" s="5">
         <v>0.69</v>
       </c>
+      <c r="J80">
+        <v>0.89</v>
+      </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
@@ -3146,6 +3173,9 @@
       <c r="D90" s="5">
         <v>0.72</v>
       </c>
+      <c r="J90">
+        <v>0.89</v>
+      </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
@@ -3261,6 +3291,9 @@
       <c r="D98" s="5">
         <v>0.89</v>
       </c>
+      <c r="J98">
+        <v>0.56000000000000005</v>
+      </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
@@ -3303,6 +3336,9 @@
       <c r="D101" s="5">
         <v>0.94</v>
       </c>
+      <c r="J101">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
@@ -3887,6 +3923,9 @@
       <c r="D141" s="5">
         <v>0.92</v>
       </c>
+      <c r="J141">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
@@ -4134,6 +4173,9 @@
       <c r="D158" s="5">
         <v>1</v>
       </c>
+      <c r="J158">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
@@ -4163,7 +4205,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>319</v>
       </c>
@@ -4177,7 +4219,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>321</v>
       </c>
@@ -4191,7 +4233,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>323</v>
       </c>
@@ -4205,7 +4247,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>325</v>
       </c>
@@ -4219,7 +4261,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>327</v>
       </c>
@@ -4233,7 +4275,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>329</v>
       </c>
@@ -4247,7 +4289,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>331</v>
       </c>
@@ -4261,7 +4303,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>333</v>
       </c>
@@ -4275,7 +4317,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>335</v>
       </c>
@@ -4288,8 +4330,11 @@
       <c r="D169" s="5">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J169">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>337</v>
       </c>
@@ -4302,8 +4347,11 @@
       <c r="D170" s="5">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J170">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>339</v>
       </c>
@@ -4317,7 +4365,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>341</v>
       </c>
@@ -4330,8 +4378,11 @@
       <c r="D172" s="5">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J172">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>343</v>
       </c>
@@ -4345,7 +4396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>345</v>
       </c>
@@ -4359,7 +4410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>347</v>
       </c>
@@ -4372,8 +4423,11 @@
       <c r="D175" s="5">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J175">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>349</v>
       </c>
@@ -4387,7 +4441,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>351</v>
       </c>
@@ -4401,7 +4455,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>353</v>
       </c>
@@ -4415,7 +4469,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>355</v>
       </c>
@@ -4429,7 +4483,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>357</v>
       </c>
@@ -4443,7 +4497,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>359</v>
       </c>
@@ -4457,7 +4511,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>361</v>
       </c>
@@ -4470,8 +4524,11 @@
       <c r="D182" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J182">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>363</v>
       </c>
@@ -4484,8 +4541,11 @@
       <c r="D183" s="5">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J183">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>365</v>
       </c>
@@ -4498,8 +4558,11 @@
       <c r="D184" s="5">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J184">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>367</v>
       </c>
@@ -4513,7 +4576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>369</v>
       </c>
@@ -4527,7 +4590,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>371</v>
       </c>
@@ -4541,7 +4604,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>373</v>
       </c>
@@ -4555,7 +4618,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>375</v>
       </c>
@@ -4569,7 +4632,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>375</v>
       </c>
@@ -4583,7 +4646,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>378</v>
       </c>
@@ -4597,7 +4660,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>380</v>
       </c>
@@ -4611,7 +4674,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>382</v>
       </c>
@@ -4625,7 +4688,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>384</v>
       </c>
@@ -4638,8 +4701,11 @@
       <c r="D194" s="5">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J194">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>386</v>
       </c>
@@ -4653,7 +4719,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>388</v>
       </c>
@@ -4666,8 +4732,11 @@
       <c r="D196" s="5">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J196">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>390</v>
       </c>
@@ -4681,7 +4750,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>392</v>
       </c>
@@ -4695,7 +4764,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>394</v>
       </c>
@@ -4709,7 +4778,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>396</v>
       </c>
@@ -4723,7 +4792,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>398</v>
       </c>
@@ -4737,7 +4806,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>400</v>
       </c>
@@ -4751,7 +4820,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>402</v>
       </c>
@@ -4764,8 +4833,11 @@
       <c r="D203" s="5">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J203">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>404</v>
       </c>
@@ -4778,8 +4850,11 @@
       <c r="D204" s="5">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J204">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>406</v>
       </c>
@@ -4793,7 +4868,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>408</v>
       </c>
@@ -4807,7 +4882,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>410</v>
       </c>
@@ -4821,7 +4896,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>412</v>
       </c>
@@ -4835,7 +4910,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>414</v>
       </c>
@@ -4849,7 +4924,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>416</v>
       </c>
@@ -4863,7 +4938,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>418</v>
       </c>
@@ -4876,8 +4951,11 @@
       <c r="D211" s="5">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J211">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>420</v>
       </c>
@@ -4891,7 +4969,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>422</v>
       </c>
@@ -4905,7 +4983,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>424</v>
       </c>
@@ -4919,7 +4997,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>426</v>
       </c>
@@ -4932,8 +5010,11 @@
       <c r="D215" s="5">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J215">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>428</v>
       </c>
@@ -4947,7 +5028,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>430</v>
       </c>
@@ -4961,7 +5042,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>432</v>
       </c>
@@ -4975,7 +5056,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>434</v>
       </c>
@@ -4989,7 +5070,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>436</v>
       </c>
@@ -5002,8 +5083,11 @@
       <c r="D220" s="5">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J220">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>438</v>
       </c>
@@ -5017,7 +5101,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>440</v>
       </c>
@@ -5029,6 +5113,9 @@
       </c>
       <c r="D222" s="5">
         <v>0.86</v>
+      </c>
+      <c r="J222">
+        <v>0.56000000000000005</v>
       </c>
     </row>
   </sheetData>

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B26ECD6-4FC1-2949-A9AE-31D65E1BC56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090D890D-EAAB-4A44-B794-C17D2CBD2253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2420" yWindow="1460" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="455">
   <si>
     <t>Surname</t>
   </si>
@@ -1392,6 +1392,15 @@
   </si>
   <si>
     <t>AS_3</t>
+  </si>
+  <si>
+    <t>H250389T</t>
+  </si>
+  <si>
+    <t>Masara</t>
+  </si>
+  <si>
+    <t>HSE</t>
   </si>
 </sst>
 </file>
@@ -1499,8 +1508,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16CEB027-FB46-1A44-BA46-BD4AD30C864F}" name="Table1" displayName="Table1" ref="A1:M222" totalsRowShown="0">
-  <autoFilter ref="A1:M222" xr:uid="{16CEB027-FB46-1A44-BA46-BD4AD30C864F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16CEB027-FB46-1A44-BA46-BD4AD30C864F}" name="Table1" displayName="Table1" ref="A1:M223" totalsRowShown="0">
+  <autoFilter ref="A1:M223" xr:uid="{16CEB027-FB46-1A44-BA46-BD4AD30C864F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M223">
+    <sortCondition ref="C1:C223"/>
+  </sortState>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{1B9A59CC-67BA-3D4E-8BF2-E846FAA4CCF7}" name="Surname"/>
     <tableColumn id="2" xr3:uid="{F58DECFD-039A-A04B-8F5C-EAB87EBDF67E}" name="Reg" dataDxfId="1"/>
@@ -1837,10 +1849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
-  <dimension ref="A1:M222"/>
+  <dimension ref="A1:M223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="J142" sqref="J142"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="J88" sqref="J88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1927,6 +1939,9 @@
       <c r="D4" s="5">
         <v>0.75</v>
       </c>
+      <c r="J4">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1955,6 +1970,9 @@
       <c r="D6" s="5">
         <v>0.86</v>
       </c>
+      <c r="J6">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2025,6 +2043,9 @@
       <c r="D11" s="5">
         <v>0.94</v>
       </c>
+      <c r="J11">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2151,6 +2172,9 @@
       <c r="D20" s="5">
         <v>0.89</v>
       </c>
+      <c r="J20">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -2193,6 +2217,9 @@
       <c r="D23" s="5">
         <v>0.83</v>
       </c>
+      <c r="J23">
+        <v>0.81</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -2207,6 +2234,9 @@
       <c r="D24" s="5">
         <v>0.94</v>
       </c>
+      <c r="J24">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -2280,6 +2310,9 @@
       <c r="D29" s="5">
         <v>0.94</v>
       </c>
+      <c r="J29">
+        <v>0.81</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -2326,7 +2359,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -2340,7 +2373,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -2354,7 +2387,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -2368,7 +2401,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -2382,7 +2415,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -2395,8 +2428,11 @@
       <c r="D37" s="5">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -2410,7 +2446,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -2423,8 +2459,11 @@
       <c r="D39" s="5">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -2438,7 +2477,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -2452,7 +2491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>83</v>
       </c>
@@ -2466,7 +2505,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -2480,7 +2519,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -2494,7 +2533,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -2508,7 +2547,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -2522,7 +2561,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -2535,8 +2574,11 @@
       <c r="D47" s="5">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J47">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -2563,6 +2605,9 @@
       <c r="D49" s="5">
         <v>0.97</v>
       </c>
+      <c r="J49">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -2577,6 +2622,9 @@
       <c r="D50" s="5">
         <v>0.94</v>
       </c>
+      <c r="J50">
+        <v>0.81</v>
+      </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -2861,6 +2909,9 @@
       <c r="D69" s="5">
         <v>0.72</v>
       </c>
+      <c r="J69">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
@@ -2917,6 +2968,9 @@
       <c r="D73" s="5">
         <v>0.72</v>
       </c>
+      <c r="J73">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
@@ -3044,6 +3098,9 @@
       <c r="D81" s="5">
         <v>0.92</v>
       </c>
+      <c r="J81">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
@@ -3058,6 +3115,9 @@
       <c r="D82" s="5">
         <v>0.56000000000000005</v>
       </c>
+      <c r="J82">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
@@ -3100,6 +3160,9 @@
       <c r="D85" s="5">
         <v>0.92</v>
       </c>
+      <c r="J85">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
@@ -3131,6 +3194,9 @@
       <c r="D87" s="5">
         <v>0.94</v>
       </c>
+      <c r="J87">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
@@ -3232,6 +3298,9 @@
       <c r="D94" s="5">
         <v>0.75</v>
       </c>
+      <c r="J94">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
@@ -3263,6 +3332,9 @@
       <c r="D96" s="5">
         <v>0.89</v>
       </c>
+      <c r="J96">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
@@ -3277,6 +3349,9 @@
       <c r="D97" s="5">
         <v>0.97</v>
       </c>
+      <c r="J97">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
@@ -4204,6 +4279,9 @@
       <c r="D160" s="5">
         <v>0.92</v>
       </c>
+      <c r="J160">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
@@ -4482,6 +4560,9 @@
       <c r="D179" s="5">
         <v>0.92</v>
       </c>
+      <c r="J179">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
@@ -4777,6 +4858,9 @@
       <c r="D199" s="5">
         <v>0.81</v>
       </c>
+      <c r="J199">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
@@ -5055,6 +5139,9 @@
       <c r="D218" s="5">
         <v>0.89</v>
       </c>
+      <c r="J218">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
@@ -5116,6 +5203,23 @@
       </c>
       <c r="J222">
         <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>453</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C223" t="s">
+        <v>454</v>
+      </c>
+      <c r="D223" s="5">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090D890D-EAAB-4A44-B794-C17D2CBD2253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4AD4B1-BA09-6149-8C8A-53A225BD3C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="1460" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
+    <workbookView xWindow="3760" yWindow="1360" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="454">
   <si>
     <t>Surname</t>
   </si>
@@ -1398,9 +1398,6 @@
   </si>
   <si>
     <t>Masara</t>
-  </si>
-  <si>
-    <t>HSE</t>
   </si>
 </sst>
 </file>
@@ -1511,7 +1508,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16CEB027-FB46-1A44-BA46-BD4AD30C864F}" name="Table1" displayName="Table1" ref="A1:M223" totalsRowShown="0">
   <autoFilter ref="A1:M223" xr:uid="{16CEB027-FB46-1A44-BA46-BD4AD30C864F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M223">
-    <sortCondition ref="C1:C223"/>
+    <sortCondition ref="A1:A223"/>
   </sortState>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{1B9A59CC-67BA-3D4E-8BF2-E846FAA4CCF7}" name="Surname"/>
@@ -1851,8 +1848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="J88" sqref="J88"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="B208" sqref="B208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1900,27 +1897,30 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>203</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>205</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>204</v>
       </c>
       <c r="D2" s="5">
-        <v>0.94</v>
+        <v>0.89</v>
+      </c>
+      <c r="J2">
+        <v>0.46</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>206</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>207</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>204</v>
       </c>
       <c r="D3" s="5">
         <v>0.94</v>
@@ -1928,173 +1928,170 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>310</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>312</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>311</v>
       </c>
       <c r="D4" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="J4">
-        <v>0.91</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="5">
-        <v>0.67</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>208</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>204</v>
       </c>
       <c r="D6" s="5">
-        <v>0.86</v>
-      </c>
-      <c r="J6">
-        <v>0.91</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>314</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>311</v>
       </c>
       <c r="D7" s="5">
-        <v>0.92</v>
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0.72</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>315</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>316</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>311</v>
       </c>
       <c r="D8" s="5">
-        <v>0.78</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>210</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>211</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>204</v>
       </c>
       <c r="D9" s="5">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="D10" s="5">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="D11" s="5">
-        <v>0.94</v>
-      </c>
-      <c r="J11">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>317</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>311</v>
       </c>
       <c r="D12" s="5">
-        <v>1</v>
+        <v>0.92</v>
+      </c>
+      <c r="J12">
+        <v>0.7</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>319</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>27</v>
+        <v>320</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>311</v>
       </c>
       <c r="D13" s="5">
-        <v>1</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>29</v>
+        <v>6</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="5">
-        <v>0.75</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>8</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -2102,1297 +2099,1264 @@
       <c r="D15" s="5">
         <v>0.75</v>
       </c>
+      <c r="J15">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>321</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>322</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>311</v>
       </c>
       <c r="D16" s="5">
-        <v>0.72</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>323</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>324</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>311</v>
       </c>
       <c r="D17" s="5">
-        <v>0.69</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>110</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="D18" s="5">
         <v>0.94</v>
       </c>
+      <c r="J18">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="5">
-        <v>0.78</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>212</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>213</v>
       </c>
       <c r="C20" t="s">
-        <v>4</v>
+        <v>204</v>
       </c>
       <c r="D20" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="J20">
-        <v>0.91</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>214</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>215</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>204</v>
       </c>
       <c r="D21" s="5">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>216</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>217</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>204</v>
       </c>
       <c r="D22" s="5">
-        <v>0.97</v>
+        <v>0.89</v>
+      </c>
+      <c r="J22">
+        <v>0.46</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="D23" s="5">
-        <v>0.83</v>
-      </c>
-      <c r="J23">
-        <v>0.81</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>325</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>326</v>
       </c>
       <c r="C24" t="s">
-        <v>4</v>
+        <v>311</v>
       </c>
       <c r="D24" s="5">
-        <v>0.94</v>
-      </c>
-      <c r="J24">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>51</v>
+        <v>327</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>311</v>
       </c>
       <c r="D25" s="5">
-        <v>0.78</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>329</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>330</v>
       </c>
       <c r="C26" t="s">
-        <v>4</v>
+        <v>311</v>
       </c>
       <c r="D26" s="5">
-        <v>0.81</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>218</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>219</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
+        <v>204</v>
       </c>
       <c r="D27" s="5">
-        <v>0.97</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>220</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>221</v>
       </c>
       <c r="C28" t="s">
-        <v>4</v>
+        <v>204</v>
       </c>
       <c r="D28" s="5">
-        <v>0.81</v>
-      </c>
-      <c r="J28">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>222</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>223</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>204</v>
       </c>
       <c r="D29" s="5">
-        <v>0.94</v>
+        <v>0.89</v>
       </c>
       <c r="J29">
-        <v>0.81</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>224</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="C30" t="s">
-        <v>4</v>
+        <v>204</v>
       </c>
       <c r="D30" s="5">
         <v>0.75</v>
       </c>
-      <c r="J30">
-        <v>0.89</v>
-      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="C31" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="D31" s="5">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="C32" t="s">
-        <v>4</v>
+        <v>204</v>
       </c>
       <c r="D32" s="5">
-        <v>0.89</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>227</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>228</v>
       </c>
       <c r="C33" t="s">
-        <v>4</v>
+        <v>204</v>
       </c>
       <c r="D33" s="5">
-        <v>0.78</v>
+        <v>0.92</v>
+      </c>
+      <c r="J33">
+        <v>0.65</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>229</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>230</v>
       </c>
       <c r="C34" t="s">
-        <v>4</v>
+        <v>204</v>
       </c>
       <c r="D34" s="5">
-        <v>0.94</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" s="5">
-        <v>0.53</v>
+        <v>0.86</v>
+      </c>
+      <c r="J35">
+        <v>0.91</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>116</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="C36" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="D36" s="5">
-        <v>0.69</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="C37" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="D37" s="5">
         <v>0.92</v>
       </c>
-      <c r="J37">
-        <v>0.81</v>
-      </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>331</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>332</v>
       </c>
       <c r="C38" t="s">
-        <v>4</v>
+        <v>311</v>
       </c>
       <c r="D38" s="5">
-        <v>0.81</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="C39" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="D39" s="5">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="J39">
-        <v>0.81</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>80</v>
+        <v>122</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="C40" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="D40" s="5">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>81</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>82</v>
+        <v>333</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>334</v>
       </c>
       <c r="C41" t="s">
-        <v>4</v>
+        <v>311</v>
       </c>
       <c r="D41" s="5">
-        <v>1</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>83</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>84</v>
+        <v>14</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C42" t="s">
         <v>4</v>
       </c>
       <c r="D42" s="5">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="C43" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="D43" s="5">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>87</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>88</v>
+        <v>16</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C44" t="s">
         <v>4</v>
       </c>
       <c r="D44" s="5">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="C45" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="D45" s="5">
-        <v>0.97</v>
+        <v>0.86</v>
+      </c>
+      <c r="J45">
+        <v>0.85</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>92</v>
+        <v>128</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="C46" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="D46" s="5">
-        <v>0.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="C47" t="s">
         <v>4</v>
       </c>
       <c r="D47" s="5">
-        <v>0.86</v>
-      </c>
-      <c r="J47">
-        <v>0.81</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="C48" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="D48" s="5">
-        <v>0.92</v>
+        <v>0.81</v>
+      </c>
+      <c r="J48">
+        <v>0.74</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="C49" t="s">
         <v>4</v>
       </c>
       <c r="D49" s="5">
-        <v>0.97</v>
-      </c>
-      <c r="J49">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="C50" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="D50" s="5">
-        <v>0.94</v>
-      </c>
-      <c r="J50">
-        <v>0.81</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="C51" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="D51" s="5">
-        <v>0.44</v>
+        <v>0.89</v>
+      </c>
+      <c r="J51">
+        <v>0.74</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>103</v>
+        <v>335</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>104</v>
+        <v>336</v>
       </c>
       <c r="C52" t="s">
-        <v>4</v>
+        <v>311</v>
       </c>
       <c r="D52" s="5">
-        <v>0.81</v>
+        <v>0.83</v>
       </c>
       <c r="J52">
-        <v>0.89</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="C53" t="s">
         <v>106</v>
       </c>
       <c r="D53" s="5">
-        <v>0.97</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>108</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>109</v>
+        <v>137</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="C54" t="s">
         <v>106</v>
       </c>
       <c r="D54" s="5">
-        <v>0.89</v>
+        <v>0.72</v>
+      </c>
+      <c r="J54">
+        <v>0.83</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>110</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>111</v>
+        <v>231</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="C55" t="s">
-        <v>106</v>
+        <v>204</v>
       </c>
       <c r="D55" s="5">
         <v>0.94</v>
       </c>
-      <c r="J55">
-        <v>0.85</v>
-      </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>337</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>113</v>
+        <v>338</v>
       </c>
       <c r="C56" t="s">
-        <v>106</v>
+        <v>311</v>
       </c>
       <c r="D56" s="5">
-        <v>0.94</v>
+        <v>0.89</v>
+      </c>
+      <c r="J56">
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>114</v>
+        <v>233</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>115</v>
+        <v>234</v>
       </c>
       <c r="C57" t="s">
-        <v>106</v>
+        <v>204</v>
       </c>
       <c r="D57" s="5">
-        <v>0.86</v>
+        <v>0.89</v>
+      </c>
+      <c r="J57">
+        <v>0.65</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>116</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>117</v>
+        <v>339</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>340</v>
       </c>
       <c r="C58" t="s">
-        <v>106</v>
+        <v>311</v>
       </c>
       <c r="D58" s="5">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="C59" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="D59" s="5">
-        <v>0.92</v>
+        <v>0.94</v>
+      </c>
+      <c r="J59">
+        <v>0.91</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>120</v>
+        <v>341</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>121</v>
+        <v>342</v>
       </c>
       <c r="C60" t="s">
-        <v>106</v>
+        <v>311</v>
       </c>
       <c r="D60" s="5">
         <v>0.89</v>
       </c>
       <c r="J60">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>122</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>123</v>
+        <v>24</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C61" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="D61" s="5">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>124</v>
+        <v>235</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>125</v>
+        <v>236</v>
       </c>
       <c r="C62" t="s">
-        <v>106</v>
+        <v>204</v>
       </c>
       <c r="D62" s="5">
-        <v>0.97</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>126</v>
+        <v>237</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>127</v>
+        <v>238</v>
       </c>
       <c r="C63" t="s">
-        <v>106</v>
+        <v>204</v>
       </c>
       <c r="D63" s="5">
-        <v>0.86</v>
-      </c>
-      <c r="J63">
-        <v>0.85</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>128</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>129</v>
+        <v>26</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C64" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="D64" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C65" t="s">
         <v>106</v>
       </c>
       <c r="D65" s="5">
-        <v>0.81</v>
-      </c>
-      <c r="J65">
-        <v>0.74</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>132</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>132</v>
+        <v>343</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>344</v>
       </c>
       <c r="C66" t="s">
-        <v>106</v>
+        <v>311</v>
       </c>
       <c r="D66" s="5">
-        <v>0.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C67" t="s">
         <v>106</v>
       </c>
       <c r="D67" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="J67">
-        <v>0.74</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>135</v>
+        <v>239</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>136</v>
+        <v>240</v>
       </c>
       <c r="C68" t="s">
-        <v>106</v>
+        <v>204</v>
       </c>
       <c r="D68" s="5">
-        <v>0.53</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>138</v>
+        <v>29</v>
       </c>
       <c r="C69" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="D69" s="5">
-        <v>0.72</v>
-      </c>
-      <c r="J69">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>139</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>140</v>
+        <v>30</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C70" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="D70" s="5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="C71" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="D71" s="5">
-        <v>0.94</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>143</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>144</v>
+        <v>241</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>242</v>
       </c>
       <c r="C72" t="s">
-        <v>106</v>
+        <v>204</v>
       </c>
       <c r="D72" s="5">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>145</v>
+        <v>243</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>146</v>
+        <v>244</v>
       </c>
       <c r="C73" t="s">
-        <v>106</v>
+        <v>204</v>
       </c>
       <c r="D73" s="5">
-        <v>0.72</v>
-      </c>
-      <c r="J73">
-        <v>0.65</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>147</v>
+        <v>345</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>148</v>
+        <v>346</v>
       </c>
       <c r="C74" t="s">
-        <v>106</v>
+        <v>311</v>
       </c>
       <c r="D74" s="5">
-        <v>0.94</v>
-      </c>
-      <c r="J74">
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>149</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>150</v>
+        <v>245</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="C75" t="s">
-        <v>106</v>
+        <v>204</v>
       </c>
       <c r="D75" s="5">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>0.74</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>151</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>152</v>
+        <v>347</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>348</v>
       </c>
       <c r="C76" t="s">
-        <v>106</v>
+        <v>311</v>
       </c>
       <c r="D76" s="5">
-        <v>0.94</v>
+        <v>0.89</v>
+      </c>
+      <c r="J76">
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>153</v>
+        <v>247</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>154</v>
+        <v>248</v>
       </c>
       <c r="C77" t="s">
-        <v>106</v>
+        <v>204</v>
       </c>
       <c r="D77" s="5">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>155</v>
+        <v>349</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>156</v>
+        <v>350</v>
       </c>
       <c r="C78" t="s">
-        <v>106</v>
+        <v>311</v>
       </c>
       <c r="D78" s="5">
-        <v>0.97</v>
-      </c>
-      <c r="J78">
-        <v>0.74</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>157</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>158</v>
+        <v>143</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="C79" t="s">
         <v>106</v>
       </c>
       <c r="D79" s="5">
-        <v>0.94</v>
-      </c>
-      <c r="J79">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C80" t="s">
         <v>106</v>
       </c>
       <c r="D80" s="5">
-        <v>0.69</v>
+        <v>0.72</v>
       </c>
       <c r="J80">
-        <v>0.89</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>161</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>162</v>
+        <v>34</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C81" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="D81" s="5">
-        <v>0.92</v>
-      </c>
-      <c r="J81">
-        <v>0.83</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>163</v>
+        <v>36</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>164</v>
+        <v>37</v>
       </c>
       <c r="C82" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="D82" s="5">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="J82">
-        <v>0.65</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>165</v>
+        <v>38</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>166</v>
+        <v>39</v>
       </c>
       <c r="C83" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="D83" s="5">
-        <v>0.94</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>167</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>168</v>
+        <v>147</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="C84" t="s">
         <v>106</v>
       </c>
       <c r="D84" s="5">
-        <v>0</v>
+        <v>0.94</v>
+      </c>
+      <c r="J84">
+        <v>0.85</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>169</v>
+        <v>351</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>170</v>
+        <v>352</v>
       </c>
       <c r="C85" t="s">
-        <v>106</v>
+        <v>311</v>
       </c>
       <c r="D85" s="5">
-        <v>0.92</v>
-      </c>
-      <c r="J85">
-        <v>0.83</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>171</v>
+        <v>40</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>172</v>
+        <v>41</v>
       </c>
       <c r="C86" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="D86" s="5">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="J86">
-        <v>0.74</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>68</v>
+        <v>249</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>173</v>
+        <v>250</v>
       </c>
       <c r="C87" t="s">
-        <v>106</v>
+        <v>204</v>
       </c>
       <c r="D87" s="5">
         <v>0.94</v>
       </c>
-      <c r="J87">
-        <v>0.65</v>
-      </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>174</v>
+        <v>42</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>175</v>
+        <v>43</v>
       </c>
       <c r="C88" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="D88" s="5">
-        <v>0.53</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>176</v>
+        <v>44</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>177</v>
+        <v>45</v>
       </c>
       <c r="C89" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="D89" s="5">
-        <v>0.81</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>178</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>179</v>
+        <v>149</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="C90" t="s">
         <v>106</v>
       </c>
       <c r="D90" s="5">
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="J90">
-        <v>0.89</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>180</v>
+        <v>353</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>181</v>
+        <v>354</v>
       </c>
       <c r="C91" t="s">
-        <v>106</v>
+        <v>311</v>
       </c>
       <c r="D91" s="5">
-        <v>0.81</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>182</v>
+        <v>46</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>183</v>
+        <v>47</v>
       </c>
       <c r="C92" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="D92" s="5">
-        <v>0.94</v>
+        <v>0.83</v>
+      </c>
+      <c r="J92">
+        <v>0.81</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>184</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>185</v>
+        <v>251</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="C93" t="s">
-        <v>106</v>
+        <v>204</v>
       </c>
       <c r="D93" s="5">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>186</v>
+        <v>48</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>187</v>
+        <v>49</v>
       </c>
       <c r="C94" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="D94" s="5">
-        <v>0.75</v>
+        <v>0.94</v>
       </c>
       <c r="J94">
-        <v>0.65</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>188</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>189</v>
+        <v>355</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="C95" t="s">
-        <v>106</v>
+        <v>311</v>
       </c>
       <c r="D95" s="5">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="J95">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>191</v>
+        <v>51</v>
       </c>
       <c r="C96" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="D96" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="J96">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
       <c r="C97" t="s">
         <v>106</v>
       </c>
       <c r="D97" s="5">
-        <v>0.97</v>
-      </c>
-      <c r="J97">
-        <v>0.83</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>192</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>194</v>
+        <v>52</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="C98" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="D98" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="J98">
-        <v>0.56000000000000005</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>195</v>
+        <v>357</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>196</v>
+        <v>358</v>
       </c>
       <c r="C99" t="s">
-        <v>106</v>
+        <v>311</v>
       </c>
       <c r="D99" s="5">
-        <v>0.81</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>197</v>
+        <v>359</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>198</v>
+        <v>360</v>
       </c>
       <c r="C100" t="s">
-        <v>106</v>
+        <v>311</v>
       </c>
       <c r="D100" s="5">
         <v>0.94</v>
@@ -3400,513 +3364,534 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>199</v>
+        <v>253</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>200</v>
+        <v>254</v>
       </c>
       <c r="C101" t="s">
-        <v>106</v>
+        <v>204</v>
       </c>
       <c r="D101" s="5">
-        <v>0.94</v>
+        <v>0.75</v>
       </c>
       <c r="J101">
-        <v>0.85</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>201</v>
+        <v>255</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>202</v>
+        <v>256</v>
       </c>
       <c r="C102" t="s">
-        <v>106</v>
+        <v>204</v>
       </c>
       <c r="D102" s="5">
-        <v>0.57999999999999996</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>203</v>
+        <v>257</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>205</v>
+        <v>258</v>
       </c>
       <c r="C103" t="s">
         <v>204</v>
       </c>
       <c r="D103" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="J103">
-        <v>0.46</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>206</v>
+        <v>153</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>207</v>
+        <v>154</v>
       </c>
       <c r="C104" t="s">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="D104" s="5">
-        <v>0.94</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>208</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>209</v>
+        <v>361</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>362</v>
       </c>
       <c r="C105" t="s">
-        <v>204</v>
+        <v>311</v>
       </c>
       <c r="D105" s="5">
-        <v>0.75</v>
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>0.72</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>210</v>
+        <v>363</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>211</v>
+        <v>364</v>
       </c>
       <c r="C106" t="s">
-        <v>204</v>
+        <v>311</v>
       </c>
       <c r="D106" s="5">
-        <v>0.97</v>
+        <v>0.92</v>
+      </c>
+      <c r="J106">
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>212</v>
+        <v>453</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>213</v>
+        <v>452</v>
       </c>
       <c r="C107" t="s">
-        <v>204</v>
+        <v>311</v>
       </c>
       <c r="D107" s="5">
-        <v>0.75</v>
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0.7</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>214</v>
+        <v>155</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>215</v>
+        <v>156</v>
       </c>
       <c r="C108" t="s">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="D108" s="5">
-        <v>0.92</v>
+        <v>0.97</v>
+      </c>
+      <c r="J108">
+        <v>0.74</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>216</v>
+        <v>54</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>217</v>
+        <v>55</v>
       </c>
       <c r="C109" t="s">
-        <v>204</v>
+        <v>4</v>
       </c>
       <c r="D109" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="J109">
-        <v>0.46</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>218</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>219</v>
+        <v>157</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="C110" t="s">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="D110" s="5">
         <v>0.94</v>
       </c>
+      <c r="J110">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>220</v>
+        <v>56</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>221</v>
+        <v>57</v>
       </c>
       <c r="C111" t="s">
-        <v>204</v>
+        <v>4</v>
       </c>
       <c r="D111" s="5">
-        <v>0.97</v>
+        <v>0.81</v>
+      </c>
+      <c r="J111">
+        <v>0.89</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>222</v>
+        <v>58</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>223</v>
+        <v>59</v>
       </c>
       <c r="C112" t="s">
-        <v>204</v>
+        <v>4</v>
       </c>
       <c r="D112" s="5">
-        <v>0.89</v>
+        <v>0.94</v>
       </c>
       <c r="J112">
-        <v>0.46</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>224</v>
+        <v>365</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>225</v>
+        <v>366</v>
       </c>
       <c r="C113" t="s">
-        <v>204</v>
+        <v>311</v>
       </c>
       <c r="D113" s="5">
-        <v>0.75</v>
+        <v>0.92</v>
+      </c>
+      <c r="J113">
+        <v>0.83</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>226</v>
+        <v>160</v>
       </c>
       <c r="C114" t="s">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="D114" s="5">
-        <v>0.78</v>
+        <v>0.69</v>
+      </c>
+      <c r="J114">
+        <v>0.89</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>227</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>228</v>
+        <v>161</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="C115" t="s">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="D115" s="5">
         <v>0.92</v>
       </c>
       <c r="J115">
-        <v>0.65</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>229</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>230</v>
+        <v>60</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C116" t="s">
-        <v>204</v>
+        <v>4</v>
       </c>
       <c r="D116" s="5">
-        <v>0.78</v>
+        <v>0.75</v>
+      </c>
+      <c r="J116">
+        <v>0.89</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>231</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>232</v>
+        <v>367</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>368</v>
       </c>
       <c r="C117" t="s">
-        <v>204</v>
+        <v>311</v>
       </c>
       <c r="D117" s="5">
-        <v>0.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>233</v>
+        <v>369</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>234</v>
+        <v>370</v>
       </c>
       <c r="C118" t="s">
-        <v>204</v>
+        <v>311</v>
       </c>
       <c r="D118" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="J118">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="C119" t="s">
         <v>204</v>
       </c>
       <c r="D119" s="5">
-        <v>0.94</v>
+        <v>0.72</v>
+      </c>
+      <c r="J119">
+        <v>0.65</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>237</v>
+        <v>62</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>238</v>
+        <v>63</v>
       </c>
       <c r="C120" t="s">
-        <v>204</v>
+        <v>4</v>
       </c>
       <c r="D120" s="5">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>239</v>
+        <v>371</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>240</v>
+        <v>372</v>
       </c>
       <c r="C121" t="s">
-        <v>204</v>
+        <v>311</v>
       </c>
       <c r="D121" s="5">
-        <v>0.94</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>241</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>242</v>
+        <v>261</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>262</v>
       </c>
       <c r="C122" t="s">
         <v>204</v>
       </c>
       <c r="D122" s="5">
-        <v>0.78</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>243</v>
+        <v>163</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>244</v>
+        <v>164</v>
       </c>
       <c r="C123" t="s">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="D123" s="5">
-        <v>0.86</v>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J123">
+        <v>0.65</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="C124" t="s">
         <v>204</v>
       </c>
       <c r="D124" s="5">
-        <v>1</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="C125" t="s">
         <v>204</v>
       </c>
       <c r="D125" s="5">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>249</v>
+        <v>373</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>250</v>
+        <v>374</v>
       </c>
       <c r="C126" t="s">
-        <v>204</v>
+        <v>311</v>
       </c>
       <c r="D126" s="5">
-        <v>0.94</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>251</v>
+        <v>64</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>252</v>
+        <v>65</v>
       </c>
       <c r="C127" t="s">
-        <v>204</v>
+        <v>4</v>
       </c>
       <c r="D127" s="5">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="C128" t="s">
         <v>204</v>
       </c>
       <c r="D128" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="J128">
-        <v>0.65</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>255</v>
+        <v>165</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>256</v>
+        <v>166</v>
       </c>
       <c r="C129" t="s">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="D129" s="5">
-        <v>0.78</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>257</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>258</v>
+        <v>167</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="C130" t="s">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="D130" s="5">
-        <v>0.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>259</v>
+        <v>375</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>260</v>
+        <v>376</v>
       </c>
       <c r="C131" t="s">
-        <v>204</v>
+        <v>311</v>
       </c>
       <c r="D131" s="5">
-        <v>0.72</v>
-      </c>
-      <c r="J131">
-        <v>0.65</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>261</v>
+        <v>375</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>262</v>
+        <v>377</v>
       </c>
       <c r="C132" t="s">
-        <v>204</v>
+        <v>311</v>
       </c>
       <c r="D132" s="5">
-        <v>0.92</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>263</v>
+        <v>169</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>264</v>
+        <v>170</v>
       </c>
       <c r="C133" t="s">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="D133" s="5">
-        <v>0.94</v>
+        <v>0.92</v>
+      </c>
+      <c r="J133">
+        <v>0.83</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>265</v>
+        <v>66</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>266</v>
+        <v>67</v>
       </c>
       <c r="C134" t="s">
-        <v>204</v>
+        <v>4</v>
       </c>
       <c r="D134" s="5">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>267</v>
+        <v>378</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>268</v>
+        <v>379</v>
       </c>
       <c r="C135" t="s">
-        <v>204</v>
+        <v>311</v>
       </c>
       <c r="D135" s="5">
         <v>0.92</v>
@@ -3914,305 +3899,311 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>70</v>
+        <v>171</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="C136" t="s">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="D136" s="5">
-        <v>0.81</v>
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>0.74</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>270</v>
+        <v>380</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>271</v>
+        <v>381</v>
       </c>
       <c r="C137" t="s">
-        <v>204</v>
+        <v>311</v>
       </c>
       <c r="D137" s="5">
-        <v>0.94</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>272</v>
+        <v>68</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>273</v>
+        <v>69</v>
       </c>
       <c r="C138" t="s">
-        <v>204</v>
+        <v>4</v>
       </c>
       <c r="D138" s="5">
-        <v>0.83</v>
-      </c>
-      <c r="J138">
-        <v>0.65</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>274</v>
+        <v>68</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>275</v>
+        <v>173</v>
       </c>
       <c r="C139" t="s">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="D139" s="5">
-        <v>0.83</v>
+        <v>0.94</v>
+      </c>
+      <c r="J139">
+        <v>0.65</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>276</v>
+        <v>382</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>277</v>
+        <v>383</v>
       </c>
       <c r="C140" t="s">
-        <v>204</v>
+        <v>311</v>
       </c>
       <c r="D140" s="5">
-        <v>0.94</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>278</v>
+        <v>70</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>279</v>
+        <v>71</v>
       </c>
       <c r="C141" t="s">
-        <v>204</v>
+        <v>4</v>
       </c>
       <c r="D141" s="5">
-        <v>0.92</v>
-      </c>
-      <c r="J141">
-        <v>0.72</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>280</v>
+        <v>70</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>281</v>
+        <v>72</v>
       </c>
       <c r="C142" t="s">
-        <v>204</v>
+        <v>4</v>
       </c>
       <c r="D142" s="5">
-        <v>0.94</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>282</v>
+        <v>70</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="C143" t="s">
         <v>204</v>
       </c>
       <c r="D143" s="5">
-        <v>0.94</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>284</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>285</v>
+        <v>384</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>385</v>
       </c>
       <c r="C144" t="s">
-        <v>204</v>
+        <v>311</v>
       </c>
       <c r="D144" s="5">
-        <v>0.94</v>
+        <v>0.89</v>
+      </c>
+      <c r="J144">
+        <v>0.83</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="C145" t="s">
         <v>204</v>
       </c>
       <c r="D145" s="5">
-        <v>0.92</v>
-      </c>
-      <c r="J145">
-        <v>0.46</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>288</v>
+        <v>386</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>289</v>
+        <v>387</v>
       </c>
       <c r="C146" t="s">
-        <v>204</v>
+        <v>311</v>
       </c>
       <c r="D146" s="5">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>290</v>
+        <v>73</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>291</v>
+        <v>74</v>
       </c>
       <c r="C147" t="s">
-        <v>204</v>
+        <v>4</v>
       </c>
       <c r="D147" s="5">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="J147">
-        <v>0.46</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>292</v>
+        <v>174</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>293</v>
+        <v>175</v>
       </c>
       <c r="C148" t="s">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="D148" s="5">
-        <v>0.97</v>
-      </c>
-      <c r="J148">
-        <v>0.46</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="C149" t="s">
         <v>204</v>
       </c>
       <c r="D149" s="5">
-        <v>0.94</v>
+        <v>0.83</v>
+      </c>
+      <c r="J149">
+        <v>0.65</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>296</v>
+        <v>388</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>297</v>
+        <v>389</v>
       </c>
       <c r="C150" t="s">
-        <v>204</v>
+        <v>311</v>
       </c>
       <c r="D150" s="5">
-        <v>0.89</v>
+        <v>0.78</v>
+      </c>
+      <c r="J150">
+        <v>0.72</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>298</v>
+        <v>75</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>299</v>
+        <v>76</v>
       </c>
       <c r="C151" t="s">
-        <v>204</v>
+        <v>4</v>
       </c>
       <c r="D151" s="5">
-        <v>1</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>300</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>301</v>
+        <v>390</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>391</v>
       </c>
       <c r="C152" t="s">
-        <v>204</v>
+        <v>311</v>
       </c>
       <c r="D152" s="5">
-        <v>1</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>302</v>
+        <v>176</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>303</v>
+        <v>177</v>
       </c>
       <c r="C153" t="s">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="D153" s="5">
-        <v>0.89</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>304</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>305</v>
+        <v>77</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="C154" t="s">
-        <v>204</v>
+        <v>4</v>
       </c>
       <c r="D154" s="5">
-        <v>1</v>
+        <v>0.97</v>
+      </c>
+      <c r="J154">
+        <v>0.81</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>306</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>307</v>
+        <v>79</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="C155" t="s">
-        <v>204</v>
+        <v>4</v>
       </c>
       <c r="D155" s="5">
-        <v>0.94</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>308</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>309</v>
+        <v>274</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="C156" t="s">
         <v>204</v>
@@ -4223,61 +4214,61 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>310</v>
+        <v>392</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>312</v>
+        <v>393</v>
       </c>
       <c r="C157" t="s">
         <v>311</v>
       </c>
       <c r="D157" s="5">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>313</v>
+        <v>178</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>314</v>
+        <v>179</v>
       </c>
       <c r="C158" t="s">
-        <v>311</v>
+        <v>106</v>
       </c>
       <c r="D158" s="5">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="J158">
-        <v>0.72</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>315</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>316</v>
+        <v>276</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="C159" t="s">
-        <v>311</v>
+        <v>204</v>
       </c>
       <c r="D159" s="5">
-        <v>0.92</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>317</v>
+        <v>394</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>318</v>
+        <v>395</v>
       </c>
       <c r="C160" t="s">
         <v>311</v>
       </c>
       <c r="D160" s="5">
-        <v>0.92</v>
+        <v>0.81</v>
       </c>
       <c r="J160">
         <v>0.7</v>
@@ -4285,38 +4276,41 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>319</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>320</v>
+        <v>396</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>397</v>
       </c>
       <c r="C161" t="s">
         <v>311</v>
       </c>
       <c r="D161" s="5">
-        <v>0.81</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="C162" t="s">
-        <v>311</v>
+        <v>204</v>
       </c>
       <c r="D162" s="5">
-        <v>0.89</v>
+        <v>0.92</v>
+      </c>
+      <c r="J162">
+        <v>0.72</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>323</v>
+        <v>398</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>324</v>
+        <v>399</v>
       </c>
       <c r="C163" t="s">
         <v>311</v>
@@ -4327,10 +4321,10 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>325</v>
+        <v>400</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>326</v>
+        <v>401</v>
       </c>
       <c r="C164" t="s">
         <v>311</v>
@@ -4341,72 +4335,75 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>327</v>
+        <v>280</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>328</v>
+        <v>281</v>
       </c>
       <c r="C165" t="s">
-        <v>311</v>
+        <v>204</v>
       </c>
       <c r="D165" s="5">
-        <v>0.86</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>329</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>330</v>
+        <v>282</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="C166" t="s">
-        <v>311</v>
+        <v>204</v>
       </c>
       <c r="D166" s="5">
-        <v>0.89</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>331</v>
+        <v>402</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>332</v>
+        <v>403</v>
       </c>
       <c r="C167" t="s">
         <v>311</v>
       </c>
       <c r="D167" s="5">
-        <v>0.89</v>
+        <v>0.86</v>
+      </c>
+      <c r="J167">
+        <v>0.83</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>333</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>334</v>
+        <v>81</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="C168" t="s">
-        <v>311</v>
+        <v>4</v>
       </c>
       <c r="D168" s="5">
-        <v>0.56000000000000005</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>335</v>
+        <v>404</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>336</v>
+        <v>405</v>
       </c>
       <c r="C169" t="s">
         <v>311</v>
       </c>
       <c r="D169" s="5">
-        <v>0.83</v>
+        <v>0.94</v>
       </c>
       <c r="J169">
         <v>0.72</v>
@@ -4414,165 +4411,159 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>337</v>
+        <v>284</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>338</v>
+        <v>285</v>
       </c>
       <c r="C170" t="s">
-        <v>311</v>
+        <v>204</v>
       </c>
       <c r="D170" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="J170">
-        <v>0.56000000000000005</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>339</v>
+        <v>286</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>340</v>
+        <v>287</v>
       </c>
       <c r="C171" t="s">
-        <v>311</v>
+        <v>204</v>
       </c>
       <c r="D171" s="5">
         <v>0.92</v>
       </c>
+      <c r="J171">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>341</v>
+        <v>288</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>342</v>
+        <v>289</v>
       </c>
       <c r="C172" t="s">
-        <v>311</v>
+        <v>204</v>
       </c>
       <c r="D172" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="J172">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>343</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>344</v>
+        <v>406</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>407</v>
       </c>
       <c r="C173" t="s">
         <v>311</v>
       </c>
       <c r="D173" s="5">
-        <v>0</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>345</v>
+        <v>180</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>346</v>
+        <v>181</v>
       </c>
       <c r="C174" t="s">
-        <v>311</v>
+        <v>106</v>
       </c>
       <c r="D174" s="5">
-        <v>1</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>347</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>348</v>
+        <v>290</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="C175" t="s">
-        <v>311</v>
+        <v>204</v>
       </c>
       <c r="D175" s="5">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="J175">
-        <v>0.56000000000000005</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>349</v>
+        <v>408</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>350</v>
+        <v>409</v>
       </c>
       <c r="C176" t="s">
         <v>311</v>
       </c>
       <c r="D176" s="5">
-        <v>0.94</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>351</v>
+        <v>410</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>352</v>
+        <v>411</v>
       </c>
       <c r="C177" t="s">
         <v>311</v>
       </c>
       <c r="D177" s="5">
-        <v>0.97</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>353</v>
+        <v>412</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>354</v>
+        <v>413</v>
       </c>
       <c r="C178" t="s">
         <v>311</v>
       </c>
       <c r="D178" s="5">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>355</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>356</v>
+        <v>414</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>415</v>
       </c>
       <c r="C179" t="s">
         <v>311</v>
       </c>
       <c r="D179" s="5">
-        <v>0.92</v>
-      </c>
-      <c r="J179">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>357</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>358</v>
+        <v>83</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="C180" t="s">
-        <v>311</v>
+        <v>4</v>
       </c>
       <c r="D180" s="5">
         <v>0.94</v>
@@ -4580,173 +4571,170 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>359</v>
+        <v>292</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>360</v>
+        <v>293</v>
       </c>
       <c r="C181" t="s">
-        <v>311</v>
+        <v>204</v>
       </c>
       <c r="D181" s="5">
-        <v>0.94</v>
+        <v>0.97</v>
+      </c>
+      <c r="J181">
+        <v>0.46</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>361</v>
+        <v>416</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>362</v>
+        <v>417</v>
       </c>
       <c r="C182" t="s">
         <v>311</v>
       </c>
       <c r="D182" s="5">
-        <v>1</v>
-      </c>
-      <c r="J182">
-        <v>0.72</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>363</v>
+        <v>85</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>364</v>
+        <v>86</v>
       </c>
       <c r="C183" t="s">
-        <v>311</v>
+        <v>4</v>
       </c>
       <c r="D183" s="5">
         <v>0.92</v>
       </c>
-      <c r="J183">
-        <v>0.56000000000000005</v>
-      </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>365</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>366</v>
+        <v>87</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="C184" t="s">
-        <v>311</v>
+        <v>4</v>
       </c>
       <c r="D184" s="5">
-        <v>0.92</v>
-      </c>
-      <c r="J184">
-        <v>0.83</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>367</v>
-      </c>
-      <c r="B185" s="4" t="s">
-        <v>368</v>
+        <v>418</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>419</v>
       </c>
       <c r="C185" t="s">
         <v>311</v>
       </c>
       <c r="D185" s="5">
-        <v>0</v>
+        <v>0.97</v>
+      </c>
+      <c r="J185">
+        <v>0.83</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>369</v>
+        <v>420</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>370</v>
+        <v>421</v>
       </c>
       <c r="C186" t="s">
         <v>311</v>
       </c>
       <c r="D186" s="5">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>371</v>
+        <v>89</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>372</v>
+        <v>90</v>
       </c>
       <c r="C187" t="s">
-        <v>311</v>
+        <v>4</v>
       </c>
       <c r="D187" s="5">
-        <v>0.69</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>373</v>
+        <v>294</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>374</v>
+        <v>295</v>
       </c>
       <c r="C188" t="s">
-        <v>311</v>
+        <v>204</v>
       </c>
       <c r="D188" s="5">
-        <v>0.86</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>375</v>
+        <v>182</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>376</v>
+        <v>183</v>
       </c>
       <c r="C189" t="s">
-        <v>311</v>
+        <v>106</v>
       </c>
       <c r="D189" s="5">
-        <v>0.97</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>375</v>
+        <v>91</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>377</v>
+        <v>92</v>
       </c>
       <c r="C190" t="s">
-        <v>311</v>
+        <v>4</v>
       </c>
       <c r="D190" s="5">
-        <v>0.69</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>378</v>
+        <v>296</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>379</v>
+        <v>297</v>
       </c>
       <c r="C191" t="s">
-        <v>311</v>
+        <v>204</v>
       </c>
       <c r="D191" s="5">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="C192" t="s">
         <v>311</v>
@@ -4757,148 +4745,154 @@
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="C193" t="s">
         <v>311</v>
       </c>
       <c r="D193" s="5">
-        <v>0.81</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>384</v>
+        <v>184</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>385</v>
+        <v>185</v>
       </c>
       <c r="C194" t="s">
-        <v>311</v>
+        <v>106</v>
       </c>
       <c r="D194" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="J194">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>386</v>
+        <v>426</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>387</v>
+        <v>427</v>
       </c>
       <c r="C195" t="s">
         <v>311</v>
       </c>
       <c r="D195" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="J195">
         <v>0.83</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>388</v>
+        <v>428</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>389</v>
+        <v>429</v>
       </c>
       <c r="C196" t="s">
         <v>311</v>
       </c>
       <c r="D196" s="5">
-        <v>0.78</v>
-      </c>
-      <c r="J196">
-        <v>0.72</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>390</v>
+        <v>298</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>391</v>
+        <v>299</v>
       </c>
       <c r="C197" t="s">
-        <v>311</v>
+        <v>204</v>
       </c>
       <c r="D197" s="5">
-        <v>0.78</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>392</v>
+        <v>93</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>393</v>
+        <v>94</v>
       </c>
       <c r="C198" t="s">
-        <v>311</v>
+        <v>4</v>
       </c>
       <c r="D198" s="5">
-        <v>0.97</v>
+        <v>0.86</v>
+      </c>
+      <c r="J198">
+        <v>0.81</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>394</v>
+        <v>186</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>395</v>
+        <v>187</v>
       </c>
       <c r="C199" t="s">
-        <v>311</v>
+        <v>106</v>
       </c>
       <c r="D199" s="5">
-        <v>0.81</v>
+        <v>0.75</v>
       </c>
       <c r="J199">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>396</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>397</v>
+        <v>188</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="C200" t="s">
-        <v>311</v>
+        <v>106</v>
       </c>
       <c r="D200" s="5">
-        <v>0.86</v>
+        <v>0.75</v>
+      </c>
+      <c r="J200">
+        <v>0.74</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>398</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>399</v>
+        <v>190</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="C201" t="s">
-        <v>311</v>
+        <v>106</v>
       </c>
       <c r="D201" s="5">
-        <v>0.97</v>
+        <v>0.89</v>
+      </c>
+      <c r="J201">
+        <v>0.83</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>400</v>
+        <v>95</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>401</v>
+        <v>96</v>
       </c>
       <c r="C202" t="s">
-        <v>311</v>
+        <v>4</v>
       </c>
       <c r="D202" s="5">
         <v>0.92</v>
@@ -4906,16 +4900,16 @@
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>402</v>
+        <v>192</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>403</v>
+        <v>193</v>
       </c>
       <c r="C203" t="s">
-        <v>311</v>
+        <v>106</v>
       </c>
       <c r="D203" s="5">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
       <c r="J203">
         <v>0.83</v>
@@ -4923,156 +4917,165 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>404</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>405</v>
+        <v>192</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="C204" t="s">
-        <v>311</v>
+        <v>106</v>
       </c>
       <c r="D204" s="5">
-        <v>0.94</v>
+        <v>0.89</v>
       </c>
       <c r="J204">
-        <v>0.72</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>406</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>407</v>
+        <v>300</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>301</v>
       </c>
       <c r="C205" t="s">
-        <v>311</v>
+        <v>204</v>
       </c>
       <c r="D205" s="5">
-        <v>0.97</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>408</v>
+        <v>195</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>409</v>
+        <v>196</v>
       </c>
       <c r="C206" t="s">
-        <v>311</v>
+        <v>106</v>
       </c>
       <c r="D206" s="5">
-        <v>0.72</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>410</v>
+        <v>302</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>411</v>
+        <v>303</v>
       </c>
       <c r="C207" t="s">
-        <v>311</v>
+        <v>204</v>
       </c>
       <c r="D207" s="5">
-        <v>0.94</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="C208" t="s">
         <v>311</v>
       </c>
       <c r="D208" s="5">
-        <v>0.67</v>
+        <v>0.94</v>
+      </c>
+      <c r="J208">
+        <v>0.7</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>414</v>
-      </c>
-      <c r="B209" s="3" t="s">
-        <v>415</v>
+        <v>432</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>433</v>
       </c>
       <c r="C209" t="s">
         <v>311</v>
       </c>
       <c r="D209" s="5">
-        <v>0.72</v>
+        <v>0.89</v>
+      </c>
+      <c r="J209">
+        <v>0.7</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>416</v>
+        <v>97</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>417</v>
+        <v>98</v>
       </c>
       <c r="C210" t="s">
-        <v>311</v>
+        <v>4</v>
       </c>
       <c r="D210" s="5">
-        <v>0.83</v>
+        <v>0.97</v>
+      </c>
+      <c r="J210">
+        <v>0.91</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>418</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>419</v>
+        <v>304</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="C211" t="s">
-        <v>311</v>
+        <v>204</v>
       </c>
       <c r="D211" s="5">
-        <v>0.97</v>
-      </c>
-      <c r="J211">
-        <v>0.83</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>420</v>
+        <v>197</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>421</v>
+        <v>198</v>
       </c>
       <c r="C212" t="s">
-        <v>311</v>
+        <v>106</v>
       </c>
       <c r="D212" s="5">
-        <v>0.92</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>422</v>
+        <v>199</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>423</v>
+        <v>200</v>
       </c>
       <c r="C213" t="s">
-        <v>311</v>
+        <v>106</v>
       </c>
       <c r="D213" s="5">
-        <v>0.97</v>
+        <v>0.94</v>
+      </c>
+      <c r="J213">
+        <v>0.85</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="C214" t="s">
         <v>311</v>
@@ -5083,44 +5086,44 @@
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>426</v>
+        <v>99</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>427</v>
+        <v>100</v>
       </c>
       <c r="C215" t="s">
-        <v>311</v>
+        <v>4</v>
       </c>
       <c r="D215" s="5">
-        <v>0.89</v>
+        <v>0.94</v>
       </c>
       <c r="J215">
-        <v>0.83</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>428</v>
+        <v>101</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>429</v>
+        <v>102</v>
       </c>
       <c r="C216" t="s">
-        <v>311</v>
+        <v>4</v>
       </c>
       <c r="D216" s="5">
-        <v>0.89</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>430</v>
+        <v>306</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>431</v>
+        <v>307</v>
       </c>
       <c r="C217" t="s">
-        <v>311</v>
+        <v>204</v>
       </c>
       <c r="D217" s="5">
         <v>0.94</v>
@@ -5128,72 +5131,72 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>432</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>433</v>
+        <v>308</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>309</v>
       </c>
       <c r="C218" t="s">
-        <v>311</v>
+        <v>204</v>
       </c>
       <c r="D218" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="J218">
-        <v>0.7</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>434</v>
+        <v>201</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>435</v>
+        <v>202</v>
       </c>
       <c r="C219" t="s">
-        <v>311</v>
+        <v>106</v>
       </c>
       <c r="D219" s="5">
-        <v>0.86</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>436</v>
+        <v>103</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>437</v>
+        <v>104</v>
       </c>
       <c r="C220" t="s">
-        <v>311</v>
+        <v>4</v>
       </c>
       <c r="D220" s="5">
-        <v>0.83</v>
+        <v>0.81</v>
       </c>
       <c r="J220">
-        <v>0.56000000000000005</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>438</v>
-      </c>
-      <c r="B221" s="3" t="s">
-        <v>439</v>
+        <v>436</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>437</v>
       </c>
       <c r="C221" t="s">
         <v>311</v>
       </c>
       <c r="D221" s="5">
-        <v>0.86</v>
+        <v>0.83</v>
+      </c>
+      <c r="J221">
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C222" t="s">
         <v>311</v>
@@ -5201,25 +5204,22 @@
       <c r="D222" s="5">
         <v>0.86</v>
       </c>
-      <c r="J222">
-        <v>0.56000000000000005</v>
-      </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>453</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>452</v>
+        <v>440</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>441</v>
       </c>
       <c r="C223" t="s">
-        <v>454</v>
+        <v>311</v>
       </c>
       <c r="D223" s="5">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="J223">
-        <v>0.7</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
   </sheetData>

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4AD4B1-BA09-6149-8C8A-53A225BD3C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B5091B-ED95-DE40-BBCE-0163A9AD3208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="1360" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
+    <workbookView xWindow="2540" yWindow="1360" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -632,9 +632,6 @@
     <t>Tsikire</t>
   </si>
   <si>
-    <t>H250473</t>
-  </si>
-  <si>
     <t>Tsopotsa</t>
   </si>
   <si>
@@ -1398,6 +1395,9 @@
   </si>
   <si>
     <t>Masara</t>
+  </si>
+  <si>
+    <t>H250473N</t>
   </si>
 </sst>
 </file>
@@ -1508,7 +1508,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16CEB027-FB46-1A44-BA46-BD4AD30C864F}" name="Table1" displayName="Table1" ref="A1:M223" totalsRowShown="0">
   <autoFilter ref="A1:M223" xr:uid="{16CEB027-FB46-1A44-BA46-BD4AD30C864F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M223">
-    <sortCondition ref="A1:A223"/>
+    <sortCondition ref="C1:C223"/>
   </sortState>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{1B9A59CC-67BA-3D4E-8BF2-E846FAA4CCF7}" name="Surname"/>
@@ -1848,8 +1848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="B208" sqref="B208"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="J101" sqref="J101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1862,34 +1862,34 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E1" t="s">
+        <v>444</v>
+      </c>
+      <c r="F1" t="s">
+        <v>445</v>
+      </c>
+      <c r="G1" t="s">
+        <v>446</v>
+      </c>
+      <c r="H1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I1" t="s">
+        <v>448</v>
+      </c>
+      <c r="J1" t="s">
         <v>442</v>
       </c>
-      <c r="D1" t="s">
-        <v>444</v>
-      </c>
-      <c r="E1" t="s">
-        <v>445</v>
-      </c>
-      <c r="F1" t="s">
-        <v>446</v>
-      </c>
-      <c r="G1" t="s">
-        <v>447</v>
-      </c>
-      <c r="H1" t="s">
-        <v>448</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>449</v>
       </c>
-      <c r="J1" t="s">
-        <v>443</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>450</v>
-      </c>
-      <c r="L1" t="s">
-        <v>451</v>
       </c>
       <c r="M1" t="s">
         <v>2</v>
@@ -1897,30 +1897,27 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>205</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>204</v>
+        <v>4</v>
       </c>
       <c r="D2" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="J2">
-        <v>0.46</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>207</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>204</v>
+        <v>4</v>
       </c>
       <c r="D3" s="5">
         <v>0.94</v>
@@ -1928,170 +1925,173 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>310</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>312</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>311</v>
+        <v>4</v>
       </c>
       <c r="D4" s="5">
-        <v>0.86</v>
+        <v>0.75</v>
+      </c>
+      <c r="J4">
+        <v>0.91</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="5">
-        <v>0.94</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>209</v>
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>204</v>
+        <v>4</v>
       </c>
       <c r="D6" s="5">
-        <v>0.75</v>
+        <v>0.86</v>
+      </c>
+      <c r="J6">
+        <v>0.91</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>314</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>311</v>
+        <v>4</v>
       </c>
       <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>0.72</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>315</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>316</v>
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>311</v>
+        <v>4</v>
       </c>
       <c r="D8" s="5">
-        <v>0.92</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>210</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>211</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>204</v>
+        <v>4</v>
       </c>
       <c r="D9" s="5">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="D10" s="5">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="D11" s="5">
-        <v>0.89</v>
+        <v>0.94</v>
+      </c>
+      <c r="J11">
+        <v>0.91</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>317</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>318</v>
+        <v>24</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>311</v>
+        <v>4</v>
       </c>
       <c r="D12" s="5">
-        <v>0.92</v>
-      </c>
-      <c r="J12">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>319</v>
+        <v>26</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>320</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>311</v>
+        <v>4</v>
       </c>
       <c r="D13" s="5">
-        <v>0.81</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>7</v>
+        <v>28</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="5">
-        <v>0.94</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -2099,1799 +2099,1835 @@
       <c r="D15" s="5">
         <v>0.75</v>
       </c>
-      <c r="J15">
-        <v>0.91</v>
-      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>321</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>322</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>311</v>
+        <v>4</v>
       </c>
       <c r="D16" s="5">
-        <v>0.89</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>323</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>324</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>311</v>
+        <v>4</v>
       </c>
       <c r="D17" s="5">
-        <v>0.97</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>110</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>111</v>
+        <v>36</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="D18" s="5">
         <v>0.94</v>
       </c>
-      <c r="J18">
-        <v>0.85</v>
-      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="5">
-        <v>0.67</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>212</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>213</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>204</v>
+        <v>4</v>
       </c>
       <c r="D20" s="5">
-        <v>0.75</v>
+        <v>0.89</v>
+      </c>
+      <c r="J20">
+        <v>0.91</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>214</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>215</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>204</v>
+        <v>4</v>
       </c>
       <c r="D21" s="5">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>216</v>
+        <v>44</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>217</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>204</v>
+        <v>4</v>
       </c>
       <c r="D22" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="J22">
-        <v>0.46</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="D23" s="5">
-        <v>0.94</v>
+        <v>0.83</v>
+      </c>
+      <c r="J23">
+        <v>0.81</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>325</v>
+        <v>48</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>326</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>311</v>
+        <v>4</v>
       </c>
       <c r="D24" s="5">
-        <v>0.92</v>
+        <v>0.94</v>
+      </c>
+      <c r="J24">
+        <v>0.91</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>327</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>328</v>
+        <v>50</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>311</v>
+        <v>4</v>
       </c>
       <c r="D25" s="5">
-        <v>0.86</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>329</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>330</v>
+        <v>52</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>311</v>
+        <v>4</v>
       </c>
       <c r="D26" s="5">
-        <v>0.89</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>218</v>
+        <v>54</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>219</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>204</v>
+        <v>4</v>
       </c>
       <c r="D27" s="5">
-        <v>0.94</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>220</v>
+        <v>56</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>221</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>204</v>
+        <v>4</v>
       </c>
       <c r="D28" s="5">
-        <v>0.97</v>
+        <v>0.81</v>
+      </c>
+      <c r="J28">
+        <v>0.89</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>222</v>
+        <v>58</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>223</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>204</v>
+        <v>4</v>
       </c>
       <c r="D29" s="5">
-        <v>0.89</v>
+        <v>0.94</v>
       </c>
       <c r="J29">
-        <v>0.46</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>224</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>225</v>
+        <v>60</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>204</v>
+        <v>4</v>
       </c>
       <c r="D30" s="5">
         <v>0.75</v>
       </c>
+      <c r="J30">
+        <v>0.89</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="D31" s="5">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>226</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>204</v>
+        <v>4</v>
       </c>
       <c r="D32" s="5">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>227</v>
+        <v>66</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>228</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
-        <v>204</v>
+        <v>4</v>
       </c>
       <c r="D33" s="5">
-        <v>0.92</v>
-      </c>
-      <c r="J33">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>229</v>
+        <v>68</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>230</v>
+        <v>69</v>
       </c>
       <c r="C34" t="s">
-        <v>204</v>
+        <v>4</v>
       </c>
       <c r="D34" s="5">
-        <v>0.78</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" s="5">
-        <v>0.86</v>
-      </c>
-      <c r="J35">
-        <v>0.91</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>116</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>117</v>
+        <v>70</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="D36" s="5">
-        <v>0.94</v>
+        <v>0.69</v>
+      </c>
+      <c r="J36">
+        <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="D37" s="5">
         <v>0.92</v>
       </c>
+      <c r="J37">
+        <v>0.81</v>
+      </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>331</v>
+        <v>75</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
       <c r="C38" t="s">
-        <v>311</v>
+        <v>4</v>
       </c>
       <c r="D38" s="5">
-        <v>0.89</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="D39" s="5">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="J39">
-        <v>0.85</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>122</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>123</v>
+        <v>79</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="D40" s="5">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>333</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>334</v>
+        <v>81</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="C41" t="s">
-        <v>311</v>
+        <v>4</v>
       </c>
       <c r="D41" s="5">
-        <v>0.56000000000000005</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>15</v>
+        <v>83</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="C42" t="s">
         <v>4</v>
       </c>
       <c r="D42" s="5">
-        <v>0.92</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="C43" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="D43" s="5">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>16</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>17</v>
+        <v>87</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="C44" t="s">
         <v>4</v>
       </c>
       <c r="D44" s="5">
-        <v>0.78</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="C45" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="D45" s="5">
-        <v>0.86</v>
-      </c>
-      <c r="J45">
-        <v>0.85</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>128</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>129</v>
+        <v>91</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="C46" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="D46" s="5">
-        <v>0</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="C47" t="s">
         <v>4</v>
       </c>
       <c r="D47" s="5">
-        <v>0.92</v>
+        <v>0.86</v>
+      </c>
+      <c r="J47">
+        <v>0.81</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="C48" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="D48" s="5">
-        <v>0.81</v>
+        <v>0.92</v>
       </c>
       <c r="J48">
-        <v>0.74</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="C49" t="s">
         <v>4</v>
       </c>
       <c r="D49" s="5">
-        <v>0.89</v>
+        <v>0.97</v>
+      </c>
+      <c r="J49">
+        <v>0.91</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="C50" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="D50" s="5">
-        <v>0.61</v>
+        <v>0.94</v>
+      </c>
+      <c r="J50">
+        <v>0.81</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="C51" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="D51" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="J51">
-        <v>0.74</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>335</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>336</v>
+        <v>104</v>
       </c>
       <c r="C52" t="s">
-        <v>311</v>
+        <v>4</v>
       </c>
       <c r="D52" s="5">
-        <v>0.83</v>
+        <v>0.81</v>
       </c>
       <c r="J52">
-        <v>0.72</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="C53" t="s">
         <v>106</v>
       </c>
       <c r="D53" s="5">
-        <v>0.53</v>
+        <v>0.97</v>
+      </c>
+      <c r="J53">
+        <v>0.76</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>137</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>138</v>
+        <v>108</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="C54" t="s">
         <v>106</v>
       </c>
       <c r="D54" s="5">
-        <v>0.72</v>
-      </c>
-      <c r="J54">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>231</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>232</v>
+        <v>110</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="C55" t="s">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="D55" s="5">
         <v>0.94</v>
       </c>
+      <c r="J55">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>337</v>
+        <v>112</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>338</v>
+        <v>113</v>
       </c>
       <c r="C56" t="s">
-        <v>311</v>
+        <v>106</v>
       </c>
       <c r="D56" s="5">
-        <v>0.89</v>
+        <v>0.94</v>
       </c>
       <c r="J56">
-        <v>0.56000000000000005</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>233</v>
+        <v>114</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>234</v>
+        <v>115</v>
       </c>
       <c r="C57" t="s">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="D57" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="J57">
-        <v>0.65</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>339</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>340</v>
+        <v>116</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="C58" t="s">
-        <v>311</v>
+        <v>106</v>
       </c>
       <c r="D58" s="5">
-        <v>0.92</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="C59" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="D59" s="5">
-        <v>0.94</v>
-      </c>
-      <c r="J59">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>341</v>
+        <v>120</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>342</v>
+        <v>121</v>
       </c>
       <c r="C60" t="s">
-        <v>311</v>
+        <v>106</v>
       </c>
       <c r="D60" s="5">
         <v>0.89</v>
       </c>
       <c r="J60">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>24</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>25</v>
+        <v>122</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="C61" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="D61" s="5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>235</v>
+        <v>124</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>236</v>
+        <v>125</v>
       </c>
       <c r="C62" t="s">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="D62" s="5">
-        <v>0.94</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>237</v>
+        <v>126</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>238</v>
+        <v>127</v>
       </c>
       <c r="C63" t="s">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="D63" s="5">
-        <v>0.92</v>
+        <v>0.86</v>
+      </c>
+      <c r="J63">
+        <v>0.85</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>26</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>27</v>
+        <v>128</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="C64" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="D64" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C65" t="s">
         <v>106</v>
       </c>
       <c r="D65" s="5">
-        <v>1</v>
+        <v>0.81</v>
+      </c>
+      <c r="J65">
+        <v>0.74</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>343</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>344</v>
+        <v>132</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="C66" t="s">
-        <v>311</v>
+        <v>106</v>
       </c>
       <c r="D66" s="5">
-        <v>0</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C67" t="s">
         <v>106</v>
       </c>
       <c r="D67" s="5">
-        <v>0.94</v>
+        <v>0.89</v>
+      </c>
+      <c r="J67">
+        <v>0.74</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>239</v>
+        <v>135</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>240</v>
+        <v>136</v>
       </c>
       <c r="C68" t="s">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="D68" s="5">
-        <v>0.94</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="C69" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="D69" s="5">
-        <v>0.75</v>
+        <v>0.72</v>
+      </c>
+      <c r="J69">
+        <v>0.83</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>30</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>31</v>
+        <v>139</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="C70" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="D70" s="5">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="C71" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="D71" s="5">
-        <v>0.72</v>
+        <v>0.94</v>
+      </c>
+      <c r="J71">
+        <v>0.76</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>241</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>242</v>
+        <v>143</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="C72" t="s">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="D72" s="5">
-        <v>0.78</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>243</v>
+        <v>145</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>244</v>
+        <v>146</v>
       </c>
       <c r="C73" t="s">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="D73" s="5">
-        <v>0.86</v>
+        <v>0.72</v>
+      </c>
+      <c r="J73">
+        <v>0.65</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>345</v>
+        <v>147</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>346</v>
+        <v>148</v>
       </c>
       <c r="C74" t="s">
-        <v>311</v>
+        <v>106</v>
       </c>
       <c r="D74" s="5">
-        <v>1</v>
+        <v>0.94</v>
+      </c>
+      <c r="J74">
+        <v>0.85</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>245</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>246</v>
+        <v>149</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="C75" t="s">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="D75" s="5">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0.74</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>347</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>348</v>
+        <v>151</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="C76" t="s">
-        <v>311</v>
+        <v>106</v>
       </c>
       <c r="D76" s="5">
-        <v>0.89</v>
+        <v>0.94</v>
       </c>
       <c r="J76">
-        <v>0.56000000000000005</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>247</v>
+        <v>153</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>248</v>
+        <v>154</v>
       </c>
       <c r="C77" t="s">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="D77" s="5">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>349</v>
+        <v>155</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>350</v>
+        <v>156</v>
       </c>
       <c r="C78" t="s">
-        <v>311</v>
+        <v>106</v>
       </c>
       <c r="D78" s="5">
-        <v>0.94</v>
+        <v>0.97</v>
+      </c>
+      <c r="J78">
+        <v>0.74</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>143</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>144</v>
+        <v>157</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="C79" t="s">
         <v>106</v>
       </c>
       <c r="D79" s="5">
-        <v>0.83</v>
+        <v>0.94</v>
+      </c>
+      <c r="J79">
+        <v>0.85</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="C80" t="s">
         <v>106</v>
       </c>
       <c r="D80" s="5">
-        <v>0.72</v>
+        <v>0.69</v>
       </c>
       <c r="J80">
-        <v>0.65</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>34</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>35</v>
+        <v>161</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="C81" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="D81" s="5">
-        <v>0.69</v>
+        <v>0.92</v>
+      </c>
+      <c r="J81">
+        <v>0.83</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>36</v>
+        <v>163</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>37</v>
+        <v>164</v>
       </c>
       <c r="C82" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="D82" s="5">
-        <v>0.94</v>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J82">
+        <v>0.65</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>38</v>
+        <v>165</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>39</v>
+        <v>166</v>
       </c>
       <c r="C83" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="D83" s="5">
-        <v>0.78</v>
+        <v>0.94</v>
+      </c>
+      <c r="J83">
+        <v>0.76</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>147</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>148</v>
+        <v>167</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="C84" t="s">
         <v>106</v>
       </c>
       <c r="D84" s="5">
-        <v>0.94</v>
-      </c>
-      <c r="J84">
-        <v>0.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>351</v>
+        <v>169</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>352</v>
+        <v>170</v>
       </c>
       <c r="C85" t="s">
-        <v>311</v>
+        <v>106</v>
       </c>
       <c r="D85" s="5">
-        <v>0.97</v>
+        <v>0.92</v>
+      </c>
+      <c r="J85">
+        <v>0.83</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>40</v>
+        <v>171</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>41</v>
+        <v>172</v>
       </c>
       <c r="C86" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="D86" s="5">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="J86">
-        <v>0.91</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>249</v>
+        <v>68</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>250</v>
+        <v>173</v>
       </c>
       <c r="C87" t="s">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="D87" s="5">
         <v>0.94</v>
       </c>
+      <c r="J87">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>43</v>
+        <v>175</v>
       </c>
       <c r="C88" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="D88" s="5">
-        <v>0.89</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>44</v>
+        <v>176</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>45</v>
+        <v>177</v>
       </c>
       <c r="C89" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="D89" s="5">
-        <v>0.97</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>149</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>150</v>
+        <v>178</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="C90" t="s">
         <v>106</v>
       </c>
       <c r="D90" s="5">
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="J90">
-        <v>0.74</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>353</v>
+        <v>180</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>354</v>
+        <v>181</v>
       </c>
       <c r="C91" t="s">
-        <v>311</v>
+        <v>106</v>
       </c>
       <c r="D91" s="5">
-        <v>0.92</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>46</v>
+        <v>182</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>47</v>
+        <v>183</v>
       </c>
       <c r="C92" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="D92" s="5">
-        <v>0.83</v>
-      </c>
-      <c r="J92">
-        <v>0.81</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>251</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>252</v>
+        <v>184</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="C93" t="s">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="D93" s="5">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>48</v>
+        <v>186</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="C94" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="D94" s="5">
-        <v>0.94</v>
+        <v>0.75</v>
       </c>
       <c r="J94">
-        <v>0.91</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>355</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>356</v>
+        <v>188</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="C95" t="s">
-        <v>311</v>
+        <v>106</v>
       </c>
       <c r="D95" s="5">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="J95">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>51</v>
+        <v>191</v>
       </c>
       <c r="C96" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="D96" s="5">
-        <v>0.78</v>
+        <v>0.89</v>
+      </c>
+      <c r="J96">
+        <v>0.83</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>152</v>
+        <v>193</v>
       </c>
       <c r="C97" t="s">
         <v>106</v>
       </c>
       <c r="D97" s="5">
-        <v>0.94</v>
+        <v>0.97</v>
+      </c>
+      <c r="J97">
+        <v>0.83</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>52</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>53</v>
+        <v>192</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="C98" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="D98" s="5">
-        <v>0.81</v>
+        <v>0.89</v>
+      </c>
+      <c r="J98">
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>357</v>
+        <v>195</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>358</v>
+        <v>196</v>
       </c>
       <c r="C99" t="s">
-        <v>311</v>
+        <v>106</v>
       </c>
       <c r="D99" s="5">
-        <v>0.94</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>359</v>
+        <v>197</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>360</v>
+        <v>453</v>
       </c>
       <c r="C100" t="s">
-        <v>311</v>
+        <v>106</v>
       </c>
       <c r="D100" s="5">
         <v>0.94</v>
       </c>
+      <c r="J100">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>253</v>
+        <v>198</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>254</v>
+        <v>199</v>
       </c>
       <c r="C101" t="s">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="D101" s="5">
-        <v>0.75</v>
+        <v>0.94</v>
       </c>
       <c r="J101">
-        <v>0.65</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>256</v>
+        <v>201</v>
       </c>
       <c r="C102" t="s">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="D102" s="5">
-        <v>0.78</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>257</v>
+        <v>202</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>258</v>
+        <v>204</v>
       </c>
       <c r="C103" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D103" s="5">
-        <v>0.83</v>
+        <v>0.89</v>
+      </c>
+      <c r="J103">
+        <v>0.46</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>153</v>
+        <v>205</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>154</v>
+        <v>206</v>
       </c>
       <c r="C104" t="s">
-        <v>106</v>
+        <v>203</v>
       </c>
       <c r="D104" s="5">
-        <v>0.97</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>361</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>362</v>
+        <v>207</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="C105" t="s">
-        <v>311</v>
+        <v>203</v>
       </c>
       <c r="D105" s="5">
-        <v>1</v>
-      </c>
-      <c r="J105">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>363</v>
+        <v>209</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>364</v>
+        <v>210</v>
       </c>
       <c r="C106" t="s">
-        <v>311</v>
+        <v>203</v>
       </c>
       <c r="D106" s="5">
-        <v>0.92</v>
-      </c>
-      <c r="J106">
-        <v>0.56000000000000005</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>453</v>
+        <v>211</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>452</v>
+        <v>212</v>
       </c>
       <c r="C107" t="s">
-        <v>311</v>
+        <v>203</v>
       </c>
       <c r="D107" s="5">
-        <v>0</v>
-      </c>
-      <c r="J107">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>156</v>
+        <v>214</v>
       </c>
       <c r="C108" t="s">
-        <v>106</v>
+        <v>203</v>
       </c>
       <c r="D108" s="5">
-        <v>0.97</v>
-      </c>
-      <c r="J108">
-        <v>0.74</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>54</v>
+        <v>215</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>55</v>
+        <v>216</v>
       </c>
       <c r="C109" t="s">
-        <v>4</v>
+        <v>203</v>
       </c>
       <c r="D109" s="5">
-        <v>0.97</v>
+        <v>0.89</v>
+      </c>
+      <c r="J109">
+        <v>0.46</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>157</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>158</v>
+        <v>217</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="C110" t="s">
-        <v>106</v>
+        <v>203</v>
       </c>
       <c r="D110" s="5">
         <v>0.94</v>
       </c>
-      <c r="J110">
-        <v>0.85</v>
-      </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>56</v>
+        <v>219</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>57</v>
+        <v>220</v>
       </c>
       <c r="C111" t="s">
-        <v>4</v>
+        <v>203</v>
       </c>
       <c r="D111" s="5">
-        <v>0.81</v>
-      </c>
-      <c r="J111">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>58</v>
+        <v>221</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>59</v>
+        <v>222</v>
       </c>
       <c r="C112" t="s">
-        <v>4</v>
+        <v>203</v>
       </c>
       <c r="D112" s="5">
-        <v>0.94</v>
+        <v>0.89</v>
       </c>
       <c r="J112">
-        <v>0.81</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>365</v>
+        <v>223</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>366</v>
+        <v>224</v>
       </c>
       <c r="C113" t="s">
-        <v>311</v>
+        <v>203</v>
       </c>
       <c r="D113" s="5">
-        <v>0.92</v>
-      </c>
-      <c r="J113">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>160</v>
+        <v>225</v>
       </c>
       <c r="C114" t="s">
-        <v>106</v>
+        <v>203</v>
       </c>
       <c r="D114" s="5">
-        <v>0.69</v>
-      </c>
-      <c r="J114">
-        <v>0.89</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>161</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>162</v>
+        <v>226</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="C115" t="s">
-        <v>106</v>
+        <v>203</v>
       </c>
       <c r="D115" s="5">
         <v>0.92</v>
       </c>
       <c r="J115">
-        <v>0.83</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>60</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>61</v>
+        <v>228</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="C116" t="s">
-        <v>4</v>
+        <v>203</v>
       </c>
       <c r="D116" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="J116">
-        <v>0.89</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>367</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>368</v>
+        <v>230</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="C117" t="s">
-        <v>311</v>
+        <v>203</v>
       </c>
       <c r="D117" s="5">
-        <v>0</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>369</v>
+        <v>232</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>370</v>
+        <v>233</v>
       </c>
       <c r="C118" t="s">
-        <v>311</v>
+        <v>203</v>
       </c>
       <c r="D118" s="5">
-        <v>0.67</v>
+        <v>0.89</v>
+      </c>
+      <c r="J118">
+        <v>0.65</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="C119" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D119" s="5">
-        <v>0.72</v>
-      </c>
-      <c r="J119">
-        <v>0.65</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>62</v>
+        <v>236</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>63</v>
+        <v>237</v>
       </c>
       <c r="C120" t="s">
-        <v>4</v>
+        <v>203</v>
       </c>
       <c r="D120" s="5">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>371</v>
+        <v>238</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>372</v>
+        <v>239</v>
       </c>
       <c r="C121" t="s">
-        <v>311</v>
+        <v>203</v>
       </c>
       <c r="D121" s="5">
-        <v>0.69</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>261</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>262</v>
+        <v>240</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="C122" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D122" s="5">
-        <v>0.92</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>163</v>
+        <v>242</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>164</v>
+        <v>243</v>
       </c>
       <c r="C123" t="s">
-        <v>106</v>
+        <v>203</v>
       </c>
       <c r="D123" s="5">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="J123">
-        <v>0.65</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="C124" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D124" s="5">
-        <v>0.94</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="C125" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D125" s="5">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>373</v>
+        <v>248</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>374</v>
+        <v>249</v>
       </c>
       <c r="C126" t="s">
-        <v>311</v>
+        <v>203</v>
       </c>
       <c r="D126" s="5">
-        <v>0.86</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>64</v>
+        <v>250</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>65</v>
+        <v>251</v>
       </c>
       <c r="C127" t="s">
-        <v>4</v>
+        <v>203</v>
       </c>
       <c r="D127" s="5">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="C128" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D128" s="5">
-        <v>0.92</v>
+        <v>0.75</v>
+      </c>
+      <c r="J128">
+        <v>0.65</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>165</v>
+        <v>254</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>166</v>
+        <v>255</v>
       </c>
       <c r="C129" t="s">
-        <v>106</v>
+        <v>203</v>
       </c>
       <c r="D129" s="5">
-        <v>0.94</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>167</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>168</v>
+        <v>256</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="C130" t="s">
-        <v>106</v>
+        <v>203</v>
       </c>
       <c r="D130" s="5">
-        <v>0</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>375</v>
+        <v>258</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>376</v>
+        <v>259</v>
       </c>
       <c r="C131" t="s">
-        <v>311</v>
+        <v>203</v>
       </c>
       <c r="D131" s="5">
-        <v>0.97</v>
+        <v>0.72</v>
+      </c>
+      <c r="J131">
+        <v>0.65</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>375</v>
+        <v>260</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>377</v>
+        <v>261</v>
       </c>
       <c r="C132" t="s">
-        <v>311</v>
+        <v>203</v>
       </c>
       <c r="D132" s="5">
-        <v>0.69</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>169</v>
+        <v>262</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>170</v>
+        <v>263</v>
       </c>
       <c r="C133" t="s">
-        <v>106</v>
+        <v>203</v>
       </c>
       <c r="D133" s="5">
-        <v>0.92</v>
-      </c>
-      <c r="J133">
-        <v>0.83</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>66</v>
+        <v>264</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>67</v>
+        <v>265</v>
       </c>
       <c r="C134" t="s">
-        <v>4</v>
+        <v>203</v>
       </c>
       <c r="D134" s="5">
-        <v>0.78</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>378</v>
+        <v>266</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>379</v>
+        <v>267</v>
       </c>
       <c r="C135" t="s">
-        <v>311</v>
+        <v>203</v>
       </c>
       <c r="D135" s="5">
         <v>0.92</v>
@@ -3899,314 +3935,308 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>171</v>
+        <v>70</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>172</v>
+        <v>268</v>
       </c>
       <c r="C136" t="s">
-        <v>106</v>
+        <v>203</v>
       </c>
       <c r="D136" s="5">
-        <v>1</v>
-      </c>
-      <c r="J136">
-        <v>0.74</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>380</v>
+        <v>269</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>381</v>
+        <v>270</v>
       </c>
       <c r="C137" t="s">
-        <v>311</v>
+        <v>203</v>
       </c>
       <c r="D137" s="5">
-        <v>0.97</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>68</v>
+        <v>271</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>69</v>
+        <v>272</v>
       </c>
       <c r="C138" t="s">
-        <v>4</v>
+        <v>203</v>
       </c>
       <c r="D138" s="5">
-        <v>0.94</v>
+        <v>0.83</v>
+      </c>
+      <c r="J138">
+        <v>0.65</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>68</v>
+        <v>273</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>173</v>
+        <v>274</v>
       </c>
       <c r="C139" t="s">
-        <v>106</v>
+        <v>203</v>
       </c>
       <c r="D139" s="5">
-        <v>0.94</v>
-      </c>
-      <c r="J139">
-        <v>0.65</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>382</v>
+        <v>275</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>383</v>
+        <v>276</v>
       </c>
       <c r="C140" t="s">
-        <v>311</v>
+        <v>203</v>
       </c>
       <c r="D140" s="5">
-        <v>0.81</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>70</v>
+        <v>277</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>71</v>
+        <v>278</v>
       </c>
       <c r="C141" t="s">
-        <v>4</v>
+        <v>203</v>
       </c>
       <c r="D141" s="5">
-        <v>0.53</v>
+        <v>0.92</v>
+      </c>
+      <c r="J141">
+        <v>0.72</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>70</v>
+        <v>279</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>72</v>
+        <v>280</v>
       </c>
       <c r="C142" t="s">
-        <v>4</v>
+        <v>203</v>
       </c>
       <c r="D142" s="5">
-        <v>0.69</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>70</v>
+        <v>281</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="C143" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D143" s="5">
-        <v>0.81</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>384</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>385</v>
+        <v>283</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>284</v>
       </c>
       <c r="C144" t="s">
-        <v>311</v>
+        <v>203</v>
       </c>
       <c r="D144" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="J144">
-        <v>0.83</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="C145" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D145" s="5">
-        <v>0.94</v>
+        <v>0.92</v>
+      </c>
+      <c r="J145">
+        <v>0.46</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>386</v>
+        <v>287</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>387</v>
+        <v>288</v>
       </c>
       <c r="C146" t="s">
-        <v>311</v>
+        <v>203</v>
       </c>
       <c r="D146" s="5">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>73</v>
+        <v>289</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>74</v>
+        <v>290</v>
       </c>
       <c r="C147" t="s">
-        <v>4</v>
+        <v>203</v>
       </c>
       <c r="D147" s="5">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="J147">
-        <v>0.81</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>174</v>
+        <v>291</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>175</v>
+        <v>292</v>
       </c>
       <c r="C148" t="s">
-        <v>106</v>
+        <v>203</v>
       </c>
       <c r="D148" s="5">
-        <v>0.53</v>
+        <v>0.97</v>
+      </c>
+      <c r="J148">
+        <v>0.46</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="C149" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D149" s="5">
-        <v>0.83</v>
-      </c>
-      <c r="J149">
-        <v>0.65</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>388</v>
+        <v>295</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>389</v>
+        <v>296</v>
       </c>
       <c r="C150" t="s">
-        <v>311</v>
+        <v>203</v>
       </c>
       <c r="D150" s="5">
-        <v>0.78</v>
-      </c>
-      <c r="J150">
-        <v>0.72</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>75</v>
+        <v>297</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>76</v>
+        <v>298</v>
       </c>
       <c r="C151" t="s">
-        <v>4</v>
+        <v>203</v>
       </c>
       <c r="D151" s="5">
-        <v>0.81</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>390</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>391</v>
+        <v>299</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>300</v>
       </c>
       <c r="C152" t="s">
-        <v>311</v>
+        <v>203</v>
       </c>
       <c r="D152" s="5">
-        <v>0.78</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>176</v>
+        <v>301</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>177</v>
+        <v>302</v>
       </c>
       <c r="C153" t="s">
-        <v>106</v>
+        <v>203</v>
       </c>
       <c r="D153" s="5">
-        <v>0.81</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>77</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>78</v>
+        <v>303</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>304</v>
       </c>
       <c r="C154" t="s">
-        <v>4</v>
+        <v>203</v>
       </c>
       <c r="D154" s="5">
-        <v>0.97</v>
-      </c>
-      <c r="J154">
-        <v>0.81</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>79</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>80</v>
+        <v>305</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>306</v>
       </c>
       <c r="C155" t="s">
-        <v>4</v>
+        <v>203</v>
       </c>
       <c r="D155" s="5">
-        <v>0.89</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>274</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>275</v>
+        <v>307</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>308</v>
       </c>
       <c r="C156" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D156" s="5">
         <v>0.83</v>
@@ -4214,61 +4244,67 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>392</v>
+        <v>309</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>393</v>
+        <v>311</v>
       </c>
       <c r="C157" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D157" s="5">
-        <v>0.97</v>
+        <v>0.86</v>
+      </c>
+      <c r="J157">
+        <v>0.91</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>178</v>
+        <v>312</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>179</v>
+        <v>313</v>
       </c>
       <c r="C158" t="s">
-        <v>106</v>
+        <v>310</v>
       </c>
       <c r="D158" s="5">
+        <v>1</v>
+      </c>
+      <c r="J158">
         <v>0.72</v>
-      </c>
-      <c r="J158">
-        <v>0.89</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>276</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>277</v>
+        <v>314</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>315</v>
       </c>
       <c r="C159" t="s">
-        <v>204</v>
+        <v>310</v>
       </c>
       <c r="D159" s="5">
-        <v>0.94</v>
+        <v>0.92</v>
+      </c>
+      <c r="J159">
+        <v>0.69</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>394</v>
+        <v>316</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>395</v>
+        <v>317</v>
       </c>
       <c r="C160" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D160" s="5">
-        <v>0.81</v>
+        <v>0.92</v>
       </c>
       <c r="J160">
         <v>0.7</v>
@@ -4276,44 +4312,41 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>396</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>397</v>
+        <v>318</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>319</v>
       </c>
       <c r="C161" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D161" s="5">
-        <v>0.86</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>278</v>
+        <v>320</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>279</v>
+        <v>321</v>
       </c>
       <c r="C162" t="s">
-        <v>204</v>
+        <v>310</v>
       </c>
       <c r="D162" s="5">
-        <v>0.92</v>
-      </c>
-      <c r="J162">
-        <v>0.72</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>398</v>
+        <v>322</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>399</v>
+        <v>323</v>
       </c>
       <c r="C163" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D163" s="5">
         <v>0.97</v>
@@ -4321,13 +4354,13 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>400</v>
+        <v>324</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>401</v>
+        <v>325</v>
       </c>
       <c r="C164" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D164" s="5">
         <v>0.92</v>
@@ -4335,75 +4368,72 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>280</v>
+        <v>326</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>281</v>
+        <v>327</v>
       </c>
       <c r="C165" t="s">
-        <v>204</v>
+        <v>310</v>
       </c>
       <c r="D165" s="5">
-        <v>0.94</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>282</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>283</v>
+        <v>328</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>329</v>
       </c>
       <c r="C166" t="s">
-        <v>204</v>
+        <v>310</v>
       </c>
       <c r="D166" s="5">
-        <v>0.94</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>402</v>
+        <v>330</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>403</v>
+        <v>331</v>
       </c>
       <c r="C167" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D167" s="5">
-        <v>0.86</v>
-      </c>
-      <c r="J167">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>81</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>82</v>
+        <v>332</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="C168" t="s">
-        <v>4</v>
+        <v>310</v>
       </c>
       <c r="D168" s="5">
-        <v>1</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>404</v>
+        <v>334</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>405</v>
+        <v>335</v>
       </c>
       <c r="C169" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D169" s="5">
-        <v>0.94</v>
+        <v>0.83</v>
       </c>
       <c r="J169">
         <v>0.72</v>
@@ -4411,159 +4441,168 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>284</v>
+        <v>336</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>285</v>
+        <v>337</v>
       </c>
       <c r="C170" t="s">
-        <v>204</v>
+        <v>310</v>
       </c>
       <c r="D170" s="5">
-        <v>0.94</v>
+        <v>0.89</v>
+      </c>
+      <c r="J170">
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>286</v>
+        <v>338</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>287</v>
+        <v>339</v>
       </c>
       <c r="C171" t="s">
-        <v>204</v>
+        <v>310</v>
       </c>
       <c r="D171" s="5">
         <v>0.92</v>
       </c>
-      <c r="J171">
-        <v>0.46</v>
-      </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>288</v>
+        <v>340</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>289</v>
+        <v>341</v>
       </c>
       <c r="C172" t="s">
-        <v>204</v>
+        <v>310</v>
       </c>
       <c r="D172" s="5">
-        <v>0.92</v>
+        <v>0.89</v>
+      </c>
+      <c r="J172">
+        <v>0.83</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>406</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>407</v>
+        <v>342</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>343</v>
       </c>
       <c r="C173" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D173" s="5">
-        <v>0.97</v>
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0.91</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>180</v>
+        <v>344</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>181</v>
+        <v>345</v>
       </c>
       <c r="C174" t="s">
-        <v>106</v>
+        <v>310</v>
       </c>
       <c r="D174" s="5">
-        <v>0.81</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>290</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>291</v>
+        <v>346</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>347</v>
       </c>
       <c r="C175" t="s">
-        <v>204</v>
+        <v>310</v>
       </c>
       <c r="D175" s="5">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="J175">
-        <v>0.46</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>408</v>
+        <v>348</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>409</v>
+        <v>349</v>
       </c>
       <c r="C176" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D176" s="5">
-        <v>0.72</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>411</v>
+        <v>351</v>
       </c>
       <c r="C177" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D177" s="5">
-        <v>0.94</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>412</v>
+        <v>352</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>413</v>
+        <v>353</v>
       </c>
       <c r="C178" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D178" s="5">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>414</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>415</v>
+        <v>354</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>355</v>
       </c>
       <c r="C179" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D179" s="5">
-        <v>0.72</v>
+        <v>0.92</v>
+      </c>
+      <c r="J179">
+        <v>0.7</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>83</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>84</v>
+        <v>356</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>357</v>
       </c>
       <c r="C180" t="s">
-        <v>4</v>
+        <v>310</v>
       </c>
       <c r="D180" s="5">
         <v>0.94</v>
@@ -4571,75 +4610,81 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>292</v>
+        <v>358</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>293</v>
+        <v>359</v>
       </c>
       <c r="C181" t="s">
-        <v>204</v>
+        <v>310</v>
       </c>
       <c r="D181" s="5">
-        <v>0.97</v>
-      </c>
-      <c r="J181">
-        <v>0.46</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>416</v>
+        <v>360</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>417</v>
+        <v>361</v>
       </c>
       <c r="C182" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D182" s="5">
-        <v>0.83</v>
+        <v>1</v>
+      </c>
+      <c r="J182">
+        <v>0.72</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>85</v>
+        <v>362</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>86</v>
+        <v>363</v>
       </c>
       <c r="C183" t="s">
-        <v>4</v>
+        <v>310</v>
       </c>
       <c r="D183" s="5">
         <v>0.92</v>
       </c>
+      <c r="J183">
+        <v>0.56000000000000005</v>
+      </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>87</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>88</v>
+        <v>452</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>451</v>
       </c>
       <c r="C184" t="s">
-        <v>4</v>
+        <v>310</v>
       </c>
       <c r="D184" s="5">
-        <v>0.97</v>
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0.7</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>418</v>
+        <v>364</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>419</v>
+        <v>365</v>
       </c>
       <c r="C185" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D185" s="5">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="J185">
         <v>0.83</v>
@@ -4647,139 +4692,145 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>420</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>421</v>
+        <v>366</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>367</v>
       </c>
       <c r="C186" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D186" s="5">
-        <v>0.92</v>
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>0.91</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>89</v>
+        <v>368</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>90</v>
+        <v>369</v>
       </c>
       <c r="C187" t="s">
-        <v>4</v>
+        <v>310</v>
       </c>
       <c r="D187" s="5">
-        <v>0.97</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>294</v>
+        <v>370</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>295</v>
+        <v>371</v>
       </c>
       <c r="C188" t="s">
-        <v>204</v>
+        <v>310</v>
       </c>
       <c r="D188" s="5">
-        <v>0.94</v>
+        <v>0.69</v>
+      </c>
+      <c r="J188">
+        <v>0.91</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>182</v>
+        <v>372</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>183</v>
+        <v>373</v>
       </c>
       <c r="C189" t="s">
-        <v>106</v>
+        <v>310</v>
       </c>
       <c r="D189" s="5">
-        <v>0.94</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>91</v>
+        <v>374</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>92</v>
+        <v>375</v>
       </c>
       <c r="C190" t="s">
-        <v>4</v>
+        <v>310</v>
       </c>
       <c r="D190" s="5">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>296</v>
+        <v>374</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>297</v>
+        <v>376</v>
       </c>
       <c r="C191" t="s">
-        <v>204</v>
+        <v>310</v>
       </c>
       <c r="D191" s="5">
-        <v>0.89</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>422</v>
+        <v>377</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>423</v>
+        <v>378</v>
       </c>
       <c r="C192" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D192" s="5">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>424</v>
+        <v>379</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="C193" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D193" s="5">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>184</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>185</v>
+        <v>381</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>382</v>
       </c>
       <c r="C194" t="s">
-        <v>106</v>
+        <v>310</v>
       </c>
       <c r="D194" s="5">
-        <v>0.86</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>426</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>427</v>
+        <v>383</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>384</v>
       </c>
       <c r="C195" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D195" s="5">
         <v>0.89</v>
@@ -4790,399 +4841,399 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>428</v>
+        <v>385</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>429</v>
+        <v>386</v>
       </c>
       <c r="C196" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D196" s="5">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>298</v>
+        <v>387</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>299</v>
+        <v>388</v>
       </c>
       <c r="C197" t="s">
-        <v>204</v>
+        <v>310</v>
       </c>
       <c r="D197" s="5">
-        <v>1</v>
+        <v>0.78</v>
+      </c>
+      <c r="J197">
+        <v>0.72</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>93</v>
+        <v>389</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>94</v>
+        <v>390</v>
       </c>
       <c r="C198" t="s">
-        <v>4</v>
+        <v>310</v>
       </c>
       <c r="D198" s="5">
-        <v>0.86</v>
-      </c>
-      <c r="J198">
-        <v>0.81</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>186</v>
+        <v>391</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>187</v>
+        <v>392</v>
       </c>
       <c r="C199" t="s">
-        <v>106</v>
+        <v>310</v>
       </c>
       <c r="D199" s="5">
-        <v>0.75</v>
+        <v>0.97</v>
       </c>
       <c r="J199">
-        <v>0.65</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>188</v>
-      </c>
-      <c r="B200" s="3" t="s">
-        <v>189</v>
+        <v>393</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>394</v>
       </c>
       <c r="C200" t="s">
-        <v>106</v>
+        <v>310</v>
       </c>
       <c r="D200" s="5">
-        <v>0.75</v>
+        <v>0.81</v>
       </c>
       <c r="J200">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>190</v>
-      </c>
-      <c r="B201" s="3" t="s">
-        <v>191</v>
+        <v>395</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>396</v>
       </c>
       <c r="C201" t="s">
-        <v>106</v>
+        <v>310</v>
       </c>
       <c r="D201" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="J201">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>95</v>
+        <v>397</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>96</v>
+        <v>398</v>
       </c>
       <c r="C202" t="s">
-        <v>4</v>
+        <v>310</v>
       </c>
       <c r="D202" s="5">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>192</v>
+        <v>399</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>193</v>
+        <v>400</v>
       </c>
       <c r="C203" t="s">
-        <v>106</v>
+        <v>310</v>
       </c>
       <c r="D203" s="5">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="J203">
-        <v>0.83</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>192</v>
-      </c>
-      <c r="B204" s="3" t="s">
-        <v>194</v>
+        <v>401</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="C204" t="s">
-        <v>106</v>
+        <v>310</v>
       </c>
       <c r="D204" s="5">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="J204">
-        <v>0.56000000000000005</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>300</v>
-      </c>
-      <c r="B205" s="3" t="s">
-        <v>301</v>
+        <v>403</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>404</v>
       </c>
       <c r="C205" t="s">
-        <v>204</v>
+        <v>310</v>
       </c>
       <c r="D205" s="5">
-        <v>1</v>
+        <v>0.94</v>
+      </c>
+      <c r="J205">
+        <v>0.72</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>195</v>
+        <v>405</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>196</v>
+        <v>406</v>
       </c>
       <c r="C206" t="s">
-        <v>106</v>
+        <v>310</v>
       </c>
       <c r="D206" s="5">
-        <v>0.81</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>302</v>
+        <v>407</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>303</v>
+        <v>408</v>
       </c>
       <c r="C207" t="s">
-        <v>204</v>
+        <v>310</v>
       </c>
       <c r="D207" s="5">
-        <v>0.89</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="C208" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D208" s="5">
         <v>0.94</v>
       </c>
       <c r="J208">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="C209" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D209" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="J209">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>97</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>98</v>
+        <v>413</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>414</v>
       </c>
       <c r="C210" t="s">
-        <v>4</v>
+        <v>310</v>
       </c>
       <c r="D210" s="5">
-        <v>0.97</v>
-      </c>
-      <c r="J210">
-        <v>0.91</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>304</v>
-      </c>
-      <c r="B211" s="3" t="s">
-        <v>305</v>
+        <v>415</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>416</v>
       </c>
       <c r="C211" t="s">
-        <v>204</v>
+        <v>310</v>
       </c>
       <c r="D211" s="5">
-        <v>1</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>197</v>
+        <v>417</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>198</v>
+        <v>418</v>
       </c>
       <c r="C212" t="s">
-        <v>106</v>
+        <v>310</v>
       </c>
       <c r="D212" s="5">
-        <v>0.94</v>
+        <v>0.97</v>
+      </c>
+      <c r="J212">
+        <v>0.83</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>199</v>
+        <v>419</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>200</v>
+        <v>420</v>
       </c>
       <c r="C213" t="s">
-        <v>106</v>
+        <v>310</v>
       </c>
       <c r="D213" s="5">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="J213">
-        <v>0.85</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="C214" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D214" s="5">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>99</v>
+        <v>423</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>100</v>
+        <v>424</v>
       </c>
       <c r="C215" t="s">
-        <v>4</v>
+        <v>310</v>
       </c>
       <c r="D215" s="5">
-        <v>0.94</v>
-      </c>
-      <c r="J215">
-        <v>0.81</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>101</v>
+        <v>425</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>102</v>
+        <v>426</v>
       </c>
       <c r="C216" t="s">
-        <v>4</v>
+        <v>310</v>
       </c>
       <c r="D216" s="5">
-        <v>0.44</v>
+        <v>0.89</v>
+      </c>
+      <c r="J216">
+        <v>0.83</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>306</v>
+        <v>427</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>307</v>
+        <v>428</v>
       </c>
       <c r="C217" t="s">
-        <v>204</v>
+        <v>310</v>
       </c>
       <c r="D217" s="5">
-        <v>0.94</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>308</v>
-      </c>
-      <c r="B218" s="3" t="s">
-        <v>309</v>
+        <v>429</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>430</v>
       </c>
       <c r="C218" t="s">
-        <v>204</v>
+        <v>310</v>
       </c>
       <c r="D218" s="5">
-        <v>0.83</v>
+        <v>0.94</v>
+      </c>
+      <c r="J218">
+        <v>0.7</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>201</v>
+        <v>431</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>202</v>
+        <v>432</v>
       </c>
       <c r="C219" t="s">
-        <v>106</v>
+        <v>310</v>
       </c>
       <c r="D219" s="5">
-        <v>0.57999999999999996</v>
+        <v>0.89</v>
+      </c>
+      <c r="J219">
+        <v>0.7</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>103</v>
+        <v>433</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>104</v>
+        <v>434</v>
       </c>
       <c r="C220" t="s">
-        <v>4</v>
+        <v>310</v>
       </c>
       <c r="D220" s="5">
-        <v>0.81</v>
-      </c>
-      <c r="J220">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
+        <v>435</v>
+      </c>
+      <c r="B221" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B221" s="2" t="s">
-        <v>437</v>
-      </c>
       <c r="C221" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D221" s="5">
         <v>0.83</v>
@@ -5193,27 +5244,30 @@
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
+        <v>437</v>
+      </c>
+      <c r="B222" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="B222" s="3" t="s">
-        <v>439</v>
-      </c>
       <c r="C222" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D222" s="5">
         <v>0.86</v>
       </c>
+      <c r="J222">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
+        <v>439</v>
+      </c>
+      <c r="B223" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="B223" s="3" t="s">
-        <v>441</v>
-      </c>
       <c r="C223" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D223" s="5">
         <v>0.86</v>

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B5091B-ED95-DE40-BBCE-0163A9AD3208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D8FDDE-4E10-C245-9E21-F664194A9E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2540" yWindow="1360" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="455">
   <si>
     <t>Surname</t>
   </si>
@@ -1398,6 +1398,9 @@
   </si>
   <si>
     <t>H250473N</t>
+  </si>
+  <si>
+    <t>Mufabeni</t>
   </si>
 </sst>
 </file>
@@ -1848,8 +1851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="J101" sqref="J101"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="J157" sqref="J157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1984,6 +1987,9 @@
       <c r="D7" s="5">
         <v>0.92</v>
       </c>
+      <c r="J7">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2026,6 +2032,9 @@
       <c r="D10" s="5">
         <v>0.89</v>
       </c>
+      <c r="J10">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2248,6 +2257,9 @@
       <c r="D25" s="5">
         <v>0.78</v>
       </c>
+      <c r="J25">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -2383,6 +2395,9 @@
       <c r="D34" s="5">
         <v>0.94</v>
       </c>
+      <c r="J34">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -2504,6 +2519,9 @@
       <c r="D42" s="5">
         <v>0.94</v>
       </c>
+      <c r="J42">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -2518,6 +2536,9 @@
       <c r="D43" s="5">
         <v>0.92</v>
       </c>
+      <c r="J43">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -2766,6 +2787,9 @@
       <c r="D59" s="5">
         <v>0.92</v>
       </c>
+      <c r="J59">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
@@ -2842,6 +2866,9 @@
       <c r="D64" s="5">
         <v>0</v>
       </c>
+      <c r="J64">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -2862,7 +2889,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>132</v>
+        <v>454</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>132</v>
@@ -2872,6 +2899,9 @@
       </c>
       <c r="D66" s="5">
         <v>0.61</v>
+      </c>
+      <c r="J66">
+        <v>0.74</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -2904,6 +2934,9 @@
       <c r="D68" s="5">
         <v>0.53</v>
       </c>
+      <c r="J68">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
@@ -3229,6 +3262,9 @@
       <c r="D88" s="5">
         <v>0.53</v>
       </c>
+      <c r="J88">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
@@ -3243,6 +3279,9 @@
       <c r="D89" s="5">
         <v>0.81</v>
       </c>
+      <c r="J89">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
@@ -3449,6 +3488,9 @@
       <c r="D102" s="5">
         <v>0.57999999999999996</v>
       </c>
+      <c r="J102">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
@@ -3480,6 +3522,9 @@
       <c r="D104" s="5">
         <v>0.94</v>
       </c>
+      <c r="J104">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
@@ -3536,6 +3581,9 @@
       <c r="D108" s="5">
         <v>0.92</v>
       </c>
+      <c r="J108">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
@@ -3567,6 +3615,9 @@
       <c r="D110" s="5">
         <v>0.94</v>
       </c>
+      <c r="J110">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
@@ -3626,6 +3677,9 @@
       <c r="D114" s="5">
         <v>0.78</v>
       </c>
+      <c r="J114">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
@@ -3702,6 +3756,9 @@
       <c r="D119" s="5">
         <v>0.94</v>
       </c>
+      <c r="J119">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
@@ -3716,6 +3773,9 @@
       <c r="D120" s="5">
         <v>0.92</v>
       </c>
+      <c r="J120">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
@@ -3730,6 +3790,9 @@
       <c r="D121" s="5">
         <v>0.94</v>
       </c>
+      <c r="J121">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
@@ -3744,6 +3807,9 @@
       <c r="D122" s="5">
         <v>0.78</v>
       </c>
+      <c r="J122">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
@@ -3758,6 +3824,9 @@
       <c r="D123" s="5">
         <v>0.86</v>
       </c>
+      <c r="J123">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
@@ -3786,6 +3855,9 @@
       <c r="D125" s="5">
         <v>0.92</v>
       </c>
+      <c r="J125">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
@@ -3859,6 +3931,9 @@
       <c r="D130" s="5">
         <v>0.83</v>
       </c>
+      <c r="J130">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
@@ -3890,6 +3965,9 @@
       <c r="D132" s="5">
         <v>0.92</v>
       </c>
+      <c r="J132">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
@@ -3946,6 +4024,9 @@
       <c r="D136" s="5">
         <v>0.81</v>
       </c>
+      <c r="J136">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
@@ -4036,6 +4117,9 @@
       <c r="D142" s="5">
         <v>0.94</v>
       </c>
+      <c r="J142">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
@@ -4064,6 +4148,9 @@
       <c r="D144" s="5">
         <v>0.94</v>
       </c>
+      <c r="J144">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
@@ -4143,6 +4230,9 @@
       <c r="D149" s="5">
         <v>0.94</v>
       </c>
+      <c r="J149">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
@@ -4241,6 +4331,9 @@
       <c r="D156" s="5">
         <v>0.83</v>
       </c>
+      <c r="J156">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
@@ -4765,6 +4858,9 @@
       <c r="D190" s="5">
         <v>0.97</v>
       </c>
+      <c r="J190">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
@@ -4821,6 +4917,9 @@
       <c r="D194" s="5">
         <v>0.81</v>
       </c>
+      <c r="J194">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
@@ -5010,6 +5109,9 @@
       <c r="D206" s="5">
         <v>0.97</v>
       </c>
+      <c r="J206">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
@@ -5024,6 +5126,9 @@
       <c r="D207" s="5">
         <v>0.72</v>
       </c>
+      <c r="J207">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
@@ -5223,6 +5328,9 @@
       </c>
       <c r="D220" s="5">
         <v>0.86</v>
+      </c>
+      <c r="J220">
+        <v>0.85</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D8FDDE-4E10-C245-9E21-F664194A9E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F4EA20-4EA3-794C-9569-5546AB9290A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2540" yWindow="1360" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="457">
   <si>
     <t>Surname</t>
   </si>
@@ -1401,6 +1401,12 @@
   </si>
   <si>
     <t>Mufabeni</t>
+  </si>
+  <si>
+    <t>Mapuvire</t>
+  </si>
+  <si>
+    <t>H250505V</t>
   </si>
 </sst>
 </file>
@@ -1508,8 +1514,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16CEB027-FB46-1A44-BA46-BD4AD30C864F}" name="Table1" displayName="Table1" ref="A1:M223" totalsRowShown="0">
-  <autoFilter ref="A1:M223" xr:uid="{16CEB027-FB46-1A44-BA46-BD4AD30C864F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16CEB027-FB46-1A44-BA46-BD4AD30C864F}" name="Table1" displayName="Table1" ref="A1:M224" totalsRowShown="0">
+  <autoFilter ref="A1:M224" xr:uid="{16CEB027-FB46-1A44-BA46-BD4AD30C864F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M223">
     <sortCondition ref="C1:C223"/>
   </sortState>
@@ -1849,10 +1855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
-  <dimension ref="A1:M223"/>
+  <dimension ref="A1:M224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="J157" sqref="J157"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2694,6 +2700,9 @@
       <c r="D53" s="5">
         <v>0.97</v>
       </c>
+      <c r="G53">
+        <v>0.72</v>
+      </c>
       <c r="J53">
         <v>0.76</v>
       </c>
@@ -2711,6 +2720,9 @@
       <c r="D54" s="5">
         <v>0.89</v>
       </c>
+      <c r="G54">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -2725,6 +2737,9 @@
       <c r="D55" s="5">
         <v>0.94</v>
       </c>
+      <c r="G55">
+        <v>0.62</v>
+      </c>
       <c r="J55">
         <v>0.85</v>
       </c>
@@ -2742,6 +2757,9 @@
       <c r="D56" s="5">
         <v>0.94</v>
       </c>
+      <c r="G56">
+        <v>0.76</v>
+      </c>
       <c r="J56">
         <v>0.76</v>
       </c>
@@ -2759,6 +2777,9 @@
       <c r="D57" s="5">
         <v>0.86</v>
       </c>
+      <c r="G57">
+        <v>0.55000000000000004</v>
+      </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -2773,6 +2794,9 @@
       <c r="D58" s="5">
         <v>0.94</v>
       </c>
+      <c r="G58">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
@@ -2787,6 +2811,9 @@
       <c r="D59" s="5">
         <v>0.92</v>
       </c>
+      <c r="G59">
+        <v>0.59</v>
+      </c>
       <c r="J59">
         <v>0.87</v>
       </c>
@@ -2804,6 +2831,9 @@
       <c r="D60" s="5">
         <v>0.89</v>
       </c>
+      <c r="G60">
+        <v>0.56000000000000005</v>
+      </c>
       <c r="J60">
         <v>0.85</v>
       </c>
@@ -2821,6 +2851,9 @@
       <c r="D61" s="5">
         <v>0.75</v>
       </c>
+      <c r="G61">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -2835,6 +2868,9 @@
       <c r="D62" s="5">
         <v>0.97</v>
       </c>
+      <c r="G62">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -2849,6 +2885,9 @@
       <c r="D63" s="5">
         <v>0.86</v>
       </c>
+      <c r="G63">
+        <v>0.68</v>
+      </c>
       <c r="J63">
         <v>0.85</v>
       </c>
@@ -2866,6 +2905,9 @@
       <c r="D64" s="5">
         <v>0</v>
       </c>
+      <c r="G64">
+        <v>0.52</v>
+      </c>
       <c r="J64">
         <v>0.74</v>
       </c>
@@ -2883,22 +2925,28 @@
       <c r="D65" s="5">
         <v>0.81</v>
       </c>
+      <c r="G65">
+        <v>0.65</v>
+      </c>
       <c r="J65">
         <v>0.74</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>454</v>
+        <v>133</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C66" t="s">
         <v>106</v>
       </c>
       <c r="D66" s="5">
-        <v>0.61</v>
+        <v>0.89</v>
+      </c>
+      <c r="G66">
+        <v>0.44</v>
       </c>
       <c r="J66">
         <v>0.74</v>
@@ -2906,16 +2954,19 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C67" t="s">
         <v>106</v>
       </c>
       <c r="D67" s="5">
-        <v>0.89</v>
+        <v>0.53</v>
+      </c>
+      <c r="G67">
+        <v>0.46</v>
       </c>
       <c r="J67">
         <v>0.74</v>
@@ -2923,157 +2974,181 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>135</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="C68" t="s">
         <v>106</v>
       </c>
       <c r="D68" s="5">
-        <v>0.53</v>
+        <v>0.72</v>
+      </c>
+      <c r="G68">
+        <v>0.56000000000000005</v>
       </c>
       <c r="J68">
-        <v>0.74</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>137</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="C69" t="s">
         <v>106</v>
       </c>
       <c r="D69" s="5">
-        <v>0.72</v>
-      </c>
-      <c r="J69">
-        <v>0.83</v>
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>0.61</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C70" t="s">
         <v>106</v>
       </c>
       <c r="D70" s="5">
-        <v>1</v>
+        <v>0.94</v>
+      </c>
+      <c r="G70">
+        <v>0.46</v>
+      </c>
+      <c r="J70">
+        <v>0.76</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C71" t="s">
         <v>106</v>
       </c>
       <c r="D71" s="5">
-        <v>0.94</v>
-      </c>
-      <c r="J71">
-        <v>0.76</v>
+        <v>0.83</v>
+      </c>
+      <c r="G71">
+        <v>0.65</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C72" t="s">
         <v>106</v>
       </c>
       <c r="D72" s="5">
-        <v>0.83</v>
+        <v>0.72</v>
+      </c>
+      <c r="G72">
+        <v>0.65</v>
+      </c>
+      <c r="J72">
+        <v>0.65</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C73" t="s">
         <v>106</v>
       </c>
       <c r="D73" s="5">
-        <v>0.72</v>
+        <v>0.94</v>
+      </c>
+      <c r="G73">
+        <v>0.66</v>
       </c>
       <c r="J73">
-        <v>0.65</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>147</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="C74" t="s">
         <v>106</v>
       </c>
       <c r="D74" s="5">
-        <v>0.94</v>
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0.7</v>
       </c>
       <c r="J74">
-        <v>0.85</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>149</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="C75" t="s">
         <v>106</v>
       </c>
       <c r="D75" s="5">
-        <v>0</v>
+        <v>0.94</v>
+      </c>
+      <c r="G75">
+        <v>0.68</v>
       </c>
       <c r="J75">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C76" t="s">
         <v>106</v>
       </c>
       <c r="D76" s="5">
-        <v>0.94</v>
-      </c>
-      <c r="J76">
-        <v>0.76</v>
+        <v>0.97</v>
+      </c>
+      <c r="G76">
+        <v>0.75</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C77" t="s">
         <v>106</v>
@@ -3081,152 +3156,185 @@
       <c r="D77" s="5">
         <v>0.97</v>
       </c>
+      <c r="G77">
+        <v>0.77</v>
+      </c>
+      <c r="J77">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>155</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="C78" t="s">
         <v>106</v>
       </c>
       <c r="D78" s="5">
-        <v>0.97</v>
+        <v>0.94</v>
+      </c>
+      <c r="G78">
+        <v>0.73</v>
       </c>
       <c r="J78">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>157</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="C79" t="s">
         <v>106</v>
       </c>
       <c r="D79" s="5">
-        <v>0.94</v>
+        <v>0.69</v>
+      </c>
+      <c r="G79">
+        <v>0.54</v>
       </c>
       <c r="J79">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>159</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="C80" t="s">
         <v>106</v>
       </c>
       <c r="D80" s="5">
-        <v>0.69</v>
+        <v>0.92</v>
+      </c>
+      <c r="G80">
+        <v>0.55000000000000004</v>
       </c>
       <c r="J80">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>161</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="C81" t="s">
         <v>106</v>
       </c>
       <c r="D81" s="5">
-        <v>0.92</v>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G81">
+        <v>0.38</v>
       </c>
       <c r="J81">
-        <v>0.83</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C82" t="s">
         <v>106</v>
       </c>
       <c r="D82" s="5">
-        <v>0.56000000000000005</v>
+        <v>0.94</v>
+      </c>
+      <c r="G82">
+        <v>0.72</v>
       </c>
       <c r="J82">
-        <v>0.65</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>165</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="C83" t="s">
         <v>106</v>
       </c>
       <c r="D83" s="5">
-        <v>0.94</v>
-      </c>
-      <c r="J83">
-        <v>0.76</v>
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0.52</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>167</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="C84" t="s">
         <v>106</v>
       </c>
       <c r="D84" s="5">
-        <v>0</v>
+        <v>0.92</v>
+      </c>
+      <c r="G84">
+        <v>0.61</v>
+      </c>
+      <c r="J84">
+        <v>0.83</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C85" t="s">
         <v>106</v>
       </c>
       <c r="D85" s="5">
-        <v>0.92</v>
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>0.68</v>
       </c>
       <c r="J85">
-        <v>0.83</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>171</v>
+        <v>454</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
       <c r="C86" t="s">
         <v>106</v>
       </c>
       <c r="D86" s="5">
-        <v>1</v>
+        <v>0.61</v>
+      </c>
+      <c r="G86">
+        <v>0.62</v>
       </c>
       <c r="J86">
         <v>0.74</v>
@@ -3245,6 +3353,9 @@
       <c r="D87" s="5">
         <v>0.94</v>
       </c>
+      <c r="G87">
+        <v>0.7</v>
+      </c>
       <c r="J87">
         <v>0.65</v>
       </c>
@@ -3262,6 +3373,9 @@
       <c r="D88" s="5">
         <v>0.53</v>
       </c>
+      <c r="G88">
+        <v>0.51</v>
+      </c>
       <c r="J88">
         <v>0.74</v>
       </c>
@@ -3279,6 +3393,9 @@
       <c r="D89" s="5">
         <v>0.81</v>
       </c>
+      <c r="G89">
+        <v>0.63</v>
+      </c>
       <c r="J89">
         <v>0.74</v>
       </c>
@@ -3296,6 +3413,9 @@
       <c r="D90" s="5">
         <v>0.72</v>
       </c>
+      <c r="G90">
+        <v>0.52</v>
+      </c>
       <c r="J90">
         <v>0.89</v>
       </c>
@@ -3313,6 +3433,9 @@
       <c r="D91" s="5">
         <v>0.81</v>
       </c>
+      <c r="G91">
+        <v>0.56000000000000005</v>
+      </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
@@ -3327,6 +3450,9 @@
       <c r="D92" s="5">
         <v>0.94</v>
       </c>
+      <c r="G92">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
@@ -3341,6 +3467,9 @@
       <c r="D93" s="5">
         <v>0.86</v>
       </c>
+      <c r="G93">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
@@ -3355,6 +3484,9 @@
       <c r="D94" s="5">
         <v>0.75</v>
       </c>
+      <c r="G94">
+        <v>0.32</v>
+      </c>
       <c r="J94">
         <v>0.65</v>
       </c>
@@ -3372,6 +3504,9 @@
       <c r="D95" s="5">
         <v>0.75</v>
       </c>
+      <c r="G95">
+        <v>0.51</v>
+      </c>
       <c r="J95">
         <v>0.74</v>
       </c>
@@ -3389,6 +3524,9 @@
       <c r="D96" s="5">
         <v>0.89</v>
       </c>
+      <c r="G96">
+        <v>0.69</v>
+      </c>
       <c r="J96">
         <v>0.83</v>
       </c>
@@ -3406,6 +3544,9 @@
       <c r="D97" s="5">
         <v>0.97</v>
       </c>
+      <c r="G97">
+        <v>0.72</v>
+      </c>
       <c r="J97">
         <v>0.83</v>
       </c>
@@ -3423,6 +3564,9 @@
       <c r="D98" s="5">
         <v>0.89</v>
       </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
       <c r="J98">
         <v>0.56000000000000005</v>
       </c>
@@ -3440,6 +3584,9 @@
       <c r="D99" s="5">
         <v>0.81</v>
       </c>
+      <c r="G99">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
@@ -3454,6 +3601,9 @@
       <c r="D100" s="5">
         <v>0.94</v>
       </c>
+      <c r="G100">
+        <v>0.57999999999999996</v>
+      </c>
       <c r="J100">
         <v>0.76</v>
       </c>
@@ -3471,6 +3621,9 @@
       <c r="D101" s="5">
         <v>0.94</v>
       </c>
+      <c r="G101">
+        <v>0.7</v>
+      </c>
       <c r="J101">
         <v>0.85</v>
       </c>
@@ -3488,6 +3641,9 @@
       <c r="D102" s="5">
         <v>0.57999999999999996</v>
       </c>
+      <c r="G102">
+        <v>0.59</v>
+      </c>
       <c r="J102">
         <v>0.74</v>
       </c>
@@ -5382,6 +5538,23 @@
       </c>
       <c r="J223">
         <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>455</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C224" t="s">
+        <v>106</v>
+      </c>
+      <c r="D224" s="5">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F4EA20-4EA3-794C-9569-5546AB9290A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12FBA23-D8C5-3E4B-AE65-EFC4F13F3C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2540" yWindow="1360" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="459">
   <si>
     <t>Surname</t>
   </si>
@@ -1407,6 +1407,12 @@
   </si>
   <si>
     <t>H250505V</t>
+  </si>
+  <si>
+    <t>Mushayapokuvaka</t>
+  </si>
+  <si>
+    <t>H220311Y</t>
   </si>
 </sst>
 </file>
@@ -1514,10 +1520,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16CEB027-FB46-1A44-BA46-BD4AD30C864F}" name="Table1" displayName="Table1" ref="A1:M224" totalsRowShown="0">
-  <autoFilter ref="A1:M224" xr:uid="{16CEB027-FB46-1A44-BA46-BD4AD30C864F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M223">
-    <sortCondition ref="C1:C223"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16CEB027-FB46-1A44-BA46-BD4AD30C864F}" name="Table1" displayName="Table1" ref="A1:M225" totalsRowShown="0">
+  <autoFilter ref="A1:M225" xr:uid="{16CEB027-FB46-1A44-BA46-BD4AD30C864F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M225">
+    <sortCondition ref="C1:C225"/>
   </sortState>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{1B9A59CC-67BA-3D4E-8BF2-E846FAA4CCF7}" name="Surname"/>
@@ -1855,10 +1861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
-  <dimension ref="A1:M224"/>
+  <dimension ref="A1:M225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D226" sqref="D226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -3128,27 +3134,27 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>153</v>
+        <v>455</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>154</v>
+        <v>456</v>
       </c>
       <c r="C76" t="s">
         <v>106</v>
       </c>
       <c r="D76" s="5">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>0.75</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C77" t="s">
         <v>106</v>
@@ -3157,184 +3163,181 @@
         <v>0.97</v>
       </c>
       <c r="G77">
-        <v>0.77</v>
-      </c>
-      <c r="J77">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>157</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="C78" t="s">
         <v>106</v>
       </c>
       <c r="D78" s="5">
-        <v>0.94</v>
+        <v>0.97</v>
       </c>
       <c r="G78">
-        <v>0.73</v>
+        <v>0.77</v>
       </c>
       <c r="J78">
-        <v>0.85</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>159</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="C79" t="s">
         <v>106</v>
       </c>
       <c r="D79" s="5">
-        <v>0.69</v>
+        <v>0.94</v>
       </c>
       <c r="G79">
-        <v>0.54</v>
+        <v>0.73</v>
       </c>
       <c r="J79">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>161</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="C80" t="s">
         <v>106</v>
       </c>
       <c r="D80" s="5">
-        <v>0.92</v>
+        <v>0.69</v>
       </c>
       <c r="G80">
-        <v>0.55000000000000004</v>
+        <v>0.54</v>
       </c>
       <c r="J80">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>163</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="C81" t="s">
         <v>106</v>
       </c>
       <c r="D81" s="5">
-        <v>0.56000000000000005</v>
+        <v>0.92</v>
       </c>
       <c r="G81">
-        <v>0.38</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J81">
-        <v>0.65</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C82" t="s">
         <v>106</v>
       </c>
       <c r="D82" s="5">
-        <v>0.94</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="G82">
-        <v>0.72</v>
+        <v>0.38</v>
       </c>
       <c r="J82">
-        <v>0.76</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>167</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="C83" t="s">
         <v>106</v>
       </c>
       <c r="D83" s="5">
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="G83">
-        <v>0.52</v>
+        <v>0.72</v>
+      </c>
+      <c r="J83">
+        <v>0.76</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>169</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="C84" t="s">
         <v>106</v>
       </c>
       <c r="D84" s="5">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="G84">
-        <v>0.61</v>
-      </c>
-      <c r="J84">
-        <v>0.83</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C85" t="s">
         <v>106</v>
       </c>
       <c r="D85" s="5">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="G85">
-        <v>0.68</v>
+        <v>0.61</v>
       </c>
       <c r="J85">
-        <v>0.74</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>454</v>
+        <v>171</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="C86" t="s">
         <v>106</v>
       </c>
       <c r="D86" s="5">
-        <v>0.61</v>
+        <v>1</v>
       </c>
       <c r="G86">
-        <v>0.62</v>
+        <v>0.68</v>
       </c>
       <c r="J86">
         <v>0.74</v>
@@ -3342,59 +3345,59 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>68</v>
+        <v>454</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="C87" t="s">
         <v>106</v>
       </c>
       <c r="D87" s="5">
-        <v>0.94</v>
+        <v>0.61</v>
       </c>
       <c r="G87">
-        <v>0.7</v>
+        <v>0.62</v>
       </c>
       <c r="J87">
-        <v>0.65</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>174</v>
+        <v>68</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C88" t="s">
         <v>106</v>
       </c>
       <c r="D88" s="5">
-        <v>0.53</v>
+        <v>0.94</v>
       </c>
       <c r="G88">
-        <v>0.51</v>
+        <v>0.7</v>
       </c>
       <c r="J88">
-        <v>0.74</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C89" t="s">
         <v>106</v>
       </c>
       <c r="D89" s="5">
-        <v>0.81</v>
+        <v>0.53</v>
       </c>
       <c r="G89">
-        <v>0.63</v>
+        <v>0.51</v>
       </c>
       <c r="J89">
         <v>0.74</v>
@@ -3402,101 +3405,101 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C90" t="s">
         <v>106</v>
       </c>
       <c r="D90" s="5">
-        <v>0.72</v>
+        <v>0.81</v>
       </c>
       <c r="G90">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
       <c r="J90">
-        <v>0.89</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C91" t="s">
         <v>106</v>
       </c>
       <c r="D91" s="5">
-        <v>0.81</v>
+        <v>0.72</v>
       </c>
       <c r="G91">
-        <v>0.56000000000000005</v>
+        <v>0.52</v>
+      </c>
+      <c r="J91">
+        <v>0.89</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C92" t="s">
         <v>106</v>
       </c>
       <c r="D92" s="5">
-        <v>0.94</v>
+        <v>0.81</v>
       </c>
       <c r="G92">
-        <v>0.62</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>184</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="C93" t="s">
         <v>106</v>
       </c>
       <c r="D93" s="5">
-        <v>0.86</v>
+        <v>0.94</v>
       </c>
       <c r="G93">
-        <v>0.7</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>186</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="C94" t="s">
         <v>106</v>
       </c>
       <c r="D94" s="5">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="G94">
-        <v>0.32</v>
-      </c>
-      <c r="J94">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>188</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="C95" t="s">
         <v>106</v>
@@ -3505,47 +3508,47 @@
         <v>0.75</v>
       </c>
       <c r="G95">
-        <v>0.51</v>
+        <v>0.32</v>
       </c>
       <c r="J95">
-        <v>0.74</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C96" t="s">
         <v>106</v>
       </c>
       <c r="D96" s="5">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="G96">
-        <v>0.69</v>
+        <v>0.51</v>
       </c>
       <c r="J96">
-        <v>0.83</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>192</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="C97" t="s">
         <v>106</v>
       </c>
       <c r="D97" s="5">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="G97">
-        <v>0.72</v>
+        <v>0.69</v>
       </c>
       <c r="J97">
         <v>0.83</v>
@@ -3555,65 +3558,65 @@
       <c r="A98" t="s">
         <v>192</v>
       </c>
-      <c r="B98" s="3" t="s">
-        <v>194</v>
+      <c r="B98" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="C98" t="s">
         <v>106</v>
       </c>
       <c r="D98" s="5">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="J98">
-        <v>0.56000000000000005</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>195</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
       </c>
       <c r="D99" s="5">
-        <v>0.81</v>
+        <v>0.89</v>
       </c>
       <c r="G99">
-        <v>0.69</v>
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>453</v>
+        <v>196</v>
       </c>
       <c r="C100" t="s">
         <v>106</v>
       </c>
       <c r="D100" s="5">
-        <v>0.94</v>
+        <v>0.81</v>
       </c>
       <c r="G100">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="J100">
-        <v>0.76</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>199</v>
+        <v>453</v>
       </c>
       <c r="C101" t="s">
         <v>106</v>
@@ -3622,329 +3625,386 @@
         <v>0.94</v>
       </c>
       <c r="G101">
-        <v>0.7</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J101">
-        <v>0.85</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C102" t="s">
         <v>106</v>
       </c>
       <c r="D102" s="5">
-        <v>0.57999999999999996</v>
+        <v>0.94</v>
       </c>
       <c r="G102">
-        <v>0.59</v>
+        <v>0.7</v>
       </c>
       <c r="J102">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C103" t="s">
-        <v>203</v>
+        <v>106</v>
       </c>
       <c r="D103" s="5">
-        <v>0.89</v>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G103">
+        <v>0.59</v>
       </c>
       <c r="J103">
-        <v>0.46</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C104" t="s">
         <v>203</v>
       </c>
       <c r="D104" s="5">
-        <v>0.94</v>
+        <v>0.89</v>
+      </c>
+      <c r="G104">
+        <v>0.57999999999999996</v>
       </c>
       <c r="J104">
-        <v>0.69</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>207</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="C105" t="s">
         <v>203</v>
       </c>
       <c r="D105" s="5">
-        <v>0.75</v>
+        <v>0.94</v>
+      </c>
+      <c r="G105">
+        <v>0.51</v>
+      </c>
+      <c r="J105">
+        <v>0.69</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>209</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="C106" t="s">
         <v>203</v>
       </c>
       <c r="D106" s="5">
-        <v>0.97</v>
+        <v>0.75</v>
+      </c>
+      <c r="G106">
+        <v>0.66</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C107" t="s">
         <v>203</v>
       </c>
       <c r="D107" s="5">
-        <v>0.75</v>
+        <v>0.97</v>
+      </c>
+      <c r="G107">
+        <v>0.54</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C108" t="s">
         <v>203</v>
       </c>
       <c r="D108" s="5">
-        <v>0.92</v>
-      </c>
-      <c r="J108">
-        <v>0.87</v>
+        <v>0.75</v>
+      </c>
+      <c r="G108">
+        <v>0.43</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C109" t="s">
         <v>203</v>
       </c>
       <c r="D109" s="5">
-        <v>0.89</v>
+        <v>0.92</v>
+      </c>
+      <c r="G109">
+        <v>0.56999999999999995</v>
       </c>
       <c r="J109">
-        <v>0.46</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C110" t="s">
         <v>203</v>
       </c>
       <c r="D110" s="5">
-        <v>0.94</v>
+        <v>0.89</v>
+      </c>
+      <c r="G110">
+        <v>0.57999999999999996</v>
       </c>
       <c r="J110">
-        <v>0.69</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C111" t="s">
         <v>203</v>
       </c>
       <c r="D111" s="5">
-        <v>0.97</v>
+        <v>0.94</v>
+      </c>
+      <c r="G111">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J111">
+        <v>0.69</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C112" t="s">
         <v>203</v>
       </c>
       <c r="D112" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="J112">
-        <v>0.46</v>
+        <v>0.97</v>
+      </c>
+      <c r="G112">
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C113" t="s">
         <v>203</v>
       </c>
       <c r="D113" s="5">
-        <v>0.75</v>
+        <v>0.89</v>
+      </c>
+      <c r="G113">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J113">
+        <v>0.46</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C114" t="s">
         <v>203</v>
       </c>
       <c r="D114" s="5">
-        <v>0.78</v>
-      </c>
-      <c r="J114">
-        <v>0.78</v>
+        <v>0.75</v>
+      </c>
+      <c r="G114">
+        <v>0.45</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>226</v>
+        <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C115" t="s">
         <v>203</v>
       </c>
       <c r="D115" s="5">
-        <v>0.92</v>
+        <v>0.78</v>
+      </c>
+      <c r="G115">
+        <v>0.43</v>
       </c>
       <c r="J115">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C116" t="s">
         <v>203</v>
       </c>
       <c r="D116" s="5">
-        <v>0.78</v>
+        <v>0.92</v>
+      </c>
+      <c r="G116">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J116">
+        <v>0.65</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C117" t="s">
         <v>203</v>
       </c>
       <c r="D117" s="5">
-        <v>0.94</v>
+        <v>0.78</v>
+      </c>
+      <c r="G117">
+        <v>0.36</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C118" t="s">
         <v>203</v>
       </c>
       <c r="D118" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="J118">
-        <v>0.65</v>
+        <v>0.94</v>
+      </c>
+      <c r="G118">
+        <v>0.61</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C119" t="s">
         <v>203</v>
       </c>
       <c r="D119" s="5">
-        <v>0.94</v>
+        <v>0.89</v>
+      </c>
+      <c r="G119">
+        <v>0.49</v>
       </c>
       <c r="J119">
-        <v>0.87</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C120" t="s">
         <v>203</v>
       </c>
       <c r="D120" s="5">
-        <v>0.92</v>
+        <v>0.94</v>
+      </c>
+      <c r="G120">
+        <v>0.6</v>
       </c>
       <c r="J120">
-        <v>0.69</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C121" t="s">
         <v>203</v>
       </c>
       <c r="D121" s="5">
-        <v>0.94</v>
+        <v>0.92</v>
+      </c>
+      <c r="G121">
+        <v>0.39</v>
       </c>
       <c r="J121">
         <v>0.69</v>
@@ -3952,275 +4012,326 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>240</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="C122" t="s">
         <v>203</v>
       </c>
       <c r="D122" s="5">
-        <v>0.78</v>
+        <v>0.94</v>
+      </c>
+      <c r="G122">
+        <v>0.64</v>
       </c>
       <c r="J122">
-        <v>0.78</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>242</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="C123" t="s">
         <v>203</v>
       </c>
       <c r="D123" s="5">
-        <v>0.86</v>
+        <v>0.78</v>
+      </c>
+      <c r="G123">
+        <v>0.37</v>
       </c>
       <c r="J123">
-        <v>0.87</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C124" t="s">
         <v>203</v>
       </c>
       <c r="D124" s="5">
-        <v>1</v>
+        <v>0.86</v>
+      </c>
+      <c r="G124">
+        <v>0.64</v>
+      </c>
+      <c r="J124">
+        <v>0.87</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C125" t="s">
         <v>203</v>
       </c>
       <c r="D125" s="5">
-        <v>0.92</v>
-      </c>
-      <c r="J125">
-        <v>0.87</v>
+        <v>1</v>
+      </c>
+      <c r="G125">
+        <v>0.73</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C126" t="s">
         <v>203</v>
       </c>
       <c r="D126" s="5">
-        <v>0.94</v>
+        <v>0.92</v>
+      </c>
+      <c r="G126">
+        <v>0.6</v>
+      </c>
+      <c r="J126">
+        <v>0.87</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C127" t="s">
         <v>203</v>
       </c>
       <c r="D127" s="5">
-        <v>0.83</v>
+        <v>0.94</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C128" t="s">
         <v>203</v>
       </c>
       <c r="D128" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="J128">
-        <v>0.65</v>
+        <v>0.83</v>
+      </c>
+      <c r="G128">
+        <v>0.63</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C129" t="s">
         <v>203</v>
       </c>
       <c r="D129" s="5">
-        <v>0.78</v>
+        <v>0.75</v>
+      </c>
+      <c r="G129">
+        <v>0.49</v>
+      </c>
+      <c r="J129">
+        <v>0.65</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C130" t="s">
         <v>203</v>
       </c>
       <c r="D130" s="5">
-        <v>0.83</v>
-      </c>
-      <c r="J130">
-        <v>0.87</v>
+        <v>0.78</v>
+      </c>
+      <c r="G130">
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C131" t="s">
         <v>203</v>
       </c>
       <c r="D131" s="5">
-        <v>0.72</v>
+        <v>0.83</v>
+      </c>
+      <c r="G131">
+        <v>0.52</v>
       </c>
       <c r="J131">
-        <v>0.65</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C132" t="s">
         <v>203</v>
       </c>
       <c r="D132" s="5">
-        <v>0.92</v>
+        <v>0.72</v>
+      </c>
+      <c r="G132">
+        <v>0.7</v>
       </c>
       <c r="J132">
-        <v>0.69</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C133" t="s">
         <v>203</v>
       </c>
       <c r="D133" s="5">
-        <v>0.94</v>
+        <v>0.92</v>
+      </c>
+      <c r="G133">
+        <v>0.75</v>
+      </c>
+      <c r="J133">
+        <v>0.69</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C134" t="s">
         <v>203</v>
       </c>
       <c r="D134" s="5">
-        <v>0.83</v>
+        <v>0.94</v>
+      </c>
+      <c r="G134">
+        <v>0.6</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C135" t="s">
         <v>203</v>
       </c>
       <c r="D135" s="5">
-        <v>0.92</v>
+        <v>0.83</v>
+      </c>
+      <c r="G135">
+        <v>0.46</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>70</v>
+        <v>266</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C136" t="s">
         <v>203</v>
       </c>
       <c r="D136" s="5">
-        <v>0.81</v>
-      </c>
-      <c r="J136">
-        <v>0.78</v>
+        <v>0.92</v>
+      </c>
+      <c r="G136">
+        <v>0.66</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>269</v>
+        <v>70</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C137" t="s">
         <v>203</v>
       </c>
       <c r="D137" s="5">
-        <v>0.94</v>
+        <v>0.81</v>
+      </c>
+      <c r="G137">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J137">
+        <v>0.78</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C138" t="s">
         <v>203</v>
       </c>
       <c r="D138" s="5">
-        <v>0.83</v>
-      </c>
-      <c r="J138">
-        <v>0.65</v>
+        <v>0.94</v>
+      </c>
+      <c r="G138">
+        <v>0.82</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C139" t="s">
         <v>203</v>
@@ -4228,44 +4339,53 @@
       <c r="D139" s="5">
         <v>0.83</v>
       </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C140" t="s">
         <v>203</v>
       </c>
       <c r="D140" s="5">
-        <v>0.94</v>
+        <v>0.83</v>
+      </c>
+      <c r="G140">
+        <v>0.54</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>277</v>
+        <v>457</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>278</v>
+        <v>458</v>
       </c>
       <c r="C141" t="s">
         <v>203</v>
       </c>
       <c r="D141" s="5">
-        <v>0.92</v>
-      </c>
-      <c r="J141">
-        <v>0.72</v>
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>0.48</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C142" t="s">
         <v>203</v>
@@ -4273,30 +4393,36 @@
       <c r="D142" s="5">
         <v>0.94</v>
       </c>
-      <c r="J142">
-        <v>0.78</v>
+      <c r="G142">
+        <v>0.66</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C143" t="s">
         <v>203</v>
       </c>
       <c r="D143" s="5">
-        <v>0.94</v>
+        <v>0.92</v>
+      </c>
+      <c r="G143">
+        <v>0.66</v>
+      </c>
+      <c r="J143">
+        <v>0.72</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C144" t="s">
         <v>203</v>
@@ -4304,53 +4430,65 @@
       <c r="D144" s="5">
         <v>0.94</v>
       </c>
+      <c r="G144">
+        <v>0.78</v>
+      </c>
       <c r="J144">
-        <v>0.69</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C145" t="s">
         <v>203</v>
       </c>
       <c r="D145" s="5">
-        <v>0.92</v>
-      </c>
-      <c r="J145">
-        <v>0.46</v>
+        <v>0.94</v>
+      </c>
+      <c r="G145">
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C146" t="s">
         <v>203</v>
       </c>
       <c r="D146" s="5">
-        <v>0.92</v>
+        <v>0.94</v>
+      </c>
+      <c r="G146">
+        <v>0.7</v>
+      </c>
+      <c r="J146">
+        <v>0.69</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C147" t="s">
         <v>203</v>
       </c>
       <c r="D147" s="5">
-        <v>0.97</v>
+        <v>0.92</v>
+      </c>
+      <c r="G147">
+        <v>0.31</v>
       </c>
       <c r="J147">
         <v>0.46</v>
@@ -4358,100 +4496,121 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C148" t="s">
         <v>203</v>
       </c>
       <c r="D148" s="5">
-        <v>0.97</v>
-      </c>
-      <c r="J148">
-        <v>0.46</v>
+        <v>0.92</v>
+      </c>
+      <c r="G148">
+        <v>0.45</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C149" t="s">
         <v>203</v>
       </c>
       <c r="D149" s="5">
-        <v>0.94</v>
+        <v>0.97</v>
+      </c>
+      <c r="G149">
+        <v>0.6</v>
       </c>
       <c r="J149">
-        <v>0.78</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C150" t="s">
         <v>203</v>
       </c>
       <c r="D150" s="5">
-        <v>0.89</v>
+        <v>0.97</v>
+      </c>
+      <c r="G150">
+        <v>0.51</v>
+      </c>
+      <c r="J150">
+        <v>0.46</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C151" t="s">
         <v>203</v>
       </c>
       <c r="D151" s="5">
-        <v>1</v>
+        <v>0.94</v>
+      </c>
+      <c r="G151">
+        <v>0.64</v>
+      </c>
+      <c r="J151">
+        <v>0.78</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>299</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>300</v>
+        <v>295</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>296</v>
       </c>
       <c r="C152" t="s">
         <v>203</v>
       </c>
       <c r="D152" s="5">
-        <v>1</v>
+        <v>0.89</v>
+      </c>
+      <c r="G152">
+        <v>0.73</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C153" t="s">
         <v>203</v>
       </c>
       <c r="D153" s="5">
-        <v>0.89</v>
+        <v>1</v>
+      </c>
+      <c r="G153">
+        <v>0.66</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C154" t="s">
         <v>203</v>
@@ -4459,272 +4618,284 @@
       <c r="D154" s="5">
         <v>1</v>
       </c>
+      <c r="G154">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C155" t="s">
         <v>203</v>
       </c>
       <c r="D155" s="5">
-        <v>0.94</v>
+        <v>0.89</v>
+      </c>
+      <c r="G155">
+        <v>0.72</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C156" t="s">
         <v>203</v>
       </c>
       <c r="D156" s="5">
-        <v>0.83</v>
-      </c>
-      <c r="J156">
-        <v>0.78</v>
+        <v>1</v>
+      </c>
+      <c r="G156">
+        <v>0.64</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C157" t="s">
-        <v>310</v>
+        <v>203</v>
       </c>
       <c r="D157" s="5">
-        <v>0.86</v>
-      </c>
-      <c r="J157">
-        <v>0.91</v>
+        <v>0.94</v>
+      </c>
+      <c r="G157">
+        <v>0.43</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>312</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>313</v>
+        <v>307</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>308</v>
       </c>
       <c r="C158" t="s">
-        <v>310</v>
+        <v>203</v>
       </c>
       <c r="D158" s="5">
-        <v>1</v>
+        <v>0.83</v>
+      </c>
+      <c r="G158">
+        <v>0.48</v>
       </c>
       <c r="J158">
-        <v>0.72</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>314</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>315</v>
+        <v>309</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="C159" t="s">
         <v>310</v>
       </c>
       <c r="D159" s="5">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="J159">
-        <v>0.69</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C160" t="s">
         <v>310</v>
       </c>
       <c r="D160" s="5">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="J160">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C161" t="s">
         <v>310</v>
       </c>
       <c r="D161" s="5">
-        <v>0.81</v>
+        <v>0.92</v>
+      </c>
+      <c r="J161">
+        <v>0.69</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C162" t="s">
         <v>310</v>
       </c>
       <c r="D162" s="5">
-        <v>0.89</v>
+        <v>0.92</v>
+      </c>
+      <c r="J162">
+        <v>0.7</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>322</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>319</v>
       </c>
       <c r="C163" t="s">
         <v>310</v>
       </c>
       <c r="D163" s="5">
-        <v>0.97</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C164" t="s">
         <v>310</v>
       </c>
       <c r="D164" s="5">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C165" t="s">
         <v>310</v>
       </c>
       <c r="D165" s="5">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>328</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>329</v>
+        <v>324</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C166" t="s">
         <v>310</v>
       </c>
       <c r="D166" s="5">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C167" t="s">
         <v>310</v>
       </c>
       <c r="D167" s="5">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>332</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>329</v>
       </c>
       <c r="C168" t="s">
         <v>310</v>
       </c>
       <c r="D168" s="5">
-        <v>0.56000000000000005</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C169" t="s">
         <v>310</v>
       </c>
       <c r="D169" s="5">
-        <v>0.83</v>
-      </c>
-      <c r="J169">
-        <v>0.72</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C170" t="s">
         <v>310</v>
       </c>
       <c r="D170" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="J170">
         <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C171" t="s">
         <v>310</v>
       </c>
       <c r="D171" s="5">
-        <v>0.92</v>
+        <v>0.83</v>
+      </c>
+      <c r="J171">
+        <v>0.72</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C172" t="s">
         <v>310</v>
@@ -4733,201 +4904,198 @@
         <v>0.89</v>
       </c>
       <c r="J172">
-        <v>0.83</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>342</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>343</v>
+        <v>338</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>339</v>
       </c>
       <c r="C173" t="s">
         <v>310</v>
       </c>
       <c r="D173" s="5">
-        <v>0</v>
-      </c>
-      <c r="J173">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C174" t="s">
         <v>310</v>
       </c>
       <c r="D174" s="5">
-        <v>1</v>
+        <v>0.89</v>
+      </c>
+      <c r="J174">
+        <v>0.83</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>346</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>347</v>
+        <v>342</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>343</v>
       </c>
       <c r="C175" t="s">
         <v>310</v>
       </c>
       <c r="D175" s="5">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="J175">
-        <v>0.56000000000000005</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C176" t="s">
         <v>310</v>
       </c>
       <c r="D176" s="5">
-        <v>0.94</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>350</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>347</v>
       </c>
       <c r="C177" t="s">
         <v>310</v>
       </c>
       <c r="D177" s="5">
-        <v>0.97</v>
+        <v>0.89</v>
+      </c>
+      <c r="J177">
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C178" t="s">
         <v>310</v>
       </c>
       <c r="D178" s="5">
-        <v>0.92</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C179" t="s">
         <v>310</v>
       </c>
       <c r="D179" s="5">
-        <v>0.92</v>
-      </c>
-      <c r="J179">
-        <v>0.7</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C180" t="s">
         <v>310</v>
       </c>
       <c r="D180" s="5">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C181" t="s">
         <v>310</v>
       </c>
       <c r="D181" s="5">
-        <v>0.94</v>
+        <v>0.92</v>
+      </c>
+      <c r="J181">
+        <v>0.7</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C182" t="s">
         <v>310</v>
       </c>
       <c r="D182" s="5">
-        <v>1</v>
-      </c>
-      <c r="J182">
-        <v>0.72</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C183" t="s">
         <v>310</v>
       </c>
       <c r="D183" s="5">
-        <v>0.92</v>
-      </c>
-      <c r="J183">
-        <v>0.56000000000000005</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>452</v>
+        <v>360</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>451</v>
+        <v>361</v>
       </c>
       <c r="C184" t="s">
         <v>310</v>
       </c>
       <c r="D184" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C185" t="s">
         <v>310</v>
@@ -4936,15 +5104,15 @@
         <v>0.92</v>
       </c>
       <c r="J185">
-        <v>0.83</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>366</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>367</v>
+        <v>452</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>451</v>
       </c>
       <c r="C186" t="s">
         <v>310</v>
@@ -4953,35 +5121,38 @@
         <v>0</v>
       </c>
       <c r="J186">
-        <v>0.91</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C187" t="s">
         <v>310</v>
       </c>
       <c r="D187" s="5">
-        <v>0.67</v>
+        <v>0.92</v>
+      </c>
+      <c r="J187">
+        <v>0.83</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>370</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>371</v>
+        <v>366</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>367</v>
       </c>
       <c r="C188" t="s">
         <v>310</v>
       </c>
       <c r="D188" s="5">
-        <v>0.69</v>
+        <v>0</v>
       </c>
       <c r="J188">
         <v>0.91</v>
@@ -4989,402 +5160,399 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C189" t="s">
         <v>310</v>
       </c>
       <c r="D189" s="5">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C190" t="s">
         <v>310</v>
       </c>
       <c r="D190" s="5">
-        <v>0.97</v>
+        <v>0.69</v>
       </c>
       <c r="J190">
-        <v>0.85</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C191" t="s">
         <v>310</v>
       </c>
       <c r="D191" s="5">
-        <v>0.69</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C192" t="s">
         <v>310</v>
       </c>
       <c r="D192" s="5">
-        <v>0.92</v>
+        <v>0.97</v>
+      </c>
+      <c r="J192">
+        <v>0.85</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C193" t="s">
         <v>310</v>
       </c>
       <c r="D193" s="5">
-        <v>0.97</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C194" t="s">
         <v>310</v>
       </c>
       <c r="D194" s="5">
-        <v>0.81</v>
-      </c>
-      <c r="J194">
-        <v>0.85</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>383</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>384</v>
+        <v>379</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>380</v>
       </c>
       <c r="C195" t="s">
         <v>310</v>
       </c>
       <c r="D195" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="J195">
-        <v>0.83</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C196" t="s">
         <v>310</v>
       </c>
       <c r="D196" s="5">
-        <v>0.83</v>
+        <v>0.81</v>
+      </c>
+      <c r="J196">
+        <v>0.85</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>387</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>384</v>
       </c>
       <c r="C197" t="s">
         <v>310</v>
       </c>
       <c r="D197" s="5">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="J197">
-        <v>0.72</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C198" t="s">
         <v>310</v>
       </c>
       <c r="D198" s="5">
-        <v>0.78</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C199" t="s">
         <v>310</v>
       </c>
       <c r="D199" s="5">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="J199">
-        <v>0.69</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C200" t="s">
         <v>310</v>
       </c>
       <c r="D200" s="5">
-        <v>0.81</v>
-      </c>
-      <c r="J200">
-        <v>0.7</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C201" t="s">
         <v>310</v>
       </c>
       <c r="D201" s="5">
-        <v>0.86</v>
+        <v>0.97</v>
+      </c>
+      <c r="J201">
+        <v>0.69</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C202" t="s">
         <v>310</v>
       </c>
       <c r="D202" s="5">
-        <v>0.97</v>
+        <v>0.81</v>
+      </c>
+      <c r="J202">
+        <v>0.7</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C203" t="s">
         <v>310</v>
       </c>
       <c r="D203" s="5">
-        <v>0.92</v>
-      </c>
-      <c r="J203">
-        <v>0.69</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C204" t="s">
         <v>310</v>
       </c>
       <c r="D204" s="5">
-        <v>0.86</v>
-      </c>
-      <c r="J204">
-        <v>0.83</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C205" t="s">
         <v>310</v>
       </c>
       <c r="D205" s="5">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="J205">
-        <v>0.72</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C206" t="s">
         <v>310</v>
       </c>
       <c r="D206" s="5">
-        <v>0.97</v>
+        <v>0.86</v>
       </c>
       <c r="J206">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C207" t="s">
         <v>310</v>
       </c>
       <c r="D207" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="J207">
         <v>0.72</v>
-      </c>
-      <c r="J207">
-        <v>0.85</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C208" t="s">
         <v>310</v>
       </c>
       <c r="D208" s="5">
-        <v>0.94</v>
+        <v>0.97</v>
       </c>
       <c r="J208">
-        <v>0.69</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C209" t="s">
         <v>310</v>
       </c>
       <c r="D209" s="5">
-        <v>0.67</v>
+        <v>0.72</v>
+      </c>
+      <c r="J209">
+        <v>0.85</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>413</v>
-      </c>
-      <c r="B210" s="3" t="s">
-        <v>414</v>
+        <v>409</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>410</v>
       </c>
       <c r="C210" t="s">
         <v>310</v>
       </c>
       <c r="D210" s="5">
-        <v>0.72</v>
+        <v>0.94</v>
+      </c>
+      <c r="J210">
+        <v>0.69</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C211" t="s">
         <v>310</v>
       </c>
       <c r="D211" s="5">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>417</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>418</v>
+        <v>413</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>414</v>
       </c>
       <c r="C212" t="s">
         <v>310</v>
       </c>
       <c r="D212" s="5">
-        <v>0.97</v>
-      </c>
-      <c r="J212">
-        <v>0.83</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C213" t="s">
         <v>310</v>
       </c>
       <c r="D213" s="5">
-        <v>0.92</v>
-      </c>
-      <c r="J213">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C214" t="s">
         <v>310</v>
@@ -5392,75 +5560,78 @@
       <c r="D214" s="5">
         <v>0.97</v>
       </c>
+      <c r="J214">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C215" t="s">
         <v>310</v>
       </c>
       <c r="D215" s="5">
-        <v>0.86</v>
+        <v>0.92</v>
+      </c>
+      <c r="J215">
+        <v>0.91</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C216" t="s">
         <v>310</v>
       </c>
       <c r="D216" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="J216">
-        <v>0.83</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C217" t="s">
         <v>310</v>
       </c>
       <c r="D217" s="5">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C218" t="s">
         <v>310</v>
       </c>
       <c r="D218" s="5">
-        <v>0.94</v>
+        <v>0.89</v>
       </c>
       <c r="J218">
-        <v>0.7</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C219" t="s">
         <v>310</v>
@@ -5468,50 +5639,47 @@
       <c r="D219" s="5">
         <v>0.89</v>
       </c>
-      <c r="J219">
-        <v>0.7</v>
-      </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C220" t="s">
         <v>310</v>
       </c>
       <c r="D220" s="5">
-        <v>0.86</v>
+        <v>0.94</v>
       </c>
       <c r="J220">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C221" t="s">
         <v>310</v>
       </c>
       <c r="D221" s="5">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="J221">
-        <v>0.56000000000000005</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>437</v>
-      </c>
-      <c r="B222" s="3" t="s">
-        <v>438</v>
+        <v>433</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="C222" t="s">
         <v>310</v>
@@ -5520,21 +5688,21 @@
         <v>0.86</v>
       </c>
       <c r="J222">
-        <v>0.91</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>439</v>
-      </c>
-      <c r="B223" s="3" t="s">
-        <v>440</v>
+        <v>435</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>436</v>
       </c>
       <c r="C223" t="s">
         <v>310</v>
       </c>
       <c r="D223" s="5">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="J223">
         <v>0.56000000000000005</v>
@@ -5542,19 +5710,36 @@
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>455</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>456</v>
+        <v>437</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="C224" t="s">
-        <v>106</v>
+        <v>310</v>
       </c>
       <c r="D224" s="5">
-        <v>0</v>
-      </c>
-      <c r="G224">
-        <v>0.2</v>
+        <v>0.86</v>
+      </c>
+      <c r="J224">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>439</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C225" t="s">
+        <v>310</v>
+      </c>
+      <c r="D225" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="J225">
+        <v>0.56000000000000005</v>
       </c>
     </row>
   </sheetData>

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12FBA23-D8C5-3E4B-AE65-EFC4F13F3C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED8DA50-74FB-294A-BABB-194421AB85C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2540" yWindow="1360" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D226" sqref="D226"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1923,6 +1923,9 @@
       <c r="D2" s="5">
         <v>0.94</v>
       </c>
+      <c r="G2">
+        <v>0.56000000000000005</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1937,6 +1940,9 @@
       <c r="D3" s="5">
         <v>0.94</v>
       </c>
+      <c r="G3">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1951,6 +1957,9 @@
       <c r="D4" s="5">
         <v>0.75</v>
       </c>
+      <c r="G4">
+        <v>0.72</v>
+      </c>
       <c r="J4">
         <v>0.91</v>
       </c>
@@ -1968,6 +1977,9 @@
       <c r="D5" s="5">
         <v>0.67</v>
       </c>
+      <c r="G5">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1982,6 +1994,9 @@
       <c r="D6" s="5">
         <v>0.86</v>
       </c>
+      <c r="G6">
+        <v>0.63</v>
+      </c>
       <c r="J6">
         <v>0.91</v>
       </c>
@@ -1999,6 +2014,9 @@
       <c r="D7" s="5">
         <v>0.92</v>
       </c>
+      <c r="G7">
+        <v>0.57999999999999996</v>
+      </c>
       <c r="J7">
         <v>0.8</v>
       </c>
@@ -2016,6 +2034,9 @@
       <c r="D8" s="5">
         <v>0.78</v>
       </c>
+      <c r="G8">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2030,6 +2051,9 @@
       <c r="D9" s="5">
         <v>0.92</v>
       </c>
+      <c r="G9">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2044,6 +2068,9 @@
       <c r="D10" s="5">
         <v>0.89</v>
       </c>
+      <c r="G10">
+        <v>0.56000000000000005</v>
+      </c>
       <c r="J10">
         <v>0.8</v>
       </c>
@@ -2061,6 +2088,9 @@
       <c r="D11" s="5">
         <v>0.94</v>
       </c>
+      <c r="G11">
+        <v>0.77</v>
+      </c>
       <c r="J11">
         <v>0.91</v>
       </c>
@@ -2078,6 +2108,9 @@
       <c r="D12" s="5">
         <v>1</v>
       </c>
+      <c r="G12">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2092,6 +2125,9 @@
       <c r="D13" s="5">
         <v>1</v>
       </c>
+      <c r="G13">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2106,6 +2142,9 @@
       <c r="D14" s="5">
         <v>0.75</v>
       </c>
+      <c r="G14">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2120,6 +2159,9 @@
       <c r="D15" s="5">
         <v>0.75</v>
       </c>
+      <c r="G15">
+        <v>0.56000000000000005</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2134,6 +2176,9 @@
       <c r="D16" s="5">
         <v>0.72</v>
       </c>
+      <c r="G16">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -2148,6 +2193,9 @@
       <c r="D17" s="5">
         <v>0.69</v>
       </c>
+      <c r="G17">
+        <v>0.56000000000000005</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -2162,6 +2210,9 @@
       <c r="D18" s="5">
         <v>0.94</v>
       </c>
+      <c r="G18">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -2176,6 +2227,9 @@
       <c r="D19" s="5">
         <v>0.78</v>
       </c>
+      <c r="G19">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -2190,6 +2244,9 @@
       <c r="D20" s="5">
         <v>0.89</v>
       </c>
+      <c r="G20">
+        <v>0.79</v>
+      </c>
       <c r="J20">
         <v>0.91</v>
       </c>
@@ -2207,6 +2264,9 @@
       <c r="D21" s="5">
         <v>0.89</v>
       </c>
+      <c r="G21">
+        <v>0.56000000000000005</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -2221,6 +2281,9 @@
       <c r="D22" s="5">
         <v>0.97</v>
       </c>
+      <c r="G22">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -2235,6 +2298,9 @@
       <c r="D23" s="5">
         <v>0.83</v>
       </c>
+      <c r="G23">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="J23">
         <v>0.81</v>
       </c>
@@ -2252,6 +2318,9 @@
       <c r="D24" s="5">
         <v>0.94</v>
       </c>
+      <c r="G24">
+        <v>0.61</v>
+      </c>
       <c r="J24">
         <v>0.91</v>
       </c>
@@ -2269,6 +2338,9 @@
       <c r="D25" s="5">
         <v>0.78</v>
       </c>
+      <c r="G25">
+        <v>0.56000000000000005</v>
+      </c>
       <c r="J25">
         <v>0.8</v>
       </c>
@@ -2286,6 +2358,9 @@
       <c r="D26" s="5">
         <v>0.81</v>
       </c>
+      <c r="G26">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -2300,6 +2375,9 @@
       <c r="D27" s="5">
         <v>0.97</v>
       </c>
+      <c r="G27">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -2314,6 +2392,9 @@
       <c r="D28" s="5">
         <v>0.81</v>
       </c>
+      <c r="G28">
+        <v>0.73</v>
+      </c>
       <c r="J28">
         <v>0.89</v>
       </c>
@@ -2331,6 +2412,9 @@
       <c r="D29" s="5">
         <v>0.94</v>
       </c>
+      <c r="G29">
+        <v>0.62</v>
+      </c>
       <c r="J29">
         <v>0.81</v>
       </c>
@@ -2348,6 +2432,9 @@
       <c r="D30" s="5">
         <v>0.75</v>
       </c>
+      <c r="G30">
+        <v>0.73</v>
+      </c>
       <c r="J30">
         <v>0.89</v>
       </c>
@@ -2365,6 +2452,9 @@
       <c r="D31" s="5">
         <v>0.83</v>
       </c>
+      <c r="G31">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -2379,6 +2469,9 @@
       <c r="D32" s="5">
         <v>0.89</v>
       </c>
+      <c r="G32">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -2393,6 +2486,9 @@
       <c r="D33" s="5">
         <v>0.78</v>
       </c>
+      <c r="G33">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -2407,6 +2503,9 @@
       <c r="D34" s="5">
         <v>0.94</v>
       </c>
+      <c r="G34">
+        <v>0.65</v>
+      </c>
       <c r="J34">
         <v>0.8</v>
       </c>
@@ -2424,6 +2523,9 @@
       <c r="D35" s="5">
         <v>0.53</v>
       </c>
+      <c r="G35">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -2438,6 +2540,9 @@
       <c r="D36" s="5">
         <v>0.69</v>
       </c>
+      <c r="G36">
+        <v>0.63</v>
+      </c>
       <c r="J36">
         <v>0.5</v>
       </c>
@@ -2455,6 +2560,9 @@
       <c r="D37" s="5">
         <v>0.92</v>
       </c>
+      <c r="G37">
+        <v>0.75</v>
+      </c>
       <c r="J37">
         <v>0.81</v>
       </c>
@@ -2472,6 +2580,9 @@
       <c r="D38" s="5">
         <v>0.81</v>
       </c>
+      <c r="G38">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -2486,6 +2597,9 @@
       <c r="D39" s="5">
         <v>0.97</v>
       </c>
+      <c r="G39">
+        <v>0.72</v>
+      </c>
       <c r="J39">
         <v>0.81</v>
       </c>
@@ -2503,6 +2617,9 @@
       <c r="D40" s="5">
         <v>0.89</v>
       </c>
+      <c r="G40">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -2517,6 +2634,9 @@
       <c r="D41" s="5">
         <v>1</v>
       </c>
+      <c r="G41">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -2531,6 +2651,9 @@
       <c r="D42" s="5">
         <v>0.94</v>
       </c>
+      <c r="G42">
+        <v>0.68</v>
+      </c>
       <c r="J42">
         <v>0.8</v>
       </c>
@@ -2548,6 +2671,9 @@
       <c r="D43" s="5">
         <v>0.92</v>
       </c>
+      <c r="G43">
+        <v>0.83</v>
+      </c>
       <c r="J43">
         <v>0.8</v>
       </c>
@@ -2565,6 +2691,9 @@
       <c r="D44" s="5">
         <v>0.97</v>
       </c>
+      <c r="G44">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -2579,6 +2708,9 @@
       <c r="D45" s="5">
         <v>0.97</v>
       </c>
+      <c r="G45">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -2593,6 +2725,9 @@
       <c r="D46" s="5">
         <v>0.92</v>
       </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -2607,6 +2742,9 @@
       <c r="D47" s="5">
         <v>0.86</v>
       </c>
+      <c r="G47">
+        <v>0.83</v>
+      </c>
       <c r="J47">
         <v>0.81</v>
       </c>
@@ -2624,6 +2762,9 @@
       <c r="D48" s="5">
         <v>0.92</v>
       </c>
+      <c r="G48">
+        <v>0.45</v>
+      </c>
       <c r="J48">
         <v>0.8</v>
       </c>
@@ -2641,6 +2782,9 @@
       <c r="D49" s="5">
         <v>0.97</v>
       </c>
+      <c r="G49">
+        <v>0.8</v>
+      </c>
       <c r="J49">
         <v>0.91</v>
       </c>
@@ -2658,6 +2802,9 @@
       <c r="D50" s="5">
         <v>0.94</v>
       </c>
+      <c r="G50">
+        <v>0.63</v>
+      </c>
       <c r="J50">
         <v>0.81</v>
       </c>
@@ -2675,6 +2822,9 @@
       <c r="D51" s="5">
         <v>0.44</v>
       </c>
+      <c r="G51">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -2689,6 +2839,9 @@
       <c r="D52" s="5">
         <v>0.81</v>
       </c>
+      <c r="G52">
+        <v>0.69</v>
+      </c>
       <c r="J52">
         <v>0.89</v>
       </c>
@@ -3294,7 +3447,7 @@
         <v>168</v>
       </c>
       <c r="C84" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="D84" s="5">
         <v>0</v>

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED8DA50-74FB-294A-BABB-194421AB85C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D71C092-2506-5A49-BFA9-AF68E8C3229C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2540" yWindow="1360" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="463">
   <si>
     <t>Surname</t>
   </si>
@@ -1413,6 +1413,18 @@
   </si>
   <si>
     <t>H220311Y</t>
+  </si>
+  <si>
+    <t>Magorimbo</t>
+  </si>
+  <si>
+    <t>H220726Q</t>
+  </si>
+  <si>
+    <t>Musvosvi</t>
+  </si>
+  <si>
+    <t>H24038G</t>
   </si>
 </sst>
 </file>
@@ -1520,10 +1532,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16CEB027-FB46-1A44-BA46-BD4AD30C864F}" name="Table1" displayName="Table1" ref="A1:M225" totalsRowShown="0">
-  <autoFilter ref="A1:M225" xr:uid="{16CEB027-FB46-1A44-BA46-BD4AD30C864F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M225">
-    <sortCondition ref="C1:C225"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16CEB027-FB46-1A44-BA46-BD4AD30C864F}" name="Table1" displayName="Table1" ref="A1:M227" totalsRowShown="0">
+  <autoFilter ref="A1:M227" xr:uid="{16CEB027-FB46-1A44-BA46-BD4AD30C864F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M227">
+    <sortCondition ref="C1:C227"/>
   </sortState>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{1B9A59CC-67BA-3D4E-8BF2-E846FAA4CCF7}" name="Surname"/>
@@ -1861,10 +1873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
-  <dimension ref="A1:M225"/>
+  <dimension ref="A1:M227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1923,6 +1935,9 @@
       <c r="D2" s="5">
         <v>0.94</v>
       </c>
+      <c r="E2">
+        <v>0.81</v>
+      </c>
       <c r="G2">
         <v>0.56000000000000005</v>
       </c>
@@ -1940,6 +1955,9 @@
       <c r="D3" s="5">
         <v>0.94</v>
       </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
       <c r="G3">
         <v>0.83</v>
       </c>
@@ -1957,6 +1975,9 @@
       <c r="D4" s="5">
         <v>0.75</v>
       </c>
+      <c r="E4">
+        <v>0.95</v>
+      </c>
       <c r="G4">
         <v>0.72</v>
       </c>
@@ -1977,6 +1998,9 @@
       <c r="D5" s="5">
         <v>0.67</v>
       </c>
+      <c r="E5">
+        <v>0.86</v>
+      </c>
       <c r="G5">
         <v>0.42</v>
       </c>
@@ -1994,6 +2018,9 @@
       <c r="D6" s="5">
         <v>0.86</v>
       </c>
+      <c r="E6">
+        <v>0.93</v>
+      </c>
       <c r="G6">
         <v>0.63</v>
       </c>
@@ -2014,6 +2041,9 @@
       <c r="D7" s="5">
         <v>0.92</v>
       </c>
+      <c r="E7">
+        <v>0.95</v>
+      </c>
       <c r="G7">
         <v>0.57999999999999996</v>
       </c>
@@ -2034,6 +2064,9 @@
       <c r="D8" s="5">
         <v>0.78</v>
       </c>
+      <c r="E8">
+        <v>0.98</v>
+      </c>
       <c r="G8">
         <v>0.32</v>
       </c>
@@ -2051,6 +2084,9 @@
       <c r="D9" s="5">
         <v>0.92</v>
       </c>
+      <c r="E9">
+        <v>0.93</v>
+      </c>
       <c r="G9">
         <v>0.72</v>
       </c>
@@ -2068,6 +2104,9 @@
       <c r="D10" s="5">
         <v>0.89</v>
       </c>
+      <c r="E10">
+        <v>0.84</v>
+      </c>
       <c r="G10">
         <v>0.56000000000000005</v>
       </c>
@@ -2088,6 +2127,9 @@
       <c r="D11" s="5">
         <v>0.94</v>
       </c>
+      <c r="E11">
+        <v>0.93</v>
+      </c>
       <c r="G11">
         <v>0.77</v>
       </c>
@@ -2108,6 +2150,9 @@
       <c r="D12" s="5">
         <v>1</v>
       </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
       <c r="G12">
         <v>0.85</v>
       </c>
@@ -2125,6 +2170,9 @@
       <c r="D13" s="5">
         <v>1</v>
       </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
       <c r="G13">
         <v>0.73</v>
       </c>
@@ -2142,6 +2190,9 @@
       <c r="D14" s="5">
         <v>0.75</v>
       </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
       <c r="G14">
         <v>0.62</v>
       </c>
@@ -2159,6 +2210,9 @@
       <c r="D15" s="5">
         <v>0.75</v>
       </c>
+      <c r="E15">
+        <v>0.95</v>
+      </c>
       <c r="G15">
         <v>0.56000000000000005</v>
       </c>
@@ -2176,6 +2230,9 @@
       <c r="D16" s="5">
         <v>0.72</v>
       </c>
+      <c r="E16">
+        <v>0.95</v>
+      </c>
       <c r="G16">
         <v>0.44</v>
       </c>
@@ -2193,6 +2250,9 @@
       <c r="D17" s="5">
         <v>0.69</v>
       </c>
+      <c r="E17">
+        <v>0.98</v>
+      </c>
       <c r="G17">
         <v>0.56000000000000005</v>
       </c>
@@ -2210,53 +2270,62 @@
       <c r="D18" s="5">
         <v>0.94</v>
       </c>
+      <c r="E18">
+        <v>0.95</v>
+      </c>
       <c r="G18">
         <v>0.76</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>459</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>460</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="5">
-        <v>0.78</v>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0.95</v>
       </c>
       <c r="G19">
-        <v>0.49</v>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="5">
-        <v>0.89</v>
+        <v>0.78</v>
+      </c>
+      <c r="E20">
+        <v>0.98</v>
       </c>
       <c r="G20">
-        <v>0.79</v>
-      </c>
-      <c r="J20">
-        <v>0.91</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -2264,341 +2333,398 @@
       <c r="D21" s="5">
         <v>0.89</v>
       </c>
+      <c r="E21">
+        <v>0.93</v>
+      </c>
       <c r="G21">
-        <v>0.56000000000000005</v>
+        <v>0.79</v>
+      </c>
+      <c r="J21">
+        <v>0.91</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="5">
-        <v>0.97</v>
+        <v>0.89</v>
+      </c>
+      <c r="E22">
+        <v>0.98</v>
       </c>
       <c r="G22">
-        <v>0.76</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="5">
-        <v>0.83</v>
+        <v>0.97</v>
+      </c>
+      <c r="E23">
+        <v>0.98</v>
       </c>
       <c r="G23">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="J23">
-        <v>0.81</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="5">
-        <v>0.94</v>
+        <v>0.83</v>
+      </c>
+      <c r="E24">
+        <v>0.91</v>
       </c>
       <c r="G24">
-        <v>0.61</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J24">
-        <v>0.91</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="5">
-        <v>0.78</v>
+        <v>0.94</v>
+      </c>
+      <c r="E25">
+        <v>0.95</v>
       </c>
       <c r="G25">
-        <v>0.56000000000000005</v>
+        <v>0.61</v>
       </c>
       <c r="J25">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="5">
-        <v>0.81</v>
+        <v>0.78</v>
+      </c>
+      <c r="E26">
+        <v>0.95</v>
       </c>
       <c r="G26">
-        <v>0.59</v>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J26">
+        <v>0.8</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="5">
-        <v>0.97</v>
+        <v>0.81</v>
+      </c>
+      <c r="E27">
+        <v>0.98</v>
       </c>
       <c r="G27">
-        <v>0.68</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="5">
-        <v>0.81</v>
+        <v>0.97</v>
+      </c>
+      <c r="E28">
+        <v>0.95</v>
       </c>
       <c r="G28">
-        <v>0.73</v>
-      </c>
-      <c r="J28">
-        <v>0.89</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="5">
-        <v>0.94</v>
+        <v>0.81</v>
+      </c>
+      <c r="E29">
+        <v>0.93</v>
       </c>
       <c r="G29">
-        <v>0.62</v>
+        <v>0.73</v>
       </c>
       <c r="J29">
-        <v>0.81</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="5">
-        <v>0.75</v>
+        <v>0.94</v>
+      </c>
+      <c r="E30">
+        <v>0.79</v>
       </c>
       <c r="G30">
-        <v>0.73</v>
+        <v>0.62</v>
       </c>
       <c r="J30">
-        <v>0.89</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="5">
-        <v>0.83</v>
+        <v>0.75</v>
+      </c>
+      <c r="E31">
+        <v>0.93</v>
       </c>
       <c r="G31">
-        <v>0.52</v>
+        <v>0.73</v>
+      </c>
+      <c r="J31">
+        <v>0.89</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
       <c r="D32" s="5">
-        <v>0.89</v>
+        <v>0.83</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>0.37</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" s="5">
-        <v>0.78</v>
+        <v>0.89</v>
+      </c>
+      <c r="E33">
+        <v>0.95</v>
       </c>
       <c r="G33">
-        <v>0.75</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>167</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" s="5">
-        <v>0.94</v>
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0.72</v>
       </c>
       <c r="G34">
-        <v>0.65</v>
-      </c>
-      <c r="J34">
-        <v>0.8</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" s="5">
-        <v>0.53</v>
+        <v>0.78</v>
+      </c>
+      <c r="E35">
+        <v>0.79</v>
       </c>
       <c r="G35">
-        <v>0.42</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" s="5">
-        <v>0.69</v>
+        <v>0.94</v>
+      </c>
+      <c r="E36">
+        <v>0.95</v>
       </c>
       <c r="G36">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="J36">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" s="5">
-        <v>0.92</v>
+        <v>0.53</v>
+      </c>
+      <c r="E37">
+        <v>0.98</v>
       </c>
       <c r="G37">
-        <v>0.75</v>
-      </c>
-      <c r="J37">
-        <v>0.81</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
       <c r="D38" s="5">
-        <v>0.81</v>
+        <v>0.69</v>
+      </c>
+      <c r="E38">
+        <v>0.98</v>
       </c>
       <c r="G38">
-        <v>0.82</v>
+        <v>0.63</v>
+      </c>
+      <c r="J38">
+        <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
       </c>
       <c r="D39" s="5">
-        <v>0.97</v>
+        <v>0.92</v>
+      </c>
+      <c r="E39">
+        <v>0.93</v>
       </c>
       <c r="G39">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="J39">
         <v>0.81</v>
@@ -2606,155 +2732,179 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
       </c>
       <c r="D40" s="5">
-        <v>0.89</v>
+        <v>0.81</v>
+      </c>
+      <c r="E40">
+        <v>0.86</v>
       </c>
       <c r="G40">
-        <v>0.66</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>81</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
       </c>
       <c r="D41" s="5">
-        <v>1</v>
+        <v>0.97</v>
+      </c>
+      <c r="E41">
+        <v>0.95</v>
       </c>
       <c r="G41">
-        <v>0.8</v>
+        <v>0.72</v>
+      </c>
+      <c r="J41">
+        <v>0.81</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s">
         <v>4</v>
       </c>
       <c r="D42" s="5">
-        <v>0.94</v>
+        <v>0.89</v>
+      </c>
+      <c r="E42">
+        <v>0.98</v>
       </c>
       <c r="G42">
-        <v>0.68</v>
-      </c>
-      <c r="J42">
-        <v>0.8</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="C43" t="s">
         <v>4</v>
       </c>
       <c r="D43" s="5">
-        <v>0.92</v>
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>0.83</v>
-      </c>
-      <c r="J43">
         <v>0.8</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
         <v>4</v>
       </c>
       <c r="D44" s="5">
-        <v>0.97</v>
+        <v>0.94</v>
+      </c>
+      <c r="E44">
+        <v>0.95</v>
       </c>
       <c r="G44">
-        <v>0.59</v>
+        <v>0.68</v>
+      </c>
+      <c r="J44">
+        <v>0.8</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C45" t="s">
         <v>4</v>
       </c>
       <c r="D45" s="5">
-        <v>0.97</v>
+        <v>0.92</v>
+      </c>
+      <c r="E45">
+        <v>0.93</v>
       </c>
       <c r="G45">
-        <v>0.61</v>
+        <v>0.83</v>
+      </c>
+      <c r="J45">
+        <v>0.8</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="C46" t="s">
         <v>4</v>
       </c>
       <c r="D46" s="5">
-        <v>0.92</v>
+        <v>0.97</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C47" t="s">
         <v>4</v>
       </c>
       <c r="D47" s="5">
-        <v>0.86</v>
+        <v>0.97</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>0.83</v>
-      </c>
-      <c r="J47">
-        <v>0.81</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C48" t="s">
         <v>4</v>
@@ -2762,190 +2912,220 @@
       <c r="D48" s="5">
         <v>0.92</v>
       </c>
+      <c r="E48">
+        <v>0.98</v>
+      </c>
       <c r="G48">
-        <v>0.45</v>
-      </c>
-      <c r="J48">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C49" t="s">
         <v>4</v>
       </c>
       <c r="D49" s="5">
-        <v>0.97</v>
+        <v>0.86</v>
+      </c>
+      <c r="E49">
+        <v>0.86</v>
       </c>
       <c r="G49">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="J49">
-        <v>0.91</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C50" t="s">
         <v>4</v>
       </c>
       <c r="D50" s="5">
-        <v>0.94</v>
+        <v>0.92</v>
+      </c>
+      <c r="E50">
+        <v>0.86</v>
       </c>
       <c r="G50">
-        <v>0.63</v>
+        <v>0.45</v>
       </c>
       <c r="J50">
-        <v>0.81</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C51" t="s">
         <v>4</v>
       </c>
       <c r="D51" s="5">
-        <v>0.44</v>
+        <v>0.97</v>
+      </c>
+      <c r="E51">
+        <v>0.98</v>
       </c>
       <c r="G51">
-        <v>0.66</v>
+        <v>0.8</v>
+      </c>
+      <c r="J51">
+        <v>0.91</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C52" t="s">
         <v>4</v>
       </c>
       <c r="D52" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="E52">
+        <v>0.98</v>
+      </c>
+      <c r="G52">
+        <v>0.63</v>
+      </c>
+      <c r="J52">
         <v>0.81</v>
-      </c>
-      <c r="G52">
-        <v>0.69</v>
-      </c>
-      <c r="J52">
-        <v>0.89</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C53" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="D53" s="5">
-        <v>0.97</v>
+        <v>0.44</v>
+      </c>
+      <c r="E53">
+        <v>0.81</v>
       </c>
       <c r="G53">
-        <v>0.72</v>
-      </c>
-      <c r="J53">
-        <v>0.76</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C54" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="D54" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="E54">
+        <v>0.93</v>
+      </c>
+      <c r="G54">
+        <v>0.69</v>
+      </c>
+      <c r="J54">
         <v>0.89</v>
-      </c>
-      <c r="G54">
-        <v>0.63</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>110</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="C55" t="s">
         <v>106</v>
       </c>
       <c r="D55" s="5">
-        <v>0.94</v>
+        <v>0.97</v>
+      </c>
+      <c r="E55">
+        <v>0.98</v>
       </c>
       <c r="G55">
-        <v>0.62</v>
+        <v>0.72</v>
       </c>
       <c r="J55">
-        <v>0.85</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C56" t="s">
         <v>106</v>
       </c>
       <c r="D56" s="5">
-        <v>0.94</v>
+        <v>0.89</v>
+      </c>
+      <c r="E56">
+        <v>0.86</v>
       </c>
       <c r="G56">
-        <v>0.76</v>
-      </c>
-      <c r="J56">
-        <v>0.76</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>114</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="C57" t="s">
         <v>106</v>
       </c>
       <c r="D57" s="5">
-        <v>0.86</v>
+        <v>0.94</v>
+      </c>
+      <c r="E57">
+        <v>0.93</v>
       </c>
       <c r="G57">
-        <v>0.55000000000000004</v>
+        <v>0.62</v>
+      </c>
+      <c r="J57">
+        <v>0.85</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>116</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="C58" t="s">
         <v>106</v>
@@ -2953,159 +3133,183 @@
       <c r="D58" s="5">
         <v>0.94</v>
       </c>
+      <c r="E58">
+        <v>0.98</v>
+      </c>
       <c r="G58">
-        <v>0.68</v>
+        <v>0.76</v>
+      </c>
+      <c r="J58">
+        <v>0.76</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C59" t="s">
         <v>106</v>
       </c>
       <c r="D59" s="5">
-        <v>0.92</v>
+        <v>0.86</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>0.59</v>
-      </c>
-      <c r="J59">
-        <v>0.87</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>120</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="C60" t="s">
         <v>106</v>
       </c>
       <c r="D60" s="5">
-        <v>0.89</v>
+        <v>0.94</v>
+      </c>
+      <c r="E60">
+        <v>0.91</v>
       </c>
       <c r="G60">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="J60">
-        <v>0.85</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C61" t="s">
         <v>106</v>
       </c>
       <c r="D61" s="5">
-        <v>0.75</v>
+        <v>0.92</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>0.44</v>
+        <v>0.59</v>
+      </c>
+      <c r="J61">
+        <v>0.87</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C62" t="s">
         <v>106</v>
       </c>
       <c r="D62" s="5">
-        <v>0.97</v>
+        <v>0.89</v>
+      </c>
+      <c r="E62">
+        <v>0.93</v>
       </c>
       <c r="G62">
-        <v>0.73</v>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J62">
+        <v>0.85</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C63" t="s">
         <v>106</v>
       </c>
       <c r="D63" s="5">
-        <v>0.86</v>
+        <v>0.75</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
       </c>
       <c r="G63">
-        <v>0.68</v>
-      </c>
-      <c r="J63">
-        <v>0.85</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>128</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="C64" t="s">
         <v>106</v>
       </c>
       <c r="D64" s="5">
-        <v>0</v>
+        <v>0.97</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
       </c>
       <c r="G64">
-        <v>0.52</v>
-      </c>
-      <c r="J64">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C65" t="s">
         <v>106</v>
       </c>
       <c r="D65" s="5">
-        <v>0.81</v>
+        <v>0.86</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
       </c>
       <c r="G65">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
       <c r="J65">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>133</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="C66" t="s">
         <v>106</v>
       </c>
       <c r="D66" s="5">
-        <v>0.89</v>
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0.79</v>
       </c>
       <c r="G66">
-        <v>0.44</v>
+        <v>0.52</v>
       </c>
       <c r="J66">
         <v>0.74</v>
@@ -3113,19 +3317,22 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C67" t="s">
         <v>106</v>
       </c>
       <c r="D67" s="5">
-        <v>0.53</v>
+        <v>0.81</v>
+      </c>
+      <c r="E67">
+        <v>0.98</v>
       </c>
       <c r="G67">
-        <v>0.46</v>
+        <v>0.65</v>
       </c>
       <c r="J67">
         <v>0.74</v>
@@ -3133,198 +3340,231 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>137</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="C68" t="s">
         <v>106</v>
       </c>
       <c r="D68" s="5">
-        <v>0.72</v>
+        <v>0.89</v>
+      </c>
+      <c r="E68">
+        <v>0.95</v>
       </c>
       <c r="G68">
-        <v>0.56000000000000005</v>
+        <v>0.44</v>
       </c>
       <c r="J68">
-        <v>0.83</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>139</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="C69" t="s">
         <v>106</v>
       </c>
       <c r="D69" s="5">
-        <v>1</v>
+        <v>0.72</v>
+      </c>
+      <c r="E69">
+        <v>0.93</v>
       </c>
       <c r="G69">
-        <v>0.61</v>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J69">
+        <v>0.83</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C70" t="s">
         <v>106</v>
       </c>
       <c r="D70" s="5">
-        <v>0.94</v>
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
       </c>
       <c r="G70">
-        <v>0.46</v>
-      </c>
-      <c r="J70">
-        <v>0.76</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C71" t="s">
         <v>106</v>
       </c>
       <c r="D71" s="5">
-        <v>0.83</v>
+        <v>0.94</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
       </c>
       <c r="G71">
-        <v>0.65</v>
+        <v>0.46</v>
+      </c>
+      <c r="J71">
+        <v>0.76</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C72" t="s">
         <v>106</v>
       </c>
       <c r="D72" s="5">
-        <v>0.72</v>
+        <v>0.83</v>
+      </c>
+      <c r="E72">
+        <v>0.77</v>
       </c>
       <c r="G72">
         <v>0.65</v>
       </c>
-      <c r="J72">
-        <v>0.65</v>
-      </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C73" t="s">
         <v>106</v>
       </c>
       <c r="D73" s="5">
-        <v>0.94</v>
+        <v>0.72</v>
+      </c>
+      <c r="E73">
+        <v>0.95</v>
       </c>
       <c r="G73">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="J73">
-        <v>0.85</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>149</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="C74" t="s">
         <v>106</v>
       </c>
       <c r="D74" s="5">
-        <v>0</v>
+        <v>0.94</v>
+      </c>
+      <c r="E74">
+        <v>0.95</v>
       </c>
       <c r="G74">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
       <c r="J74">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>151</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="C75" t="s">
         <v>106</v>
       </c>
       <c r="D75" s="5">
-        <v>0.94</v>
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0.98</v>
       </c>
       <c r="G75">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="J75">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>455</v>
+        <v>151</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>456</v>
+        <v>152</v>
       </c>
       <c r="C76" t="s">
         <v>106</v>
       </c>
       <c r="D76" s="5">
-        <v>0</v>
+        <v>0.94</v>
+      </c>
+      <c r="E76">
+        <v>0.98</v>
       </c>
       <c r="G76">
-        <v>0.2</v>
+        <v>0.68</v>
+      </c>
+      <c r="J76">
+        <v>0.76</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>153</v>
+        <v>455</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>154</v>
+        <v>456</v>
       </c>
       <c r="C77" t="s">
         <v>106</v>
       </c>
       <c r="D77" s="5">
-        <v>0.97</v>
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>0.75</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C78" t="s">
         <v>106</v>
@@ -3332,128 +3572,149 @@
       <c r="D78" s="5">
         <v>0.97</v>
       </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
       <c r="G78">
-        <v>0.77</v>
-      </c>
-      <c r="J78">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>157</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="C79" t="s">
         <v>106</v>
       </c>
       <c r="D79" s="5">
-        <v>0.94</v>
+        <v>0.97</v>
+      </c>
+      <c r="E79">
+        <v>0.98</v>
       </c>
       <c r="G79">
-        <v>0.73</v>
+        <v>0.77</v>
       </c>
       <c r="J79">
-        <v>0.85</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>159</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="C80" t="s">
         <v>106</v>
       </c>
       <c r="D80" s="5">
-        <v>0.69</v>
+        <v>0.94</v>
+      </c>
+      <c r="E80">
+        <v>0.95</v>
       </c>
       <c r="G80">
-        <v>0.54</v>
+        <v>0.73</v>
       </c>
       <c r="J80">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>161</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="C81" t="s">
         <v>106</v>
       </c>
       <c r="D81" s="5">
-        <v>0.92</v>
+        <v>0.69</v>
+      </c>
+      <c r="E81">
+        <v>0.91</v>
       </c>
       <c r="G81">
-        <v>0.55000000000000004</v>
+        <v>0.54</v>
       </c>
       <c r="J81">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>163</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="C82" t="s">
         <v>106</v>
       </c>
       <c r="D82" s="5">
-        <v>0.56000000000000005</v>
+        <v>0.92</v>
+      </c>
+      <c r="E82">
+        <v>0.98</v>
       </c>
       <c r="G82">
-        <v>0.38</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J82">
-        <v>0.65</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C83" t="s">
         <v>106</v>
       </c>
       <c r="D83" s="5">
-        <v>0.94</v>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E83">
+        <v>0.77</v>
       </c>
       <c r="G83">
-        <v>0.72</v>
+        <v>0.38</v>
       </c>
       <c r="J83">
-        <v>0.76</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>167</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="C84" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="D84" s="5">
-        <v>0</v>
+        <v>0.94</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
       </c>
       <c r="G84">
-        <v>0.52</v>
+        <v>0.72</v>
+      </c>
+      <c r="J84">
+        <v>0.76</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -3469,6 +3730,9 @@
       <c r="D85" s="5">
         <v>0.92</v>
       </c>
+      <c r="E85">
+        <v>0.91</v>
+      </c>
       <c r="G85">
         <v>0.61</v>
       </c>
@@ -3489,6 +3753,9 @@
       <c r="D86" s="5">
         <v>1</v>
       </c>
+      <c r="E86">
+        <v>0.98</v>
+      </c>
       <c r="G86">
         <v>0.68</v>
       </c>
@@ -3509,6 +3776,9 @@
       <c r="D87" s="5">
         <v>0.61</v>
       </c>
+      <c r="E87">
+        <v>0.98</v>
+      </c>
       <c r="G87">
         <v>0.62</v>
       </c>
@@ -3529,6 +3799,9 @@
       <c r="D88" s="5">
         <v>0.94</v>
       </c>
+      <c r="E88">
+        <v>0.86</v>
+      </c>
       <c r="G88">
         <v>0.7</v>
       </c>
@@ -3549,6 +3822,9 @@
       <c r="D89" s="5">
         <v>0.53</v>
       </c>
+      <c r="E89">
+        <v>0.74</v>
+      </c>
       <c r="G89">
         <v>0.51</v>
       </c>
@@ -3569,6 +3845,9 @@
       <c r="D90" s="5">
         <v>0.81</v>
       </c>
+      <c r="E90">
+        <v>0.72</v>
+      </c>
       <c r="G90">
         <v>0.63</v>
       </c>
@@ -3589,6 +3868,9 @@
       <c r="D91" s="5">
         <v>0.72</v>
       </c>
+      <c r="E91">
+        <v>0.95</v>
+      </c>
       <c r="G91">
         <v>0.52</v>
       </c>
@@ -3609,6 +3891,9 @@
       <c r="D92" s="5">
         <v>0.81</v>
       </c>
+      <c r="E92">
+        <v>0.93</v>
+      </c>
       <c r="G92">
         <v>0.56000000000000005</v>
       </c>
@@ -3626,6 +3911,9 @@
       <c r="D93" s="5">
         <v>0.94</v>
       </c>
+      <c r="E93">
+        <v>0.93</v>
+      </c>
       <c r="G93">
         <v>0.62</v>
       </c>
@@ -3643,6 +3931,9 @@
       <c r="D94" s="5">
         <v>0.86</v>
       </c>
+      <c r="E94">
+        <v>0.95</v>
+      </c>
       <c r="G94">
         <v>0.7</v>
       </c>
@@ -3660,6 +3951,9 @@
       <c r="D95" s="5">
         <v>0.75</v>
       </c>
+      <c r="E95">
+        <v>0.95</v>
+      </c>
       <c r="G95">
         <v>0.32</v>
       </c>
@@ -3680,6 +3974,9 @@
       <c r="D96" s="5">
         <v>0.75</v>
       </c>
+      <c r="E96">
+        <v>0.7</v>
+      </c>
       <c r="G96">
         <v>0.51</v>
       </c>
@@ -3700,6 +3997,9 @@
       <c r="D97" s="5">
         <v>0.89</v>
       </c>
+      <c r="E97">
+        <v>0.95</v>
+      </c>
       <c r="G97">
         <v>0.69</v>
       </c>
@@ -3720,6 +4020,9 @@
       <c r="D98" s="5">
         <v>0.97</v>
       </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
       <c r="G98">
         <v>0.72</v>
       </c>
@@ -3729,47 +4032,53 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>192</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
       </c>
       <c r="D99" s="5">
-        <v>0.89</v>
+        <v>0.81</v>
+      </c>
+      <c r="E99">
+        <v>0.95</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-      <c r="J99">
-        <v>0.56000000000000005</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>196</v>
+        <v>453</v>
       </c>
       <c r="C100" t="s">
         <v>106</v>
       </c>
       <c r="D100" s="5">
-        <v>0.81</v>
+        <v>0.94</v>
+      </c>
+      <c r="E100">
+        <v>0.91</v>
       </c>
       <c r="G100">
-        <v>0.69</v>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J100">
+        <v>0.76</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>453</v>
+        <v>199</v>
       </c>
       <c r="C101" t="s">
         <v>106</v>
@@ -3777,387 +4086,450 @@
       <c r="D101" s="5">
         <v>0.94</v>
       </c>
+      <c r="E101">
+        <v>0.98</v>
+      </c>
       <c r="G101">
-        <v>0.57999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="J101">
-        <v>0.76</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C102" t="s">
         <v>106</v>
       </c>
       <c r="D102" s="5">
-        <v>0.94</v>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E102">
+        <v>0.84</v>
       </c>
       <c r="G102">
-        <v>0.7</v>
+        <v>0.59</v>
       </c>
       <c r="J102">
-        <v>0.85</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C103" t="s">
-        <v>106</v>
+        <v>203</v>
       </c>
       <c r="D103" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="E103">
+        <v>0.86</v>
+      </c>
+      <c r="G103">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G103">
-        <v>0.59</v>
-      </c>
       <c r="J103">
-        <v>0.74</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C104" t="s">
         <v>203</v>
       </c>
       <c r="D104" s="5">
-        <v>0.89</v>
+        <v>0.94</v>
+      </c>
+      <c r="E104">
+        <v>0.95</v>
       </c>
       <c r="G104">
-        <v>0.57999999999999996</v>
+        <v>0.51</v>
       </c>
       <c r="J104">
-        <v>0.46</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>205</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="C105" t="s">
         <v>203</v>
       </c>
       <c r="D105" s="5">
-        <v>0.94</v>
+        <v>0.75</v>
+      </c>
+      <c r="E105">
+        <v>0.91</v>
       </c>
       <c r="G105">
-        <v>0.51</v>
-      </c>
-      <c r="J105">
-        <v>0.69</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>207</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="C106" t="s">
         <v>203</v>
       </c>
       <c r="D106" s="5">
-        <v>0.75</v>
+        <v>0.97</v>
+      </c>
+      <c r="E106">
+        <v>0.86</v>
       </c>
       <c r="G106">
-        <v>0.66</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C107" t="s">
         <v>203</v>
       </c>
       <c r="D107" s="5">
-        <v>0.97</v>
+        <v>0.75</v>
+      </c>
+      <c r="E107">
+        <v>0.95</v>
       </c>
       <c r="G107">
-        <v>0.54</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C108" t="s">
         <v>203</v>
       </c>
       <c r="D108" s="5">
-        <v>0.75</v>
+        <v>0.92</v>
+      </c>
+      <c r="E108">
+        <v>0.98</v>
       </c>
       <c r="G108">
-        <v>0.43</v>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J108">
+        <v>0.87</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C109" t="s">
         <v>203</v>
       </c>
       <c r="D109" s="5">
-        <v>0.92</v>
+        <v>0.89</v>
+      </c>
+      <c r="E109">
+        <v>0.88</v>
       </c>
       <c r="G109">
-        <v>0.56999999999999995</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J109">
-        <v>0.87</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C110" t="s">
         <v>203</v>
       </c>
       <c r="D110" s="5">
-        <v>0.89</v>
+        <v>0.94</v>
+      </c>
+      <c r="E110">
+        <v>0.93</v>
       </c>
       <c r="G110">
         <v>0.57999999999999996</v>
       </c>
       <c r="J110">
-        <v>0.46</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C111" t="s">
         <v>203</v>
       </c>
       <c r="D111" s="5">
-        <v>0.94</v>
+        <v>0.97</v>
+      </c>
+      <c r="E111">
+        <v>0.93</v>
       </c>
       <c r="G111">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="J111">
-        <v>0.69</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C112" t="s">
         <v>203</v>
       </c>
       <c r="D112" s="5">
-        <v>0.97</v>
+        <v>0.89</v>
+      </c>
+      <c r="E112">
+        <v>0.84</v>
       </c>
       <c r="G112">
         <v>0.56999999999999995</v>
       </c>
+      <c r="J112">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C113" t="s">
         <v>203</v>
       </c>
       <c r="D113" s="5">
-        <v>0.89</v>
+        <v>0.75</v>
+      </c>
+      <c r="E113">
+        <v>0.98</v>
       </c>
       <c r="G113">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="J113">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>223</v>
+        <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C114" t="s">
         <v>203</v>
       </c>
       <c r="D114" s="5">
-        <v>0.75</v>
+        <v>0.78</v>
+      </c>
+      <c r="E114">
+        <v>0.88</v>
       </c>
       <c r="G114">
-        <v>0.45</v>
+        <v>0.43</v>
+      </c>
+      <c r="J114">
+        <v>0.78</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>226</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C115" t="s">
         <v>203</v>
       </c>
       <c r="D115" s="5">
-        <v>0.78</v>
+        <v>0.92</v>
+      </c>
+      <c r="E115">
+        <v>0.93</v>
       </c>
       <c r="G115">
-        <v>0.43</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J115">
-        <v>0.78</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C116" t="s">
         <v>203</v>
       </c>
       <c r="D116" s="5">
-        <v>0.92</v>
+        <v>0.78</v>
+      </c>
+      <c r="E116">
+        <v>0.84</v>
       </c>
       <c r="G116">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="J116">
-        <v>0.65</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C117" t="s">
         <v>203</v>
       </c>
       <c r="D117" s="5">
-        <v>0.78</v>
+        <v>0.94</v>
+      </c>
+      <c r="E117">
+        <v>0.93</v>
       </c>
       <c r="G117">
-        <v>0.36</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C118" t="s">
         <v>203</v>
       </c>
       <c r="D118" s="5">
-        <v>0.94</v>
+        <v>0.89</v>
+      </c>
+      <c r="E118">
+        <v>0.81</v>
       </c>
       <c r="G118">
-        <v>0.61</v>
+        <v>0.49</v>
+      </c>
+      <c r="J118">
+        <v>0.65</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C119" t="s">
         <v>203</v>
       </c>
       <c r="D119" s="5">
-        <v>0.89</v>
+        <v>0.94</v>
+      </c>
+      <c r="E119">
+        <v>0.93</v>
       </c>
       <c r="G119">
-        <v>0.49</v>
+        <v>0.6</v>
       </c>
       <c r="J119">
-        <v>0.65</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C120" t="s">
         <v>203</v>
       </c>
       <c r="D120" s="5">
-        <v>0.94</v>
+        <v>0.92</v>
+      </c>
+      <c r="E120">
+        <v>0.88</v>
       </c>
       <c r="G120">
-        <v>0.6</v>
+        <v>0.39</v>
       </c>
       <c r="J120">
-        <v>0.87</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C121" t="s">
         <v>203</v>
       </c>
       <c r="D121" s="5">
-        <v>0.92</v>
+        <v>0.94</v>
+      </c>
+      <c r="E121">
+        <v>0.72</v>
       </c>
       <c r="G121">
-        <v>0.39</v>
+        <v>0.64</v>
       </c>
       <c r="J121">
         <v>0.69</v>
@@ -4165,326 +4537,377 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>238</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="C122" t="s">
         <v>203</v>
       </c>
       <c r="D122" s="5">
-        <v>0.94</v>
+        <v>0.78</v>
+      </c>
+      <c r="E122">
+        <v>0.91</v>
       </c>
       <c r="G122">
-        <v>0.64</v>
+        <v>0.37</v>
       </c>
       <c r="J122">
-        <v>0.69</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>240</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="C123" t="s">
         <v>203</v>
       </c>
       <c r="D123" s="5">
-        <v>0.78</v>
+        <v>0.86</v>
+      </c>
+      <c r="E123">
+        <v>0.86</v>
       </c>
       <c r="G123">
-        <v>0.37</v>
+        <v>0.64</v>
       </c>
       <c r="J123">
-        <v>0.78</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C124" t="s">
         <v>203</v>
       </c>
       <c r="D124" s="5">
-        <v>0.86</v>
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <v>0.98</v>
       </c>
       <c r="G124">
-        <v>0.64</v>
-      </c>
-      <c r="J124">
-        <v>0.87</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C125" t="s">
         <v>203</v>
       </c>
       <c r="D125" s="5">
-        <v>1</v>
+        <v>0.92</v>
+      </c>
+      <c r="E125">
+        <v>0.93</v>
       </c>
       <c r="G125">
-        <v>0.73</v>
+        <v>0.6</v>
+      </c>
+      <c r="J125">
+        <v>0.87</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C126" t="s">
         <v>203</v>
       </c>
       <c r="D126" s="5">
-        <v>0.92</v>
+        <v>0.94</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
       </c>
       <c r="G126">
-        <v>0.6</v>
-      </c>
-      <c r="J126">
-        <v>0.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C127" t="s">
         <v>203</v>
       </c>
       <c r="D127" s="5">
-        <v>0.94</v>
+        <v>0.83</v>
+      </c>
+      <c r="E127">
+        <v>0.88</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C128" t="s">
         <v>203</v>
       </c>
       <c r="D128" s="5">
-        <v>0.83</v>
+        <v>0.75</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
       </c>
       <c r="G128">
-        <v>0.63</v>
+        <v>0.49</v>
+      </c>
+      <c r="J128">
+        <v>0.65</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C129" t="s">
         <v>203</v>
       </c>
       <c r="D129" s="5">
-        <v>0.75</v>
+        <v>0.78</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
       </c>
       <c r="G129">
-        <v>0.49</v>
-      </c>
-      <c r="J129">
-        <v>0.65</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C130" t="s">
         <v>203</v>
       </c>
       <c r="D130" s="5">
-        <v>0.78</v>
+        <v>0.83</v>
+      </c>
+      <c r="E130">
+        <v>0.93</v>
       </c>
       <c r="G130">
-        <v>0.57999999999999996</v>
+        <v>0.52</v>
+      </c>
+      <c r="J130">
+        <v>0.87</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C131" t="s">
         <v>203</v>
       </c>
       <c r="D131" s="5">
-        <v>0.83</v>
+        <v>0.72</v>
+      </c>
+      <c r="E131">
+        <v>0.57999999999999996</v>
       </c>
       <c r="G131">
-        <v>0.52</v>
+        <v>0.7</v>
       </c>
       <c r="J131">
-        <v>0.87</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C132" t="s">
         <v>203</v>
       </c>
       <c r="D132" s="5">
-        <v>0.72</v>
+        <v>0.92</v>
+      </c>
+      <c r="E132">
+        <v>0.79</v>
       </c>
       <c r="G132">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="J132">
-        <v>0.65</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C133" t="s">
         <v>203</v>
       </c>
       <c r="D133" s="5">
-        <v>0.92</v>
+        <v>0.94</v>
+      </c>
+      <c r="E133">
+        <v>0.93</v>
       </c>
       <c r="G133">
-        <v>0.75</v>
-      </c>
-      <c r="J133">
-        <v>0.69</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C134" t="s">
         <v>203</v>
       </c>
       <c r="D134" s="5">
-        <v>0.94</v>
+        <v>0.83</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
       </c>
       <c r="G134">
-        <v>0.6</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C135" t="s">
         <v>203</v>
       </c>
       <c r="D135" s="5">
-        <v>0.83</v>
+        <v>0.92</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
       </c>
       <c r="G135">
-        <v>0.46</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>266</v>
+        <v>70</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C136" t="s">
         <v>203</v>
       </c>
       <c r="D136" s="5">
-        <v>0.92</v>
+        <v>0.81</v>
+      </c>
+      <c r="E136">
+        <v>0.98</v>
       </c>
       <c r="G136">
-        <v>0.66</v>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J136">
+        <v>0.78</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>70</v>
+        <v>269</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C137" t="s">
         <v>203</v>
       </c>
       <c r="D137" s="5">
-        <v>0.81</v>
+        <v>0.94</v>
+      </c>
+      <c r="E137">
+        <v>0.7</v>
       </c>
       <c r="G137">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="J137">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C138" t="s">
         <v>203</v>
       </c>
       <c r="D138" s="5">
-        <v>0.94</v>
+        <v>0.83</v>
+      </c>
+      <c r="E138">
+        <v>0.95</v>
       </c>
       <c r="G138">
-        <v>0.82</v>
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0.65</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C139" t="s">
         <v>203</v>
@@ -4492,53 +4915,59 @@
       <c r="D139" s="5">
         <v>0.83</v>
       </c>
+      <c r="E139">
+        <v>0.79</v>
+      </c>
       <c r="G139">
-        <v>0</v>
-      </c>
-      <c r="J139">
-        <v>0.65</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>273</v>
+        <v>457</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>274</v>
+        <v>458</v>
       </c>
       <c r="C140" t="s">
         <v>203</v>
       </c>
       <c r="D140" s="5">
-        <v>0.83</v>
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>0.74</v>
       </c>
       <c r="G140">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>457</v>
+        <v>275</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>458</v>
+        <v>276</v>
       </c>
       <c r="C141" t="s">
         <v>203</v>
       </c>
       <c r="D141" s="5">
-        <v>0</v>
+        <v>0.94</v>
+      </c>
+      <c r="E141">
+        <v>0.98</v>
       </c>
       <c r="G141">
-        <v>0.48</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C142" t="s">
         <v>203</v>
@@ -4546,36 +4975,42 @@
       <c r="D142" s="5">
         <v>0.94</v>
       </c>
+      <c r="E142">
+        <v>0.93</v>
+      </c>
       <c r="G142">
-        <v>0.66</v>
+        <v>0.78</v>
+      </c>
+      <c r="J142">
+        <v>0.78</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C143" t="s">
         <v>203</v>
       </c>
       <c r="D143" s="5">
-        <v>0.92</v>
+        <v>0.94</v>
+      </c>
+      <c r="E143">
+        <v>0.95</v>
       </c>
       <c r="G143">
-        <v>0.66</v>
-      </c>
-      <c r="J143">
-        <v>0.72</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C144" t="s">
         <v>203</v>
@@ -4583,65 +5018,77 @@
       <c r="D144" s="5">
         <v>0.94</v>
       </c>
+      <c r="E144">
+        <v>0.93</v>
+      </c>
       <c r="G144">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="J144">
-        <v>0.78</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C145" t="s">
         <v>203</v>
       </c>
       <c r="D145" s="5">
-        <v>0.94</v>
+        <v>0.92</v>
+      </c>
+      <c r="E145">
+        <v>0.95</v>
       </c>
       <c r="G145">
-        <v>0.56999999999999995</v>
+        <v>0.31</v>
+      </c>
+      <c r="J145">
+        <v>0.46</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C146" t="s">
         <v>203</v>
       </c>
       <c r="D146" s="5">
-        <v>0.94</v>
+        <v>0.92</v>
+      </c>
+      <c r="E146">
+        <v>0.88</v>
       </c>
       <c r="G146">
-        <v>0.7</v>
-      </c>
-      <c r="J146">
-        <v>0.69</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C147" t="s">
         <v>203</v>
       </c>
       <c r="D147" s="5">
-        <v>0.92</v>
+        <v>0.97</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
       </c>
       <c r="G147">
-        <v>0.31</v>
+        <v>0.6</v>
       </c>
       <c r="J147">
         <v>0.46</v>
@@ -4649,93 +5096,105 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C148" t="s">
         <v>203</v>
       </c>
       <c r="D148" s="5">
-        <v>0.92</v>
+        <v>0.97</v>
+      </c>
+      <c r="E148">
+        <v>0.98</v>
       </c>
       <c r="G148">
-        <v>0.45</v>
+        <v>0.51</v>
+      </c>
+      <c r="J148">
+        <v>0.46</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C149" t="s">
         <v>203</v>
       </c>
       <c r="D149" s="5">
-        <v>0.97</v>
+        <v>0.94</v>
+      </c>
+      <c r="E149">
+        <v>0.93</v>
       </c>
       <c r="G149">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="J149">
-        <v>0.46</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C150" t="s">
         <v>203</v>
       </c>
       <c r="D150" s="5">
-        <v>0.97</v>
+        <v>0.89</v>
+      </c>
+      <c r="E150">
+        <v>0.88</v>
       </c>
       <c r="G150">
-        <v>0.51</v>
-      </c>
-      <c r="J150">
-        <v>0.46</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C151" t="s">
         <v>203</v>
       </c>
       <c r="D151" s="5">
-        <v>0.94</v>
+        <v>1</v>
+      </c>
+      <c r="E151">
+        <v>0.95</v>
       </c>
       <c r="G151">
-        <v>0.64</v>
-      </c>
-      <c r="J151">
-        <v>0.78</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>295</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>296</v>
+        <v>299</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>300</v>
       </c>
       <c r="C152" t="s">
         <v>203</v>
       </c>
       <c r="D152" s="5">
-        <v>0.89</v>
+        <v>1</v>
+      </c>
+      <c r="E152">
+        <v>0.95</v>
       </c>
       <c r="G152">
         <v>0.73</v>
@@ -4743,27 +5202,30 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C153" t="s">
         <v>203</v>
       </c>
       <c r="D153" s="5">
-        <v>1</v>
+        <v>0.89</v>
+      </c>
+      <c r="E153">
+        <v>0.93</v>
       </c>
       <c r="G153">
-        <v>0.66</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C154" t="s">
         <v>203</v>
@@ -4771,408 +5233,486 @@
       <c r="D154" s="5">
         <v>1</v>
       </c>
+      <c r="E154">
+        <v>0.93</v>
+      </c>
       <c r="G154">
-        <v>0.73</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C155" t="s">
         <v>203</v>
       </c>
       <c r="D155" s="5">
-        <v>0.89</v>
+        <v>0.94</v>
+      </c>
+      <c r="E155">
+        <v>0.98</v>
       </c>
       <c r="G155">
-        <v>0.72</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C156" t="s">
         <v>203</v>
       </c>
       <c r="D156" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="E156">
         <v>1</v>
       </c>
       <c r="G156">
-        <v>0.64</v>
+        <v>0.48</v>
+      </c>
+      <c r="J156">
+        <v>0.78</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C157" t="s">
-        <v>203</v>
+        <v>310</v>
       </c>
       <c r="D157" s="5">
-        <v>0.94</v>
-      </c>
-      <c r="G157">
-        <v>0.43</v>
+        <v>0.86</v>
+      </c>
+      <c r="E157">
+        <v>0.91</v>
+      </c>
+      <c r="J157">
+        <v>0.91</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>307</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>308</v>
+        <v>312</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="C158" t="s">
-        <v>203</v>
+        <v>310</v>
       </c>
       <c r="D158" s="5">
-        <v>0.83</v>
-      </c>
-      <c r="G158">
-        <v>0.48</v>
+        <v>1</v>
+      </c>
+      <c r="E158">
+        <v>0.98</v>
       </c>
       <c r="J158">
-        <v>0.78</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>309</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>315</v>
       </c>
       <c r="C159" t="s">
         <v>310</v>
       </c>
       <c r="D159" s="5">
-        <v>0.86</v>
+        <v>0.92</v>
+      </c>
+      <c r="E159">
+        <v>0.98</v>
       </c>
       <c r="J159">
-        <v>0.91</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C160" t="s">
         <v>310</v>
       </c>
       <c r="D160" s="5">
-        <v>1</v>
+        <v>0.92</v>
+      </c>
+      <c r="E160">
+        <v>0.93</v>
       </c>
       <c r="J160">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C161" t="s">
         <v>310</v>
       </c>
       <c r="D161" s="5">
-        <v>0.92</v>
-      </c>
-      <c r="J161">
-        <v>0.69</v>
+        <v>0.81</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C162" t="s">
         <v>310</v>
       </c>
       <c r="D162" s="5">
-        <v>0.92</v>
-      </c>
-      <c r="J162">
-        <v>0.7</v>
+        <v>0.89</v>
+      </c>
+      <c r="E162">
+        <v>0.93</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>318</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>319</v>
+        <v>322</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="C163" t="s">
         <v>310</v>
       </c>
       <c r="D163" s="5">
-        <v>0.81</v>
+        <v>0.97</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C164" t="s">
         <v>310</v>
       </c>
       <c r="D164" s="5">
-        <v>0.89</v>
+        <v>0.92</v>
+      </c>
+      <c r="E164">
+        <v>0.98</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C165" t="s">
         <v>310</v>
       </c>
       <c r="D165" s="5">
-        <v>0.97</v>
+        <v>0.86</v>
+      </c>
+      <c r="E165">
+        <v>0.95</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>324</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>325</v>
+        <v>328</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>329</v>
       </c>
       <c r="C166" t="s">
         <v>310</v>
       </c>
       <c r="D166" s="5">
-        <v>0.92</v>
+        <v>0.89</v>
+      </c>
+      <c r="E166">
+        <v>0.91</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C167" t="s">
         <v>310</v>
       </c>
       <c r="D167" s="5">
-        <v>0.86</v>
+        <v>0.89</v>
+      </c>
+      <c r="E167">
+        <v>0.98</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>328</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>329</v>
+        <v>332</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="C168" t="s">
         <v>310</v>
       </c>
       <c r="D168" s="5">
-        <v>0.89</v>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E168">
+        <v>0.88</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C169" t="s">
         <v>310</v>
       </c>
       <c r="D169" s="5">
-        <v>0.89</v>
+        <v>0.83</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <v>0.72</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>332</v>
+        <v>135</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>333</v>
+        <v>136</v>
       </c>
       <c r="C170" t="s">
         <v>310</v>
       </c>
       <c r="D170" s="5">
-        <v>0.56000000000000005</v>
+        <v>0.53</v>
+      </c>
+      <c r="E170">
+        <v>0.77</v>
+      </c>
+      <c r="G170">
+        <v>0.46</v>
+      </c>
+      <c r="J170">
+        <v>0.74</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C171" t="s">
         <v>310</v>
       </c>
       <c r="D171" s="5">
-        <v>0.83</v>
+        <v>0.89</v>
+      </c>
+      <c r="E171">
+        <v>0.98</v>
       </c>
       <c r="J171">
-        <v>0.72</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C172" t="s">
         <v>310</v>
       </c>
       <c r="D172" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="J172">
-        <v>0.56000000000000005</v>
+        <v>0.92</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C173" t="s">
         <v>310</v>
       </c>
       <c r="D173" s="5">
-        <v>0.92</v>
+        <v>0.89</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>0.83</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>340</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>343</v>
       </c>
       <c r="C174" t="s">
         <v>310</v>
       </c>
       <c r="D174" s="5">
-        <v>0.89</v>
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>0.95</v>
       </c>
       <c r="J174">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>342</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="C175" t="s">
         <v>310</v>
       </c>
       <c r="D175" s="5">
-        <v>0</v>
-      </c>
-      <c r="J175">
-        <v>0.91</v>
+        <v>1</v>
+      </c>
+      <c r="E175">
+        <v>0.98</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>344</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>347</v>
       </c>
       <c r="C176" t="s">
         <v>310</v>
       </c>
       <c r="D176" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="E176">
         <v>1</v>
+      </c>
+      <c r="J176">
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>346</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>349</v>
       </c>
       <c r="C177" t="s">
         <v>310</v>
       </c>
       <c r="D177" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="J177">
-        <v>0.56000000000000005</v>
+        <v>0.94</v>
+      </c>
+      <c r="E177">
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C178" t="s">
         <v>310</v>
       </c>
       <c r="D178" s="5">
-        <v>0.94</v>
+        <v>0.97</v>
+      </c>
+      <c r="E178">
+        <v>0.91</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C179" t="s">
         <v>310</v>
       </c>
       <c r="D179" s="5">
-        <v>0.97</v>
+        <v>0.92</v>
+      </c>
+      <c r="E179">
+        <v>0.93</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C180" t="s">
         <v>310</v>
@@ -5180,30 +5720,36 @@
       <c r="D180" s="5">
         <v>0.92</v>
       </c>
+      <c r="E180">
+        <v>0.91</v>
+      </c>
+      <c r="J180">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C181" t="s">
         <v>310</v>
       </c>
       <c r="D181" s="5">
-        <v>0.92</v>
-      </c>
-      <c r="J181">
-        <v>0.7</v>
+        <v>0.94</v>
+      </c>
+      <c r="E181">
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C182" t="s">
         <v>310</v>
@@ -5211,149 +5757,182 @@
       <c r="D182" s="5">
         <v>0.94</v>
       </c>
+      <c r="E182">
+        <v>1</v>
+      </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C183" t="s">
         <v>310</v>
       </c>
       <c r="D183" s="5">
-        <v>0.94</v>
+        <v>1</v>
+      </c>
+      <c r="E183">
+        <v>0.98</v>
+      </c>
+      <c r="J183">
+        <v>0.72</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C184" t="s">
         <v>310</v>
       </c>
       <c r="D184" s="5">
-        <v>1</v>
+        <v>0.92</v>
+      </c>
+      <c r="E184">
+        <v>0.95</v>
       </c>
       <c r="J184">
-        <v>0.72</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>362</v>
+        <v>452</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>363</v>
+        <v>451</v>
       </c>
       <c r="C185" t="s">
         <v>310</v>
       </c>
       <c r="D185" s="5">
-        <v>0.92</v>
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>1</v>
       </c>
       <c r="J185">
-        <v>0.56000000000000005</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>452</v>
+        <v>364</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>451</v>
+        <v>365</v>
       </c>
       <c r="C186" t="s">
         <v>310</v>
       </c>
       <c r="D186" s="5">
-        <v>0</v>
+        <v>0.92</v>
+      </c>
+      <c r="E186">
+        <v>0.95</v>
       </c>
       <c r="J186">
-        <v>0.7</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>364</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>367</v>
       </c>
       <c r="C187" t="s">
         <v>310</v>
       </c>
       <c r="D187" s="5">
-        <v>0.92</v>
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>0.95</v>
       </c>
       <c r="J187">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>366</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="C188" t="s">
         <v>310</v>
       </c>
       <c r="D188" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="E188">
         <v>0</v>
-      </c>
-      <c r="J188">
-        <v>0.91</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C189" t="s">
         <v>310</v>
       </c>
       <c r="D189" s="5">
-        <v>0.67</v>
+        <v>0.69</v>
+      </c>
+      <c r="E189">
+        <v>0.95</v>
+      </c>
+      <c r="J189">
+        <v>0.91</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C190" t="s">
         <v>310</v>
       </c>
       <c r="D190" s="5">
-        <v>0.69</v>
-      </c>
-      <c r="J190">
-        <v>0.91</v>
+        <v>0.86</v>
+      </c>
+      <c r="E190">
+        <v>0.95</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C191" t="s">
         <v>310</v>
       </c>
       <c r="D191" s="5">
-        <v>0.86</v>
+        <v>0.97</v>
+      </c>
+      <c r="E191">
+        <v>0.77</v>
+      </c>
+      <c r="J191">
+        <v>0.85</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
@@ -5361,114 +5940,135 @@
         <v>374</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C192" t="s">
         <v>310</v>
       </c>
       <c r="D192" s="5">
-        <v>0.97</v>
-      </c>
-      <c r="J192">
-        <v>0.85</v>
+        <v>0.69</v>
+      </c>
+      <c r="E192">
+        <v>0.98</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C193" t="s">
         <v>310</v>
       </c>
       <c r="D193" s="5">
-        <v>0.69</v>
+        <v>0.92</v>
+      </c>
+      <c r="E193">
+        <v>0.93</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C194" t="s">
         <v>310</v>
       </c>
       <c r="D194" s="5">
-        <v>0.92</v>
+        <v>0.97</v>
+      </c>
+      <c r="E194">
+        <v>0.91</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C195" t="s">
         <v>310</v>
       </c>
       <c r="D195" s="5">
-        <v>0.97</v>
+        <v>0.81</v>
+      </c>
+      <c r="E195">
+        <v>0.93</v>
+      </c>
+      <c r="J195">
+        <v>0.85</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>381</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>384</v>
       </c>
       <c r="C196" t="s">
         <v>310</v>
       </c>
       <c r="D196" s="5">
-        <v>0.81</v>
+        <v>0.89</v>
+      </c>
+      <c r="E196">
+        <v>0.98</v>
       </c>
       <c r="J196">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>383</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>386</v>
       </c>
       <c r="C197" t="s">
         <v>310</v>
       </c>
       <c r="D197" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="J197">
         <v>0.83</v>
+      </c>
+      <c r="E197">
+        <v>0.95</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C198" t="s">
         <v>310</v>
       </c>
       <c r="D198" s="5">
-        <v>0.83</v>
+        <v>0.78</v>
+      </c>
+      <c r="E198">
+        <v>0.93</v>
+      </c>
+      <c r="J198">
+        <v>0.72</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C199" t="s">
         <v>310</v>
@@ -5476,56 +6076,65 @@
       <c r="D199" s="5">
         <v>0.78</v>
       </c>
-      <c r="J199">
-        <v>0.72</v>
+      <c r="E199">
+        <v>0.91</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C200" t="s">
         <v>310</v>
       </c>
       <c r="D200" s="5">
-        <v>0.78</v>
+        <v>0.97</v>
+      </c>
+      <c r="E200">
+        <v>0.93</v>
+      </c>
+      <c r="J200">
+        <v>0.69</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C201" t="s">
         <v>310</v>
       </c>
       <c r="D201" s="5">
-        <v>0.97</v>
+        <v>0.81</v>
+      </c>
+      <c r="E201">
+        <v>0.95</v>
       </c>
       <c r="J201">
-        <v>0.69</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>393</v>
+        <v>461</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>394</v>
+        <v>462</v>
       </c>
       <c r="C202" t="s">
         <v>310</v>
       </c>
       <c r="D202" s="5">
-        <v>0.81</v>
-      </c>
-      <c r="J202">
-        <v>0.7</v>
+        <v>0</v>
+      </c>
+      <c r="E202">
+        <v>0.93</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
@@ -5541,101 +6150,125 @@
       <c r="D203" s="5">
         <v>0.86</v>
       </c>
+      <c r="E203">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>397</v>
+        <v>277</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>398</v>
+        <v>278</v>
       </c>
       <c r="C204" t="s">
         <v>310</v>
       </c>
       <c r="D204" s="5">
-        <v>0.97</v>
+        <v>0.92</v>
+      </c>
+      <c r="E204">
+        <v>0.93</v>
+      </c>
+      <c r="G204">
+        <v>0.66</v>
+      </c>
+      <c r="J204">
+        <v>0.72</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C205" t="s">
         <v>310</v>
       </c>
       <c r="D205" s="5">
-        <v>0.92</v>
-      </c>
-      <c r="J205">
-        <v>0.69</v>
+        <v>0.97</v>
+      </c>
+      <c r="E205">
+        <v>0.91</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C206" t="s">
         <v>310</v>
       </c>
       <c r="D206" s="5">
-        <v>0.86</v>
+        <v>0.92</v>
+      </c>
+      <c r="E206">
+        <v>0.95</v>
       </c>
       <c r="J206">
-        <v>0.83</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C207" t="s">
         <v>310</v>
       </c>
       <c r="D207" s="5">
-        <v>0.94</v>
+        <v>0.86</v>
+      </c>
+      <c r="E207">
+        <v>1</v>
       </c>
       <c r="J207">
-        <v>0.72</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C208" t="s">
         <v>310</v>
       </c>
       <c r="D208" s="5">
-        <v>0.97</v>
+        <v>0.94</v>
+      </c>
+      <c r="E208">
+        <v>0.95</v>
       </c>
       <c r="J208">
-        <v>0.85</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C209" t="s">
         <v>310</v>
       </c>
       <c r="D209" s="5">
-        <v>0.72</v>
+        <v>0.97</v>
+      </c>
+      <c r="E209">
+        <v>0.93100000000000005</v>
       </c>
       <c r="J209">
         <v>0.85</v>
@@ -5643,148 +6276,175 @@
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C210" t="s">
         <v>310</v>
       </c>
       <c r="D210" s="5">
-        <v>0.94</v>
+        <v>0.72</v>
+      </c>
+      <c r="E210">
+        <v>0.98</v>
       </c>
       <c r="J210">
-        <v>0.69</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C211" t="s">
         <v>310</v>
       </c>
       <c r="D211" s="5">
-        <v>0.67</v>
+        <v>0.94</v>
+      </c>
+      <c r="E211">
+        <v>1</v>
+      </c>
+      <c r="J211">
+        <v>0.69</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>413</v>
-      </c>
-      <c r="B212" s="3" t="s">
-        <v>414</v>
+        <v>411</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>412</v>
       </c>
       <c r="C212" t="s">
         <v>310</v>
       </c>
       <c r="D212" s="5">
-        <v>0.72</v>
+        <v>0.67</v>
+      </c>
+      <c r="E212">
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>415</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>414</v>
       </c>
       <c r="C213" t="s">
         <v>310</v>
       </c>
       <c r="D213" s="5">
-        <v>0.83</v>
+        <v>0.72</v>
+      </c>
+      <c r="E213">
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C214" t="s">
         <v>310</v>
       </c>
       <c r="D214" s="5">
-        <v>0.97</v>
-      </c>
-      <c r="J214">
         <v>0.83</v>
+      </c>
+      <c r="E214">
+        <v>0.98</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C215" t="s">
         <v>310</v>
       </c>
       <c r="D215" s="5">
-        <v>0.92</v>
+        <v>0.97</v>
+      </c>
+      <c r="E215">
+        <v>0.91</v>
       </c>
       <c r="J215">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C216" t="s">
         <v>310</v>
       </c>
       <c r="D216" s="5">
-        <v>0.97</v>
+        <v>0.92</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+      <c r="J216">
+        <v>0.91</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C217" t="s">
         <v>310</v>
       </c>
       <c r="D217" s="5">
-        <v>0.86</v>
+        <v>0.97</v>
+      </c>
+      <c r="E217">
+        <v>0.98</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C218" t="s">
         <v>310</v>
       </c>
       <c r="D218" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="J218">
-        <v>0.83</v>
+        <v>0.86</v>
+      </c>
+      <c r="E218">
+        <v>0.98</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C219" t="s">
         <v>310</v>
@@ -5792,30 +6452,36 @@
       <c r="D219" s="5">
         <v>0.89</v>
       </c>
+      <c r="E219">
+        <v>0.93</v>
+      </c>
+      <c r="J219">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C220" t="s">
         <v>310</v>
       </c>
       <c r="D220" s="5">
-        <v>0.94</v>
-      </c>
-      <c r="J220">
-        <v>0.7</v>
+        <v>0.89</v>
+      </c>
+      <c r="E220">
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>431</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>432</v>
+        <v>192</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="C221" t="s">
         <v>310</v>
@@ -5823,50 +6489,62 @@
       <c r="D221" s="5">
         <v>0.89</v>
       </c>
+      <c r="E221">
+        <v>1</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
       <c r="J221">
-        <v>0.7</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C222" t="s">
         <v>310</v>
       </c>
       <c r="D222" s="5">
-        <v>0.86</v>
+        <v>0.94</v>
+      </c>
+      <c r="E222">
+        <v>0.91</v>
       </c>
       <c r="J222">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C223" t="s">
         <v>310</v>
       </c>
       <c r="D223" s="5">
-        <v>0.83</v>
+        <v>0.89</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
       </c>
       <c r="J223">
-        <v>0.56000000000000005</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>437</v>
-      </c>
-      <c r="B224" s="3" t="s">
-        <v>438</v>
+        <v>433</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="C224" t="s">
         <v>310</v>
@@ -5874,24 +6552,70 @@
       <c r="D224" s="5">
         <v>0.86</v>
       </c>
+      <c r="E224">
+        <v>0.74</v>
+      </c>
       <c r="J224">
-        <v>0.91</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
+        <v>435</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C225" t="s">
+        <v>310</v>
+      </c>
+      <c r="D225" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="E225">
+        <v>0.91</v>
+      </c>
+      <c r="J225">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>437</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C226" t="s">
+        <v>310</v>
+      </c>
+      <c r="D226" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="E226">
+        <v>0.98</v>
+      </c>
+      <c r="J226">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
         <v>439</v>
       </c>
-      <c r="B225" s="3" t="s">
+      <c r="B227" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="C225" t="s">
-        <v>310</v>
-      </c>
-      <c r="D225" s="5">
+      <c r="C227" t="s">
+        <v>310</v>
+      </c>
+      <c r="D227" s="5">
         <v>0.86</v>
       </c>
-      <c r="J225">
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="J227">
         <v>0.56000000000000005</v>
       </c>
     </row>

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D71C092-2506-5A49-BFA9-AF68E8C3229C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FDDF52-30C5-A940-8924-895320D9F3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2540" yWindow="1360" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -1875,8 +1875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J151" sqref="J151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2004,6 +2004,9 @@
       <c r="G5">
         <v>0.42</v>
       </c>
+      <c r="J5">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2156,6 +2159,9 @@
       <c r="G12">
         <v>0.85</v>
       </c>
+      <c r="J12">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2176,6 +2182,9 @@
       <c r="G13">
         <v>0.73</v>
       </c>
+      <c r="J13">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2792,6 +2801,9 @@
       <c r="G42">
         <v>0.66</v>
       </c>
+      <c r="J42">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -2812,6 +2824,9 @@
       <c r="G43">
         <v>0.8</v>
       </c>
+      <c r="J43">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -2878,6 +2893,9 @@
       <c r="G46">
         <v>0.59</v>
       </c>
+      <c r="J46">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -4184,6 +4202,9 @@
       <c r="G105">
         <v>0.66</v>
       </c>
+      <c r="J105">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
@@ -4204,6 +4225,9 @@
       <c r="G106">
         <v>0.54</v>
       </c>
+      <c r="J106">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
@@ -4224,6 +4248,9 @@
       <c r="G107">
         <v>0.43</v>
       </c>
+      <c r="J107">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
@@ -4313,6 +4340,9 @@
       <c r="G111">
         <v>0.56999999999999995</v>
       </c>
+      <c r="J111">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
@@ -4600,6 +4630,9 @@
       <c r="G124">
         <v>0.73</v>
       </c>
+      <c r="J124">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
@@ -4663,6 +4696,9 @@
       <c r="G127">
         <v>0.63</v>
       </c>
+      <c r="J127">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
@@ -4815,6 +4851,9 @@
       <c r="G134">
         <v>0.46</v>
       </c>
+      <c r="J134">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
@@ -4835,6 +4874,9 @@
       <c r="G135">
         <v>0.66</v>
       </c>
+      <c r="J135">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
@@ -5159,6 +5201,9 @@
       <c r="G150">
         <v>0.73</v>
       </c>
+      <c r="J150">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
@@ -5199,6 +5244,9 @@
       <c r="G152">
         <v>0.73</v>
       </c>
+      <c r="J152">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
@@ -5239,6 +5287,9 @@
       <c r="G154">
         <v>0.64</v>
       </c>
+      <c r="J154">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
@@ -5259,6 +5310,9 @@
       <c r="G155">
         <v>0.43</v>
       </c>
+      <c r="J155">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
@@ -5634,6 +5688,9 @@
       </c>
       <c r="E175">
         <v>0.98</v>
+      </c>
+      <c r="J175">
+        <v>0.7</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FDDF52-30C5-A940-8924-895320D9F3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61AF0FD-9234-CB43-AACE-CDE5FCE414AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2540" yWindow="1360" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -1331,9 +1331,6 @@
     <t>H250172X</t>
   </si>
   <si>
-    <t>TISHLEE MVUDUDU</t>
-  </si>
-  <si>
     <t>H250056R</t>
   </si>
   <si>
@@ -1425,6 +1422,9 @@
   </si>
   <si>
     <t>H24038G</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MVUDUDU</t>
   </si>
 </sst>
 </file>
@@ -1876,7 +1876,7 @@
   <dimension ref="A1:M227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J151" sqref="J151"/>
+      <selection activeCell="G226" sqref="G226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1889,34 +1889,34 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E1" t="s">
+        <v>443</v>
+      </c>
+      <c r="F1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G1" t="s">
+        <v>445</v>
+      </c>
+      <c r="H1" t="s">
+        <v>446</v>
+      </c>
+      <c r="I1" t="s">
+        <v>447</v>
+      </c>
+      <c r="J1" t="s">
         <v>441</v>
       </c>
-      <c r="D1" t="s">
-        <v>443</v>
-      </c>
-      <c r="E1" t="s">
-        <v>444</v>
-      </c>
-      <c r="F1" t="s">
-        <v>445</v>
-      </c>
-      <c r="G1" t="s">
-        <v>446</v>
-      </c>
-      <c r="H1" t="s">
-        <v>447</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>448</v>
       </c>
-      <c r="J1" t="s">
-        <v>442</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>449</v>
-      </c>
-      <c r="L1" t="s">
-        <v>450</v>
       </c>
       <c r="M1" t="s">
         <v>2</v>
@@ -2288,10 +2288,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>458</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>460</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -3559,10 +3559,10 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>454</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>456</v>
       </c>
       <c r="C77" t="s">
         <v>106</v>
@@ -3783,7 +3783,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>132</v>
@@ -4073,7 +4073,7 @@
         <v>197</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C100" t="s">
         <v>106</v>
@@ -4966,10 +4966,10 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>456</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>457</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>458</v>
       </c>
       <c r="C140" t="s">
         <v>203</v>
@@ -5339,70 +5339,79 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>309</v>
+        <v>462</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>311</v>
+        <v>431</v>
       </c>
       <c r="C157" t="s">
         <v>310</v>
       </c>
       <c r="D157" s="5">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="E157">
-        <v>0.91</v>
+        <v>1</v>
+      </c>
+      <c r="G157">
+        <v>0.55000000000000004</v>
       </c>
       <c r="J157">
-        <v>0.91</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C158" t="s">
         <v>310</v>
       </c>
       <c r="D158" s="5">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="E158">
-        <v>0.98</v>
+        <v>0.91</v>
+      </c>
+      <c r="G158">
+        <v>0.63</v>
       </c>
       <c r="J158">
-        <v>0.72</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>314</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="C159" t="s">
         <v>310</v>
       </c>
       <c r="D159" s="5">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="E159">
         <v>0.98</v>
       </c>
+      <c r="G159">
+        <v>0.69</v>
+      </c>
       <c r="J159">
-        <v>0.69</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>316</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>315</v>
       </c>
       <c r="C160" t="s">
         <v>310</v>
@@ -5411,120 +5420,144 @@
         <v>0.92</v>
       </c>
       <c r="E160">
-        <v>0.93</v>
+        <v>0.98</v>
+      </c>
+      <c r="G160">
+        <v>0.84</v>
       </c>
       <c r="J160">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>318</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="C161" t="s">
         <v>310</v>
       </c>
       <c r="D161" s="5">
-        <v>0.81</v>
+        <v>0.92</v>
       </c>
       <c r="E161">
-        <v>1</v>
+        <v>0.93</v>
+      </c>
+      <c r="G161">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J161">
+        <v>0.7</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>320</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>319</v>
       </c>
       <c r="C162" t="s">
         <v>310</v>
       </c>
       <c r="D162" s="5">
-        <v>0.89</v>
+        <v>0.81</v>
       </c>
       <c r="E162">
-        <v>0.93</v>
+        <v>1</v>
+      </c>
+      <c r="G162">
+        <v>0.7</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C163" t="s">
         <v>310</v>
       </c>
       <c r="D163" s="5">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="E163">
-        <v>1</v>
+        <v>0.93</v>
+      </c>
+      <c r="G163">
+        <v>0.64</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C164" t="s">
         <v>310</v>
       </c>
       <c r="D164" s="5">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="E164">
-        <v>0.98</v>
+        <v>1</v>
+      </c>
+      <c r="G164">
+        <v>0.85</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C165" t="s">
         <v>310</v>
       </c>
       <c r="D165" s="5">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="E165">
-        <v>0.95</v>
+        <v>0.98</v>
+      </c>
+      <c r="G165">
+        <v>0.67</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>328</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="C166" t="s">
         <v>310</v>
       </c>
       <c r="D166" s="5">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="E166">
-        <v>0.91</v>
+        <v>0.95</v>
+      </c>
+      <c r="G166">
+        <v>0.6</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>330</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>329</v>
       </c>
       <c r="C167" t="s">
         <v>310</v>
@@ -5533,243 +5566,279 @@
         <v>0.89</v>
       </c>
       <c r="E167">
-        <v>0.98</v>
+        <v>0.91</v>
+      </c>
+      <c r="G167">
+        <v>0.39</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C168" t="s">
         <v>310</v>
       </c>
       <c r="D168" s="5">
-        <v>0.56000000000000005</v>
+        <v>0.89</v>
       </c>
       <c r="E168">
-        <v>0.88</v>
+        <v>0.98</v>
+      </c>
+      <c r="G168">
+        <v>0.63</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C169" t="s">
         <v>310</v>
       </c>
       <c r="D169" s="5">
-        <v>0.83</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E169">
-        <v>1</v>
-      </c>
-      <c r="J169">
-        <v>0.72</v>
+        <v>0.88</v>
+      </c>
+      <c r="G169">
+        <v>0.36</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>135</v>
+        <v>334</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>136</v>
+        <v>335</v>
       </c>
       <c r="C170" t="s">
         <v>310</v>
       </c>
       <c r="D170" s="5">
-        <v>0.53</v>
+        <v>0.83</v>
       </c>
       <c r="E170">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="G170">
-        <v>0.46</v>
+        <v>0.66</v>
       </c>
       <c r="J170">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>336</v>
+        <v>135</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>337</v>
+        <v>136</v>
       </c>
       <c r="C171" t="s">
         <v>310</v>
       </c>
       <c r="D171" s="5">
-        <v>0.89</v>
+        <v>0.53</v>
       </c>
       <c r="E171">
-        <v>0.98</v>
+        <v>0.77</v>
+      </c>
+      <c r="G171">
+        <v>0.46</v>
       </c>
       <c r="J171">
-        <v>0.56000000000000005</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C172" t="s">
         <v>310</v>
       </c>
       <c r="D172" s="5">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="E172">
-        <v>1</v>
+        <v>0.98</v>
+      </c>
+      <c r="G172">
+        <v>0.7</v>
+      </c>
+      <c r="J172">
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C173" t="s">
         <v>310</v>
       </c>
       <c r="D173" s="5">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="E173">
         <v>1</v>
       </c>
-      <c r="J173">
-        <v>0.83</v>
+      <c r="G173">
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>342</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>341</v>
       </c>
       <c r="C174" t="s">
         <v>310</v>
       </c>
       <c r="D174" s="5">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="E174">
-        <v>0.95</v>
+        <v>1</v>
+      </c>
+      <c r="G174">
+        <v>0.56999999999999995</v>
       </c>
       <c r="J174">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>344</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>343</v>
       </c>
       <c r="C175" t="s">
         <v>310</v>
       </c>
       <c r="D175" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E175">
-        <v>0.98</v>
+        <v>0.95</v>
+      </c>
+      <c r="G175">
+        <v>0.56999999999999995</v>
       </c>
       <c r="J175">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>346</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="C176" t="s">
         <v>310</v>
       </c>
       <c r="D176" s="5">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="E176">
-        <v>1</v>
+        <v>0.98</v>
+      </c>
+      <c r="G176">
+        <v>0.82</v>
       </c>
       <c r="J176">
-        <v>0.56000000000000005</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>348</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>347</v>
       </c>
       <c r="C177" t="s">
         <v>310</v>
       </c>
       <c r="D177" s="5">
-        <v>0.94</v>
+        <v>0.89</v>
       </c>
       <c r="E177">
         <v>1</v>
       </c>
+      <c r="G177">
+        <v>0.63</v>
+      </c>
+      <c r="J177">
+        <v>0.56000000000000005</v>
+      </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C178" t="s">
         <v>310</v>
       </c>
       <c r="D178" s="5">
-        <v>0.97</v>
+        <v>0.94</v>
       </c>
       <c r="E178">
-        <v>0.91</v>
+        <v>1</v>
+      </c>
+      <c r="G178">
+        <v>0.61</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C179" t="s">
         <v>310</v>
       </c>
       <c r="D179" s="5">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="E179">
-        <v>0.93</v>
+        <v>0.91</v>
+      </c>
+      <c r="G179">
+        <v>0.75</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C180" t="s">
         <v>310</v>
@@ -5778,35 +5847,41 @@
         <v>0.92</v>
       </c>
       <c r="E180">
-        <v>0.91</v>
-      </c>
-      <c r="J180">
-        <v>0.7</v>
+        <v>0.93</v>
+      </c>
+      <c r="G180">
+        <v>0.64</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C181" t="s">
         <v>310</v>
       </c>
       <c r="D181" s="5">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="E181">
-        <v>1</v>
+        <v>0.91</v>
+      </c>
+      <c r="G181">
+        <v>0.63</v>
+      </c>
+      <c r="J181">
+        <v>0.7</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C182" t="s">
         <v>310</v>
@@ -5817,179 +5892,206 @@
       <c r="E182">
         <v>1</v>
       </c>
+      <c r="G182">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C183" t="s">
         <v>310</v>
       </c>
       <c r="D183" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="E183">
         <v>1</v>
       </c>
-      <c r="E183">
-        <v>0.98</v>
-      </c>
-      <c r="J183">
-        <v>0.72</v>
+      <c r="G183">
+        <v>0.73</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C184" t="s">
         <v>310</v>
       </c>
       <c r="D184" s="5">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="E184">
-        <v>0.95</v>
+        <v>0.98</v>
+      </c>
+      <c r="G184">
+        <v>0.51</v>
       </c>
       <c r="J184">
-        <v>0.56000000000000005</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>452</v>
+        <v>362</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>451</v>
+        <v>363</v>
       </c>
       <c r="C185" t="s">
         <v>310</v>
       </c>
       <c r="D185" s="5">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="E185">
-        <v>1</v>
+        <v>0.95</v>
+      </c>
+      <c r="G185">
+        <v>0.61</v>
       </c>
       <c r="J185">
-        <v>0.7</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>364</v>
+        <v>451</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>365</v>
+        <v>450</v>
       </c>
       <c r="C186" t="s">
         <v>310</v>
       </c>
       <c r="D186" s="5">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="E186">
-        <v>0.95</v>
+        <v>1</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
       </c>
       <c r="J186">
-        <v>0.83</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>366</v>
-      </c>
-      <c r="B187" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>365</v>
       </c>
       <c r="C187" t="s">
         <v>310</v>
       </c>
       <c r="D187" s="5">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="E187">
         <v>0.95</v>
       </c>
+      <c r="G187">
+        <v>0.79</v>
+      </c>
       <c r="J187">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>368</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>367</v>
       </c>
       <c r="C188" t="s">
         <v>310</v>
       </c>
       <c r="D188" s="5">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>0.95</v>
+      </c>
+      <c r="G188">
+        <v>0.73</v>
+      </c>
+      <c r="J188">
+        <v>0.91</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C189" t="s">
         <v>310</v>
       </c>
       <c r="D189" s="5">
-        <v>0.69</v>
+        <v>0.67</v>
       </c>
       <c r="E189">
-        <v>0.95</v>
-      </c>
-      <c r="J189">
-        <v>0.91</v>
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C190" t="s">
         <v>310</v>
       </c>
       <c r="D190" s="5">
-        <v>0.86</v>
+        <v>0.69</v>
       </c>
       <c r="E190">
         <v>0.95</v>
       </c>
+      <c r="G190">
+        <v>0.49</v>
+      </c>
+      <c r="J190">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C191" t="s">
         <v>310</v>
       </c>
       <c r="D191" s="5">
-        <v>0.97</v>
+        <v>0.86</v>
       </c>
       <c r="E191">
-        <v>0.77</v>
-      </c>
-      <c r="J191">
-        <v>0.85</v>
+        <v>0.95</v>
+      </c>
+      <c r="G191">
+        <v>0.63</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
@@ -5997,135 +6099,156 @@
         <v>374</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C192" t="s">
         <v>310</v>
       </c>
       <c r="D192" s="5">
-        <v>0.69</v>
+        <v>0.97</v>
       </c>
       <c r="E192">
-        <v>0.98</v>
+        <v>0.77</v>
+      </c>
+      <c r="G192">
+        <v>0.64</v>
+      </c>
+      <c r="J192">
+        <v>0.85</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C193" t="s">
         <v>310</v>
       </c>
       <c r="D193" s="5">
-        <v>0.92</v>
+        <v>0.69</v>
       </c>
       <c r="E193">
-        <v>0.93</v>
+        <v>0.98</v>
+      </c>
+      <c r="G193">
+        <v>0.72</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C194" t="s">
         <v>310</v>
       </c>
       <c r="D194" s="5">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="E194">
-        <v>0.91</v>
+        <v>0.93</v>
+      </c>
+      <c r="G194">
+        <v>0.6</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C195" t="s">
         <v>310</v>
       </c>
       <c r="D195" s="5">
-        <v>0.81</v>
+        <v>0.97</v>
       </c>
       <c r="E195">
-        <v>0.93</v>
-      </c>
-      <c r="J195">
-        <v>0.85</v>
+        <v>0.91</v>
+      </c>
+      <c r="G195">
+        <v>0.73</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>383</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>382</v>
       </c>
       <c r="C196" t="s">
         <v>310</v>
       </c>
       <c r="D196" s="5">
-        <v>0.89</v>
+        <v>0.81</v>
       </c>
       <c r="E196">
-        <v>0.98</v>
+        <v>0.93</v>
+      </c>
+      <c r="G196">
+        <v>0.56999999999999995</v>
       </c>
       <c r="J196">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>385</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>384</v>
       </c>
       <c r="C197" t="s">
         <v>310</v>
       </c>
       <c r="D197" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="E197">
+        <v>0.98</v>
+      </c>
+      <c r="G197">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J197">
         <v>0.83</v>
-      </c>
-      <c r="E197">
-        <v>0.95</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C198" t="s">
         <v>310</v>
       </c>
       <c r="D198" s="5">
-        <v>0.78</v>
+        <v>0.83</v>
       </c>
       <c r="E198">
-        <v>0.93</v>
-      </c>
-      <c r="J198">
-        <v>0.72</v>
+        <v>0.95</v>
+      </c>
+      <c r="G198">
+        <v>0.51</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C199" t="s">
         <v>310</v>
@@ -6134,218 +6257,251 @@
         <v>0.78</v>
       </c>
       <c r="E199">
-        <v>0.91</v>
+        <v>0.93</v>
+      </c>
+      <c r="G199">
+        <v>0.43</v>
+      </c>
+      <c r="J199">
+        <v>0.72</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C200" t="s">
         <v>310</v>
       </c>
       <c r="D200" s="5">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="E200">
-        <v>0.93</v>
-      </c>
-      <c r="J200">
+        <v>0.91</v>
+      </c>
+      <c r="G200">
         <v>0.69</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C201" t="s">
         <v>310</v>
       </c>
       <c r="D201" s="5">
-        <v>0.81</v>
+        <v>0.97</v>
       </c>
       <c r="E201">
-        <v>0.95</v>
+        <v>0.93</v>
+      </c>
+      <c r="G201">
+        <v>0.69</v>
       </c>
       <c r="J201">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>461</v>
+        <v>393</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>462</v>
+        <v>394</v>
       </c>
       <c r="C202" t="s">
         <v>310</v>
       </c>
       <c r="D202" s="5">
-        <v>0</v>
+        <v>0.81</v>
       </c>
       <c r="E202">
-        <v>0.93</v>
+        <v>0.95</v>
+      </c>
+      <c r="G202">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J202">
+        <v>0.7</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>395</v>
+        <v>460</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>396</v>
+        <v>461</v>
       </c>
       <c r="C203" t="s">
         <v>310</v>
       </c>
       <c r="D203" s="5">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="E203">
-        <v>0.91</v>
+        <v>0.93</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>277</v>
+        <v>395</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>278</v>
+        <v>396</v>
       </c>
       <c r="C204" t="s">
         <v>310</v>
       </c>
       <c r="D204" s="5">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="E204">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="G204">
-        <v>0.66</v>
-      </c>
-      <c r="J204">
-        <v>0.72</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>397</v>
+        <v>277</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>398</v>
+        <v>278</v>
       </c>
       <c r="C205" t="s">
         <v>310</v>
       </c>
       <c r="D205" s="5">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="E205">
-        <v>0.91</v>
+        <v>0.93</v>
+      </c>
+      <c r="G205">
+        <v>0.66</v>
+      </c>
+      <c r="J205">
+        <v>0.72</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C206" t="s">
         <v>310</v>
       </c>
       <c r="D206" s="5">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="E206">
-        <v>0.95</v>
-      </c>
-      <c r="J206">
-        <v>0.69</v>
+        <v>0.91</v>
+      </c>
+      <c r="G206">
+        <v>0.72</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C207" t="s">
         <v>310</v>
       </c>
       <c r="D207" s="5">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>0.95</v>
+      </c>
+      <c r="G207">
+        <v>0.73</v>
       </c>
       <c r="J207">
-        <v>0.83</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C208" t="s">
         <v>310</v>
       </c>
       <c r="D208" s="5">
-        <v>0.94</v>
+        <v>0.86</v>
       </c>
       <c r="E208">
-        <v>0.95</v>
+        <v>1</v>
+      </c>
+      <c r="G208">
+        <v>0.79</v>
       </c>
       <c r="J208">
-        <v>0.72</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C209" t="s">
         <v>310</v>
       </c>
       <c r="D209" s="5">
-        <v>0.97</v>
+        <v>0.94</v>
       </c>
       <c r="E209">
-        <v>0.93100000000000005</v>
+        <v>0.95</v>
+      </c>
+      <c r="G209">
+        <v>0.6</v>
       </c>
       <c r="J209">
-        <v>0.85</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C210" t="s">
         <v>310</v>
       </c>
       <c r="D210" s="5">
-        <v>0.72</v>
+        <v>0.97</v>
       </c>
       <c r="E210">
-        <v>0.98</v>
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="G210">
+        <v>0.88</v>
       </c>
       <c r="J210">
         <v>0.85</v>
@@ -6353,175 +6509,202 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C211" t="s">
         <v>310</v>
       </c>
       <c r="D211" s="5">
-        <v>0.94</v>
+        <v>0.72</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>0.98</v>
+      </c>
+      <c r="G211">
+        <v>0.61</v>
       </c>
       <c r="J211">
-        <v>0.69</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C212" t="s">
         <v>310</v>
       </c>
       <c r="D212" s="5">
-        <v>0.67</v>
+        <v>0.94</v>
       </c>
       <c r="E212">
         <v>1</v>
       </c>
+      <c r="G212">
+        <v>0.49</v>
+      </c>
+      <c r="J212">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>413</v>
-      </c>
-      <c r="B213" s="3" t="s">
-        <v>414</v>
+        <v>411</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>412</v>
       </c>
       <c r="C213" t="s">
         <v>310</v>
       </c>
       <c r="D213" s="5">
-        <v>0.72</v>
+        <v>0.67</v>
       </c>
       <c r="E213">
         <v>1</v>
       </c>
+      <c r="G213">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>415</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>414</v>
       </c>
       <c r="C214" t="s">
         <v>310</v>
       </c>
       <c r="D214" s="5">
-        <v>0.83</v>
+        <v>0.72</v>
       </c>
       <c r="E214">
-        <v>0.98</v>
+        <v>1</v>
+      </c>
+      <c r="G214">
+        <v>0.54</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C215" t="s">
         <v>310</v>
       </c>
       <c r="D215" s="5">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="E215">
-        <v>0.91</v>
-      </c>
-      <c r="J215">
-        <v>0.83</v>
+        <v>0.98</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C216" t="s">
         <v>310</v>
       </c>
       <c r="D216" s="5">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>0.91</v>
+      </c>
+      <c r="G216">
+        <v>0.56999999999999995</v>
       </c>
       <c r="J216">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C217" t="s">
         <v>310</v>
       </c>
       <c r="D217" s="5">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="E217">
-        <v>0.98</v>
+        <v>0</v>
+      </c>
+      <c r="G217">
+        <v>0.7</v>
+      </c>
+      <c r="J217">
+        <v>0.91</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C218" t="s">
         <v>310</v>
       </c>
       <c r="D218" s="5">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
       <c r="E218">
         <v>0.98</v>
       </c>
+      <c r="G218">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C219" t="s">
         <v>310</v>
       </c>
       <c r="D219" s="5">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="E219">
-        <v>0.93</v>
-      </c>
-      <c r="J219">
-        <v>0.83</v>
+        <v>0.98</v>
+      </c>
+      <c r="G219">
+        <v>0.75</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C220" t="s">
         <v>310</v>
@@ -6530,15 +6713,21 @@
         <v>0.89</v>
       </c>
       <c r="E220">
-        <v>1</v>
+        <v>0.93</v>
+      </c>
+      <c r="G220">
+        <v>0.78</v>
+      </c>
+      <c r="J220">
+        <v>0.83</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>192</v>
-      </c>
-      <c r="B221" s="3" t="s">
-        <v>194</v>
+        <v>427</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>428</v>
       </c>
       <c r="C221" t="s">
         <v>310</v>
@@ -6550,47 +6739,50 @@
         <v>1</v>
       </c>
       <c r="G221">
-        <v>0</v>
-      </c>
-      <c r="J221">
-        <v>0.56000000000000005</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>429</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>430</v>
+        <v>192</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="C222" t="s">
         <v>310</v>
       </c>
       <c r="D222" s="5">
-        <v>0.94</v>
+        <v>0.89</v>
       </c>
       <c r="E222">
-        <v>0.91</v>
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>0.31</v>
       </c>
       <c r="J222">
-        <v>0.7</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C223" t="s">
         <v>310</v>
       </c>
       <c r="D223" s="5">
-        <v>0.89</v>
+        <v>0.94</v>
       </c>
       <c r="E223">
-        <v>1</v>
+        <v>0.91</v>
+      </c>
+      <c r="G223">
+        <v>0.63</v>
       </c>
       <c r="J223">
         <v>0.7</v>
@@ -6598,10 +6790,10 @@
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
+        <v>432</v>
+      </c>
+      <c r="B224" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>434</v>
       </c>
       <c r="C224" t="s">
         <v>310</v>
@@ -6612,16 +6804,19 @@
       <c r="E224">
         <v>0.74</v>
       </c>
+      <c r="G224">
+        <v>0.75</v>
+      </c>
       <c r="J224">
         <v>0.85</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
+        <v>434</v>
+      </c>
+      <c r="B225" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>436</v>
       </c>
       <c r="C225" t="s">
         <v>310</v>
@@ -6632,16 +6827,19 @@
       <c r="E225">
         <v>0.91</v>
       </c>
+      <c r="G225">
+        <v>0.48</v>
+      </c>
       <c r="J225">
         <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
+        <v>436</v>
+      </c>
+      <c r="B226" s="3" t="s">
         <v>437</v>
-      </c>
-      <c r="B226" s="3" t="s">
-        <v>438</v>
       </c>
       <c r="C226" t="s">
         <v>310</v>
@@ -6652,16 +6850,19 @@
       <c r="E226">
         <v>0.98</v>
       </c>
+      <c r="G226">
+        <v>0.66</v>
+      </c>
       <c r="J226">
         <v>0.91</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
+        <v>438</v>
+      </c>
+      <c r="B227" s="3" t="s">
         <v>439</v>
-      </c>
-      <c r="B227" s="3" t="s">
-        <v>440</v>
       </c>
       <c r="C227" t="s">
         <v>310</v>
@@ -6671,6 +6872,9 @@
       </c>
       <c r="E227">
         <v>1</v>
+      </c>
+      <c r="G227">
+        <v>0.52</v>
       </c>
       <c r="J227">
         <v>0.56000000000000005</v>

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61AF0FD-9234-CB43-AACE-CDE5FCE414AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C19CF1E-8E13-3641-9E1F-1A56F4B9AEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2540" yWindow="1360" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -1875,8 +1875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M227"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G226" sqref="G226"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1941,6 +1941,9 @@
       <c r="G2">
         <v>0.56000000000000005</v>
       </c>
+      <c r="J2">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2093,6 +2096,9 @@
       <c r="G9">
         <v>0.72</v>
       </c>
+      <c r="J9">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2285,6 +2291,9 @@
       <c r="G18">
         <v>0.76</v>
       </c>
+      <c r="J18">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -2609,6 +2618,9 @@
       <c r="G33">
         <v>0.37</v>
       </c>
+      <c r="J33">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -2758,6 +2770,9 @@
       <c r="G40">
         <v>0.82</v>
       </c>
+      <c r="J40">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -5003,6 +5018,9 @@
       <c r="G141">
         <v>0.66</v>
       </c>
+      <c r="J141">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
@@ -5112,6 +5130,9 @@
       <c r="G146">
         <v>0.45</v>
       </c>
+      <c r="J146">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
@@ -5491,6 +5512,9 @@
       <c r="G163">
         <v>0.64</v>
       </c>
+      <c r="J163">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
@@ -5511,6 +5535,9 @@
       <c r="G164">
         <v>0.85</v>
       </c>
+      <c r="J164">
+        <v>0.93</v>
+      </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
@@ -5611,6 +5638,9 @@
       <c r="G169">
         <v>0.36</v>
       </c>
+      <c r="J169">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
@@ -5700,6 +5730,9 @@
       <c r="G173">
         <v>0.55000000000000004</v>
       </c>
+      <c r="J173">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
@@ -6050,6 +6083,9 @@
       <c r="G189">
         <v>0.57999999999999996</v>
       </c>
+      <c r="J189">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
@@ -6093,6 +6129,9 @@
       <c r="G191">
         <v>0.63</v>
       </c>
+      <c r="J191">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
@@ -6156,6 +6195,9 @@
       <c r="G194">
         <v>0.6</v>
       </c>
+      <c r="J194">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
@@ -6176,6 +6218,9 @@
       <c r="G195">
         <v>0.73</v>
       </c>
+      <c r="J195">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
@@ -6371,6 +6416,9 @@
       <c r="G204">
         <v>0.56999999999999995</v>
       </c>
+      <c r="J204">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
@@ -6414,6 +6462,9 @@
       <c r="G206">
         <v>0.72</v>
       </c>
+      <c r="J206">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
@@ -6677,6 +6728,9 @@
       </c>
       <c r="G218">
         <v>0.54</v>
+      </c>
+      <c r="J218">
+        <v>0.46</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C19CF1E-8E13-3641-9E1F-1A56F4B9AEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31714DEA-FAAA-804D-AFA9-2241F9E16F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2540" yWindow="1360" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="462">
   <si>
     <t>Surname</t>
   </si>
@@ -1248,9 +1248,6 @@
   </si>
   <si>
     <t>Muvezwa</t>
-  </si>
-  <si>
-    <t>H250627G</t>
   </si>
   <si>
     <t>NDHLOVU</t>
@@ -1875,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="J206" sqref="J206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1889,34 +1886,34 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D1" t="s">
+        <v>441</v>
+      </c>
+      <c r="E1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F1" t="s">
+        <v>443</v>
+      </c>
+      <c r="G1" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1" t="s">
+        <v>445</v>
+      </c>
+      <c r="I1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J1" t="s">
         <v>440</v>
       </c>
-      <c r="D1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E1" t="s">
-        <v>443</v>
-      </c>
-      <c r="F1" t="s">
-        <v>444</v>
-      </c>
-      <c r="G1" t="s">
-        <v>445</v>
-      </c>
-      <c r="H1" t="s">
-        <v>446</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>447</v>
       </c>
-      <c r="J1" t="s">
-        <v>441</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>448</v>
-      </c>
-      <c r="L1" t="s">
-        <v>449</v>
       </c>
       <c r="M1" t="s">
         <v>2</v>
@@ -2211,6 +2208,9 @@
       <c r="G14">
         <v>0.62</v>
       </c>
+      <c r="J14">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2251,6 +2251,9 @@
       <c r="G16">
         <v>0.44</v>
       </c>
+      <c r="J16">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -2297,10 +2300,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>457</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>459</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -2337,6 +2340,9 @@
       <c r="G20">
         <v>0.49</v>
       </c>
+      <c r="J20">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -2931,6 +2937,9 @@
       <c r="G47">
         <v>0.61</v>
       </c>
+      <c r="J47">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -2951,6 +2960,9 @@
       <c r="G48">
         <v>0</v>
       </c>
+      <c r="J48">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -3063,6 +3075,9 @@
       <c r="G53">
         <v>0.66</v>
       </c>
+      <c r="J53">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
@@ -3129,6 +3144,9 @@
       <c r="G56">
         <v>0.63</v>
       </c>
+      <c r="J56">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
@@ -3195,6 +3213,9 @@
       <c r="G59">
         <v>0.55000000000000004</v>
       </c>
+      <c r="J59">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
@@ -3215,6 +3236,9 @@
       <c r="G60">
         <v>0.68</v>
       </c>
+      <c r="J60">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -3281,6 +3305,9 @@
       <c r="G63">
         <v>0.44</v>
       </c>
+      <c r="J63">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -3301,6 +3328,9 @@
       <c r="G64">
         <v>0.73</v>
       </c>
+      <c r="J64">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -3436,6 +3466,9 @@
       <c r="G70">
         <v>0.61</v>
       </c>
+      <c r="J70">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
@@ -3479,6 +3512,9 @@
       <c r="G72">
         <v>0.65</v>
       </c>
+      <c r="J72">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
@@ -3574,10 +3610,10 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>453</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>454</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>455</v>
       </c>
       <c r="C77" t="s">
         <v>106</v>
@@ -3611,6 +3647,9 @@
       <c r="G78">
         <v>0.75</v>
       </c>
+      <c r="J78">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
@@ -3798,7 +3837,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>132</v>
@@ -3930,6 +3969,9 @@
       <c r="G92">
         <v>0.56000000000000005</v>
       </c>
+      <c r="J92">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
@@ -3950,6 +3992,9 @@
       <c r="G93">
         <v>0.62</v>
       </c>
+      <c r="J93">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
@@ -4082,13 +4127,16 @@
       <c r="G99">
         <v>0.69</v>
       </c>
+      <c r="J99">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>197</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C100" t="s">
         <v>106</v>
@@ -4981,10 +5029,10 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>455</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>456</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>457</v>
       </c>
       <c r="C140" t="s">
         <v>203</v>
@@ -5360,10 +5408,10 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C157" t="s">
         <v>310</v>
@@ -5424,7 +5472,7 @@
         <v>0.69</v>
       </c>
       <c r="J159">
-        <v>0.72</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
@@ -5558,6 +5606,9 @@
       <c r="G165">
         <v>0.67</v>
       </c>
+      <c r="J165">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
@@ -5578,6 +5629,9 @@
       <c r="G166">
         <v>0.6</v>
       </c>
+      <c r="J166">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
@@ -5598,6 +5652,9 @@
       <c r="G167">
         <v>0.39</v>
       </c>
+      <c r="J167">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
@@ -5618,6 +5675,9 @@
       <c r="G168">
         <v>0.63</v>
       </c>
+      <c r="J168">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
@@ -5662,7 +5722,7 @@
         <v>0.66</v>
       </c>
       <c r="J170">
-        <v>0.72</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
@@ -5845,6 +5905,9 @@
       <c r="G178">
         <v>0.61</v>
       </c>
+      <c r="J178">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
@@ -5865,6 +5928,9 @@
       <c r="G179">
         <v>0.75</v>
       </c>
+      <c r="J179">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
@@ -5885,6 +5951,9 @@
       <c r="G180">
         <v>0.64</v>
       </c>
+      <c r="J180">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
@@ -5969,7 +6038,7 @@
         <v>0.51</v>
       </c>
       <c r="J184">
-        <v>0.72</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
@@ -5997,10 +6066,10 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C186" t="s">
         <v>310</v>
@@ -6175,6 +6244,9 @@
       <c r="G193">
         <v>0.72</v>
       </c>
+      <c r="J193">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
@@ -6287,6 +6359,9 @@
       <c r="G198">
         <v>0.51</v>
       </c>
+      <c r="J198">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
@@ -6308,7 +6383,7 @@
         <v>0.43</v>
       </c>
       <c r="J199">
-        <v>0.72</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
@@ -6379,10 +6454,10 @@
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
+        <v>459</v>
+      </c>
+      <c r="B203" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>461</v>
       </c>
       <c r="C203" t="s">
         <v>310</v>
@@ -6440,7 +6515,7 @@
         <v>0.66</v>
       </c>
       <c r="J205">
-        <v>0.72</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
@@ -6516,8 +6591,8 @@
       <c r="A209" t="s">
         <v>403</v>
       </c>
-      <c r="B209" s="2" t="s">
-        <v>404</v>
+      <c r="B209" s="2">
+        <v>0.38</v>
       </c>
       <c r="C209" t="s">
         <v>310</v>
@@ -6537,10 +6612,10 @@
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
+        <v>404</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>406</v>
       </c>
       <c r="C210" t="s">
         <v>310</v>
@@ -6560,10 +6635,10 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
+        <v>406</v>
+      </c>
+      <c r="B211" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>408</v>
       </c>
       <c r="C211" t="s">
         <v>310</v>
@@ -6583,10 +6658,10 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
+        <v>408</v>
+      </c>
+      <c r="B212" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>410</v>
       </c>
       <c r="C212" t="s">
         <v>310</v>
@@ -6606,10 +6681,10 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>410</v>
+      </c>
+      <c r="B213" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="C213" t="s">
         <v>310</v>
@@ -6626,10 +6701,10 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>412</v>
+      </c>
+      <c r="B214" s="3" t="s">
         <v>413</v>
-      </c>
-      <c r="B214" s="3" t="s">
-        <v>414</v>
       </c>
       <c r="C214" t="s">
         <v>310</v>
@@ -6643,13 +6718,16 @@
       <c r="G214">
         <v>0.54</v>
       </c>
+      <c r="J214">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
+        <v>414</v>
+      </c>
+      <c r="B215" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="C215" t="s">
         <v>310</v>
@@ -6666,10 +6744,10 @@
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
+        <v>416</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>418</v>
       </c>
       <c r="C216" t="s">
         <v>310</v>
@@ -6689,10 +6767,10 @@
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
+        <v>418</v>
+      </c>
+      <c r="B217" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>420</v>
       </c>
       <c r="C217" t="s">
         <v>310</v>
@@ -6712,10 +6790,10 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
+        <v>420</v>
+      </c>
+      <c r="B218" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>422</v>
       </c>
       <c r="C218" t="s">
         <v>310</v>
@@ -6735,10 +6813,10 @@
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
+        <v>422</v>
+      </c>
+      <c r="B219" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="C219" t="s">
         <v>310</v>
@@ -6752,13 +6830,16 @@
       <c r="G219">
         <v>0.75</v>
       </c>
+      <c r="J219">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
+        <v>424</v>
+      </c>
+      <c r="B220" s="2" t="s">
         <v>425</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>426</v>
       </c>
       <c r="C220" t="s">
         <v>310</v>
@@ -6778,10 +6859,10 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
+        <v>426</v>
+      </c>
+      <c r="B221" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>428</v>
       </c>
       <c r="C221" t="s">
         <v>310</v>
@@ -6794,6 +6875,9 @@
       </c>
       <c r="G221">
         <v>0.54</v>
+      </c>
+      <c r="J221">
+        <v>0.72</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
@@ -6821,10 +6905,10 @@
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
+        <v>428</v>
+      </c>
+      <c r="B223" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>430</v>
       </c>
       <c r="C223" t="s">
         <v>310</v>
@@ -6844,10 +6928,10 @@
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
+        <v>431</v>
+      </c>
+      <c r="B224" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>433</v>
       </c>
       <c r="C224" t="s">
         <v>310</v>
@@ -6867,10 +6951,10 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
+        <v>433</v>
+      </c>
+      <c r="B225" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>435</v>
       </c>
       <c r="C225" t="s">
         <v>310</v>
@@ -6890,10 +6974,10 @@
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
+        <v>435</v>
+      </c>
+      <c r="B226" s="3" t="s">
         <v>436</v>
-      </c>
-      <c r="B226" s="3" t="s">
-        <v>437</v>
       </c>
       <c r="C226" t="s">
         <v>310</v>
@@ -6913,10 +6997,10 @@
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
+        <v>437</v>
+      </c>
+      <c r="B227" s="3" t="s">
         <v>438</v>
-      </c>
-      <c r="B227" s="3" t="s">
-        <v>439</v>
       </c>
       <c r="C227" t="s">
         <v>310</v>

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31714DEA-FAAA-804D-AFA9-2241F9E16F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98F7B78-884C-4D46-8C1F-8CB87FB243FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2540" yWindow="1360" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -1872,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="J206" sqref="J206"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J228" sqref="J228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1961,6 +1961,9 @@
       <c r="G3">
         <v>0.83</v>
       </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2073,6 +2076,9 @@
       <c r="G8">
         <v>0.32</v>
       </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2231,6 +2237,9 @@
       <c r="G15">
         <v>0.56000000000000005</v>
       </c>
+      <c r="J15">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2252,7 +2261,7 @@
         <v>0.44</v>
       </c>
       <c r="J16">
-        <v>0.85</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -2274,6 +2283,9 @@
       <c r="G17">
         <v>0.56000000000000005</v>
       </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -2386,6 +2398,9 @@
       <c r="G22">
         <v>0.56000000000000005</v>
       </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -2406,6 +2421,9 @@
       <c r="G23">
         <v>0.76</v>
       </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -2495,6 +2513,9 @@
       <c r="G27">
         <v>0.59</v>
       </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -2515,6 +2536,9 @@
       <c r="G28">
         <v>0.68</v>
       </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -2604,6 +2628,9 @@
       <c r="G32">
         <v>0.52</v>
       </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -2647,6 +2674,9 @@
       <c r="G34">
         <v>0.52</v>
       </c>
+      <c r="J34">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -2667,6 +2697,9 @@
       <c r="G35">
         <v>0.75</v>
       </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -2696,19 +2729,22 @@
         <v>70</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" s="5">
-        <v>0.53</v>
+        <v>0.69</v>
       </c>
       <c r="E37">
         <v>0.98</v>
       </c>
       <c r="G37">
-        <v>0.42</v>
+        <v>0.63</v>
+      </c>
+      <c r="J37">
+        <v>0.5</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2716,22 +2752,22 @@
         <v>70</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
       <c r="D38" s="5">
-        <v>0.69</v>
+        <v>0.53</v>
       </c>
       <c r="E38">
         <v>0.98</v>
       </c>
       <c r="G38">
-        <v>0.63</v>
+        <v>0.42</v>
       </c>
       <c r="J38">
-        <v>0.5</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2938,7 +2974,7 @@
         <v>0.61</v>
       </c>
       <c r="J47">
-        <v>0.85</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -3627,6 +3663,9 @@
       <c r="G77">
         <v>0.2</v>
       </c>
+      <c r="J77">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
@@ -4015,6 +4054,9 @@
       <c r="G94">
         <v>0.7</v>
       </c>
+      <c r="J94">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
@@ -4449,6 +4491,9 @@
       <c r="G113">
         <v>0.45</v>
       </c>
+      <c r="J113">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
@@ -4515,6 +4560,9 @@
       <c r="G116">
         <v>0.36</v>
       </c>
+      <c r="J116">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
@@ -4535,6 +4583,9 @@
       <c r="G117">
         <v>0.61</v>
       </c>
+      <c r="J117">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
@@ -4739,6 +4790,9 @@
       <c r="G126">
         <v>0</v>
       </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
@@ -4805,6 +4859,9 @@
       <c r="G129">
         <v>0.57999999999999996</v>
       </c>
+      <c r="J129">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
@@ -4894,6 +4951,9 @@
       <c r="G133">
         <v>0.6</v>
       </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
@@ -4983,6 +5043,9 @@
       <c r="G137">
         <v>0.82</v>
       </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
@@ -5026,6 +5089,9 @@
       <c r="G139">
         <v>0.54</v>
       </c>
+      <c r="J139">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
@@ -5046,6 +5112,9 @@
       <c r="G140">
         <v>0.48</v>
       </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
@@ -5112,6 +5181,9 @@
       <c r="G143">
         <v>0.56999999999999995</v>
       </c>
+      <c r="J143">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
@@ -5293,6 +5365,9 @@
       <c r="G151">
         <v>0.66</v>
       </c>
+      <c r="J151">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
@@ -5336,6 +5411,9 @@
       <c r="G153">
         <v>0.72</v>
       </c>
+      <c r="J153">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
@@ -5540,6 +5618,9 @@
       <c r="G162">
         <v>0.7</v>
       </c>
+      <c r="J162">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
@@ -5997,6 +6078,9 @@
       <c r="G182">
         <v>0.61</v>
       </c>
+      <c r="J182">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
@@ -6017,6 +6101,9 @@
       <c r="G183">
         <v>0.73</v>
       </c>
+      <c r="J183">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
@@ -6405,6 +6492,9 @@
       <c r="G200">
         <v>0.69</v>
       </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
@@ -6471,6 +6561,9 @@
       <c r="G203">
         <v>0</v>
       </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
@@ -6698,6 +6791,9 @@
       <c r="G213">
         <v>0.69</v>
       </c>
+      <c r="J213">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
@@ -6740,6 +6836,9 @@
       </c>
       <c r="G215">
         <v>0</v>
+      </c>
+      <c r="J215">
+        <v>0.74</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98F7B78-884C-4D46-8C1F-8CB87FB243FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DFA4E6-76FA-F24E-869B-5DE4503343D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2540" yWindow="1360" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="465">
   <si>
     <t>Surname</t>
   </si>
@@ -1422,6 +1422,15 @@
   </si>
   <si>
     <t xml:space="preserve"> MVUDUDU</t>
+  </si>
+  <si>
+    <t>Godzi</t>
+  </si>
+  <si>
+    <t>H250830M</t>
+  </si>
+  <si>
+    <t>H250829J</t>
   </si>
 </sst>
 </file>
@@ -1529,10 +1538,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16CEB027-FB46-1A44-BA46-BD4AD30C864F}" name="Table1" displayName="Table1" ref="A1:M227" totalsRowShown="0">
-  <autoFilter ref="A1:M227" xr:uid="{16CEB027-FB46-1A44-BA46-BD4AD30C864F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M227">
-    <sortCondition ref="C1:C227"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16CEB027-FB46-1A44-BA46-BD4AD30C864F}" name="Table1" displayName="Table1" ref="A1:M229" totalsRowShown="0">
+  <autoFilter ref="A1:M229" xr:uid="{16CEB027-FB46-1A44-BA46-BD4AD30C864F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M229">
+    <sortCondition ref="C1:C229"/>
   </sortState>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{1B9A59CC-67BA-3D4E-8BF2-E846FAA4CCF7}" name="Surname"/>
@@ -1870,10 +1879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
-  <dimension ref="A1:M227"/>
+  <dimension ref="A1:M229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J228" sqref="J228"/>
+      <selection activeCell="K229" sqref="K229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -4566,56 +4575,56 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>230</v>
+        <v>462</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>231</v>
+        <v>463</v>
       </c>
       <c r="C117" t="s">
         <v>203</v>
       </c>
       <c r="D117" s="5">
-        <v>0.94</v>
+        <v>0</v>
       </c>
       <c r="E117">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="G117">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="J117">
-        <v>0.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>232</v>
+        <v>462</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>233</v>
+        <v>464</v>
       </c>
       <c r="C118" t="s">
         <v>203</v>
       </c>
       <c r="D118" s="5">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="E118">
-        <v>0.81</v>
+        <v>0</v>
       </c>
       <c r="G118">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="J118">
-        <v>0.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C119" t="s">
         <v>203</v>
@@ -4627,41 +4636,41 @@
         <v>0.93</v>
       </c>
       <c r="G119">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="J119">
-        <v>0.87</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C120" t="s">
         <v>203</v>
       </c>
       <c r="D120" s="5">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="E120">
-        <v>0.88</v>
+        <v>0.81</v>
       </c>
       <c r="G120">
-        <v>0.39</v>
+        <v>0.49</v>
       </c>
       <c r="J120">
-        <v>0.69</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C121" t="s">
         <v>203</v>
@@ -4670,102 +4679,102 @@
         <v>0.94</v>
       </c>
       <c r="E121">
-        <v>0.72</v>
+        <v>0.93</v>
       </c>
       <c r="G121">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="J121">
-        <v>0.69</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>240</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="C122" t="s">
         <v>203</v>
       </c>
       <c r="D122" s="5">
-        <v>0.78</v>
+        <v>0.92</v>
       </c>
       <c r="E122">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="G122">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="J122">
-        <v>0.78</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C123" t="s">
         <v>203</v>
       </c>
       <c r="D123" s="5">
-        <v>0.86</v>
+        <v>0.94</v>
       </c>
       <c r="E123">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="G123">
         <v>0.64</v>
       </c>
       <c r="J123">
-        <v>0.87</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>244</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="C124" t="s">
         <v>203</v>
       </c>
       <c r="D124" s="5">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="E124">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="G124">
-        <v>0.73</v>
+        <v>0.37</v>
       </c>
       <c r="J124">
-        <v>0.69</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C125" t="s">
         <v>203</v>
       </c>
       <c r="D125" s="5">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="E125">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="G125">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="J125">
         <v>0.87</v>
@@ -4773,206 +4782,206 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C126" t="s">
         <v>203</v>
       </c>
       <c r="D126" s="5">
-        <v>0.94</v>
+        <v>1</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="G126">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="J126">
-        <v>0</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C127" t="s">
         <v>203</v>
       </c>
       <c r="D127" s="5">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="E127">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="G127">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="J127">
-        <v>0.69</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C128" t="s">
         <v>203</v>
       </c>
       <c r="D128" s="5">
-        <v>0.75</v>
+        <v>0.94</v>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="J128">
-        <v>0.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C129" t="s">
         <v>203</v>
       </c>
       <c r="D129" s="5">
-        <v>0.78</v>
+        <v>0.83</v>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="G129">
-        <v>0.57999999999999996</v>
+        <v>0.63</v>
       </c>
       <c r="J129">
-        <v>0.83</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C130" t="s">
         <v>203</v>
       </c>
       <c r="D130" s="5">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="E130">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="G130">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
       <c r="J130">
-        <v>0.87</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C131" t="s">
         <v>203</v>
       </c>
       <c r="D131" s="5">
-        <v>0.72</v>
+        <v>0.78</v>
       </c>
       <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="G131">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G131">
-        <v>0.7</v>
-      </c>
       <c r="J131">
-        <v>0.65</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C132" t="s">
         <v>203</v>
       </c>
       <c r="D132" s="5">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="E132">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="G132">
-        <v>0.75</v>
+        <v>0.52</v>
       </c>
       <c r="J132">
-        <v>0.69</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C133" t="s">
         <v>203</v>
       </c>
       <c r="D133" s="5">
-        <v>0.94</v>
+        <v>0.72</v>
       </c>
       <c r="E133">
-        <v>0.93</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="G133">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="J133">
-        <v>0</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C134" t="s">
         <v>203</v>
       </c>
       <c r="D134" s="5">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="G134">
-        <v>0.46</v>
+        <v>0.75</v>
       </c>
       <c r="J134">
         <v>0.69</v>
@@ -4980,194 +4989,194 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C135" t="s">
         <v>203</v>
       </c>
       <c r="D135" s="5">
-        <v>0.92</v>
+        <v>0.94</v>
       </c>
       <c r="E135">
+        <v>0.93</v>
+      </c>
+      <c r="G135">
+        <v>0.6</v>
+      </c>
+      <c r="J135">
         <v>0</v>
-      </c>
-      <c r="G135">
-        <v>0.66</v>
-      </c>
-      <c r="J135">
-        <v>0.69</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>70</v>
+        <v>264</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C136" t="s">
         <v>203</v>
       </c>
       <c r="D136" s="5">
-        <v>0.81</v>
+        <v>0.83</v>
       </c>
       <c r="E136">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G136">
-        <v>0.57999999999999996</v>
+        <v>0.46</v>
       </c>
       <c r="J136">
-        <v>0.78</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C137" t="s">
         <v>203</v>
       </c>
       <c r="D137" s="5">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="E137">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="G137">
-        <v>0.82</v>
+        <v>0.66</v>
       </c>
       <c r="J137">
-        <v>0</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>271</v>
+        <v>70</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C138" t="s">
         <v>203</v>
       </c>
       <c r="D138" s="5">
-        <v>0.83</v>
+        <v>0.81</v>
       </c>
       <c r="E138">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="G138">
-        <v>0</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J138">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C139" t="s">
         <v>203</v>
       </c>
       <c r="D139" s="5">
-        <v>0.83</v>
+        <v>0.94</v>
       </c>
       <c r="E139">
-        <v>0.79</v>
+        <v>0.7</v>
       </c>
       <c r="G139">
-        <v>0.54</v>
+        <v>0.82</v>
       </c>
       <c r="J139">
-        <v>0.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>455</v>
+        <v>271</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>456</v>
+        <v>272</v>
       </c>
       <c r="C140" t="s">
         <v>203</v>
       </c>
       <c r="D140" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="E140">
+        <v>0.95</v>
+      </c>
+      <c r="G140">
         <v>0</v>
       </c>
-      <c r="E140">
-        <v>0.74</v>
-      </c>
-      <c r="G140">
-        <v>0.48</v>
-      </c>
       <c r="J140">
-        <v>0</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C141" t="s">
         <v>203</v>
       </c>
       <c r="D141" s="5">
-        <v>0.94</v>
+        <v>0.83</v>
       </c>
       <c r="E141">
-        <v>0.98</v>
+        <v>0.79</v>
       </c>
       <c r="G141">
-        <v>0.66</v>
+        <v>0.54</v>
       </c>
       <c r="J141">
-        <v>0.46</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>279</v>
+        <v>455</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>280</v>
+        <v>456</v>
       </c>
       <c r="C142" t="s">
         <v>203</v>
       </c>
       <c r="D142" s="5">
-        <v>0.94</v>
+        <v>0</v>
       </c>
       <c r="E142">
-        <v>0.93</v>
+        <v>0.74</v>
       </c>
       <c r="G142">
-        <v>0.78</v>
+        <v>0.48</v>
       </c>
       <c r="J142">
-        <v>0.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C143" t="s">
         <v>203</v>
@@ -5176,21 +5185,21 @@
         <v>0.94</v>
       </c>
       <c r="E143">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="G143">
-        <v>0.56999999999999995</v>
+        <v>0.66</v>
       </c>
       <c r="J143">
-        <v>0.83</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C144" t="s">
         <v>203</v>
@@ -5202,76 +5211,76 @@
         <v>0.93</v>
       </c>
       <c r="G144">
-        <v>0.7</v>
+        <v>0.78</v>
       </c>
       <c r="J144">
-        <v>0.69</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C145" t="s">
         <v>203</v>
       </c>
       <c r="D145" s="5">
-        <v>0.92</v>
+        <v>0.94</v>
       </c>
       <c r="E145">
         <v>0.95</v>
       </c>
       <c r="G145">
-        <v>0.31</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="J145">
-        <v>0.46</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C146" t="s">
         <v>203</v>
       </c>
       <c r="D146" s="5">
-        <v>0.92</v>
+        <v>0.94</v>
       </c>
       <c r="E146">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="G146">
-        <v>0.45</v>
+        <v>0.7</v>
       </c>
       <c r="J146">
-        <v>0.83</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C147" t="s">
         <v>203</v>
       </c>
       <c r="D147" s="5">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G147">
-        <v>0.6</v>
+        <v>0.31</v>
       </c>
       <c r="J147">
         <v>0.46</v>
@@ -5279,111 +5288,111 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C148" t="s">
         <v>203</v>
       </c>
       <c r="D148" s="5">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="E148">
-        <v>0.98</v>
+        <v>0.88</v>
       </c>
       <c r="G148">
-        <v>0.51</v>
+        <v>0.45</v>
       </c>
       <c r="J148">
-        <v>0.46</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C149" t="s">
         <v>203</v>
       </c>
       <c r="D149" s="5">
-        <v>0.94</v>
+        <v>0.97</v>
       </c>
       <c r="E149">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="G149">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="J149">
-        <v>0.78</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C150" t="s">
         <v>203</v>
       </c>
       <c r="D150" s="5">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="E150">
-        <v>0.88</v>
+        <v>0.98</v>
       </c>
       <c r="G150">
-        <v>0.73</v>
+        <v>0.51</v>
       </c>
       <c r="J150">
-        <v>0.69</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C151" t="s">
         <v>203</v>
       </c>
       <c r="D151" s="5">
-        <v>1</v>
+        <v>0.94</v>
       </c>
       <c r="E151">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="G151">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
       <c r="J151">
-        <v>0.17</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>299</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>300</v>
+        <v>295</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>296</v>
       </c>
       <c r="C152" t="s">
         <v>203</v>
       </c>
       <c r="D152" s="5">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="E152">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="G152">
         <v>0.73</v>
@@ -5394,33 +5403,33 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C153" t="s">
         <v>203</v>
       </c>
       <c r="D153" s="5">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="E153">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="G153">
-        <v>0.72</v>
+        <v>0.66</v>
       </c>
       <c r="J153">
-        <v>0.83</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C154" t="s">
         <v>203</v>
@@ -5429,10 +5438,10 @@
         <v>1</v>
       </c>
       <c r="E154">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="G154">
-        <v>0.64</v>
+        <v>0.73</v>
       </c>
       <c r="J154">
         <v>0.69</v>
@@ -5440,447 +5449,447 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C155" t="s">
         <v>203</v>
       </c>
       <c r="D155" s="5">
-        <v>0.94</v>
+        <v>0.89</v>
       </c>
       <c r="E155">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="G155">
-        <v>0.43</v>
+        <v>0.72</v>
       </c>
       <c r="J155">
-        <v>0.69</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C156" t="s">
         <v>203</v>
       </c>
       <c r="D156" s="5">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="E156">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="G156">
-        <v>0.48</v>
+        <v>0.64</v>
       </c>
       <c r="J156">
-        <v>0.78</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>461</v>
+        <v>305</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>430</v>
+        <v>306</v>
       </c>
       <c r="C157" t="s">
-        <v>310</v>
+        <v>203</v>
       </c>
       <c r="D157" s="5">
-        <v>0.89</v>
+        <v>0.94</v>
       </c>
       <c r="E157">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G157">
-        <v>0.55000000000000004</v>
+        <v>0.43</v>
       </c>
       <c r="J157">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>309</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>308</v>
       </c>
       <c r="C158" t="s">
-        <v>310</v>
+        <v>203</v>
       </c>
       <c r="D158" s="5">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="E158">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G158">
-        <v>0.63</v>
+        <v>0.48</v>
       </c>
       <c r="J158">
-        <v>0.91</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>312</v>
+        <v>461</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>313</v>
+        <v>430</v>
       </c>
       <c r="C159" t="s">
         <v>310</v>
       </c>
       <c r="D159" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="E159">
         <v>1</v>
       </c>
-      <c r="E159">
-        <v>0.98</v>
-      </c>
       <c r="G159">
-        <v>0.69</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J159">
-        <v>0.38</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>314</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>315</v>
+        <v>309</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="C160" t="s">
         <v>310</v>
       </c>
       <c r="D160" s="5">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="E160">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="G160">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
       <c r="J160">
-        <v>0.69</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C161" t="s">
         <v>310</v>
       </c>
       <c r="D161" s="5">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="E161">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="G161">
-        <v>0.57999999999999996</v>
+        <v>0.69</v>
       </c>
       <c r="J161">
-        <v>0.7</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C162" t="s">
         <v>310</v>
       </c>
       <c r="D162" s="5">
-        <v>0.81</v>
+        <v>0.92</v>
       </c>
       <c r="E162">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G162">
-        <v>0.7</v>
+        <v>0.84</v>
       </c>
       <c r="J162">
-        <v>0.74</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C163" t="s">
         <v>310</v>
       </c>
       <c r="D163" s="5">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="E163">
         <v>0.93</v>
       </c>
       <c r="G163">
-        <v>0.64</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J163">
-        <v>0.46</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>322</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>319</v>
       </c>
       <c r="C164" t="s">
         <v>310</v>
       </c>
       <c r="D164" s="5">
-        <v>0.97</v>
+        <v>0.81</v>
       </c>
       <c r="E164">
         <v>1</v>
       </c>
       <c r="G164">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
       <c r="J164">
-        <v>0.93</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C165" t="s">
         <v>310</v>
       </c>
       <c r="D165" s="5">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="E165">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="G165">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="J165">
-        <v>0.72</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C166" t="s">
         <v>310</v>
       </c>
       <c r="D166" s="5">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
       <c r="E166">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G166">
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="J166">
-        <v>0.7</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>328</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>329</v>
+        <v>324</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C167" t="s">
         <v>310</v>
       </c>
       <c r="D167" s="5">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="E167">
-        <v>0.91</v>
+        <v>0.98</v>
       </c>
       <c r="G167">
-        <v>0.39</v>
+        <v>0.67</v>
       </c>
       <c r="J167">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C168" t="s">
         <v>310</v>
       </c>
       <c r="D168" s="5">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="E168">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="G168">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="J168">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>332</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>329</v>
       </c>
       <c r="C169" t="s">
         <v>310</v>
       </c>
       <c r="D169" s="5">
-        <v>0.56000000000000005</v>
+        <v>0.89</v>
       </c>
       <c r="E169">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="G169">
-        <v>0.36</v>
+        <v>0.39</v>
       </c>
       <c r="J169">
-        <v>0.87</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C170" t="s">
         <v>310</v>
       </c>
       <c r="D170" s="5">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G170">
-        <v>0.66</v>
+        <v>0.63</v>
       </c>
       <c r="J170">
-        <v>0.38</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>135</v>
+        <v>332</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>136</v>
+        <v>333</v>
       </c>
       <c r="C171" t="s">
         <v>310</v>
       </c>
       <c r="D171" s="5">
-        <v>0.53</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E171">
-        <v>0.77</v>
+        <v>0.88</v>
       </c>
       <c r="G171">
-        <v>0.46</v>
+        <v>0.36</v>
       </c>
       <c r="J171">
-        <v>0.74</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C172" t="s">
         <v>310</v>
       </c>
       <c r="D172" s="5">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="E172">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G172">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
       <c r="J172">
-        <v>0.56000000000000005</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>338</v>
+        <v>135</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>339</v>
+        <v>136</v>
       </c>
       <c r="C173" t="s">
         <v>310</v>
       </c>
       <c r="D173" s="5">
-        <v>0.92</v>
+        <v>0.53</v>
       </c>
       <c r="E173">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="G173">
-        <v>0.55000000000000004</v>
+        <v>0.46</v>
       </c>
       <c r="J173">
-        <v>0.87</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C174" t="s">
         <v>310</v>
@@ -5889,102 +5898,102 @@
         <v>0.89</v>
       </c>
       <c r="E174">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G174">
-        <v>0.56999999999999995</v>
+        <v>0.7</v>
       </c>
       <c r="J174">
-        <v>0.83</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>342</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>343</v>
+        <v>338</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>339</v>
       </c>
       <c r="C175" t="s">
         <v>310</v>
       </c>
       <c r="D175" s="5">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="E175">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G175">
-        <v>0.56999999999999995</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J175">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C176" t="s">
         <v>310</v>
       </c>
       <c r="D176" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="E176">
         <v>1</v>
       </c>
-      <c r="E176">
-        <v>0.98</v>
-      </c>
       <c r="G176">
-        <v>0.82</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="J176">
-        <v>0.7</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>346</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>347</v>
+        <v>342</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>343</v>
       </c>
       <c r="C177" t="s">
         <v>310</v>
       </c>
       <c r="D177" s="5">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="E177">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G177">
-        <v>0.63</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="J177">
-        <v>0.56000000000000005</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C178" t="s">
         <v>310</v>
       </c>
       <c r="D178" s="5">
-        <v>0.94</v>
+        <v>1</v>
       </c>
       <c r="E178">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G178">
-        <v>0.61</v>
+        <v>0.82</v>
       </c>
       <c r="J178">
         <v>0.7</v>
@@ -5992,45 +6001,45 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>350</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>347</v>
       </c>
       <c r="C179" t="s">
         <v>310</v>
       </c>
       <c r="D179" s="5">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="E179">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G179">
-        <v>0.75</v>
+        <v>0.63</v>
       </c>
       <c r="J179">
-        <v>0.7</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C180" t="s">
         <v>310</v>
       </c>
       <c r="D180" s="5">
-        <v>0.92</v>
+        <v>0.94</v>
       </c>
       <c r="E180">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="G180">
-        <v>0.64</v>
+        <v>0.61</v>
       </c>
       <c r="J180">
         <v>0.7</v>
@@ -6038,22 +6047,22 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C181" t="s">
         <v>310</v>
       </c>
       <c r="D181" s="5">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="E181">
         <v>0.91</v>
       </c>
       <c r="G181">
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
       <c r="J181">
         <v>0.7</v>
@@ -6061,125 +6070,125 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C182" t="s">
         <v>310</v>
       </c>
       <c r="D182" s="5">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="E182">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="G182">
-        <v>0.61</v>
+        <v>0.64</v>
       </c>
       <c r="J182">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C183" t="s">
         <v>310</v>
       </c>
       <c r="D183" s="5">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="E183">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="G183">
-        <v>0.73</v>
+        <v>0.63</v>
       </c>
       <c r="J183">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C184" t="s">
         <v>310</v>
       </c>
       <c r="D184" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="E184">
         <v>1</v>
       </c>
-      <c r="E184">
-        <v>0.98</v>
-      </c>
       <c r="G184">
-        <v>0.51</v>
+        <v>0.61</v>
       </c>
       <c r="J184">
-        <v>0.38</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C185" t="s">
         <v>310</v>
       </c>
       <c r="D185" s="5">
-        <v>0.92</v>
+        <v>0.94</v>
       </c>
       <c r="E185">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G185">
-        <v>0.61</v>
+        <v>0.73</v>
       </c>
       <c r="J185">
-        <v>0.56000000000000005</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>450</v>
+        <v>360</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>449</v>
+        <v>361</v>
       </c>
       <c r="C186" t="s">
         <v>310</v>
       </c>
       <c r="D186" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E186">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G186">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="J186">
-        <v>0.7</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C187" t="s">
         <v>310</v>
@@ -6191,18 +6200,18 @@
         <v>0.95</v>
       </c>
       <c r="G187">
-        <v>0.79</v>
+        <v>0.61</v>
       </c>
       <c r="J187">
-        <v>0.83</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>366</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>367</v>
+        <v>450</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>449</v>
       </c>
       <c r="C188" t="s">
         <v>310</v>
@@ -6211,56 +6220,56 @@
         <v>0</v>
       </c>
       <c r="E188">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G188">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="J188">
-        <v>0.91</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C189" t="s">
         <v>310</v>
       </c>
       <c r="D189" s="5">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="G189">
-        <v>0.57999999999999996</v>
+        <v>0.79</v>
       </c>
       <c r="J189">
-        <v>0.37</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>370</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>371</v>
+        <v>366</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>367</v>
       </c>
       <c r="C190" t="s">
         <v>310</v>
       </c>
       <c r="D190" s="5">
-        <v>0.69</v>
+        <v>0</v>
       </c>
       <c r="E190">
         <v>0.95</v>
       </c>
       <c r="G190">
-        <v>0.49</v>
+        <v>0.73</v>
       </c>
       <c r="J190">
         <v>0.91</v>
@@ -6268,378 +6277,378 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C191" t="s">
         <v>310</v>
       </c>
       <c r="D191" s="5">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="E191">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="G191">
-        <v>0.63</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J191">
-        <v>0.46</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C192" t="s">
         <v>310</v>
       </c>
       <c r="D192" s="5">
-        <v>0.97</v>
+        <v>0.69</v>
       </c>
       <c r="E192">
-        <v>0.77</v>
+        <v>0.95</v>
       </c>
       <c r="G192">
-        <v>0.64</v>
+        <v>0.49</v>
       </c>
       <c r="J192">
-        <v>0.85</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C193" t="s">
         <v>310</v>
       </c>
       <c r="D193" s="5">
-        <v>0.69</v>
+        <v>0.86</v>
       </c>
       <c r="E193">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="G193">
-        <v>0.72</v>
+        <v>0.63</v>
       </c>
       <c r="J193">
-        <v>0.72</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C194" t="s">
         <v>310</v>
       </c>
       <c r="D194" s="5">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="E194">
-        <v>0.93</v>
+        <v>0.77</v>
       </c>
       <c r="G194">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="J194">
-        <v>0.48</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C195" t="s">
         <v>310</v>
       </c>
       <c r="D195" s="5">
-        <v>0.97</v>
+        <v>0.69</v>
       </c>
       <c r="E195">
-        <v>0.91</v>
+        <v>0.98</v>
       </c>
       <c r="G195">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="J195">
-        <v>0.46</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C196" t="s">
         <v>310</v>
       </c>
       <c r="D196" s="5">
-        <v>0.81</v>
+        <v>0.92</v>
       </c>
       <c r="E196">
         <v>0.93</v>
       </c>
       <c r="G196">
-        <v>0.56999999999999995</v>
+        <v>0.6</v>
       </c>
       <c r="J196">
-        <v>0.85</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>383</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>384</v>
+        <v>379</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>380</v>
       </c>
       <c r="C197" t="s">
         <v>310</v>
       </c>
       <c r="D197" s="5">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="E197">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="G197">
-        <v>0.57999999999999996</v>
+        <v>0.73</v>
       </c>
       <c r="J197">
-        <v>0.83</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C198" t="s">
         <v>310</v>
       </c>
       <c r="D198" s="5">
-        <v>0.83</v>
+        <v>0.81</v>
       </c>
       <c r="E198">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="G198">
-        <v>0.51</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="J198">
-        <v>0.72</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>387</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>384</v>
       </c>
       <c r="C199" t="s">
         <v>310</v>
       </c>
       <c r="D199" s="5">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="E199">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="G199">
-        <v>0.43</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J199">
-        <v>0.38</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C200" t="s">
         <v>310</v>
       </c>
       <c r="D200" s="5">
-        <v>0.78</v>
+        <v>0.83</v>
       </c>
       <c r="E200">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="G200">
-        <v>0.69</v>
+        <v>0.51</v>
       </c>
       <c r="J200">
-        <v>0</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C201" t="s">
         <v>310</v>
       </c>
       <c r="D201" s="5">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="E201">
         <v>0.93</v>
       </c>
       <c r="G201">
-        <v>0.69</v>
+        <v>0.43</v>
       </c>
       <c r="J201">
-        <v>0.69</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C202" t="s">
         <v>310</v>
       </c>
       <c r="D202" s="5">
-        <v>0.81</v>
+        <v>0.78</v>
       </c>
       <c r="E202">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="G202">
-        <v>0.57999999999999996</v>
+        <v>0.69</v>
       </c>
       <c r="J202">
-        <v>0.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>459</v>
+        <v>391</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>460</v>
+        <v>392</v>
       </c>
       <c r="C203" t="s">
         <v>310</v>
       </c>
       <c r="D203" s="5">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="E203">
         <v>0.93</v>
       </c>
       <c r="G203">
-        <v>0</v>
+        <v>0.69</v>
       </c>
       <c r="J203">
-        <v>0</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C204" t="s">
         <v>310</v>
       </c>
       <c r="D204" s="5">
-        <v>0.86</v>
+        <v>0.81</v>
       </c>
       <c r="E204">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="G204">
-        <v>0.56999999999999995</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J204">
-        <v>0.87</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>277</v>
+        <v>459</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>278</v>
+        <v>460</v>
       </c>
       <c r="C205" t="s">
         <v>310</v>
       </c>
       <c r="D205" s="5">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="E205">
         <v>0.93</v>
       </c>
       <c r="G205">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="J205">
-        <v>0.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C206" t="s">
         <v>310</v>
       </c>
       <c r="D206" s="5">
-        <v>0.97</v>
+        <v>0.86</v>
       </c>
       <c r="E206">
         <v>0.91</v>
       </c>
       <c r="G206">
-        <v>0.72</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="J206">
-        <v>0.46</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>399</v>
+        <v>277</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>400</v>
+        <v>278</v>
       </c>
       <c r="C207" t="s">
         <v>310</v>
@@ -6648,194 +6657,194 @@
         <v>0.92</v>
       </c>
       <c r="E207">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="G207">
-        <v>0.73</v>
+        <v>0.66</v>
       </c>
       <c r="J207">
-        <v>0.69</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C208" t="s">
         <v>310</v>
       </c>
       <c r="D208" s="5">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
       <c r="E208">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="G208">
-        <v>0.79</v>
+        <v>0.72</v>
       </c>
       <c r="J208">
-        <v>0.83</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>403</v>
-      </c>
-      <c r="B209" s="2">
-        <v>0.38</v>
+        <v>399</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>400</v>
       </c>
       <c r="C209" t="s">
         <v>310</v>
       </c>
       <c r="D209" s="5">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="E209">
         <v>0.95</v>
       </c>
       <c r="G209">
-        <v>0.6</v>
+        <v>0.73</v>
       </c>
       <c r="J209">
-        <v>0.72</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C210" t="s">
         <v>310</v>
       </c>
       <c r="D210" s="5">
-        <v>0.97</v>
+        <v>0.86</v>
       </c>
       <c r="E210">
-        <v>0.93100000000000005</v>
+        <v>1</v>
       </c>
       <c r="G210">
-        <v>0.88</v>
+        <v>0.79</v>
       </c>
       <c r="J210">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>406</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
+      </c>
+      <c r="B211" s="2">
+        <v>0.38</v>
       </c>
       <c r="C211" t="s">
         <v>310</v>
       </c>
       <c r="D211" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="E211">
+        <v>0.95</v>
+      </c>
+      <c r="G211">
+        <v>0.6</v>
+      </c>
+      <c r="J211">
         <v>0.72</v>
-      </c>
-      <c r="E211">
-        <v>0.98</v>
-      </c>
-      <c r="G211">
-        <v>0.61</v>
-      </c>
-      <c r="J211">
-        <v>0.85</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C212" t="s">
         <v>310</v>
       </c>
       <c r="D212" s="5">
-        <v>0.94</v>
+        <v>0.97</v>
       </c>
       <c r="E212">
-        <v>1</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="G212">
-        <v>0.49</v>
+        <v>0.88</v>
       </c>
       <c r="J212">
-        <v>0.69</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C213" t="s">
         <v>310</v>
       </c>
       <c r="D213" s="5">
-        <v>0.67</v>
+        <v>0.72</v>
       </c>
       <c r="E213">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G213">
-        <v>0.69</v>
+        <v>0.61</v>
       </c>
       <c r="J213">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>412</v>
-      </c>
-      <c r="B214" s="3" t="s">
-        <v>413</v>
+        <v>408</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>409</v>
       </c>
       <c r="C214" t="s">
         <v>310</v>
       </c>
       <c r="D214" s="5">
-        <v>0.72</v>
+        <v>0.94</v>
       </c>
       <c r="E214">
         <v>1</v>
       </c>
       <c r="G214">
-        <v>0.54</v>
+        <v>0.49</v>
       </c>
       <c r="J214">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C215" t="s">
         <v>310</v>
       </c>
       <c r="D215" s="5">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="E215">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G215">
-        <v>0</v>
+        <v>0.69</v>
       </c>
       <c r="J215">
         <v>0.74</v>
@@ -6843,56 +6852,56 @@
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>416</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="C216" t="s">
         <v>310</v>
       </c>
       <c r="D216" s="5">
-        <v>0.97</v>
+        <v>0.72</v>
       </c>
       <c r="E216">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G216">
-        <v>0.56999999999999995</v>
+        <v>0.54</v>
       </c>
       <c r="J216">
-        <v>0.83</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C217" t="s">
         <v>310</v>
       </c>
       <c r="D217" s="5">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="E217">
+        <v>0.98</v>
+      </c>
+      <c r="G217">
         <v>0</v>
       </c>
-      <c r="G217">
-        <v>0.7</v>
-      </c>
       <c r="J217">
-        <v>0.91</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C218" t="s">
         <v>310</v>
@@ -6901,79 +6910,79 @@
         <v>0.97</v>
       </c>
       <c r="E218">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="G218">
-        <v>0.54</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="J218">
-        <v>0.46</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C219" t="s">
         <v>310</v>
       </c>
       <c r="D219" s="5">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="E219">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="G219">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="J219">
-        <v>0.72</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C220" t="s">
         <v>310</v>
       </c>
       <c r="D220" s="5">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="E220">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="G220">
-        <v>0.78</v>
+        <v>0.54</v>
       </c>
       <c r="J220">
-        <v>0.83</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C221" t="s">
         <v>310</v>
       </c>
       <c r="D221" s="5">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="E221">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G221">
-        <v>0.54</v>
+        <v>0.75</v>
       </c>
       <c r="J221">
         <v>0.72</v>
@@ -6981,10 +6990,10 @@
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>192</v>
-      </c>
-      <c r="B222" s="3" t="s">
-        <v>194</v>
+        <v>424</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>425</v>
       </c>
       <c r="C222" t="s">
         <v>310</v>
@@ -6993,90 +7002,90 @@
         <v>0.89</v>
       </c>
       <c r="E222">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="G222">
-        <v>0.31</v>
+        <v>0.78</v>
       </c>
       <c r="J222">
-        <v>0.56000000000000005</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C223" t="s">
         <v>310</v>
       </c>
       <c r="D223" s="5">
-        <v>0.94</v>
+        <v>0.89</v>
       </c>
       <c r="E223">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G223">
-        <v>0.63</v>
+        <v>0.54</v>
       </c>
       <c r="J223">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>431</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>432</v>
+        <v>192</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="C224" t="s">
         <v>310</v>
       </c>
       <c r="D224" s="5">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="E224">
-        <v>0.74</v>
+        <v>1</v>
       </c>
       <c r="G224">
-        <v>0.75</v>
+        <v>0.31</v>
       </c>
       <c r="J224">
-        <v>0.85</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C225" t="s">
         <v>310</v>
       </c>
       <c r="D225" s="5">
-        <v>0.83</v>
+        <v>0.94</v>
       </c>
       <c r="E225">
         <v>0.91</v>
       </c>
       <c r="G225">
-        <v>0.48</v>
+        <v>0.63</v>
       </c>
       <c r="J225">
-        <v>0.56000000000000005</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>435</v>
-      </c>
-      <c r="B226" s="3" t="s">
-        <v>436</v>
+        <v>431</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>432</v>
       </c>
       <c r="C226" t="s">
         <v>310</v>
@@ -7085,35 +7094,81 @@
         <v>0.86</v>
       </c>
       <c r="E226">
-        <v>0.98</v>
+        <v>0.74</v>
       </c>
       <c r="G226">
-        <v>0.66</v>
+        <v>0.75</v>
       </c>
       <c r="J226">
-        <v>0.91</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>437</v>
-      </c>
-      <c r="B227" s="3" t="s">
-        <v>438</v>
+        <v>433</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="C227" t="s">
         <v>310</v>
       </c>
       <c r="D227" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="E227">
+        <v>0.91</v>
+      </c>
+      <c r="G227">
+        <v>0.48</v>
+      </c>
+      <c r="J227">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>435</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C228" t="s">
+        <v>310</v>
+      </c>
+      <c r="D228" s="5">
         <v>0.86</v>
       </c>
-      <c r="E227">
+      <c r="E228">
+        <v>0.98</v>
+      </c>
+      <c r="G228">
+        <v>0.66</v>
+      </c>
+      <c r="J228">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>437</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C229" t="s">
+        <v>310</v>
+      </c>
+      <c r="D229" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="E229">
         <v>1</v>
       </c>
-      <c r="G227">
+      <c r="G229">
         <v>0.52</v>
       </c>
-      <c r="J227">
+      <c r="J229">
         <v>0.56000000000000005</v>
       </c>
     </row>

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DFA4E6-76FA-F24E-869B-5DE4503343D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D7587C-1BAB-1F4C-B1CD-AD338309C085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2540" yWindow="1360" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="466">
   <si>
     <t>Surname</t>
   </si>
@@ -1250,6 +1250,9 @@
     <t>Muvezwa</t>
   </si>
   <si>
+    <t>H250627G</t>
+  </si>
+  <si>
     <t>NDHLOVU</t>
   </si>
   <si>
@@ -1421,9 +1424,6 @@
     <t>H24038G</t>
   </si>
   <si>
-    <t xml:space="preserve"> MVUDUDU</t>
-  </si>
-  <si>
     <t>Godzi</t>
   </si>
   <si>
@@ -1431,13 +1431,16 @@
   </si>
   <si>
     <t>H250829J</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mvududu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -1470,6 +1473,12 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1491,13 +1500,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1881,8 +1891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M229"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K229" sqref="K229"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1895,34 +1905,34 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E1" t="s">
+        <v>443</v>
+      </c>
+      <c r="F1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G1" t="s">
+        <v>445</v>
+      </c>
+      <c r="H1" t="s">
+        <v>446</v>
+      </c>
+      <c r="I1" t="s">
+        <v>447</v>
+      </c>
+      <c r="J1" t="s">
         <v>441</v>
       </c>
-      <c r="E1" t="s">
-        <v>442</v>
-      </c>
-      <c r="F1" t="s">
-        <v>443</v>
-      </c>
-      <c r="G1" t="s">
-        <v>444</v>
-      </c>
-      <c r="H1" t="s">
-        <v>445</v>
-      </c>
-      <c r="I1" t="s">
-        <v>446</v>
-      </c>
-      <c r="J1" t="s">
-        <v>440</v>
-      </c>
       <c r="K1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M1" t="s">
         <v>2</v>
@@ -2270,7 +2280,7 @@
         <v>0.44</v>
       </c>
       <c r="J16">
-        <v>0.39</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -2321,10 +2331,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -2359,7 +2369,7 @@
         <v>0.98</v>
       </c>
       <c r="G20">
-        <v>0.49</v>
+        <v>0.61</v>
       </c>
       <c r="J20">
         <v>0.85</v>
@@ -2543,7 +2553,7 @@
         <v>0.95</v>
       </c>
       <c r="G28">
-        <v>0.68</v>
+        <v>0.76</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2704,7 +2714,7 @@
         <v>0.79</v>
       </c>
       <c r="G35">
-        <v>0.75</v>
+        <v>0.82</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -2796,7 +2806,7 @@
         <v>0.93</v>
       </c>
       <c r="G39">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="J39">
         <v>0.81</v>
@@ -2983,7 +2993,7 @@
         <v>0.61</v>
       </c>
       <c r="J47">
-        <v>0.39</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -3141,7 +3151,7 @@
         <v>0.93</v>
       </c>
       <c r="G54">
-        <v>0.69</v>
+        <v>0.73</v>
       </c>
       <c r="J54">
         <v>0.89</v>
@@ -3655,10 +3665,10 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C77" t="s">
         <v>106</v>
@@ -3716,7 +3726,7 @@
         <v>0.98</v>
       </c>
       <c r="G79">
-        <v>0.77</v>
+        <v>0.82</v>
       </c>
       <c r="J79">
         <v>0.74</v>
@@ -3877,7 +3887,7 @@
         <v>0.98</v>
       </c>
       <c r="G86">
-        <v>0.68</v>
+        <v>0.72</v>
       </c>
       <c r="J86">
         <v>0.74</v>
@@ -3885,7 +3895,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>132</v>
@@ -4187,7 +4197,7 @@
         <v>197</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C100" t="s">
         <v>106</v>
@@ -4958,7 +4968,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G133">
-        <v>0.7</v>
+        <v>0.81</v>
       </c>
       <c r="J133">
         <v>0.65</v>
@@ -5096,7 +5106,7 @@
         <v>0.7</v>
       </c>
       <c r="G139">
-        <v>0.82</v>
+        <v>0.93</v>
       </c>
       <c r="J139">
         <v>0</v>
@@ -5150,10 +5160,10 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C142" t="s">
         <v>203</v>
@@ -5188,7 +5198,7 @@
         <v>0.98</v>
       </c>
       <c r="G143">
-        <v>0.66</v>
+        <v>0.79</v>
       </c>
       <c r="J143">
         <v>0.46</v>
@@ -5541,10 +5551,10 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C159" t="s">
         <v>310</v>
@@ -6208,10 +6218,10 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
+        <v>451</v>
+      </c>
+      <c r="B188" s="2" t="s">
         <v>450</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>449</v>
       </c>
       <c r="C188" t="s">
         <v>310</v>
@@ -6599,10 +6609,10 @@
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C205" t="s">
         <v>310</v>
@@ -6739,8 +6749,8 @@
       <c r="A211" t="s">
         <v>403</v>
       </c>
-      <c r="B211" s="2">
-        <v>0.38</v>
+      <c r="B211" s="6" t="s">
+        <v>404</v>
       </c>
       <c r="C211" t="s">
         <v>310</v>
@@ -6760,10 +6770,10 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C212" t="s">
         <v>310</v>
@@ -6783,10 +6793,10 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C213" t="s">
         <v>310</v>
@@ -6806,10 +6816,10 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C214" t="s">
         <v>310</v>
@@ -6829,10 +6839,10 @@
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C215" t="s">
         <v>310</v>
@@ -6852,10 +6862,10 @@
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C216" t="s">
         <v>310</v>
@@ -6875,10 +6885,10 @@
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C217" t="s">
         <v>310</v>
@@ -6898,10 +6908,10 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C218" t="s">
         <v>310</v>
@@ -6921,10 +6931,10 @@
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C219" t="s">
         <v>310</v>
@@ -6944,10 +6954,10 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C220" t="s">
         <v>310</v>
@@ -6967,10 +6977,10 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C221" t="s">
         <v>310</v>
@@ -6990,10 +7000,10 @@
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C222" t="s">
         <v>310</v>
@@ -7013,10 +7023,10 @@
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C223" t="s">
         <v>310</v>
@@ -7059,10 +7069,10 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C225" t="s">
         <v>310</v>
@@ -7082,10 +7092,10 @@
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C226" t="s">
         <v>310</v>
@@ -7105,10 +7115,10 @@
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C227" t="s">
         <v>310</v>
@@ -7128,10 +7138,10 @@
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C228" t="s">
         <v>310</v>
@@ -7151,10 +7161,10 @@
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C229" t="s">
         <v>310</v>
@@ -7174,6 +7184,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D7587C-1BAB-1F4C-B1CD-AD338309C085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D27E2C2-E8D5-5245-8464-541235AF1E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2540" yWindow="1360" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -1891,8 +1891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="H229" sqref="H229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -5729,6 +5729,9 @@
       <c r="G166">
         <v>0.85</v>
       </c>
+      <c r="H166">
+        <v>0.79</v>
+      </c>
       <c r="J166">
         <v>0.93</v>
       </c>
@@ -5775,6 +5778,9 @@
       <c r="G168">
         <v>0.6</v>
       </c>
+      <c r="H168">
+        <v>0.33</v>
+      </c>
       <c r="J168">
         <v>0.7</v>
       </c>
@@ -5798,6 +5804,9 @@
       <c r="G169">
         <v>0.39</v>
       </c>
+      <c r="H169">
+        <v>0.44</v>
+      </c>
       <c r="J169">
         <v>0.7</v>
       </c>
@@ -5913,6 +5922,9 @@
       <c r="G174">
         <v>0.7</v>
       </c>
+      <c r="H174">
+        <v>0.78</v>
+      </c>
       <c r="J174">
         <v>0.56000000000000005</v>
       </c>
@@ -5982,6 +5994,9 @@
       <c r="G177">
         <v>0.56999999999999995</v>
       </c>
+      <c r="H177">
+        <v>0.56999999999999995</v>
+      </c>
       <c r="J177">
         <v>0.91</v>
       </c>
@@ -6005,6 +6020,9 @@
       <c r="G178">
         <v>0.82</v>
       </c>
+      <c r="H178">
+        <v>0.38</v>
+      </c>
       <c r="J178">
         <v>0.7</v>
       </c>
@@ -6074,6 +6092,9 @@
       <c r="G181">
         <v>0.75</v>
       </c>
+      <c r="H181">
+        <v>0.7</v>
+      </c>
       <c r="J181">
         <v>0.7</v>
       </c>
@@ -6097,6 +6118,9 @@
       <c r="G182">
         <v>0.64</v>
       </c>
+      <c r="H182">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="J182">
         <v>0.7</v>
       </c>
@@ -6120,6 +6144,9 @@
       <c r="G183">
         <v>0.63</v>
       </c>
+      <c r="H183">
+        <v>0.6</v>
+      </c>
       <c r="J183">
         <v>0.7</v>
       </c>
@@ -6189,6 +6216,9 @@
       <c r="G186">
         <v>0.51</v>
       </c>
+      <c r="H186">
+        <v>0.47</v>
+      </c>
       <c r="J186">
         <v>0.38</v>
       </c>
@@ -6258,6 +6288,9 @@
       <c r="G189">
         <v>0.79</v>
       </c>
+      <c r="H189">
+        <v>0.79</v>
+      </c>
       <c r="J189">
         <v>0.83</v>
       </c>
@@ -6327,6 +6360,9 @@
       <c r="G192">
         <v>0.49</v>
       </c>
+      <c r="H192">
+        <v>0.59</v>
+      </c>
       <c r="J192">
         <v>0.91</v>
       </c>
@@ -6350,6 +6386,9 @@
       <c r="G193">
         <v>0.63</v>
       </c>
+      <c r="H193">
+        <v>0.41</v>
+      </c>
       <c r="J193">
         <v>0.46</v>
       </c>
@@ -6442,6 +6481,9 @@
       <c r="G197">
         <v>0.73</v>
       </c>
+      <c r="H197">
+        <v>0.84</v>
+      </c>
       <c r="J197">
         <v>0.46</v>
       </c>
@@ -6511,6 +6553,9 @@
       <c r="G200">
         <v>0.51</v>
       </c>
+      <c r="H200">
+        <v>0.54</v>
+      </c>
       <c r="J200">
         <v>0.72</v>
       </c>
@@ -6534,6 +6579,9 @@
       <c r="G201">
         <v>0.43</v>
       </c>
+      <c r="H201">
+        <v>0.42</v>
+      </c>
       <c r="J201">
         <v>0.38</v>
       </c>
@@ -6580,6 +6628,9 @@
       <c r="G203">
         <v>0.69</v>
       </c>
+      <c r="H203">
+        <v>0.52</v>
+      </c>
       <c r="J203">
         <v>0.69</v>
       </c>
@@ -6626,6 +6677,9 @@
       <c r="G205">
         <v>0</v>
       </c>
+      <c r="H205">
+        <v>0.45</v>
+      </c>
       <c r="J205">
         <v>0</v>
       </c>
@@ -6695,6 +6749,9 @@
       <c r="G208">
         <v>0.72</v>
       </c>
+      <c r="H208">
+        <v>0.82</v>
+      </c>
       <c r="J208">
         <v>0.46</v>
       </c>
@@ -6718,6 +6775,9 @@
       <c r="G209">
         <v>0.73</v>
       </c>
+      <c r="H209">
+        <v>0.72</v>
+      </c>
       <c r="J209">
         <v>0.69</v>
       </c>
@@ -6741,6 +6801,9 @@
       <c r="G210">
         <v>0.79</v>
       </c>
+      <c r="H210">
+        <v>0.63</v>
+      </c>
       <c r="J210">
         <v>0.83</v>
       </c>
@@ -6856,6 +6919,9 @@
       <c r="G215">
         <v>0.69</v>
       </c>
+      <c r="H215">
+        <v>0.43</v>
+      </c>
       <c r="J215">
         <v>0.74</v>
       </c>
@@ -6879,6 +6945,9 @@
       <c r="G216">
         <v>0.54</v>
       </c>
+      <c r="H216">
+        <v>0.26</v>
+      </c>
       <c r="J216">
         <v>0.7</v>
       </c>
@@ -6925,6 +6994,9 @@
       <c r="G218">
         <v>0.56999999999999995</v>
       </c>
+      <c r="H218">
+        <v>0.5</v>
+      </c>
       <c r="J218">
         <v>0.83</v>
       </c>
@@ -6971,6 +7043,9 @@
       <c r="G220">
         <v>0.54</v>
       </c>
+      <c r="H220">
+        <v>0.54</v>
+      </c>
       <c r="J220">
         <v>0.46</v>
       </c>
@@ -7040,6 +7115,9 @@
       <c r="G223">
         <v>0.54</v>
       </c>
+      <c r="H223">
+        <v>0.54</v>
+      </c>
       <c r="J223">
         <v>0.72</v>
       </c>
@@ -7086,6 +7164,9 @@
       <c r="G225">
         <v>0.63</v>
       </c>
+      <c r="H225">
+        <v>0.57999999999999996</v>
+      </c>
       <c r="J225">
         <v>0.7</v>
       </c>
@@ -7132,6 +7213,9 @@
       <c r="G227">
         <v>0.48</v>
       </c>
+      <c r="H227">
+        <v>0.65</v>
+      </c>
       <c r="J227">
         <v>0.56000000000000005</v>
       </c>
@@ -7154,6 +7238,9 @@
       </c>
       <c r="G228">
         <v>0.66</v>
+      </c>
+      <c r="H228">
+        <v>0.36</v>
       </c>
       <c r="J228">
         <v>0.91</v>

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D27E2C2-E8D5-5245-8464-541235AF1E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95640378-222A-C244-9B58-343E120A5586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2540" yWindow="1360" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -1891,8 +1891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="H229" sqref="H229"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1960,6 +1960,9 @@
       <c r="J2">
         <v>0.7</v>
       </c>
+      <c r="K2">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1983,6 +1986,9 @@
       <c r="J3">
         <v>0</v>
       </c>
+      <c r="K3">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2006,6 +2012,9 @@
       <c r="J4">
         <v>0.91</v>
       </c>
+      <c r="K4">
+        <v>0.92</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2029,6 +2038,9 @@
       <c r="J5">
         <v>0.76</v>
       </c>
+      <c r="K5">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2052,6 +2064,9 @@
       <c r="J6">
         <v>0.91</v>
       </c>
+      <c r="K6">
+        <v>0.92</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2098,6 +2113,9 @@
       <c r="J8">
         <v>0</v>
       </c>
+      <c r="K8">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2121,6 +2139,9 @@
       <c r="J9">
         <v>0.7</v>
       </c>
+      <c r="K9">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2167,6 +2188,9 @@
       <c r="J11">
         <v>0.91</v>
       </c>
+      <c r="K11">
+        <v>0.92</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2190,6 +2214,9 @@
       <c r="J12">
         <v>0.76</v>
       </c>
+      <c r="K12">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2213,6 +2240,9 @@
       <c r="J13">
         <v>0.76</v>
       </c>
+      <c r="K13">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2283,7 +2313,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -2306,7 +2336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -2328,8 +2358,11 @@
       <c r="J18">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>458</v>
       </c>
@@ -2352,7 +2385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -2375,7 +2408,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -2397,8 +2430,11 @@
       <c r="J21">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -2420,8 +2456,11 @@
       <c r="J22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -2443,8 +2482,11 @@
       <c r="J23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -2467,7 +2509,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -2489,8 +2531,11 @@
       <c r="J25">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -2513,7 +2558,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -2535,8 +2580,11 @@
       <c r="J27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -2558,8 +2606,11 @@
       <c r="J28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -2582,7 +2633,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -2605,7 +2656,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -2628,7 +2679,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -2650,8 +2701,11 @@
       <c r="J32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -2673,8 +2727,11 @@
       <c r="J33">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>167</v>
       </c>
@@ -2697,7 +2754,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -2720,7 +2777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>68</v>
       </c>
@@ -2743,7 +2800,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -2766,7 +2823,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>70</v>
       </c>
@@ -2789,7 +2846,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -2812,7 +2869,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>75</v>
       </c>
@@ -2834,8 +2891,11 @@
       <c r="J40">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>77</v>
       </c>
@@ -2858,7 +2918,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -2880,8 +2940,11 @@
       <c r="J42">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>81</v>
       </c>
@@ -2903,8 +2966,11 @@
       <c r="J43">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>83</v>
       </c>
@@ -2927,7 +2993,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>85</v>
       </c>
@@ -2950,7 +3016,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>87</v>
       </c>
@@ -2972,8 +3038,11 @@
       <c r="J46">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>89</v>
       </c>
@@ -2996,7 +3065,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -3019,7 +3088,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>93</v>
       </c>
@@ -3042,7 +3111,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>95</v>
       </c>
@@ -3065,7 +3134,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>97</v>
       </c>
@@ -3087,8 +3156,11 @@
       <c r="J51">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K51">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>99</v>
       </c>
@@ -3111,7 +3183,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>101</v>
       </c>
@@ -3134,7 +3206,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>103</v>
       </c>
@@ -3157,7 +3229,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>105</v>
       </c>
@@ -3180,7 +3252,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>108</v>
       </c>
@@ -3203,7 +3275,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>110</v>
       </c>
@@ -3226,7 +3298,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>112</v>
       </c>
@@ -3249,7 +3321,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>114</v>
       </c>
@@ -3272,7 +3344,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>116</v>
       </c>
@@ -3295,7 +3367,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>118</v>
       </c>
@@ -3318,7 +3390,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>120</v>
       </c>
@@ -3341,7 +3413,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>122</v>
       </c>
@@ -3364,7 +3436,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>124</v>
       </c>

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95640378-222A-C244-9B58-343E120A5586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E56C075-584A-734C-B077-5F00C28AA6AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2540" yWindow="1360" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -866,9 +866,6 @@
     <t>MUSINGADI</t>
   </si>
   <si>
-    <t>H250130</t>
-  </si>
-  <si>
     <t>Mutemeri</t>
   </si>
   <si>
@@ -1434,6 +1431,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Mvududu</t>
+  </si>
+  <si>
+    <t>H250125B</t>
   </si>
 </sst>
 </file>
@@ -1891,8 +1891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M229"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="K209" sqref="K209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1905,34 +1905,34 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D1" t="s">
+        <v>441</v>
+      </c>
+      <c r="E1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F1" t="s">
+        <v>443</v>
+      </c>
+      <c r="G1" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1" t="s">
+        <v>445</v>
+      </c>
+      <c r="I1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J1" t="s">
         <v>440</v>
       </c>
-      <c r="D1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E1" t="s">
-        <v>443</v>
-      </c>
-      <c r="F1" t="s">
-        <v>444</v>
-      </c>
-      <c r="G1" t="s">
-        <v>445</v>
-      </c>
-      <c r="H1" t="s">
-        <v>446</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>447</v>
       </c>
-      <c r="J1" t="s">
-        <v>441</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>448</v>
-      </c>
-      <c r="L1" t="s">
-        <v>449</v>
       </c>
       <c r="M1" t="s">
         <v>2</v>
@@ -2364,10 +2364,10 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>457</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>459</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -3737,10 +3737,10 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>453</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>454</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>455</v>
       </c>
       <c r="C77" t="s">
         <v>106</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>132</v>
@@ -4269,7 +4269,7 @@
         <v>197</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C100" t="s">
         <v>106</v>
@@ -4657,10 +4657,10 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>461</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>462</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>463</v>
       </c>
       <c r="C117" t="s">
         <v>203</v>
@@ -4680,10 +4680,10 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C118" t="s">
         <v>203</v>
@@ -4931,7 +4931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>250</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>252</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>254</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>256</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>258</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>260</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>262</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>264</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>266</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>70</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>269</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>271</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>273</v>
       </c>
@@ -5230,12 +5230,12 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>455</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>456</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>457</v>
       </c>
       <c r="C142" t="s">
         <v>203</v>
@@ -5253,12 +5253,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>275</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>276</v>
+        <v>465</v>
       </c>
       <c r="C143" t="s">
         <v>203</v>
@@ -5275,13 +5275,16 @@
       <c r="J143">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K143">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>278</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="C144" t="s">
         <v>203</v>
@@ -5301,10 +5304,10 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>280</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>282</v>
       </c>
       <c r="C145" t="s">
         <v>203</v>
@@ -5324,10 +5327,10 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>282</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="C146" t="s">
         <v>203</v>
@@ -5347,10 +5350,10 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>284</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="C147" t="s">
         <v>203</v>
@@ -5370,10 +5373,10 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>286</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>288</v>
       </c>
       <c r="C148" t="s">
         <v>203</v>
@@ -5393,10 +5396,10 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>288</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>290</v>
       </c>
       <c r="C149" t="s">
         <v>203</v>
@@ -5416,10 +5419,10 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>290</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>292</v>
       </c>
       <c r="C150" t="s">
         <v>203</v>
@@ -5439,10 +5442,10 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
+        <v>292</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="C151" t="s">
         <v>203</v>
@@ -5462,10 +5465,10 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>294</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>296</v>
       </c>
       <c r="C152" t="s">
         <v>203</v>
@@ -5485,10 +5488,10 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
+        <v>296</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>298</v>
       </c>
       <c r="C153" t="s">
         <v>203</v>
@@ -5508,10 +5511,10 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>298</v>
+      </c>
+      <c r="B154" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>300</v>
       </c>
       <c r="C154" t="s">
         <v>203</v>
@@ -5531,10 +5534,10 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>300</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="C155" t="s">
         <v>203</v>
@@ -5554,10 +5557,10 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>302</v>
+      </c>
+      <c r="B156" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>304</v>
       </c>
       <c r="C156" t="s">
         <v>203</v>
@@ -5577,10 +5580,10 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>304</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>306</v>
       </c>
       <c r="C157" t="s">
         <v>203</v>
@@ -5600,10 +5603,10 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>306</v>
+      </c>
+      <c r="B158" s="3" t="s">
         <v>307</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>308</v>
       </c>
       <c r="C158" t="s">
         <v>203</v>
@@ -5623,13 +5626,13 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C159" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D159" s="5">
         <v>0.89</v>
@@ -5646,13 +5649,13 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>308</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C160" t="s">
         <v>309</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C160" t="s">
-        <v>310</v>
       </c>
       <c r="D160" s="5">
         <v>0.86</v>
@@ -5669,13 +5672,13 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>311</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>313</v>
-      </c>
       <c r="C161" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D161" s="5">
         <v>1</v>
@@ -5692,13 +5695,13 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>313</v>
+      </c>
+      <c r="B162" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="B162" s="3" t="s">
-        <v>315</v>
-      </c>
       <c r="C162" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D162" s="5">
         <v>0.92</v>
@@ -5715,13 +5718,13 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>315</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B163" s="2" t="s">
-        <v>317</v>
-      </c>
       <c r="C163" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D163" s="5">
         <v>0.92</v>
@@ -5738,13 +5741,13 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>317</v>
+      </c>
+      <c r="B164" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B164" s="3" t="s">
-        <v>319</v>
-      </c>
       <c r="C164" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D164" s="5">
         <v>0.81</v>
@@ -5761,13 +5764,13 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>319</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="C165" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D165" s="5">
         <v>0.89</v>
@@ -5784,13 +5787,13 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>321</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B166" s="2" t="s">
-        <v>323</v>
-      </c>
       <c r="C166" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D166" s="5">
         <v>0.97</v>
@@ -5810,13 +5813,13 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>323</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B167" s="2" t="s">
-        <v>325</v>
-      </c>
       <c r="C167" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D167" s="5">
         <v>0.92</v>
@@ -5833,13 +5836,13 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>325</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>327</v>
-      </c>
       <c r="C168" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D168" s="5">
         <v>0.86</v>
@@ -5859,13 +5862,13 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>327</v>
+      </c>
+      <c r="B169" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="B169" s="3" t="s">
-        <v>329</v>
-      </c>
       <c r="C169" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D169" s="5">
         <v>0.89</v>
@@ -5885,13 +5888,13 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>329</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B170" s="2" t="s">
-        <v>331</v>
-      </c>
       <c r="C170" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D170" s="5">
         <v>0.89</v>
@@ -5908,13 +5911,13 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
+        <v>331</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>333</v>
-      </c>
       <c r="C171" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D171" s="5">
         <v>0.56000000000000005</v>
@@ -5931,13 +5934,13 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>333</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B172" s="2" t="s">
-        <v>335</v>
-      </c>
       <c r="C172" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D172" s="5">
         <v>0.83</v>
@@ -5960,7 +5963,7 @@
         <v>136</v>
       </c>
       <c r="C173" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D173" s="5">
         <v>0.53</v>
@@ -5977,13 +5980,13 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>335</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B174" s="2" t="s">
-        <v>337</v>
-      </c>
       <c r="C174" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D174" s="5">
         <v>0.89</v>
@@ -6003,13 +6006,13 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>337</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B175" s="2" t="s">
-        <v>339</v>
-      </c>
       <c r="C175" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D175" s="5">
         <v>0.92</v>
@@ -6026,13 +6029,13 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>339</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="C176" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D176" s="5">
         <v>0.89</v>
@@ -6049,13 +6052,13 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>341</v>
+      </c>
+      <c r="B177" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B177" s="4" t="s">
-        <v>343</v>
-      </c>
       <c r="C177" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D177" s="5">
         <v>0</v>
@@ -6075,13 +6078,13 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>343</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B178" s="2" t="s">
-        <v>345</v>
-      </c>
       <c r="C178" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D178" s="5">
         <v>1</v>
@@ -6101,13 +6104,13 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>345</v>
+      </c>
+      <c r="B179" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B179" s="3" t="s">
-        <v>347</v>
-      </c>
       <c r="C179" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D179" s="5">
         <v>0.89</v>
@@ -6124,13 +6127,13 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>347</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>349</v>
-      </c>
       <c r="C180" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D180" s="5">
         <v>0.94</v>
@@ -6147,13 +6150,13 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>349</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B181" s="2" t="s">
-        <v>351</v>
-      </c>
       <c r="C181" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D181" s="5">
         <v>0.97</v>
@@ -6173,13 +6176,13 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>351</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="C182" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D182" s="5">
         <v>0.92</v>
@@ -6199,13 +6202,13 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>353</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>355</v>
-      </c>
       <c r="C183" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D183" s="5">
         <v>0.92</v>
@@ -6225,13 +6228,13 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>355</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>357</v>
-      </c>
       <c r="C184" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D184" s="5">
         <v>0.94</v>
@@ -6248,13 +6251,13 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>357</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="B185" s="2" t="s">
-        <v>359</v>
-      </c>
       <c r="C185" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D185" s="5">
         <v>0.94</v>
@@ -6271,13 +6274,13 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>359</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>361</v>
-      </c>
       <c r="C186" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D186" s="5">
         <v>1</v>
@@ -6297,13 +6300,13 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>361</v>
+      </c>
+      <c r="B187" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B187" s="2" t="s">
-        <v>363</v>
-      </c>
       <c r="C187" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D187" s="5">
         <v>0.92</v>
@@ -6320,13 +6323,13 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C188" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D188" s="5">
         <v>0</v>
@@ -6343,13 +6346,13 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>363</v>
+      </c>
+      <c r="B189" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B189" s="2" t="s">
-        <v>365</v>
-      </c>
       <c r="C189" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D189" s="5">
         <v>0.92</v>
@@ -6369,13 +6372,13 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>365</v>
+      </c>
+      <c r="B190" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="B190" s="4" t="s">
-        <v>367</v>
-      </c>
       <c r="C190" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D190" s="5">
         <v>0</v>
@@ -6392,13 +6395,13 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>367</v>
+      </c>
+      <c r="B191" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B191" s="2" t="s">
-        <v>369</v>
-      </c>
       <c r="C191" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D191" s="5">
         <v>0.67</v>
@@ -6415,13 +6418,13 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
+        <v>369</v>
+      </c>
+      <c r="B192" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B192" s="2" t="s">
-        <v>371</v>
-      </c>
       <c r="C192" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D192" s="5">
         <v>0.69</v>
@@ -6439,15 +6442,15 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>371</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B193" s="2" t="s">
-        <v>373</v>
-      </c>
       <c r="C193" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D193" s="5">
         <v>0.86</v>
@@ -6465,15 +6468,15 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
+        <v>373</v>
+      </c>
+      <c r="B194" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B194" s="2" t="s">
-        <v>375</v>
-      </c>
       <c r="C194" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D194" s="5">
         <v>0.97</v>
@@ -6488,15 +6491,15 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C195" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D195" s="5">
         <v>0.69</v>
@@ -6511,15 +6514,15 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>376</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B196" s="2" t="s">
-        <v>378</v>
-      </c>
       <c r="C196" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D196" s="5">
         <v>0.92</v>
@@ -6534,15 +6537,15 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
+        <v>378</v>
+      </c>
+      <c r="B197" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B197" s="2" t="s">
-        <v>380</v>
-      </c>
       <c r="C197" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D197" s="5">
         <v>0.97</v>
@@ -6559,16 +6562,19 @@
       <c r="J197">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K197">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
+        <v>380</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B198" s="2" t="s">
-        <v>382</v>
-      </c>
       <c r="C198" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D198" s="5">
         <v>0.81</v>
@@ -6583,15 +6589,15 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
+        <v>382</v>
+      </c>
+      <c r="B199" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="B199" s="3" t="s">
-        <v>384</v>
-      </c>
       <c r="C199" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D199" s="5">
         <v>0.89</v>
@@ -6606,15 +6612,15 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
+        <v>384</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B200" s="2" t="s">
-        <v>386</v>
-      </c>
       <c r="C200" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D200" s="5">
         <v>0.83</v>
@@ -6632,15 +6638,15 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>386</v>
+      </c>
+      <c r="B201" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="B201" s="2" t="s">
-        <v>388</v>
-      </c>
       <c r="C201" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D201" s="5">
         <v>0.78</v>
@@ -6658,15 +6664,15 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
+        <v>388</v>
+      </c>
+      <c r="B202" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B202" s="2" t="s">
-        <v>390</v>
-      </c>
       <c r="C202" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D202" s="5">
         <v>0.78</v>
@@ -6681,15 +6687,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
+        <v>390</v>
+      </c>
+      <c r="B203" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B203" s="2" t="s">
-        <v>392</v>
-      </c>
       <c r="C203" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D203" s="5">
         <v>0.97</v>
@@ -6706,16 +6712,19 @@
       <c r="J203">
         <v>0.69</v>
       </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K203">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>392</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B204" s="2" t="s">
-        <v>394</v>
-      </c>
       <c r="C204" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D204" s="5">
         <v>0.81</v>
@@ -6730,15 +6739,15 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>459</v>
+      </c>
+      <c r="B205" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="B205" s="2" t="s">
-        <v>461</v>
-      </c>
       <c r="C205" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D205" s="5">
         <v>0</v>
@@ -6756,15 +6765,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>394</v>
+      </c>
+      <c r="B206" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B206" s="2" t="s">
-        <v>396</v>
-      </c>
       <c r="C206" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D206" s="5">
         <v>0.86</v>
@@ -6779,15 +6788,15 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
+        <v>276</v>
+      </c>
+      <c r="B207" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B207" s="2" t="s">
-        <v>278</v>
-      </c>
       <c r="C207" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D207" s="5">
         <v>0.92</v>
@@ -6802,15 +6811,15 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>396</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B208" s="2" t="s">
-        <v>398</v>
-      </c>
       <c r="C208" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D208" s="5">
         <v>0.97</v>
@@ -6827,16 +6836,19 @@
       <c r="J208">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K208">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
+        <v>398</v>
+      </c>
+      <c r="B209" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="B209" s="2" t="s">
-        <v>400</v>
-      </c>
       <c r="C209" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D209" s="5">
         <v>0.92</v>
@@ -6854,15 +6866,15 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
+        <v>400</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B210" s="2" t="s">
-        <v>402</v>
-      </c>
       <c r="C210" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D210" s="5">
         <v>0.86</v>
@@ -6880,15 +6892,15 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
+        <v>402</v>
+      </c>
+      <c r="B211" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="B211" s="6" t="s">
-        <v>404</v>
-      </c>
       <c r="C211" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D211" s="5">
         <v>0.94</v>
@@ -6903,15 +6915,15 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
+        <v>404</v>
+      </c>
+      <c r="B212" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B212" s="2" t="s">
-        <v>406</v>
-      </c>
       <c r="C212" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D212" s="5">
         <v>0.97</v>
@@ -6925,16 +6937,19 @@
       <c r="J212">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K212">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>406</v>
+      </c>
+      <c r="B213" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B213" s="2" t="s">
-        <v>408</v>
-      </c>
       <c r="C213" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D213" s="5">
         <v>0.72</v>
@@ -6949,15 +6964,15 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>408</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B214" s="2" t="s">
-        <v>410</v>
-      </c>
       <c r="C214" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D214" s="5">
         <v>0.94</v>
@@ -6972,15 +6987,15 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
+        <v>410</v>
+      </c>
+      <c r="B215" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B215" s="2" t="s">
-        <v>412</v>
-      </c>
       <c r="C215" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D215" s="5">
         <v>0.67</v>
@@ -6998,15 +7013,15 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
+        <v>412</v>
+      </c>
+      <c r="B216" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B216" s="3" t="s">
-        <v>414</v>
-      </c>
       <c r="C216" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D216" s="5">
         <v>0.72</v>
@@ -7024,15 +7039,15 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
+        <v>414</v>
+      </c>
+      <c r="B217" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B217" s="2" t="s">
-        <v>416</v>
-      </c>
       <c r="C217" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D217" s="5">
         <v>0.83</v>
@@ -7047,15 +7062,15 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
+        <v>416</v>
+      </c>
+      <c r="B218" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B218" s="2" t="s">
-        <v>418</v>
-      </c>
       <c r="C218" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D218" s="5">
         <v>0.97</v>
@@ -7073,15 +7088,15 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
+        <v>418</v>
+      </c>
+      <c r="B219" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B219" s="2" t="s">
-        <v>420</v>
-      </c>
       <c r="C219" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D219" s="5">
         <v>0.92</v>
@@ -7096,15 +7111,15 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
+        <v>420</v>
+      </c>
+      <c r="B220" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="B220" s="2" t="s">
-        <v>422</v>
-      </c>
       <c r="C220" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D220" s="5">
         <v>0.97</v>
@@ -7121,16 +7136,19 @@
       <c r="J220">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K220">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
+        <v>422</v>
+      </c>
+      <c r="B221" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B221" s="2" t="s">
-        <v>424</v>
-      </c>
       <c r="C221" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D221" s="5">
         <v>0.86</v>
@@ -7145,15 +7163,15 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
+        <v>424</v>
+      </c>
+      <c r="B222" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B222" s="2" t="s">
-        <v>426</v>
-      </c>
       <c r="C222" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D222" s="5">
         <v>0.89</v>
@@ -7168,15 +7186,15 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
+        <v>426</v>
+      </c>
+      <c r="B223" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="B223" s="2" t="s">
-        <v>428</v>
-      </c>
       <c r="C223" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D223" s="5">
         <v>0.89</v>
@@ -7194,7 +7212,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>192</v>
       </c>
@@ -7202,7 +7220,7 @@
         <v>194</v>
       </c>
       <c r="C224" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D224" s="5">
         <v>0.89</v>
@@ -7219,13 +7237,13 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
+        <v>428</v>
+      </c>
+      <c r="B225" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B225" s="2" t="s">
-        <v>430</v>
-      </c>
       <c r="C225" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D225" s="5">
         <v>0.94</v>
@@ -7245,13 +7263,13 @@
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
+        <v>431</v>
+      </c>
+      <c r="B226" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="B226" s="2" t="s">
-        <v>433</v>
-      </c>
       <c r="C226" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D226" s="5">
         <v>0.86</v>
@@ -7268,13 +7286,13 @@
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
+        <v>433</v>
+      </c>
+      <c r="B227" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B227" s="2" t="s">
-        <v>435</v>
-      </c>
       <c r="C227" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D227" s="5">
         <v>0.83</v>
@@ -7294,13 +7312,13 @@
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>435</v>
+      </c>
+      <c r="B228" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="B228" s="3" t="s">
-        <v>437</v>
-      </c>
       <c r="C228" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D228" s="5">
         <v>0.86</v>
@@ -7320,13 +7338,13 @@
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
+        <v>437</v>
+      </c>
+      <c r="B229" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="B229" s="3" t="s">
-        <v>439</v>
-      </c>
       <c r="C229" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D229" s="5">
         <v>0.86</v>

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E56C075-584A-734C-B077-5F00C28AA6AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437EE8E6-18B0-D94C-9A8F-A51E47C12D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2540" yWindow="1360" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -1891,8 +1891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="K209" sqref="K209"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="G209" sqref="G209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2840,7 +2840,7 @@
         <v>0.98</v>
       </c>
       <c r="G38">
-        <v>0.42</v>
+        <v>0.67</v>
       </c>
       <c r="J38">
         <v>0.39</v>
@@ -4856,7 +4856,7 @@
         <v>0.86</v>
       </c>
       <c r="G125">
-        <v>0.64</v>
+        <v>0.75</v>
       </c>
       <c r="J125">
         <v>0.87</v>
@@ -4971,7 +4971,7 @@
         <v>1</v>
       </c>
       <c r="G130">
-        <v>0.49</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J130">
         <v>0.65</v>
@@ -5181,7 +5181,7 @@
         <v>0.93</v>
       </c>
       <c r="J139">
-        <v>0</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
@@ -5759,7 +5759,7 @@
         <v>0.7</v>
       </c>
       <c r="J164">
-        <v>0.74</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
@@ -6246,7 +6246,7 @@
         <v>0.61</v>
       </c>
       <c r="J184">
-        <v>0.74</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
@@ -6269,7 +6269,7 @@
         <v>0.73</v>
       </c>
       <c r="J185">
-        <v>0.74</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
@@ -6554,7 +6554,7 @@
         <v>0.91</v>
       </c>
       <c r="G197">
-        <v>0.73</v>
+        <v>0.83</v>
       </c>
       <c r="H197">
         <v>0.84</v>
@@ -6828,7 +6828,7 @@
         <v>0.91</v>
       </c>
       <c r="G208">
-        <v>0.72</v>
+        <v>0.85</v>
       </c>
       <c r="H208">
         <v>0.82</v>
@@ -7010,7 +7010,7 @@
         <v>0.43</v>
       </c>
       <c r="J215">
-        <v>0.74</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
@@ -7059,7 +7059,7 @@
         <v>0</v>
       </c>
       <c r="J217">
-        <v>0.74</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
@@ -7128,7 +7128,7 @@
         <v>0.98</v>
       </c>
       <c r="G220">
-        <v>0.54</v>
+        <v>0.72</v>
       </c>
       <c r="H220">
         <v>0.54</v>

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437EE8E6-18B0-D94C-9A8F-A51E47C12D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477D7F6A-87D0-C849-A1CC-9C9127A1E085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2540" yWindow="1360" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -1891,8 +1891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="G209" sqref="G209"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="H143" sqref="H143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -4352,6 +4352,9 @@
       <c r="G103">
         <v>0.57999999999999996</v>
       </c>
+      <c r="H103">
+        <v>0.63</v>
+      </c>
       <c r="J103">
         <v>0.46</v>
       </c>
@@ -4375,6 +4378,9 @@
       <c r="G104">
         <v>0.51</v>
       </c>
+      <c r="H104">
+        <v>0.65</v>
+      </c>
       <c r="J104">
         <v>0.69</v>
       </c>
@@ -4398,6 +4404,9 @@
       <c r="G105">
         <v>0.66</v>
       </c>
+      <c r="H105">
+        <v>0.68</v>
+      </c>
       <c r="J105">
         <v>0.69</v>
       </c>
@@ -4421,6 +4430,9 @@
       <c r="G106">
         <v>0.54</v>
       </c>
+      <c r="H106">
+        <v>0.38</v>
+      </c>
       <c r="J106">
         <v>0.69</v>
       </c>
@@ -4444,6 +4456,9 @@
       <c r="G107">
         <v>0.43</v>
       </c>
+      <c r="H107">
+        <v>0.46</v>
+      </c>
       <c r="J107">
         <v>0.69</v>
       </c>
@@ -4467,6 +4482,9 @@
       <c r="G108">
         <v>0.56999999999999995</v>
       </c>
+      <c r="H108">
+        <v>0.56999999999999995</v>
+      </c>
       <c r="J108">
         <v>0.87</v>
       </c>
@@ -4490,6 +4508,9 @@
       <c r="G109">
         <v>0.57999999999999996</v>
       </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
       <c r="J109">
         <v>0.46</v>
       </c>
@@ -4513,6 +4534,9 @@
       <c r="G110">
         <v>0.57999999999999996</v>
       </c>
+      <c r="H110">
+        <v>0.79</v>
+      </c>
       <c r="J110">
         <v>0.69</v>
       </c>
@@ -4536,6 +4560,9 @@
       <c r="G111">
         <v>0.56999999999999995</v>
       </c>
+      <c r="H111">
+        <v>0.37</v>
+      </c>
       <c r="J111">
         <v>0.69</v>
       </c>
@@ -4559,6 +4586,9 @@
       <c r="G112">
         <v>0.56999999999999995</v>
       </c>
+      <c r="H112">
+        <v>0.56000000000000005</v>
+      </c>
       <c r="J112">
         <v>0.46</v>
       </c>
@@ -4582,6 +4612,9 @@
       <c r="G113">
         <v>0.45</v>
       </c>
+      <c r="H113">
+        <v>0.34</v>
+      </c>
       <c r="J113">
         <v>0.83</v>
       </c>
@@ -4605,6 +4638,9 @@
       <c r="G114">
         <v>0.43</v>
       </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
       <c r="J114">
         <v>0.78</v>
       </c>
@@ -4628,6 +4664,9 @@
       <c r="G115">
         <v>0.55000000000000004</v>
       </c>
+      <c r="H115">
+        <v>0.52</v>
+      </c>
       <c r="J115">
         <v>0.65</v>
       </c>
@@ -4651,6 +4690,9 @@
       <c r="G116">
         <v>0.36</v>
       </c>
+      <c r="H116">
+        <v>0.42</v>
+      </c>
       <c r="J116">
         <v>0.74</v>
       </c>
@@ -4674,6 +4716,9 @@
       <c r="G117">
         <v>0</v>
       </c>
+      <c r="H117">
+        <v>0.54</v>
+      </c>
       <c r="J117">
         <v>0</v>
       </c>
@@ -4697,6 +4742,9 @@
       <c r="G118">
         <v>0</v>
       </c>
+      <c r="H118">
+        <v>0.47</v>
+      </c>
       <c r="J118">
         <v>0</v>
       </c>
@@ -4720,6 +4768,9 @@
       <c r="G119">
         <v>0.61</v>
       </c>
+      <c r="H119">
+        <v>0.67</v>
+      </c>
       <c r="J119">
         <v>0.83</v>
       </c>
@@ -4743,6 +4794,9 @@
       <c r="G120">
         <v>0.49</v>
       </c>
+      <c r="H120">
+        <v>0.52</v>
+      </c>
       <c r="J120">
         <v>0.65</v>
       </c>
@@ -4766,6 +4820,9 @@
       <c r="G121">
         <v>0.6</v>
       </c>
+      <c r="H121">
+        <v>0.56999999999999995</v>
+      </c>
       <c r="J121">
         <v>0.87</v>
       </c>
@@ -4789,6 +4846,9 @@
       <c r="G122">
         <v>0.39</v>
       </c>
+      <c r="H122">
+        <v>0.44</v>
+      </c>
       <c r="J122">
         <v>0.69</v>
       </c>
@@ -4812,6 +4872,9 @@
       <c r="G123">
         <v>0.64</v>
       </c>
+      <c r="H123">
+        <v>0.91</v>
+      </c>
       <c r="J123">
         <v>0.69</v>
       </c>
@@ -4835,6 +4898,9 @@
       <c r="G124">
         <v>0.37</v>
       </c>
+      <c r="H124">
+        <v>0.28999999999999998</v>
+      </c>
       <c r="J124">
         <v>0.78</v>
       </c>
@@ -4858,6 +4924,9 @@
       <c r="G125">
         <v>0.75</v>
       </c>
+      <c r="H125">
+        <v>0.69</v>
+      </c>
       <c r="J125">
         <v>0.87</v>
       </c>
@@ -4881,6 +4950,9 @@
       <c r="G126">
         <v>0.73</v>
       </c>
+      <c r="H126">
+        <v>0.65</v>
+      </c>
       <c r="J126">
         <v>0.69</v>
       </c>
@@ -4904,6 +4976,9 @@
       <c r="G127">
         <v>0.6</v>
       </c>
+      <c r="H127">
+        <v>0.52</v>
+      </c>
       <c r="J127">
         <v>0.87</v>
       </c>
@@ -4927,6 +5002,9 @@
       <c r="G128">
         <v>0</v>
       </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
       <c r="J128">
         <v>0</v>
       </c>
@@ -4950,6 +5028,9 @@
       <c r="G129">
         <v>0.63</v>
       </c>
+      <c r="H129">
+        <v>0.59</v>
+      </c>
       <c r="J129">
         <v>0.69</v>
       </c>
@@ -4973,6 +5054,9 @@
       <c r="G130">
         <v>0.57999999999999996</v>
       </c>
+      <c r="H130">
+        <v>0.32</v>
+      </c>
       <c r="J130">
         <v>0.65</v>
       </c>
@@ -4996,6 +5080,9 @@
       <c r="G131">
         <v>0.57999999999999996</v>
       </c>
+      <c r="H131">
+        <v>0.63</v>
+      </c>
       <c r="J131">
         <v>0.83</v>
       </c>
@@ -5019,6 +5106,9 @@
       <c r="G132">
         <v>0.52</v>
       </c>
+      <c r="H132">
+        <v>0.71</v>
+      </c>
       <c r="J132">
         <v>0.87</v>
       </c>
@@ -5042,6 +5132,9 @@
       <c r="G133">
         <v>0.81</v>
       </c>
+      <c r="H133">
+        <v>0.84</v>
+      </c>
       <c r="J133">
         <v>0.65</v>
       </c>
@@ -5065,6 +5158,9 @@
       <c r="G134">
         <v>0.75</v>
       </c>
+      <c r="H134">
+        <v>0.67</v>
+      </c>
       <c r="J134">
         <v>0.69</v>
       </c>
@@ -5088,6 +5184,9 @@
       <c r="G135">
         <v>0.6</v>
       </c>
+      <c r="H135">
+        <v>0.36</v>
+      </c>
       <c r="J135">
         <v>0</v>
       </c>
@@ -5111,6 +5210,9 @@
       <c r="G136">
         <v>0.46</v>
       </c>
+      <c r="H136">
+        <v>0.66</v>
+      </c>
       <c r="J136">
         <v>0.69</v>
       </c>
@@ -5134,6 +5236,9 @@
       <c r="G137">
         <v>0.66</v>
       </c>
+      <c r="H137">
+        <v>0.49</v>
+      </c>
       <c r="J137">
         <v>0.69</v>
       </c>
@@ -5157,6 +5262,9 @@
       <c r="G138">
         <v>0.57999999999999996</v>
       </c>
+      <c r="H138">
+        <v>0.42</v>
+      </c>
       <c r="J138">
         <v>0.78</v>
       </c>
@@ -5180,6 +5288,9 @@
       <c r="G139">
         <v>0.93</v>
       </c>
+      <c r="H139">
+        <v>0.81</v>
+      </c>
       <c r="J139">
         <v>0.65</v>
       </c>
@@ -5203,6 +5314,9 @@
       <c r="G140">
         <v>0</v>
       </c>
+      <c r="H140">
+        <v>0.8</v>
+      </c>
       <c r="J140">
         <v>0.65</v>
       </c>
@@ -5226,6 +5340,9 @@
       <c r="G141">
         <v>0.54</v>
       </c>
+      <c r="H141">
+        <v>0.35</v>
+      </c>
       <c r="J141">
         <v>0.74</v>
       </c>
@@ -5249,6 +5366,9 @@
       <c r="G142">
         <v>0.48</v>
       </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
       <c r="J142">
         <v>0</v>
       </c>
@@ -5272,6 +5392,9 @@
       <c r="G143">
         <v>0.79</v>
       </c>
+      <c r="H143">
+        <v>0.77</v>
+      </c>
       <c r="J143">
         <v>0.46</v>
       </c>
@@ -5298,6 +5421,9 @@
       <c r="G144">
         <v>0.78</v>
       </c>
+      <c r="H144">
+        <v>0.69</v>
+      </c>
       <c r="J144">
         <v>0.78</v>
       </c>
@@ -5321,6 +5447,9 @@
       <c r="G145">
         <v>0.56999999999999995</v>
       </c>
+      <c r="H145">
+        <v>0.63</v>
+      </c>
       <c r="J145">
         <v>0.83</v>
       </c>
@@ -5344,6 +5473,9 @@
       <c r="G146">
         <v>0.7</v>
       </c>
+      <c r="H146">
+        <v>0.78</v>
+      </c>
       <c r="J146">
         <v>0.69</v>
       </c>
@@ -5367,6 +5499,9 @@
       <c r="G147">
         <v>0.31</v>
       </c>
+      <c r="H147">
+        <v>0.28999999999999998</v>
+      </c>
       <c r="J147">
         <v>0.46</v>
       </c>
@@ -5390,6 +5525,9 @@
       <c r="G148">
         <v>0.45</v>
       </c>
+      <c r="H148">
+        <v>0.23</v>
+      </c>
       <c r="J148">
         <v>0.83</v>
       </c>
@@ -5413,6 +5551,9 @@
       <c r="G149">
         <v>0.6</v>
       </c>
+      <c r="H149">
+        <v>0.52</v>
+      </c>
       <c r="J149">
         <v>0.46</v>
       </c>
@@ -5436,6 +5577,9 @@
       <c r="G150">
         <v>0.51</v>
       </c>
+      <c r="H150">
+        <v>0.59</v>
+      </c>
       <c r="J150">
         <v>0.46</v>
       </c>
@@ -5459,6 +5603,9 @@
       <c r="G151">
         <v>0.64</v>
       </c>
+      <c r="H151">
+        <v>0.45</v>
+      </c>
       <c r="J151">
         <v>0.78</v>
       </c>
@@ -5482,6 +5629,9 @@
       <c r="G152">
         <v>0.73</v>
       </c>
+      <c r="H152">
+        <v>0.74</v>
+      </c>
       <c r="J152">
         <v>0.69</v>
       </c>
@@ -5505,6 +5655,9 @@
       <c r="G153">
         <v>0.66</v>
       </c>
+      <c r="H153">
+        <v>0.73</v>
+      </c>
       <c r="J153">
         <v>0.17</v>
       </c>
@@ -5528,6 +5681,9 @@
       <c r="G154">
         <v>0.73</v>
       </c>
+      <c r="H154">
+        <v>0.84</v>
+      </c>
       <c r="J154">
         <v>0.69</v>
       </c>
@@ -5551,6 +5707,9 @@
       <c r="G155">
         <v>0.72</v>
       </c>
+      <c r="H155">
+        <v>0.83</v>
+      </c>
       <c r="J155">
         <v>0.83</v>
       </c>
@@ -5574,6 +5733,9 @@
       <c r="G156">
         <v>0.64</v>
       </c>
+      <c r="H156">
+        <v>0.51</v>
+      </c>
       <c r="J156">
         <v>0.69</v>
       </c>
@@ -5597,6 +5759,9 @@
       <c r="G157">
         <v>0.43</v>
       </c>
+      <c r="H157">
+        <v>0.66</v>
+      </c>
       <c r="J157">
         <v>0.69</v>
       </c>
@@ -5619,6 +5784,9 @@
       </c>
       <c r="G158">
         <v>0.48</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
       </c>
       <c r="J158">
         <v>0.78</v>

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477D7F6A-87D0-C849-A1CC-9C9127A1E085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB76A4F4-DD99-3742-A8DE-4A8DFEFFC891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2540" yWindow="1360" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -935,9 +935,6 @@
     <t>Sokisi</t>
   </si>
   <si>
-    <t>H250639j@hit.ac.zw</t>
-  </si>
-  <si>
     <t>Tamirepi</t>
   </si>
   <si>
@@ -1434,6 +1431,9 @@
   </si>
   <si>
     <t>H250125B</t>
+  </si>
+  <si>
+    <t>H250639J</t>
   </si>
 </sst>
 </file>
@@ -1892,7 +1892,7 @@
   <dimension ref="A1:M229"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="H143" sqref="H143"/>
+      <selection activeCell="B155" sqref="B155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1905,34 +1905,34 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E1" t="s">
+        <v>441</v>
+      </c>
+      <c r="F1" t="s">
+        <v>442</v>
+      </c>
+      <c r="G1" t="s">
+        <v>443</v>
+      </c>
+      <c r="H1" t="s">
+        <v>444</v>
+      </c>
+      <c r="I1" t="s">
+        <v>445</v>
+      </c>
+      <c r="J1" t="s">
         <v>439</v>
       </c>
-      <c r="D1" t="s">
-        <v>441</v>
-      </c>
-      <c r="E1" t="s">
-        <v>442</v>
-      </c>
-      <c r="F1" t="s">
-        <v>443</v>
-      </c>
-      <c r="G1" t="s">
-        <v>444</v>
-      </c>
-      <c r="H1" t="s">
-        <v>445</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>446</v>
       </c>
-      <c r="J1" t="s">
-        <v>440</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>447</v>
-      </c>
-      <c r="L1" t="s">
-        <v>448</v>
       </c>
       <c r="M1" t="s">
         <v>2</v>
@@ -2364,10 +2364,10 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>456</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>457</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>458</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -3737,10 +3737,10 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>452</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>454</v>
       </c>
       <c r="C77" t="s">
         <v>106</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>132</v>
@@ -4269,7 +4269,7 @@
         <v>197</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C100" t="s">
         <v>106</v>
@@ -4699,10 +4699,10 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>460</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>462</v>
       </c>
       <c r="C117" t="s">
         <v>203</v>
@@ -4725,10 +4725,10 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C118" t="s">
         <v>203</v>
@@ -5349,10 +5349,10 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>454</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>456</v>
       </c>
       <c r="C142" t="s">
         <v>203</v>
@@ -5378,7 +5378,7 @@
         <v>275</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C143" t="s">
         <v>203</v>
@@ -5667,7 +5667,7 @@
         <v>298</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>299</v>
+        <v>465</v>
       </c>
       <c r="C154" t="s">
         <v>203</v>
@@ -5690,10 +5690,10 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>299</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>301</v>
       </c>
       <c r="C155" t="s">
         <v>203</v>
@@ -5716,10 +5716,10 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>301</v>
+      </c>
+      <c r="B156" s="3" t="s">
         <v>302</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>303</v>
       </c>
       <c r="C156" t="s">
         <v>203</v>
@@ -5742,10 +5742,10 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>303</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>305</v>
       </c>
       <c r="C157" t="s">
         <v>203</v>
@@ -5768,10 +5768,10 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>305</v>
+      </c>
+      <c r="B158" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>307</v>
       </c>
       <c r="C158" t="s">
         <v>203</v>
@@ -5794,13 +5794,13 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C159" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D159" s="5">
         <v>0.89</v>
@@ -5817,13 +5817,13 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>307</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C160" t="s">
         <v>308</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C160" t="s">
-        <v>309</v>
       </c>
       <c r="D160" s="5">
         <v>0.86</v>
@@ -5840,13 +5840,13 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>310</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>312</v>
-      </c>
       <c r="C161" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D161" s="5">
         <v>1</v>
@@ -5863,13 +5863,13 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>312</v>
+      </c>
+      <c r="B162" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="B162" s="3" t="s">
-        <v>314</v>
-      </c>
       <c r="C162" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D162" s="5">
         <v>0.92</v>
@@ -5886,13 +5886,13 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>314</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B163" s="2" t="s">
-        <v>316</v>
-      </c>
       <c r="C163" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D163" s="5">
         <v>0.92</v>
@@ -5909,13 +5909,13 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>316</v>
+      </c>
+      <c r="B164" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B164" s="3" t="s">
-        <v>318</v>
-      </c>
       <c r="C164" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D164" s="5">
         <v>0.81</v>
@@ -5932,13 +5932,13 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>318</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>320</v>
-      </c>
       <c r="C165" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D165" s="5">
         <v>0.89</v>
@@ -5955,13 +5955,13 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>320</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B166" s="2" t="s">
-        <v>322</v>
-      </c>
       <c r="C166" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D166" s="5">
         <v>0.97</v>
@@ -5981,13 +5981,13 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>322</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B167" s="2" t="s">
-        <v>324</v>
-      </c>
       <c r="C167" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D167" s="5">
         <v>0.92</v>
@@ -6004,13 +6004,13 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>324</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>326</v>
-      </c>
       <c r="C168" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D168" s="5">
         <v>0.86</v>
@@ -6030,13 +6030,13 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>326</v>
+      </c>
+      <c r="B169" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="B169" s="3" t="s">
-        <v>328</v>
-      </c>
       <c r="C169" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D169" s="5">
         <v>0.89</v>
@@ -6056,13 +6056,13 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>328</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B170" s="2" t="s">
-        <v>330</v>
-      </c>
       <c r="C170" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D170" s="5">
         <v>0.89</v>
@@ -6079,13 +6079,13 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
+        <v>330</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="C171" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D171" s="5">
         <v>0.56000000000000005</v>
@@ -6102,13 +6102,13 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>332</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B172" s="2" t="s">
-        <v>334</v>
-      </c>
       <c r="C172" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D172" s="5">
         <v>0.83</v>
@@ -6131,7 +6131,7 @@
         <v>136</v>
       </c>
       <c r="C173" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D173" s="5">
         <v>0.53</v>
@@ -6148,13 +6148,13 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>334</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B174" s="2" t="s">
-        <v>336</v>
-      </c>
       <c r="C174" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D174" s="5">
         <v>0.89</v>
@@ -6174,13 +6174,13 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>336</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B175" s="2" t="s">
-        <v>338</v>
-      </c>
       <c r="C175" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D175" s="5">
         <v>0.92</v>
@@ -6197,13 +6197,13 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>338</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="C176" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D176" s="5">
         <v>0.89</v>
@@ -6220,13 +6220,13 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>340</v>
+      </c>
+      <c r="B177" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="B177" s="4" t="s">
-        <v>342</v>
-      </c>
       <c r="C177" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D177" s="5">
         <v>0</v>
@@ -6246,13 +6246,13 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>342</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B178" s="2" t="s">
-        <v>344</v>
-      </c>
       <c r="C178" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D178" s="5">
         <v>1</v>
@@ -6272,13 +6272,13 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>344</v>
+      </c>
+      <c r="B179" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="B179" s="3" t="s">
-        <v>346</v>
-      </c>
       <c r="C179" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D179" s="5">
         <v>0.89</v>
@@ -6295,13 +6295,13 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>346</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>348</v>
-      </c>
       <c r="C180" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D180" s="5">
         <v>0.94</v>
@@ -6318,13 +6318,13 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>348</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B181" s="2" t="s">
-        <v>350</v>
-      </c>
       <c r="C181" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D181" s="5">
         <v>0.97</v>
@@ -6344,13 +6344,13 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>350</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>352</v>
-      </c>
       <c r="C182" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D182" s="5">
         <v>0.92</v>
@@ -6370,13 +6370,13 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>352</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>354</v>
-      </c>
       <c r="C183" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D183" s="5">
         <v>0.92</v>
@@ -6396,13 +6396,13 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>354</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>356</v>
-      </c>
       <c r="C184" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D184" s="5">
         <v>0.94</v>
@@ -6419,13 +6419,13 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>356</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B185" s="2" t="s">
-        <v>358</v>
-      </c>
       <c r="C185" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D185" s="5">
         <v>0.94</v>
@@ -6442,13 +6442,13 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>358</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>360</v>
-      </c>
       <c r="C186" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D186" s="5">
         <v>1</v>
@@ -6468,13 +6468,13 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>360</v>
+      </c>
+      <c r="B187" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B187" s="2" t="s">
-        <v>362</v>
-      </c>
       <c r="C187" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D187" s="5">
         <v>0.92</v>
@@ -6491,13 +6491,13 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C188" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D188" s="5">
         <v>0</v>
@@ -6514,13 +6514,13 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>362</v>
+      </c>
+      <c r="B189" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="B189" s="2" t="s">
-        <v>364</v>
-      </c>
       <c r="C189" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D189" s="5">
         <v>0.92</v>
@@ -6540,13 +6540,13 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>364</v>
+      </c>
+      <c r="B190" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="B190" s="4" t="s">
-        <v>366</v>
-      </c>
       <c r="C190" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D190" s="5">
         <v>0</v>
@@ -6563,13 +6563,13 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>366</v>
+      </c>
+      <c r="B191" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B191" s="2" t="s">
-        <v>368</v>
-      </c>
       <c r="C191" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D191" s="5">
         <v>0.67</v>
@@ -6586,13 +6586,13 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
+        <v>368</v>
+      </c>
+      <c r="B192" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B192" s="2" t="s">
-        <v>370</v>
-      </c>
       <c r="C192" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D192" s="5">
         <v>0.69</v>
@@ -6612,13 +6612,13 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>370</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B193" s="2" t="s">
-        <v>372</v>
-      </c>
       <c r="C193" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D193" s="5">
         <v>0.86</v>
@@ -6638,13 +6638,13 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
+        <v>372</v>
+      </c>
+      <c r="B194" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B194" s="2" t="s">
-        <v>374</v>
-      </c>
       <c r="C194" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D194" s="5">
         <v>0.97</v>
@@ -6661,13 +6661,13 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C195" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D195" s="5">
         <v>0.69</v>
@@ -6684,13 +6684,13 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>375</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B196" s="2" t="s">
-        <v>377</v>
-      </c>
       <c r="C196" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D196" s="5">
         <v>0.92</v>
@@ -6707,13 +6707,13 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
+        <v>377</v>
+      </c>
+      <c r="B197" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B197" s="2" t="s">
-        <v>379</v>
-      </c>
       <c r="C197" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D197" s="5">
         <v>0.97</v>
@@ -6736,13 +6736,13 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
+        <v>379</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B198" s="2" t="s">
-        <v>381</v>
-      </c>
       <c r="C198" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D198" s="5">
         <v>0.81</v>
@@ -6759,13 +6759,13 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
+        <v>381</v>
+      </c>
+      <c r="B199" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="B199" s="3" t="s">
-        <v>383</v>
-      </c>
       <c r="C199" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D199" s="5">
         <v>0.89</v>
@@ -6782,13 +6782,13 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
+        <v>383</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B200" s="2" t="s">
-        <v>385</v>
-      </c>
       <c r="C200" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D200" s="5">
         <v>0.83</v>
@@ -6808,13 +6808,13 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>385</v>
+      </c>
+      <c r="B201" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="B201" s="2" t="s">
-        <v>387</v>
-      </c>
       <c r="C201" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D201" s="5">
         <v>0.78</v>
@@ -6834,13 +6834,13 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
+        <v>387</v>
+      </c>
+      <c r="B202" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B202" s="2" t="s">
-        <v>389</v>
-      </c>
       <c r="C202" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D202" s="5">
         <v>0.78</v>
@@ -6857,13 +6857,13 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
+        <v>389</v>
+      </c>
+      <c r="B203" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B203" s="2" t="s">
-        <v>391</v>
-      </c>
       <c r="C203" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D203" s="5">
         <v>0.97</v>
@@ -6886,13 +6886,13 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>391</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B204" s="2" t="s">
-        <v>393</v>
-      </c>
       <c r="C204" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D204" s="5">
         <v>0.81</v>
@@ -6909,13 +6909,13 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>458</v>
+      </c>
+      <c r="B205" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B205" s="2" t="s">
-        <v>460</v>
-      </c>
       <c r="C205" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D205" s="5">
         <v>0</v>
@@ -6935,13 +6935,13 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>393</v>
+      </c>
+      <c r="B206" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B206" s="2" t="s">
-        <v>395</v>
-      </c>
       <c r="C206" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D206" s="5">
         <v>0.86</v>
@@ -6964,7 +6964,7 @@
         <v>277</v>
       </c>
       <c r="C207" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D207" s="5">
         <v>0.92</v>
@@ -6981,13 +6981,13 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>395</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B208" s="2" t="s">
-        <v>397</v>
-      </c>
       <c r="C208" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D208" s="5">
         <v>0.97</v>
@@ -7010,13 +7010,13 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
+        <v>397</v>
+      </c>
+      <c r="B209" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B209" s="2" t="s">
-        <v>399</v>
-      </c>
       <c r="C209" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D209" s="5">
         <v>0.92</v>
@@ -7036,13 +7036,13 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
+        <v>399</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B210" s="2" t="s">
-        <v>401</v>
-      </c>
       <c r="C210" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D210" s="5">
         <v>0.86</v>
@@ -7062,13 +7062,13 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
+        <v>401</v>
+      </c>
+      <c r="B211" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="B211" s="6" t="s">
-        <v>403</v>
-      </c>
       <c r="C211" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D211" s="5">
         <v>0.94</v>
@@ -7085,13 +7085,13 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
+        <v>403</v>
+      </c>
+      <c r="B212" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B212" s="2" t="s">
-        <v>405</v>
-      </c>
       <c r="C212" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D212" s="5">
         <v>0.97</v>
@@ -7111,13 +7111,13 @@
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>405</v>
+      </c>
+      <c r="B213" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B213" s="2" t="s">
-        <v>407</v>
-      </c>
       <c r="C213" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D213" s="5">
         <v>0.72</v>
@@ -7134,13 +7134,13 @@
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>407</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B214" s="2" t="s">
-        <v>409</v>
-      </c>
       <c r="C214" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D214" s="5">
         <v>0.94</v>
@@ -7157,13 +7157,13 @@
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
+        <v>409</v>
+      </c>
+      <c r="B215" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B215" s="2" t="s">
-        <v>411</v>
-      </c>
       <c r="C215" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D215" s="5">
         <v>0.67</v>
@@ -7183,13 +7183,13 @@
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
+        <v>411</v>
+      </c>
+      <c r="B216" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="B216" s="3" t="s">
-        <v>413</v>
-      </c>
       <c r="C216" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D216" s="5">
         <v>0.72</v>
@@ -7209,13 +7209,13 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
+        <v>413</v>
+      </c>
+      <c r="B217" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B217" s="2" t="s">
-        <v>415</v>
-      </c>
       <c r="C217" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D217" s="5">
         <v>0.83</v>
@@ -7232,13 +7232,13 @@
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
+        <v>415</v>
+      </c>
+      <c r="B218" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B218" s="2" t="s">
-        <v>417</v>
-      </c>
       <c r="C218" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D218" s="5">
         <v>0.97</v>
@@ -7258,13 +7258,13 @@
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
+        <v>417</v>
+      </c>
+      <c r="B219" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B219" s="2" t="s">
-        <v>419</v>
-      </c>
       <c r="C219" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D219" s="5">
         <v>0.92</v>
@@ -7281,13 +7281,13 @@
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
+        <v>419</v>
+      </c>
+      <c r="B220" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B220" s="2" t="s">
-        <v>421</v>
-      </c>
       <c r="C220" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D220" s="5">
         <v>0.97</v>
@@ -7310,13 +7310,13 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
+        <v>421</v>
+      </c>
+      <c r="B221" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B221" s="2" t="s">
-        <v>423</v>
-      </c>
       <c r="C221" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D221" s="5">
         <v>0.86</v>
@@ -7333,13 +7333,13 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
+        <v>423</v>
+      </c>
+      <c r="B222" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="B222" s="2" t="s">
-        <v>425</v>
-      </c>
       <c r="C222" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D222" s="5">
         <v>0.89</v>
@@ -7356,13 +7356,13 @@
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
+        <v>425</v>
+      </c>
+      <c r="B223" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B223" s="2" t="s">
-        <v>427</v>
-      </c>
       <c r="C223" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D223" s="5">
         <v>0.89</v>
@@ -7388,7 +7388,7 @@
         <v>194</v>
       </c>
       <c r="C224" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D224" s="5">
         <v>0.89</v>
@@ -7405,13 +7405,13 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
+        <v>427</v>
+      </c>
+      <c r="B225" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B225" s="2" t="s">
-        <v>429</v>
-      </c>
       <c r="C225" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D225" s="5">
         <v>0.94</v>
@@ -7431,13 +7431,13 @@
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
+        <v>430</v>
+      </c>
+      <c r="B226" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B226" s="2" t="s">
-        <v>432</v>
-      </c>
       <c r="C226" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D226" s="5">
         <v>0.86</v>
@@ -7454,13 +7454,13 @@
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
+        <v>432</v>
+      </c>
+      <c r="B227" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="B227" s="2" t="s">
-        <v>434</v>
-      </c>
       <c r="C227" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D227" s="5">
         <v>0.83</v>
@@ -7480,13 +7480,13 @@
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>434</v>
+      </c>
+      <c r="B228" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="B228" s="3" t="s">
-        <v>436</v>
-      </c>
       <c r="C228" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D228" s="5">
         <v>0.86</v>
@@ -7506,13 +7506,13 @@
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
+        <v>436</v>
+      </c>
+      <c r="B229" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="B229" s="3" t="s">
-        <v>438</v>
-      </c>
       <c r="C229" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D229" s="5">
         <v>0.86</v>

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB76A4F4-DD99-3742-A8DE-4A8DFEFFC891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A1A6FF-2EA9-5F46-AC58-6719D078953D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2540" yWindow="1360" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -1891,8 +1891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="B155" sqref="B155"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="J136" sqref="J136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -5188,7 +5188,7 @@
         <v>0.36</v>
       </c>
       <c r="J135">
-        <v>0</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A1A6FF-2EA9-5F46-AC58-6719D078953D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E2885C-685E-034F-B232-D60EE7CAB00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="1360" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
+    <workbookView xWindow="9120" yWindow="680" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1891,8 +1891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="J136" sqref="J136"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="H189" sqref="H189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -5811,6 +5811,9 @@
       <c r="G159">
         <v>0.55000000000000004</v>
       </c>
+      <c r="H159">
+        <v>0.15</v>
+      </c>
       <c r="J159">
         <v>0.7</v>
       </c>
@@ -5834,6 +5837,9 @@
       <c r="G160">
         <v>0.63</v>
       </c>
+      <c r="H160">
+        <v>0.79</v>
+      </c>
       <c r="J160">
         <v>0.91</v>
       </c>
@@ -5857,6 +5863,9 @@
       <c r="G161">
         <v>0.69</v>
       </c>
+      <c r="H161">
+        <v>0.42</v>
+      </c>
       <c r="J161">
         <v>0.38</v>
       </c>
@@ -5880,6 +5889,9 @@
       <c r="G162">
         <v>0.84</v>
       </c>
+      <c r="H162">
+        <v>0.69</v>
+      </c>
       <c r="J162">
         <v>0.69</v>
       </c>
@@ -5903,6 +5915,9 @@
       <c r="G163">
         <v>0.57999999999999996</v>
       </c>
+      <c r="H163">
+        <v>0.64</v>
+      </c>
       <c r="J163">
         <v>0.7</v>
       </c>
@@ -5926,6 +5941,9 @@
       <c r="G164">
         <v>0.7</v>
       </c>
+      <c r="H164">
+        <v>0.41</v>
+      </c>
       <c r="J164">
         <v>0.81</v>
       </c>
@@ -5949,6 +5967,9 @@
       <c r="G165">
         <v>0.64</v>
       </c>
+      <c r="H165">
+        <v>0.38</v>
+      </c>
       <c r="J165">
         <v>0.46</v>
       </c>
@@ -5998,6 +6019,9 @@
       <c r="G167">
         <v>0.67</v>
       </c>
+      <c r="H167">
+        <v>0.68</v>
+      </c>
       <c r="J167">
         <v>0.72</v>
       </c>
@@ -6073,6 +6097,9 @@
       <c r="G170">
         <v>0.63</v>
       </c>
+      <c r="H170">
+        <v>0.62</v>
+      </c>
       <c r="J170">
         <v>0.72</v>
       </c>
@@ -6096,6 +6123,9 @@
       <c r="G171">
         <v>0.36</v>
       </c>
+      <c r="H171">
+        <v>0.04</v>
+      </c>
       <c r="J171">
         <v>0.87</v>
       </c>
@@ -6119,6 +6149,9 @@
       <c r="G172">
         <v>0.66</v>
       </c>
+      <c r="H172">
+        <v>0.68</v>
+      </c>
       <c r="J172">
         <v>0.38</v>
       </c>
@@ -6142,6 +6175,9 @@
       <c r="G173">
         <v>0.46</v>
       </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
       <c r="J173">
         <v>0.74</v>
       </c>
@@ -6191,6 +6227,9 @@
       <c r="G175">
         <v>0.55000000000000004</v>
       </c>
+      <c r="H175">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="J175">
         <v>0.87</v>
       </c>
@@ -6214,6 +6253,9 @@
       <c r="G176">
         <v>0.56999999999999995</v>
       </c>
+      <c r="H176">
+        <v>0.52</v>
+      </c>
       <c r="J176">
         <v>0.83</v>
       </c>
@@ -6289,6 +6331,9 @@
       <c r="G179">
         <v>0.63</v>
       </c>
+      <c r="H179">
+        <v>0.51</v>
+      </c>
       <c r="J179">
         <v>0.56000000000000005</v>
       </c>
@@ -6312,6 +6357,9 @@
       <c r="G180">
         <v>0.61</v>
       </c>
+      <c r="H180">
+        <v>0.42</v>
+      </c>
       <c r="J180">
         <v>0.7</v>
       </c>
@@ -6413,6 +6461,9 @@
       <c r="G184">
         <v>0.61</v>
       </c>
+      <c r="H184">
+        <v>0.63</v>
+      </c>
       <c r="J184">
         <v>0.81</v>
       </c>
@@ -6436,6 +6487,9 @@
       <c r="G185">
         <v>0.73</v>
       </c>
+      <c r="H185">
+        <v>0.76</v>
+      </c>
       <c r="J185">
         <v>0.81</v>
       </c>
@@ -6485,6 +6539,9 @@
       <c r="G187">
         <v>0.61</v>
       </c>
+      <c r="H187">
+        <v>0.38</v>
+      </c>
       <c r="J187">
         <v>0.56000000000000005</v>
       </c>
@@ -6508,6 +6565,9 @@
       <c r="G188">
         <v>0</v>
       </c>
+      <c r="H188">
+        <v>0.37</v>
+      </c>
       <c r="J188">
         <v>0.7</v>
       </c>
@@ -6557,6 +6617,9 @@
       <c r="G190">
         <v>0.73</v>
       </c>
+      <c r="H190">
+        <v>0.42</v>
+      </c>
       <c r="J190">
         <v>0.91</v>
       </c>
@@ -6580,6 +6643,9 @@
       <c r="G191">
         <v>0.57999999999999996</v>
       </c>
+      <c r="H191">
+        <v>0.37</v>
+      </c>
       <c r="J191">
         <v>0.37</v>
       </c>
@@ -6655,6 +6721,9 @@
       <c r="G194">
         <v>0.64</v>
       </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
       <c r="J194">
         <v>0.85</v>
       </c>
@@ -6678,6 +6747,9 @@
       <c r="G195">
         <v>0.72</v>
       </c>
+      <c r="H195">
+        <v>0.43</v>
+      </c>
       <c r="J195">
         <v>0.72</v>
       </c>
@@ -6701,6 +6773,9 @@
       <c r="G196">
         <v>0.6</v>
       </c>
+      <c r="H196">
+        <v>0.34</v>
+      </c>
       <c r="J196">
         <v>0.48</v>
       </c>
@@ -6753,6 +6828,9 @@
       <c r="G198">
         <v>0.56999999999999995</v>
       </c>
+      <c r="H198">
+        <v>0.26</v>
+      </c>
       <c r="J198">
         <v>0.85</v>
       </c>
@@ -6776,6 +6854,9 @@
       <c r="G199">
         <v>0.57999999999999996</v>
       </c>
+      <c r="H199">
+        <v>0.47</v>
+      </c>
       <c r="J199">
         <v>0.83</v>
       </c>
@@ -6851,6 +6932,9 @@
       <c r="G202">
         <v>0.69</v>
       </c>
+      <c r="H202">
+        <v>0.56999999999999995</v>
+      </c>
       <c r="J202">
         <v>0</v>
       </c>
@@ -6903,6 +6987,9 @@
       <c r="G204">
         <v>0.57999999999999996</v>
       </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
       <c r="J204">
         <v>0.7</v>
       </c>
@@ -6952,6 +7039,9 @@
       <c r="G206">
         <v>0.56999999999999995</v>
       </c>
+      <c r="H206">
+        <v>0.79</v>
+      </c>
       <c r="J206">
         <v>0.87</v>
       </c>
@@ -6975,6 +7065,9 @@
       <c r="G207">
         <v>0.66</v>
       </c>
+      <c r="H207">
+        <v>0.5</v>
+      </c>
       <c r="J207">
         <v>0.38</v>
       </c>
@@ -7079,6 +7172,9 @@
       <c r="G211">
         <v>0.6</v>
       </c>
+      <c r="H211">
+        <v>0.22</v>
+      </c>
       <c r="J211">
         <v>0.72</v>
       </c>
@@ -7102,6 +7198,9 @@
       <c r="G212">
         <v>0.88</v>
       </c>
+      <c r="H212">
+        <v>0.74</v>
+      </c>
       <c r="J212">
         <v>0.85</v>
       </c>
@@ -7128,6 +7227,9 @@
       <c r="G213">
         <v>0.61</v>
       </c>
+      <c r="H213">
+        <v>0.5</v>
+      </c>
       <c r="J213">
         <v>0.85</v>
       </c>
@@ -7151,6 +7253,9 @@
       <c r="G214">
         <v>0.49</v>
       </c>
+      <c r="H214">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="J214">
         <v>0.69</v>
       </c>
@@ -7226,6 +7331,9 @@
       <c r="G217">
         <v>0</v>
       </c>
+      <c r="H217">
+        <v>0</v>
+      </c>
       <c r="J217">
         <v>0.81</v>
       </c>
@@ -7275,6 +7383,9 @@
       <c r="G219">
         <v>0.7</v>
       </c>
+      <c r="H219">
+        <v>0</v>
+      </c>
       <c r="J219">
         <v>0.91</v>
       </c>
@@ -7327,6 +7438,9 @@
       <c r="G221">
         <v>0.75</v>
       </c>
+      <c r="H221">
+        <v>0.44</v>
+      </c>
       <c r="J221">
         <v>0.72</v>
       </c>
@@ -7350,6 +7464,9 @@
       <c r="G222">
         <v>0.78</v>
       </c>
+      <c r="H222">
+        <v>0.68</v>
+      </c>
       <c r="J222">
         <v>0.83</v>
       </c>
@@ -7399,6 +7516,9 @@
       <c r="G224">
         <v>0.31</v>
       </c>
+      <c r="H224">
+        <v>0.41</v>
+      </c>
       <c r="J224">
         <v>0.56000000000000005</v>
       </c>
@@ -7448,6 +7568,9 @@
       <c r="G226">
         <v>0.75</v>
       </c>
+      <c r="H226">
+        <v>0.72</v>
+      </c>
       <c r="J226">
         <v>0.85</v>
       </c>
@@ -7522,6 +7645,9 @@
       </c>
       <c r="G229">
         <v>0.52</v>
+      </c>
+      <c r="H229">
+        <v>0.45</v>
       </c>
       <c r="J229">
         <v>0.56000000000000005</v>

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E2885C-685E-034F-B232-D60EE7CAB00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70636C4F-596E-244A-B5F8-8DA378717A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9120" yWindow="680" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
+    <workbookView xWindow="8580" yWindow="1080" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1891,8 +1891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="H189" sqref="H189"/>
+    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="F230" sqref="F230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1954,6 +1954,9 @@
       <c r="E2">
         <v>0.81</v>
       </c>
+      <c r="F2">
+        <v>0.91</v>
+      </c>
       <c r="G2">
         <v>0.56000000000000005</v>
       </c>
@@ -1980,6 +1983,9 @@
       <c r="E3">
         <v>1</v>
       </c>
+      <c r="F3">
+        <v>0.93</v>
+      </c>
       <c r="G3">
         <v>0.83</v>
       </c>
@@ -2006,6 +2012,9 @@
       <c r="E4">
         <v>0.95</v>
       </c>
+      <c r="F4">
+        <v>0.95</v>
+      </c>
       <c r="G4">
         <v>0.72</v>
       </c>
@@ -2032,6 +2041,9 @@
       <c r="E5">
         <v>0.86</v>
       </c>
+      <c r="F5">
+        <v>0.95</v>
+      </c>
       <c r="G5">
         <v>0.42</v>
       </c>
@@ -2058,6 +2070,9 @@
       <c r="E6">
         <v>0.93</v>
       </c>
+      <c r="F6">
+        <v>0.95</v>
+      </c>
       <c r="G6">
         <v>0.63</v>
       </c>
@@ -2084,6 +2099,9 @@
       <c r="E7">
         <v>0.95</v>
       </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
       <c r="G7">
         <v>0.57999999999999996</v>
       </c>
@@ -2107,6 +2125,9 @@
       <c r="E8">
         <v>0.98</v>
       </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
       <c r="G8">
         <v>0.32</v>
       </c>
@@ -2133,6 +2154,9 @@
       <c r="E9">
         <v>0.93</v>
       </c>
+      <c r="F9">
+        <v>0.91</v>
+      </c>
       <c r="G9">
         <v>0.72</v>
       </c>
@@ -2159,6 +2183,9 @@
       <c r="E10">
         <v>0.84</v>
       </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
       <c r="G10">
         <v>0.56000000000000005</v>
       </c>
@@ -2182,6 +2209,9 @@
       <c r="E11">
         <v>0.93</v>
       </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
       <c r="G11">
         <v>0.77</v>
       </c>
@@ -2208,6 +2238,9 @@
       <c r="E12">
         <v>1</v>
       </c>
+      <c r="F12">
+        <v>0.97</v>
+      </c>
       <c r="G12">
         <v>0.85</v>
       </c>
@@ -2234,6 +2267,9 @@
       <c r="E13">
         <v>1</v>
       </c>
+      <c r="F13">
+        <v>0.91</v>
+      </c>
       <c r="G13">
         <v>0.73</v>
       </c>
@@ -2260,6 +2296,9 @@
       <c r="E14">
         <v>1</v>
       </c>
+      <c r="F14">
+        <v>0.97</v>
+      </c>
       <c r="G14">
         <v>0.62</v>
       </c>
@@ -2283,6 +2322,9 @@
       <c r="E15">
         <v>0.95</v>
       </c>
+      <c r="F15">
+        <v>0.95</v>
+      </c>
       <c r="G15">
         <v>0.56000000000000005</v>
       </c>
@@ -2306,6 +2348,9 @@
       <c r="E16">
         <v>0.95</v>
       </c>
+      <c r="F16">
+        <v>0.97</v>
+      </c>
       <c r="G16">
         <v>0.44</v>
       </c>
@@ -2329,6 +2374,9 @@
       <c r="E17">
         <v>0.98</v>
       </c>
+      <c r="F17">
+        <v>0.96</v>
+      </c>
       <c r="G17">
         <v>0.56000000000000005</v>
       </c>
@@ -2352,6 +2400,9 @@
       <c r="E18">
         <v>0.95</v>
       </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
       <c r="G18">
         <v>0.76</v>
       </c>
@@ -2378,6 +2429,9 @@
       <c r="E19">
         <v>0.95</v>
       </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
       <c r="G19">
         <v>0</v>
       </c>
@@ -2401,6 +2455,9 @@
       <c r="E20">
         <v>0.98</v>
       </c>
+      <c r="F20">
+        <v>0.93</v>
+      </c>
       <c r="G20">
         <v>0.61</v>
       </c>
@@ -2424,6 +2481,9 @@
       <c r="E21">
         <v>0.93</v>
       </c>
+      <c r="F21">
+        <v>0.91</v>
+      </c>
       <c r="G21">
         <v>0.79</v>
       </c>
@@ -2450,6 +2510,9 @@
       <c r="E22">
         <v>0.98</v>
       </c>
+      <c r="F22">
+        <v>0.96</v>
+      </c>
       <c r="G22">
         <v>0.56000000000000005</v>
       </c>
@@ -2476,6 +2539,9 @@
       <c r="E23">
         <v>0.98</v>
       </c>
+      <c r="F23">
+        <v>0.8</v>
+      </c>
       <c r="G23">
         <v>0.76</v>
       </c>
@@ -2502,6 +2568,9 @@
       <c r="E24">
         <v>0.91</v>
       </c>
+      <c r="F24">
+        <v>0.95</v>
+      </c>
       <c r="G24">
         <v>0.55000000000000004</v>
       </c>
@@ -2525,6 +2594,9 @@
       <c r="E25">
         <v>0.95</v>
       </c>
+      <c r="F25">
+        <v>0.86</v>
+      </c>
       <c r="G25">
         <v>0.61</v>
       </c>
@@ -2551,6 +2623,9 @@
       <c r="E26">
         <v>0.95</v>
       </c>
+      <c r="F26">
+        <v>0.85</v>
+      </c>
       <c r="G26">
         <v>0.56000000000000005</v>
       </c>
@@ -2574,6 +2649,9 @@
       <c r="E27">
         <v>0.98</v>
       </c>
+      <c r="F27">
+        <v>0.89</v>
+      </c>
       <c r="G27">
         <v>0.59</v>
       </c>
@@ -2600,6 +2678,9 @@
       <c r="E28">
         <v>0.95</v>
       </c>
+      <c r="F28">
+        <v>0.97</v>
+      </c>
       <c r="G28">
         <v>0.76</v>
       </c>
@@ -2626,6 +2707,9 @@
       <c r="E29">
         <v>0.93</v>
       </c>
+      <c r="F29">
+        <v>0.97</v>
+      </c>
       <c r="G29">
         <v>0.73</v>
       </c>
@@ -2649,6 +2733,9 @@
       <c r="E30">
         <v>0.79</v>
       </c>
+      <c r="F30">
+        <v>0.74</v>
+      </c>
       <c r="G30">
         <v>0.62</v>
       </c>
@@ -2672,6 +2759,9 @@
       <c r="E31">
         <v>0.93</v>
       </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
       <c r="G31">
         <v>0.73</v>
       </c>
@@ -2695,6 +2785,9 @@
       <c r="E32">
         <v>1</v>
       </c>
+      <c r="F32">
+        <v>0.92</v>
+      </c>
       <c r="G32">
         <v>0.52</v>
       </c>
@@ -2721,6 +2814,9 @@
       <c r="E33">
         <v>0.95</v>
       </c>
+      <c r="F33">
+        <v>0.97</v>
+      </c>
       <c r="G33">
         <v>0.37</v>
       </c>
@@ -2747,6 +2843,9 @@
       <c r="E34">
         <v>0.72</v>
       </c>
+      <c r="F34">
+        <v>0.88</v>
+      </c>
       <c r="G34">
         <v>0.52</v>
       </c>
@@ -2770,6 +2869,9 @@
       <c r="E35">
         <v>0.79</v>
       </c>
+      <c r="F35">
+        <v>0.81</v>
+      </c>
       <c r="G35">
         <v>0.82</v>
       </c>
@@ -2793,6 +2895,9 @@
       <c r="E36">
         <v>0.95</v>
       </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
       <c r="G36">
         <v>0.65</v>
       </c>
@@ -2816,6 +2921,9 @@
       <c r="E37">
         <v>0.98</v>
       </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
       <c r="G37">
         <v>0.63</v>
       </c>
@@ -2839,6 +2947,9 @@
       <c r="E38">
         <v>0.98</v>
       </c>
+      <c r="F38">
+        <v>0.92</v>
+      </c>
       <c r="G38">
         <v>0.67</v>
       </c>
@@ -2862,6 +2973,9 @@
       <c r="E39">
         <v>0.93</v>
       </c>
+      <c r="F39">
+        <v>0.95</v>
+      </c>
       <c r="G39">
         <v>0.84</v>
       </c>
@@ -2885,6 +2999,9 @@
       <c r="E40">
         <v>0.86</v>
       </c>
+      <c r="F40">
+        <v>0.93</v>
+      </c>
       <c r="G40">
         <v>0.82</v>
       </c>
@@ -2911,6 +3028,9 @@
       <c r="E41">
         <v>0.95</v>
       </c>
+      <c r="F41">
+        <v>0.91</v>
+      </c>
       <c r="G41">
         <v>0.72</v>
       </c>
@@ -2934,6 +3054,9 @@
       <c r="E42">
         <v>0.98</v>
       </c>
+      <c r="F42">
+        <v>0.96</v>
+      </c>
       <c r="G42">
         <v>0.66</v>
       </c>
@@ -2960,6 +3083,9 @@
       <c r="E43">
         <v>1</v>
       </c>
+      <c r="F43">
+        <v>0.88</v>
+      </c>
       <c r="G43">
         <v>0.8</v>
       </c>
@@ -2986,6 +3112,9 @@
       <c r="E44">
         <v>0.95</v>
       </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
       <c r="G44">
         <v>0.68</v>
       </c>
@@ -3009,6 +3138,9 @@
       <c r="E45">
         <v>0.93</v>
       </c>
+      <c r="F45">
+        <v>0.95</v>
+      </c>
       <c r="G45">
         <v>0.83</v>
       </c>
@@ -3032,6 +3164,9 @@
       <c r="E46">
         <v>1</v>
       </c>
+      <c r="F46">
+        <v>0.88</v>
+      </c>
       <c r="G46">
         <v>0.59</v>
       </c>
@@ -3058,6 +3193,9 @@
       <c r="E47">
         <v>1</v>
       </c>
+      <c r="F47">
+        <v>0.95</v>
+      </c>
       <c r="G47">
         <v>0.61</v>
       </c>
@@ -3081,6 +3219,9 @@
       <c r="E48">
         <v>0.98</v>
       </c>
+      <c r="F48">
+        <v>0.97</v>
+      </c>
       <c r="G48">
         <v>0</v>
       </c>
@@ -3104,6 +3245,9 @@
       <c r="E49">
         <v>0.86</v>
       </c>
+      <c r="F49">
+        <v>0.88</v>
+      </c>
       <c r="G49">
         <v>0.83</v>
       </c>
@@ -3127,6 +3271,9 @@
       <c r="E50">
         <v>0.86</v>
       </c>
+      <c r="F50">
+        <v>0.84</v>
+      </c>
       <c r="G50">
         <v>0.45</v>
       </c>
@@ -3150,6 +3297,9 @@
       <c r="E51">
         <v>0.98</v>
       </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
       <c r="G51">
         <v>0.8</v>
       </c>
@@ -3176,6 +3326,9 @@
       <c r="E52">
         <v>0.98</v>
       </c>
+      <c r="F52">
+        <v>0.92</v>
+      </c>
       <c r="G52">
         <v>0.63</v>
       </c>
@@ -3199,6 +3352,9 @@
       <c r="E53">
         <v>0.81</v>
       </c>
+      <c r="F53">
+        <v>0.95</v>
+      </c>
       <c r="G53">
         <v>0.66</v>
       </c>
@@ -3222,6 +3378,9 @@
       <c r="E54">
         <v>0.93</v>
       </c>
+      <c r="F54">
+        <v>0.93</v>
+      </c>
       <c r="G54">
         <v>0.73</v>
       </c>
@@ -3245,6 +3404,9 @@
       <c r="E55">
         <v>0.98</v>
       </c>
+      <c r="F55">
+        <v>0.96</v>
+      </c>
       <c r="G55">
         <v>0.72</v>
       </c>
@@ -3268,6 +3430,9 @@
       <c r="E56">
         <v>0.86</v>
       </c>
+      <c r="F56">
+        <v>0.93</v>
+      </c>
       <c r="G56">
         <v>0.63</v>
       </c>
@@ -3291,6 +3456,9 @@
       <c r="E57">
         <v>0.93</v>
       </c>
+      <c r="F57">
+        <v>0.97</v>
+      </c>
       <c r="G57">
         <v>0.62</v>
       </c>
@@ -3314,6 +3482,9 @@
       <c r="E58">
         <v>0.98</v>
       </c>
+      <c r="F58">
+        <v>0.85</v>
+      </c>
       <c r="G58">
         <v>0.76</v>
       </c>
@@ -3337,6 +3508,9 @@
       <c r="E59">
         <v>1</v>
       </c>
+      <c r="F59">
+        <v>0.93</v>
+      </c>
       <c r="G59">
         <v>0.55000000000000004</v>
       </c>
@@ -3360,6 +3534,9 @@
       <c r="E60">
         <v>0.91</v>
       </c>
+      <c r="F60">
+        <v>0.91</v>
+      </c>
       <c r="G60">
         <v>0.68</v>
       </c>
@@ -3383,6 +3560,9 @@
       <c r="E61">
         <v>1</v>
       </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
       <c r="G61">
         <v>0.59</v>
       </c>
@@ -3406,6 +3586,9 @@
       <c r="E62">
         <v>0.93</v>
       </c>
+      <c r="F62">
+        <v>0.95</v>
+      </c>
       <c r="G62">
         <v>0.56000000000000005</v>
       </c>
@@ -3429,6 +3612,9 @@
       <c r="E63">
         <v>1</v>
       </c>
+      <c r="F63">
+        <v>0.93</v>
+      </c>
       <c r="G63">
         <v>0.44</v>
       </c>
@@ -3452,6 +3638,9 @@
       <c r="E64">
         <v>1</v>
       </c>
+      <c r="F64">
+        <v>0.86</v>
+      </c>
       <c r="G64">
         <v>0.73</v>
       </c>
@@ -3475,6 +3664,9 @@
       <c r="E65">
         <v>1</v>
       </c>
+      <c r="F65">
+        <v>0.91</v>
+      </c>
       <c r="G65">
         <v>0.68</v>
       </c>
@@ -3498,6 +3690,9 @@
       <c r="E66">
         <v>0.79</v>
       </c>
+      <c r="F66">
+        <v>0.82</v>
+      </c>
       <c r="G66">
         <v>0.52</v>
       </c>
@@ -3521,6 +3716,9 @@
       <c r="E67">
         <v>0.98</v>
       </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
       <c r="G67">
         <v>0.65</v>
       </c>
@@ -3544,6 +3742,9 @@
       <c r="E68">
         <v>0.95</v>
       </c>
+      <c r="F68">
+        <v>0.92</v>
+      </c>
       <c r="G68">
         <v>0.44</v>
       </c>
@@ -3567,6 +3768,9 @@
       <c r="E69">
         <v>0.93</v>
       </c>
+      <c r="F69">
+        <v>0.93</v>
+      </c>
       <c r="G69">
         <v>0.56000000000000005</v>
       </c>
@@ -3590,6 +3794,9 @@
       <c r="E70">
         <v>1</v>
       </c>
+      <c r="F70">
+        <v>0.96</v>
+      </c>
       <c r="G70">
         <v>0.61</v>
       </c>
@@ -3613,6 +3820,9 @@
       <c r="E71">
         <v>1</v>
       </c>
+      <c r="F71">
+        <v>0.93</v>
+      </c>
       <c r="G71">
         <v>0.46</v>
       </c>
@@ -3636,6 +3846,9 @@
       <c r="E72">
         <v>0.77</v>
       </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
       <c r="G72">
         <v>0.65</v>
       </c>
@@ -3659,6 +3872,9 @@
       <c r="E73">
         <v>0.95</v>
       </c>
+      <c r="F73">
+        <v>0.72</v>
+      </c>
       <c r="G73">
         <v>0.65</v>
       </c>
@@ -3682,6 +3898,9 @@
       <c r="E74">
         <v>0.95</v>
       </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
       <c r="G74">
         <v>0.66</v>
       </c>
@@ -3705,6 +3924,9 @@
       <c r="E75">
         <v>0.98</v>
       </c>
+      <c r="F75">
+        <v>0.91</v>
+      </c>
       <c r="G75">
         <v>0.7</v>
       </c>
@@ -3728,6 +3950,9 @@
       <c r="E76">
         <v>0.98</v>
       </c>
+      <c r="F76">
+        <v>0.92</v>
+      </c>
       <c r="G76">
         <v>0.68</v>
       </c>
@@ -3751,6 +3976,9 @@
       <c r="E77">
         <v>0</v>
       </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
       <c r="G77">
         <v>0.2</v>
       </c>
@@ -3774,6 +4002,9 @@
       <c r="E78">
         <v>1</v>
       </c>
+      <c r="F78">
+        <v>0.86</v>
+      </c>
       <c r="G78">
         <v>0.75</v>
       </c>
@@ -3797,6 +4028,9 @@
       <c r="E79">
         <v>0.98</v>
       </c>
+      <c r="F79">
+        <v>0.88</v>
+      </c>
       <c r="G79">
         <v>0.82</v>
       </c>
@@ -3820,6 +4054,9 @@
       <c r="E80">
         <v>0.95</v>
       </c>
+      <c r="F80">
+        <v>0.97</v>
+      </c>
       <c r="G80">
         <v>0.73</v>
       </c>
@@ -3843,6 +4080,9 @@
       <c r="E81">
         <v>0.91</v>
       </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
       <c r="G81">
         <v>0.54</v>
       </c>
@@ -3866,6 +4106,9 @@
       <c r="E82">
         <v>0.98</v>
       </c>
+      <c r="F82">
+        <v>0.93</v>
+      </c>
       <c r="G82">
         <v>0.55000000000000004</v>
       </c>
@@ -3889,6 +4132,9 @@
       <c r="E83">
         <v>0.77</v>
       </c>
+      <c r="F83">
+        <v>0.77</v>
+      </c>
       <c r="G83">
         <v>0.38</v>
       </c>
@@ -3912,6 +4158,9 @@
       <c r="E84">
         <v>1</v>
       </c>
+      <c r="F84">
+        <v>0.99</v>
+      </c>
       <c r="G84">
         <v>0.72</v>
       </c>
@@ -3935,6 +4184,9 @@
       <c r="E85">
         <v>0.91</v>
       </c>
+      <c r="F85">
+        <v>0.96</v>
+      </c>
       <c r="G85">
         <v>0.61</v>
       </c>
@@ -3958,6 +4210,9 @@
       <c r="E86">
         <v>0.98</v>
       </c>
+      <c r="F86">
+        <v>0.88</v>
+      </c>
       <c r="G86">
         <v>0.72</v>
       </c>
@@ -3981,6 +4236,9 @@
       <c r="E87">
         <v>0.98</v>
       </c>
+      <c r="F87">
+        <v>0.97</v>
+      </c>
       <c r="G87">
         <v>0.62</v>
       </c>
@@ -4004,6 +4262,9 @@
       <c r="E88">
         <v>0.86</v>
       </c>
+      <c r="F88">
+        <v>0.77</v>
+      </c>
       <c r="G88">
         <v>0.7</v>
       </c>
@@ -4027,6 +4288,9 @@
       <c r="E89">
         <v>0.74</v>
       </c>
+      <c r="F89">
+        <v>0.59</v>
+      </c>
       <c r="G89">
         <v>0.51</v>
       </c>
@@ -4050,6 +4314,9 @@
       <c r="E90">
         <v>0.72</v>
       </c>
+      <c r="F90">
+        <v>0.73</v>
+      </c>
       <c r="G90">
         <v>0.63</v>
       </c>
@@ -4073,6 +4340,9 @@
       <c r="E91">
         <v>0.95</v>
       </c>
+      <c r="F91">
+        <v>0.93</v>
+      </c>
       <c r="G91">
         <v>0.52</v>
       </c>
@@ -4096,6 +4366,9 @@
       <c r="E92">
         <v>0.93</v>
       </c>
+      <c r="F92">
+        <v>0.92</v>
+      </c>
       <c r="G92">
         <v>0.56000000000000005</v>
       </c>
@@ -4119,6 +4392,9 @@
       <c r="E93">
         <v>0.93</v>
       </c>
+      <c r="F93">
+        <v>0.84</v>
+      </c>
       <c r="G93">
         <v>0.62</v>
       </c>
@@ -4142,6 +4418,9 @@
       <c r="E94">
         <v>0.95</v>
       </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
       <c r="G94">
         <v>0.7</v>
       </c>
@@ -4165,6 +4444,9 @@
       <c r="E95">
         <v>0.95</v>
       </c>
+      <c r="F95">
+        <v>0.86</v>
+      </c>
       <c r="G95">
         <v>0.32</v>
       </c>
@@ -4188,6 +4470,9 @@
       <c r="E96">
         <v>0.7</v>
       </c>
+      <c r="F96">
+        <v>0.72</v>
+      </c>
       <c r="G96">
         <v>0.51</v>
       </c>
@@ -4211,6 +4496,9 @@
       <c r="E97">
         <v>0.95</v>
       </c>
+      <c r="F97">
+        <v>0.85</v>
+      </c>
       <c r="G97">
         <v>0.69</v>
       </c>
@@ -4234,6 +4522,9 @@
       <c r="E98">
         <v>1</v>
       </c>
+      <c r="F98">
+        <v>0.92</v>
+      </c>
       <c r="G98">
         <v>0.72</v>
       </c>
@@ -4257,6 +4548,9 @@
       <c r="E99">
         <v>0.95</v>
       </c>
+      <c r="F99">
+        <v>0.77</v>
+      </c>
       <c r="G99">
         <v>0.69</v>
       </c>
@@ -4280,6 +4574,9 @@
       <c r="E100">
         <v>0.91</v>
       </c>
+      <c r="F100">
+        <v>0.86</v>
+      </c>
       <c r="G100">
         <v>0.57999999999999996</v>
       </c>
@@ -4303,6 +4600,9 @@
       <c r="E101">
         <v>0.98</v>
       </c>
+      <c r="F101">
+        <v>0.92</v>
+      </c>
       <c r="G101">
         <v>0.7</v>
       </c>
@@ -4326,6 +4626,9 @@
       <c r="E102">
         <v>0.84</v>
       </c>
+      <c r="F102">
+        <v>0.95</v>
+      </c>
       <c r="G102">
         <v>0.59</v>
       </c>
@@ -4349,6 +4652,9 @@
       <c r="E103">
         <v>0.86</v>
       </c>
+      <c r="F103">
+        <v>0.92</v>
+      </c>
       <c r="G103">
         <v>0.57999999999999996</v>
       </c>
@@ -4375,6 +4681,9 @@
       <c r="E104">
         <v>0.95</v>
       </c>
+      <c r="F104">
+        <v>0.93</v>
+      </c>
       <c r="G104">
         <v>0.51</v>
       </c>
@@ -4401,6 +4710,9 @@
       <c r="E105">
         <v>0.91</v>
       </c>
+      <c r="F105">
+        <v>0.95</v>
+      </c>
       <c r="G105">
         <v>0.66</v>
       </c>
@@ -4427,6 +4739,9 @@
       <c r="E106">
         <v>0.86</v>
       </c>
+      <c r="F106">
+        <v>0.91</v>
+      </c>
       <c r="G106">
         <v>0.54</v>
       </c>
@@ -4453,6 +4768,9 @@
       <c r="E107">
         <v>0.95</v>
       </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
       <c r="G107">
         <v>0.43</v>
       </c>
@@ -4479,6 +4797,9 @@
       <c r="E108">
         <v>0.98</v>
       </c>
+      <c r="F108">
+        <v>0.91</v>
+      </c>
       <c r="G108">
         <v>0.56999999999999995</v>
       </c>
@@ -4505,6 +4826,9 @@
       <c r="E109">
         <v>0.88</v>
       </c>
+      <c r="F109">
+        <v>0.96</v>
+      </c>
       <c r="G109">
         <v>0.57999999999999996</v>
       </c>
@@ -4531,6 +4855,9 @@
       <c r="E110">
         <v>0.93</v>
       </c>
+      <c r="F110">
+        <v>0.88</v>
+      </c>
       <c r="G110">
         <v>0.57999999999999996</v>
       </c>
@@ -4557,6 +4884,9 @@
       <c r="E111">
         <v>0.93</v>
       </c>
+      <c r="F111">
+        <v>0.86</v>
+      </c>
       <c r="G111">
         <v>0.56999999999999995</v>
       </c>
@@ -4583,6 +4913,9 @@
       <c r="E112">
         <v>0.84</v>
       </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
       <c r="G112">
         <v>0.56999999999999995</v>
       </c>
@@ -4609,6 +4942,9 @@
       <c r="E113">
         <v>0.98</v>
       </c>
+      <c r="F113">
+        <v>0.81</v>
+      </c>
       <c r="G113">
         <v>0.45</v>
       </c>
@@ -4635,6 +4971,9 @@
       <c r="E114">
         <v>0.88</v>
       </c>
+      <c r="F114">
+        <v>0.93</v>
+      </c>
       <c r="G114">
         <v>0.43</v>
       </c>
@@ -4661,6 +5000,9 @@
       <c r="E115">
         <v>0.93</v>
       </c>
+      <c r="F115">
+        <v>0.91</v>
+      </c>
       <c r="G115">
         <v>0.55000000000000004</v>
       </c>
@@ -4687,6 +5029,9 @@
       <c r="E116">
         <v>0.84</v>
       </c>
+      <c r="F116">
+        <v>0.93</v>
+      </c>
       <c r="G116">
         <v>0.36</v>
       </c>
@@ -4713,6 +5058,9 @@
       <c r="E117">
         <v>0</v>
       </c>
+      <c r="F117">
+        <v>0.64</v>
+      </c>
       <c r="G117">
         <v>0</v>
       </c>
@@ -4739,6 +5087,9 @@
       <c r="E118">
         <v>0</v>
       </c>
+      <c r="F118">
+        <v>0.84</v>
+      </c>
       <c r="G118">
         <v>0</v>
       </c>
@@ -4765,6 +5116,9 @@
       <c r="E119">
         <v>0.93</v>
       </c>
+      <c r="F119">
+        <v>0.91</v>
+      </c>
       <c r="G119">
         <v>0.61</v>
       </c>
@@ -4791,6 +5145,9 @@
       <c r="E120">
         <v>0.81</v>
       </c>
+      <c r="F120">
+        <v>0.78</v>
+      </c>
       <c r="G120">
         <v>0.49</v>
       </c>
@@ -4817,6 +5174,9 @@
       <c r="E121">
         <v>0.93</v>
       </c>
+      <c r="F121">
+        <v>0.96</v>
+      </c>
       <c r="G121">
         <v>0.6</v>
       </c>
@@ -4843,6 +5203,9 @@
       <c r="E122">
         <v>0.88</v>
       </c>
+      <c r="F122">
+        <v>0.97</v>
+      </c>
       <c r="G122">
         <v>0.39</v>
       </c>
@@ -4869,6 +5232,9 @@
       <c r="E123">
         <v>0.72</v>
       </c>
+      <c r="F123">
+        <v>0.88</v>
+      </c>
       <c r="G123">
         <v>0.64</v>
       </c>
@@ -4895,6 +5261,9 @@
       <c r="E124">
         <v>0.91</v>
       </c>
+      <c r="F124">
+        <v>0.66</v>
+      </c>
       <c r="G124">
         <v>0.37</v>
       </c>
@@ -4921,6 +5290,9 @@
       <c r="E125">
         <v>0.86</v>
       </c>
+      <c r="F125">
+        <v>0.96</v>
+      </c>
       <c r="G125">
         <v>0.75</v>
       </c>
@@ -4947,6 +5319,9 @@
       <c r="E126">
         <v>0.98</v>
       </c>
+      <c r="F126">
+        <v>0.93</v>
+      </c>
       <c r="G126">
         <v>0.73</v>
       </c>
@@ -4973,6 +5348,9 @@
       <c r="E127">
         <v>0.93</v>
       </c>
+      <c r="F127">
+        <v>0.93</v>
+      </c>
       <c r="G127">
         <v>0.6</v>
       </c>
@@ -4999,6 +5377,9 @@
       <c r="E128">
         <v>0</v>
       </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
       <c r="G128">
         <v>0</v>
       </c>
@@ -5025,6 +5406,9 @@
       <c r="E129">
         <v>0.88</v>
       </c>
+      <c r="F129">
+        <v>0.85</v>
+      </c>
       <c r="G129">
         <v>0.63</v>
       </c>
@@ -5051,6 +5435,9 @@
       <c r="E130">
         <v>1</v>
       </c>
+      <c r="F130">
+        <v>0.95</v>
+      </c>
       <c r="G130">
         <v>0.57999999999999996</v>
       </c>
@@ -5077,6 +5464,9 @@
       <c r="E131">
         <v>1</v>
       </c>
+      <c r="F131">
+        <v>0.91</v>
+      </c>
       <c r="G131">
         <v>0.57999999999999996</v>
       </c>
@@ -5103,6 +5493,9 @@
       <c r="E132">
         <v>0.93</v>
       </c>
+      <c r="F132">
+        <v>0.92</v>
+      </c>
       <c r="G132">
         <v>0.52</v>
       </c>
@@ -5129,6 +5522,9 @@
       <c r="E133">
         <v>0.57999999999999996</v>
       </c>
+      <c r="F133">
+        <v>0.73</v>
+      </c>
       <c r="G133">
         <v>0.81</v>
       </c>
@@ -5155,6 +5551,9 @@
       <c r="E134">
         <v>0.79</v>
       </c>
+      <c r="F134">
+        <v>0.96</v>
+      </c>
       <c r="G134">
         <v>0.75</v>
       </c>
@@ -5181,6 +5580,9 @@
       <c r="E135">
         <v>0.93</v>
       </c>
+      <c r="F135">
+        <v>0.8</v>
+      </c>
       <c r="G135">
         <v>0.6</v>
       </c>
@@ -5207,6 +5609,9 @@
       <c r="E136">
         <v>1</v>
       </c>
+      <c r="F136">
+        <v>0.7</v>
+      </c>
       <c r="G136">
         <v>0.46</v>
       </c>
@@ -5233,6 +5638,9 @@
       <c r="E137">
         <v>0</v>
       </c>
+      <c r="F137">
+        <v>0.92</v>
+      </c>
       <c r="G137">
         <v>0.66</v>
       </c>
@@ -5259,6 +5667,9 @@
       <c r="E138">
         <v>0.98</v>
       </c>
+      <c r="F138">
+        <v>0.86</v>
+      </c>
       <c r="G138">
         <v>0.57999999999999996</v>
       </c>
@@ -5285,6 +5696,9 @@
       <c r="E139">
         <v>0.7</v>
       </c>
+      <c r="F139">
+        <v>0.62</v>
+      </c>
       <c r="G139">
         <v>0.93</v>
       </c>
@@ -5311,6 +5725,9 @@
       <c r="E140">
         <v>0.95</v>
       </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
       <c r="G140">
         <v>0</v>
       </c>
@@ -5337,6 +5754,9 @@
       <c r="E141">
         <v>0.79</v>
       </c>
+      <c r="F141">
+        <v>0.93</v>
+      </c>
       <c r="G141">
         <v>0.54</v>
       </c>
@@ -5363,6 +5783,9 @@
       <c r="E142">
         <v>0.74</v>
       </c>
+      <c r="F142">
+        <v>0.88</v>
+      </c>
       <c r="G142">
         <v>0.48</v>
       </c>
@@ -5389,6 +5812,9 @@
       <c r="E143">
         <v>0.98</v>
       </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
       <c r="G143">
         <v>0.79</v>
       </c>
@@ -5418,6 +5844,9 @@
       <c r="E144">
         <v>0.93</v>
       </c>
+      <c r="F144">
+        <v>0.95</v>
+      </c>
       <c r="G144">
         <v>0.78</v>
       </c>
@@ -5444,6 +5873,9 @@
       <c r="E145">
         <v>0.95</v>
       </c>
+      <c r="F145">
+        <v>0.95</v>
+      </c>
       <c r="G145">
         <v>0.56999999999999995</v>
       </c>
@@ -5470,6 +5902,9 @@
       <c r="E146">
         <v>0.93</v>
       </c>
+      <c r="F146">
+        <v>0.96</v>
+      </c>
       <c r="G146">
         <v>0.7</v>
       </c>
@@ -5496,6 +5931,9 @@
       <c r="E147">
         <v>0.95</v>
       </c>
+      <c r="F147">
+        <v>0.96</v>
+      </c>
       <c r="G147">
         <v>0.31</v>
       </c>
@@ -5522,6 +5960,9 @@
       <c r="E148">
         <v>0.88</v>
       </c>
+      <c r="F148">
+        <v>0.92</v>
+      </c>
       <c r="G148">
         <v>0.45</v>
       </c>
@@ -5548,6 +5989,9 @@
       <c r="E149">
         <v>1</v>
       </c>
+      <c r="F149">
+        <v>0.91</v>
+      </c>
       <c r="G149">
         <v>0.6</v>
       </c>
@@ -5574,6 +6018,9 @@
       <c r="E150">
         <v>0.98</v>
       </c>
+      <c r="F150">
+        <v>0.85</v>
+      </c>
       <c r="G150">
         <v>0.51</v>
       </c>
@@ -5600,6 +6047,9 @@
       <c r="E151">
         <v>0.93</v>
       </c>
+      <c r="F151">
+        <v>0.89</v>
+      </c>
       <c r="G151">
         <v>0.64</v>
       </c>
@@ -5626,6 +6076,9 @@
       <c r="E152">
         <v>0.88</v>
       </c>
+      <c r="F152">
+        <v>0.93</v>
+      </c>
       <c r="G152">
         <v>0.73</v>
       </c>
@@ -5652,6 +6105,9 @@
       <c r="E153">
         <v>0.95</v>
       </c>
+      <c r="F153">
+        <v>0.91</v>
+      </c>
       <c r="G153">
         <v>0.66</v>
       </c>
@@ -5678,6 +6134,9 @@
       <c r="E154">
         <v>0.95</v>
       </c>
+      <c r="F154">
+        <v>0.86</v>
+      </c>
       <c r="G154">
         <v>0.73</v>
       </c>
@@ -5704,6 +6163,9 @@
       <c r="E155">
         <v>0.93</v>
       </c>
+      <c r="F155">
+        <v>0.88</v>
+      </c>
       <c r="G155">
         <v>0.72</v>
       </c>
@@ -5730,6 +6192,9 @@
       <c r="E156">
         <v>0.93</v>
       </c>
+      <c r="F156">
+        <v>0.97</v>
+      </c>
       <c r="G156">
         <v>0.64</v>
       </c>
@@ -5756,6 +6221,9 @@
       <c r="E157">
         <v>0.98</v>
       </c>
+      <c r="F157">
+        <v>0.93</v>
+      </c>
       <c r="G157">
         <v>0.43</v>
       </c>
@@ -5782,6 +6250,9 @@
       <c r="E158">
         <v>1</v>
       </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
       <c r="G158">
         <v>0.48</v>
       </c>
@@ -5808,6 +6279,9 @@
       <c r="E159">
         <v>1</v>
       </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
       <c r="G159">
         <v>0.55000000000000004</v>
       </c>
@@ -5834,6 +6308,9 @@
       <c r="E160">
         <v>0.91</v>
       </c>
+      <c r="F160">
+        <v>0.89</v>
+      </c>
       <c r="G160">
         <v>0.63</v>
       </c>
@@ -5860,6 +6337,9 @@
       <c r="E161">
         <v>0.98</v>
       </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
       <c r="G161">
         <v>0.69</v>
       </c>
@@ -5886,6 +6366,9 @@
       <c r="E162">
         <v>0.98</v>
       </c>
+      <c r="F162">
+        <v>0.96</v>
+      </c>
       <c r="G162">
         <v>0.84</v>
       </c>
@@ -5912,6 +6395,9 @@
       <c r="E163">
         <v>0.93</v>
       </c>
+      <c r="F163">
+        <v>0.97</v>
+      </c>
       <c r="G163">
         <v>0.57999999999999996</v>
       </c>
@@ -5938,6 +6424,9 @@
       <c r="E164">
         <v>1</v>
       </c>
+      <c r="F164">
+        <v>0.95</v>
+      </c>
       <c r="G164">
         <v>0.7</v>
       </c>
@@ -5964,6 +6453,9 @@
       <c r="E165">
         <v>0.93</v>
       </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
       <c r="G165">
         <v>0.64</v>
       </c>
@@ -5990,6 +6482,9 @@
       <c r="E166">
         <v>1</v>
       </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
       <c r="G166">
         <v>0.85</v>
       </c>
@@ -6016,6 +6511,9 @@
       <c r="E167">
         <v>0.98</v>
       </c>
+      <c r="F167">
+        <v>1</v>
+      </c>
       <c r="G167">
         <v>0.67</v>
       </c>
@@ -6042,6 +6540,9 @@
       <c r="E168">
         <v>0.95</v>
       </c>
+      <c r="F168">
+        <v>0.97</v>
+      </c>
       <c r="G168">
         <v>0.6</v>
       </c>
@@ -6068,6 +6569,9 @@
       <c r="E169">
         <v>0.91</v>
       </c>
+      <c r="F169">
+        <v>0.82</v>
+      </c>
       <c r="G169">
         <v>0.39</v>
       </c>
@@ -6094,6 +6598,9 @@
       <c r="E170">
         <v>0.98</v>
       </c>
+      <c r="F170">
+        <v>1</v>
+      </c>
       <c r="G170">
         <v>0.63</v>
       </c>
@@ -6120,6 +6627,9 @@
       <c r="E171">
         <v>0.88</v>
       </c>
+      <c r="F171">
+        <v>0.92</v>
+      </c>
       <c r="G171">
         <v>0.36</v>
       </c>
@@ -6146,6 +6656,9 @@
       <c r="E172">
         <v>1</v>
       </c>
+      <c r="F172">
+        <v>0.93</v>
+      </c>
       <c r="G172">
         <v>0.66</v>
       </c>
@@ -6172,6 +6685,9 @@
       <c r="E173">
         <v>0.77</v>
       </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
       <c r="G173">
         <v>0.46</v>
       </c>
@@ -6198,6 +6714,9 @@
       <c r="E174">
         <v>0.98</v>
       </c>
+      <c r="F174">
+        <v>1</v>
+      </c>
       <c r="G174">
         <v>0.7</v>
       </c>
@@ -6224,6 +6743,9 @@
       <c r="E175">
         <v>1</v>
       </c>
+      <c r="F175">
+        <v>1</v>
+      </c>
       <c r="G175">
         <v>0.55000000000000004</v>
       </c>
@@ -6250,6 +6772,9 @@
       <c r="E176">
         <v>1</v>
       </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
       <c r="G176">
         <v>0.56999999999999995</v>
       </c>
@@ -6276,6 +6801,9 @@
       <c r="E177">
         <v>0.95</v>
       </c>
+      <c r="F177">
+        <v>0.97</v>
+      </c>
       <c r="G177">
         <v>0.56999999999999995</v>
       </c>
@@ -6302,6 +6830,9 @@
       <c r="E178">
         <v>0.98</v>
       </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
       <c r="G178">
         <v>0.82</v>
       </c>
@@ -6328,6 +6859,9 @@
       <c r="E179">
         <v>1</v>
       </c>
+      <c r="F179">
+        <v>0.8</v>
+      </c>
       <c r="G179">
         <v>0.63</v>
       </c>
@@ -6354,6 +6888,9 @@
       <c r="E180">
         <v>1</v>
       </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
       <c r="G180">
         <v>0.61</v>
       </c>
@@ -6380,6 +6917,9 @@
       <c r="E181">
         <v>0.91</v>
       </c>
+      <c r="F181">
+        <v>0.86</v>
+      </c>
       <c r="G181">
         <v>0.75</v>
       </c>
@@ -6406,6 +6946,9 @@
       <c r="E182">
         <v>0.93</v>
       </c>
+      <c r="F182">
+        <v>1</v>
+      </c>
       <c r="G182">
         <v>0.64</v>
       </c>
@@ -6432,6 +6975,9 @@
       <c r="E183">
         <v>0.91</v>
       </c>
+      <c r="F183">
+        <v>0.93</v>
+      </c>
       <c r="G183">
         <v>0.63</v>
       </c>
@@ -6458,6 +7004,9 @@
       <c r="E184">
         <v>1</v>
       </c>
+      <c r="F184">
+        <v>1</v>
+      </c>
       <c r="G184">
         <v>0.61</v>
       </c>
@@ -6484,6 +7033,9 @@
       <c r="E185">
         <v>1</v>
       </c>
+      <c r="F185">
+        <v>0.92</v>
+      </c>
       <c r="G185">
         <v>0.73</v>
       </c>
@@ -6510,6 +7062,9 @@
       <c r="E186">
         <v>0.98</v>
       </c>
+      <c r="F186">
+        <v>0.81</v>
+      </c>
       <c r="G186">
         <v>0.51</v>
       </c>
@@ -6536,6 +7091,9 @@
       <c r="E187">
         <v>0.95</v>
       </c>
+      <c r="F187">
+        <v>0.97</v>
+      </c>
       <c r="G187">
         <v>0.61</v>
       </c>
@@ -6562,6 +7120,9 @@
       <c r="E188">
         <v>1</v>
       </c>
+      <c r="F188">
+        <v>0.73</v>
+      </c>
       <c r="G188">
         <v>0</v>
       </c>
@@ -6588,6 +7149,9 @@
       <c r="E189">
         <v>0.95</v>
       </c>
+      <c r="F189">
+        <v>1</v>
+      </c>
       <c r="G189">
         <v>0.79</v>
       </c>
@@ -6614,6 +7178,9 @@
       <c r="E190">
         <v>0.95</v>
       </c>
+      <c r="F190">
+        <v>0.97</v>
+      </c>
       <c r="G190">
         <v>0.73</v>
       </c>
@@ -6640,6 +7207,9 @@
       <c r="E191">
         <v>0</v>
       </c>
+      <c r="F191">
+        <v>0.86</v>
+      </c>
       <c r="G191">
         <v>0.57999999999999996</v>
       </c>
@@ -6666,6 +7236,9 @@
       <c r="E192">
         <v>0.95</v>
       </c>
+      <c r="F192">
+        <v>0.97</v>
+      </c>
       <c r="G192">
         <v>0.49</v>
       </c>
@@ -6692,6 +7265,9 @@
       <c r="E193">
         <v>0.95</v>
       </c>
+      <c r="F193">
+        <v>0.82</v>
+      </c>
       <c r="G193">
         <v>0.63</v>
       </c>
@@ -6718,6 +7294,9 @@
       <c r="E194">
         <v>0.77</v>
       </c>
+      <c r="F194">
+        <v>0.91</v>
+      </c>
       <c r="G194">
         <v>0.64</v>
       </c>
@@ -6744,6 +7323,9 @@
       <c r="E195">
         <v>0.98</v>
       </c>
+      <c r="F195">
+        <v>1</v>
+      </c>
       <c r="G195">
         <v>0.72</v>
       </c>
@@ -6770,6 +7352,9 @@
       <c r="E196">
         <v>0.93</v>
       </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
       <c r="G196">
         <v>0.6</v>
       </c>
@@ -6796,6 +7381,9 @@
       <c r="E197">
         <v>0.91</v>
       </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
       <c r="G197">
         <v>0.83</v>
       </c>
@@ -6825,6 +7413,9 @@
       <c r="E198">
         <v>0.93</v>
       </c>
+      <c r="F198">
+        <v>0.91</v>
+      </c>
       <c r="G198">
         <v>0.56999999999999995</v>
       </c>
@@ -6851,6 +7442,9 @@
       <c r="E199">
         <v>0.98</v>
       </c>
+      <c r="F199">
+        <v>0.89</v>
+      </c>
       <c r="G199">
         <v>0.57999999999999996</v>
       </c>
@@ -6877,6 +7471,9 @@
       <c r="E200">
         <v>0.95</v>
       </c>
+      <c r="F200">
+        <v>1</v>
+      </c>
       <c r="G200">
         <v>0.51</v>
       </c>
@@ -6903,6 +7500,9 @@
       <c r="E201">
         <v>0.93</v>
       </c>
+      <c r="F201">
+        <v>1</v>
+      </c>
       <c r="G201">
         <v>0.43</v>
       </c>
@@ -6929,6 +7529,9 @@
       <c r="E202">
         <v>0.91</v>
       </c>
+      <c r="F202">
+        <v>0.99</v>
+      </c>
       <c r="G202">
         <v>0.69</v>
       </c>
@@ -6955,6 +7558,9 @@
       <c r="E203">
         <v>0.93</v>
       </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
       <c r="G203">
         <v>0.69</v>
       </c>
@@ -6984,11 +7590,14 @@
       <c r="E204">
         <v>0.95</v>
       </c>
+      <c r="F204">
+        <v>0.84</v>
+      </c>
       <c r="G204">
         <v>0.57999999999999996</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="J204">
         <v>0.7</v>
@@ -7010,6 +7619,9 @@
       <c r="E205">
         <v>0.93</v>
       </c>
+      <c r="F205">
+        <v>0.77</v>
+      </c>
       <c r="G205">
         <v>0</v>
       </c>
@@ -7036,6 +7648,9 @@
       <c r="E206">
         <v>0.91</v>
       </c>
+      <c r="F206">
+        <v>0.8</v>
+      </c>
       <c r="G206">
         <v>0.56999999999999995</v>
       </c>
@@ -7062,6 +7677,9 @@
       <c r="E207">
         <v>0.93</v>
       </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
       <c r="G207">
         <v>0.66</v>
       </c>
@@ -7088,6 +7706,9 @@
       <c r="E208">
         <v>0.91</v>
       </c>
+      <c r="F208">
+        <v>1</v>
+      </c>
       <c r="G208">
         <v>0.85</v>
       </c>
@@ -7117,6 +7738,9 @@
       <c r="E209">
         <v>0.95</v>
       </c>
+      <c r="F209">
+        <v>0.95</v>
+      </c>
       <c r="G209">
         <v>0.73</v>
       </c>
@@ -7143,6 +7767,9 @@
       <c r="E210">
         <v>1</v>
       </c>
+      <c r="F210">
+        <v>0.97</v>
+      </c>
       <c r="G210">
         <v>0.79</v>
       </c>
@@ -7169,6 +7796,9 @@
       <c r="E211">
         <v>0.95</v>
       </c>
+      <c r="F211">
+        <v>0.97</v>
+      </c>
       <c r="G211">
         <v>0.6</v>
       </c>
@@ -7195,6 +7825,9 @@
       <c r="E212">
         <v>0.93100000000000005</v>
       </c>
+      <c r="F212">
+        <v>0.97</v>
+      </c>
       <c r="G212">
         <v>0.88</v>
       </c>
@@ -7224,6 +7857,9 @@
       <c r="E213">
         <v>0.98</v>
       </c>
+      <c r="F213">
+        <v>0.8</v>
+      </c>
       <c r="G213">
         <v>0.61</v>
       </c>
@@ -7250,6 +7886,9 @@
       <c r="E214">
         <v>1</v>
       </c>
+      <c r="F214">
+        <v>0.89</v>
+      </c>
       <c r="G214">
         <v>0.49</v>
       </c>
@@ -7276,6 +7915,9 @@
       <c r="E215">
         <v>1</v>
       </c>
+      <c r="F215">
+        <v>0.89</v>
+      </c>
       <c r="G215">
         <v>0.69</v>
       </c>
@@ -7302,6 +7944,9 @@
       <c r="E216">
         <v>1</v>
       </c>
+      <c r="F216">
+        <v>0.85</v>
+      </c>
       <c r="G216">
         <v>0.54</v>
       </c>
@@ -7328,6 +7973,9 @@
       <c r="E217">
         <v>0.98</v>
       </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
       <c r="G217">
         <v>0</v>
       </c>
@@ -7354,6 +8002,9 @@
       <c r="E218">
         <v>0.91</v>
       </c>
+      <c r="F218">
+        <v>1</v>
+      </c>
       <c r="G218">
         <v>0.56999999999999995</v>
       </c>
@@ -7380,6 +8031,9 @@
       <c r="E219">
         <v>0</v>
       </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
       <c r="G219">
         <v>0.7</v>
       </c>
@@ -7406,6 +8060,9 @@
       <c r="E220">
         <v>0.98</v>
       </c>
+      <c r="F220">
+        <v>1</v>
+      </c>
       <c r="G220">
         <v>0.72</v>
       </c>
@@ -7435,6 +8092,9 @@
       <c r="E221">
         <v>0.98</v>
       </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
       <c r="G221">
         <v>0.75</v>
       </c>
@@ -7461,6 +8121,9 @@
       <c r="E222">
         <v>0.93</v>
       </c>
+      <c r="F222">
+        <v>0.89</v>
+      </c>
       <c r="G222">
         <v>0.78</v>
       </c>
@@ -7487,6 +8150,9 @@
       <c r="E223">
         <v>1</v>
       </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
       <c r="G223">
         <v>0.54</v>
       </c>
@@ -7513,6 +8179,9 @@
       <c r="E224">
         <v>1</v>
       </c>
+      <c r="F224">
+        <v>0.88</v>
+      </c>
       <c r="G224">
         <v>0.31</v>
       </c>
@@ -7539,6 +8208,9 @@
       <c r="E225">
         <v>0.91</v>
       </c>
+      <c r="F225">
+        <v>0.81</v>
+      </c>
       <c r="G225">
         <v>0.63</v>
       </c>
@@ -7565,6 +8237,9 @@
       <c r="E226">
         <v>0.74</v>
       </c>
+      <c r="F226">
+        <v>0.85</v>
+      </c>
       <c r="G226">
         <v>0.75</v>
       </c>
@@ -7591,6 +8266,9 @@
       <c r="E227">
         <v>0.91</v>
       </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
       <c r="G227">
         <v>0.48</v>
       </c>
@@ -7617,6 +8295,9 @@
       <c r="E228">
         <v>0.98</v>
       </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
       <c r="G228">
         <v>0.66</v>
       </c>
@@ -7642,6 +8323,9 @@
       </c>
       <c r="E229">
         <v>1</v>
+      </c>
+      <c r="F229">
+        <v>0.93</v>
       </c>
       <c r="G229">
         <v>0.52</v>

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70636C4F-596E-244A-B5F8-8DA378717A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834858F4-822C-6548-8193-35BB72503987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8580" yWindow="1080" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
+    <workbookView xWindow="2940" yWindow="1040" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1891,8 +1891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="F230" sqref="F230"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2517,7 +2517,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="K22">
         <v>0.42</v>
@@ -4830,7 +4830,7 @@
         <v>0.96</v>
       </c>
       <c r="G109">
-        <v>0.57999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -6776,7 +6776,7 @@
         <v>0</v>
       </c>
       <c r="G176">
-        <v>0.56999999999999995</v>
+        <v>0.63</v>
       </c>
       <c r="H176">
         <v>0.52</v>

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834858F4-822C-6548-8193-35BB72503987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BC6A14-2D5E-904D-9C8A-08B0E12A8708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="1040" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -1500,7 +1500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1508,11 +1508,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -1555,13 +1559,13 @@
   </sortState>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{1B9A59CC-67BA-3D4E-8BF2-E846FAA4CCF7}" name="Surname"/>
-    <tableColumn id="2" xr3:uid="{F58DECFD-039A-A04B-8F5C-EAB87EBDF67E}" name="Reg" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{F58DECFD-039A-A04B-8F5C-EAB87EBDF67E}" name="Reg" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{B367B5B8-26A8-004D-8405-A55D6B3FB2B6}" name="Dept"/>
-    <tableColumn id="4" xr3:uid="{248CFFC4-D566-4C47-A784-2D182108B777}" name="Quiz_1" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{248CFFC4-D566-4C47-A784-2D182108B777}" name="Quiz_1" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{4A2A2B68-EF30-7742-9921-AE9C8CB19994}" name="Quiz_2"/>
     <tableColumn id="6" xr3:uid="{F4845CBF-1A2D-6F4D-8189-BDA9FF51FC40}" name="Quiz_3"/>
     <tableColumn id="7" xr3:uid="{C50393AC-DA9E-B244-B444-966939E941DB}" name="Test_1"/>
-    <tableColumn id="8" xr3:uid="{8357C7A6-F90C-A948-931D-7D4829EE9A20}" name="Test_2 "/>
+    <tableColumn id="8" xr3:uid="{8357C7A6-F90C-A948-931D-7D4829EE9A20}" name="Test_2 " dataDxfId="0"/>
     <tableColumn id="9" xr3:uid="{AF37A560-C5F8-4E49-A224-CE84A49E046A}" name="Test_3 "/>
     <tableColumn id="10" xr3:uid="{E7DCE493-9761-F446-9017-EFE5CA173E6F}" name="AS_1"/>
     <tableColumn id="11" xr3:uid="{22CC7E9A-51CA-274B-9C92-B1E8F88F4324}" name="AS_2 "/>
@@ -1891,11 +1895,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="10.7109375" style="5"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1919,7 +1926,7 @@
       <c r="G1" t="s">
         <v>443</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>444</v>
       </c>
       <c r="I1" t="s">
@@ -1960,6 +1967,9 @@
       <c r="G2">
         <v>0.56000000000000005</v>
       </c>
+      <c r="H2" s="7">
+        <v>0.475728155339806</v>
+      </c>
       <c r="J2">
         <v>0.7</v>
       </c>
@@ -1989,6 +1999,9 @@
       <c r="G3">
         <v>0.83</v>
       </c>
+      <c r="H3" s="7">
+        <v>0.60194174757281604</v>
+      </c>
       <c r="J3">
         <v>0</v>
       </c>
@@ -2018,6 +2031,9 @@
       <c r="G4">
         <v>0.72</v>
       </c>
+      <c r="H4" s="7">
+        <v>0.54368932038835005</v>
+      </c>
       <c r="J4">
         <v>0.91</v>
       </c>
@@ -2047,6 +2063,9 @@
       <c r="G5">
         <v>0.42</v>
       </c>
+      <c r="H5" s="7">
+        <v>0.16504854368932001</v>
+      </c>
       <c r="J5">
         <v>0.76</v>
       </c>
@@ -2076,6 +2095,9 @@
       <c r="G6">
         <v>0.63</v>
       </c>
+      <c r="H6" s="7">
+        <v>0.74757281553398103</v>
+      </c>
       <c r="J6">
         <v>0.91</v>
       </c>
@@ -2105,6 +2127,9 @@
       <c r="G7">
         <v>0.57999999999999996</v>
       </c>
+      <c r="H7" s="7">
+        <v>0.65048543689320404</v>
+      </c>
       <c r="J7">
         <v>0.8</v>
       </c>
@@ -2131,6 +2156,9 @@
       <c r="G8">
         <v>0.32</v>
       </c>
+      <c r="H8" s="7">
+        <v>0.40776699029126201</v>
+      </c>
       <c r="J8">
         <v>0</v>
       </c>
@@ -2160,6 +2188,9 @@
       <c r="G9">
         <v>0.72</v>
       </c>
+      <c r="H9" s="7">
+        <v>0.50485436893203905</v>
+      </c>
       <c r="J9">
         <v>0.7</v>
       </c>
@@ -2189,6 +2220,9 @@
       <c r="G10">
         <v>0.56000000000000005</v>
       </c>
+      <c r="H10" s="7">
+        <v>0.30097087378640802</v>
+      </c>
       <c r="J10">
         <v>0.8</v>
       </c>
@@ -2215,6 +2249,9 @@
       <c r="G11">
         <v>0.77</v>
       </c>
+      <c r="H11" s="7">
+        <v>0.93203883495145601</v>
+      </c>
       <c r="J11">
         <v>0.91</v>
       </c>
@@ -2244,6 +2281,9 @@
       <c r="G12">
         <v>0.85</v>
       </c>
+      <c r="H12" s="7">
+        <v>0.85436893203883502</v>
+      </c>
       <c r="J12">
         <v>0.76</v>
       </c>
@@ -2273,6 +2313,9 @@
       <c r="G13">
         <v>0.73</v>
       </c>
+      <c r="H13" s="7">
+        <v>0.61165048543689304</v>
+      </c>
       <c r="J13">
         <v>0.76</v>
       </c>
@@ -2302,6 +2345,9 @@
       <c r="G14">
         <v>0.62</v>
       </c>
+      <c r="H14" s="7">
+        <v>0.57281553398058305</v>
+      </c>
       <c r="J14">
         <v>0.85</v>
       </c>
@@ -2328,6 +2374,9 @@
       <c r="G15">
         <v>0.56000000000000005</v>
       </c>
+      <c r="H15" s="7">
+        <v>0.42718446601941701</v>
+      </c>
       <c r="J15">
         <v>0.39</v>
       </c>
@@ -2354,6 +2403,9 @@
       <c r="G16">
         <v>0.44</v>
       </c>
+      <c r="H16" s="7">
+        <v>0.40776699029126201</v>
+      </c>
       <c r="J16">
         <v>0.85</v>
       </c>
@@ -2380,6 +2432,9 @@
       <c r="G17">
         <v>0.56000000000000005</v>
       </c>
+      <c r="H17" s="7">
+        <v>0.32038834951456302</v>
+      </c>
       <c r="J17">
         <v>0</v>
       </c>
@@ -2406,6 +2461,9 @@
       <c r="G18">
         <v>0.76</v>
       </c>
+      <c r="H18" s="7">
+        <v>0.37864077669902901</v>
+      </c>
       <c r="J18">
         <v>0.7</v>
       </c>
@@ -2435,6 +2493,9 @@
       <c r="G19">
         <v>0</v>
       </c>
+      <c r="H19" s="7">
+        <v>0.35922330097087402</v>
+      </c>
       <c r="J19">
         <v>0</v>
       </c>
@@ -2461,6 +2522,9 @@
       <c r="G20">
         <v>0.61</v>
       </c>
+      <c r="H20" s="7">
+        <v>0.65048543689320404</v>
+      </c>
       <c r="J20">
         <v>0.85</v>
       </c>
@@ -2487,6 +2551,9 @@
       <c r="G21">
         <v>0.79</v>
       </c>
+      <c r="H21" s="7">
+        <v>0.53398058252427205</v>
+      </c>
       <c r="J21">
         <v>0.91</v>
       </c>
@@ -2516,6 +2583,9 @@
       <c r="G22">
         <v>0.56000000000000005</v>
       </c>
+      <c r="H22" s="7">
+        <v>0.466019417475728</v>
+      </c>
       <c r="J22">
         <v>0.7</v>
       </c>
@@ -2545,6 +2615,9 @@
       <c r="G23">
         <v>0.76</v>
       </c>
+      <c r="H23" s="7">
+        <v>0.57281553398058305</v>
+      </c>
       <c r="J23">
         <v>0</v>
       </c>
@@ -2574,6 +2647,9 @@
       <c r="G24">
         <v>0.55000000000000004</v>
       </c>
+      <c r="H24" s="7">
+        <v>0.61165048543689304</v>
+      </c>
       <c r="J24">
         <v>0.81</v>
       </c>
@@ -2600,6 +2676,9 @@
       <c r="G25">
         <v>0.61</v>
       </c>
+      <c r="H25" s="7">
+        <v>0.42718446601941701</v>
+      </c>
       <c r="J25">
         <v>0.91</v>
       </c>
@@ -2629,6 +2708,9 @@
       <c r="G26">
         <v>0.56000000000000005</v>
       </c>
+      <c r="H26" s="7">
+        <v>0.466019417475728</v>
+      </c>
       <c r="J26">
         <v>0.8</v>
       </c>
@@ -2655,6 +2737,9 @@
       <c r="G27">
         <v>0.59</v>
       </c>
+      <c r="H27" s="7">
+        <v>0.50485436893203905</v>
+      </c>
       <c r="J27">
         <v>0</v>
       </c>
@@ -2684,6 +2769,9 @@
       <c r="G28">
         <v>0.76</v>
       </c>
+      <c r="H28" s="7">
+        <v>0.76699029126213603</v>
+      </c>
       <c r="J28">
         <v>0</v>
       </c>
@@ -2713,6 +2801,9 @@
       <c r="G29">
         <v>0.73</v>
       </c>
+      <c r="H29" s="7">
+        <v>0.56310679611650505</v>
+      </c>
       <c r="J29">
         <v>0.89</v>
       </c>
@@ -2739,6 +2830,9 @@
       <c r="G30">
         <v>0.62</v>
       </c>
+      <c r="H30" s="7">
+        <v>0.29126213592233002</v>
+      </c>
       <c r="J30">
         <v>0.81</v>
       </c>
@@ -2765,6 +2859,9 @@
       <c r="G31">
         <v>0.73</v>
       </c>
+      <c r="H31" s="7">
+        <v>0.485436893203883</v>
+      </c>
       <c r="J31">
         <v>0.89</v>
       </c>
@@ -2791,6 +2888,9 @@
       <c r="G32">
         <v>0.52</v>
       </c>
+      <c r="H32" s="7">
+        <v>0.213592233009709</v>
+      </c>
       <c r="J32">
         <v>0</v>
       </c>
@@ -2820,6 +2920,9 @@
       <c r="G33">
         <v>0.37</v>
       </c>
+      <c r="H33" s="7">
+        <v>0.53398058252427205</v>
+      </c>
       <c r="J33">
         <v>0.7</v>
       </c>
@@ -2849,6 +2952,9 @@
       <c r="G34">
         <v>0.52</v>
       </c>
+      <c r="H34" s="7">
+        <v>0.50485436893203905</v>
+      </c>
       <c r="J34">
         <v>0.39</v>
       </c>
@@ -2875,6 +2981,9 @@
       <c r="G35">
         <v>0.82</v>
       </c>
+      <c r="H35" s="7">
+        <v>0.66019417475728204</v>
+      </c>
       <c r="J35">
         <v>0</v>
       </c>
@@ -2901,6 +3010,9 @@
       <c r="G36">
         <v>0.65</v>
       </c>
+      <c r="H36" s="7">
+        <v>0.61165048543689304</v>
+      </c>
       <c r="J36">
         <v>0.8</v>
       </c>
@@ -2927,6 +3039,9 @@
       <c r="G37">
         <v>0.63</v>
       </c>
+      <c r="H37" s="7">
+        <v>0.27184466019417503</v>
+      </c>
       <c r="J37">
         <v>0.5</v>
       </c>
@@ -2953,6 +3068,9 @@
       <c r="G38">
         <v>0.67</v>
       </c>
+      <c r="H38" s="7">
+        <v>0.55339805825242705</v>
+      </c>
       <c r="J38">
         <v>0.39</v>
       </c>
@@ -2979,6 +3097,9 @@
       <c r="G39">
         <v>0.84</v>
       </c>
+      <c r="H39" s="7">
+        <v>0.85436893203883502</v>
+      </c>
       <c r="J39">
         <v>0.81</v>
       </c>
@@ -3005,6 +3126,9 @@
       <c r="G40">
         <v>0.82</v>
       </c>
+      <c r="H40" s="7">
+        <v>0.84466019417475702</v>
+      </c>
       <c r="J40">
         <v>0.7</v>
       </c>
@@ -3034,6 +3158,9 @@
       <c r="G41">
         <v>0.72</v>
       </c>
+      <c r="H41" s="7">
+        <v>0.66990291262135904</v>
+      </c>
       <c r="J41">
         <v>0.81</v>
       </c>
@@ -3060,6 +3187,9 @@
       <c r="G42">
         <v>0.66</v>
       </c>
+      <c r="H42" s="7">
+        <v>0.63106796116504904</v>
+      </c>
       <c r="J42">
         <v>0.76</v>
       </c>
@@ -3089,6 +3219,9 @@
       <c r="G43">
         <v>0.8</v>
       </c>
+      <c r="H43" s="7">
+        <v>0.61165048543689304</v>
+      </c>
       <c r="J43">
         <v>0.76</v>
       </c>
@@ -3118,6 +3251,9 @@
       <c r="G44">
         <v>0.68</v>
       </c>
+      <c r="H44" s="7">
+        <v>0.68932038834951503</v>
+      </c>
       <c r="J44">
         <v>0.8</v>
       </c>
@@ -3144,6 +3280,9 @@
       <c r="G45">
         <v>0.83</v>
       </c>
+      <c r="H45" s="7">
+        <v>0.69902912621359203</v>
+      </c>
       <c r="J45">
         <v>0.8</v>
       </c>
@@ -3170,6 +3309,9 @@
       <c r="G46">
         <v>0.59</v>
       </c>
+      <c r="H46" s="7">
+        <v>0.70873786407767003</v>
+      </c>
       <c r="J46">
         <v>0.76</v>
       </c>
@@ -3199,6 +3341,9 @@
       <c r="G47">
         <v>0.61</v>
       </c>
+      <c r="H47" s="7">
+        <v>0.69902912621359203</v>
+      </c>
       <c r="J47">
         <v>0.85</v>
       </c>
@@ -3225,6 +3370,9 @@
       <c r="G48">
         <v>0</v>
       </c>
+      <c r="H48" s="7">
+        <v>0.65048543689320404</v>
+      </c>
       <c r="J48">
         <v>0.85</v>
       </c>
@@ -3251,6 +3399,9 @@
       <c r="G49">
         <v>0.83</v>
       </c>
+      <c r="H49" s="7">
+        <v>0.58252427184466005</v>
+      </c>
       <c r="J49">
         <v>0.81</v>
       </c>
@@ -3277,6 +3428,9 @@
       <c r="G50">
         <v>0.45</v>
       </c>
+      <c r="H50" s="7">
+        <v>0</v>
+      </c>
       <c r="J50">
         <v>0.8</v>
       </c>
@@ -3303,6 +3457,9 @@
       <c r="G51">
         <v>0.8</v>
       </c>
+      <c r="H51" s="7">
+        <v>0.77669902912621402</v>
+      </c>
       <c r="J51">
         <v>0.91</v>
       </c>
@@ -3332,6 +3489,9 @@
       <c r="G52">
         <v>0.63</v>
       </c>
+      <c r="H52" s="7">
+        <v>0.65048543689320404</v>
+      </c>
       <c r="J52">
         <v>0.81</v>
       </c>
@@ -3358,6 +3518,9 @@
       <c r="G53">
         <v>0.66</v>
       </c>
+      <c r="H53" s="7">
+        <v>0.53398058252427205</v>
+      </c>
       <c r="J53">
         <v>0.85</v>
       </c>
@@ -3384,6 +3547,9 @@
       <c r="G54">
         <v>0.73</v>
       </c>
+      <c r="H54" s="7">
+        <v>0.84466019417475702</v>
+      </c>
       <c r="J54">
         <v>0.89</v>
       </c>
@@ -4658,7 +4824,7 @@
       <c r="G103">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H103">
+      <c r="H103" s="5">
         <v>0.63</v>
       </c>
       <c r="J103">
@@ -4687,7 +4853,7 @@
       <c r="G104">
         <v>0.51</v>
       </c>
-      <c r="H104">
+      <c r="H104" s="5">
         <v>0.65</v>
       </c>
       <c r="J104">
@@ -4716,7 +4882,7 @@
       <c r="G105">
         <v>0.66</v>
       </c>
-      <c r="H105">
+      <c r="H105" s="5">
         <v>0.68</v>
       </c>
       <c r="J105">
@@ -4745,7 +4911,7 @@
       <c r="G106">
         <v>0.54</v>
       </c>
-      <c r="H106">
+      <c r="H106" s="5">
         <v>0.38</v>
       </c>
       <c r="J106">
@@ -4774,7 +4940,7 @@
       <c r="G107">
         <v>0.43</v>
       </c>
-      <c r="H107">
+      <c r="H107" s="5">
         <v>0.46</v>
       </c>
       <c r="J107">
@@ -4803,7 +4969,7 @@
       <c r="G108">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H108">
+      <c r="H108" s="5">
         <v>0.56999999999999995</v>
       </c>
       <c r="J108">
@@ -4832,7 +4998,7 @@
       <c r="G109">
         <v>0.7</v>
       </c>
-      <c r="H109">
+      <c r="H109" s="5">
         <v>0</v>
       </c>
       <c r="J109">
@@ -4861,7 +5027,7 @@
       <c r="G110">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H110">
+      <c r="H110" s="5">
         <v>0.79</v>
       </c>
       <c r="J110">
@@ -4890,7 +5056,7 @@
       <c r="G111">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H111">
+      <c r="H111" s="5">
         <v>0.37</v>
       </c>
       <c r="J111">
@@ -4919,7 +5085,7 @@
       <c r="G112">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H112">
+      <c r="H112" s="5">
         <v>0.56000000000000005</v>
       </c>
       <c r="J112">
@@ -4948,7 +5114,7 @@
       <c r="G113">
         <v>0.45</v>
       </c>
-      <c r="H113">
+      <c r="H113" s="5">
         <v>0.34</v>
       </c>
       <c r="J113">
@@ -4977,7 +5143,7 @@
       <c r="G114">
         <v>0.43</v>
       </c>
-      <c r="H114">
+      <c r="H114" s="5">
         <v>0</v>
       </c>
       <c r="J114">
@@ -5006,7 +5172,7 @@
       <c r="G115">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H115">
+      <c r="H115" s="5">
         <v>0.52</v>
       </c>
       <c r="J115">
@@ -5035,7 +5201,7 @@
       <c r="G116">
         <v>0.36</v>
       </c>
-      <c r="H116">
+      <c r="H116" s="5">
         <v>0.42</v>
       </c>
       <c r="J116">
@@ -5064,7 +5230,7 @@
       <c r="G117">
         <v>0</v>
       </c>
-      <c r="H117">
+      <c r="H117" s="5">
         <v>0.54</v>
       </c>
       <c r="J117">
@@ -5093,7 +5259,7 @@
       <c r="G118">
         <v>0</v>
       </c>
-      <c r="H118">
+      <c r="H118" s="5">
         <v>0.47</v>
       </c>
       <c r="J118">
@@ -5122,7 +5288,7 @@
       <c r="G119">
         <v>0.61</v>
       </c>
-      <c r="H119">
+      <c r="H119" s="5">
         <v>0.67</v>
       </c>
       <c r="J119">
@@ -5151,7 +5317,7 @@
       <c r="G120">
         <v>0.49</v>
       </c>
-      <c r="H120">
+      <c r="H120" s="5">
         <v>0.52</v>
       </c>
       <c r="J120">
@@ -5180,7 +5346,7 @@
       <c r="G121">
         <v>0.6</v>
       </c>
-      <c r="H121">
+      <c r="H121" s="5">
         <v>0.56999999999999995</v>
       </c>
       <c r="J121">
@@ -5209,7 +5375,7 @@
       <c r="G122">
         <v>0.39</v>
       </c>
-      <c r="H122">
+      <c r="H122" s="5">
         <v>0.44</v>
       </c>
       <c r="J122">
@@ -5238,7 +5404,7 @@
       <c r="G123">
         <v>0.64</v>
       </c>
-      <c r="H123">
+      <c r="H123" s="5">
         <v>0.91</v>
       </c>
       <c r="J123">
@@ -5267,7 +5433,7 @@
       <c r="G124">
         <v>0.37</v>
       </c>
-      <c r="H124">
+      <c r="H124" s="5">
         <v>0.28999999999999998</v>
       </c>
       <c r="J124">
@@ -5296,7 +5462,7 @@
       <c r="G125">
         <v>0.75</v>
       </c>
-      <c r="H125">
+      <c r="H125" s="5">
         <v>0.69</v>
       </c>
       <c r="J125">
@@ -5325,7 +5491,7 @@
       <c r="G126">
         <v>0.73</v>
       </c>
-      <c r="H126">
+      <c r="H126" s="5">
         <v>0.65</v>
       </c>
       <c r="J126">
@@ -5354,7 +5520,7 @@
       <c r="G127">
         <v>0.6</v>
       </c>
-      <c r="H127">
+      <c r="H127" s="5">
         <v>0.52</v>
       </c>
       <c r="J127">
@@ -5383,7 +5549,7 @@
       <c r="G128">
         <v>0</v>
       </c>
-      <c r="H128">
+      <c r="H128" s="5">
         <v>0</v>
       </c>
       <c r="J128">
@@ -5412,7 +5578,7 @@
       <c r="G129">
         <v>0.63</v>
       </c>
-      <c r="H129">
+      <c r="H129" s="5">
         <v>0.59</v>
       </c>
       <c r="J129">
@@ -5441,7 +5607,7 @@
       <c r="G130">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H130">
+      <c r="H130" s="5">
         <v>0.32</v>
       </c>
       <c r="J130">
@@ -5470,7 +5636,7 @@
       <c r="G131">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H131">
+      <c r="H131" s="5">
         <v>0.63</v>
       </c>
       <c r="J131">
@@ -5499,7 +5665,7 @@
       <c r="G132">
         <v>0.52</v>
       </c>
-      <c r="H132">
+      <c r="H132" s="5">
         <v>0.71</v>
       </c>
       <c r="J132">
@@ -5528,7 +5694,7 @@
       <c r="G133">
         <v>0.81</v>
       </c>
-      <c r="H133">
+      <c r="H133" s="5">
         <v>0.84</v>
       </c>
       <c r="J133">
@@ -5557,7 +5723,7 @@
       <c r="G134">
         <v>0.75</v>
       </c>
-      <c r="H134">
+      <c r="H134" s="5">
         <v>0.67</v>
       </c>
       <c r="J134">
@@ -5586,7 +5752,7 @@
       <c r="G135">
         <v>0.6</v>
       </c>
-      <c r="H135">
+      <c r="H135" s="5">
         <v>0.36</v>
       </c>
       <c r="J135">
@@ -5615,7 +5781,7 @@
       <c r="G136">
         <v>0.46</v>
       </c>
-      <c r="H136">
+      <c r="H136" s="5">
         <v>0.66</v>
       </c>
       <c r="J136">
@@ -5644,7 +5810,7 @@
       <c r="G137">
         <v>0.66</v>
       </c>
-      <c r="H137">
+      <c r="H137" s="5">
         <v>0.49</v>
       </c>
       <c r="J137">
@@ -5673,7 +5839,7 @@
       <c r="G138">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H138">
+      <c r="H138" s="5">
         <v>0.42</v>
       </c>
       <c r="J138">
@@ -5702,7 +5868,7 @@
       <c r="G139">
         <v>0.93</v>
       </c>
-      <c r="H139">
+      <c r="H139" s="5">
         <v>0.81</v>
       </c>
       <c r="J139">
@@ -5731,7 +5897,7 @@
       <c r="G140">
         <v>0</v>
       </c>
-      <c r="H140">
+      <c r="H140" s="5">
         <v>0.8</v>
       </c>
       <c r="J140">
@@ -5760,7 +5926,7 @@
       <c r="G141">
         <v>0.54</v>
       </c>
-      <c r="H141">
+      <c r="H141" s="5">
         <v>0.35</v>
       </c>
       <c r="J141">
@@ -5789,7 +5955,7 @@
       <c r="G142">
         <v>0.48</v>
       </c>
-      <c r="H142">
+      <c r="H142" s="5">
         <v>0</v>
       </c>
       <c r="J142">
@@ -5818,7 +5984,7 @@
       <c r="G143">
         <v>0.79</v>
       </c>
-      <c r="H143">
+      <c r="H143" s="5">
         <v>0.77</v>
       </c>
       <c r="J143">
@@ -5850,7 +6016,7 @@
       <c r="G144">
         <v>0.78</v>
       </c>
-      <c r="H144">
+      <c r="H144" s="5">
         <v>0.69</v>
       </c>
       <c r="J144">
@@ -5879,7 +6045,7 @@
       <c r="G145">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H145">
+      <c r="H145" s="5">
         <v>0.63</v>
       </c>
       <c r="J145">
@@ -5908,7 +6074,7 @@
       <c r="G146">
         <v>0.7</v>
       </c>
-      <c r="H146">
+      <c r="H146" s="5">
         <v>0.78</v>
       </c>
       <c r="J146">
@@ -5937,7 +6103,7 @@
       <c r="G147">
         <v>0.31</v>
       </c>
-      <c r="H147">
+      <c r="H147" s="5">
         <v>0.28999999999999998</v>
       </c>
       <c r="J147">
@@ -5966,7 +6132,7 @@
       <c r="G148">
         <v>0.45</v>
       </c>
-      <c r="H148">
+      <c r="H148" s="5">
         <v>0.23</v>
       </c>
       <c r="J148">
@@ -5995,7 +6161,7 @@
       <c r="G149">
         <v>0.6</v>
       </c>
-      <c r="H149">
+      <c r="H149" s="5">
         <v>0.52</v>
       </c>
       <c r="J149">
@@ -6024,7 +6190,7 @@
       <c r="G150">
         <v>0.51</v>
       </c>
-      <c r="H150">
+      <c r="H150" s="5">
         <v>0.59</v>
       </c>
       <c r="J150">
@@ -6053,7 +6219,7 @@
       <c r="G151">
         <v>0.64</v>
       </c>
-      <c r="H151">
+      <c r="H151" s="5">
         <v>0.45</v>
       </c>
       <c r="J151">
@@ -6082,7 +6248,7 @@
       <c r="G152">
         <v>0.73</v>
       </c>
-      <c r="H152">
+      <c r="H152" s="5">
         <v>0.74</v>
       </c>
       <c r="J152">
@@ -6111,7 +6277,7 @@
       <c r="G153">
         <v>0.66</v>
       </c>
-      <c r="H153">
+      <c r="H153" s="5">
         <v>0.73</v>
       </c>
       <c r="J153">
@@ -6140,7 +6306,7 @@
       <c r="G154">
         <v>0.73</v>
       </c>
-      <c r="H154">
+      <c r="H154" s="5">
         <v>0.84</v>
       </c>
       <c r="J154">
@@ -6169,7 +6335,7 @@
       <c r="G155">
         <v>0.72</v>
       </c>
-      <c r="H155">
+      <c r="H155" s="5">
         <v>0.83</v>
       </c>
       <c r="J155">
@@ -6198,7 +6364,7 @@
       <c r="G156">
         <v>0.64</v>
       </c>
-      <c r="H156">
+      <c r="H156" s="5">
         <v>0.51</v>
       </c>
       <c r="J156">
@@ -6227,7 +6393,7 @@
       <c r="G157">
         <v>0.43</v>
       </c>
-      <c r="H157">
+      <c r="H157" s="5">
         <v>0.66</v>
       </c>
       <c r="J157">
@@ -6256,7 +6422,7 @@
       <c r="G158">
         <v>0.48</v>
       </c>
-      <c r="H158">
+      <c r="H158" s="5">
         <v>0</v>
       </c>
       <c r="J158">
@@ -6285,7 +6451,7 @@
       <c r="G159">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H159">
+      <c r="H159" s="5">
         <v>0.15</v>
       </c>
       <c r="J159">
@@ -6314,7 +6480,7 @@
       <c r="G160">
         <v>0.63</v>
       </c>
-      <c r="H160">
+      <c r="H160" s="5">
         <v>0.79</v>
       </c>
       <c r="J160">
@@ -6343,7 +6509,7 @@
       <c r="G161">
         <v>0.69</v>
       </c>
-      <c r="H161">
+      <c r="H161" s="5">
         <v>0.42</v>
       </c>
       <c r="J161">
@@ -6372,7 +6538,7 @@
       <c r="G162">
         <v>0.84</v>
       </c>
-      <c r="H162">
+      <c r="H162" s="5">
         <v>0.69</v>
       </c>
       <c r="J162">
@@ -6401,7 +6567,7 @@
       <c r="G163">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H163">
+      <c r="H163" s="5">
         <v>0.64</v>
       </c>
       <c r="J163">
@@ -6430,7 +6596,7 @@
       <c r="G164">
         <v>0.7</v>
       </c>
-      <c r="H164">
+      <c r="H164" s="5">
         <v>0.41</v>
       </c>
       <c r="J164">
@@ -6459,7 +6625,7 @@
       <c r="G165">
         <v>0.64</v>
       </c>
-      <c r="H165">
+      <c r="H165" s="5">
         <v>0.38</v>
       </c>
       <c r="J165">
@@ -6488,7 +6654,7 @@
       <c r="G166">
         <v>0.85</v>
       </c>
-      <c r="H166">
+      <c r="H166" s="5">
         <v>0.79</v>
       </c>
       <c r="J166">
@@ -6517,7 +6683,7 @@
       <c r="G167">
         <v>0.67</v>
       </c>
-      <c r="H167">
+      <c r="H167" s="5">
         <v>0.68</v>
       </c>
       <c r="J167">
@@ -6546,7 +6712,7 @@
       <c r="G168">
         <v>0.6</v>
       </c>
-      <c r="H168">
+      <c r="H168" s="5">
         <v>0.33</v>
       </c>
       <c r="J168">
@@ -6575,7 +6741,7 @@
       <c r="G169">
         <v>0.39</v>
       </c>
-      <c r="H169">
+      <c r="H169" s="5">
         <v>0.44</v>
       </c>
       <c r="J169">
@@ -6604,7 +6770,7 @@
       <c r="G170">
         <v>0.63</v>
       </c>
-      <c r="H170">
+      <c r="H170" s="5">
         <v>0.62</v>
       </c>
       <c r="J170">
@@ -6633,7 +6799,7 @@
       <c r="G171">
         <v>0.36</v>
       </c>
-      <c r="H171">
+      <c r="H171" s="5">
         <v>0.04</v>
       </c>
       <c r="J171">
@@ -6662,7 +6828,7 @@
       <c r="G172">
         <v>0.66</v>
       </c>
-      <c r="H172">
+      <c r="H172" s="5">
         <v>0.68</v>
       </c>
       <c r="J172">
@@ -6691,7 +6857,7 @@
       <c r="G173">
         <v>0.46</v>
       </c>
-      <c r="H173">
+      <c r="H173" s="5">
         <v>0</v>
       </c>
       <c r="J173">
@@ -6720,7 +6886,7 @@
       <c r="G174">
         <v>0.7</v>
       </c>
-      <c r="H174">
+      <c r="H174" s="5">
         <v>0.78</v>
       </c>
       <c r="J174">
@@ -6749,7 +6915,7 @@
       <c r="G175">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H175">
+      <c r="H175" s="5">
         <v>0.28000000000000003</v>
       </c>
       <c r="J175">
@@ -6778,7 +6944,7 @@
       <c r="G176">
         <v>0.63</v>
       </c>
-      <c r="H176">
+      <c r="H176" s="5">
         <v>0.52</v>
       </c>
       <c r="J176">
@@ -6807,7 +6973,7 @@
       <c r="G177">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H177">
+      <c r="H177" s="5">
         <v>0.56999999999999995</v>
       </c>
       <c r="J177">
@@ -6836,7 +7002,7 @@
       <c r="G178">
         <v>0.82</v>
       </c>
-      <c r="H178">
+      <c r="H178" s="5">
         <v>0.38</v>
       </c>
       <c r="J178">
@@ -6865,7 +7031,7 @@
       <c r="G179">
         <v>0.63</v>
       </c>
-      <c r="H179">
+      <c r="H179" s="5">
         <v>0.51</v>
       </c>
       <c r="J179">
@@ -6894,7 +7060,7 @@
       <c r="G180">
         <v>0.61</v>
       </c>
-      <c r="H180">
+      <c r="H180" s="5">
         <v>0.42</v>
       </c>
       <c r="J180">
@@ -6923,7 +7089,7 @@
       <c r="G181">
         <v>0.75</v>
       </c>
-      <c r="H181">
+      <c r="H181" s="5">
         <v>0.7</v>
       </c>
       <c r="J181">
@@ -6952,7 +7118,7 @@
       <c r="G182">
         <v>0.64</v>
       </c>
-      <c r="H182">
+      <c r="H182" s="5">
         <v>0.55000000000000004</v>
       </c>
       <c r="J182">
@@ -6981,7 +7147,7 @@
       <c r="G183">
         <v>0.63</v>
       </c>
-      <c r="H183">
+      <c r="H183" s="5">
         <v>0.6</v>
       </c>
       <c r="J183">
@@ -7010,7 +7176,7 @@
       <c r="G184">
         <v>0.61</v>
       </c>
-      <c r="H184">
+      <c r="H184" s="5">
         <v>0.63</v>
       </c>
       <c r="J184">
@@ -7039,7 +7205,7 @@
       <c r="G185">
         <v>0.73</v>
       </c>
-      <c r="H185">
+      <c r="H185" s="5">
         <v>0.76</v>
       </c>
       <c r="J185">
@@ -7068,7 +7234,7 @@
       <c r="G186">
         <v>0.51</v>
       </c>
-      <c r="H186">
+      <c r="H186" s="5">
         <v>0.47</v>
       </c>
       <c r="J186">
@@ -7097,7 +7263,7 @@
       <c r="G187">
         <v>0.61</v>
       </c>
-      <c r="H187">
+      <c r="H187" s="5">
         <v>0.38</v>
       </c>
       <c r="J187">
@@ -7126,7 +7292,7 @@
       <c r="G188">
         <v>0</v>
       </c>
-      <c r="H188">
+      <c r="H188" s="5">
         <v>0.37</v>
       </c>
       <c r="J188">
@@ -7155,7 +7321,7 @@
       <c r="G189">
         <v>0.79</v>
       </c>
-      <c r="H189">
+      <c r="H189" s="5">
         <v>0.79</v>
       </c>
       <c r="J189">
@@ -7184,7 +7350,7 @@
       <c r="G190">
         <v>0.73</v>
       </c>
-      <c r="H190">
+      <c r="H190" s="5">
         <v>0.42</v>
       </c>
       <c r="J190">
@@ -7213,7 +7379,7 @@
       <c r="G191">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H191">
+      <c r="H191" s="5">
         <v>0.37</v>
       </c>
       <c r="J191">
@@ -7242,7 +7408,7 @@
       <c r="G192">
         <v>0.49</v>
       </c>
-      <c r="H192">
+      <c r="H192" s="5">
         <v>0.59</v>
       </c>
       <c r="J192">
@@ -7271,7 +7437,7 @@
       <c r="G193">
         <v>0.63</v>
       </c>
-      <c r="H193">
+      <c r="H193" s="5">
         <v>0.41</v>
       </c>
       <c r="J193">
@@ -7300,7 +7466,7 @@
       <c r="G194">
         <v>0.64</v>
       </c>
-      <c r="H194">
+      <c r="H194" s="5">
         <v>0</v>
       </c>
       <c r="J194">
@@ -7329,7 +7495,7 @@
       <c r="G195">
         <v>0.72</v>
       </c>
-      <c r="H195">
+      <c r="H195" s="5">
         <v>0.43</v>
       </c>
       <c r="J195">
@@ -7358,7 +7524,7 @@
       <c r="G196">
         <v>0.6</v>
       </c>
-      <c r="H196">
+      <c r="H196" s="5">
         <v>0.34</v>
       </c>
       <c r="J196">
@@ -7387,7 +7553,7 @@
       <c r="G197">
         <v>0.83</v>
       </c>
-      <c r="H197">
+      <c r="H197" s="5">
         <v>0.84</v>
       </c>
       <c r="J197">
@@ -7419,7 +7585,7 @@
       <c r="G198">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H198">
+      <c r="H198" s="5">
         <v>0.26</v>
       </c>
       <c r="J198">
@@ -7448,7 +7614,7 @@
       <c r="G199">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H199">
+      <c r="H199" s="5">
         <v>0.47</v>
       </c>
       <c r="J199">
@@ -7477,7 +7643,7 @@
       <c r="G200">
         <v>0.51</v>
       </c>
-      <c r="H200">
+      <c r="H200" s="5">
         <v>0.54</v>
       </c>
       <c r="J200">
@@ -7506,7 +7672,7 @@
       <c r="G201">
         <v>0.43</v>
       </c>
-      <c r="H201">
+      <c r="H201" s="5">
         <v>0.42</v>
       </c>
       <c r="J201">
@@ -7535,7 +7701,7 @@
       <c r="G202">
         <v>0.69</v>
       </c>
-      <c r="H202">
+      <c r="H202" s="5">
         <v>0.56999999999999995</v>
       </c>
       <c r="J202">
@@ -7564,7 +7730,7 @@
       <c r="G203">
         <v>0.69</v>
       </c>
-      <c r="H203">
+      <c r="H203" s="5">
         <v>0.52</v>
       </c>
       <c r="J203">
@@ -7596,7 +7762,7 @@
       <c r="G204">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H204">
+      <c r="H204" s="5">
         <v>0.56999999999999995</v>
       </c>
       <c r="J204">
@@ -7625,7 +7791,7 @@
       <c r="G205">
         <v>0</v>
       </c>
-      <c r="H205">
+      <c r="H205" s="5">
         <v>0.45</v>
       </c>
       <c r="J205">
@@ -7654,7 +7820,7 @@
       <c r="G206">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H206">
+      <c r="H206" s="5">
         <v>0.79</v>
       </c>
       <c r="J206">
@@ -7683,7 +7849,7 @@
       <c r="G207">
         <v>0.66</v>
       </c>
-      <c r="H207">
+      <c r="H207" s="5">
         <v>0.5</v>
       </c>
       <c r="J207">
@@ -7712,7 +7878,7 @@
       <c r="G208">
         <v>0.85</v>
       </c>
-      <c r="H208">
+      <c r="H208" s="5">
         <v>0.82</v>
       </c>
       <c r="J208">
@@ -7744,7 +7910,7 @@
       <c r="G209">
         <v>0.73</v>
       </c>
-      <c r="H209">
+      <c r="H209" s="5">
         <v>0.72</v>
       </c>
       <c r="J209">
@@ -7773,7 +7939,7 @@
       <c r="G210">
         <v>0.79</v>
       </c>
-      <c r="H210">
+      <c r="H210" s="5">
         <v>0.63</v>
       </c>
       <c r="J210">
@@ -7802,7 +7968,7 @@
       <c r="G211">
         <v>0.6</v>
       </c>
-      <c r="H211">
+      <c r="H211" s="5">
         <v>0.22</v>
       </c>
       <c r="J211">
@@ -7831,7 +7997,7 @@
       <c r="G212">
         <v>0.88</v>
       </c>
-      <c r="H212">
+      <c r="H212" s="5">
         <v>0.74</v>
       </c>
       <c r="J212">
@@ -7863,7 +8029,7 @@
       <c r="G213">
         <v>0.61</v>
       </c>
-      <c r="H213">
+      <c r="H213" s="5">
         <v>0.5</v>
       </c>
       <c r="J213">
@@ -7892,7 +8058,7 @@
       <c r="G214">
         <v>0.49</v>
       </c>
-      <c r="H214">
+      <c r="H214" s="5">
         <v>0.28000000000000003</v>
       </c>
       <c r="J214">
@@ -7921,7 +8087,7 @@
       <c r="G215">
         <v>0.69</v>
       </c>
-      <c r="H215">
+      <c r="H215" s="5">
         <v>0.43</v>
       </c>
       <c r="J215">
@@ -7950,7 +8116,7 @@
       <c r="G216">
         <v>0.54</v>
       </c>
-      <c r="H216">
+      <c r="H216" s="5">
         <v>0.26</v>
       </c>
       <c r="J216">
@@ -7979,7 +8145,7 @@
       <c r="G217">
         <v>0</v>
       </c>
-      <c r="H217">
+      <c r="H217" s="5">
         <v>0</v>
       </c>
       <c r="J217">
@@ -8008,7 +8174,7 @@
       <c r="G218">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H218">
+      <c r="H218" s="5">
         <v>0.5</v>
       </c>
       <c r="J218">
@@ -8037,7 +8203,7 @@
       <c r="G219">
         <v>0.7</v>
       </c>
-      <c r="H219">
+      <c r="H219" s="5">
         <v>0</v>
       </c>
       <c r="J219">
@@ -8066,7 +8232,7 @@
       <c r="G220">
         <v>0.72</v>
       </c>
-      <c r="H220">
+      <c r="H220" s="5">
         <v>0.54</v>
       </c>
       <c r="J220">
@@ -8098,7 +8264,7 @@
       <c r="G221">
         <v>0.75</v>
       </c>
-      <c r="H221">
+      <c r="H221" s="5">
         <v>0.44</v>
       </c>
       <c r="J221">
@@ -8127,7 +8293,7 @@
       <c r="G222">
         <v>0.78</v>
       </c>
-      <c r="H222">
+      <c r="H222" s="5">
         <v>0.68</v>
       </c>
       <c r="J222">
@@ -8156,7 +8322,7 @@
       <c r="G223">
         <v>0.54</v>
       </c>
-      <c r="H223">
+      <c r="H223" s="5">
         <v>0.54</v>
       </c>
       <c r="J223">
@@ -8185,7 +8351,7 @@
       <c r="G224">
         <v>0.31</v>
       </c>
-      <c r="H224">
+      <c r="H224" s="5">
         <v>0.41</v>
       </c>
       <c r="J224">
@@ -8214,7 +8380,7 @@
       <c r="G225">
         <v>0.63</v>
       </c>
-      <c r="H225">
+      <c r="H225" s="5">
         <v>0.57999999999999996</v>
       </c>
       <c r="J225">
@@ -8243,7 +8409,7 @@
       <c r="G226">
         <v>0.75</v>
       </c>
-      <c r="H226">
+      <c r="H226" s="5">
         <v>0.72</v>
       </c>
       <c r="J226">
@@ -8272,7 +8438,7 @@
       <c r="G227">
         <v>0.48</v>
       </c>
-      <c r="H227">
+      <c r="H227" s="5">
         <v>0.65</v>
       </c>
       <c r="J227">
@@ -8301,7 +8467,7 @@
       <c r="G228">
         <v>0.66</v>
       </c>
-      <c r="H228">
+      <c r="H228" s="5">
         <v>0.36</v>
       </c>
       <c r="J228">
@@ -8330,7 +8496,7 @@
       <c r="G229">
         <v>0.52</v>
       </c>
-      <c r="H229">
+      <c r="H229" s="5">
         <v>0.45</v>
       </c>
       <c r="J229">

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BC6A14-2D5E-904D-9C8A-08B0E12A8708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64F6CED-3A73-6447-942B-FB0B7DAE6F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="1040" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -1895,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="F213" sqref="F213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -7879,7 +7879,7 @@
         <v>0.85</v>
       </c>
       <c r="H208" s="5">
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
       <c r="J208">
         <v>0.46</v>
@@ -7992,13 +7992,13 @@
         <v>0.93100000000000005</v>
       </c>
       <c r="F212">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G212">
         <v>0.88</v>
       </c>
       <c r="H212" s="5">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="J212">
         <v>0.85</v>

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64F6CED-3A73-6447-942B-FB0B7DAE6F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F3BF76-4181-B246-AB97-D3DF3624C853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="1040" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -1895,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="F213" sqref="F213"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="H119" sqref="H119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -5260,7 +5260,7 @@
         <v>0</v>
       </c>
       <c r="H118" s="5">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="J118">
         <v>0</v>

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F3BF76-4181-B246-AB97-D3DF3624C853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA25647-92C9-DD4C-B27B-0078BFFBCB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="1040" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -1427,13 +1427,13 @@
     <t>H250829J</t>
   </si>
   <si>
-    <t xml:space="preserve"> Mvududu</t>
-  </si>
-  <si>
     <t>H250125B</t>
   </si>
   <si>
     <t>H250639J</t>
+  </si>
+  <si>
+    <t>Mvududu</t>
   </si>
 </sst>
 </file>
@@ -1895,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="H119" sqref="H119"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="F160" sqref="F160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -5967,7 +5967,7 @@
         <v>275</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C143" t="s">
         <v>203</v>
@@ -6289,7 +6289,7 @@
         <v>298</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C154" t="s">
         <v>203</v>
@@ -6431,97 +6431,97 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>463</v>
+        <v>307</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>429</v>
+        <v>309</v>
       </c>
       <c r="C159" t="s">
         <v>308</v>
       </c>
       <c r="D159" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="E159">
+        <v>0.91</v>
+      </c>
+      <c r="F159">
         <v>0.89</v>
       </c>
-      <c r="E159">
-        <v>1</v>
-      </c>
-      <c r="F159">
-        <v>0</v>
-      </c>
       <c r="G159">
-        <v>0.55000000000000004</v>
+        <v>0.63</v>
       </c>
       <c r="H159" s="5">
-        <v>0.15</v>
+        <v>0.79</v>
       </c>
       <c r="J159">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C160" t="s">
         <v>308</v>
       </c>
       <c r="D160" s="5">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="E160">
-        <v>0.91</v>
+        <v>0.98</v>
       </c>
       <c r="F160">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="G160">
-        <v>0.63</v>
+        <v>0.69</v>
       </c>
       <c r="H160" s="5">
-        <v>0.79</v>
+        <v>0.42</v>
       </c>
       <c r="J160">
-        <v>0.91</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>310</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>313</v>
       </c>
       <c r="C161" t="s">
         <v>308</v>
       </c>
       <c r="D161" s="5">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="E161">
         <v>0.98</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="G161">
+        <v>0.84</v>
+      </c>
+      <c r="H161" s="5">
         <v>0.69</v>
       </c>
-      <c r="H161" s="5">
-        <v>0.42</v>
-      </c>
       <c r="J161">
-        <v>0.38</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>312</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="C162" t="s">
         <v>308</v>
@@ -6530,190 +6530,190 @@
         <v>0.92</v>
       </c>
       <c r="E162">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="F162">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="G162">
-        <v>0.84</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H162" s="5">
-        <v>0.69</v>
+        <v>0.64</v>
       </c>
       <c r="J162">
-        <v>0.69</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>314</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>317</v>
       </c>
       <c r="C163" t="s">
         <v>308</v>
       </c>
       <c r="D163" s="5">
-        <v>0.92</v>
+        <v>0.81</v>
       </c>
       <c r="E163">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="F163">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="G163">
-        <v>0.57999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="H163" s="5">
-        <v>0.64</v>
+        <v>0.41</v>
       </c>
       <c r="J163">
-        <v>0.7</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>316</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="C164" t="s">
         <v>308</v>
       </c>
       <c r="D164" s="5">
-        <v>0.81</v>
+        <v>0.89</v>
       </c>
       <c r="E164">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="F164">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="G164">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="H164" s="5">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="J164">
-        <v>0.81</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C165" t="s">
         <v>308</v>
       </c>
       <c r="D165" s="5">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="E165">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="F165">
         <v>0</v>
       </c>
       <c r="G165">
-        <v>0.64</v>
+        <v>0.85</v>
       </c>
       <c r="H165" s="5">
-        <v>0.38</v>
+        <v>0.79</v>
       </c>
       <c r="J165">
-        <v>0.46</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C166" t="s">
         <v>308</v>
       </c>
       <c r="D166" s="5">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="E166">
+        <v>0.98</v>
+      </c>
+      <c r="F166">
         <v>1</v>
       </c>
-      <c r="F166">
-        <v>0</v>
-      </c>
       <c r="G166">
-        <v>0.85</v>
+        <v>0.67</v>
       </c>
       <c r="H166" s="5">
-        <v>0.79</v>
+        <v>0.68</v>
       </c>
       <c r="J166">
-        <v>0.93</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C167" t="s">
         <v>308</v>
       </c>
       <c r="D167" s="5">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="E167">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G167">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="H167" s="5">
-        <v>0.68</v>
+        <v>0.33</v>
       </c>
       <c r="J167">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>324</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="C168" t="s">
         <v>308</v>
       </c>
       <c r="D168" s="5">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="E168">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F168">
-        <v>0.97</v>
+        <v>0.82</v>
       </c>
       <c r="G168">
-        <v>0.6</v>
+        <v>0.39</v>
       </c>
       <c r="H168" s="5">
-        <v>0.33</v>
+        <v>0.44</v>
       </c>
       <c r="J168">
         <v>0.7</v>
@@ -6721,10 +6721,10 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>326</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="C169" t="s">
         <v>308</v>
@@ -6733,335 +6733,335 @@
         <v>0.89</v>
       </c>
       <c r="E169">
-        <v>0.91</v>
+        <v>0.98</v>
       </c>
       <c r="F169">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="G169">
-        <v>0.39</v>
+        <v>0.63</v>
       </c>
       <c r="H169" s="5">
-        <v>0.44</v>
+        <v>0.62</v>
       </c>
       <c r="J169">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C170" t="s">
         <v>308</v>
       </c>
       <c r="D170" s="5">
-        <v>0.89</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E170">
-        <v>0.98</v>
+        <v>0.88</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="G170">
-        <v>0.63</v>
+        <v>0.36</v>
       </c>
       <c r="H170" s="5">
-        <v>0.62</v>
+        <v>0.04</v>
       </c>
       <c r="J170">
-        <v>0.72</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C171" t="s">
         <v>308</v>
       </c>
       <c r="D171" s="5">
-        <v>0.56000000000000005</v>
+        <v>0.83</v>
       </c>
       <c r="E171">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="F171">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="G171">
-        <v>0.36</v>
+        <v>0.66</v>
       </c>
       <c r="H171" s="5">
-        <v>0.04</v>
+        <v>0.68</v>
       </c>
       <c r="J171">
-        <v>0.87</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>332</v>
+        <v>135</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>333</v>
+        <v>136</v>
       </c>
       <c r="C172" t="s">
         <v>308</v>
       </c>
       <c r="D172" s="5">
-        <v>0.83</v>
+        <v>0.53</v>
       </c>
       <c r="E172">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="F172">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="G172">
-        <v>0.66</v>
+        <v>0.46</v>
       </c>
       <c r="H172" s="5">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="J172">
-        <v>0.38</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>135</v>
+        <v>334</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>136</v>
+        <v>335</v>
       </c>
       <c r="C173" t="s">
         <v>308</v>
       </c>
       <c r="D173" s="5">
-        <v>0.53</v>
+        <v>0.89</v>
       </c>
       <c r="E173">
-        <v>0.77</v>
+        <v>0.98</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G173">
-        <v>0.46</v>
+        <v>0.7</v>
       </c>
       <c r="H173" s="5">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="J173">
-        <v>0.74</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C174" t="s">
         <v>308</v>
       </c>
       <c r="D174" s="5">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="E174">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="F174">
         <v>1</v>
       </c>
       <c r="G174">
-        <v>0.7</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H174" s="5">
-        <v>0.78</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="J174">
-        <v>0.56000000000000005</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C175" t="s">
         <v>308</v>
       </c>
       <c r="D175" s="5">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="E175">
         <v>1</v>
       </c>
       <c r="F175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G175">
-        <v>0.55000000000000004</v>
+        <v>0.63</v>
       </c>
       <c r="H175" s="5">
-        <v>0.28000000000000003</v>
+        <v>0.52</v>
       </c>
       <c r="J175">
-        <v>0.87</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>338</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="C176" t="s">
         <v>308</v>
       </c>
       <c r="D176" s="5">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="E176">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="G176">
-        <v>0.63</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H176" s="5">
-        <v>0.52</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="J176">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>340</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>343</v>
       </c>
       <c r="C177" t="s">
         <v>308</v>
       </c>
       <c r="D177" s="5">
+        <v>1</v>
+      </c>
+      <c r="E177">
+        <v>0.98</v>
+      </c>
+      <c r="F177">
         <v>0</v>
       </c>
-      <c r="E177">
-        <v>0.95</v>
-      </c>
-      <c r="F177">
-        <v>0.97</v>
-      </c>
       <c r="G177">
-        <v>0.56999999999999995</v>
+        <v>0.82</v>
       </c>
       <c r="H177" s="5">
-        <v>0.56999999999999995</v>
+        <v>0.38</v>
       </c>
       <c r="J177">
-        <v>0.91</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>342</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="C178" t="s">
         <v>308</v>
       </c>
       <c r="D178" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="E178">
         <v>1</v>
       </c>
-      <c r="E178">
-        <v>0.98</v>
-      </c>
       <c r="F178">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G178">
-        <v>0.82</v>
+        <v>0.63</v>
       </c>
       <c r="H178" s="5">
-        <v>0.38</v>
+        <v>0.51</v>
       </c>
       <c r="J178">
-        <v>0.7</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>344</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>347</v>
       </c>
       <c r="C179" t="s">
         <v>308</v>
       </c>
       <c r="D179" s="5">
-        <v>0.89</v>
+        <v>0.94</v>
       </c>
       <c r="E179">
         <v>1</v>
       </c>
       <c r="F179">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="G179">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="H179" s="5">
-        <v>0.51</v>
+        <v>0.42</v>
       </c>
       <c r="J179">
-        <v>0.56000000000000005</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C180" t="s">
         <v>308</v>
       </c>
       <c r="D180" s="5">
-        <v>0.94</v>
+        <v>0.97</v>
       </c>
       <c r="E180">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="G180">
-        <v>0.61</v>
+        <v>0.75</v>
       </c>
       <c r="H180" s="5">
-        <v>0.42</v>
+        <v>0.7</v>
       </c>
       <c r="J180">
         <v>0.7</v>
@@ -7069,28 +7069,28 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C181" t="s">
         <v>308</v>
       </c>
       <c r="D181" s="5">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="E181">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="F181">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="G181">
-        <v>0.75</v>
+        <v>0.64</v>
       </c>
       <c r="H181" s="5">
-        <v>0.7</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J181">
         <v>0.7</v>
@@ -7098,10 +7098,10 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C182" t="s">
         <v>308</v>
@@ -7110,16 +7110,16 @@
         <v>0.92</v>
       </c>
       <c r="E182">
+        <v>0.91</v>
+      </c>
+      <c r="F182">
         <v>0.93</v>
       </c>
-      <c r="F182">
-        <v>1</v>
-      </c>
       <c r="G182">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="H182" s="5">
-        <v>0.55000000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="J182">
         <v>0.7</v>
@@ -7127,39 +7127,39 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C183" t="s">
         <v>308</v>
       </c>
       <c r="D183" s="5">
-        <v>0.92</v>
+        <v>0.94</v>
       </c>
       <c r="E183">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="F183">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="G183">
+        <v>0.61</v>
+      </c>
+      <c r="H183" s="5">
         <v>0.63</v>
       </c>
-      <c r="H183" s="5">
-        <v>0.6</v>
-      </c>
       <c r="J183">
-        <v>0.7</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C184" t="s">
         <v>308</v>
@@ -7171,13 +7171,13 @@
         <v>1</v>
       </c>
       <c r="F184">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="G184">
-        <v>0.61</v>
+        <v>0.73</v>
       </c>
       <c r="H184" s="5">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="J184">
         <v>0.81</v>
@@ -7185,263 +7185,263 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C185" t="s">
         <v>308</v>
       </c>
       <c r="D185" s="5">
-        <v>0.94</v>
+        <v>1</v>
       </c>
       <c r="E185">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="F185">
-        <v>0.92</v>
+        <v>0.81</v>
       </c>
       <c r="G185">
-        <v>0.73</v>
+        <v>0.51</v>
       </c>
       <c r="H185" s="5">
-        <v>0.76</v>
+        <v>0.47</v>
       </c>
       <c r="J185">
-        <v>0.81</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C186" t="s">
         <v>308</v>
       </c>
       <c r="D186" s="5">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="E186">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F186">
-        <v>0.81</v>
+        <v>0.97</v>
       </c>
       <c r="G186">
-        <v>0.51</v>
+        <v>0.61</v>
       </c>
       <c r="H186" s="5">
-        <v>0.47</v>
+        <v>0.38</v>
       </c>
       <c r="J186">
-        <v>0.38</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>360</v>
+        <v>449</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>361</v>
+        <v>448</v>
       </c>
       <c r="C187" t="s">
         <v>308</v>
       </c>
       <c r="D187" s="5">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="E187">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="F187">
-        <v>0.97</v>
+        <v>0.73</v>
       </c>
       <c r="G187">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="H187" s="5">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="J187">
-        <v>0.56000000000000005</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>449</v>
+        <v>362</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>448</v>
+        <v>363</v>
       </c>
       <c r="C188" t="s">
         <v>308</v>
       </c>
       <c r="D188" s="5">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="E188">
+        <v>0.95</v>
+      </c>
+      <c r="F188">
         <v>1</v>
       </c>
-      <c r="F188">
-        <v>0.73</v>
-      </c>
       <c r="G188">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="H188" s="5">
-        <v>0.37</v>
+        <v>0.79</v>
       </c>
       <c r="J188">
-        <v>0.7</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>362</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>365</v>
       </c>
       <c r="C189" t="s">
         <v>308</v>
       </c>
       <c r="D189" s="5">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="E189">
         <v>0.95</v>
       </c>
       <c r="F189">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G189">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="H189" s="5">
-        <v>0.79</v>
+        <v>0.42</v>
       </c>
       <c r="J189">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>364</v>
-      </c>
-      <c r="B190" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>367</v>
       </c>
       <c r="C190" t="s">
         <v>308</v>
       </c>
       <c r="D190" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="E190">
         <v>0</v>
       </c>
-      <c r="E190">
-        <v>0.95</v>
-      </c>
       <c r="F190">
-        <v>0.97</v>
+        <v>0.86</v>
       </c>
       <c r="G190">
-        <v>0.73</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H190" s="5">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
       <c r="J190">
-        <v>0.91</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C191" t="s">
         <v>308</v>
       </c>
       <c r="D191" s="5">
-        <v>0.67</v>
+        <v>0.69</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F191">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
       <c r="G191">
-        <v>0.57999999999999996</v>
+        <v>0.49</v>
       </c>
       <c r="H191" s="5">
-        <v>0.37</v>
+        <v>0.59</v>
       </c>
       <c r="J191">
-        <v>0.37</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C192" t="s">
         <v>308</v>
       </c>
       <c r="D192" s="5">
-        <v>0.69</v>
+        <v>0.86</v>
       </c>
       <c r="E192">
         <v>0.95</v>
       </c>
       <c r="F192">
-        <v>0.97</v>
+        <v>0.82</v>
       </c>
       <c r="G192">
-        <v>0.49</v>
+        <v>0.63</v>
       </c>
       <c r="H192" s="5">
-        <v>0.59</v>
+        <v>0.41</v>
       </c>
       <c r="J192">
-        <v>0.91</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C193" t="s">
         <v>308</v>
       </c>
       <c r="D193" s="5">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
       <c r="E193">
-        <v>0.95</v>
+        <v>0.77</v>
       </c>
       <c r="F193">
-        <v>0.82</v>
+        <v>0.91</v>
       </c>
       <c r="G193">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="H193" s="5">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="J193">
-        <v>0.46</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
@@ -7449,213 +7449,213 @@
         <v>372</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C194" t="s">
         <v>308</v>
       </c>
       <c r="D194" s="5">
-        <v>0.97</v>
+        <v>0.69</v>
       </c>
       <c r="E194">
-        <v>0.77</v>
+        <v>0.98</v>
       </c>
       <c r="F194">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G194">
-        <v>0.64</v>
+        <v>0.72</v>
       </c>
       <c r="H194" s="5">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="J194">
-        <v>0.85</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C195" t="s">
         <v>308</v>
       </c>
       <c r="D195" s="5">
-        <v>0.69</v>
+        <v>0.92</v>
       </c>
       <c r="E195">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="F195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G195">
-        <v>0.72</v>
+        <v>0.6</v>
       </c>
       <c r="H195" s="5">
-        <v>0.43</v>
+        <v>0.34</v>
       </c>
       <c r="J195">
-        <v>0.72</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C196" t="s">
         <v>308</v>
       </c>
       <c r="D196" s="5">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="E196">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="F196">
         <v>0</v>
       </c>
       <c r="G196">
-        <v>0.6</v>
+        <v>0.83</v>
       </c>
       <c r="H196" s="5">
-        <v>0.34</v>
+        <v>0.84</v>
       </c>
       <c r="J196">
-        <v>0.48</v>
+        <v>0.46</v>
+      </c>
+      <c r="K196">
+        <v>0.62</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C197" t="s">
         <v>308</v>
       </c>
       <c r="D197" s="5">
-        <v>0.97</v>
+        <v>0.81</v>
       </c>
       <c r="E197">
+        <v>0.93</v>
+      </c>
+      <c r="F197">
         <v>0.91</v>
       </c>
-      <c r="F197">
-        <v>0</v>
-      </c>
       <c r="G197">
-        <v>0.83</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H197" s="5">
-        <v>0.84</v>
+        <v>0.26</v>
       </c>
       <c r="J197">
-        <v>0.46</v>
-      </c>
-      <c r="K197">
-        <v>0.62</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>379</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>382</v>
       </c>
       <c r="C198" t="s">
         <v>308</v>
       </c>
       <c r="D198" s="5">
-        <v>0.81</v>
+        <v>0.89</v>
       </c>
       <c r="E198">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="F198">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="G198">
-        <v>0.56999999999999995</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H198" s="5">
-        <v>0.26</v>
+        <v>0.47</v>
       </c>
       <c r="J198">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>381</v>
-      </c>
-      <c r="B199" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>384</v>
       </c>
       <c r="C199" t="s">
         <v>308</v>
       </c>
       <c r="D199" s="5">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="E199">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F199">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G199">
-        <v>0.57999999999999996</v>
+        <v>0.51</v>
       </c>
       <c r="H199" s="5">
-        <v>0.47</v>
+        <v>0.54</v>
       </c>
       <c r="J199">
-        <v>0.83</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C200" t="s">
         <v>308</v>
       </c>
       <c r="D200" s="5">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="E200">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F200">
         <v>1</v>
       </c>
       <c r="G200">
-        <v>0.51</v>
+        <v>0.43</v>
       </c>
       <c r="H200" s="5">
-        <v>0.54</v>
+        <v>0.42</v>
       </c>
       <c r="J200">
-        <v>0.72</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C201" t="s">
         <v>308</v>
@@ -7664,315 +7664,315 @@
         <v>0.78</v>
       </c>
       <c r="E201">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="F201">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G201">
-        <v>0.43</v>
+        <v>0.69</v>
       </c>
       <c r="H201" s="5">
-        <v>0.42</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="J201">
-        <v>0.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C202" t="s">
         <v>308</v>
       </c>
       <c r="D202" s="5">
-        <v>0.78</v>
+        <v>0.97</v>
       </c>
       <c r="E202">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="F202">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="G202">
         <v>0.69</v>
       </c>
       <c r="H202" s="5">
-        <v>0.56999999999999995</v>
+        <v>0.52</v>
       </c>
       <c r="J202">
-        <v>0</v>
+        <v>0.69</v>
+      </c>
+      <c r="K202">
+        <v>0.62</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C203" t="s">
         <v>308</v>
       </c>
       <c r="D203" s="5">
-        <v>0.97</v>
+        <v>0.81</v>
       </c>
       <c r="E203">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="G203">
-        <v>0.69</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H203" s="5">
-        <v>0.52</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="J203">
-        <v>0.69</v>
-      </c>
-      <c r="K203">
-        <v>0.62</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>391</v>
+        <v>458</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>392</v>
+        <v>459</v>
       </c>
       <c r="C204" t="s">
         <v>308</v>
       </c>
       <c r="D204" s="5">
-        <v>0.81</v>
+        <v>0</v>
       </c>
       <c r="E204">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F204">
-        <v>0.84</v>
+        <v>0.77</v>
       </c>
       <c r="G204">
-        <v>0.57999999999999996</v>
+        <v>0</v>
       </c>
       <c r="H204" s="5">
-        <v>0.56999999999999995</v>
+        <v>0.45</v>
       </c>
       <c r="J204">
-        <v>0.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>458</v>
+        <v>393</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>459</v>
+        <v>394</v>
       </c>
       <c r="C205" t="s">
         <v>308</v>
       </c>
       <c r="D205" s="5">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="E205">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="F205">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
       <c r="G205">
-        <v>0</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H205" s="5">
-        <v>0.45</v>
+        <v>0.79</v>
       </c>
       <c r="J205">
-        <v>0</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>393</v>
+        <v>276</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>394</v>
+        <v>277</v>
       </c>
       <c r="C206" t="s">
         <v>308</v>
       </c>
       <c r="D206" s="5">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="E206">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="F206">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="G206">
-        <v>0.56999999999999995</v>
+        <v>0.66</v>
       </c>
       <c r="H206" s="5">
-        <v>0.79</v>
+        <v>0.5</v>
       </c>
       <c r="J206">
-        <v>0.87</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>276</v>
+        <v>395</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>277</v>
+        <v>396</v>
       </c>
       <c r="C207" t="s">
         <v>308</v>
       </c>
       <c r="D207" s="5">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="E207">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="F207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G207">
-        <v>0.66</v>
+        <v>0.85</v>
       </c>
       <c r="H207" s="5">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="J207">
-        <v>0.38</v>
+        <v>0.46</v>
+      </c>
+      <c r="K207">
+        <v>0.62</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C208" t="s">
         <v>308</v>
       </c>
       <c r="D208" s="5">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="E208">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="F208">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G208">
-        <v>0.85</v>
+        <v>0.73</v>
       </c>
       <c r="H208" s="5">
-        <v>0.9</v>
+        <v>0.72</v>
       </c>
       <c r="J208">
-        <v>0.46</v>
-      </c>
-      <c r="K208">
-        <v>0.62</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C209" t="s">
         <v>308</v>
       </c>
       <c r="D209" s="5">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="E209">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="F209">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="G209">
-        <v>0.73</v>
+        <v>0.79</v>
       </c>
       <c r="H209" s="5">
-        <v>0.72</v>
+        <v>0.63</v>
       </c>
       <c r="J209">
-        <v>0.69</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>399</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>402</v>
       </c>
       <c r="C210" t="s">
         <v>308</v>
       </c>
       <c r="D210" s="5">
-        <v>0.86</v>
+        <v>0.94</v>
       </c>
       <c r="E210">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="F210">
         <v>0.97</v>
       </c>
       <c r="G210">
-        <v>0.79</v>
+        <v>0.6</v>
       </c>
       <c r="H210" s="5">
-        <v>0.63</v>
+        <v>0.22</v>
       </c>
       <c r="J210">
-        <v>0.83</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>401</v>
-      </c>
-      <c r="B211" s="6" t="s">
-        <v>402</v>
+        <v>465</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>429</v>
       </c>
       <c r="C211" t="s">
         <v>308</v>
       </c>
       <c r="D211" s="5">
-        <v>0.94</v>
+        <v>0.89</v>
       </c>
       <c r="E211">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="F211">
         <v>0.97</v>
       </c>
       <c r="G211">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H211" s="5">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="J211">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA25647-92C9-DD4C-B27B-0078BFFBCB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D084E9F4-8E30-8946-B13E-3F7F32B97489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="1040" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -1895,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="F160" sqref="F160"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -3576,6 +3576,9 @@
       <c r="G55">
         <v>0.72</v>
       </c>
+      <c r="H55" s="5">
+        <v>0.46</v>
+      </c>
       <c r="J55">
         <v>0.76</v>
       </c>
@@ -3602,6 +3605,9 @@
       <c r="G56">
         <v>0.63</v>
       </c>
+      <c r="H56" s="5">
+        <v>0.51</v>
+      </c>
       <c r="J56">
         <v>0.78</v>
       </c>
@@ -3628,6 +3634,9 @@
       <c r="G57">
         <v>0.62</v>
       </c>
+      <c r="H57" s="5">
+        <v>0.61</v>
+      </c>
       <c r="J57">
         <v>0.85</v>
       </c>
@@ -3654,6 +3663,9 @@
       <c r="G58">
         <v>0.76</v>
       </c>
+      <c r="H58" s="5">
+        <v>0.75</v>
+      </c>
       <c r="J58">
         <v>0.76</v>
       </c>
@@ -3680,6 +3692,9 @@
       <c r="G59">
         <v>0.55000000000000004</v>
       </c>
+      <c r="H59" s="5">
+        <v>0.56000000000000005</v>
+      </c>
       <c r="J59">
         <v>0.63</v>
       </c>
@@ -3706,6 +3721,9 @@
       <c r="G60">
         <v>0.68</v>
       </c>
+      <c r="H60" s="5">
+        <v>0.84</v>
+      </c>
       <c r="J60">
         <v>0.78</v>
       </c>
@@ -3732,6 +3750,9 @@
       <c r="G61">
         <v>0.59</v>
       </c>
+      <c r="H61" s="5">
+        <v>0</v>
+      </c>
       <c r="J61">
         <v>0.87</v>
       </c>
@@ -3758,6 +3779,9 @@
       <c r="G62">
         <v>0.56000000000000005</v>
       </c>
+      <c r="H62" s="5">
+        <v>0.7</v>
+      </c>
       <c r="J62">
         <v>0.85</v>
       </c>
@@ -3784,6 +3808,9 @@
       <c r="G63">
         <v>0.44</v>
       </c>
+      <c r="H63" s="5">
+        <v>0.4</v>
+      </c>
       <c r="J63">
         <v>0.63</v>
       </c>
@@ -3810,6 +3837,9 @@
       <c r="G64">
         <v>0.73</v>
       </c>
+      <c r="H64" s="5">
+        <v>0.94</v>
+      </c>
       <c r="J64">
         <v>0.78</v>
       </c>
@@ -3836,6 +3866,9 @@
       <c r="G65">
         <v>0.68</v>
       </c>
+      <c r="H65" s="5">
+        <v>0.43</v>
+      </c>
       <c r="J65">
         <v>0.85</v>
       </c>
@@ -3862,6 +3895,9 @@
       <c r="G66">
         <v>0.52</v>
       </c>
+      <c r="H66" s="5">
+        <v>0.19</v>
+      </c>
       <c r="J66">
         <v>0.74</v>
       </c>
@@ -3888,6 +3924,9 @@
       <c r="G67">
         <v>0.65</v>
       </c>
+      <c r="H67" s="5">
+        <v>0.6</v>
+      </c>
       <c r="J67">
         <v>0.74</v>
       </c>
@@ -3914,6 +3953,9 @@
       <c r="G68">
         <v>0.44</v>
       </c>
+      <c r="H68" s="5">
+        <v>0.56999999999999995</v>
+      </c>
       <c r="J68">
         <v>0.74</v>
       </c>
@@ -3940,6 +3982,9 @@
       <c r="G69">
         <v>0.56000000000000005</v>
       </c>
+      <c r="H69" s="5">
+        <v>0.61</v>
+      </c>
       <c r="J69">
         <v>0.83</v>
       </c>
@@ -3966,6 +4011,9 @@
       <c r="G70">
         <v>0.61</v>
       </c>
+      <c r="H70" s="5">
+        <v>0.64</v>
+      </c>
       <c r="J70">
         <v>0.78</v>
       </c>
@@ -3992,6 +4040,9 @@
       <c r="G71">
         <v>0.46</v>
       </c>
+      <c r="H71" s="5">
+        <v>0.49</v>
+      </c>
       <c r="J71">
         <v>0.76</v>
       </c>
@@ -4018,6 +4069,9 @@
       <c r="G72">
         <v>0.65</v>
       </c>
+      <c r="H72" s="5">
+        <v>0.61</v>
+      </c>
       <c r="J72">
         <v>0.63</v>
       </c>
@@ -4044,6 +4098,9 @@
       <c r="G73">
         <v>0.65</v>
       </c>
+      <c r="H73" s="5">
+        <v>0.3</v>
+      </c>
       <c r="J73">
         <v>0.65</v>
       </c>
@@ -4070,6 +4127,9 @@
       <c r="G74">
         <v>0.66</v>
       </c>
+      <c r="H74" s="5">
+        <v>0.69</v>
+      </c>
       <c r="J74">
         <v>0.85</v>
       </c>
@@ -4096,6 +4156,9 @@
       <c r="G75">
         <v>0.7</v>
       </c>
+      <c r="H75" s="5">
+        <v>0.65</v>
+      </c>
       <c r="J75">
         <v>0.74</v>
       </c>
@@ -4122,6 +4185,9 @@
       <c r="G76">
         <v>0.68</v>
       </c>
+      <c r="H76" s="5">
+        <v>0.53</v>
+      </c>
       <c r="J76">
         <v>0.76</v>
       </c>
@@ -4148,6 +4214,9 @@
       <c r="G77">
         <v>0.2</v>
       </c>
+      <c r="H77" s="5">
+        <v>0</v>
+      </c>
       <c r="J77">
         <v>0.39</v>
       </c>
@@ -4174,6 +4243,9 @@
       <c r="G78">
         <v>0.75</v>
       </c>
+      <c r="H78" s="5">
+        <v>0.73</v>
+      </c>
       <c r="J78">
         <v>0.78</v>
       </c>
@@ -4200,6 +4272,9 @@
       <c r="G79">
         <v>0.82</v>
       </c>
+      <c r="H79" s="5">
+        <v>0.82</v>
+      </c>
       <c r="J79">
         <v>0.74</v>
       </c>
@@ -4226,6 +4301,9 @@
       <c r="G80">
         <v>0.73</v>
       </c>
+      <c r="H80" s="5">
+        <v>0.86</v>
+      </c>
       <c r="J80">
         <v>0.85</v>
       </c>
@@ -4252,6 +4330,9 @@
       <c r="G81">
         <v>0.54</v>
       </c>
+      <c r="H81" s="5">
+        <v>0.69</v>
+      </c>
       <c r="J81">
         <v>0.89</v>
       </c>
@@ -4278,6 +4359,9 @@
       <c r="G82">
         <v>0.55000000000000004</v>
       </c>
+      <c r="H82" s="5">
+        <v>0.68</v>
+      </c>
       <c r="J82">
         <v>0.83</v>
       </c>
@@ -4304,6 +4388,9 @@
       <c r="G83">
         <v>0.38</v>
       </c>
+      <c r="H83" s="5">
+        <v>0.22</v>
+      </c>
       <c r="J83">
         <v>0.65</v>
       </c>
@@ -4330,6 +4417,9 @@
       <c r="G84">
         <v>0.72</v>
       </c>
+      <c r="H84" s="5">
+        <v>0.89</v>
+      </c>
       <c r="J84">
         <v>0.76</v>
       </c>
@@ -4356,6 +4446,9 @@
       <c r="G85">
         <v>0.61</v>
       </c>
+      <c r="H85" s="5">
+        <v>0.63</v>
+      </c>
       <c r="J85">
         <v>0.83</v>
       </c>
@@ -4382,6 +4475,9 @@
       <c r="G86">
         <v>0.72</v>
       </c>
+      <c r="H86" s="5">
+        <v>0.63</v>
+      </c>
       <c r="J86">
         <v>0.74</v>
       </c>
@@ -4408,6 +4504,9 @@
       <c r="G87">
         <v>0.62</v>
       </c>
+      <c r="H87" s="5">
+        <v>0.3</v>
+      </c>
       <c r="J87">
         <v>0.74</v>
       </c>
@@ -4434,6 +4533,9 @@
       <c r="G88">
         <v>0.7</v>
       </c>
+      <c r="H88" s="5">
+        <v>0.57999999999999996</v>
+      </c>
       <c r="J88">
         <v>0.65</v>
       </c>
@@ -4460,6 +4562,9 @@
       <c r="G89">
         <v>0.51</v>
       </c>
+      <c r="H89" s="5">
+        <v>0.32</v>
+      </c>
       <c r="J89">
         <v>0.74</v>
       </c>
@@ -4486,6 +4591,9 @@
       <c r="G90">
         <v>0.63</v>
       </c>
+      <c r="H90" s="5">
+        <v>0.44</v>
+      </c>
       <c r="J90">
         <v>0.74</v>
       </c>
@@ -4512,6 +4620,9 @@
       <c r="G91">
         <v>0.52</v>
       </c>
+      <c r="H91" s="5">
+        <v>0.53</v>
+      </c>
       <c r="J91">
         <v>0.89</v>
       </c>
@@ -4538,6 +4649,9 @@
       <c r="G92">
         <v>0.56000000000000005</v>
       </c>
+      <c r="H92" s="5">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="J92">
         <v>0.63</v>
       </c>
@@ -4564,6 +4678,9 @@
       <c r="G93">
         <v>0.62</v>
       </c>
+      <c r="H93" s="5">
+        <v>0.51</v>
+      </c>
       <c r="J93">
         <v>0.63</v>
       </c>
@@ -4590,6 +4707,9 @@
       <c r="G94">
         <v>0.7</v>
       </c>
+      <c r="H94" s="5">
+        <v>0.66</v>
+      </c>
       <c r="J94">
         <v>0.74</v>
       </c>
@@ -4616,6 +4736,9 @@
       <c r="G95">
         <v>0.32</v>
       </c>
+      <c r="H95" s="5">
+        <v>0.44</v>
+      </c>
       <c r="J95">
         <v>0.65</v>
       </c>
@@ -4642,6 +4765,9 @@
       <c r="G96">
         <v>0.51</v>
       </c>
+      <c r="H96" s="5">
+        <v>0.59</v>
+      </c>
       <c r="J96">
         <v>0.74</v>
       </c>
@@ -4668,6 +4794,9 @@
       <c r="G97">
         <v>0.69</v>
       </c>
+      <c r="H97" s="5">
+        <v>0.84</v>
+      </c>
       <c r="J97">
         <v>0.83</v>
       </c>
@@ -4694,6 +4823,9 @@
       <c r="G98">
         <v>0.72</v>
       </c>
+      <c r="H98" s="5">
+        <v>0.66</v>
+      </c>
       <c r="J98">
         <v>0.83</v>
       </c>
@@ -4720,6 +4852,9 @@
       <c r="G99">
         <v>0.69</v>
       </c>
+      <c r="H99" s="5">
+        <v>0.56999999999999995</v>
+      </c>
       <c r="J99">
         <v>0.78</v>
       </c>
@@ -4746,6 +4881,9 @@
       <c r="G100">
         <v>0.57999999999999996</v>
       </c>
+      <c r="H100" s="5">
+        <v>0.56999999999999995</v>
+      </c>
       <c r="J100">
         <v>0.76</v>
       </c>
@@ -4772,6 +4910,9 @@
       <c r="G101">
         <v>0.7</v>
       </c>
+      <c r="H101" s="5">
+        <v>0.64</v>
+      </c>
       <c r="J101">
         <v>0.85</v>
       </c>
@@ -4798,6 +4939,9 @@
       <c r="G102">
         <v>0.59</v>
       </c>
+      <c r="H102" s="5">
+        <v>0</v>
+      </c>
       <c r="J102">
         <v>0.74</v>
       </c>
@@ -6829,7 +6973,7 @@
         <v>0.46</v>
       </c>
       <c r="H172" s="5">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="J172">
         <v>0.74</v>

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D084E9F4-8E30-8946-B13E-3F7F32B97489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAB87AE-C5B5-F942-8378-8DBD0092DDB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="1040" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -1895,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -3608,6 +3608,9 @@
       <c r="H56" s="5">
         <v>0.51</v>
       </c>
+      <c r="I56">
+        <v>0.56999999999999995</v>
+      </c>
       <c r="J56">
         <v>0.78</v>
       </c>
@@ -3811,6 +3814,9 @@
       <c r="H63" s="5">
         <v>0.4</v>
       </c>
+      <c r="I63">
+        <v>0.76</v>
+      </c>
       <c r="J63">
         <v>0.63</v>
       </c>
@@ -4362,6 +4368,9 @@
       <c r="H82" s="5">
         <v>0.68</v>
       </c>
+      <c r="I82">
+        <v>0.69</v>
+      </c>
       <c r="J82">
         <v>0.83</v>
       </c>
@@ -4710,6 +4719,9 @@
       <c r="H94" s="5">
         <v>0.66</v>
       </c>
+      <c r="I94">
+        <v>0.78</v>
+      </c>
       <c r="J94">
         <v>0.74</v>
       </c>
@@ -4739,6 +4751,9 @@
       <c r="H95" s="5">
         <v>0.44</v>
       </c>
+      <c r="I95">
+        <v>0.66</v>
+      </c>
       <c r="J95">
         <v>0.65</v>
       </c>
@@ -4941,6 +4956,9 @@
       </c>
       <c r="H102" s="5">
         <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0.76</v>
       </c>
       <c r="J102">
         <v>0.74</v>

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAB87AE-C5B5-F942-8378-8DBD0092DDB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE517156-AC68-3F46-9A25-7A0ABC62685D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="1040" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="468">
   <si>
     <t>Surname</t>
   </si>
@@ -1434,6 +1434,12 @@
   </si>
   <si>
     <t>Mvududu</t>
+  </si>
+  <si>
+    <t>Mapeta</t>
+  </si>
+  <si>
+    <t>H220550G</t>
   </si>
 </sst>
 </file>
@@ -1552,10 +1558,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16CEB027-FB46-1A44-BA46-BD4AD30C864F}" name="Table1" displayName="Table1" ref="A1:M229" totalsRowShown="0">
-  <autoFilter ref="A1:M229" xr:uid="{16CEB027-FB46-1A44-BA46-BD4AD30C864F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M229">
-    <sortCondition ref="C1:C229"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16CEB027-FB46-1A44-BA46-BD4AD30C864F}" name="Table1" displayName="Table1" ref="A1:M230" totalsRowShown="0">
+  <autoFilter ref="A1:M230" xr:uid="{16CEB027-FB46-1A44-BA46-BD4AD30C864F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M230">
+    <sortCondition ref="C1:C230"/>
   </sortState>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{1B9A59CC-67BA-3D4E-8BF2-E846FAA4CCF7}" name="Surname"/>
@@ -1893,10 +1899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
-  <dimension ref="A1:M229"/>
+  <dimension ref="A1:M230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="I97" sqref="I97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -3579,6 +3585,9 @@
       <c r="H55" s="5">
         <v>0.46</v>
       </c>
+      <c r="I55">
+        <v>0.63</v>
+      </c>
       <c r="J55">
         <v>0.76</v>
       </c>
@@ -3640,6 +3649,9 @@
       <c r="H57" s="5">
         <v>0.61</v>
       </c>
+      <c r="I57">
+        <v>0.6</v>
+      </c>
       <c r="J57">
         <v>0.85</v>
       </c>
@@ -3850,7 +3862,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>126</v>
       </c>
@@ -3879,7 +3891,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>128</v>
       </c>
@@ -3908,7 +3920,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>130</v>
       </c>
@@ -3937,7 +3949,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>133</v>
       </c>
@@ -3962,11 +3974,14 @@
       <c r="H68" s="5">
         <v>0.56999999999999995</v>
       </c>
+      <c r="I68">
+        <v>0.71</v>
+      </c>
       <c r="J68">
         <v>0.74</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>137</v>
       </c>
@@ -3995,7 +4010,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>139</v>
       </c>
@@ -4020,11 +4035,14 @@
       <c r="H70" s="5">
         <v>0.64</v>
       </c>
+      <c r="I70">
+        <v>0.5</v>
+      </c>
       <c r="J70">
         <v>0.78</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>141</v>
       </c>
@@ -4053,7 +4071,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>143</v>
       </c>
@@ -4082,7 +4100,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>145</v>
       </c>
@@ -4111,7 +4129,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>147</v>
       </c>
@@ -4140,7 +4158,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>149</v>
       </c>
@@ -4169,7 +4187,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>151</v>
       </c>
@@ -4198,12 +4216,12 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="C77" t="s">
         <v>106</v>
@@ -4214,54 +4232,54 @@
       <c r="E77">
         <v>0</v>
       </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>0.2</v>
-      </c>
       <c r="H77" s="5">
         <v>0</v>
       </c>
+      <c r="I77">
+        <v>0.79</v>
+      </c>
       <c r="J77">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>153</v>
+        <v>452</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>154</v>
+        <v>453</v>
       </c>
       <c r="C78" t="s">
         <v>106</v>
       </c>
       <c r="D78" s="5">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>0.75</v>
+        <v>0.2</v>
       </c>
       <c r="H78" s="5">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="J78">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C79" t="s">
         <v>106</v>
@@ -4270,251 +4288,257 @@
         <v>0.97</v>
       </c>
       <c r="E79">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="G79">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="H79" s="5">
-        <v>0.82</v>
+        <v>0.73</v>
       </c>
       <c r="J79">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>157</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="C80" t="s">
         <v>106</v>
       </c>
       <c r="D80" s="5">
-        <v>0.94</v>
+        <v>0.97</v>
       </c>
       <c r="E80">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F80">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="G80">
-        <v>0.73</v>
+        <v>0.82</v>
       </c>
       <c r="H80" s="5">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="J80">
-        <v>0.85</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>159</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="C81" t="s">
         <v>106</v>
       </c>
       <c r="D81" s="5">
-        <v>0.69</v>
+        <v>0.94</v>
       </c>
       <c r="E81">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G81">
-        <v>0.54</v>
+        <v>0.73</v>
       </c>
       <c r="H81" s="5">
-        <v>0.69</v>
+        <v>0.86</v>
+      </c>
+      <c r="I81">
+        <v>0.93</v>
       </c>
       <c r="J81">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>161</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="C82" t="s">
         <v>106</v>
       </c>
       <c r="D82" s="5">
-        <v>0.92</v>
+        <v>0.69</v>
       </c>
       <c r="E82">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="F82">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="G82">
-        <v>0.55000000000000004</v>
+        <v>0.54</v>
       </c>
       <c r="H82" s="5">
-        <v>0.68</v>
+        <v>0.69</v>
       </c>
       <c r="I82">
-        <v>0.69</v>
+        <v>0.62</v>
       </c>
       <c r="J82">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>163</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="C83" t="s">
         <v>106</v>
       </c>
       <c r="D83" s="5">
-        <v>0.56000000000000005</v>
+        <v>0.92</v>
       </c>
       <c r="E83">
-        <v>0.77</v>
+        <v>0.98</v>
       </c>
       <c r="F83">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="G83">
-        <v>0.38</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H83" s="5">
-        <v>0.22</v>
+        <v>0.68</v>
+      </c>
+      <c r="I83">
+        <v>0.69</v>
       </c>
       <c r="J83">
-        <v>0.65</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C84" t="s">
         <v>106</v>
       </c>
       <c r="D84" s="5">
-        <v>0.94</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="F84">
-        <v>0.99</v>
+        <v>0.77</v>
       </c>
       <c r="G84">
-        <v>0.72</v>
+        <v>0.38</v>
       </c>
       <c r="H84" s="5">
-        <v>0.89</v>
+        <v>0.22</v>
       </c>
       <c r="J84">
-        <v>0.76</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C85" t="s">
         <v>106</v>
       </c>
       <c r="D85" s="5">
-        <v>0.92</v>
+        <v>0.94</v>
       </c>
       <c r="E85">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="G85">
-        <v>0.61</v>
+        <v>0.72</v>
       </c>
       <c r="H85" s="5">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="J85">
-        <v>0.83</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C86" t="s">
         <v>106</v>
       </c>
       <c r="D86" s="5">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="E86">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="F86">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="G86">
-        <v>0.72</v>
+        <v>0.61</v>
       </c>
       <c r="H86" s="5">
         <v>0.63</v>
       </c>
       <c r="J86">
-        <v>0.74</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>451</v>
+        <v>171</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="C87" t="s">
         <v>106</v>
       </c>
       <c r="D87" s="5">
-        <v>0.61</v>
+        <v>1</v>
       </c>
       <c r="E87">
         <v>0.98</v>
       </c>
       <c r="F87">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="G87">
-        <v>0.62</v>
+        <v>0.72</v>
       </c>
       <c r="H87" s="5">
-        <v>0.3</v>
+        <v>0.63</v>
       </c>
       <c r="J87">
         <v>0.74</v>
@@ -4522,86 +4546,86 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>68</v>
+        <v>451</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="C88" t="s">
         <v>106</v>
       </c>
       <c r="D88" s="5">
-        <v>0.94</v>
+        <v>0.61</v>
       </c>
       <c r="E88">
-        <v>0.86</v>
+        <v>0.98</v>
       </c>
       <c r="F88">
-        <v>0.77</v>
+        <v>0.97</v>
       </c>
       <c r="G88">
-        <v>0.7</v>
+        <v>0.62</v>
       </c>
       <c r="H88" s="5">
-        <v>0.57999999999999996</v>
+        <v>0.3</v>
       </c>
       <c r="J88">
-        <v>0.65</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>174</v>
+        <v>68</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C89" t="s">
         <v>106</v>
       </c>
       <c r="D89" s="5">
-        <v>0.53</v>
+        <v>0.94</v>
       </c>
       <c r="E89">
-        <v>0.74</v>
+        <v>0.86</v>
       </c>
       <c r="F89">
-        <v>0.59</v>
+        <v>0.77</v>
       </c>
       <c r="G89">
-        <v>0.51</v>
+        <v>0.7</v>
       </c>
       <c r="H89" s="5">
-        <v>0.32</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J89">
-        <v>0.74</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C90" t="s">
         <v>106</v>
       </c>
       <c r="D90" s="5">
-        <v>0.81</v>
+        <v>0.53</v>
       </c>
       <c r="E90">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="F90">
-        <v>0.73</v>
+        <v>0.59</v>
       </c>
       <c r="G90">
-        <v>0.63</v>
+        <v>0.51</v>
       </c>
       <c r="H90" s="5">
-        <v>0.44</v>
+        <v>0.32</v>
       </c>
       <c r="J90">
         <v>0.74</v>
@@ -4609,86 +4633,86 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C91" t="s">
         <v>106</v>
       </c>
       <c r="D91" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="E91">
         <v>0.72</v>
       </c>
-      <c r="E91">
-        <v>0.95</v>
-      </c>
       <c r="F91">
-        <v>0.93</v>
+        <v>0.73</v>
       </c>
       <c r="G91">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
       <c r="H91" s="5">
-        <v>0.53</v>
+        <v>0.44</v>
       </c>
       <c r="J91">
-        <v>0.89</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C92" t="s">
         <v>106</v>
       </c>
       <c r="D92" s="5">
-        <v>0.81</v>
+        <v>0.72</v>
       </c>
       <c r="E92">
+        <v>0.95</v>
+      </c>
+      <c r="F92">
         <v>0.93</v>
       </c>
-      <c r="F92">
-        <v>0.92</v>
-      </c>
       <c r="G92">
-        <v>0.56000000000000005</v>
+        <v>0.52</v>
       </c>
       <c r="H92" s="5">
-        <v>0.55000000000000004</v>
+        <v>0.53</v>
       </c>
       <c r="J92">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C93" t="s">
         <v>106</v>
       </c>
       <c r="D93" s="5">
-        <v>0.94</v>
+        <v>0.81</v>
       </c>
       <c r="E93">
         <v>0.93</v>
       </c>
       <c r="F93">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="G93">
-        <v>0.62</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H93" s="5">
-        <v>0.51</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J93">
         <v>0.63</v>
@@ -4696,74 +4720,71 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>184</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="C94" t="s">
         <v>106</v>
       </c>
       <c r="D94" s="5">
-        <v>0.86</v>
+        <v>0.94</v>
       </c>
       <c r="E94">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="G94">
-        <v>0.7</v>
+        <v>0.62</v>
       </c>
       <c r="H94" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="I94">
-        <v>0.78</v>
+        <v>0.51</v>
       </c>
       <c r="J94">
-        <v>0.74</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>186</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="C95" t="s">
         <v>106</v>
       </c>
       <c r="D95" s="5">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="E95">
         <v>0.95</v>
       </c>
       <c r="F95">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="G95">
-        <v>0.32</v>
+        <v>0.7</v>
       </c>
       <c r="H95" s="5">
-        <v>0.44</v>
+        <v>0.66</v>
       </c>
       <c r="I95">
-        <v>0.66</v>
+        <v>0.78</v>
       </c>
       <c r="J95">
-        <v>0.65</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>188</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="C96" t="s">
         <v>106</v>
@@ -4772,74 +4793,80 @@
         <v>0.75</v>
       </c>
       <c r="E96">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
       <c r="F96">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="G96">
-        <v>0.51</v>
+        <v>0.32</v>
       </c>
       <c r="H96" s="5">
-        <v>0.59</v>
+        <v>0.44</v>
+      </c>
+      <c r="I96">
+        <v>0.66</v>
       </c>
       <c r="J96">
-        <v>0.74</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C97" t="s">
         <v>106</v>
       </c>
       <c r="D97" s="5">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="E97">
-        <v>0.95</v>
+        <v>0.7</v>
       </c>
       <c r="F97">
-        <v>0.85</v>
+        <v>0.72</v>
       </c>
       <c r="G97">
-        <v>0.69</v>
+        <v>0.51</v>
       </c>
       <c r="H97" s="5">
-        <v>0.84</v>
+        <v>0.59</v>
+      </c>
+      <c r="I97">
+        <v>0.63</v>
       </c>
       <c r="J97">
-        <v>0.83</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>192</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="C98" t="s">
         <v>106</v>
       </c>
       <c r="D98" s="5">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="F98">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="G98">
-        <v>0.72</v>
+        <v>0.69</v>
       </c>
       <c r="H98" s="5">
-        <v>0.66</v>
+        <v>0.84</v>
       </c>
       <c r="J98">
         <v>0.83</v>
@@ -4847,68 +4874,71 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
       </c>
       <c r="D99" s="5">
-        <v>0.81</v>
+        <v>0.97</v>
       </c>
       <c r="E99">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="F99">
-        <v>0.77</v>
+        <v>0.92</v>
       </c>
       <c r="G99">
-        <v>0.69</v>
+        <v>0.72</v>
       </c>
       <c r="H99" s="5">
-        <v>0.56999999999999995</v>
+        <v>0.66</v>
       </c>
       <c r="J99">
-        <v>0.78</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>450</v>
+        <v>196</v>
       </c>
       <c r="C100" t="s">
         <v>106</v>
       </c>
       <c r="D100" s="5">
-        <v>0.94</v>
+        <v>0.81</v>
       </c>
       <c r="E100">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="F100">
-        <v>0.86</v>
+        <v>0.77</v>
       </c>
       <c r="G100">
-        <v>0.57999999999999996</v>
+        <v>0.69</v>
       </c>
       <c r="H100" s="5">
         <v>0.56999999999999995</v>
       </c>
+      <c r="I100">
+        <v>0.34</v>
+      </c>
       <c r="J100">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>199</v>
+        <v>450</v>
       </c>
       <c r="C101" t="s">
         <v>106</v>
@@ -4917,135 +4947,138 @@
         <v>0.94</v>
       </c>
       <c r="E101">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="F101">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="G101">
-        <v>0.7</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H101" s="5">
-        <v>0.64</v>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I101">
+        <v>0.87</v>
       </c>
       <c r="J101">
-        <v>0.85</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C102" t="s">
         <v>106</v>
       </c>
       <c r="D102" s="5">
-        <v>0.57999999999999996</v>
+        <v>0.94</v>
       </c>
       <c r="E102">
-        <v>0.84</v>
+        <v>0.98</v>
       </c>
       <c r="F102">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="G102">
-        <v>0.59</v>
+        <v>0.7</v>
       </c>
       <c r="H102" s="5">
-        <v>0</v>
-      </c>
-      <c r="I102">
-        <v>0.76</v>
+        <v>0.64</v>
       </c>
       <c r="J102">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C103" t="s">
-        <v>203</v>
+        <v>106</v>
       </c>
       <c r="D103" s="5">
-        <v>0.89</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E103">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="F103">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="G103">
-        <v>0.57999999999999996</v>
+        <v>0.59</v>
       </c>
       <c r="H103" s="5">
-        <v>0.63</v>
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0.76</v>
       </c>
       <c r="J103">
-        <v>0.46</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C104" t="s">
         <v>203</v>
       </c>
       <c r="D104" s="5">
-        <v>0.94</v>
+        <v>0.89</v>
       </c>
       <c r="E104">
-        <v>0.95</v>
+        <v>0.86</v>
       </c>
       <c r="F104">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="G104">
-        <v>0.51</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H104" s="5">
-        <v>0.65</v>
+        <v>0.63</v>
       </c>
       <c r="J104">
-        <v>0.69</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>207</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="C105" t="s">
         <v>203</v>
       </c>
       <c r="D105" s="5">
-        <v>0.75</v>
+        <v>0.94</v>
       </c>
       <c r="E105">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="F105">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="G105">
-        <v>0.66</v>
+        <v>0.51</v>
       </c>
       <c r="H105" s="5">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="J105">
         <v>0.69</v>
@@ -5053,28 +5086,28 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>209</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="C106" t="s">
         <v>203</v>
       </c>
       <c r="D106" s="5">
-        <v>0.97</v>
+        <v>0.75</v>
       </c>
       <c r="E106">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="F106">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="G106">
-        <v>0.54</v>
+        <v>0.66</v>
       </c>
       <c r="H106" s="5">
-        <v>0.38</v>
+        <v>0.68</v>
       </c>
       <c r="J106">
         <v>0.69</v>
@@ -5082,28 +5115,28 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C107" t="s">
         <v>203</v>
       </c>
       <c r="D107" s="5">
-        <v>0.75</v>
+        <v>0.97</v>
       </c>
       <c r="E107">
-        <v>0.95</v>
+        <v>0.86</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="G107">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="H107" s="5">
-        <v>0.46</v>
+        <v>0.38</v>
       </c>
       <c r="J107">
         <v>0.69</v>
@@ -5111,115 +5144,115 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C108" t="s">
         <v>203</v>
       </c>
       <c r="D108" s="5">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="E108">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F108">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G108">
-        <v>0.56999999999999995</v>
+        <v>0.43</v>
       </c>
       <c r="H108" s="5">
-        <v>0.56999999999999995</v>
+        <v>0.46</v>
       </c>
       <c r="J108">
-        <v>0.87</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C109" t="s">
         <v>203</v>
       </c>
       <c r="D109" s="5">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="E109">
-        <v>0.88</v>
+        <v>0.98</v>
       </c>
       <c r="F109">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="G109">
-        <v>0.7</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H109" s="5">
-        <v>0</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="J109">
-        <v>0.46</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C110" t="s">
         <v>203</v>
       </c>
       <c r="D110" s="5">
-        <v>0.94</v>
+        <v>0.89</v>
       </c>
       <c r="E110">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="F110">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="G110">
-        <v>0.57999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="H110" s="5">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="J110">
-        <v>0.69</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C111" t="s">
         <v>203</v>
       </c>
       <c r="D111" s="5">
-        <v>0.97</v>
+        <v>0.94</v>
       </c>
       <c r="E111">
         <v>0.93</v>
       </c>
       <c r="F111">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="G111">
-        <v>0.56999999999999995</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H111" s="5">
-        <v>0.37</v>
+        <v>0.79</v>
       </c>
       <c r="J111">
         <v>0.69</v>
@@ -5227,176 +5260,176 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C112" t="s">
         <v>203</v>
       </c>
       <c r="D112" s="5">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="E112">
-        <v>0.84</v>
+        <v>0.93</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="G112">
         <v>0.56999999999999995</v>
       </c>
       <c r="H112" s="5">
-        <v>0.56000000000000005</v>
+        <v>0.37</v>
       </c>
       <c r="J112">
-        <v>0.46</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C113" t="s">
         <v>203</v>
       </c>
       <c r="D113" s="5">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="E113">
-        <v>0.98</v>
+        <v>0.84</v>
       </c>
       <c r="F113">
-        <v>0.81</v>
+        <v>0</v>
       </c>
       <c r="G113">
-        <v>0.45</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H113" s="5">
-        <v>0.34</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="J113">
-        <v>0.83</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C114" t="s">
         <v>203</v>
       </c>
       <c r="D114" s="5">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="E114">
-        <v>0.88</v>
+        <v>0.98</v>
       </c>
       <c r="F114">
-        <v>0.93</v>
+        <v>0.81</v>
       </c>
       <c r="G114">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="H114" s="5">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="J114">
-        <v>0.78</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>226</v>
+        <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C115" t="s">
         <v>203</v>
       </c>
       <c r="D115" s="5">
-        <v>0.92</v>
+        <v>0.78</v>
       </c>
       <c r="E115">
+        <v>0.88</v>
+      </c>
+      <c r="F115">
         <v>0.93</v>
       </c>
-      <c r="F115">
-        <v>0.91</v>
-      </c>
       <c r="G115">
-        <v>0.55000000000000004</v>
+        <v>0.43</v>
       </c>
       <c r="H115" s="5">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="J115">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C116" t="s">
         <v>203</v>
       </c>
       <c r="D116" s="5">
-        <v>0.78</v>
+        <v>0.92</v>
       </c>
       <c r="E116">
-        <v>0.84</v>
+        <v>0.93</v>
       </c>
       <c r="F116">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="G116">
-        <v>0.36</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H116" s="5">
-        <v>0.42</v>
+        <v>0.52</v>
       </c>
       <c r="J116">
-        <v>0.74</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>460</v>
+        <v>228</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>461</v>
+        <v>229</v>
       </c>
       <c r="C117" t="s">
         <v>203</v>
       </c>
       <c r="D117" s="5">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="F117">
-        <v>0.64</v>
+        <v>0.93</v>
       </c>
       <c r="G117">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="H117" s="5">
-        <v>0.54</v>
+        <v>0.42</v>
       </c>
       <c r="J117">
-        <v>0</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
@@ -5404,7 +5437,7 @@
         <v>460</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C118" t="s">
         <v>203</v>
@@ -5416,13 +5449,13 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>0.84</v>
+        <v>0.64</v>
       </c>
       <c r="G118">
         <v>0</v>
       </c>
       <c r="H118" s="5">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="J118">
         <v>0</v>
@@ -5430,144 +5463,144 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>230</v>
+        <v>460</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>231</v>
+        <v>462</v>
       </c>
       <c r="C119" t="s">
         <v>203</v>
       </c>
       <c r="D119" s="5">
-        <v>0.94</v>
+        <v>0</v>
       </c>
       <c r="E119">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>0.91</v>
+        <v>0.84</v>
       </c>
       <c r="G119">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="H119" s="5">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="J119">
-        <v>0.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C120" t="s">
         <v>203</v>
       </c>
       <c r="D120" s="5">
-        <v>0.89</v>
+        <v>0.94</v>
       </c>
       <c r="E120">
-        <v>0.81</v>
+        <v>0.93</v>
       </c>
       <c r="F120">
-        <v>0.78</v>
+        <v>0.91</v>
       </c>
       <c r="G120">
-        <v>0.49</v>
+        <v>0.61</v>
       </c>
       <c r="H120" s="5">
-        <v>0.52</v>
+        <v>0.67</v>
       </c>
       <c r="J120">
-        <v>0.65</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C121" t="s">
         <v>203</v>
       </c>
       <c r="D121" s="5">
-        <v>0.94</v>
+        <v>0.89</v>
       </c>
       <c r="E121">
-        <v>0.93</v>
+        <v>0.81</v>
       </c>
       <c r="F121">
-        <v>0.96</v>
+        <v>0.78</v>
       </c>
       <c r="G121">
-        <v>0.6</v>
+        <v>0.49</v>
       </c>
       <c r="H121" s="5">
-        <v>0.56999999999999995</v>
+        <v>0.52</v>
       </c>
       <c r="J121">
-        <v>0.87</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C122" t="s">
         <v>203</v>
       </c>
       <c r="D122" s="5">
-        <v>0.92</v>
+        <v>0.94</v>
       </c>
       <c r="E122">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="F122">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="G122">
-        <v>0.39</v>
+        <v>0.6</v>
       </c>
       <c r="H122" s="5">
-        <v>0.44</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="J122">
-        <v>0.69</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C123" t="s">
         <v>203</v>
       </c>
       <c r="D123" s="5">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="E123">
-        <v>0.72</v>
+        <v>0.88</v>
       </c>
       <c r="F123">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="G123">
-        <v>0.64</v>
+        <v>0.39</v>
       </c>
       <c r="H123" s="5">
-        <v>0.91</v>
+        <v>0.44</v>
       </c>
       <c r="J123">
         <v>0.69</v>
@@ -5575,405 +5608,405 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>240</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="C124" t="s">
         <v>203</v>
       </c>
       <c r="D124" s="5">
-        <v>0.78</v>
+        <v>0.94</v>
       </c>
       <c r="E124">
+        <v>0.72</v>
+      </c>
+      <c r="F124">
+        <v>0.88</v>
+      </c>
+      <c r="G124">
+        <v>0.64</v>
+      </c>
+      <c r="H124" s="5">
         <v>0.91</v>
       </c>
-      <c r="F124">
-        <v>0.66</v>
-      </c>
-      <c r="G124">
-        <v>0.37</v>
-      </c>
-      <c r="H124" s="5">
-        <v>0.28999999999999998</v>
-      </c>
       <c r="J124">
-        <v>0.78</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>242</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="C125" t="s">
         <v>203</v>
       </c>
       <c r="D125" s="5">
-        <v>0.86</v>
+        <v>0.78</v>
       </c>
       <c r="E125">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="F125">
-        <v>0.96</v>
+        <v>0.66</v>
       </c>
       <c r="G125">
-        <v>0.75</v>
+        <v>0.37</v>
       </c>
       <c r="H125" s="5">
-        <v>0.69</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J125">
-        <v>0.87</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C126" t="s">
         <v>203</v>
       </c>
       <c r="D126" s="5">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="E126">
-        <v>0.98</v>
+        <v>0.86</v>
       </c>
       <c r="F126">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="G126">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="H126" s="5">
-        <v>0.65</v>
+        <v>0.69</v>
       </c>
       <c r="J126">
-        <v>0.69</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C127" t="s">
         <v>203</v>
       </c>
       <c r="D127" s="5">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="E127">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="F127">
         <v>0.93</v>
       </c>
       <c r="G127">
-        <v>0.6</v>
+        <v>0.73</v>
       </c>
       <c r="H127" s="5">
-        <v>0.52</v>
+        <v>0.65</v>
       </c>
       <c r="J127">
-        <v>0.87</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C128" t="s">
         <v>203</v>
       </c>
       <c r="D128" s="5">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="G128">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H128" s="5">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="J128">
-        <v>0</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C129" t="s">
         <v>203</v>
       </c>
       <c r="D129" s="5">
-        <v>0.83</v>
+        <v>0.94</v>
       </c>
       <c r="E129">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="G129">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="H129" s="5">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="J129">
-        <v>0.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C130" t="s">
         <v>203</v>
       </c>
       <c r="D130" s="5">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="F130">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="G130">
-        <v>0.57999999999999996</v>
+        <v>0.63</v>
       </c>
       <c r="H130" s="5">
-        <v>0.32</v>
+        <v>0.59</v>
       </c>
       <c r="J130">
-        <v>0.65</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C131" t="s">
         <v>203</v>
       </c>
       <c r="D131" s="5">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="E131">
         <v>1</v>
       </c>
       <c r="F131">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="G131">
         <v>0.57999999999999996</v>
       </c>
       <c r="H131" s="5">
-        <v>0.63</v>
+        <v>0.32</v>
       </c>
       <c r="J131">
-        <v>0.83</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C132" t="s">
         <v>203</v>
       </c>
       <c r="D132" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>0.91</v>
+      </c>
+      <c r="G132">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H132" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="J132">
         <v>0.83</v>
-      </c>
-      <c r="E132">
-        <v>0.93</v>
-      </c>
-      <c r="F132">
-        <v>0.92</v>
-      </c>
-      <c r="G132">
-        <v>0.52</v>
-      </c>
-      <c r="H132" s="5">
-        <v>0.71</v>
-      </c>
-      <c r="J132">
-        <v>0.87</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C133" t="s">
         <v>203</v>
       </c>
       <c r="D133" s="5">
-        <v>0.72</v>
+        <v>0.83</v>
       </c>
       <c r="E133">
-        <v>0.57999999999999996</v>
+        <v>0.93</v>
       </c>
       <c r="F133">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="G133">
-        <v>0.81</v>
+        <v>0.52</v>
       </c>
       <c r="H133" s="5">
-        <v>0.84</v>
+        <v>0.71</v>
       </c>
       <c r="J133">
-        <v>0.65</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C134" t="s">
         <v>203</v>
       </c>
       <c r="D134" s="5">
-        <v>0.92</v>
+        <v>0.72</v>
       </c>
       <c r="E134">
-        <v>0.79</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F134">
-        <v>0.96</v>
+        <v>0.73</v>
       </c>
       <c r="G134">
-        <v>0.75</v>
+        <v>0.81</v>
       </c>
       <c r="H134" s="5">
-        <v>0.67</v>
+        <v>0.84</v>
       </c>
       <c r="J134">
-        <v>0.69</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C135" t="s">
         <v>203</v>
       </c>
       <c r="D135" s="5">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="E135">
-        <v>0.93</v>
+        <v>0.79</v>
       </c>
       <c r="F135">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="G135">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="H135" s="5">
-        <v>0.36</v>
+        <v>0.67</v>
       </c>
       <c r="J135">
-        <v>0.83</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C136" t="s">
         <v>203</v>
       </c>
       <c r="D136" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="E136">
+        <v>0.93</v>
+      </c>
+      <c r="F136">
+        <v>0.8</v>
+      </c>
+      <c r="G136">
+        <v>0.6</v>
+      </c>
+      <c r="H136" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="J136">
         <v>0.83</v>
-      </c>
-      <c r="E136">
-        <v>1</v>
-      </c>
-      <c r="F136">
-        <v>0.7</v>
-      </c>
-      <c r="G136">
-        <v>0.46</v>
-      </c>
-      <c r="H136" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="J136">
-        <v>0.69</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C137" t="s">
         <v>203</v>
       </c>
       <c r="D137" s="5">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137">
-        <v>0.92</v>
+        <v>0.7</v>
       </c>
       <c r="G137">
+        <v>0.46</v>
+      </c>
+      <c r="H137" s="5">
         <v>0.66</v>
-      </c>
-      <c r="H137" s="5">
-        <v>0.49</v>
       </c>
       <c r="J137">
         <v>0.69</v>
@@ -5981,86 +6014,86 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>70</v>
+        <v>266</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C138" t="s">
         <v>203</v>
       </c>
       <c r="D138" s="5">
-        <v>0.81</v>
+        <v>0.92</v>
       </c>
       <c r="E138">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="G138">
-        <v>0.57999999999999996</v>
+        <v>0.66</v>
       </c>
       <c r="H138" s="5">
-        <v>0.42</v>
+        <v>0.49</v>
       </c>
       <c r="J138">
-        <v>0.78</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>269</v>
+        <v>70</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C139" t="s">
         <v>203</v>
       </c>
       <c r="D139" s="5">
-        <v>0.94</v>
+        <v>0.81</v>
       </c>
       <c r="E139">
-        <v>0.7</v>
+        <v>0.98</v>
       </c>
       <c r="F139">
-        <v>0.62</v>
+        <v>0.86</v>
       </c>
       <c r="G139">
-        <v>0.93</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H139" s="5">
-        <v>0.81</v>
+        <v>0.42</v>
       </c>
       <c r="J139">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C140" t="s">
         <v>203</v>
       </c>
       <c r="D140" s="5">
-        <v>0.83</v>
+        <v>0.94</v>
       </c>
       <c r="E140">
-        <v>0.95</v>
+        <v>0.7</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="G140">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="H140" s="5">
-        <v>0.8</v>
+        <v>0.81</v>
       </c>
       <c r="J140">
         <v>0.65</v>
@@ -6068,10 +6101,10 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C141" t="s">
         <v>203</v>
@@ -6080,88 +6113,85 @@
         <v>0.83</v>
       </c>
       <c r="E141">
-        <v>0.79</v>
+        <v>0.95</v>
       </c>
       <c r="F141">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="G141">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="H141" s="5">
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="J141">
-        <v>0.74</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>454</v>
+        <v>273</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>455</v>
+        <v>274</v>
       </c>
       <c r="C142" t="s">
         <v>203</v>
       </c>
       <c r="D142" s="5">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="E142">
+        <v>0.79</v>
+      </c>
+      <c r="F142">
+        <v>0.93</v>
+      </c>
+      <c r="G142">
+        <v>0.54</v>
+      </c>
+      <c r="H142" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="J142">
         <v>0.74</v>
-      </c>
-      <c r="F142">
-        <v>0.88</v>
-      </c>
-      <c r="G142">
-        <v>0.48</v>
-      </c>
-      <c r="H142" s="5">
-        <v>0</v>
-      </c>
-      <c r="J142">
-        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>275</v>
+        <v>454</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="C143" t="s">
         <v>203</v>
       </c>
       <c r="D143" s="5">
-        <v>0.94</v>
+        <v>0</v>
       </c>
       <c r="E143">
-        <v>0.98</v>
+        <v>0.74</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="G143">
-        <v>0.79</v>
+        <v>0.48</v>
       </c>
       <c r="H143" s="5">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="J143">
-        <v>0.46</v>
-      </c>
-      <c r="K143">
-        <v>0.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>279</v>
+        <v>463</v>
       </c>
       <c r="C144" t="s">
         <v>203</v>
@@ -6170,27 +6200,30 @@
         <v>0.94</v>
       </c>
       <c r="E144">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="F144">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G144">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="H144" s="5">
-        <v>0.69</v>
+        <v>0.77</v>
       </c>
       <c r="J144">
-        <v>0.78</v>
+        <v>0.46</v>
+      </c>
+      <c r="K144">
+        <v>0.62</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C145" t="s">
         <v>203</v>
@@ -6199,27 +6232,27 @@
         <v>0.94</v>
       </c>
       <c r="E145">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F145">
         <v>0.95</v>
       </c>
       <c r="G145">
-        <v>0.56999999999999995</v>
+        <v>0.78</v>
       </c>
       <c r="H145" s="5">
-        <v>0.63</v>
+        <v>0.69</v>
       </c>
       <c r="J145">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C146" t="s">
         <v>203</v>
@@ -6228,56 +6261,56 @@
         <v>0.94</v>
       </c>
       <c r="E146">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F146">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="G146">
-        <v>0.7</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H146" s="5">
-        <v>0.78</v>
+        <v>0.63</v>
       </c>
       <c r="J146">
-        <v>0.69</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C147" t="s">
         <v>203</v>
       </c>
       <c r="D147" s="5">
-        <v>0.92</v>
+        <v>0.94</v>
       </c>
       <c r="E147">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F147">
         <v>0.96</v>
       </c>
       <c r="G147">
-        <v>0.31</v>
+        <v>0.7</v>
       </c>
       <c r="H147" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.78</v>
       </c>
       <c r="J147">
-        <v>0.46</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C148" t="s">
         <v>203</v>
@@ -6286,56 +6319,56 @@
         <v>0.92</v>
       </c>
       <c r="E148">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="F148">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="G148">
-        <v>0.45</v>
+        <v>0.31</v>
       </c>
       <c r="H148" s="5">
-        <v>0.23</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J148">
-        <v>0.83</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C149" t="s">
         <v>203</v>
       </c>
       <c r="D149" s="5">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="F149">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="G149">
-        <v>0.6</v>
+        <v>0.45</v>
       </c>
       <c r="H149" s="5">
-        <v>0.52</v>
+        <v>0.23</v>
       </c>
       <c r="J149">
-        <v>0.46</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C150" t="s">
         <v>203</v>
@@ -6344,16 +6377,16 @@
         <v>0.97</v>
       </c>
       <c r="E150">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="F150">
-        <v>0.85</v>
+        <v>0.91</v>
       </c>
       <c r="G150">
-        <v>0.51</v>
+        <v>0.6</v>
       </c>
       <c r="H150" s="5">
-        <v>0.59</v>
+        <v>0.52</v>
       </c>
       <c r="J150">
         <v>0.46</v>
@@ -6361,97 +6394,97 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C151" t="s">
         <v>203</v>
       </c>
       <c r="D151" s="5">
-        <v>0.94</v>
+        <v>0.97</v>
       </c>
       <c r="E151">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="F151">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="G151">
-        <v>0.64</v>
+        <v>0.51</v>
       </c>
       <c r="H151" s="5">
-        <v>0.45</v>
+        <v>0.59</v>
       </c>
       <c r="J151">
-        <v>0.78</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C152" t="s">
         <v>203</v>
       </c>
       <c r="D152" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="E152">
+        <v>0.93</v>
+      </c>
+      <c r="F152">
         <v>0.89</v>
       </c>
-      <c r="E152">
-        <v>0.88</v>
-      </c>
-      <c r="F152">
-        <v>0.93</v>
-      </c>
       <c r="G152">
-        <v>0.73</v>
+        <v>0.64</v>
       </c>
       <c r="H152" s="5">
-        <v>0.74</v>
+        <v>0.45</v>
       </c>
       <c r="J152">
-        <v>0.69</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C153" t="s">
         <v>203</v>
       </c>
       <c r="D153" s="5">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="E153">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="F153">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="G153">
-        <v>0.66</v>
+        <v>0.73</v>
       </c>
       <c r="H153" s="5">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="J153">
-        <v>0.17</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>298</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>464</v>
+        <v>296</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>297</v>
       </c>
       <c r="C154" t="s">
         <v>203</v>
@@ -6463,100 +6496,100 @@
         <v>0.95</v>
       </c>
       <c r="F154">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="G154">
+        <v>0.66</v>
+      </c>
+      <c r="H154" s="5">
         <v>0.73</v>
       </c>
-      <c r="H154" s="5">
-        <v>0.84</v>
-      </c>
       <c r="J154">
-        <v>0.69</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>299</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>464</v>
       </c>
       <c r="C155" t="s">
         <v>203</v>
       </c>
       <c r="D155" s="5">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="E155">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F155">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="G155">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="H155" s="5">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="J155">
-        <v>0.83</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>301</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="C156" t="s">
         <v>203</v>
       </c>
       <c r="D156" s="5">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="E156">
         <v>0.93</v>
       </c>
       <c r="F156">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="G156">
-        <v>0.64</v>
+        <v>0.72</v>
       </c>
       <c r="H156" s="5">
-        <v>0.51</v>
+        <v>0.83</v>
       </c>
       <c r="J156">
-        <v>0.69</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>303</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>302</v>
       </c>
       <c r="C157" t="s">
         <v>203</v>
       </c>
       <c r="D157" s="5">
-        <v>0.94</v>
+        <v>1</v>
       </c>
       <c r="E157">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="F157">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="G157">
-        <v>0.43</v>
+        <v>0.64</v>
       </c>
       <c r="H157" s="5">
-        <v>0.66</v>
+        <v>0.51</v>
       </c>
       <c r="J157">
         <v>0.69</v>
@@ -6564,126 +6597,126 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>305</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="C158" t="s">
         <v>203</v>
       </c>
       <c r="D158" s="5">
-        <v>0.83</v>
+        <v>0.94</v>
       </c>
       <c r="E158">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="G158">
-        <v>0.48</v>
+        <v>0.43</v>
       </c>
       <c r="H158" s="5">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="J158">
-        <v>0.78</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>307</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="C159" t="s">
-        <v>308</v>
+        <v>203</v>
       </c>
       <c r="D159" s="5">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="E159">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="F159">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="G159">
-        <v>0.63</v>
+        <v>0.48</v>
       </c>
       <c r="H159" s="5">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="J159">
-        <v>0.91</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C160" t="s">
         <v>308</v>
       </c>
       <c r="D160" s="5">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="E160">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="G160">
-        <v>0.69</v>
+        <v>0.63</v>
       </c>
       <c r="H160" s="5">
-        <v>0.42</v>
+        <v>0.79</v>
       </c>
       <c r="J160">
-        <v>0.38</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>312</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="C161" t="s">
         <v>308</v>
       </c>
       <c r="D161" s="5">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="E161">
         <v>0.98</v>
       </c>
       <c r="F161">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="G161">
-        <v>0.84</v>
+        <v>0.69</v>
       </c>
       <c r="H161" s="5">
-        <v>0.69</v>
+        <v>0.42</v>
       </c>
       <c r="J161">
-        <v>0.69</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>314</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>313</v>
       </c>
       <c r="C162" t="s">
         <v>308</v>
@@ -6692,190 +6725,190 @@
         <v>0.92</v>
       </c>
       <c r="E162">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="F162">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="G162">
-        <v>0.57999999999999996</v>
+        <v>0.84</v>
       </c>
       <c r="H162" s="5">
-        <v>0.64</v>
+        <v>0.69</v>
       </c>
       <c r="J162">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>316</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="C163" t="s">
         <v>308</v>
       </c>
       <c r="D163" s="5">
-        <v>0.81</v>
+        <v>0.92</v>
       </c>
       <c r="E163">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="F163">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="G163">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H163" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="J163">
         <v>0.7</v>
-      </c>
-      <c r="H163" s="5">
-        <v>0.41</v>
-      </c>
-      <c r="J163">
-        <v>0.81</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>318</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>317</v>
       </c>
       <c r="C164" t="s">
         <v>308</v>
       </c>
       <c r="D164" s="5">
-        <v>0.89</v>
+        <v>0.81</v>
       </c>
       <c r="E164">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="G164">
-        <v>0.64</v>
+        <v>0.7</v>
       </c>
       <c r="H164" s="5">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="J164">
-        <v>0.46</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C165" t="s">
         <v>308</v>
       </c>
       <c r="D165" s="5">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="E165">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="F165">
         <v>0</v>
       </c>
       <c r="G165">
-        <v>0.85</v>
+        <v>0.64</v>
       </c>
       <c r="H165" s="5">
-        <v>0.79</v>
+        <v>0.38</v>
       </c>
       <c r="J165">
-        <v>0.93</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C166" t="s">
         <v>308</v>
       </c>
       <c r="D166" s="5">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="E166">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="F166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G166">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="H166" s="5">
-        <v>0.68</v>
+        <v>0.79</v>
       </c>
       <c r="J166">
-        <v>0.72</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C167" t="s">
         <v>308</v>
       </c>
       <c r="D167" s="5">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="E167">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F167">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G167">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="H167" s="5">
-        <v>0.33</v>
+        <v>0.68</v>
       </c>
       <c r="J167">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>326</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C168" t="s">
         <v>308</v>
       </c>
       <c r="D168" s="5">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="E168">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="F168">
-        <v>0.82</v>
+        <v>0.97</v>
       </c>
       <c r="G168">
-        <v>0.39</v>
+        <v>0.6</v>
       </c>
       <c r="H168" s="5">
-        <v>0.44</v>
+        <v>0.33</v>
       </c>
       <c r="J168">
         <v>0.7</v>
@@ -6883,10 +6916,10 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>328</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="C169" t="s">
         <v>308</v>
@@ -6895,335 +6928,335 @@
         <v>0.89</v>
       </c>
       <c r="E169">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="F169">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="G169">
-        <v>0.63</v>
+        <v>0.39</v>
       </c>
       <c r="H169" s="5">
-        <v>0.62</v>
+        <v>0.44</v>
       </c>
       <c r="J169">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C170" t="s">
         <v>308</v>
       </c>
       <c r="D170" s="5">
-        <v>0.56000000000000005</v>
+        <v>0.89</v>
       </c>
       <c r="E170">
-        <v>0.88</v>
+        <v>0.98</v>
       </c>
       <c r="F170">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G170">
-        <v>0.36</v>
+        <v>0.63</v>
       </c>
       <c r="H170" s="5">
-        <v>0.04</v>
+        <v>0.62</v>
       </c>
       <c r="J170">
-        <v>0.87</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C171" t="s">
         <v>308</v>
       </c>
       <c r="D171" s="5">
-        <v>0.83</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E171">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="F171">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="G171">
-        <v>0.66</v>
+        <v>0.36</v>
       </c>
       <c r="H171" s="5">
-        <v>0.68</v>
+        <v>0.04</v>
       </c>
       <c r="J171">
-        <v>0.38</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>135</v>
+        <v>332</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>136</v>
+        <v>333</v>
       </c>
       <c r="C172" t="s">
         <v>308</v>
       </c>
       <c r="D172" s="5">
-        <v>0.53</v>
+        <v>0.83</v>
       </c>
       <c r="E172">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="G172">
-        <v>0.46</v>
+        <v>0.66</v>
       </c>
       <c r="H172" s="5">
-        <v>0.18</v>
+        <v>0.68</v>
       </c>
       <c r="J172">
-        <v>0.74</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>334</v>
+        <v>135</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>335</v>
+        <v>136</v>
       </c>
       <c r="C173" t="s">
         <v>308</v>
       </c>
       <c r="D173" s="5">
-        <v>0.89</v>
+        <v>0.53</v>
       </c>
       <c r="E173">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G173">
-        <v>0.7</v>
+        <v>0.46</v>
       </c>
       <c r="H173" s="5">
-        <v>0.78</v>
+        <v>0.18</v>
       </c>
       <c r="J173">
-        <v>0.56000000000000005</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C174" t="s">
         <v>308</v>
       </c>
       <c r="D174" s="5">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="E174">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="F174">
         <v>1</v>
       </c>
       <c r="G174">
-        <v>0.55000000000000004</v>
+        <v>0.7</v>
       </c>
       <c r="H174" s="5">
-        <v>0.28000000000000003</v>
+        <v>0.78</v>
       </c>
       <c r="J174">
-        <v>0.87</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C175" t="s">
         <v>308</v>
       </c>
       <c r="D175" s="5">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="E175">
         <v>1</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G175">
-        <v>0.63</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H175" s="5">
-        <v>0.52</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="J175">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>340</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>339</v>
       </c>
       <c r="C176" t="s">
         <v>308</v>
       </c>
       <c r="D176" s="5">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="E176">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="F176">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="G176">
-        <v>0.56999999999999995</v>
+        <v>0.63</v>
       </c>
       <c r="H176" s="5">
-        <v>0.56999999999999995</v>
+        <v>0.52</v>
       </c>
       <c r="J176">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>342</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="C177" t="s">
         <v>308</v>
       </c>
       <c r="D177" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E177">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="G177">
-        <v>0.82</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H177" s="5">
-        <v>0.38</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="J177">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>344</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>343</v>
       </c>
       <c r="C178" t="s">
         <v>308</v>
       </c>
       <c r="D178" s="5">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="E178">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="F178">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="G178">
-        <v>0.63</v>
+        <v>0.82</v>
       </c>
       <c r="H178" s="5">
-        <v>0.51</v>
+        <v>0.38</v>
       </c>
       <c r="J178">
-        <v>0.56000000000000005</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>346</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="C179" t="s">
         <v>308</v>
       </c>
       <c r="D179" s="5">
-        <v>0.94</v>
+        <v>0.89</v>
       </c>
       <c r="E179">
         <v>1</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G179">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="H179" s="5">
-        <v>0.42</v>
+        <v>0.51</v>
       </c>
       <c r="J179">
-        <v>0.7</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C180" t="s">
         <v>308</v>
       </c>
       <c r="D180" s="5">
-        <v>0.97</v>
+        <v>0.94</v>
       </c>
       <c r="E180">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="F180">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="G180">
-        <v>0.75</v>
+        <v>0.61</v>
       </c>
       <c r="H180" s="5">
-        <v>0.7</v>
+        <v>0.42</v>
       </c>
       <c r="J180">
         <v>0.7</v>
@@ -7231,28 +7264,28 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C181" t="s">
         <v>308</v>
       </c>
       <c r="D181" s="5">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="E181">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="F181">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="G181">
-        <v>0.64</v>
+        <v>0.75</v>
       </c>
       <c r="H181" s="5">
-        <v>0.55000000000000004</v>
+        <v>0.7</v>
       </c>
       <c r="J181">
         <v>0.7</v>
@@ -7260,10 +7293,10 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C182" t="s">
         <v>308</v>
@@ -7272,16 +7305,16 @@
         <v>0.92</v>
       </c>
       <c r="E182">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="F182">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="G182">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="H182" s="5">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J182">
         <v>0.7</v>
@@ -7289,39 +7322,39 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C183" t="s">
         <v>308</v>
       </c>
       <c r="D183" s="5">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="E183">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="F183">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="G183">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="H183" s="5">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="J183">
-        <v>0.81</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C184" t="s">
         <v>308</v>
@@ -7333,13 +7366,13 @@
         <v>1</v>
       </c>
       <c r="F184">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G184">
-        <v>0.73</v>
+        <v>0.61</v>
       </c>
       <c r="H184" s="5">
-        <v>0.76</v>
+        <v>0.63</v>
       </c>
       <c r="J184">
         <v>0.81</v>
@@ -7347,263 +7380,263 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C185" t="s">
         <v>308</v>
       </c>
       <c r="D185" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="E185">
         <v>1</v>
       </c>
-      <c r="E185">
-        <v>0.98</v>
-      </c>
       <c r="F185">
+        <v>0.92</v>
+      </c>
+      <c r="G185">
+        <v>0.73</v>
+      </c>
+      <c r="H185" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="J185">
         <v>0.81</v>
-      </c>
-      <c r="G185">
-        <v>0.51</v>
-      </c>
-      <c r="H185" s="5">
-        <v>0.47</v>
-      </c>
-      <c r="J185">
-        <v>0.38</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C186" t="s">
         <v>308</v>
       </c>
       <c r="D186" s="5">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="E186">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F186">
-        <v>0.97</v>
+        <v>0.81</v>
       </c>
       <c r="G186">
-        <v>0.61</v>
+        <v>0.51</v>
       </c>
       <c r="H186" s="5">
+        <v>0.47</v>
+      </c>
+      <c r="J186">
         <v>0.38</v>
-      </c>
-      <c r="J186">
-        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>449</v>
+        <v>360</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>448</v>
+        <v>361</v>
       </c>
       <c r="C187" t="s">
         <v>308</v>
       </c>
       <c r="D187" s="5">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="E187">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="F187">
-        <v>0.73</v>
+        <v>0.97</v>
       </c>
       <c r="G187">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="H187" s="5">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="J187">
-        <v>0.7</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>362</v>
+        <v>449</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>363</v>
+        <v>448</v>
       </c>
       <c r="C188" t="s">
         <v>308</v>
       </c>
       <c r="D188" s="5">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="E188">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="F188">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="G188">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="H188" s="5">
-        <v>0.79</v>
+        <v>0.37</v>
       </c>
       <c r="J188">
-        <v>0.83</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>364</v>
-      </c>
-      <c r="B189" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>363</v>
       </c>
       <c r="C189" t="s">
         <v>308</v>
       </c>
       <c r="D189" s="5">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="E189">
         <v>0.95</v>
       </c>
       <c r="F189">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G189">
-        <v>0.73</v>
+        <v>0.79</v>
       </c>
       <c r="H189" s="5">
-        <v>0.42</v>
+        <v>0.79</v>
       </c>
       <c r="J189">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>366</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>365</v>
       </c>
       <c r="C190" t="s">
         <v>308</v>
       </c>
       <c r="D190" s="5">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F190">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
       <c r="G190">
-        <v>0.57999999999999996</v>
+        <v>0.73</v>
       </c>
       <c r="H190" s="5">
-        <v>0.37</v>
+        <v>0.42</v>
       </c>
       <c r="J190">
-        <v>0.37</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C191" t="s">
         <v>308</v>
       </c>
       <c r="D191" s="5">
-        <v>0.69</v>
+        <v>0.67</v>
       </c>
       <c r="E191">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>0.97</v>
+        <v>0.86</v>
       </c>
       <c r="G191">
-        <v>0.49</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H191" s="5">
-        <v>0.59</v>
+        <v>0.37</v>
       </c>
       <c r="J191">
-        <v>0.91</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C192" t="s">
         <v>308</v>
       </c>
       <c r="D192" s="5">
-        <v>0.86</v>
+        <v>0.69</v>
       </c>
       <c r="E192">
         <v>0.95</v>
       </c>
       <c r="F192">
-        <v>0.82</v>
+        <v>0.97</v>
       </c>
       <c r="G192">
-        <v>0.63</v>
+        <v>0.49</v>
       </c>
       <c r="H192" s="5">
-        <v>0.41</v>
+        <v>0.59</v>
       </c>
       <c r="J192">
-        <v>0.46</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C193" t="s">
         <v>308</v>
       </c>
       <c r="D193" s="5">
-        <v>0.97</v>
+        <v>0.86</v>
       </c>
       <c r="E193">
-        <v>0.77</v>
+        <v>0.95</v>
       </c>
       <c r="F193">
-        <v>0.91</v>
+        <v>0.82</v>
       </c>
       <c r="G193">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="H193" s="5">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="J193">
-        <v>0.85</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
@@ -7611,213 +7644,213 @@
         <v>372</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C194" t="s">
         <v>308</v>
       </c>
       <c r="D194" s="5">
-        <v>0.69</v>
+        <v>0.97</v>
       </c>
       <c r="E194">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="F194">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="G194">
-        <v>0.72</v>
+        <v>0.64</v>
       </c>
       <c r="H194" s="5">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="J194">
-        <v>0.72</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C195" t="s">
         <v>308</v>
       </c>
       <c r="D195" s="5">
-        <v>0.92</v>
+        <v>0.69</v>
       </c>
       <c r="E195">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G195">
-        <v>0.6</v>
+        <v>0.72</v>
       </c>
       <c r="H195" s="5">
-        <v>0.34</v>
+        <v>0.43</v>
       </c>
       <c r="J195">
-        <v>0.48</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C196" t="s">
         <v>308</v>
       </c>
       <c r="D196" s="5">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="E196">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="F196">
         <v>0</v>
       </c>
       <c r="G196">
-        <v>0.83</v>
+        <v>0.6</v>
       </c>
       <c r="H196" s="5">
-        <v>0.84</v>
+        <v>0.34</v>
       </c>
       <c r="J196">
-        <v>0.46</v>
-      </c>
-      <c r="K196">
-        <v>0.62</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C197" t="s">
         <v>308</v>
       </c>
       <c r="D197" s="5">
-        <v>0.81</v>
+        <v>0.97</v>
       </c>
       <c r="E197">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="F197">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="G197">
-        <v>0.56999999999999995</v>
+        <v>0.83</v>
       </c>
       <c r="H197" s="5">
-        <v>0.26</v>
+        <v>0.84</v>
       </c>
       <c r="J197">
-        <v>0.85</v>
+        <v>0.46</v>
+      </c>
+      <c r="K197">
+        <v>0.62</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>381</v>
-      </c>
-      <c r="B198" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>380</v>
       </c>
       <c r="C198" t="s">
         <v>308</v>
       </c>
       <c r="D198" s="5">
-        <v>0.89</v>
+        <v>0.81</v>
       </c>
       <c r="E198">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="F198">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="G198">
-        <v>0.57999999999999996</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H198" s="5">
-        <v>0.47</v>
+        <v>0.26</v>
       </c>
       <c r="J198">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>383</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>382</v>
       </c>
       <c r="C199" t="s">
         <v>308</v>
       </c>
       <c r="D199" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="E199">
+        <v>0.98</v>
+      </c>
+      <c r="F199">
+        <v>0.89</v>
+      </c>
+      <c r="G199">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H199" s="5">
+        <v>0.47</v>
+      </c>
+      <c r="J199">
         <v>0.83</v>
-      </c>
-      <c r="E199">
-        <v>0.95</v>
-      </c>
-      <c r="F199">
-        <v>1</v>
-      </c>
-      <c r="G199">
-        <v>0.51</v>
-      </c>
-      <c r="H199" s="5">
-        <v>0.54</v>
-      </c>
-      <c r="J199">
-        <v>0.72</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C200" t="s">
         <v>308</v>
       </c>
       <c r="D200" s="5">
-        <v>0.78</v>
+        <v>0.83</v>
       </c>
       <c r="E200">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F200">
         <v>1</v>
       </c>
       <c r="G200">
-        <v>0.43</v>
+        <v>0.51</v>
       </c>
       <c r="H200" s="5">
-        <v>0.42</v>
+        <v>0.54</v>
       </c>
       <c r="J200">
-        <v>0.38</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C201" t="s">
         <v>308</v>
@@ -7826,419 +7859,419 @@
         <v>0.78</v>
       </c>
       <c r="E201">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="F201">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G201">
-        <v>0.69</v>
+        <v>0.43</v>
       </c>
       <c r="H201" s="5">
-        <v>0.56999999999999995</v>
+        <v>0.42</v>
       </c>
       <c r="J201">
-        <v>0</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C202" t="s">
         <v>308</v>
       </c>
       <c r="D202" s="5">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="E202">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="G202">
         <v>0.69</v>
       </c>
       <c r="H202" s="5">
-        <v>0.52</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="J202">
-        <v>0.69</v>
-      </c>
-      <c r="K202">
-        <v>0.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C203" t="s">
         <v>308</v>
       </c>
       <c r="D203" s="5">
-        <v>0.81</v>
+        <v>0.97</v>
       </c>
       <c r="E203">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F203">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="G203">
-        <v>0.57999999999999996</v>
+        <v>0.69</v>
       </c>
       <c r="H203" s="5">
-        <v>0.56999999999999995</v>
+        <v>0.52</v>
       </c>
       <c r="J203">
-        <v>0.7</v>
+        <v>0.69</v>
+      </c>
+      <c r="K203">
+        <v>0.62</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>458</v>
+        <v>391</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>459</v>
+        <v>392</v>
       </c>
       <c r="C204" t="s">
         <v>308</v>
       </c>
       <c r="D204" s="5">
-        <v>0</v>
+        <v>0.81</v>
       </c>
       <c r="E204">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F204">
-        <v>0.77</v>
+        <v>0.84</v>
       </c>
       <c r="G204">
-        <v>0</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H204" s="5">
-        <v>0.45</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="J204">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>393</v>
+        <v>458</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>394</v>
+        <v>459</v>
       </c>
       <c r="C205" t="s">
         <v>308</v>
       </c>
       <c r="D205" s="5">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="E205">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="F205">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="G205">
-        <v>0.56999999999999995</v>
+        <v>0</v>
       </c>
       <c r="H205" s="5">
-        <v>0.79</v>
+        <v>0.45</v>
       </c>
       <c r="J205">
-        <v>0.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>276</v>
+        <v>393</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>277</v>
+        <v>394</v>
       </c>
       <c r="C206" t="s">
         <v>308</v>
       </c>
       <c r="D206" s="5">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="E206">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G206">
-        <v>0.66</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H206" s="5">
-        <v>0.5</v>
+        <v>0.79</v>
       </c>
       <c r="J206">
-        <v>0.38</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>395</v>
+        <v>276</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>396</v>
+        <v>277</v>
       </c>
       <c r="C207" t="s">
         <v>308</v>
       </c>
       <c r="D207" s="5">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="E207">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G207">
-        <v>0.85</v>
+        <v>0.66</v>
       </c>
       <c r="H207" s="5">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="J207">
-        <v>0.46</v>
-      </c>
-      <c r="K207">
-        <v>0.62</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C208" t="s">
         <v>308</v>
       </c>
       <c r="D208" s="5">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="E208">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F208">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G208">
-        <v>0.73</v>
+        <v>0.85</v>
       </c>
       <c r="H208" s="5">
-        <v>0.72</v>
+        <v>0.9</v>
       </c>
       <c r="J208">
-        <v>0.69</v>
+        <v>0.46</v>
+      </c>
+      <c r="K208">
+        <v>0.62</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C209" t="s">
         <v>308</v>
       </c>
       <c r="D209" s="5">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="E209">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="F209">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="G209">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="H209" s="5">
-        <v>0.63</v>
+        <v>0.72</v>
       </c>
       <c r="J209">
-        <v>0.83</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>401</v>
-      </c>
-      <c r="B210" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>400</v>
       </c>
       <c r="C210" t="s">
         <v>308</v>
       </c>
       <c r="D210" s="5">
-        <v>0.94</v>
+        <v>0.86</v>
       </c>
       <c r="E210">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="F210">
         <v>0.97</v>
       </c>
       <c r="G210">
-        <v>0.6</v>
+        <v>0.79</v>
       </c>
       <c r="H210" s="5">
-        <v>0.22</v>
+        <v>0.63</v>
       </c>
       <c r="J210">
-        <v>0.72</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>465</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>429</v>
+        <v>401</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>402</v>
       </c>
       <c r="C211" t="s">
         <v>308</v>
       </c>
       <c r="D211" s="5">
-        <v>0.89</v>
+        <v>0.94</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="F211">
         <v>0.97</v>
       </c>
       <c r="G211">
-        <v>0.55000000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="H211" s="5">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="J211">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>403</v>
+        <v>465</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="C212" t="s">
         <v>308</v>
       </c>
       <c r="D212" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="E212">
+        <v>1</v>
+      </c>
+      <c r="F212">
         <v>0.97</v>
       </c>
-      <c r="E212">
-        <v>0.93100000000000005</v>
-      </c>
-      <c r="F212">
-        <v>1</v>
-      </c>
       <c r="G212">
-        <v>0.88</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H212" s="5">
-        <v>0.78</v>
+        <v>0.15</v>
       </c>
       <c r="J212">
-        <v>0.85</v>
-      </c>
-      <c r="K212">
-        <v>0.62</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C213" t="s">
         <v>308</v>
       </c>
       <c r="D213" s="5">
-        <v>0.72</v>
+        <v>0.97</v>
       </c>
       <c r="E213">
-        <v>0.98</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="F213">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G213">
-        <v>0.61</v>
+        <v>0.88</v>
       </c>
       <c r="H213" s="5">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="J213">
         <v>0.85</v>
       </c>
+      <c r="K213">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C214" t="s">
         <v>308</v>
       </c>
       <c r="D214" s="5">
-        <v>0.94</v>
+        <v>0.72</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="F214">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="G214">
-        <v>0.49</v>
+        <v>0.61</v>
       </c>
       <c r="H214" s="5">
-        <v>0.28000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="J214">
-        <v>0.69</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C215" t="s">
         <v>308</v>
       </c>
       <c r="D215" s="5">
-        <v>0.67</v>
+        <v>0.94</v>
       </c>
       <c r="E215">
         <v>1</v>
@@ -8247,227 +8280,227 @@
         <v>0.89</v>
       </c>
       <c r="G215">
+        <v>0.49</v>
+      </c>
+      <c r="H215" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J215">
         <v>0.69</v>
-      </c>
-      <c r="H215" s="5">
-        <v>0.43</v>
-      </c>
-      <c r="J215">
-        <v>0.81</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>411</v>
-      </c>
-      <c r="B216" s="3" t="s">
-        <v>412</v>
+        <v>409</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>410</v>
       </c>
       <c r="C216" t="s">
         <v>308</v>
       </c>
       <c r="D216" s="5">
-        <v>0.72</v>
+        <v>0.67</v>
       </c>
       <c r="E216">
         <v>1</v>
       </c>
       <c r="F216">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="G216">
-        <v>0.54</v>
+        <v>0.69</v>
       </c>
       <c r="H216" s="5">
-        <v>0.26</v>
+        <v>0.43</v>
       </c>
       <c r="J216">
-        <v>0.7</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>413</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>412</v>
       </c>
       <c r="C217" t="s">
         <v>308</v>
       </c>
       <c r="D217" s="5">
-        <v>0.83</v>
+        <v>0.72</v>
       </c>
       <c r="E217">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="G217">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="H217" s="5">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="J217">
-        <v>0.81</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C218" t="s">
         <v>308</v>
       </c>
       <c r="D218" s="5">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="E218">
-        <v>0.91</v>
+        <v>0.98</v>
       </c>
       <c r="F218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G218">
-        <v>0.56999999999999995</v>
+        <v>0</v>
       </c>
       <c r="H218" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J218">
-        <v>0.83</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C219" t="s">
         <v>308</v>
       </c>
       <c r="D219" s="5">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G219">
-        <v>0.7</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H219" s="5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J219">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C220" t="s">
         <v>308</v>
       </c>
       <c r="D220" s="5">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="E220">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G220">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="H220" s="5">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="J220">
-        <v>0.46</v>
-      </c>
-      <c r="K220">
-        <v>0.62</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C221" t="s">
         <v>308</v>
       </c>
       <c r="D221" s="5">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
       <c r="E221">
         <v>0.98</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G221">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
       <c r="H221" s="5">
-        <v>0.44</v>
+        <v>0.54</v>
       </c>
       <c r="J221">
-        <v>0.72</v>
+        <v>0.46</v>
+      </c>
+      <c r="K221">
+        <v>0.62</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C222" t="s">
         <v>308</v>
       </c>
       <c r="D222" s="5">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="E222">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="F222">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="G222">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="H222" s="5">
-        <v>0.68</v>
+        <v>0.44</v>
       </c>
       <c r="J222">
-        <v>0.83</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C223" t="s">
         <v>308</v>
@@ -8476,27 +8509,27 @@
         <v>0.89</v>
       </c>
       <c r="E223">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="F223">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="G223">
-        <v>0.54</v>
+        <v>0.78</v>
       </c>
       <c r="H223" s="5">
-        <v>0.54</v>
+        <v>0.68</v>
       </c>
       <c r="J223">
-        <v>0.72</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>192</v>
-      </c>
-      <c r="B224" s="3" t="s">
-        <v>194</v>
+        <v>425</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="C224" t="s">
         <v>308</v>
@@ -8508,140 +8541,140 @@
         <v>1</v>
       </c>
       <c r="F224">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G224">
-        <v>0.31</v>
+        <v>0.54</v>
       </c>
       <c r="H224" s="5">
-        <v>0.41</v>
+        <v>0.54</v>
       </c>
       <c r="J224">
-        <v>0.56000000000000005</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>427</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>428</v>
+        <v>192</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="C225" t="s">
         <v>308</v>
       </c>
       <c r="D225" s="5">
-        <v>0.94</v>
+        <v>0.89</v>
       </c>
       <c r="E225">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="F225">
-        <v>0.81</v>
+        <v>0.88</v>
       </c>
       <c r="G225">
-        <v>0.63</v>
+        <v>0.31</v>
       </c>
       <c r="H225" s="5">
-        <v>0.57999999999999996</v>
+        <v>0.41</v>
       </c>
       <c r="J225">
-        <v>0.7</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C226" t="s">
         <v>308</v>
       </c>
       <c r="D226" s="5">
-        <v>0.86</v>
+        <v>0.94</v>
       </c>
       <c r="E226">
-        <v>0.74</v>
+        <v>0.91</v>
       </c>
       <c r="F226">
-        <v>0.85</v>
+        <v>0.81</v>
       </c>
       <c r="G226">
-        <v>0.75</v>
+        <v>0.63</v>
       </c>
       <c r="H226" s="5">
-        <v>0.72</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J226">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C227" t="s">
         <v>308</v>
       </c>
       <c r="D227" s="5">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="E227">
-        <v>0.91</v>
+        <v>0.74</v>
       </c>
       <c r="F227">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="G227">
-        <v>0.48</v>
+        <v>0.75</v>
       </c>
       <c r="H227" s="5">
-        <v>0.65</v>
+        <v>0.72</v>
       </c>
       <c r="J227">
-        <v>0.56000000000000005</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>434</v>
-      </c>
-      <c r="B228" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>433</v>
       </c>
       <c r="C228" t="s">
         <v>308</v>
       </c>
       <c r="D228" s="5">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="E228">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="F228">
         <v>1</v>
       </c>
       <c r="G228">
-        <v>0.66</v>
+        <v>0.48</v>
       </c>
       <c r="H228" s="5">
-        <v>0.36</v>
+        <v>0.65</v>
       </c>
       <c r="J228">
-        <v>0.91</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C229" t="s">
         <v>308</v>
@@ -8650,18 +8683,47 @@
         <v>0.86</v>
       </c>
       <c r="E229">
+        <v>0.98</v>
+      </c>
+      <c r="F229">
         <v>1</v>
       </c>
-      <c r="F229">
+      <c r="G229">
+        <v>0.66</v>
+      </c>
+      <c r="H229" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="J229">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>436</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C230" t="s">
+        <v>308</v>
+      </c>
+      <c r="D230" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230">
         <v>0.93</v>
       </c>
-      <c r="G229">
+      <c r="G230">
         <v>0.52</v>
       </c>
-      <c r="H229" s="5">
+      <c r="H230" s="5">
         <v>0.45</v>
       </c>
-      <c r="J229">
+      <c r="J230">
         <v>0.56000000000000005</v>
       </c>
     </row>

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE517156-AC68-3F46-9A25-7A0ABC62685D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEFF0B7-EDD2-FD46-8543-3ECDE4911DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="1040" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -1901,8 +1901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="I97" sqref="I97"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="I103" sqref="I103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -3681,6 +3681,9 @@
       <c r="H58" s="5">
         <v>0.75</v>
       </c>
+      <c r="I58">
+        <v>0.65</v>
+      </c>
       <c r="J58">
         <v>0.76</v>
       </c>
@@ -3739,6 +3742,9 @@
       <c r="H60" s="5">
         <v>0.84</v>
       </c>
+      <c r="I60">
+        <v>0.78</v>
+      </c>
       <c r="J60">
         <v>0.78</v>
       </c>
@@ -4299,6 +4305,9 @@
       <c r="H79" s="5">
         <v>0.73</v>
       </c>
+      <c r="I79">
+        <v>0.74</v>
+      </c>
       <c r="J79">
         <v>0.78</v>
       </c>
@@ -4743,6 +4752,9 @@
       <c r="H94" s="5">
         <v>0.51</v>
       </c>
+      <c r="I94">
+        <v>0.78</v>
+      </c>
       <c r="J94">
         <v>0.63</v>
       </c>
@@ -4989,6 +5001,9 @@
       </c>
       <c r="H102" s="5">
         <v>0.64</v>
+      </c>
+      <c r="I102">
+        <v>0.38</v>
       </c>
       <c r="J102">
         <v>0.85</v>

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEFF0B7-EDD2-FD46-8543-3ECDE4911DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63AFC311-81E7-5241-9C88-288EE003CDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="1040" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -1901,8 +1901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="I103" sqref="I103"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -4073,6 +4073,9 @@
       <c r="H71" s="5">
         <v>0.49</v>
       </c>
+      <c r="I71">
+        <v>0.71</v>
+      </c>
       <c r="J71">
         <v>0.76</v>
       </c>

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63AFC311-81E7-5241-9C88-288EE003CDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83B790C-719C-854E-89FA-50530C324910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="1040" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -1901,8 +1901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="I72" sqref="I72"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="I106" sqref="I106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -3713,6 +3713,9 @@
       <c r="H59" s="5">
         <v>0.56000000000000005</v>
       </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
       <c r="J59">
         <v>0.63</v>
       </c>
@@ -3774,6 +3777,9 @@
       <c r="H61" s="5">
         <v>0</v>
       </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
       <c r="J61">
         <v>0.87</v>
       </c>
@@ -3803,6 +3809,9 @@
       <c r="H62" s="5">
         <v>0.7</v>
       </c>
+      <c r="I62">
+        <v>0.66</v>
+      </c>
       <c r="J62">
         <v>0.85</v>
       </c>
@@ -3864,6 +3873,9 @@
       <c r="H64" s="5">
         <v>0.94</v>
       </c>
+      <c r="I64">
+        <v>0.87</v>
+      </c>
       <c r="J64">
         <v>0.78</v>
       </c>
@@ -3893,6 +3905,9 @@
       <c r="H65" s="5">
         <v>0.43</v>
       </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
       <c r="J65">
         <v>0.85</v>
       </c>
@@ -3922,6 +3937,9 @@
       <c r="H66" s="5">
         <v>0.19</v>
       </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
       <c r="J66">
         <v>0.74</v>
       </c>
@@ -3951,6 +3969,9 @@
       <c r="H67" s="5">
         <v>0.6</v>
       </c>
+      <c r="I67">
+        <v>0.84</v>
+      </c>
       <c r="J67">
         <v>0.74</v>
       </c>
@@ -4012,6 +4033,9 @@
       <c r="H69" s="5">
         <v>0.61</v>
       </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
       <c r="J69">
         <v>0.83</v>
       </c>
@@ -4105,6 +4129,9 @@
       <c r="H72" s="5">
         <v>0.61</v>
       </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
       <c r="J72">
         <v>0.63</v>
       </c>
@@ -4134,6 +4161,9 @@
       <c r="H73" s="5">
         <v>0.3</v>
       </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
       <c r="J73">
         <v>0.65</v>
       </c>
@@ -4163,6 +4193,9 @@
       <c r="H74" s="5">
         <v>0.69</v>
       </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
       <c r="J74">
         <v>0.85</v>
       </c>
@@ -4192,6 +4225,9 @@
       <c r="H75" s="5">
         <v>0.65</v>
       </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
       <c r="J75">
         <v>0.74</v>
       </c>
@@ -4221,6 +4257,9 @@
       <c r="H76" s="5">
         <v>0.53</v>
       </c>
+      <c r="I76">
+        <v>0.82</v>
+      </c>
       <c r="J76">
         <v>0.76</v>
       </c>
@@ -4279,6 +4318,9 @@
       <c r="H78" s="5">
         <v>0</v>
       </c>
+      <c r="I78">
+        <v>0.26</v>
+      </c>
       <c r="J78">
         <v>0.39</v>
       </c>
@@ -4340,6 +4382,9 @@
       <c r="H80" s="5">
         <v>0.82</v>
       </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
       <c r="J80">
         <v>0.74</v>
       </c>
@@ -4465,6 +4510,9 @@
       <c r="H84" s="5">
         <v>0.22</v>
       </c>
+      <c r="I84">
+        <v>0.26</v>
+      </c>
       <c r="J84">
         <v>0.65</v>
       </c>
@@ -4494,6 +4542,9 @@
       <c r="H85" s="5">
         <v>0.89</v>
       </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
       <c r="J85">
         <v>0.76</v>
       </c>
@@ -4523,6 +4574,9 @@
       <c r="H86" s="5">
         <v>0.63</v>
       </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
       <c r="J86">
         <v>0.83</v>
       </c>
@@ -4552,6 +4606,9 @@
       <c r="H87" s="5">
         <v>0.63</v>
       </c>
+      <c r="I87">
+        <v>0.81</v>
+      </c>
       <c r="J87">
         <v>0.74</v>
       </c>
@@ -4581,6 +4638,9 @@
       <c r="H88" s="5">
         <v>0.3</v>
       </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
       <c r="J88">
         <v>0.74</v>
       </c>
@@ -4610,6 +4670,9 @@
       <c r="H89" s="5">
         <v>0.57999999999999996</v>
       </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
       <c r="J89">
         <v>0.65</v>
       </c>
@@ -4639,6 +4702,9 @@
       <c r="H90" s="5">
         <v>0.32</v>
       </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
       <c r="J90">
         <v>0.74</v>
       </c>
@@ -4668,6 +4734,9 @@
       <c r="H91" s="5">
         <v>0.44</v>
       </c>
+      <c r="I91">
+        <v>0.68</v>
+      </c>
       <c r="J91">
         <v>0.74</v>
       </c>
@@ -4697,6 +4766,9 @@
       <c r="H92" s="5">
         <v>0.53</v>
       </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
       <c r="J92">
         <v>0.89</v>
       </c>
@@ -4726,6 +4798,9 @@
       <c r="H93" s="5">
         <v>0.55000000000000004</v>
       </c>
+      <c r="I93">
+        <v>0.56999999999999995</v>
+      </c>
       <c r="J93">
         <v>0.63</v>
       </c>
@@ -4883,6 +4958,9 @@
       <c r="H98" s="5">
         <v>0.84</v>
       </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
       <c r="J98">
         <v>0.83</v>
       </c>
@@ -4911,6 +4989,9 @@
       </c>
       <c r="H99" s="5">
         <v>0.66</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
       </c>
       <c r="J99">
         <v>0.83</v>

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83B790C-719C-854E-89FA-50530C324910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD7579F-8EF8-0B4D-814E-5D8DA3A9A5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="1040" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -1901,8 +1901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="I106" sqref="I106"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2776,7 +2776,7 @@
         <v>0.76</v>
       </c>
       <c r="H28" s="7">
-        <v>0.76699029126213603</v>
+        <v>0.83</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -3104,7 +3104,7 @@
         <v>0.84</v>
       </c>
       <c r="H39" s="7">
-        <v>0.85436893203883502</v>
+        <v>0.91</v>
       </c>
       <c r="J39">
         <v>0.81</v>
@@ -3133,7 +3133,7 @@
         <v>0.82</v>
       </c>
       <c r="H40" s="7">
-        <v>0.84466019417475702</v>
+        <v>0.92</v>
       </c>
       <c r="J40">
         <v>0.7</v>
@@ -7674,7 +7674,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="H191" s="5">
-        <v>0.37</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="J191">
         <v>0.37</v>
@@ -7703,7 +7703,7 @@
         <v>0.49</v>
       </c>
       <c r="H192" s="5">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="J192">
         <v>0.91</v>
@@ -7909,7 +7909,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="H199" s="5">
-        <v>0.47</v>
+        <v>0.49</v>
       </c>
       <c r="J199">
         <v>0.83</v>

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD7579F-8EF8-0B4D-814E-5D8DA3A9A5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D138F20-2C30-B54A-8FAE-8CAAFAC2BA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="1040" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -1901,8 +1901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="I206" sqref="I206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -6777,6 +6777,9 @@
       <c r="H160" s="5">
         <v>0.79</v>
       </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
       <c r="J160">
         <v>0.91</v>
       </c>
@@ -6806,6 +6809,9 @@
       <c r="H161" s="5">
         <v>0.42</v>
       </c>
+      <c r="I161">
+        <v>0.69</v>
+      </c>
       <c r="J161">
         <v>0.38</v>
       </c>
@@ -6835,6 +6841,9 @@
       <c r="H162" s="5">
         <v>0.69</v>
       </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
       <c r="J162">
         <v>0.69</v>
       </c>
@@ -6864,6 +6873,9 @@
       <c r="H163" s="5">
         <v>0.64</v>
       </c>
+      <c r="I163">
+        <v>0.51</v>
+      </c>
       <c r="J163">
         <v>0.7</v>
       </c>
@@ -6893,6 +6905,9 @@
       <c r="H164" s="5">
         <v>0.41</v>
       </c>
+      <c r="I164">
+        <v>0.66</v>
+      </c>
       <c r="J164">
         <v>0.81</v>
       </c>
@@ -6922,6 +6937,9 @@
       <c r="H165" s="5">
         <v>0.38</v>
       </c>
+      <c r="I165">
+        <v>0.74</v>
+      </c>
       <c r="J165">
         <v>0.46</v>
       </c>
@@ -6951,6 +6969,9 @@
       <c r="H166" s="5">
         <v>0.79</v>
       </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
       <c r="J166">
         <v>0.93</v>
       </c>
@@ -6980,6 +7001,9 @@
       <c r="H167" s="5">
         <v>0.68</v>
       </c>
+      <c r="I167">
+        <v>0.84</v>
+      </c>
       <c r="J167">
         <v>0.72</v>
       </c>
@@ -7009,6 +7033,9 @@
       <c r="H168" s="5">
         <v>0.33</v>
       </c>
+      <c r="I168">
+        <v>0.68</v>
+      </c>
       <c r="J168">
         <v>0.7</v>
       </c>
@@ -7038,6 +7065,9 @@
       <c r="H169" s="5">
         <v>0.44</v>
       </c>
+      <c r="I169">
+        <v>0.78</v>
+      </c>
       <c r="J169">
         <v>0.7</v>
       </c>
@@ -7067,6 +7097,9 @@
       <c r="H170" s="5">
         <v>0.62</v>
       </c>
+      <c r="I170">
+        <v>0.59</v>
+      </c>
       <c r="J170">
         <v>0.72</v>
       </c>
@@ -7096,6 +7129,9 @@
       <c r="H171" s="5">
         <v>0.04</v>
       </c>
+      <c r="I171">
+        <v>0.56999999999999995</v>
+      </c>
       <c r="J171">
         <v>0.87</v>
       </c>
@@ -7125,6 +7161,9 @@
       <c r="H172" s="5">
         <v>0.68</v>
       </c>
+      <c r="I172">
+        <v>0.78</v>
+      </c>
       <c r="J172">
         <v>0.38</v>
       </c>
@@ -7154,6 +7193,9 @@
       <c r="H173" s="5">
         <v>0.18</v>
       </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
       <c r="J173">
         <v>0.74</v>
       </c>
@@ -7183,6 +7225,9 @@
       <c r="H174" s="5">
         <v>0.78</v>
       </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
       <c r="J174">
         <v>0.56000000000000005</v>
       </c>
@@ -7212,6 +7257,9 @@
       <c r="H175" s="5">
         <v>0.28000000000000003</v>
       </c>
+      <c r="I175">
+        <v>0.66</v>
+      </c>
       <c r="J175">
         <v>0.87</v>
       </c>
@@ -7241,6 +7289,9 @@
       <c r="H176" s="5">
         <v>0.52</v>
       </c>
+      <c r="I176">
+        <v>0.63</v>
+      </c>
       <c r="J176">
         <v>0.83</v>
       </c>
@@ -7270,6 +7321,9 @@
       <c r="H177" s="5">
         <v>0.56999999999999995</v>
       </c>
+      <c r="I177">
+        <v>0.81</v>
+      </c>
       <c r="J177">
         <v>0.91</v>
       </c>
@@ -7299,6 +7353,9 @@
       <c r="H178" s="5">
         <v>0.38</v>
       </c>
+      <c r="I178">
+        <v>0.56999999999999995</v>
+      </c>
       <c r="J178">
         <v>0.7</v>
       </c>
@@ -7328,6 +7385,9 @@
       <c r="H179" s="5">
         <v>0.51</v>
       </c>
+      <c r="I179">
+        <v>0.74</v>
+      </c>
       <c r="J179">
         <v>0.56000000000000005</v>
       </c>
@@ -7357,6 +7417,9 @@
       <c r="H180" s="5">
         <v>0.42</v>
       </c>
+      <c r="I180">
+        <v>0.81</v>
+      </c>
       <c r="J180">
         <v>0.7</v>
       </c>
@@ -7386,6 +7449,9 @@
       <c r="H181" s="5">
         <v>0.7</v>
       </c>
+      <c r="I181">
+        <v>0.6</v>
+      </c>
       <c r="J181">
         <v>0.7</v>
       </c>
@@ -7415,6 +7481,9 @@
       <c r="H182" s="5">
         <v>0.55000000000000004</v>
       </c>
+      <c r="I182">
+        <v>0.49</v>
+      </c>
       <c r="J182">
         <v>0.7</v>
       </c>
@@ -7444,6 +7513,9 @@
       <c r="H183" s="5">
         <v>0.6</v>
       </c>
+      <c r="I183">
+        <v>0.79</v>
+      </c>
       <c r="J183">
         <v>0.7</v>
       </c>
@@ -7473,6 +7545,9 @@
       <c r="H184" s="5">
         <v>0.63</v>
       </c>
+      <c r="I184">
+        <v>0.71</v>
+      </c>
       <c r="J184">
         <v>0.81</v>
       </c>
@@ -7502,6 +7577,9 @@
       <c r="H185" s="5">
         <v>0.76</v>
       </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
       <c r="J185">
         <v>0.81</v>
       </c>
@@ -7531,6 +7609,9 @@
       <c r="H186" s="5">
         <v>0.47</v>
       </c>
+      <c r="I186">
+        <v>0.78</v>
+      </c>
       <c r="J186">
         <v>0.38</v>
       </c>
@@ -7560,6 +7641,9 @@
       <c r="H187" s="5">
         <v>0.38</v>
       </c>
+      <c r="I187">
+        <v>0.62</v>
+      </c>
       <c r="J187">
         <v>0.56000000000000005</v>
       </c>
@@ -7589,6 +7673,9 @@
       <c r="H188" s="5">
         <v>0.37</v>
       </c>
+      <c r="I188">
+        <v>0.25</v>
+      </c>
       <c r="J188">
         <v>0.7</v>
       </c>
@@ -7618,6 +7705,9 @@
       <c r="H189" s="5">
         <v>0.79</v>
       </c>
+      <c r="I189">
+        <v>0.78</v>
+      </c>
       <c r="J189">
         <v>0.83</v>
       </c>
@@ -7647,6 +7737,9 @@
       <c r="H190" s="5">
         <v>0.42</v>
       </c>
+      <c r="I190">
+        <v>0.75</v>
+      </c>
       <c r="J190">
         <v>0.91</v>
       </c>
@@ -7676,6 +7769,9 @@
       <c r="H191" s="5">
         <v>0.56999999999999995</v>
       </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
       <c r="J191">
         <v>0.37</v>
       </c>
@@ -7705,6 +7801,9 @@
       <c r="H192" s="5">
         <v>0.61</v>
       </c>
+      <c r="I192">
+        <v>0.84</v>
+      </c>
       <c r="J192">
         <v>0.91</v>
       </c>
@@ -7734,6 +7833,9 @@
       <c r="H193" s="5">
         <v>0.41</v>
       </c>
+      <c r="I193">
+        <v>0.59</v>
+      </c>
       <c r="J193">
         <v>0.46</v>
       </c>
@@ -7763,6 +7865,9 @@
       <c r="H194" s="5">
         <v>0</v>
       </c>
+      <c r="I194">
+        <v>0.82</v>
+      </c>
       <c r="J194">
         <v>0.85</v>
       </c>
@@ -7792,6 +7897,9 @@
       <c r="H195" s="5">
         <v>0.43</v>
       </c>
+      <c r="I195">
+        <v>0.49</v>
+      </c>
       <c r="J195">
         <v>0.72</v>
       </c>
@@ -7821,6 +7929,9 @@
       <c r="H196" s="5">
         <v>0.34</v>
       </c>
+      <c r="I196">
+        <v>0.75</v>
+      </c>
       <c r="J196">
         <v>0.48</v>
       </c>
@@ -7850,6 +7961,9 @@
       <c r="H197" s="5">
         <v>0.84</v>
       </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
       <c r="J197">
         <v>0.46</v>
       </c>
@@ -7882,6 +7996,9 @@
       <c r="H198" s="5">
         <v>0.26</v>
       </c>
+      <c r="I198">
+        <v>0.84</v>
+      </c>
       <c r="J198">
         <v>0.85</v>
       </c>
@@ -7911,6 +8028,9 @@
       <c r="H199" s="5">
         <v>0.49</v>
       </c>
+      <c r="I199">
+        <v>0.54</v>
+      </c>
       <c r="J199">
         <v>0.83</v>
       </c>
@@ -7940,6 +8060,9 @@
       <c r="H200" s="5">
         <v>0.54</v>
       </c>
+      <c r="I200">
+        <v>0.81</v>
+      </c>
       <c r="J200">
         <v>0.72</v>
       </c>
@@ -7969,6 +8092,9 @@
       <c r="H201" s="5">
         <v>0.42</v>
       </c>
+      <c r="I201">
+        <v>0.62</v>
+      </c>
       <c r="J201">
         <v>0.38</v>
       </c>
@@ -7998,6 +8124,9 @@
       <c r="H202" s="5">
         <v>0.56999999999999995</v>
       </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
       <c r="J202">
         <v>0</v>
       </c>
@@ -8027,6 +8156,9 @@
       <c r="H203" s="5">
         <v>0.52</v>
       </c>
+      <c r="I203">
+        <v>0.81</v>
+      </c>
       <c r="J203">
         <v>0.69</v>
       </c>
@@ -8059,6 +8191,9 @@
       <c r="H204" s="5">
         <v>0.56999999999999995</v>
       </c>
+      <c r="I204">
+        <v>0.65</v>
+      </c>
       <c r="J204">
         <v>0.7</v>
       </c>
@@ -8088,6 +8223,9 @@
       <c r="H205" s="5">
         <v>0.45</v>
       </c>
+      <c r="I205">
+        <v>0.53</v>
+      </c>
       <c r="J205">
         <v>0</v>
       </c>
@@ -8117,6 +8255,9 @@
       <c r="H206" s="5">
         <v>0.79</v>
       </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
       <c r="J206">
         <v>0.87</v>
       </c>
@@ -8146,6 +8287,9 @@
       <c r="H207" s="5">
         <v>0.5</v>
       </c>
+      <c r="I207">
+        <v>0.72</v>
+      </c>
       <c r="J207">
         <v>0.38</v>
       </c>
@@ -8175,6 +8319,9 @@
       <c r="H208" s="5">
         <v>0.9</v>
       </c>
+      <c r="I208">
+        <v>0.74</v>
+      </c>
       <c r="J208">
         <v>0.46</v>
       </c>
@@ -8207,6 +8354,9 @@
       <c r="H209" s="5">
         <v>0.72</v>
       </c>
+      <c r="I209">
+        <v>0.74</v>
+      </c>
       <c r="J209">
         <v>0.69</v>
       </c>
@@ -8236,6 +8386,9 @@
       <c r="H210" s="5">
         <v>0.63</v>
       </c>
+      <c r="I210">
+        <v>0.84</v>
+      </c>
       <c r="J210">
         <v>0.83</v>
       </c>
@@ -8265,6 +8418,9 @@
       <c r="H211" s="5">
         <v>0.22</v>
       </c>
+      <c r="I211">
+        <v>0.62</v>
+      </c>
       <c r="J211">
         <v>0.72</v>
       </c>
@@ -8294,6 +8450,9 @@
       <c r="H212" s="5">
         <v>0.15</v>
       </c>
+      <c r="I212">
+        <v>0.5</v>
+      </c>
       <c r="J212">
         <v>0.7</v>
       </c>
@@ -8323,6 +8482,9 @@
       <c r="H213" s="5">
         <v>0.78</v>
       </c>
+      <c r="I213">
+        <v>0.88</v>
+      </c>
       <c r="J213">
         <v>0.85</v>
       </c>
@@ -8355,6 +8517,9 @@
       <c r="H214" s="5">
         <v>0.5</v>
       </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
       <c r="J214">
         <v>0.85</v>
       </c>
@@ -8384,6 +8549,9 @@
       <c r="H215" s="5">
         <v>0.28000000000000003</v>
       </c>
+      <c r="I215">
+        <v>0.65</v>
+      </c>
       <c r="J215">
         <v>0.69</v>
       </c>
@@ -8413,6 +8581,9 @@
       <c r="H216" s="5">
         <v>0.43</v>
       </c>
+      <c r="I216">
+        <v>0.81</v>
+      </c>
       <c r="J216">
         <v>0.81</v>
       </c>
@@ -8442,6 +8613,9 @@
       <c r="H217" s="5">
         <v>0.26</v>
       </c>
+      <c r="I217">
+        <v>0.68</v>
+      </c>
       <c r="J217">
         <v>0.7</v>
       </c>
@@ -8471,6 +8645,9 @@
       <c r="H218" s="5">
         <v>0</v>
       </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
       <c r="J218">
         <v>0.81</v>
       </c>
@@ -8500,6 +8677,9 @@
       <c r="H219" s="5">
         <v>0.5</v>
       </c>
+      <c r="I219">
+        <v>0.56999999999999995</v>
+      </c>
       <c r="J219">
         <v>0.83</v>
       </c>
@@ -8529,6 +8709,9 @@
       <c r="H220" s="5">
         <v>0</v>
       </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
       <c r="J220">
         <v>0.91</v>
       </c>
@@ -8558,6 +8741,9 @@
       <c r="H221" s="5">
         <v>0.54</v>
       </c>
+      <c r="I221">
+        <v>0.78</v>
+      </c>
       <c r="J221">
         <v>0.46</v>
       </c>
@@ -8590,6 +8776,9 @@
       <c r="H222" s="5">
         <v>0.44</v>
       </c>
+      <c r="I222">
+        <v>0.62</v>
+      </c>
       <c r="J222">
         <v>0.72</v>
       </c>
@@ -8619,6 +8808,9 @@
       <c r="H223" s="5">
         <v>0.68</v>
       </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
       <c r="J223">
         <v>0.83</v>
       </c>
@@ -8648,6 +8840,9 @@
       <c r="H224" s="5">
         <v>0.54</v>
       </c>
+      <c r="I224">
+        <v>0.62</v>
+      </c>
       <c r="J224">
         <v>0.72</v>
       </c>
@@ -8677,6 +8872,9 @@
       <c r="H225" s="5">
         <v>0.41</v>
       </c>
+      <c r="I225">
+        <v>0.56999999999999995</v>
+      </c>
       <c r="J225">
         <v>0.56000000000000005</v>
       </c>
@@ -8706,6 +8904,9 @@
       <c r="H226" s="5">
         <v>0.57999999999999996</v>
       </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
       <c r="J226">
         <v>0.7</v>
       </c>
@@ -8735,6 +8936,9 @@
       <c r="H227" s="5">
         <v>0.72</v>
       </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
       <c r="J227">
         <v>0.85</v>
       </c>
@@ -8764,6 +8968,9 @@
       <c r="H228" s="5">
         <v>0.65</v>
       </c>
+      <c r="I228">
+        <v>0.81</v>
+      </c>
       <c r="J228">
         <v>0.56000000000000005</v>
       </c>
@@ -8793,6 +9000,9 @@
       <c r="H229" s="5">
         <v>0.36</v>
       </c>
+      <c r="I229">
+        <v>0.65</v>
+      </c>
       <c r="J229">
         <v>0.91</v>
       </c>
@@ -8821,6 +9031,9 @@
       </c>
       <c r="H230" s="5">
         <v>0.45</v>
+      </c>
+      <c r="I230">
+        <v>0.66</v>
       </c>
       <c r="J230">
         <v>0.56000000000000005</v>

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D138F20-2C30-B54A-8FAE-8CAAFAC2BA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6481A73D-1A8F-494E-9530-63141A4DC902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="1040" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="469">
   <si>
     <t>Surname</t>
   </si>
@@ -1440,6 +1440,9 @@
   </si>
   <si>
     <t>H220550G</t>
+  </si>
+  <si>
+    <t>Chiota</t>
   </si>
 </sst>
 </file>
@@ -1558,10 +1561,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16CEB027-FB46-1A44-BA46-BD4AD30C864F}" name="Table1" displayName="Table1" ref="A1:M230" totalsRowShown="0">
-  <autoFilter ref="A1:M230" xr:uid="{16CEB027-FB46-1A44-BA46-BD4AD30C864F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M230">
-    <sortCondition ref="C1:C230"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16CEB027-FB46-1A44-BA46-BD4AD30C864F}" name="Table1" displayName="Table1" ref="A1:M231" totalsRowShown="0">
+  <autoFilter ref="A1:M231" xr:uid="{16CEB027-FB46-1A44-BA46-BD4AD30C864F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M231">
+    <sortCondition ref="C1:C231"/>
   </sortState>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{1B9A59CC-67BA-3D4E-8BF2-E846FAA4CCF7}" name="Surname"/>
@@ -1899,10 +1902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
-  <dimension ref="A1:M230"/>
+  <dimension ref="A1:M231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="I206" sqref="I206"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E231" sqref="E231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -3775,10 +3778,10 @@
         <v>0.59</v>
       </c>
       <c r="H61" s="5">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="J61">
         <v>0.87</v>
@@ -5150,6 +5153,9 @@
       <c r="H104" s="5">
         <v>0.63</v>
       </c>
+      <c r="I104">
+        <v>0.66</v>
+      </c>
       <c r="J104">
         <v>0.46</v>
       </c>
@@ -5179,6 +5185,9 @@
       <c r="H105" s="5">
         <v>0.65</v>
       </c>
+      <c r="I105">
+        <v>0.78</v>
+      </c>
       <c r="J105">
         <v>0.69</v>
       </c>
@@ -5208,6 +5217,9 @@
       <c r="H106" s="5">
         <v>0.68</v>
       </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
       <c r="J106">
         <v>0.69</v>
       </c>
@@ -5237,6 +5249,9 @@
       <c r="H107" s="5">
         <v>0.38</v>
       </c>
+      <c r="I107">
+        <v>0.91</v>
+      </c>
       <c r="J107">
         <v>0.69</v>
       </c>
@@ -5266,6 +5281,9 @@
       <c r="H108" s="5">
         <v>0.46</v>
       </c>
+      <c r="I108">
+        <v>0.78</v>
+      </c>
       <c r="J108">
         <v>0.69</v>
       </c>
@@ -5295,6 +5313,9 @@
       <c r="H109" s="5">
         <v>0.56999999999999995</v>
       </c>
+      <c r="I109">
+        <v>0.24</v>
+      </c>
       <c r="J109">
         <v>0.87</v>
       </c>
@@ -5324,63 +5345,67 @@
       <c r="H110" s="5">
         <v>0</v>
       </c>
+      <c r="I110">
+        <v>0.79</v>
+      </c>
       <c r="J110">
         <v>0.46</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>217</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>218</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="B111" s="2"/>
       <c r="C111" t="s">
         <v>203</v>
       </c>
       <c r="D111" s="5">
-        <v>0.94</v>
+        <v>0</v>
       </c>
       <c r="E111">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="G111">
-        <v>0.57999999999999996</v>
+        <v>0</v>
       </c>
       <c r="H111" s="5">
-        <v>0.79</v>
-      </c>
-      <c r="J111">
-        <v>0.69</v>
+        <v>0.32</v>
+      </c>
+      <c r="I111">
+        <v>0.82</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C112" t="s">
         <v>203</v>
       </c>
       <c r="D112" s="5">
-        <v>0.97</v>
+        <v>0.94</v>
       </c>
       <c r="E112">
         <v>0.93</v>
       </c>
       <c r="F112">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="G112">
-        <v>0.56999999999999995</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H112" s="5">
-        <v>0.37</v>
+        <v>0.79</v>
+      </c>
+      <c r="I112">
+        <v>0.69</v>
       </c>
       <c r="J112">
         <v>0.69</v>
@@ -5388,176 +5413,194 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C113" t="s">
         <v>203</v>
       </c>
       <c r="D113" s="5">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="E113">
-        <v>0.84</v>
+        <v>0.93</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="G113">
         <v>0.56999999999999995</v>
       </c>
       <c r="H113" s="5">
-        <v>0.56000000000000005</v>
+        <v>0.37</v>
+      </c>
+      <c r="I113">
+        <v>0.76</v>
       </c>
       <c r="J113">
-        <v>0.46</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C114" t="s">
         <v>203</v>
       </c>
       <c r="D114" s="5">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="E114">
-        <v>0.98</v>
+        <v>0.84</v>
       </c>
       <c r="F114">
-        <v>0.81</v>
+        <v>0</v>
       </c>
       <c r="G114">
-        <v>0.45</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H114" s="5">
-        <v>0.34</v>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
       </c>
       <c r="J114">
-        <v>0.83</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C115" t="s">
         <v>203</v>
       </c>
       <c r="D115" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="E115">
+        <v>0.98</v>
+      </c>
+      <c r="F115">
+        <v>0.81</v>
+      </c>
+      <c r="G115">
+        <v>0.45</v>
+      </c>
+      <c r="H115" s="5">
+        <v>0.34</v>
+      </c>
+      <c r="I115">
         <v>0.78</v>
       </c>
-      <c r="E115">
-        <v>0.88</v>
-      </c>
-      <c r="F115">
-        <v>0.93</v>
-      </c>
-      <c r="G115">
-        <v>0.43</v>
-      </c>
-      <c r="H115" s="5">
-        <v>0</v>
-      </c>
       <c r="J115">
-        <v>0.78</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>226</v>
+        <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C116" t="s">
         <v>203</v>
       </c>
       <c r="D116" s="5">
-        <v>0.92</v>
+        <v>0.78</v>
       </c>
       <c r="E116">
+        <v>0.88</v>
+      </c>
+      <c r="F116">
         <v>0.93</v>
       </c>
-      <c r="F116">
-        <v>0.91</v>
-      </c>
       <c r="G116">
-        <v>0.55000000000000004</v>
+        <v>0.43</v>
       </c>
       <c r="H116" s="5">
-        <v>0.52</v>
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0.62</v>
       </c>
       <c r="J116">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C117" t="s">
         <v>203</v>
       </c>
       <c r="D117" s="5">
-        <v>0.78</v>
+        <v>0.92</v>
       </c>
       <c r="E117">
-        <v>0.84</v>
+        <v>0.93</v>
       </c>
       <c r="F117">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="G117">
-        <v>0.36</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H117" s="5">
-        <v>0.42</v>
+        <v>0.52</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
       </c>
       <c r="J117">
-        <v>0.74</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>460</v>
+        <v>228</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>461</v>
+        <v>229</v>
       </c>
       <c r="C118" t="s">
         <v>203</v>
       </c>
       <c r="D118" s="5">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="F118">
-        <v>0.64</v>
+        <v>0.93</v>
       </c>
       <c r="G118">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="H118" s="5">
-        <v>0.54</v>
+        <v>0.42</v>
+      </c>
+      <c r="I118">
+        <v>0.66</v>
       </c>
       <c r="J118">
-        <v>0</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
@@ -5565,7 +5608,7 @@
         <v>460</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C119" t="s">
         <v>203</v>
@@ -5577,13 +5620,16 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>0.84</v>
+        <v>0.64</v>
       </c>
       <c r="G119">
         <v>0</v>
       </c>
       <c r="H119" s="5">
-        <v>0.5</v>
+        <v>0.54</v>
+      </c>
+      <c r="I119">
+        <v>0.66</v>
       </c>
       <c r="J119">
         <v>0</v>
@@ -5591,144 +5637,159 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>230</v>
+        <v>460</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>231</v>
+        <v>462</v>
       </c>
       <c r="C120" t="s">
         <v>203</v>
       </c>
       <c r="D120" s="5">
-        <v>0.94</v>
+        <v>0</v>
       </c>
       <c r="E120">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>0.91</v>
+        <v>0.84</v>
       </c>
       <c r="G120">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="H120" s="5">
-        <v>0.67</v>
+        <v>0.5</v>
+      </c>
+      <c r="I120">
+        <v>0.78</v>
       </c>
       <c r="J120">
-        <v>0.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C121" t="s">
         <v>203</v>
       </c>
       <c r="D121" s="5">
-        <v>0.89</v>
+        <v>0.94</v>
       </c>
       <c r="E121">
-        <v>0.81</v>
+        <v>0.93</v>
       </c>
       <c r="F121">
-        <v>0.78</v>
+        <v>0.91</v>
       </c>
       <c r="G121">
-        <v>0.49</v>
+        <v>0.61</v>
       </c>
       <c r="H121" s="5">
-        <v>0.52</v>
+        <v>0.67</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
       </c>
       <c r="J121">
-        <v>0.65</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C122" t="s">
         <v>203</v>
       </c>
       <c r="D122" s="5">
-        <v>0.94</v>
+        <v>0.89</v>
       </c>
       <c r="E122">
-        <v>0.93</v>
+        <v>0.81</v>
       </c>
       <c r="F122">
-        <v>0.96</v>
+        <v>0.78</v>
       </c>
       <c r="G122">
-        <v>0.6</v>
+        <v>0.49</v>
       </c>
       <c r="H122" s="5">
-        <v>0.56999999999999995</v>
+        <v>0.52</v>
+      </c>
+      <c r="I122">
+        <v>0.68</v>
       </c>
       <c r="J122">
-        <v>0.87</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C123" t="s">
         <v>203</v>
       </c>
       <c r="D123" s="5">
-        <v>0.92</v>
+        <v>0.94</v>
       </c>
       <c r="E123">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="F123">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="G123">
-        <v>0.39</v>
+        <v>0.6</v>
       </c>
       <c r="H123" s="5">
-        <v>0.44</v>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I123">
+        <v>0.69</v>
       </c>
       <c r="J123">
-        <v>0.69</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C124" t="s">
         <v>203</v>
       </c>
       <c r="D124" s="5">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="E124">
-        <v>0.72</v>
+        <v>0.88</v>
       </c>
       <c r="F124">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="G124">
-        <v>0.64</v>
+        <v>0.39</v>
       </c>
       <c r="H124" s="5">
-        <v>0.91</v>
+        <v>0.44</v>
+      </c>
+      <c r="I124">
+        <v>0.59</v>
       </c>
       <c r="J124">
         <v>0.69</v>
@@ -5736,503 +5797,554 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>240</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="C125" t="s">
         <v>203</v>
       </c>
       <c r="D125" s="5">
-        <v>0.78</v>
+        <v>0.94</v>
       </c>
       <c r="E125">
+        <v>0.72</v>
+      </c>
+      <c r="F125">
+        <v>0.88</v>
+      </c>
+      <c r="G125">
+        <v>0.64</v>
+      </c>
+      <c r="H125" s="5">
         <v>0.91</v>
       </c>
-      <c r="F125">
-        <v>0.66</v>
-      </c>
-      <c r="G125">
-        <v>0.37</v>
-      </c>
-      <c r="H125" s="5">
-        <v>0.28999999999999998</v>
+      <c r="I125">
+        <v>0.76</v>
       </c>
       <c r="J125">
-        <v>0.78</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>242</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="C126" t="s">
         <v>203</v>
       </c>
       <c r="D126" s="5">
-        <v>0.86</v>
+        <v>0.78</v>
       </c>
       <c r="E126">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="F126">
-        <v>0.96</v>
+        <v>0.66</v>
       </c>
       <c r="G126">
-        <v>0.75</v>
+        <v>0.37</v>
       </c>
       <c r="H126" s="5">
-        <v>0.69</v>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I126">
+        <v>0.85</v>
       </c>
       <c r="J126">
-        <v>0.87</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C127" t="s">
         <v>203</v>
       </c>
       <c r="D127" s="5">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="E127">
-        <v>0.98</v>
+        <v>0.86</v>
       </c>
       <c r="F127">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="G127">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="H127" s="5">
-        <v>0.65</v>
+        <v>0.69</v>
+      </c>
+      <c r="I127">
+        <v>0.91</v>
       </c>
       <c r="J127">
-        <v>0.69</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C128" t="s">
         <v>203</v>
       </c>
       <c r="D128" s="5">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="E128">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="F128">
         <v>0.93</v>
       </c>
       <c r="G128">
-        <v>0.6</v>
+        <v>0.73</v>
       </c>
       <c r="H128" s="5">
-        <v>0.52</v>
+        <v>0.65</v>
+      </c>
+      <c r="I128">
+        <v>0.87</v>
       </c>
       <c r="J128">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C129" t="s">
         <v>203</v>
       </c>
       <c r="D129" s="5">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H129" s="5">
-        <v>0</v>
+        <v>0.52</v>
+      </c>
+      <c r="I129">
+        <v>0.75</v>
       </c>
       <c r="J129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C130" t="s">
         <v>203</v>
       </c>
       <c r="D130" s="5">
-        <v>0.83</v>
+        <v>0.94</v>
       </c>
       <c r="E130">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="G130">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="H130" s="5">
-        <v>0.59</v>
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>0.4</v>
       </c>
       <c r="J130">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C131" t="s">
         <v>203</v>
       </c>
       <c r="D131" s="5">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="E131">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="F131">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="G131">
-        <v>0.57999999999999996</v>
+        <v>0.63</v>
       </c>
       <c r="H131" s="5">
-        <v>0.32</v>
+        <v>0.59</v>
+      </c>
+      <c r="I131">
+        <v>0.76</v>
       </c>
       <c r="J131">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C132" t="s">
         <v>203</v>
       </c>
       <c r="D132" s="5">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="E132">
         <v>1</v>
       </c>
       <c r="F132">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="G132">
         <v>0.57999999999999996</v>
       </c>
       <c r="H132" s="5">
-        <v>0.63</v>
+        <v>0.32</v>
+      </c>
+      <c r="I132">
+        <v>0.49</v>
       </c>
       <c r="J132">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C133" t="s">
         <v>203</v>
       </c>
       <c r="D133" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>0.91</v>
+      </c>
+      <c r="G133">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H133" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="I133">
+        <v>0.79</v>
+      </c>
+      <c r="J133">
         <v>0.83</v>
       </c>
-      <c r="E133">
-        <v>0.93</v>
-      </c>
-      <c r="F133">
-        <v>0.92</v>
-      </c>
-      <c r="G133">
-        <v>0.52</v>
-      </c>
-      <c r="H133" s="5">
-        <v>0.71</v>
-      </c>
-      <c r="J133">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C134" t="s">
         <v>203</v>
       </c>
       <c r="D134" s="5">
-        <v>0.72</v>
+        <v>0.83</v>
       </c>
       <c r="E134">
-        <v>0.57999999999999996</v>
+        <v>0.93</v>
       </c>
       <c r="F134">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="G134">
+        <v>0.52</v>
+      </c>
+      <c r="H134" s="5">
+        <v>0.71</v>
+      </c>
+      <c r="I134">
         <v>0.81</v>
       </c>
-      <c r="H134" s="5">
-        <v>0.84</v>
-      </c>
       <c r="J134">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C135" t="s">
         <v>203</v>
       </c>
       <c r="D135" s="5">
-        <v>0.92</v>
+        <v>0.72</v>
       </c>
       <c r="E135">
-        <v>0.79</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F135">
-        <v>0.96</v>
+        <v>0.73</v>
       </c>
       <c r="G135">
-        <v>0.75</v>
+        <v>0.81</v>
       </c>
       <c r="H135" s="5">
-        <v>0.67</v>
+        <v>0.84</v>
+      </c>
+      <c r="I135">
+        <v>0.9</v>
       </c>
       <c r="J135">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C136" t="s">
         <v>203</v>
       </c>
       <c r="D136" s="5">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="E136">
-        <v>0.93</v>
+        <v>0.79</v>
       </c>
       <c r="F136">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="G136">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="H136" s="5">
-        <v>0.36</v>
+        <v>0.67</v>
+      </c>
+      <c r="I136">
+        <v>0.72</v>
       </c>
       <c r="J136">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C137" t="s">
         <v>203</v>
       </c>
       <c r="D137" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="E137">
+        <v>0.93</v>
+      </c>
+      <c r="F137">
+        <v>0.8</v>
+      </c>
+      <c r="G137">
+        <v>0.6</v>
+      </c>
+      <c r="H137" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="I137">
+        <v>0.9</v>
+      </c>
+      <c r="J137">
         <v>0.83</v>
       </c>
-      <c r="E137">
-        <v>1</v>
-      </c>
-      <c r="F137">
-        <v>0.7</v>
-      </c>
-      <c r="G137">
-        <v>0.46</v>
-      </c>
-      <c r="H137" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="J137">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C138" t="s">
         <v>203</v>
       </c>
       <c r="D138" s="5">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138">
-        <v>0.92</v>
+        <v>0.7</v>
       </c>
       <c r="G138">
+        <v>0.46</v>
+      </c>
+      <c r="H138" s="5">
         <v>0.66</v>
       </c>
-      <c r="H138" s="5">
-        <v>0.49</v>
+      <c r="I138">
+        <v>0.63</v>
       </c>
       <c r="J138">
         <v>0.69</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>70</v>
+        <v>266</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C139" t="s">
         <v>203</v>
       </c>
       <c r="D139" s="5">
-        <v>0.81</v>
+        <v>0.92</v>
       </c>
       <c r="E139">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="G139">
-        <v>0.57999999999999996</v>
+        <v>0.66</v>
       </c>
       <c r="H139" s="5">
-        <v>0.42</v>
+        <v>0.49</v>
+      </c>
+      <c r="I139">
+        <v>0.79</v>
       </c>
       <c r="J139">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>269</v>
+        <v>70</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C140" t="s">
         <v>203</v>
       </c>
       <c r="D140" s="5">
-        <v>0.94</v>
+        <v>0.81</v>
       </c>
       <c r="E140">
-        <v>0.7</v>
+        <v>0.98</v>
       </c>
       <c r="F140">
-        <v>0.62</v>
+        <v>0.86</v>
       </c>
       <c r="G140">
-        <v>0.93</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H140" s="5">
-        <v>0.81</v>
+        <v>0.42</v>
+      </c>
+      <c r="I140">
+        <v>0.66</v>
       </c>
       <c r="J140">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C141" t="s">
         <v>203</v>
       </c>
       <c r="D141" s="5">
-        <v>0.83</v>
+        <v>0.94</v>
       </c>
       <c r="E141">
-        <v>0.95</v>
+        <v>0.7</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="G141">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="H141" s="5">
-        <v>0.8</v>
+        <v>0.81</v>
+      </c>
+      <c r="I141">
+        <v>0.75</v>
       </c>
       <c r="J141">
         <v>0.65</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C142" t="s">
         <v>203</v>
@@ -6241,88 +6353,94 @@
         <v>0.83</v>
       </c>
       <c r="E142">
-        <v>0.79</v>
+        <v>0.95</v>
       </c>
       <c r="F142">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="G142">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="H142" s="5">
-        <v>0.35</v>
+        <v>0.8</v>
+      </c>
+      <c r="I142">
+        <v>0.78</v>
       </c>
       <c r="J142">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>454</v>
+        <v>273</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>455</v>
+        <v>274</v>
       </c>
       <c r="C143" t="s">
         <v>203</v>
       </c>
       <c r="D143" s="5">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="E143">
+        <v>0.79</v>
+      </c>
+      <c r="F143">
+        <v>0.93</v>
+      </c>
+      <c r="G143">
+        <v>0.54</v>
+      </c>
+      <c r="H143" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="I143">
         <v>0.74</v>
       </c>
-      <c r="F143">
-        <v>0.88</v>
-      </c>
-      <c r="G143">
-        <v>0.48</v>
-      </c>
-      <c r="H143" s="5">
-        <v>0</v>
-      </c>
       <c r="J143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>275</v>
+        <v>454</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="C144" t="s">
         <v>203</v>
       </c>
       <c r="D144" s="5">
-        <v>0.94</v>
+        <v>0</v>
       </c>
       <c r="E144">
-        <v>0.98</v>
+        <v>0.74</v>
       </c>
       <c r="F144">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="G144">
-        <v>0.79</v>
+        <v>0.48</v>
       </c>
       <c r="H144" s="5">
-        <v>0.77</v>
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
       </c>
       <c r="J144">
-        <v>0.46</v>
-      </c>
-      <c r="K144">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>279</v>
+        <v>463</v>
       </c>
       <c r="C145" t="s">
         <v>203</v>
@@ -6331,27 +6449,33 @@
         <v>0.94</v>
       </c>
       <c r="E145">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="F145">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G145">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="H145" s="5">
-        <v>0.69</v>
+        <v>0.77</v>
+      </c>
+      <c r="I145">
+        <v>0.74</v>
       </c>
       <c r="J145">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.46</v>
+      </c>
+      <c r="K145">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C146" t="s">
         <v>203</v>
@@ -6360,27 +6484,30 @@
         <v>0.94</v>
       </c>
       <c r="E146">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F146">
         <v>0.95</v>
       </c>
       <c r="G146">
-        <v>0.56999999999999995</v>
+        <v>0.78</v>
       </c>
       <c r="H146" s="5">
-        <v>0.63</v>
+        <v>0.69</v>
+      </c>
+      <c r="I146">
+        <v>0.74</v>
       </c>
       <c r="J146">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C147" t="s">
         <v>203</v>
@@ -6389,56 +6516,62 @@
         <v>0.94</v>
       </c>
       <c r="E147">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F147">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="G147">
-        <v>0.7</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H147" s="5">
-        <v>0.78</v>
+        <v>0.63</v>
+      </c>
+      <c r="I147">
+        <v>0.68</v>
       </c>
       <c r="J147">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C148" t="s">
         <v>203</v>
       </c>
       <c r="D148" s="5">
-        <v>0.92</v>
+        <v>0.94</v>
       </c>
       <c r="E148">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F148">
         <v>0.96</v>
       </c>
       <c r="G148">
-        <v>0.31</v>
+        <v>0.7</v>
       </c>
       <c r="H148" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.78</v>
+      </c>
+      <c r="I148">
+        <v>0.94</v>
       </c>
       <c r="J148">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C149" t="s">
         <v>203</v>
@@ -6447,56 +6580,62 @@
         <v>0.92</v>
       </c>
       <c r="E149">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="F149">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="G149">
-        <v>0.45</v>
+        <v>0.31</v>
       </c>
       <c r="H149" s="5">
-        <v>0.23</v>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I149">
+        <v>0.76</v>
       </c>
       <c r="J149">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C150" t="s">
         <v>203</v>
       </c>
       <c r="D150" s="5">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="E150">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="F150">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="G150">
-        <v>0.6</v>
+        <v>0.45</v>
       </c>
       <c r="H150" s="5">
-        <v>0.52</v>
+        <v>0.23</v>
+      </c>
+      <c r="I150">
+        <v>0.51</v>
       </c>
       <c r="J150">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C151" t="s">
         <v>203</v>
@@ -6505,114 +6644,126 @@
         <v>0.97</v>
       </c>
       <c r="E151">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="F151">
-        <v>0.85</v>
+        <v>0.91</v>
       </c>
       <c r="G151">
-        <v>0.51</v>
+        <v>0.6</v>
       </c>
       <c r="H151" s="5">
-        <v>0.59</v>
+        <v>0.52</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
       </c>
       <c r="J151">
         <v>0.46</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C152" t="s">
         <v>203</v>
       </c>
       <c r="D152" s="5">
-        <v>0.94</v>
+        <v>0.97</v>
       </c>
       <c r="E152">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="F152">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="G152">
-        <v>0.64</v>
+        <v>0.51</v>
       </c>
       <c r="H152" s="5">
-        <v>0.45</v>
+        <v>0.59</v>
+      </c>
+      <c r="I152">
+        <v>0.66</v>
       </c>
       <c r="J152">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C153" t="s">
         <v>203</v>
       </c>
       <c r="D153" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="E153">
+        <v>0.93</v>
+      </c>
+      <c r="F153">
         <v>0.89</v>
       </c>
-      <c r="E153">
-        <v>0.88</v>
-      </c>
-      <c r="F153">
-        <v>0.93</v>
-      </c>
       <c r="G153">
-        <v>0.73</v>
+        <v>0.64</v>
       </c>
       <c r="H153" s="5">
-        <v>0.74</v>
+        <v>0.45</v>
+      </c>
+      <c r="I153">
+        <v>0.85</v>
       </c>
       <c r="J153">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C154" t="s">
         <v>203</v>
       </c>
       <c r="D154" s="5">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="E154">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="F154">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="G154">
-        <v>0.66</v>
+        <v>0.73</v>
       </c>
       <c r="H154" s="5">
-        <v>0.73</v>
+        <v>0.74</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
       </c>
       <c r="J154">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>298</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>464</v>
+        <v>296</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>297</v>
       </c>
       <c r="C155" t="s">
         <v>203</v>
@@ -6624,236 +6775,251 @@
         <v>0.95</v>
       </c>
       <c r="F155">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="G155">
+        <v>0.66</v>
+      </c>
+      <c r="H155" s="5">
         <v>0.73</v>
       </c>
-      <c r="H155" s="5">
-        <v>0.84</v>
+      <c r="I155">
+        <v>0.79</v>
       </c>
       <c r="J155">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>299</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>464</v>
       </c>
       <c r="C156" t="s">
         <v>203</v>
       </c>
       <c r="D156" s="5">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="E156">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F156">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="G156">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="H156" s="5">
-        <v>0.83</v>
+        <v>0.84</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
       </c>
       <c r="J156">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>301</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="C157" t="s">
         <v>203</v>
       </c>
       <c r="D157" s="5">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="E157">
         <v>0.93</v>
       </c>
       <c r="F157">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="G157">
-        <v>0.64</v>
+        <v>0.72</v>
       </c>
       <c r="H157" s="5">
-        <v>0.51</v>
+        <v>0.83</v>
+      </c>
+      <c r="I157">
+        <v>0.81</v>
       </c>
       <c r="J157">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>303</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>302</v>
       </c>
       <c r="C158" t="s">
         <v>203</v>
       </c>
       <c r="D158" s="5">
-        <v>0.94</v>
+        <v>1</v>
       </c>
       <c r="E158">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="F158">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="G158">
-        <v>0.43</v>
+        <v>0.64</v>
       </c>
       <c r="H158" s="5">
-        <v>0.66</v>
+        <v>0.51</v>
+      </c>
+      <c r="I158">
+        <v>0.74</v>
       </c>
       <c r="J158">
         <v>0.69</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>305</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="C159" t="s">
         <v>203</v>
       </c>
       <c r="D159" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="E159">
+        <v>0.98</v>
+      </c>
+      <c r="F159">
+        <v>0.93</v>
+      </c>
+      <c r="G159">
+        <v>0.43</v>
+      </c>
+      <c r="H159" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="I159">
+        <v>0.69</v>
+      </c>
+      <c r="J159">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>305</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C160" t="s">
+        <v>203</v>
+      </c>
+      <c r="D160" s="5">
         <v>0.83</v>
       </c>
-      <c r="E159">
+      <c r="E160">
         <v>1</v>
       </c>
-      <c r="F159">
-        <v>0</v>
-      </c>
-      <c r="G159">
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
         <v>0.48</v>
       </c>
-      <c r="H159" s="5">
-        <v>0</v>
-      </c>
-      <c r="J159">
+      <c r="H160" s="5">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>0.69</v>
+      </c>
+      <c r="J160">
         <v>0.78</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>307</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C160" t="s">
-        <v>308</v>
-      </c>
-      <c r="D160" s="5">
-        <v>0.86</v>
-      </c>
-      <c r="E160">
-        <v>0.91</v>
-      </c>
-      <c r="F160">
-        <v>0.89</v>
-      </c>
-      <c r="G160">
-        <v>0.63</v>
-      </c>
-      <c r="H160" s="5">
-        <v>0.79</v>
-      </c>
-      <c r="I160">
-        <v>0</v>
-      </c>
-      <c r="J160">
-        <v>0.91</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C161" t="s">
         <v>308</v>
       </c>
       <c r="D161" s="5">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="E161">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="G161">
-        <v>0.69</v>
+        <v>0.63</v>
       </c>
       <c r="H161" s="5">
-        <v>0.42</v>
+        <v>0.79</v>
       </c>
       <c r="I161">
-        <v>0.69</v>
+        <v>0</v>
       </c>
       <c r="J161">
-        <v>0.38</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>312</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="C162" t="s">
         <v>308</v>
       </c>
       <c r="D162" s="5">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="E162">
         <v>0.98</v>
       </c>
       <c r="F162">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="G162">
-        <v>0.84</v>
+        <v>0.69</v>
       </c>
       <c r="H162" s="5">
+        <v>0.42</v>
+      </c>
+      <c r="I162">
         <v>0.69</v>
       </c>
-      <c r="I162">
-        <v>0</v>
-      </c>
       <c r="J162">
-        <v>0.69</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>314</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>313</v>
       </c>
       <c r="C163" t="s">
         <v>308</v>
@@ -6862,211 +7028,211 @@
         <v>0.92</v>
       </c>
       <c r="E163">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="F163">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="G163">
-        <v>0.57999999999999996</v>
+        <v>0.84</v>
       </c>
       <c r="H163" s="5">
-        <v>0.64</v>
+        <v>0.69</v>
       </c>
       <c r="I163">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="J163">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>316</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="C164" t="s">
         <v>308</v>
       </c>
       <c r="D164" s="5">
-        <v>0.81</v>
+        <v>0.92</v>
       </c>
       <c r="E164">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="F164">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="G164">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H164" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="I164">
+        <v>0.51</v>
+      </c>
+      <c r="J164">
         <v>0.7</v>
-      </c>
-      <c r="H164" s="5">
-        <v>0.41</v>
-      </c>
-      <c r="I164">
-        <v>0.66</v>
-      </c>
-      <c r="J164">
-        <v>0.81</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>318</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>317</v>
       </c>
       <c r="C165" t="s">
         <v>308</v>
       </c>
       <c r="D165" s="5">
-        <v>0.89</v>
+        <v>0.81</v>
       </c>
       <c r="E165">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="G165">
-        <v>0.64</v>
+        <v>0.7</v>
       </c>
       <c r="H165" s="5">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="I165">
-        <v>0.74</v>
+        <v>0.66</v>
       </c>
       <c r="J165">
-        <v>0.46</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C166" t="s">
         <v>308</v>
       </c>
       <c r="D166" s="5">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="E166">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="F166">
         <v>0</v>
       </c>
       <c r="G166">
-        <v>0.85</v>
+        <v>0.64</v>
       </c>
       <c r="H166" s="5">
-        <v>0.79</v>
+        <v>0.38</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="J166">
-        <v>0.93</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C167" t="s">
         <v>308</v>
       </c>
       <c r="D167" s="5">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="E167">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G167">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="H167" s="5">
-        <v>0.68</v>
+        <v>0.79</v>
       </c>
       <c r="I167">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="J167">
-        <v>0.72</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C168" t="s">
         <v>308</v>
       </c>
       <c r="D168" s="5">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="E168">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F168">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G168">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="H168" s="5">
-        <v>0.33</v>
+        <v>0.68</v>
       </c>
       <c r="I168">
-        <v>0.68</v>
+        <v>0.84</v>
       </c>
       <c r="J168">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>326</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C169" t="s">
         <v>308</v>
       </c>
       <c r="D169" s="5">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="E169">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="F169">
-        <v>0.82</v>
+        <v>0.97</v>
       </c>
       <c r="G169">
-        <v>0.39</v>
+        <v>0.6</v>
       </c>
       <c r="H169" s="5">
-        <v>0.44</v>
+        <v>0.33</v>
       </c>
       <c r="I169">
-        <v>0.78</v>
+        <v>0.68</v>
       </c>
       <c r="J169">
         <v>0.7</v>
@@ -7074,10 +7240,10 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>328</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="C170" t="s">
         <v>308</v>
@@ -7086,371 +7252,371 @@
         <v>0.89</v>
       </c>
       <c r="E170">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="G170">
-        <v>0.63</v>
+        <v>0.39</v>
       </c>
       <c r="H170" s="5">
-        <v>0.62</v>
+        <v>0.44</v>
       </c>
       <c r="I170">
-        <v>0.59</v>
+        <v>0.78</v>
       </c>
       <c r="J170">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C171" t="s">
         <v>308</v>
       </c>
       <c r="D171" s="5">
-        <v>0.56000000000000005</v>
+        <v>0.89</v>
       </c>
       <c r="E171">
-        <v>0.88</v>
+        <v>0.98</v>
       </c>
       <c r="F171">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G171">
-        <v>0.36</v>
+        <v>0.63</v>
       </c>
       <c r="H171" s="5">
-        <v>0.04</v>
+        <v>0.62</v>
       </c>
       <c r="I171">
-        <v>0.56999999999999995</v>
+        <v>0.59</v>
       </c>
       <c r="J171">
-        <v>0.87</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C172" t="s">
         <v>308</v>
       </c>
       <c r="D172" s="5">
-        <v>0.83</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E172">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="F172">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="G172">
-        <v>0.66</v>
+        <v>0.36</v>
       </c>
       <c r="H172" s="5">
-        <v>0.68</v>
+        <v>0.04</v>
       </c>
       <c r="I172">
-        <v>0.78</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="J172">
-        <v>0.38</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>135</v>
+        <v>332</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>136</v>
+        <v>333</v>
       </c>
       <c r="C173" t="s">
         <v>308</v>
       </c>
       <c r="D173" s="5">
-        <v>0.53</v>
+        <v>0.83</v>
       </c>
       <c r="E173">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="G173">
-        <v>0.46</v>
+        <v>0.66</v>
       </c>
       <c r="H173" s="5">
-        <v>0.18</v>
+        <v>0.68</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="J173">
-        <v>0.74</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>334</v>
+        <v>135</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>335</v>
+        <v>136</v>
       </c>
       <c r="C174" t="s">
         <v>308</v>
       </c>
       <c r="D174" s="5">
-        <v>0.89</v>
+        <v>0.53</v>
       </c>
       <c r="E174">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="F174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G174">
-        <v>0.7</v>
+        <v>0.46</v>
       </c>
       <c r="H174" s="5">
-        <v>0.78</v>
+        <v>0.18</v>
       </c>
       <c r="I174">
         <v>0</v>
       </c>
       <c r="J174">
-        <v>0.56000000000000005</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C175" t="s">
         <v>308</v>
       </c>
       <c r="D175" s="5">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="E175">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="F175">
         <v>1</v>
       </c>
       <c r="G175">
-        <v>0.55000000000000004</v>
+        <v>0.7</v>
       </c>
       <c r="H175" s="5">
-        <v>0.28000000000000003</v>
+        <v>0.78</v>
       </c>
       <c r="I175">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="J175">
-        <v>0.87</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C176" t="s">
         <v>308</v>
       </c>
       <c r="D176" s="5">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="E176">
         <v>1</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G176">
-        <v>0.63</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H176" s="5">
-        <v>0.52</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I176">
-        <v>0.63</v>
+        <v>0.66</v>
       </c>
       <c r="J176">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>340</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>339</v>
       </c>
       <c r="C177" t="s">
         <v>308</v>
       </c>
       <c r="D177" s="5">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="E177">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="F177">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="G177">
-        <v>0.56999999999999995</v>
+        <v>0.63</v>
       </c>
       <c r="H177" s="5">
-        <v>0.56999999999999995</v>
+        <v>0.52</v>
       </c>
       <c r="I177">
-        <v>0.81</v>
+        <v>0.63</v>
       </c>
       <c r="J177">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>342</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="C178" t="s">
         <v>308</v>
       </c>
       <c r="D178" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E178">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="G178">
-        <v>0.82</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H178" s="5">
-        <v>0.38</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="I178">
-        <v>0.56999999999999995</v>
+        <v>0.81</v>
       </c>
       <c r="J178">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>344</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>343</v>
       </c>
       <c r="C179" t="s">
         <v>308</v>
       </c>
       <c r="D179" s="5">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="E179">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="F179">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="G179">
-        <v>0.63</v>
+        <v>0.82</v>
       </c>
       <c r="H179" s="5">
-        <v>0.51</v>
+        <v>0.38</v>
       </c>
       <c r="I179">
-        <v>0.74</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="J179">
-        <v>0.56000000000000005</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>346</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="C180" t="s">
         <v>308</v>
       </c>
       <c r="D180" s="5">
-        <v>0.94</v>
+        <v>0.89</v>
       </c>
       <c r="E180">
         <v>1</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G180">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="H180" s="5">
-        <v>0.42</v>
+        <v>0.51</v>
       </c>
       <c r="I180">
-        <v>0.81</v>
+        <v>0.74</v>
       </c>
       <c r="J180">
-        <v>0.7</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C181" t="s">
         <v>308</v>
       </c>
       <c r="D181" s="5">
-        <v>0.97</v>
+        <v>0.94</v>
       </c>
       <c r="E181">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="F181">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="G181">
-        <v>0.75</v>
+        <v>0.61</v>
       </c>
       <c r="H181" s="5">
-        <v>0.7</v>
+        <v>0.42</v>
       </c>
       <c r="I181">
-        <v>0.6</v>
+        <v>0.81</v>
       </c>
       <c r="J181">
         <v>0.7</v>
@@ -7458,31 +7624,31 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C182" t="s">
         <v>308</v>
       </c>
       <c r="D182" s="5">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="E182">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="F182">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="G182">
-        <v>0.64</v>
+        <v>0.75</v>
       </c>
       <c r="H182" s="5">
-        <v>0.55000000000000004</v>
+        <v>0.7</v>
       </c>
       <c r="I182">
-        <v>0.49</v>
+        <v>0.6</v>
       </c>
       <c r="J182">
         <v>0.7</v>
@@ -7490,10 +7656,10 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C183" t="s">
         <v>308</v>
@@ -7502,19 +7668,19 @@
         <v>0.92</v>
       </c>
       <c r="E183">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="F183">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="G183">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="H183" s="5">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I183">
-        <v>0.79</v>
+        <v>0.49</v>
       </c>
       <c r="J183">
         <v>0.7</v>
@@ -7522,42 +7688,42 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C184" t="s">
         <v>308</v>
       </c>
       <c r="D184" s="5">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="E184">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="F184">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="G184">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="H184" s="5">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="I184">
-        <v>0.71</v>
+        <v>0.79</v>
       </c>
       <c r="J184">
-        <v>0.81</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C185" t="s">
         <v>308</v>
@@ -7569,16 +7735,16 @@
         <v>1</v>
       </c>
       <c r="F185">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G185">
-        <v>0.73</v>
+        <v>0.61</v>
       </c>
       <c r="H185" s="5">
-        <v>0.76</v>
+        <v>0.63</v>
       </c>
       <c r="I185">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="J185">
         <v>0.81</v>
@@ -7586,290 +7752,290 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C186" t="s">
         <v>308</v>
       </c>
       <c r="D186" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="E186">
         <v>1</v>
       </c>
-      <c r="E186">
-        <v>0.98</v>
-      </c>
       <c r="F186">
+        <v>0.92</v>
+      </c>
+      <c r="G186">
+        <v>0.73</v>
+      </c>
+      <c r="H186" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
         <v>0.81</v>
-      </c>
-      <c r="G186">
-        <v>0.51</v>
-      </c>
-      <c r="H186" s="5">
-        <v>0.47</v>
-      </c>
-      <c r="I186">
-        <v>0.78</v>
-      </c>
-      <c r="J186">
-        <v>0.38</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C187" t="s">
         <v>308</v>
       </c>
       <c r="D187" s="5">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="E187">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F187">
-        <v>0.97</v>
+        <v>0.81</v>
       </c>
       <c r="G187">
-        <v>0.61</v>
+        <v>0.51</v>
       </c>
       <c r="H187" s="5">
+        <v>0.47</v>
+      </c>
+      <c r="I187">
+        <v>0.78</v>
+      </c>
+      <c r="J187">
         <v>0.38</v>
-      </c>
-      <c r="I187">
-        <v>0.62</v>
-      </c>
-      <c r="J187">
-        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>449</v>
+        <v>360</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>448</v>
+        <v>361</v>
       </c>
       <c r="C188" t="s">
         <v>308</v>
       </c>
       <c r="D188" s="5">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="E188">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="F188">
-        <v>0.73</v>
+        <v>0.97</v>
       </c>
       <c r="G188">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="H188" s="5">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="I188">
-        <v>0.25</v>
+        <v>0.62</v>
       </c>
       <c r="J188">
-        <v>0.7</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>362</v>
+        <v>449</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>363</v>
+        <v>448</v>
       </c>
       <c r="C189" t="s">
         <v>308</v>
       </c>
       <c r="D189" s="5">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="E189">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="F189">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="G189">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="H189" s="5">
-        <v>0.79</v>
+        <v>0.37</v>
       </c>
       <c r="I189">
-        <v>0.78</v>
+        <v>0.25</v>
       </c>
       <c r="J189">
-        <v>0.83</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>364</v>
-      </c>
-      <c r="B190" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>363</v>
       </c>
       <c r="C190" t="s">
         <v>308</v>
       </c>
       <c r="D190" s="5">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="E190">
         <v>0.95</v>
       </c>
       <c r="F190">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G190">
-        <v>0.73</v>
+        <v>0.79</v>
       </c>
       <c r="H190" s="5">
-        <v>0.42</v>
+        <v>0.79</v>
       </c>
       <c r="I190">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="J190">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>366</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>365</v>
       </c>
       <c r="C191" t="s">
         <v>308</v>
       </c>
       <c r="D191" s="5">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F191">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
       <c r="G191">
-        <v>0.57999999999999996</v>
+        <v>0.73</v>
       </c>
       <c r="H191" s="5">
-        <v>0.56999999999999995</v>
+        <v>0.42</v>
       </c>
       <c r="I191">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="J191">
-        <v>0.37</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C192" t="s">
         <v>308</v>
       </c>
       <c r="D192" s="5">
-        <v>0.69</v>
+        <v>0.67</v>
       </c>
       <c r="E192">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F192">
-        <v>0.97</v>
+        <v>0.86</v>
       </c>
       <c r="G192">
-        <v>0.49</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H192" s="5">
-        <v>0.61</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="I192">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="J192">
-        <v>0.91</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C193" t="s">
         <v>308</v>
       </c>
       <c r="D193" s="5">
-        <v>0.86</v>
+        <v>0.69</v>
       </c>
       <c r="E193">
         <v>0.95</v>
       </c>
       <c r="F193">
-        <v>0.82</v>
+        <v>0.97</v>
       </c>
       <c r="G193">
-        <v>0.63</v>
+        <v>0.49</v>
       </c>
       <c r="H193" s="5">
-        <v>0.41</v>
+        <v>0.61</v>
       </c>
       <c r="I193">
-        <v>0.59</v>
+        <v>0.84</v>
       </c>
       <c r="J193">
-        <v>0.46</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C194" t="s">
         <v>308</v>
       </c>
       <c r="D194" s="5">
-        <v>0.97</v>
+        <v>0.86</v>
       </c>
       <c r="E194">
-        <v>0.77</v>
+        <v>0.95</v>
       </c>
       <c r="F194">
-        <v>0.91</v>
+        <v>0.82</v>
       </c>
       <c r="G194">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="H194" s="5">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="I194">
-        <v>0.82</v>
+        <v>0.59</v>
       </c>
       <c r="J194">
-        <v>0.85</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
@@ -7877,234 +8043,234 @@
         <v>372</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C195" t="s">
         <v>308</v>
       </c>
       <c r="D195" s="5">
-        <v>0.69</v>
+        <v>0.97</v>
       </c>
       <c r="E195">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="F195">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="G195">
-        <v>0.72</v>
+        <v>0.64</v>
       </c>
       <c r="H195" s="5">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="I195">
-        <v>0.49</v>
+        <v>0.82</v>
       </c>
       <c r="J195">
-        <v>0.72</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C196" t="s">
         <v>308</v>
       </c>
       <c r="D196" s="5">
-        <v>0.92</v>
+        <v>0.69</v>
       </c>
       <c r="E196">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G196">
-        <v>0.6</v>
+        <v>0.72</v>
       </c>
       <c r="H196" s="5">
-        <v>0.34</v>
+        <v>0.43</v>
       </c>
       <c r="I196">
-        <v>0.75</v>
+        <v>0.49</v>
       </c>
       <c r="J196">
-        <v>0.48</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C197" t="s">
         <v>308</v>
       </c>
       <c r="D197" s="5">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="E197">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="F197">
         <v>0</v>
       </c>
       <c r="G197">
-        <v>0.83</v>
+        <v>0.6</v>
       </c>
       <c r="H197" s="5">
-        <v>0.84</v>
+        <v>0.34</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="J197">
-        <v>0.46</v>
-      </c>
-      <c r="K197">
-        <v>0.62</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C198" t="s">
         <v>308</v>
       </c>
       <c r="D198" s="5">
-        <v>0.81</v>
+        <v>0.97</v>
       </c>
       <c r="E198">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="F198">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="G198">
-        <v>0.56999999999999995</v>
+        <v>0.83</v>
       </c>
       <c r="H198" s="5">
-        <v>0.26</v>
+        <v>0.84</v>
       </c>
       <c r="I198">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="J198">
-        <v>0.85</v>
+        <v>0.46</v>
+      </c>
+      <c r="K198">
+        <v>0.62</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>381</v>
-      </c>
-      <c r="B199" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>380</v>
       </c>
       <c r="C199" t="s">
         <v>308</v>
       </c>
       <c r="D199" s="5">
-        <v>0.89</v>
+        <v>0.81</v>
       </c>
       <c r="E199">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="F199">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="G199">
-        <v>0.57999999999999996</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H199" s="5">
-        <v>0.49</v>
+        <v>0.26</v>
       </c>
       <c r="I199">
-        <v>0.54</v>
+        <v>0.84</v>
       </c>
       <c r="J199">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>383</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>382</v>
       </c>
       <c r="C200" t="s">
         <v>308</v>
       </c>
       <c r="D200" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="E200">
+        <v>0.98</v>
+      </c>
+      <c r="F200">
+        <v>0.89</v>
+      </c>
+      <c r="G200">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H200" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="I200">
+        <v>0.54</v>
+      </c>
+      <c r="J200">
         <v>0.83</v>
-      </c>
-      <c r="E200">
-        <v>0.95</v>
-      </c>
-      <c r="F200">
-        <v>1</v>
-      </c>
-      <c r="G200">
-        <v>0.51</v>
-      </c>
-      <c r="H200" s="5">
-        <v>0.54</v>
-      </c>
-      <c r="I200">
-        <v>0.81</v>
-      </c>
-      <c r="J200">
-        <v>0.72</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C201" t="s">
         <v>308</v>
       </c>
       <c r="D201" s="5">
-        <v>0.78</v>
+        <v>0.83</v>
       </c>
       <c r="E201">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F201">
         <v>1</v>
       </c>
       <c r="G201">
-        <v>0.43</v>
+        <v>0.51</v>
       </c>
       <c r="H201" s="5">
-        <v>0.42</v>
+        <v>0.54</v>
       </c>
       <c r="I201">
-        <v>0.62</v>
+        <v>0.81</v>
       </c>
       <c r="J201">
-        <v>0.38</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C202" t="s">
         <v>308</v>
@@ -8113,461 +8279,461 @@
         <v>0.78</v>
       </c>
       <c r="E202">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="F202">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G202">
-        <v>0.69</v>
+        <v>0.43</v>
       </c>
       <c r="H202" s="5">
-        <v>0.56999999999999995</v>
+        <v>0.42</v>
       </c>
       <c r="I202">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="J202">
-        <v>0</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C203" t="s">
         <v>308</v>
       </c>
       <c r="D203" s="5">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="E203">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="G203">
         <v>0.69</v>
       </c>
       <c r="H203" s="5">
-        <v>0.52</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="I203">
-        <v>0.81</v>
+        <v>0</v>
       </c>
       <c r="J203">
-        <v>0.69</v>
-      </c>
-      <c r="K203">
-        <v>0.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C204" t="s">
         <v>308</v>
       </c>
       <c r="D204" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="E204">
+        <v>0.93</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+      <c r="G204">
+        <v>0.69</v>
+      </c>
+      <c r="H204" s="5">
+        <v>0.52</v>
+      </c>
+      <c r="I204">
         <v>0.81</v>
       </c>
-      <c r="E204">
-        <v>0.95</v>
-      </c>
-      <c r="F204">
-        <v>0.84</v>
-      </c>
-      <c r="G204">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="H204" s="5">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="I204">
-        <v>0.65</v>
-      </c>
       <c r="J204">
-        <v>0.7</v>
+        <v>0.69</v>
+      </c>
+      <c r="K204">
+        <v>0.62</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>458</v>
+        <v>391</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>459</v>
+        <v>392</v>
       </c>
       <c r="C205" t="s">
         <v>308</v>
       </c>
       <c r="D205" s="5">
-        <v>0</v>
+        <v>0.81</v>
       </c>
       <c r="E205">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F205">
-        <v>0.77</v>
+        <v>0.84</v>
       </c>
       <c r="G205">
-        <v>0</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H205" s="5">
-        <v>0.45</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="I205">
-        <v>0.53</v>
+        <v>0.65</v>
       </c>
       <c r="J205">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>393</v>
+        <v>458</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>394</v>
+        <v>459</v>
       </c>
       <c r="C206" t="s">
         <v>308</v>
       </c>
       <c r="D206" s="5">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="E206">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="F206">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="G206">
-        <v>0.56999999999999995</v>
+        <v>0</v>
       </c>
       <c r="H206" s="5">
-        <v>0.79</v>
+        <v>0.45</v>
       </c>
       <c r="I206">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="J206">
-        <v>0.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>276</v>
+        <v>393</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>277</v>
+        <v>394</v>
       </c>
       <c r="C207" t="s">
         <v>308</v>
       </c>
       <c r="D207" s="5">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="E207">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="F207">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G207">
-        <v>0.66</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H207" s="5">
-        <v>0.5</v>
+        <v>0.79</v>
       </c>
       <c r="I207">
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="J207">
-        <v>0.38</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>395</v>
+        <v>276</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>396</v>
+        <v>277</v>
       </c>
       <c r="C208" t="s">
         <v>308</v>
       </c>
       <c r="D208" s="5">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="E208">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="F208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G208">
-        <v>0.85</v>
+        <v>0.66</v>
       </c>
       <c r="H208" s="5">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="I208">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
       <c r="J208">
-        <v>0.46</v>
-      </c>
-      <c r="K208">
-        <v>0.62</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C209" t="s">
         <v>308</v>
       </c>
       <c r="D209" s="5">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="E209">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F209">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G209">
-        <v>0.73</v>
+        <v>0.85</v>
       </c>
       <c r="H209" s="5">
-        <v>0.72</v>
+        <v>0.9</v>
       </c>
       <c r="I209">
         <v>0.74</v>
       </c>
       <c r="J209">
-        <v>0.69</v>
+        <v>0.46</v>
+      </c>
+      <c r="K209">
+        <v>0.62</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C210" t="s">
         <v>308</v>
       </c>
       <c r="D210" s="5">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="E210">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="F210">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="G210">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="H210" s="5">
-        <v>0.63</v>
+        <v>0.72</v>
       </c>
       <c r="I210">
-        <v>0.84</v>
+        <v>0.74</v>
       </c>
       <c r="J210">
-        <v>0.83</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>401</v>
-      </c>
-      <c r="B211" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>400</v>
       </c>
       <c r="C211" t="s">
         <v>308</v>
       </c>
       <c r="D211" s="5">
-        <v>0.94</v>
+        <v>0.86</v>
       </c>
       <c r="E211">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="F211">
         <v>0.97</v>
       </c>
       <c r="G211">
-        <v>0.6</v>
+        <v>0.79</v>
       </c>
       <c r="H211" s="5">
-        <v>0.22</v>
+        <v>0.63</v>
       </c>
       <c r="I211">
-        <v>0.62</v>
+        <v>0.84</v>
       </c>
       <c r="J211">
-        <v>0.72</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>465</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>429</v>
+        <v>401</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>402</v>
       </c>
       <c r="C212" t="s">
         <v>308</v>
       </c>
       <c r="D212" s="5">
-        <v>0.89</v>
+        <v>0.94</v>
       </c>
       <c r="E212">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="F212">
         <v>0.97</v>
       </c>
       <c r="G212">
-        <v>0.55000000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="H212" s="5">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="I212">
-        <v>0.5</v>
+        <v>0.62</v>
       </c>
       <c r="J212">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>403</v>
+        <v>465</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="C213" t="s">
         <v>308</v>
       </c>
       <c r="D213" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="E213">
+        <v>1</v>
+      </c>
+      <c r="F213">
         <v>0.97</v>
       </c>
-      <c r="E213">
-        <v>0.93100000000000005</v>
-      </c>
-      <c r="F213">
-        <v>1</v>
-      </c>
       <c r="G213">
-        <v>0.88</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H213" s="5">
-        <v>0.78</v>
+        <v>0.15</v>
       </c>
       <c r="I213">
-        <v>0.88</v>
+        <v>0.5</v>
       </c>
       <c r="J213">
-        <v>0.85</v>
-      </c>
-      <c r="K213">
-        <v>0.62</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C214" t="s">
         <v>308</v>
       </c>
       <c r="D214" s="5">
-        <v>0.72</v>
+        <v>0.97</v>
       </c>
       <c r="E214">
-        <v>0.98</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="F214">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G214">
-        <v>0.61</v>
+        <v>0.88</v>
       </c>
       <c r="H214" s="5">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="J214">
         <v>0.85</v>
       </c>
+      <c r="K214">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C215" t="s">
         <v>308</v>
       </c>
       <c r="D215" s="5">
-        <v>0.94</v>
+        <v>0.72</v>
       </c>
       <c r="E215">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="F215">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="G215">
-        <v>0.49</v>
+        <v>0.61</v>
       </c>
       <c r="H215" s="5">
-        <v>0.28000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="I215">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="J215">
-        <v>0.69</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C216" t="s">
         <v>308</v>
       </c>
       <c r="D216" s="5">
-        <v>0.67</v>
+        <v>0.94</v>
       </c>
       <c r="E216">
         <v>1</v>
@@ -8576,251 +8742,251 @@
         <v>0.89</v>
       </c>
       <c r="G216">
+        <v>0.49</v>
+      </c>
+      <c r="H216" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I216">
+        <v>0.65</v>
+      </c>
+      <c r="J216">
         <v>0.69</v>
-      </c>
-      <c r="H216" s="5">
-        <v>0.43</v>
-      </c>
-      <c r="I216">
-        <v>0.81</v>
-      </c>
-      <c r="J216">
-        <v>0.81</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>411</v>
-      </c>
-      <c r="B217" s="3" t="s">
-        <v>412</v>
+        <v>409</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>410</v>
       </c>
       <c r="C217" t="s">
         <v>308</v>
       </c>
       <c r="D217" s="5">
-        <v>0.72</v>
+        <v>0.67</v>
       </c>
       <c r="E217">
         <v>1</v>
       </c>
       <c r="F217">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="G217">
-        <v>0.54</v>
+        <v>0.69</v>
       </c>
       <c r="H217" s="5">
-        <v>0.26</v>
+        <v>0.43</v>
       </c>
       <c r="I217">
-        <v>0.68</v>
+        <v>0.81</v>
       </c>
       <c r="J217">
-        <v>0.7</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>413</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>412</v>
       </c>
       <c r="C218" t="s">
         <v>308</v>
       </c>
       <c r="D218" s="5">
-        <v>0.83</v>
+        <v>0.72</v>
       </c>
       <c r="E218">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="F218">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="G218">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="H218" s="5">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="I218">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="J218">
-        <v>0.81</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C219" t="s">
         <v>308</v>
       </c>
       <c r="D219" s="5">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="E219">
-        <v>0.91</v>
+        <v>0.98</v>
       </c>
       <c r="F219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G219">
-        <v>0.56999999999999995</v>
+        <v>0</v>
       </c>
       <c r="H219" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I219">
-        <v>0.56999999999999995</v>
+        <v>0</v>
       </c>
       <c r="J219">
-        <v>0.83</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C220" t="s">
         <v>308</v>
       </c>
       <c r="D220" s="5">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G220">
-        <v>0.7</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H220" s="5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I220">
-        <v>0</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="J220">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C221" t="s">
         <v>308</v>
       </c>
       <c r="D221" s="5">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="E221">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G221">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="H221" s="5">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="I221">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="J221">
-        <v>0.46</v>
-      </c>
-      <c r="K221">
-        <v>0.62</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C222" t="s">
         <v>308</v>
       </c>
       <c r="D222" s="5">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
       <c r="E222">
         <v>0.98</v>
       </c>
       <c r="F222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G222">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
       <c r="H222" s="5">
-        <v>0.44</v>
+        <v>0.54</v>
       </c>
       <c r="I222">
+        <v>0.78</v>
+      </c>
+      <c r="J222">
+        <v>0.46</v>
+      </c>
+      <c r="K222">
         <v>0.62</v>
-      </c>
-      <c r="J222">
-        <v>0.72</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C223" t="s">
         <v>308</v>
       </c>
       <c r="D223" s="5">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="E223">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="F223">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="G223">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="H223" s="5">
-        <v>0.68</v>
+        <v>0.44</v>
       </c>
       <c r="I223">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="J223">
-        <v>0.83</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C224" t="s">
         <v>308</v>
@@ -8829,30 +8995,30 @@
         <v>0.89</v>
       </c>
       <c r="E224">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="F224">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="G224">
-        <v>0.54</v>
+        <v>0.78</v>
       </c>
       <c r="H224" s="5">
-        <v>0.54</v>
+        <v>0.68</v>
       </c>
       <c r="I224">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="J224">
-        <v>0.72</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>192</v>
-      </c>
-      <c r="B225" s="3" t="s">
-        <v>194</v>
+        <v>425</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="C225" t="s">
         <v>308</v>
@@ -8864,155 +9030,155 @@
         <v>1</v>
       </c>
       <c r="F225">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G225">
-        <v>0.31</v>
+        <v>0.54</v>
       </c>
       <c r="H225" s="5">
-        <v>0.41</v>
+        <v>0.54</v>
       </c>
       <c r="I225">
-        <v>0.56999999999999995</v>
+        <v>0.62</v>
       </c>
       <c r="J225">
-        <v>0.56000000000000005</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>427</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>428</v>
+        <v>192</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="C226" t="s">
         <v>308</v>
       </c>
       <c r="D226" s="5">
-        <v>0.94</v>
+        <v>0.89</v>
       </c>
       <c r="E226">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="F226">
-        <v>0.81</v>
+        <v>0.88</v>
       </c>
       <c r="G226">
-        <v>0.63</v>
+        <v>0.31</v>
       </c>
       <c r="H226" s="5">
-        <v>0.57999999999999996</v>
+        <v>0.41</v>
       </c>
       <c r="I226">
-        <v>0</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="J226">
-        <v>0.7</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C227" t="s">
         <v>308</v>
       </c>
       <c r="D227" s="5">
-        <v>0.86</v>
+        <v>0.94</v>
       </c>
       <c r="E227">
-        <v>0.74</v>
+        <v>0.91</v>
       </c>
       <c r="F227">
-        <v>0.85</v>
+        <v>0.81</v>
       </c>
       <c r="G227">
-        <v>0.75</v>
+        <v>0.63</v>
       </c>
       <c r="H227" s="5">
-        <v>0.72</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="I227">
         <v>0</v>
       </c>
       <c r="J227">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C228" t="s">
         <v>308</v>
       </c>
       <c r="D228" s="5">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="E228">
-        <v>0.91</v>
+        <v>0.74</v>
       </c>
       <c r="F228">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="G228">
-        <v>0.48</v>
+        <v>0.75</v>
       </c>
       <c r="H228" s="5">
-        <v>0.65</v>
+        <v>0.72</v>
       </c>
       <c r="I228">
-        <v>0.81</v>
+        <v>0</v>
       </c>
       <c r="J228">
-        <v>0.56000000000000005</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>434</v>
-      </c>
-      <c r="B229" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>433</v>
       </c>
       <c r="C229" t="s">
         <v>308</v>
       </c>
       <c r="D229" s="5">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="E229">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="F229">
         <v>1</v>
       </c>
       <c r="G229">
-        <v>0.66</v>
+        <v>0.48</v>
       </c>
       <c r="H229" s="5">
-        <v>0.36</v>
+        <v>0.65</v>
       </c>
       <c r="I229">
-        <v>0.65</v>
+        <v>0.81</v>
       </c>
       <c r="J229">
-        <v>0.91</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C230" t="s">
         <v>308</v>
@@ -9021,21 +9187,53 @@
         <v>0.86</v>
       </c>
       <c r="E230">
+        <v>0.98</v>
+      </c>
+      <c r="F230">
         <v>1</v>
       </c>
-      <c r="F230">
+      <c r="G230">
+        <v>0.66</v>
+      </c>
+      <c r="H230" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="I230">
+        <v>0.65</v>
+      </c>
+      <c r="J230">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>436</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C231" t="s">
+        <v>308</v>
+      </c>
+      <c r="D231" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231">
         <v>0.93</v>
       </c>
-      <c r="G230">
+      <c r="G231">
         <v>0.52</v>
       </c>
-      <c r="H230" s="5">
+      <c r="H231" s="5">
         <v>0.45</v>
       </c>
-      <c r="I230">
+      <c r="I231">
         <v>0.66</v>
       </c>
-      <c r="J230">
+      <c r="J231">
         <v>0.56000000000000005</v>
       </c>
     </row>

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6481A73D-1A8F-494E-9530-63141A4DC902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5637239-34EB-5340-A11A-1F804FD8222D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="1040" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -1904,8 +1904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M231"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E231" sqref="E231"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="K140" sqref="K140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -4904,7 +4904,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>188</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>190</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>192</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>195</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>197</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>198</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>200</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>202</v>
       </c>
@@ -5159,8 +5159,11 @@
       <c r="J104">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K104">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>205</v>
       </c>
@@ -5192,7 +5195,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>207</v>
       </c>
@@ -5224,7 +5227,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>209</v>
       </c>
@@ -5255,8 +5258,11 @@
       <c r="J107">
         <v>0.69</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K107">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>211</v>
       </c>
@@ -5288,7 +5294,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>213</v>
       </c>
@@ -5320,7 +5326,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>215</v>
       </c>
@@ -5351,8 +5357,11 @@
       <c r="J110">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K110">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>468</v>
       </c>
@@ -5379,7 +5388,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>217</v>
       </c>
@@ -5411,7 +5420,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>219</v>
       </c>
@@ -5442,8 +5451,11 @@
       <c r="J113">
         <v>0.69</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K113">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>221</v>
       </c>
@@ -5474,8 +5486,11 @@
       <c r="J114">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K114">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>223</v>
       </c>
@@ -5506,8 +5521,11 @@
       <c r="J115">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K115">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -5538,8 +5556,11 @@
       <c r="J116">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K116">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>226</v>
       </c>
@@ -5571,7 +5592,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>228</v>
       </c>
@@ -5603,7 +5624,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>460</v>
       </c>
@@ -5635,7 +5656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>460</v>
       </c>
@@ -5667,7 +5688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>230</v>
       </c>
@@ -5698,8 +5719,11 @@
       <c r="J121">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K121">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>232</v>
       </c>
@@ -5731,7 +5755,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>234</v>
       </c>
@@ -5763,7 +5787,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>236</v>
       </c>
@@ -5795,7 +5819,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>238</v>
       </c>
@@ -5827,7 +5851,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>240</v>
       </c>
@@ -5858,8 +5882,11 @@
       <c r="J126">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K126">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>242</v>
       </c>
@@ -5891,7 +5918,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>244</v>
       </c>
@@ -5922,8 +5949,11 @@
       <c r="J128">
         <v>0.69</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K128">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>246</v>
       </c>
@@ -5955,7 +5985,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>248</v>
       </c>
@@ -5987,7 +6017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>250</v>
       </c>
@@ -6018,8 +6048,11 @@
       <c r="J131">
         <v>0.69</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K131">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>252</v>
       </c>
@@ -6051,7 +6084,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>254</v>
       </c>
@@ -6082,8 +6115,11 @@
       <c r="J133">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K133">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>256</v>
       </c>
@@ -6115,7 +6151,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>258</v>
       </c>
@@ -6147,7 +6183,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>260</v>
       </c>
@@ -6179,7 +6215,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>262</v>
       </c>
@@ -6210,8 +6246,11 @@
       <c r="J137">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K137">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>264</v>
       </c>
@@ -6243,7 +6282,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>266</v>
       </c>
@@ -6274,8 +6313,11 @@
       <c r="J139">
         <v>0.69</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K139">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>70</v>
       </c>
@@ -6306,8 +6348,11 @@
       <c r="J140">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K140">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>269</v>
       </c>
@@ -6339,7 +6384,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>271</v>
       </c>
@@ -6371,7 +6416,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>273</v>
       </c>
@@ -6403,7 +6448,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>454</v>
       </c>
@@ -6533,6 +6578,9 @@
       <c r="J147">
         <v>0.83</v>
       </c>
+      <c r="K147">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
@@ -6597,6 +6645,9 @@
       <c r="J149">
         <v>0.46</v>
       </c>
+      <c r="K149">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
@@ -6629,6 +6680,9 @@
       <c r="J150">
         <v>0.83</v>
       </c>
+      <c r="K150">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
@@ -6661,6 +6715,9 @@
       <c r="J151">
         <v>0.46</v>
       </c>
+      <c r="K151">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
@@ -6693,6 +6750,9 @@
       <c r="J152">
         <v>0.46</v>
       </c>
+      <c r="K152">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
@@ -6725,6 +6785,9 @@
       <c r="J153">
         <v>0.78</v>
       </c>
+      <c r="K153">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
@@ -6757,6 +6820,9 @@
       <c r="J154">
         <v>0.69</v>
       </c>
+      <c r="K154">
+        <v>0.56000000000000005</v>
+      </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
@@ -6853,6 +6919,9 @@
       <c r="J157">
         <v>0.83</v>
       </c>
+      <c r="K157">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
@@ -6949,8 +7018,11 @@
       <c r="J160">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K160">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>307</v>
       </c>
@@ -6982,7 +7054,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>310</v>
       </c>
@@ -7014,7 +7086,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>312</v>
       </c>
@@ -7045,8 +7117,11 @@
       <c r="J163">
         <v>0.69</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K163">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>314</v>
       </c>
@@ -7078,7 +7153,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>316</v>
       </c>
@@ -7110,7 +7185,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>318</v>
       </c>
@@ -7142,7 +7217,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>320</v>
       </c>
@@ -7174,7 +7249,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>322</v>
       </c>
@@ -7206,7 +7281,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>324</v>
       </c>
@@ -7238,7 +7313,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>326</v>
       </c>
@@ -7270,7 +7345,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>328</v>
       </c>
@@ -7302,7 +7377,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>330</v>
       </c>
@@ -7333,8 +7408,11 @@
       <c r="J172">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K172">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>332</v>
       </c>
@@ -7366,7 +7444,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>135</v>
       </c>
@@ -7398,7 +7476,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>334</v>
       </c>
@@ -7429,8 +7507,11 @@
       <c r="J175">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K175">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>336</v>
       </c>
@@ -7461,8 +7542,11 @@
       <c r="J176">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K176">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>338</v>
       </c>
@@ -7494,7 +7578,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>340</v>
       </c>
@@ -7526,7 +7610,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>342</v>
       </c>
@@ -7557,8 +7641,11 @@
       <c r="J179">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K179">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>344</v>
       </c>
@@ -7589,8 +7676,11 @@
       <c r="J180">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K180">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>346</v>
       </c>
@@ -7622,7 +7712,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>348</v>
       </c>
@@ -7654,7 +7744,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>350</v>
       </c>
@@ -7686,7 +7776,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>352</v>
       </c>
@@ -7718,7 +7808,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>354</v>
       </c>
@@ -7750,7 +7840,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>356</v>
       </c>
@@ -7782,7 +7872,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>358</v>
       </c>
@@ -7814,7 +7904,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>360</v>
       </c>
@@ -7845,8 +7935,11 @@
       <c r="J188">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K188">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>449</v>
       </c>
@@ -7878,7 +7971,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>362</v>
       </c>
@@ -7910,7 +8003,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>364</v>
       </c>
@@ -7942,7 +8035,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>366</v>
       </c>
@@ -8459,6 +8552,9 @@
       <c r="J207">
         <v>0.87</v>
       </c>
+      <c r="K207">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
@@ -8558,6 +8654,9 @@
       <c r="J210">
         <v>0.69</v>
       </c>
+      <c r="K210">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
@@ -8753,6 +8852,9 @@
       <c r="J216">
         <v>0.69</v>
       </c>
+      <c r="K216">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
@@ -9013,7 +9115,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>425</v>
       </c>
@@ -9045,7 +9147,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>192</v>
       </c>
@@ -9076,8 +9178,11 @@
       <c r="J226">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K226">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>427</v>
       </c>
@@ -9109,7 +9214,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>430</v>
       </c>
@@ -9141,7 +9246,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>432</v>
       </c>
@@ -9172,8 +9277,11 @@
       <c r="J229">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K229">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>434</v>
       </c>
@@ -9205,7 +9313,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>436</v>
       </c>
@@ -9235,6 +9343,9 @@
       </c>
       <c r="J231">
         <v>0.56000000000000005</v>
+      </c>
+      <c r="K231">
+        <v>0.54</v>
       </c>
     </row>
   </sheetData>

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5637239-34EB-5340-A11A-1F804FD8222D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD97DB05-A52B-1443-A6A2-ED87E47F090D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="1040" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -1904,8 +1904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="K140" sqref="K140"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1979,6 +1979,9 @@
       <c r="H2" s="7">
         <v>0.475728155339806</v>
       </c>
+      <c r="I2">
+        <v>0.72</v>
+      </c>
       <c r="J2">
         <v>0.7</v>
       </c>
@@ -2011,6 +2014,9 @@
       <c r="H3" s="7">
         <v>0.60194174757281604</v>
       </c>
+      <c r="I3">
+        <v>0.9</v>
+      </c>
       <c r="J3">
         <v>0</v>
       </c>
@@ -2043,6 +2049,9 @@
       <c r="H4" s="7">
         <v>0.54368932038835005</v>
       </c>
+      <c r="I4">
+        <v>0.75</v>
+      </c>
       <c r="J4">
         <v>0.91</v>
       </c>
@@ -2075,6 +2084,9 @@
       <c r="H5" s="7">
         <v>0.16504854368932001</v>
       </c>
+      <c r="I5">
+        <v>0.54</v>
+      </c>
       <c r="J5">
         <v>0.76</v>
       </c>
@@ -2107,6 +2119,9 @@
       <c r="H6" s="7">
         <v>0.74757281553398103</v>
       </c>
+      <c r="I6">
+        <v>0.82</v>
+      </c>
       <c r="J6">
         <v>0.91</v>
       </c>
@@ -2139,6 +2154,9 @@
       <c r="H7" s="7">
         <v>0.65048543689320404</v>
       </c>
+      <c r="I7">
+        <v>0.74</v>
+      </c>
       <c r="J7">
         <v>0.8</v>
       </c>
@@ -2168,6 +2186,9 @@
       <c r="H8" s="7">
         <v>0.40776699029126201</v>
       </c>
+      <c r="I8">
+        <v>0.49</v>
+      </c>
       <c r="J8">
         <v>0</v>
       </c>
@@ -2200,6 +2221,9 @@
       <c r="H9" s="7">
         <v>0.50485436893203905</v>
       </c>
+      <c r="I9">
+        <v>0.72</v>
+      </c>
       <c r="J9">
         <v>0.7</v>
       </c>
@@ -2232,6 +2256,9 @@
       <c r="H10" s="7">
         <v>0.30097087378640802</v>
       </c>
+      <c r="I10">
+        <v>0.49</v>
+      </c>
       <c r="J10">
         <v>0.8</v>
       </c>
@@ -2261,6 +2288,9 @@
       <c r="H11" s="7">
         <v>0.93203883495145601</v>
       </c>
+      <c r="I11">
+        <v>0.84</v>
+      </c>
       <c r="J11">
         <v>0.91</v>
       </c>
@@ -2293,6 +2323,9 @@
       <c r="H12" s="7">
         <v>0.85436893203883502</v>
       </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
       <c r="J12">
         <v>0.76</v>
       </c>
@@ -2325,6 +2358,9 @@
       <c r="H13" s="7">
         <v>0.61165048543689304</v>
       </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
       <c r="J13">
         <v>0.76</v>
       </c>
@@ -2357,6 +2393,9 @@
       <c r="H14" s="7">
         <v>0.57281553398058305</v>
       </c>
+      <c r="I14">
+        <v>0.43</v>
+      </c>
       <c r="J14">
         <v>0.85</v>
       </c>
@@ -2386,6 +2425,9 @@
       <c r="H15" s="7">
         <v>0.42718446601941701</v>
       </c>
+      <c r="I15">
+        <v>0.56999999999999995</v>
+      </c>
       <c r="J15">
         <v>0.39</v>
       </c>
@@ -2415,6 +2457,9 @@
       <c r="H16" s="7">
         <v>0.40776699029126201</v>
       </c>
+      <c r="I16">
+        <v>0.56999999999999995</v>
+      </c>
       <c r="J16">
         <v>0.85</v>
       </c>
@@ -2444,6 +2489,9 @@
       <c r="H17" s="7">
         <v>0.32038834951456302</v>
       </c>
+      <c r="I17">
+        <v>0.6</v>
+      </c>
       <c r="J17">
         <v>0</v>
       </c>
@@ -2473,6 +2521,9 @@
       <c r="H18" s="7">
         <v>0.37864077669902901</v>
       </c>
+      <c r="I18">
+        <v>0.63</v>
+      </c>
       <c r="J18">
         <v>0.7</v>
       </c>
@@ -2505,6 +2556,9 @@
       <c r="H19" s="7">
         <v>0.35922330097087402</v>
       </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
       <c r="J19">
         <v>0</v>
       </c>
@@ -2534,6 +2588,9 @@
       <c r="H20" s="7">
         <v>0.65048543689320404</v>
       </c>
+      <c r="I20">
+        <v>0.56999999999999995</v>
+      </c>
       <c r="J20">
         <v>0.85</v>
       </c>
@@ -2563,6 +2620,9 @@
       <c r="H21" s="7">
         <v>0.53398058252427205</v>
       </c>
+      <c r="I21">
+        <v>0.74</v>
+      </c>
       <c r="J21">
         <v>0.91</v>
       </c>
@@ -2595,6 +2655,9 @@
       <c r="H22" s="7">
         <v>0.466019417475728</v>
       </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
       <c r="J22">
         <v>0.7</v>
       </c>
@@ -2627,6 +2690,9 @@
       <c r="H23" s="7">
         <v>0.57281553398058305</v>
       </c>
+      <c r="I23">
+        <v>0.71</v>
+      </c>
       <c r="J23">
         <v>0</v>
       </c>
@@ -2659,6 +2725,9 @@
       <c r="H24" s="7">
         <v>0.61165048543689304</v>
       </c>
+      <c r="I24">
+        <v>0.49</v>
+      </c>
       <c r="J24">
         <v>0.81</v>
       </c>
@@ -2688,6 +2757,9 @@
       <c r="H25" s="7">
         <v>0.42718446601941701</v>
       </c>
+      <c r="I25">
+        <v>0.69</v>
+      </c>
       <c r="J25">
         <v>0.91</v>
       </c>
@@ -2720,6 +2792,9 @@
       <c r="H26" s="7">
         <v>0.466019417475728</v>
       </c>
+      <c r="I26">
+        <v>0.65</v>
+      </c>
       <c r="J26">
         <v>0.8</v>
       </c>
@@ -2749,6 +2824,9 @@
       <c r="H27" s="7">
         <v>0.50485436893203905</v>
       </c>
+      <c r="I27">
+        <v>0.62</v>
+      </c>
       <c r="J27">
         <v>0</v>
       </c>
@@ -2781,6 +2859,9 @@
       <c r="H28" s="7">
         <v>0.83</v>
       </c>
+      <c r="I28">
+        <v>0.87</v>
+      </c>
       <c r="J28">
         <v>0</v>
       </c>
@@ -2813,6 +2894,9 @@
       <c r="H29" s="7">
         <v>0.56310679611650505</v>
       </c>
+      <c r="I29">
+        <v>0.62</v>
+      </c>
       <c r="J29">
         <v>0.89</v>
       </c>
@@ -2842,6 +2926,9 @@
       <c r="H30" s="7">
         <v>0.29126213592233002</v>
       </c>
+      <c r="I30">
+        <v>0.51</v>
+      </c>
       <c r="J30">
         <v>0.81</v>
       </c>
@@ -2871,6 +2958,9 @@
       <c r="H31" s="7">
         <v>0.485436893203883</v>
       </c>
+      <c r="I31">
+        <v>0.59</v>
+      </c>
       <c r="J31">
         <v>0.89</v>
       </c>
@@ -2900,6 +2990,9 @@
       <c r="H32" s="7">
         <v>0.213592233009709</v>
       </c>
+      <c r="I32">
+        <v>0.47</v>
+      </c>
       <c r="J32">
         <v>0</v>
       </c>
@@ -2932,6 +3025,9 @@
       <c r="H33" s="7">
         <v>0.53398058252427205</v>
       </c>
+      <c r="I33">
+        <v>0.59</v>
+      </c>
       <c r="J33">
         <v>0.7</v>
       </c>
@@ -2964,6 +3060,9 @@
       <c r="H34" s="7">
         <v>0.50485436893203905</v>
       </c>
+      <c r="I34">
+        <v>0.43</v>
+      </c>
       <c r="J34">
         <v>0.39</v>
       </c>
@@ -2993,6 +3092,9 @@
       <c r="H35" s="7">
         <v>0.66019417475728204</v>
       </c>
+      <c r="I35">
+        <v>0.62</v>
+      </c>
       <c r="J35">
         <v>0</v>
       </c>
@@ -3022,6 +3124,9 @@
       <c r="H36" s="7">
         <v>0.61165048543689304</v>
       </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
       <c r="J36">
         <v>0.8</v>
       </c>
@@ -3051,6 +3156,9 @@
       <c r="H37" s="7">
         <v>0.27184466019417503</v>
       </c>
+      <c r="I37">
+        <v>0.62</v>
+      </c>
       <c r="J37">
         <v>0.5</v>
       </c>
@@ -3080,6 +3188,9 @@
       <c r="H38" s="7">
         <v>0.55339805825242705</v>
       </c>
+      <c r="I38">
+        <v>0.75</v>
+      </c>
       <c r="J38">
         <v>0.39</v>
       </c>
@@ -3109,6 +3220,9 @@
       <c r="H39" s="7">
         <v>0.91</v>
       </c>
+      <c r="I39">
+        <v>0.78</v>
+      </c>
       <c r="J39">
         <v>0.81</v>
       </c>
@@ -3138,6 +3252,9 @@
       <c r="H40" s="7">
         <v>0.92</v>
       </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
       <c r="J40">
         <v>0.7</v>
       </c>
@@ -3170,6 +3287,9 @@
       <c r="H41" s="7">
         <v>0.66990291262135904</v>
       </c>
+      <c r="I41">
+        <v>0.76</v>
+      </c>
       <c r="J41">
         <v>0.81</v>
       </c>
@@ -3199,6 +3319,9 @@
       <c r="H42" s="7">
         <v>0.63106796116504904</v>
       </c>
+      <c r="I42">
+        <v>0.63</v>
+      </c>
       <c r="J42">
         <v>0.76</v>
       </c>
@@ -3231,6 +3354,9 @@
       <c r="H43" s="7">
         <v>0.61165048543689304</v>
       </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
       <c r="J43">
         <v>0.76</v>
       </c>
@@ -3263,6 +3389,9 @@
       <c r="H44" s="7">
         <v>0.68932038834951503</v>
       </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
       <c r="J44">
         <v>0.8</v>
       </c>
@@ -3292,6 +3421,9 @@
       <c r="H45" s="7">
         <v>0.69902912621359203</v>
       </c>
+      <c r="I45">
+        <v>0.79</v>
+      </c>
       <c r="J45">
         <v>0.8</v>
       </c>
@@ -3321,6 +3453,9 @@
       <c r="H46" s="7">
         <v>0.70873786407767003</v>
       </c>
+      <c r="I46">
+        <v>0.71</v>
+      </c>
       <c r="J46">
         <v>0.76</v>
       </c>
@@ -3353,6 +3488,9 @@
       <c r="H47" s="7">
         <v>0.69902912621359203</v>
       </c>
+      <c r="I47">
+        <v>0.69</v>
+      </c>
       <c r="J47">
         <v>0.85</v>
       </c>
@@ -3382,6 +3520,9 @@
       <c r="H48" s="7">
         <v>0.65048543689320404</v>
       </c>
+      <c r="I48">
+        <v>0.72</v>
+      </c>
       <c r="J48">
         <v>0.85</v>
       </c>
@@ -3411,6 +3552,9 @@
       <c r="H49" s="7">
         <v>0.58252427184466005</v>
       </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
       <c r="J49">
         <v>0.81</v>
       </c>
@@ -3440,6 +3584,9 @@
       <c r="H50" s="7">
         <v>0</v>
       </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
       <c r="J50">
         <v>0.8</v>
       </c>
@@ -3469,6 +3616,9 @@
       <c r="H51" s="7">
         <v>0.77669902912621402</v>
       </c>
+      <c r="I51">
+        <v>0.87</v>
+      </c>
       <c r="J51">
         <v>0.91</v>
       </c>
@@ -3501,6 +3651,9 @@
       <c r="H52" s="7">
         <v>0.65048543689320404</v>
       </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
       <c r="J52">
         <v>0.81</v>
       </c>
@@ -3530,6 +3683,9 @@
       <c r="H53" s="7">
         <v>0.53398058252427205</v>
       </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
       <c r="J53">
         <v>0.85</v>
       </c>
@@ -3559,6 +3715,9 @@
       <c r="H54" s="7">
         <v>0.84466019417475702</v>
       </c>
+      <c r="I54">
+        <v>0.78</v>
+      </c>
       <c r="J54">
         <v>0.89</v>
       </c>
@@ -4165,7 +4324,7 @@
         <v>0.3</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="J73">
         <v>0.65</v>

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD97DB05-A52B-1443-A6A2-ED87E47F090D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3094B9B-CD84-DE42-95BB-795E59057093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="1040" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -1904,8 +1904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="K156" sqref="K156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2321,7 +2321,7 @@
         <v>0.85</v>
       </c>
       <c r="H12" s="7">
-        <v>0.85436893203883502</v>
+        <v>0.88</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -2431,6 +2431,9 @@
       <c r="J15">
         <v>0.39</v>
       </c>
+      <c r="K15">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2495,6 +2498,9 @@
       <c r="J17">
         <v>0</v>
       </c>
+      <c r="K17">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -2731,6 +2737,9 @@
       <c r="J24">
         <v>0.81</v>
       </c>
+      <c r="K24">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -2857,10 +2866,10 @@
         <v>0.76</v>
       </c>
       <c r="H28" s="7">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="I28">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2932,6 +2941,9 @@
       <c r="J30">
         <v>0.81</v>
       </c>
+      <c r="K30">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -2991,7 +3003,7 @@
         <v>0.213592233009709</v>
       </c>
       <c r="I32">
-        <v>0.47</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -3066,6 +3078,9 @@
       <c r="J34">
         <v>0.39</v>
       </c>
+      <c r="K34">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -3194,6 +3209,9 @@
       <c r="J38">
         <v>0.39</v>
       </c>
+      <c r="K38">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -3221,10 +3239,13 @@
         <v>0.91</v>
       </c>
       <c r="I39">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="J39">
         <v>0.81</v>
+      </c>
+      <c r="K39">
+        <v>0.63</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -3288,10 +3309,13 @@
         <v>0.66990291262135904</v>
       </c>
       <c r="I41">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="J41">
         <v>0.81</v>
+      </c>
+      <c r="K41">
+        <v>0.63</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -3550,13 +3574,16 @@
         <v>0.83</v>
       </c>
       <c r="H49" s="7">
-        <v>0.58252427184466005</v>
+        <v>0.61</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
         <v>0.81</v>
+      </c>
+      <c r="K49">
+        <v>0.63</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -3657,6 +3684,9 @@
       <c r="J52">
         <v>0.81</v>
       </c>
+      <c r="K52">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -3689,6 +3719,9 @@
       <c r="J53">
         <v>0.85</v>
       </c>
+      <c r="K53">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
@@ -3881,6 +3914,9 @@
       <c r="J59">
         <v>0.63</v>
       </c>
+      <c r="K59">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
@@ -3945,6 +3981,9 @@
       <c r="J61">
         <v>0.87</v>
       </c>
+      <c r="K61">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -4009,6 +4048,9 @@
       <c r="J63">
         <v>0.63</v>
       </c>
+      <c r="K63">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -4201,6 +4243,9 @@
       <c r="J69">
         <v>0.83</v>
       </c>
+      <c r="K69">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
@@ -4297,6 +4342,9 @@
       <c r="J72">
         <v>0.63</v>
       </c>
+      <c r="K72">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
@@ -4551,7 +4599,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>157</v>
       </c>
@@ -4583,7 +4631,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>159</v>
       </c>
@@ -4615,7 +4663,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>161</v>
       </c>
@@ -4646,8 +4694,11 @@
       <c r="J83">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K83">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>163</v>
       </c>
@@ -4679,7 +4730,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>165</v>
       </c>
@@ -4711,7 +4762,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>169</v>
       </c>
@@ -4742,8 +4793,11 @@
       <c r="J86">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K86">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>171</v>
       </c>
@@ -4775,7 +4829,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>451</v>
       </c>
@@ -4807,7 +4861,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>68</v>
       </c>
@@ -4839,7 +4893,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>174</v>
       </c>
@@ -4871,7 +4925,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>176</v>
       </c>
@@ -4903,7 +4957,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>178</v>
       </c>
@@ -4935,7 +4989,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>180</v>
       </c>
@@ -4966,8 +5020,11 @@
       <c r="J93">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K93">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>182</v>
       </c>
@@ -4998,8 +5055,11 @@
       <c r="J94">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K94">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>184</v>
       </c>
@@ -5031,7 +5091,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>186</v>
       </c>
@@ -5126,6 +5186,9 @@
       <c r="J98">
         <v>0.83</v>
       </c>
+      <c r="K98">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
@@ -5158,6 +5221,9 @@
       <c r="J99">
         <v>0.83</v>
       </c>
+      <c r="K99">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
@@ -5353,6 +5419,9 @@
       <c r="J105">
         <v>0.69</v>
       </c>
+      <c r="K105">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
@@ -5452,6 +5521,9 @@
       <c r="J108">
         <v>0.69</v>
       </c>
+      <c r="K108">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
@@ -5484,6 +5556,9 @@
       <c r="J109">
         <v>0.87</v>
       </c>
+      <c r="K109">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
@@ -5578,6 +5653,9 @@
       <c r="J112">
         <v>0.69</v>
       </c>
+      <c r="K112">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
@@ -5750,6 +5828,9 @@
       <c r="J117">
         <v>0.65</v>
       </c>
+      <c r="K117">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
@@ -5913,6 +5994,9 @@
       <c r="J122">
         <v>0.65</v>
       </c>
+      <c r="K122">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
@@ -5945,6 +6029,9 @@
       <c r="J123">
         <v>0.87</v>
       </c>
+      <c r="K123">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
@@ -5972,10 +6059,13 @@
         <v>0.44</v>
       </c>
       <c r="I124">
-        <v>0.59</v>
+        <v>0.71</v>
       </c>
       <c r="J124">
         <v>0.69</v>
+      </c>
+      <c r="K124">
+        <v>0.85</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -6009,6 +6099,9 @@
       <c r="J125">
         <v>0.69</v>
       </c>
+      <c r="K125">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
@@ -6076,6 +6169,9 @@
       <c r="J127">
         <v>0.87</v>
       </c>
+      <c r="K127">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
@@ -6143,6 +6239,9 @@
       <c r="J129">
         <v>0.87</v>
       </c>
+      <c r="K129">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
@@ -6237,10 +6336,13 @@
         <v>0.32</v>
       </c>
       <c r="I132">
-        <v>0.49</v>
+        <v>0.54</v>
       </c>
       <c r="J132">
         <v>0.65</v>
+      </c>
+      <c r="K132">
+        <v>0.67</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -6309,6 +6411,9 @@
       <c r="J134">
         <v>0.87</v>
       </c>
+      <c r="K134">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
@@ -6333,13 +6438,16 @@
         <v>0.81</v>
       </c>
       <c r="H135" s="5">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="I135">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="J135">
         <v>0.65</v>
+      </c>
+      <c r="K135">
+        <v>0.67</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -6368,10 +6476,13 @@
         <v>0.67</v>
       </c>
       <c r="I136">
-        <v>0.72</v>
+        <v>0.79</v>
       </c>
       <c r="J136">
         <v>0.69</v>
+      </c>
+      <c r="K136">
+        <v>0.85</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
@@ -6440,6 +6551,9 @@
       <c r="J138">
         <v>0.69</v>
       </c>
+      <c r="K138">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
@@ -6537,10 +6651,13 @@
         <v>0.81</v>
       </c>
       <c r="I141">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="J141">
         <v>0.65</v>
+      </c>
+      <c r="K141">
+        <v>0.67</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
@@ -6574,6 +6691,9 @@
       <c r="J142">
         <v>0.65</v>
       </c>
+      <c r="K142">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
@@ -6638,6 +6758,9 @@
       <c r="J144">
         <v>0</v>
       </c>
+      <c r="K144">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
@@ -6772,6 +6895,9 @@
       <c r="J148">
         <v>0.69</v>
       </c>
+      <c r="K148">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
@@ -6939,7 +7065,7 @@
         <v>0.45</v>
       </c>
       <c r="I153">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="J153">
         <v>0.78</v>
@@ -7014,6 +7140,9 @@
       <c r="J155">
         <v>0.17</v>
       </c>
+      <c r="K155">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
@@ -7046,6 +7175,9 @@
       <c r="J156">
         <v>0.69</v>
       </c>
+      <c r="K156">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
@@ -7113,6 +7245,9 @@
       <c r="J158">
         <v>0.69</v>
       </c>
+      <c r="K158">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
@@ -7145,6 +7280,9 @@
       <c r="J159">
         <v>0.69</v>
       </c>
+      <c r="K159">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
@@ -7212,6 +7350,9 @@
       <c r="J161">
         <v>0.91</v>
       </c>
+      <c r="K161">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
@@ -7244,6 +7385,9 @@
       <c r="J162">
         <v>0.38</v>
       </c>
+      <c r="K162">
+        <v>0.56000000000000005</v>
+      </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
@@ -7311,6 +7455,9 @@
       <c r="J164">
         <v>0.7</v>
       </c>
+      <c r="K164">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
@@ -7407,6 +7554,9 @@
       <c r="J167">
         <v>0.93</v>
       </c>
+      <c r="K167">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
@@ -7439,6 +7589,9 @@
       <c r="J168">
         <v>0.72</v>
       </c>
+      <c r="K168">
+        <v>0.56000000000000005</v>
+      </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
@@ -7535,6 +7688,9 @@
       <c r="J171">
         <v>0.72</v>
       </c>
+      <c r="K171">
+        <v>0.56000000000000005</v>
+      </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
@@ -7602,6 +7758,9 @@
       <c r="J173">
         <v>0.38</v>
       </c>
+      <c r="K173">
+        <v>0.56000000000000005</v>
+      </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
@@ -7728,13 +7887,16 @@
         <v>0.63</v>
       </c>
       <c r="H177" s="5">
-        <v>0.52</v>
+        <v>0.61</v>
       </c>
       <c r="I177">
         <v>0.63</v>
       </c>
       <c r="J177">
         <v>0.83</v>
+      </c>
+      <c r="K177">
+        <v>0.9</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
@@ -7768,6 +7930,9 @@
       <c r="J178">
         <v>0.91</v>
       </c>
+      <c r="K178">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
@@ -7955,16 +8120,19 @@
         <v>0.93</v>
       </c>
       <c r="G184">
-        <v>0.63</v>
+        <v>0.73</v>
       </c>
       <c r="H184" s="5">
         <v>0.6</v>
       </c>
       <c r="I184">
-        <v>0.79</v>
+        <v>0.85</v>
       </c>
       <c r="J184">
         <v>0.7</v>
+      </c>
+      <c r="K184">
+        <v>0.52</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
@@ -8062,6 +8230,9 @@
       <c r="J187">
         <v>0.38</v>
       </c>
+      <c r="K187">
+        <v>0.56000000000000005</v>
+      </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
@@ -8129,6 +8300,9 @@
       <c r="J189">
         <v>0.7</v>
       </c>
+      <c r="K189">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
@@ -8161,6 +8335,9 @@
       <c r="J190">
         <v>0.83</v>
       </c>
+      <c r="K190">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
@@ -8193,6 +8370,9 @@
       <c r="J191">
         <v>0.91</v>
       </c>
+      <c r="K191">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
@@ -8257,6 +8437,9 @@
       <c r="J193">
         <v>0.91</v>
       </c>
+      <c r="K193">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
@@ -8353,6 +8536,9 @@
       <c r="J196">
         <v>0.72</v>
       </c>
+      <c r="K196">
+        <v>0.56000000000000005</v>
+      </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
@@ -8484,6 +8670,9 @@
       <c r="J200">
         <v>0.83</v>
       </c>
+      <c r="K200">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
@@ -8516,6 +8705,9 @@
       <c r="J201">
         <v>0.72</v>
       </c>
+      <c r="K201">
+        <v>0.56000000000000005</v>
+      </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
@@ -8548,6 +8740,9 @@
       <c r="J202">
         <v>0.38</v>
       </c>
+      <c r="K202">
+        <v>0.56000000000000005</v>
+      </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
@@ -8647,6 +8842,9 @@
       <c r="J205">
         <v>0.7</v>
       </c>
+      <c r="K205">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
@@ -8679,6 +8877,9 @@
       <c r="J206">
         <v>0</v>
       </c>
+      <c r="K206">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
@@ -8741,10 +8942,13 @@
         <v>0.5</v>
       </c>
       <c r="I208">
-        <v>0.72</v>
+        <v>0.77</v>
       </c>
       <c r="J208">
         <v>0.38</v>
+      </c>
+      <c r="K208">
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
@@ -8848,6 +9052,9 @@
       <c r="J211">
         <v>0.83</v>
       </c>
+      <c r="K211">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
@@ -8880,6 +9087,9 @@
       <c r="J212">
         <v>0.72</v>
       </c>
+      <c r="K212">
+        <v>0.56000000000000005</v>
+      </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
@@ -8912,6 +9122,9 @@
       <c r="J213">
         <v>0.7</v>
       </c>
+      <c r="K213">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
@@ -9041,7 +9254,7 @@
         <v>0.43</v>
       </c>
       <c r="I217">
-        <v>0.81</v>
+        <v>0.84</v>
       </c>
       <c r="J217">
         <v>0.81</v>
@@ -9142,6 +9355,9 @@
       <c r="J220">
         <v>0.83</v>
       </c>
+      <c r="K220">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
@@ -9241,6 +9457,9 @@
       <c r="J223">
         <v>0.72</v>
       </c>
+      <c r="K223">
+        <v>0.56000000000000005</v>
+      </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
@@ -9273,6 +9492,9 @@
       <c r="J224">
         <v>0.83</v>
       </c>
+      <c r="K224">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
@@ -9305,6 +9527,9 @@
       <c r="J225">
         <v>0.72</v>
       </c>
+      <c r="K225">
+        <v>0.56000000000000005</v>
+      </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
@@ -9372,6 +9597,9 @@
       <c r="J227">
         <v>0.7</v>
       </c>
+      <c r="K227">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
@@ -9470,6 +9698,9 @@
       </c>
       <c r="J230">
         <v>0.91</v>
+      </c>
+      <c r="K230">
+        <v>0.37</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3094B9B-CD84-DE42-95BB-795E59057093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D88256-E8EA-B54E-B27B-16FFC51BEFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="1040" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -1904,8 +1904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="K156" sqref="K156"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="K234" sqref="K234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2160,6 +2160,9 @@
       <c r="J7">
         <v>0.8</v>
       </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2262,6 +2265,9 @@
       <c r="J10">
         <v>0.8</v>
       </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2399,6 +2405,9 @@
       <c r="J14">
         <v>0.85</v>
       </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2466,6 +2475,9 @@
       <c r="J16">
         <v>0.85</v>
       </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -2568,6 +2580,9 @@
       <c r="J19">
         <v>0</v>
       </c>
+      <c r="K19">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -2600,6 +2615,9 @@
       <c r="J20">
         <v>0.85</v>
       </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -2807,6 +2825,9 @@
       <c r="J26">
         <v>0.8</v>
       </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -2909,6 +2930,9 @@
       <c r="J29">
         <v>0.89</v>
       </c>
+      <c r="K29">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -2976,6 +3000,9 @@
       <c r="J31">
         <v>0.89</v>
       </c>
+      <c r="K31">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -3113,6 +3140,9 @@
       <c r="J35">
         <v>0</v>
       </c>
+      <c r="K35">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -3145,6 +3175,9 @@
       <c r="J36">
         <v>0.8</v>
       </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -3177,6 +3210,9 @@
       <c r="J37">
         <v>0.5</v>
       </c>
+      <c r="K37">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -3419,6 +3455,9 @@
       <c r="J44">
         <v>0.8</v>
       </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -3451,6 +3490,9 @@
       <c r="J45">
         <v>0.8</v>
       </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -3518,6 +3560,9 @@
       <c r="J47">
         <v>0.85</v>
       </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -3550,6 +3595,9 @@
       <c r="J48">
         <v>0.85</v>
       </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -3617,6 +3665,9 @@
       <c r="J50">
         <v>0.8</v>
       </c>
+      <c r="K50">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -3754,6 +3805,9 @@
       <c r="J54">
         <v>0.89</v>
       </c>
+      <c r="K54">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -3786,6 +3840,9 @@
       <c r="J55">
         <v>0.76</v>
       </c>
+      <c r="K55">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -3818,6 +3875,9 @@
       <c r="J56">
         <v>0.78</v>
       </c>
+      <c r="K56">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
@@ -3850,6 +3910,9 @@
       <c r="J57">
         <v>0.85</v>
       </c>
+      <c r="K57">
+        <v>0.56000000000000005</v>
+      </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -3882,6 +3945,9 @@
       <c r="J58">
         <v>0.76</v>
       </c>
+      <c r="K58">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
@@ -3949,6 +4015,9 @@
       <c r="J60">
         <v>0.78</v>
       </c>
+      <c r="K60">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -4016,6 +4085,9 @@
       <c r="J62">
         <v>0.85</v>
       </c>
+      <c r="K62">
+        <v>0.56000000000000005</v>
+      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -4083,6 +4155,9 @@
       <c r="J64">
         <v>0.78</v>
       </c>
+      <c r="K64">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -4115,6 +4190,9 @@
       <c r="J65">
         <v>0.85</v>
       </c>
+      <c r="K65">
+        <v>0.56000000000000005</v>
+      </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
@@ -4147,6 +4225,9 @@
       <c r="J66">
         <v>0.74</v>
       </c>
+      <c r="K66">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
@@ -4179,6 +4260,9 @@
       <c r="J67">
         <v>0.74</v>
       </c>
+      <c r="K67">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
@@ -4211,6 +4295,9 @@
       <c r="J68">
         <v>0.74</v>
       </c>
+      <c r="K68">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
@@ -4278,6 +4365,9 @@
       <c r="J70">
         <v>0.78</v>
       </c>
+      <c r="K70">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
@@ -4310,6 +4400,9 @@
       <c r="J71">
         <v>0.76</v>
       </c>
+      <c r="K71">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
@@ -4377,6 +4470,9 @@
       <c r="J73">
         <v>0.65</v>
       </c>
+      <c r="K73">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
@@ -4409,6 +4505,9 @@
       <c r="J74">
         <v>0.85</v>
       </c>
+      <c r="K74">
+        <v>0.56000000000000005</v>
+      </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
@@ -4441,6 +4540,9 @@
       <c r="J75">
         <v>0.74</v>
       </c>
+      <c r="K75">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
@@ -4473,6 +4575,9 @@
       <c r="J76">
         <v>0.76</v>
       </c>
+      <c r="K76">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
@@ -4534,6 +4639,9 @@
       <c r="J78">
         <v>0.39</v>
       </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
@@ -4566,6 +4674,9 @@
       <c r="J79">
         <v>0.78</v>
       </c>
+      <c r="K79">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
@@ -4598,6 +4709,9 @@
       <c r="J80">
         <v>0.74</v>
       </c>
+      <c r="K80">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
@@ -4630,6 +4744,9 @@
       <c r="J81">
         <v>0.85</v>
       </c>
+      <c r="K81">
+        <v>0.56000000000000005</v>
+      </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
@@ -4662,6 +4779,9 @@
       <c r="J82">
         <v>0.89</v>
       </c>
+      <c r="K82">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
@@ -4729,6 +4849,9 @@
       <c r="J84">
         <v>0.65</v>
       </c>
+      <c r="K84">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
@@ -4761,6 +4884,9 @@
       <c r="J85">
         <v>0.76</v>
       </c>
+      <c r="K85">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
@@ -4828,6 +4954,9 @@
       <c r="J87">
         <v>0.74</v>
       </c>
+      <c r="K87">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
@@ -4860,6 +4989,9 @@
       <c r="J88">
         <v>0.74</v>
       </c>
+      <c r="K88">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
@@ -4892,6 +5024,9 @@
       <c r="J89">
         <v>0.65</v>
       </c>
+      <c r="K89">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
@@ -4924,6 +5059,9 @@
       <c r="J90">
         <v>0.74</v>
       </c>
+      <c r="K90">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
@@ -4956,6 +5094,9 @@
       <c r="J91">
         <v>0.74</v>
       </c>
+      <c r="K91">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
@@ -4988,6 +5129,9 @@
       <c r="J92">
         <v>0.89</v>
       </c>
+      <c r="K92">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
@@ -5090,6 +5234,9 @@
       <c r="J95">
         <v>0.74</v>
       </c>
+      <c r="K95">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
@@ -5122,6 +5269,9 @@
       <c r="J96">
         <v>0.65</v>
       </c>
+      <c r="K96">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
@@ -5154,6 +5304,9 @@
       <c r="J97">
         <v>0.74</v>
       </c>
+      <c r="K97">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
@@ -5256,6 +5409,9 @@
       <c r="J100">
         <v>0.78</v>
       </c>
+      <c r="K100">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
@@ -5288,6 +5444,9 @@
       <c r="J101">
         <v>0.76</v>
       </c>
+      <c r="K101">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
@@ -5320,6 +5479,9 @@
       <c r="J102">
         <v>0.85</v>
       </c>
+      <c r="K102">
+        <v>0.56000000000000005</v>
+      </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
@@ -5352,6 +5514,9 @@
       <c r="J103">
         <v>0.74</v>
       </c>
+      <c r="K103">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
@@ -5454,6 +5619,9 @@
       <c r="J106">
         <v>0.69</v>
       </c>
+      <c r="K106">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
@@ -5522,7 +5690,7 @@
         <v>0.69</v>
       </c>
       <c r="K108">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -5621,6 +5789,9 @@
       <c r="I111">
         <v>0.82</v>
       </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
@@ -5863,6 +6034,9 @@
       <c r="J118">
         <v>0.74</v>
       </c>
+      <c r="K118">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
@@ -5895,6 +6069,9 @@
       <c r="J119">
         <v>0</v>
       </c>
+      <c r="K119">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
@@ -5927,6 +6104,9 @@
       <c r="J120">
         <v>0</v>
       </c>
+      <c r="K120">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
@@ -6274,6 +6454,9 @@
       <c r="J130">
         <v>0</v>
       </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
@@ -6552,7 +6735,7 @@
         <v>0.69</v>
       </c>
       <c r="K138">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
@@ -6726,6 +6909,9 @@
       <c r="J143">
         <v>0.74</v>
       </c>
+      <c r="K143">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
@@ -6828,6 +7014,9 @@
       <c r="J146">
         <v>0.78</v>
       </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
@@ -7176,7 +7365,7 @@
         <v>0.69</v>
       </c>
       <c r="K156">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
@@ -7246,7 +7435,7 @@
         <v>0.69</v>
       </c>
       <c r="K158">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
@@ -7281,7 +7470,7 @@
         <v>0.69</v>
       </c>
       <c r="K159">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
@@ -7490,6 +7679,9 @@
       <c r="J165">
         <v>0.81</v>
       </c>
+      <c r="K165">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
@@ -7522,6 +7714,9 @@
       <c r="J166">
         <v>0.46</v>
       </c>
+      <c r="K166">
+        <v>0.81</v>
+      </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
@@ -7624,6 +7819,9 @@
       <c r="J169">
         <v>0.7</v>
       </c>
+      <c r="K169">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
@@ -7656,6 +7854,9 @@
       <c r="J170">
         <v>0.7</v>
       </c>
+      <c r="K170">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
@@ -7793,6 +7994,9 @@
       <c r="J174">
         <v>0.74</v>
       </c>
+      <c r="K174">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
@@ -8035,6 +8239,9 @@
       <c r="J181">
         <v>0.7</v>
       </c>
+      <c r="K181">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
@@ -8067,6 +8274,9 @@
       <c r="J182">
         <v>0.7</v>
       </c>
+      <c r="K182">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
@@ -8099,6 +8309,9 @@
       <c r="J183">
         <v>0.7</v>
       </c>
+      <c r="K183">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
@@ -8166,6 +8379,9 @@
       <c r="J185">
         <v>0.81</v>
       </c>
+      <c r="K185">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
@@ -8198,6 +8414,9 @@
       <c r="J186">
         <v>0.81</v>
       </c>
+      <c r="K186">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
@@ -8405,6 +8624,9 @@
       <c r="J192">
         <v>0.37</v>
       </c>
+      <c r="K192">
+        <v>0.81</v>
+      </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
@@ -8472,6 +8694,9 @@
       <c r="J194">
         <v>0.46</v>
       </c>
+      <c r="K194">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
@@ -8504,6 +8729,9 @@
       <c r="J195">
         <v>0.85</v>
       </c>
+      <c r="K195">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
@@ -8571,6 +8799,9 @@
       <c r="J197">
         <v>0.48</v>
       </c>
+      <c r="K197">
+        <v>0.81</v>
+      </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
@@ -8638,6 +8869,9 @@
       <c r="J199">
         <v>0.85</v>
       </c>
+      <c r="K199">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
@@ -8775,6 +9009,9 @@
       <c r="J203">
         <v>0</v>
       </c>
+      <c r="K203">
+        <v>0.81</v>
+      </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
@@ -9192,6 +9429,9 @@
       <c r="J215">
         <v>0.85</v>
       </c>
+      <c r="K215">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
@@ -9259,6 +9499,9 @@
       <c r="J217">
         <v>0.81</v>
       </c>
+      <c r="K217">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
@@ -9291,6 +9534,9 @@
       <c r="J218">
         <v>0.7</v>
       </c>
+      <c r="K218">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
@@ -9323,6 +9569,9 @@
       <c r="J219">
         <v>0.81</v>
       </c>
+      <c r="K219">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
@@ -9390,6 +9639,9 @@
       <c r="J221">
         <v>0.91</v>
       </c>
+      <c r="K221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
@@ -9630,6 +9882,9 @@
         <v>0</v>
       </c>
       <c r="J228">
+        <v>0.85</v>
+      </c>
+      <c r="K228">
         <v>0.85</v>
       </c>
     </row>

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D88256-E8EA-B54E-B27B-16FFC51BEFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42AEB6A-1365-EC42-A39F-C4708E823DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="1040" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -1904,8 +1904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="K234" sqref="K234"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="K147" sqref="K147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -7015,7 +7015,7 @@
         <v>0.78</v>
       </c>
       <c r="K146">
-        <v>0</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42AEB6A-1365-EC42-A39F-C4708E823DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CC9FC6-C8DE-784E-BC12-3804297D9AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="1040" windowWidth="27700" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
+    <workbookView xWindow="260" yWindow="960" windowWidth="29360" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1449,7 +1449,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -1488,6 +1488,13 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF38761D"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1497,7 +1504,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1505,11 +1512,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1518,6 +1540,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1904,8 +1929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="K147" sqref="K147"/>
+    <sheetView tabSelected="1" topLeftCell="A173" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="L193" sqref="L193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1988,6 +2013,13 @@
       <c r="K2">
         <v>0.42</v>
       </c>
+      <c r="L2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M2" s="8">
+        <f t="shared" ref="M2" si="0">(((LARGE(D2:F2,1)+LARGE(D2:F2,2))*0.05+(LARGE(G2:I2,1)+LARGE(G2:I2,2))*0.3+(LARGE(J2:L2,1)+LARGE(J2:L2,2))*0.15))</f>
+        <v>0.66849999999999998</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2479,7 +2511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -2514,7 +2546,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -2549,7 +2581,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>456</v>
       </c>
@@ -2584,7 +2616,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -2619,7 +2651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -2654,7 +2686,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -2689,7 +2721,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -2724,7 +2756,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -2759,7 +2791,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -2794,7 +2826,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -2829,7 +2861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -2864,7 +2896,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -2899,7 +2931,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -2933,8 +2965,15 @@
       <c r="K29">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M29" s="8">
+        <f t="shared" ref="M29" si="1">(((LARGE(D29:F29,1)+LARGE(D29:F29,2))*0.05+(LARGE(G29:I29,1)+LARGE(G29:I29,2))*0.3+(LARGE(J29:L29,1)+LARGE(J29:L29,2))*0.15))</f>
+        <v>0.72050000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -2969,7 +3008,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -3004,7 +3043,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -3599,7 +3638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>93</v>
       </c>
@@ -3634,7 +3673,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>95</v>
       </c>
@@ -3669,7 +3708,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>97</v>
       </c>
@@ -3704,7 +3743,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>99</v>
       </c>
@@ -3739,7 +3778,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>101</v>
       </c>
@@ -3774,7 +3813,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>103</v>
       </c>
@@ -3809,7 +3848,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>105</v>
       </c>
@@ -3844,7 +3883,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>108</v>
       </c>
@@ -3879,7 +3918,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>110</v>
       </c>
@@ -3914,7 +3953,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>112</v>
       </c>
@@ -3949,7 +3988,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>114</v>
       </c>
@@ -3984,7 +4023,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>116</v>
       </c>
@@ -4019,7 +4058,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>118</v>
       </c>
@@ -4053,8 +4092,15 @@
       <c r="K61">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L61">
+        <v>0.46</v>
+      </c>
+      <c r="M61" s="8">
+        <f t="shared" ref="M61" si="2">(((LARGE(D61:F61,1)+LARGE(D61:F61,2))*0.05+(LARGE(G61:I61,1)+LARGE(G61:I61,2))*0.3+(LARGE(J61:L61,1)+LARGE(J61:L61,2))*0.15))</f>
+        <v>0.67800000000000005</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>120</v>
       </c>
@@ -4089,7 +4135,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>122</v>
       </c>
@@ -4124,7 +4170,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>124</v>
       </c>
@@ -4713,7 +4759,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>157</v>
       </c>
@@ -4748,7 +4794,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>159</v>
       </c>
@@ -4783,7 +4829,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>161</v>
       </c>
@@ -4818,7 +4864,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>163</v>
       </c>
@@ -4853,7 +4899,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>165</v>
       </c>
@@ -4888,7 +4934,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>169</v>
       </c>
@@ -4922,8 +4968,15 @@
       <c r="K86">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L86">
+        <v>0.82</v>
+      </c>
+      <c r="M86" s="8">
+        <f t="shared" ref="M86" si="3">(((LARGE(D86:F86,1)+LARGE(D86:F86,2))*0.05+(LARGE(G86:I86,1)+LARGE(G86:I86,2))*0.3+(LARGE(J86:L86,1)+LARGE(J86:L86,2))*0.15))</f>
+        <v>0.71349999999999991</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>171</v>
       </c>
@@ -4958,7 +5011,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>451</v>
       </c>
@@ -4993,7 +5046,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>68</v>
       </c>
@@ -5028,7 +5081,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>174</v>
       </c>
@@ -5063,7 +5116,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>176</v>
       </c>
@@ -5098,7 +5151,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>178</v>
       </c>
@@ -5133,7 +5186,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>180</v>
       </c>
@@ -5168,7 +5221,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>182</v>
       </c>
@@ -5203,7 +5256,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>184</v>
       </c>
@@ -5238,7 +5291,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>186</v>
       </c>
@@ -5273,7 +5326,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>188</v>
       </c>
@@ -5308,7 +5361,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>190</v>
       </c>
@@ -5343,7 +5396,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>192</v>
       </c>
@@ -5377,8 +5430,15 @@
       <c r="K99">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L99">
+        <v>0.82</v>
+      </c>
+      <c r="M99" s="8">
+        <f t="shared" ref="M99" si="4">(((LARGE(D99:F99,1)+LARGE(D99:F99,2))*0.05+(LARGE(G99:I99,1)+LARGE(G99:I99,2))*0.3+(LARGE(J99:L99,1)+LARGE(J99:L99,2))*0.15))</f>
+        <v>0.7599999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>195</v>
       </c>
@@ -5413,7 +5473,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>197</v>
       </c>
@@ -5448,7 +5508,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>198</v>
       </c>
@@ -5483,7 +5543,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>200</v>
       </c>
@@ -5518,7 +5578,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>202</v>
       </c>
@@ -5553,7 +5613,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>205</v>
       </c>
@@ -5588,7 +5648,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>207</v>
       </c>
@@ -5623,7 +5683,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>209</v>
       </c>
@@ -5658,7 +5718,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>211</v>
       </c>
@@ -5692,8 +5752,15 @@
       <c r="K108">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L108">
+        <v>0.46</v>
+      </c>
+      <c r="M108" s="8">
+        <f t="shared" ref="M108" si="5">(((LARGE(D108:F108,1)+LARGE(D108:F108,2))*0.05+(LARGE(G108:I108,1)+LARGE(G108:I108,2))*0.3+(LARGE(J108:L108,1)+LARGE(J108:L108,2))*0.15))</f>
+        <v>0.64200000000000002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>213</v>
       </c>
@@ -5728,7 +5795,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>215</v>
       </c>
@@ -5763,7 +5830,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>468</v>
       </c>
@@ -5793,7 +5860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>217</v>
       </c>
@@ -7508,7 +7575,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>307</v>
       </c>
@@ -7543,7 +7610,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>310</v>
       </c>
@@ -7578,7 +7645,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>312</v>
       </c>
@@ -7613,7 +7680,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>314</v>
       </c>
@@ -7648,7 +7715,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>316</v>
       </c>
@@ -7683,7 +7750,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>318</v>
       </c>
@@ -7717,8 +7784,15 @@
       <c r="K166">
         <v>0.81</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L166">
+        <v>0.65</v>
+      </c>
+      <c r="M166" s="8">
+        <f t="shared" ref="M166" si="6">(((LARGE(D166:F166,1)+LARGE(D166:F166,2))*0.05+(LARGE(G166:I166,1)+LARGE(G166:I166,2))*0.3+(LARGE(J166:L166,1)+LARGE(J166:L166,2))*0.15))</f>
+        <v>0.72399999999999998</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>320</v>
       </c>
@@ -7753,7 +7827,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>322</v>
       </c>
@@ -7788,7 +7862,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>324</v>
       </c>
@@ -7823,7 +7897,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>326</v>
       </c>
@@ -7858,7 +7932,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>328</v>
       </c>
@@ -7893,7 +7967,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>330</v>
       </c>
@@ -7928,7 +8002,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>332</v>
       </c>
@@ -7963,7 +8037,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>135</v>
       </c>
@@ -7998,7 +8072,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>334</v>
       </c>
@@ -8033,7 +8107,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>336</v>
       </c>
@@ -8068,7 +8142,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>338</v>
       </c>
@@ -8103,7 +8177,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>340</v>
       </c>
@@ -8138,7 +8212,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>342</v>
       </c>
@@ -8173,7 +8247,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>344</v>
       </c>
@@ -8208,7 +8282,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>346</v>
       </c>
@@ -8243,7 +8317,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>348</v>
       </c>
@@ -8278,7 +8352,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>350</v>
       </c>
@@ -8313,7 +8387,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>352</v>
       </c>
@@ -8348,7 +8422,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>354</v>
       </c>
@@ -8383,7 +8457,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>356</v>
       </c>
@@ -8418,7 +8492,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>358</v>
       </c>
@@ -8453,7 +8527,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>360</v>
       </c>
@@ -8488,7 +8562,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>449</v>
       </c>
@@ -8523,7 +8597,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>362</v>
       </c>
@@ -8558,7 +8632,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>364</v>
       </c>
@@ -8593,7 +8667,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>366</v>
       </c>
@@ -8627,8 +8701,15 @@
       <c r="K192">
         <v>0.81</v>
       </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L192">
+        <v>0.65</v>
+      </c>
+      <c r="M192" s="8">
+        <f t="shared" ref="M192" si="7">(((LARGE(D192:F192,1)+LARGE(D192:F192,2))*0.05+(LARGE(G192:I192,1)+LARGE(G192:I192,2))*0.3+(LARGE(J192:L192,1)+LARGE(J192:L192,2))*0.15))</f>
+        <v>0.64049999999999996</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>368</v>
       </c>
@@ -8663,7 +8744,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>370</v>
       </c>
@@ -8698,7 +8779,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>372</v>
       </c>
@@ -8732,8 +8813,15 @@
       <c r="K195">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L195">
+        <v>0.78</v>
+      </c>
+      <c r="M195" s="8">
+        <f t="shared" ref="M195" si="8">(((LARGE(D195:F195,1)+LARGE(D195:F195,2))*0.05+(LARGE(G195:I195,1)+LARGE(G195:I195,2))*0.3+(LARGE(J195:L195,1)+LARGE(J195:L195,2))*0.15))</f>
+        <v>0.78700000000000003</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>372</v>
       </c>
@@ -8768,7 +8856,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>375</v>
       </c>
@@ -8802,8 +8890,15 @@
       <c r="K197">
         <v>0.81</v>
       </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L197">
+        <v>0.77</v>
+      </c>
+      <c r="M197" s="8">
+        <f t="shared" ref="M197" si="9">(((LARGE(D197:F197,1)+LARGE(D197:F197,2))*0.05+(LARGE(G197:I197,1)+LARGE(G197:I197,2))*0.3+(LARGE(J197:L197,1)+LARGE(J197:L197,2))*0.15))</f>
+        <v>0.73450000000000004</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>377</v>
       </c>
@@ -8838,7 +8933,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>379</v>
       </c>
@@ -8873,7 +8968,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>381</v>
       </c>
@@ -8908,7 +9003,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>383</v>
       </c>
@@ -8943,7 +9038,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>385</v>
       </c>
@@ -8978,7 +9073,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>387</v>
       </c>
@@ -9013,7 +9108,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>389</v>
       </c>
@@ -9048,7 +9143,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>391</v>
       </c>
@@ -9083,7 +9178,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>458</v>
       </c>
@@ -9118,7 +9213,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>393</v>
       </c>
@@ -9153,7 +9248,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>276</v>
       </c>
@@ -9188,7 +9283,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>395</v>
       </c>
@@ -9223,7 +9318,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>397</v>
       </c>
@@ -9258,7 +9353,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>399</v>
       </c>
@@ -9293,7 +9388,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>401</v>
       </c>
@@ -9328,7 +9423,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>465</v>
       </c>
@@ -9363,7 +9458,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>403</v>
       </c>
@@ -9398,7 +9493,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>405</v>
       </c>
@@ -9433,7 +9528,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>407</v>
       </c>
@@ -9468,7 +9563,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>409</v>
       </c>
@@ -9503,7 +9598,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>411</v>
       </c>
@@ -9538,7 +9633,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>413</v>
       </c>
@@ -9573,7 +9668,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>415</v>
       </c>
@@ -9607,8 +9702,15 @@
       <c r="K220">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L220">
+        <v>0.77</v>
+      </c>
+      <c r="M220" s="8">
+        <f t="shared" ref="M220" si="10">(((LARGE(D220:F220,1)+LARGE(D220:F220,2))*0.05+(LARGE(G220:I220,1)+LARGE(G220:I220,2))*0.3+(LARGE(J220:L220,1)+LARGE(J220:L220,2))*0.15))</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>417</v>
       </c>
@@ -9643,7 +9745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>419</v>
       </c>
@@ -9678,7 +9780,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>421</v>
       </c>
@@ -9713,7 +9815,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>423</v>
       </c>
@@ -9748,7 +9850,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>425</v>
       </c>
@@ -9783,7 +9885,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>192</v>
       </c>
@@ -9818,7 +9920,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>427</v>
       </c>
@@ -9853,7 +9955,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>430</v>
       </c>
@@ -9888,7 +9990,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>432</v>
       </c>
@@ -9922,8 +10024,15 @@
       <c r="K229">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L229">
+        <v>0.78</v>
+      </c>
+      <c r="M229" s="8">
+        <f t="shared" ref="M229" si="11">(((LARGE(D229:F229,1)+LARGE(D229:F229,2))*0.05+(LARGE(G229:I229,1)+LARGE(G229:I229,2))*0.3+(LARGE(J229:L229,1)+LARGE(J229:L229,2))*0.15))</f>
+        <v>0.73449999999999993</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>434</v>
       </c>
@@ -9958,7 +10067,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>436</v>
       </c>

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CC9FC6-C8DE-784E-BC12-3804297D9AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F7E0AB-DFCB-A94B-AF53-F6565D23CD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="960" windowWidth="29360" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -1929,8 +1929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="L193" sqref="L193"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="L121" sqref="L121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -4204,8 +4204,15 @@
       <c r="K64">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L64">
+        <v>0.69</v>
+      </c>
+      <c r="M64" s="8">
+        <f t="shared" ref="M64" si="3">(((LARGE(D64:F64,1)+LARGE(D64:F64,2))*0.05+(LARGE(G64:I64,1)+LARGE(G64:I64,2))*0.3+(LARGE(J64:L64,1)+LARGE(J64:L64,2))*0.15))</f>
+        <v>0.8680000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>126</v>
       </c>
@@ -4240,7 +4247,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>128</v>
       </c>
@@ -4275,7 +4282,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>130</v>
       </c>
@@ -4310,7 +4317,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>133</v>
       </c>
@@ -4345,7 +4352,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>137</v>
       </c>
@@ -4380,7 +4387,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>139</v>
       </c>
@@ -4415,7 +4422,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>141</v>
       </c>
@@ -4450,7 +4457,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>143</v>
       </c>
@@ -4485,7 +4492,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>145</v>
       </c>
@@ -4520,7 +4527,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>147</v>
       </c>
@@ -4555,7 +4562,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>149</v>
       </c>
@@ -4590,7 +4597,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>151</v>
       </c>
@@ -4625,7 +4632,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>466</v>
       </c>
@@ -4654,7 +4661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>452</v>
       </c>
@@ -4689,7 +4696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>153</v>
       </c>
@@ -4724,7 +4731,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>155</v>
       </c>
@@ -4757,6 +4764,13 @@
       </c>
       <c r="K80">
         <v>0.33</v>
+      </c>
+      <c r="L80">
+        <v>0.69</v>
+      </c>
+      <c r="M80" s="8">
+        <f t="shared" ref="M80" si="4">(((LARGE(D80:F80,1)+LARGE(D80:F80,2))*0.05+(LARGE(G80:I80,1)+LARGE(G80:I80,2))*0.3+(LARGE(J80:L80,1)+LARGE(J80:L80,2))*0.15))</f>
+        <v>0.80399999999999994</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -4972,7 +4986,7 @@
         <v>0.82</v>
       </c>
       <c r="M86" s="8">
-        <f t="shared" ref="M86" si="3">(((LARGE(D86:F86,1)+LARGE(D86:F86,2))*0.05+(LARGE(G86:I86,1)+LARGE(G86:I86,2))*0.3+(LARGE(J86:L86,1)+LARGE(J86:L86,2))*0.15))</f>
+        <f t="shared" ref="M86" si="5">(((LARGE(D86:F86,1)+LARGE(D86:F86,2))*0.05+(LARGE(G86:I86,1)+LARGE(G86:I86,2))*0.3+(LARGE(J86:L86,1)+LARGE(J86:L86,2))*0.15))</f>
         <v>0.71349999999999991</v>
       </c>
     </row>
@@ -5434,7 +5448,7 @@
         <v>0.82</v>
       </c>
       <c r="M99" s="8">
-        <f t="shared" ref="M99" si="4">(((LARGE(D99:F99,1)+LARGE(D99:F99,2))*0.05+(LARGE(G99:I99,1)+LARGE(G99:I99,2))*0.3+(LARGE(J99:L99,1)+LARGE(J99:L99,2))*0.15))</f>
+        <f t="shared" ref="M99" si="6">(((LARGE(D99:F99,1)+LARGE(D99:F99,2))*0.05+(LARGE(G99:I99,1)+LARGE(G99:I99,2))*0.3+(LARGE(J99:L99,1)+LARGE(J99:L99,2))*0.15))</f>
         <v>0.7599999999999999</v>
       </c>
     </row>
@@ -5756,7 +5770,7 @@
         <v>0.46</v>
       </c>
       <c r="M108" s="8">
-        <f t="shared" ref="M108" si="5">(((LARGE(D108:F108,1)+LARGE(D108:F108,2))*0.05+(LARGE(G108:I108,1)+LARGE(G108:I108,2))*0.3+(LARGE(J108:L108,1)+LARGE(J108:L108,2))*0.15))</f>
+        <f t="shared" ref="M108" si="7">(((LARGE(D108:F108,1)+LARGE(D108:F108,2))*0.05+(LARGE(G108:I108,1)+LARGE(G108:I108,2))*0.3+(LARGE(J108:L108,1)+LARGE(J108:L108,2))*0.15))</f>
         <v>0.64200000000000002</v>
       </c>
     </row>
@@ -5895,7 +5909,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>219</v>
       </c>
@@ -5930,7 +5944,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>221</v>
       </c>
@@ -5965,7 +5979,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>223</v>
       </c>
@@ -6000,7 +6014,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -6035,7 +6049,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>226</v>
       </c>
@@ -6070,7 +6084,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>228</v>
       </c>
@@ -6105,7 +6119,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>460</v>
       </c>
@@ -6139,8 +6153,15 @@
       <c r="K119">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L119">
+        <v>0.78</v>
+      </c>
+      <c r="M119" s="8">
+        <f t="shared" ref="M119:M120" si="8">(((LARGE(D119:F119,1)+LARGE(D119:F119,2))*0.05+(LARGE(G119:I119,1)+LARGE(G119:I119,2))*0.3+(LARGE(J119:L119,1)+LARGE(J119:L119,2))*0.15))</f>
+        <v>0.61550000000000005</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>460</v>
       </c>
@@ -6174,8 +6195,15 @@
       <c r="K120">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L120">
+        <v>0.78</v>
+      </c>
+      <c r="M120" s="8">
+        <f t="shared" si="8"/>
+        <v>0.64949999999999997</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>230</v>
       </c>
@@ -6210,7 +6238,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>232</v>
       </c>
@@ -6245,7 +6273,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>234</v>
       </c>
@@ -6280,7 +6308,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>236</v>
       </c>
@@ -6315,7 +6343,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>238</v>
       </c>
@@ -6350,7 +6378,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>240</v>
       </c>
@@ -6385,7 +6413,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>242</v>
       </c>
@@ -6420,7 +6448,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>244</v>
       </c>
@@ -7788,7 +7816,7 @@
         <v>0.65</v>
       </c>
       <c r="M166" s="8">
-        <f t="shared" ref="M166" si="6">(((LARGE(D166:F166,1)+LARGE(D166:F166,2))*0.05+(LARGE(G166:I166,1)+LARGE(G166:I166,2))*0.3+(LARGE(J166:L166,1)+LARGE(J166:L166,2))*0.15))</f>
+        <f t="shared" ref="M166" si="9">(((LARGE(D166:F166,1)+LARGE(D166:F166,2))*0.05+(LARGE(G166:I166,1)+LARGE(G166:I166,2))*0.3+(LARGE(J166:L166,1)+LARGE(J166:L166,2))*0.15))</f>
         <v>0.72399999999999998</v>
       </c>
     </row>
@@ -8036,6 +8064,13 @@
       <c r="K173">
         <v>0.56000000000000005</v>
       </c>
+      <c r="L173">
+        <v>0.61</v>
+      </c>
+      <c r="M173" s="8">
+        <f t="shared" ref="M173" si="10">(((LARGE(D173:F173,1)+LARGE(D173:F173,2))*0.05+(LARGE(G173:I173,1)+LARGE(G173:I173,2))*0.3+(LARGE(J173:L173,1)+LARGE(J173:L173,2))*0.15))</f>
+        <v>0.71</v>
+      </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
@@ -8526,6 +8561,13 @@
       <c r="K187">
         <v>0.56000000000000005</v>
       </c>
+      <c r="L187">
+        <v>0.61</v>
+      </c>
+      <c r="M187" s="8">
+        <f t="shared" ref="M187" si="11">(((LARGE(D187:F187,1)+LARGE(D187:F187,2))*0.05+(LARGE(G187:I187,1)+LARGE(G187:I187,2))*0.3+(LARGE(J187:L187,1)+LARGE(J187:L187,2))*0.15))</f>
+        <v>0.66149999999999998</v>
+      </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
@@ -8705,7 +8747,7 @@
         <v>0.65</v>
       </c>
       <c r="M192" s="8">
-        <f t="shared" ref="M192" si="7">(((LARGE(D192:F192,1)+LARGE(D192:F192,2))*0.05+(LARGE(G192:I192,1)+LARGE(G192:I192,2))*0.3+(LARGE(J192:L192,1)+LARGE(J192:L192,2))*0.15))</f>
+        <f t="shared" ref="M192" si="12">(((LARGE(D192:F192,1)+LARGE(D192:F192,2))*0.05+(LARGE(G192:I192,1)+LARGE(G192:I192,2))*0.3+(LARGE(J192:L192,1)+LARGE(J192:L192,2))*0.15))</f>
         <v>0.64049999999999996</v>
       </c>
     </row>
@@ -8817,7 +8859,7 @@
         <v>0.78</v>
       </c>
       <c r="M195" s="8">
-        <f t="shared" ref="M195" si="8">(((LARGE(D195:F195,1)+LARGE(D195:F195,2))*0.05+(LARGE(G195:I195,1)+LARGE(G195:I195,2))*0.3+(LARGE(J195:L195,1)+LARGE(J195:L195,2))*0.15))</f>
+        <f t="shared" ref="M195" si="13">(((LARGE(D195:F195,1)+LARGE(D195:F195,2))*0.05+(LARGE(G195:I195,1)+LARGE(G195:I195,2))*0.3+(LARGE(J195:L195,1)+LARGE(J195:L195,2))*0.15))</f>
         <v>0.78700000000000003</v>
       </c>
     </row>
@@ -8894,7 +8936,7 @@
         <v>0.77</v>
       </c>
       <c r="M197" s="8">
-        <f t="shared" ref="M197" si="9">(((LARGE(D197:F197,1)+LARGE(D197:F197,2))*0.05+(LARGE(G197:I197,1)+LARGE(G197:I197,2))*0.3+(LARGE(J197:L197,1)+LARGE(J197:L197,2))*0.15))</f>
+        <f t="shared" ref="M197" si="14">(((LARGE(D197:F197,1)+LARGE(D197:F197,2))*0.05+(LARGE(G197:I197,1)+LARGE(G197:I197,2))*0.3+(LARGE(J197:L197,1)+LARGE(J197:L197,2))*0.15))</f>
         <v>0.73450000000000004</v>
       </c>
     </row>
@@ -9492,6 +9534,13 @@
       <c r="K214">
         <v>0.62</v>
       </c>
+      <c r="L214">
+        <v>0.54</v>
+      </c>
+      <c r="M214" s="8">
+        <f t="shared" ref="M214" si="15">(((LARGE(D214:F214,1)+LARGE(D214:F214,2))*0.05+(LARGE(G214:I214,1)+LARGE(G214:I214,2))*0.3+(LARGE(J214:L214,1)+LARGE(J214:L214,2))*0.15))</f>
+        <v>0.84700000000000009</v>
+      </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
@@ -9706,7 +9755,7 @@
         <v>0.77</v>
       </c>
       <c r="M220" s="8">
-        <f t="shared" ref="M220" si="10">(((LARGE(D220:F220,1)+LARGE(D220:F220,2))*0.05+(LARGE(G220:I220,1)+LARGE(G220:I220,2))*0.3+(LARGE(J220:L220,1)+LARGE(J220:L220,2))*0.15))</f>
+        <f t="shared" ref="M220" si="16">(((LARGE(D220:F220,1)+LARGE(D220:F220,2))*0.05+(LARGE(G220:I220,1)+LARGE(G220:I220,2))*0.3+(LARGE(J220:L220,1)+LARGE(J220:L220,2))*0.15))</f>
         <v>0.7</v>
       </c>
     </row>
@@ -9779,6 +9828,13 @@
       <c r="K222">
         <v>0.62</v>
       </c>
+      <c r="L222">
+        <v>0.54</v>
+      </c>
+      <c r="M222" s="8">
+        <f t="shared" ref="M222" si="17">(((LARGE(D222:F222,1)+LARGE(D222:F222,2))*0.05+(LARGE(G222:I222,1)+LARGE(G222:I222,2))*0.3+(LARGE(J222:L222,1)+LARGE(J222:L222,2))*0.15))</f>
+        <v>0.72299999999999998</v>
+      </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
@@ -10028,7 +10084,7 @@
         <v>0.78</v>
       </c>
       <c r="M229" s="8">
-        <f t="shared" ref="M229" si="11">(((LARGE(D229:F229,1)+LARGE(D229:F229,2))*0.05+(LARGE(G229:I229,1)+LARGE(G229:I229,2))*0.3+(LARGE(J229:L229,1)+LARGE(J229:L229,2))*0.15))</f>
+        <f t="shared" ref="M229" si="18">(((LARGE(D229:F229,1)+LARGE(D229:F229,2))*0.05+(LARGE(G229:I229,1)+LARGE(G229:I229,2))*0.3+(LARGE(J229:L229,1)+LARGE(J229:L229,2))*0.15))</f>
         <v>0.73449999999999993</v>
       </c>
     </row>

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F7E0AB-DFCB-A94B-AF53-F6565D23CD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564D2D22-9AE7-574F-94DF-78D6BF32936B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="960" windowWidth="29360" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -1929,8 +1929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="L121" sqref="L121"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -3078,7 +3078,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>167</v>
       </c>
@@ -3147,8 +3147,9 @@
       <c r="K34">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M34" s="8"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -3182,8 +3183,15 @@
       <c r="K35">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <v>0.8</v>
+      </c>
+      <c r="M35" s="8">
+        <f t="shared" ref="M34:M35" si="2">(((LARGE(D35:F35,1)+LARGE(D35:F35,2))*0.05+(LARGE(G35:I35,1)+LARGE(G35:I35,2))*0.3+(LARGE(J35:L35,1)+LARGE(J35:L35,2))*0.15))</f>
+        <v>0.70705825242718467</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>68</v>
       </c>
@@ -3218,7 +3226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -3253,7 +3261,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>70</v>
       </c>
@@ -3288,7 +3296,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -3323,7 +3331,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>75</v>
       </c>
@@ -3358,7 +3366,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>77</v>
       </c>
@@ -3393,7 +3401,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -3428,7 +3436,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>81</v>
       </c>
@@ -3463,7 +3471,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>83</v>
       </c>
@@ -3498,7 +3506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>85</v>
       </c>
@@ -3532,8 +3540,15 @@
       <c r="K45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45">
+        <v>0.5</v>
+      </c>
+      <c r="M45" s="8">
+        <f t="shared" ref="M45" si="3">(((LARGE(D45:F45,1)+LARGE(D45:F45,2))*0.05+(LARGE(G45:I45,1)+LARGE(G45:I45,2))*0.3+(LARGE(J45:L45,1)+LARGE(J45:L45,2))*0.15))</f>
+        <v>0.77499999999999991</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>87</v>
       </c>
@@ -3568,7 +3583,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>89</v>
       </c>
@@ -3603,7 +3618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -4057,6 +4072,13 @@
       <c r="K60">
         <v>0.73</v>
       </c>
+      <c r="L60">
+        <v>0.69</v>
+      </c>
+      <c r="M60" s="8">
+        <f t="shared" ref="M60" si="4">(((LARGE(D60:F60,1)+LARGE(D60:F60,2))*0.05+(LARGE(G60:I60,1)+LARGE(G60:I60,2))*0.3+(LARGE(J60:L60,1)+LARGE(J60:L60,2))*0.15))</f>
+        <v>0.80499999999999994</v>
+      </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -4096,7 +4118,7 @@
         <v>0.46</v>
       </c>
       <c r="M61" s="8">
-        <f t="shared" ref="M61" si="2">(((LARGE(D61:F61,1)+LARGE(D61:F61,2))*0.05+(LARGE(G61:I61,1)+LARGE(G61:I61,2))*0.3+(LARGE(J61:L61,1)+LARGE(J61:L61,2))*0.15))</f>
+        <f t="shared" ref="M61" si="5">(((LARGE(D61:F61,1)+LARGE(D61:F61,2))*0.05+(LARGE(G61:I61,1)+LARGE(G61:I61,2))*0.3+(LARGE(J61:L61,1)+LARGE(J61:L61,2))*0.15))</f>
         <v>0.67800000000000005</v>
       </c>
     </row>
@@ -4208,7 +4230,7 @@
         <v>0.69</v>
       </c>
       <c r="M64" s="8">
-        <f t="shared" ref="M64" si="3">(((LARGE(D64:F64,1)+LARGE(D64:F64,2))*0.05+(LARGE(G64:I64,1)+LARGE(G64:I64,2))*0.3+(LARGE(J64:L64,1)+LARGE(J64:L64,2))*0.15))</f>
+        <f t="shared" ref="M64" si="6">(((LARGE(D64:F64,1)+LARGE(D64:F64,2))*0.05+(LARGE(G64:I64,1)+LARGE(G64:I64,2))*0.3+(LARGE(J64:L64,1)+LARGE(J64:L64,2))*0.15))</f>
         <v>0.8680000000000001</v>
       </c>
     </row>
@@ -4769,7 +4791,7 @@
         <v>0.69</v>
       </c>
       <c r="M80" s="8">
-        <f t="shared" ref="M80" si="4">(((LARGE(D80:F80,1)+LARGE(D80:F80,2))*0.05+(LARGE(G80:I80,1)+LARGE(G80:I80,2))*0.3+(LARGE(J80:L80,1)+LARGE(J80:L80,2))*0.15))</f>
+        <f t="shared" ref="M80" si="7">(((LARGE(D80:F80,1)+LARGE(D80:F80,2))*0.05+(LARGE(G80:I80,1)+LARGE(G80:I80,2))*0.3+(LARGE(J80:L80,1)+LARGE(J80:L80,2))*0.15))</f>
         <v>0.80399999999999994</v>
       </c>
     </row>
@@ -4986,7 +5008,7 @@
         <v>0.82</v>
       </c>
       <c r="M86" s="8">
-        <f t="shared" ref="M86" si="5">(((LARGE(D86:F86,1)+LARGE(D86:F86,2))*0.05+(LARGE(G86:I86,1)+LARGE(G86:I86,2))*0.3+(LARGE(J86:L86,1)+LARGE(J86:L86,2))*0.15))</f>
+        <f t="shared" ref="M86" si="8">(((LARGE(D86:F86,1)+LARGE(D86:F86,2))*0.05+(LARGE(G86:I86,1)+LARGE(G86:I86,2))*0.3+(LARGE(J86:L86,1)+LARGE(J86:L86,2))*0.15))</f>
         <v>0.71349999999999991</v>
       </c>
     </row>
@@ -5448,7 +5470,7 @@
         <v>0.82</v>
       </c>
       <c r="M99" s="8">
-        <f t="shared" ref="M99" si="6">(((LARGE(D99:F99,1)+LARGE(D99:F99,2))*0.05+(LARGE(G99:I99,1)+LARGE(G99:I99,2))*0.3+(LARGE(J99:L99,1)+LARGE(J99:L99,2))*0.15))</f>
+        <f t="shared" ref="M99:M100" si="9">(((LARGE(D99:F99,1)+LARGE(D99:F99,2))*0.05+(LARGE(G99:I99,1)+LARGE(G99:I99,2))*0.3+(LARGE(J99:L99,1)+LARGE(J99:L99,2))*0.15))</f>
         <v>0.7599999999999999</v>
       </c>
     </row>
@@ -5486,6 +5508,13 @@
       <c r="K100">
         <v>0.73</v>
       </c>
+      <c r="L100">
+        <v>0.69</v>
+      </c>
+      <c r="M100" s="8">
+        <f t="shared" si="9"/>
+        <v>0.69249999999999989</v>
+      </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
@@ -5770,7 +5799,7 @@
         <v>0.46</v>
       </c>
       <c r="M108" s="8">
-        <f t="shared" ref="M108" si="7">(((LARGE(D108:F108,1)+LARGE(D108:F108,2))*0.05+(LARGE(G108:I108,1)+LARGE(G108:I108,2))*0.3+(LARGE(J108:L108,1)+LARGE(J108:L108,2))*0.15))</f>
+        <f t="shared" ref="M108" si="10">(((LARGE(D108:F108,1)+LARGE(D108:F108,2))*0.05+(LARGE(G108:I108,1)+LARGE(G108:I108,2))*0.3+(LARGE(J108:L108,1)+LARGE(J108:L108,2))*0.15))</f>
         <v>0.64200000000000002</v>
       </c>
     </row>
@@ -6157,7 +6186,7 @@
         <v>0.78</v>
       </c>
       <c r="M119" s="8">
-        <f t="shared" ref="M119:M120" si="8">(((LARGE(D119:F119,1)+LARGE(D119:F119,2))*0.05+(LARGE(G119:I119,1)+LARGE(G119:I119,2))*0.3+(LARGE(J119:L119,1)+LARGE(J119:L119,2))*0.15))</f>
+        <f t="shared" ref="M119:M120" si="11">(((LARGE(D119:F119,1)+LARGE(D119:F119,2))*0.05+(LARGE(G119:I119,1)+LARGE(G119:I119,2))*0.3+(LARGE(J119:L119,1)+LARGE(J119:L119,2))*0.15))</f>
         <v>0.61550000000000005</v>
       </c>
     </row>
@@ -6199,7 +6228,7 @@
         <v>0.78</v>
       </c>
       <c r="M120" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.64949999999999997</v>
       </c>
     </row>
@@ -6482,6 +6511,13 @@
       <c r="K128">
         <v>0.56000000000000005</v>
       </c>
+      <c r="L128">
+        <v>0.5</v>
+      </c>
+      <c r="M128" s="8">
+        <f t="shared" ref="M128" si="12">(((LARGE(D128:F128,1)+LARGE(D128:F128,2))*0.05+(LARGE(G128:I128,1)+LARGE(G128:I128,2))*0.3+(LARGE(J128:L128,1)+LARGE(J128:L128,2))*0.15))</f>
+        <v>0.76649999999999996</v>
+      </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
@@ -7043,7 +7079,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>275</v>
       </c>
@@ -7077,8 +7113,15 @@
       <c r="K145">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L145">
+        <v>0.68</v>
+      </c>
+      <c r="M145" s="8">
+        <f t="shared" ref="M145" si="13">(((LARGE(D145:F145,1)+LARGE(D145:F145,2))*0.05+(LARGE(G145:I145,1)+LARGE(G145:I145,2))*0.3+(LARGE(J145:L145,1)+LARGE(J145:L145,2))*0.15))</f>
+        <v>0.76200000000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>278</v>
       </c>
@@ -7113,7 +7156,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>280</v>
       </c>
@@ -7148,7 +7191,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>282</v>
       </c>
@@ -7183,7 +7226,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>284</v>
       </c>
@@ -7218,7 +7261,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>286</v>
       </c>
@@ -7253,7 +7296,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>288</v>
       </c>
@@ -7288,7 +7331,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>290</v>
       </c>
@@ -7323,7 +7366,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>292</v>
       </c>
@@ -7358,7 +7401,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>294</v>
       </c>
@@ -7393,7 +7436,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>296</v>
       </c>
@@ -7428,7 +7471,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>298</v>
       </c>
@@ -7463,7 +7506,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>299</v>
       </c>
@@ -7498,7 +7541,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>301</v>
       </c>
@@ -7533,7 +7576,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>303</v>
       </c>
@@ -7568,7 +7611,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>305</v>
       </c>
@@ -7816,7 +7859,7 @@
         <v>0.65</v>
       </c>
       <c r="M166" s="8">
-        <f t="shared" ref="M166" si="9">(((LARGE(D166:F166,1)+LARGE(D166:F166,2))*0.05+(LARGE(G166:I166,1)+LARGE(G166:I166,2))*0.3+(LARGE(J166:L166,1)+LARGE(J166:L166,2))*0.15))</f>
+        <f t="shared" ref="M166" si="14">(((LARGE(D166:F166,1)+LARGE(D166:F166,2))*0.05+(LARGE(G166:I166,1)+LARGE(G166:I166,2))*0.3+(LARGE(J166:L166,1)+LARGE(J166:L166,2))*0.15))</f>
         <v>0.72399999999999998</v>
       </c>
     </row>
@@ -8068,7 +8111,7 @@
         <v>0.61</v>
       </c>
       <c r="M173" s="8">
-        <f t="shared" ref="M173" si="10">(((LARGE(D173:F173,1)+LARGE(D173:F173,2))*0.05+(LARGE(G173:I173,1)+LARGE(G173:I173,2))*0.3+(LARGE(J173:L173,1)+LARGE(J173:L173,2))*0.15))</f>
+        <f t="shared" ref="M173" si="15">(((LARGE(D173:F173,1)+LARGE(D173:F173,2))*0.05+(LARGE(G173:I173,1)+LARGE(G173:I173,2))*0.3+(LARGE(J173:L173,1)+LARGE(J173:L173,2))*0.15))</f>
         <v>0.71</v>
       </c>
     </row>
@@ -8565,7 +8608,7 @@
         <v>0.61</v>
       </c>
       <c r="M187" s="8">
-        <f t="shared" ref="M187" si="11">(((LARGE(D187:F187,1)+LARGE(D187:F187,2))*0.05+(LARGE(G187:I187,1)+LARGE(G187:I187,2))*0.3+(LARGE(J187:L187,1)+LARGE(J187:L187,2))*0.15))</f>
+        <f t="shared" ref="M187" si="16">(((LARGE(D187:F187,1)+LARGE(D187:F187,2))*0.05+(LARGE(G187:I187,1)+LARGE(G187:I187,2))*0.3+(LARGE(J187:L187,1)+LARGE(J187:L187,2))*0.15))</f>
         <v>0.66149999999999998</v>
       </c>
     </row>
@@ -8747,7 +8790,7 @@
         <v>0.65</v>
       </c>
       <c r="M192" s="8">
-        <f t="shared" ref="M192" si="12">(((LARGE(D192:F192,1)+LARGE(D192:F192,2))*0.05+(LARGE(G192:I192,1)+LARGE(G192:I192,2))*0.3+(LARGE(J192:L192,1)+LARGE(J192:L192,2))*0.15))</f>
+        <f t="shared" ref="M192" si="17">(((LARGE(D192:F192,1)+LARGE(D192:F192,2))*0.05+(LARGE(G192:I192,1)+LARGE(G192:I192,2))*0.3+(LARGE(J192:L192,1)+LARGE(J192:L192,2))*0.15))</f>
         <v>0.64049999999999996</v>
       </c>
     </row>
@@ -8859,7 +8902,7 @@
         <v>0.78</v>
       </c>
       <c r="M195" s="8">
-        <f t="shared" ref="M195" si="13">(((LARGE(D195:F195,1)+LARGE(D195:F195,2))*0.05+(LARGE(G195:I195,1)+LARGE(G195:I195,2))*0.3+(LARGE(J195:L195,1)+LARGE(J195:L195,2))*0.15))</f>
+        <f t="shared" ref="M195" si="18">(((LARGE(D195:F195,1)+LARGE(D195:F195,2))*0.05+(LARGE(G195:I195,1)+LARGE(G195:I195,2))*0.3+(LARGE(J195:L195,1)+LARGE(J195:L195,2))*0.15))</f>
         <v>0.78700000000000003</v>
       </c>
     </row>
@@ -8936,7 +8979,7 @@
         <v>0.77</v>
       </c>
       <c r="M197" s="8">
-        <f t="shared" ref="M197" si="14">(((LARGE(D197:F197,1)+LARGE(D197:F197,2))*0.05+(LARGE(G197:I197,1)+LARGE(G197:I197,2))*0.3+(LARGE(J197:L197,1)+LARGE(J197:L197,2))*0.15))</f>
+        <f t="shared" ref="M197" si="19">(((LARGE(D197:F197,1)+LARGE(D197:F197,2))*0.05+(LARGE(G197:I197,1)+LARGE(G197:I197,2))*0.3+(LARGE(J197:L197,1)+LARGE(J197:L197,2))*0.15))</f>
         <v>0.73450000000000004</v>
       </c>
     </row>
@@ -9359,6 +9402,13 @@
       <c r="K209">
         <v>0.62</v>
       </c>
+      <c r="L209">
+        <v>0.68</v>
+      </c>
+      <c r="M209" s="8">
+        <f t="shared" ref="M209" si="20">(((LARGE(D209:F209,1)+LARGE(D209:F209,2))*0.05+(LARGE(G209:I209,1)+LARGE(G209:I209,2))*0.3+(LARGE(J209:L209,1)+LARGE(J209:L209,2))*0.15))</f>
+        <v>0.81850000000000001</v>
+      </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
@@ -9499,6 +9549,13 @@
       <c r="K213">
         <v>0.52</v>
       </c>
+      <c r="L213">
+        <v>0.8</v>
+      </c>
+      <c r="M213" s="8">
+        <f t="shared" ref="M213" si="21">(((LARGE(D213:F213,1)+LARGE(D213:F213,2))*0.05+(LARGE(G213:I213,1)+LARGE(G213:I213,2))*0.3+(LARGE(J213:L213,1)+LARGE(J213:L213,2))*0.15))</f>
+        <v>0.63849999999999996</v>
+      </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
@@ -9538,7 +9595,7 @@
         <v>0.54</v>
       </c>
       <c r="M214" s="8">
-        <f t="shared" ref="M214" si="15">(((LARGE(D214:F214,1)+LARGE(D214:F214,2))*0.05+(LARGE(G214:I214,1)+LARGE(G214:I214,2))*0.3+(LARGE(J214:L214,1)+LARGE(J214:L214,2))*0.15))</f>
+        <f t="shared" ref="M214" si="22">(((LARGE(D214:F214,1)+LARGE(D214:F214,2))*0.05+(LARGE(G214:I214,1)+LARGE(G214:I214,2))*0.3+(LARGE(J214:L214,1)+LARGE(J214:L214,2))*0.15))</f>
         <v>0.84700000000000009</v>
       </c>
     </row>
@@ -9755,7 +9812,7 @@
         <v>0.77</v>
       </c>
       <c r="M220" s="8">
-        <f t="shared" ref="M220" si="16">(((LARGE(D220:F220,1)+LARGE(D220:F220,2))*0.05+(LARGE(G220:I220,1)+LARGE(G220:I220,2))*0.3+(LARGE(J220:L220,1)+LARGE(J220:L220,2))*0.15))</f>
+        <f t="shared" ref="M220" si="23">(((LARGE(D220:F220,1)+LARGE(D220:F220,2))*0.05+(LARGE(G220:I220,1)+LARGE(G220:I220,2))*0.3+(LARGE(J220:L220,1)+LARGE(J220:L220,2))*0.15))</f>
         <v>0.7</v>
       </c>
     </row>
@@ -9832,7 +9889,7 @@
         <v>0.54</v>
       </c>
       <c r="M222" s="8">
-        <f t="shared" ref="M222" si="17">(((LARGE(D222:F222,1)+LARGE(D222:F222,2))*0.05+(LARGE(G222:I222,1)+LARGE(G222:I222,2))*0.3+(LARGE(J222:L222,1)+LARGE(J222:L222,2))*0.15))</f>
+        <f t="shared" ref="M222" si="24">(((LARGE(D222:F222,1)+LARGE(D222:F222,2))*0.05+(LARGE(G222:I222,1)+LARGE(G222:I222,2))*0.3+(LARGE(J222:L222,1)+LARGE(J222:L222,2))*0.15))</f>
         <v>0.72299999999999998</v>
       </c>
     </row>
@@ -10084,7 +10141,7 @@
         <v>0.78</v>
       </c>
       <c r="M229" s="8">
-        <f t="shared" ref="M229" si="18">(((LARGE(D229:F229,1)+LARGE(D229:F229,2))*0.05+(LARGE(G229:I229,1)+LARGE(G229:I229,2))*0.3+(LARGE(J229:L229,1)+LARGE(J229:L229,2))*0.15))</f>
+        <f t="shared" ref="M229" si="25">(((LARGE(D229:F229,1)+LARGE(D229:F229,2))*0.05+(LARGE(G229:I229,1)+LARGE(G229:I229,2))*0.3+(LARGE(J229:L229,1)+LARGE(J229:L229,2))*0.15))</f>
         <v>0.73449999999999993</v>
       </c>
     </row>

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564D2D22-9AE7-574F-94DF-78D6BF32936B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60505CDC-DAC9-4B4F-9A76-F04748844147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="960" windowWidth="29360" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -1929,8 +1929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="M72" sqref="M72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2510,6 +2510,13 @@
       <c r="K16">
         <v>0</v>
       </c>
+      <c r="L16">
+        <v>0.64</v>
+      </c>
+      <c r="M16" s="8">
+        <f t="shared" ref="M16:M18" si="1">(((LARGE(D16:F16,1)+LARGE(D16:F16,2))*0.05+(LARGE(G16:I16,1)+LARGE(G16:I16,2))*0.3+(LARGE(J16:L16,1)+LARGE(J16:L16,2))*0.15))</f>
+        <v>0.62250000000000005</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -2580,6 +2587,13 @@
       <c r="K18">
         <v>0.42</v>
       </c>
+      <c r="L18">
+        <v>0.64</v>
+      </c>
+      <c r="M18" s="8">
+        <f t="shared" si="1"/>
+        <v>0.71250000000000002</v>
+      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -2650,6 +2664,13 @@
       <c r="K20">
         <v>0</v>
       </c>
+      <c r="L20">
+        <v>0.61</v>
+      </c>
+      <c r="M20" s="8">
+        <f t="shared" ref="M20" si="2">(((LARGE(D20:F20,1)+LARGE(D20:F20,2))*0.05+(LARGE(G20:I20,1)+LARGE(G20:I20,2))*0.3+(LARGE(J20:L20,1)+LARGE(J20:L20,2))*0.15))</f>
+        <v>0.69264563106796118</v>
+      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -2969,7 +2990,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="M29" s="8">
-        <f t="shared" ref="M29" si="1">(((LARGE(D29:F29,1)+LARGE(D29:F29,2))*0.05+(LARGE(G29:I29,1)+LARGE(G29:I29,2))*0.3+(LARGE(J29:L29,1)+LARGE(J29:L29,2))*0.15))</f>
+        <f t="shared" ref="M29" si="3">(((LARGE(D29:F29,1)+LARGE(D29:F29,2))*0.05+(LARGE(G29:I29,1)+LARGE(G29:I29,2))*0.3+(LARGE(J29:L29,1)+LARGE(J29:L29,2))*0.15))</f>
         <v>0.72050000000000003</v>
       </c>
     </row>
@@ -3187,7 +3208,7 @@
         <v>0.8</v>
       </c>
       <c r="M35" s="8">
-        <f t="shared" ref="M34:M35" si="2">(((LARGE(D35:F35,1)+LARGE(D35:F35,2))*0.05+(LARGE(G35:I35,1)+LARGE(G35:I35,2))*0.3+(LARGE(J35:L35,1)+LARGE(J35:L35,2))*0.15))</f>
+        <f t="shared" ref="M34:M35" si="4">(((LARGE(D35:F35,1)+LARGE(D35:F35,2))*0.05+(LARGE(G35:I35,1)+LARGE(G35:I35,2))*0.3+(LARGE(J35:L35,1)+LARGE(J35:L35,2))*0.15))</f>
         <v>0.70705825242718467</v>
       </c>
     </row>
@@ -3544,7 +3565,7 @@
         <v>0.5</v>
       </c>
       <c r="M45" s="8">
-        <f t="shared" ref="M45" si="3">(((LARGE(D45:F45,1)+LARGE(D45:F45,2))*0.05+(LARGE(G45:I45,1)+LARGE(G45:I45,2))*0.3+(LARGE(J45:L45,1)+LARGE(J45:L45,2))*0.15))</f>
+        <f t="shared" ref="M45" si="5">(((LARGE(D45:F45,1)+LARGE(D45:F45,2))*0.05+(LARGE(G45:I45,1)+LARGE(G45:I45,2))*0.3+(LARGE(J45:L45,1)+LARGE(J45:L45,2))*0.15))</f>
         <v>0.77499999999999991</v>
       </c>
     </row>
@@ -3652,6 +3673,13 @@
       <c r="K48">
         <v>0</v>
       </c>
+      <c r="L48">
+        <v>0.61</v>
+      </c>
+      <c r="M48" s="8">
+        <f t="shared" ref="M48" si="6">(((LARGE(D48:F48,1)+LARGE(D48:F48,2))*0.05+(LARGE(G48:I48,1)+LARGE(G48:I48,2))*0.3+(LARGE(J48:L48,1)+LARGE(J48:L48,2))*0.15))</f>
+        <v>0.72764563106796121</v>
+      </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -3862,6 +3890,13 @@
       <c r="K54">
         <v>0.54</v>
       </c>
+      <c r="L54">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M54" s="8">
+        <f t="shared" ref="M54" si="7">(((LARGE(D54:F54,1)+LARGE(D54:F54,2))*0.05+(LARGE(G54:I54,1)+LARGE(G54:I54,2))*0.3+(LARGE(J54:L54,1)+LARGE(J54:L54,2))*0.15))</f>
+        <v>0.79939805825242705</v>
+      </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -4076,7 +4111,7 @@
         <v>0.69</v>
       </c>
       <c r="M60" s="8">
-        <f t="shared" ref="M60" si="4">(((LARGE(D60:F60,1)+LARGE(D60:F60,2))*0.05+(LARGE(G60:I60,1)+LARGE(G60:I60,2))*0.3+(LARGE(J60:L60,1)+LARGE(J60:L60,2))*0.15))</f>
+        <f t="shared" ref="M60" si="8">(((LARGE(D60:F60,1)+LARGE(D60:F60,2))*0.05+(LARGE(G60:I60,1)+LARGE(G60:I60,2))*0.3+(LARGE(J60:L60,1)+LARGE(J60:L60,2))*0.15))</f>
         <v>0.80499999999999994</v>
       </c>
     </row>
@@ -4118,7 +4153,7 @@
         <v>0.46</v>
       </c>
       <c r="M61" s="8">
-        <f t="shared" ref="M61" si="5">(((LARGE(D61:F61,1)+LARGE(D61:F61,2))*0.05+(LARGE(G61:I61,1)+LARGE(G61:I61,2))*0.3+(LARGE(J61:L61,1)+LARGE(J61:L61,2))*0.15))</f>
+        <f t="shared" ref="M61:M62" si="9">(((LARGE(D61:F61,1)+LARGE(D61:F61,2))*0.05+(LARGE(G61:I61,1)+LARGE(G61:I61,2))*0.3+(LARGE(J61:L61,1)+LARGE(J61:L61,2))*0.15))</f>
         <v>0.67800000000000005</v>
       </c>
     </row>
@@ -4156,6 +4191,13 @@
       <c r="K62">
         <v>0.56000000000000005</v>
       </c>
+      <c r="L62">
+        <v>0.51</v>
+      </c>
+      <c r="M62" s="8">
+        <f t="shared" si="9"/>
+        <v>0.71350000000000002</v>
+      </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -4230,7 +4272,7 @@
         <v>0.69</v>
       </c>
       <c r="M64" s="8">
-        <f t="shared" ref="M64" si="6">(((LARGE(D64:F64,1)+LARGE(D64:F64,2))*0.05+(LARGE(G64:I64,1)+LARGE(G64:I64,2))*0.3+(LARGE(J64:L64,1)+LARGE(J64:L64,2))*0.15))</f>
+        <f t="shared" ref="M64:M65" si="10">(((LARGE(D64:F64,1)+LARGE(D64:F64,2))*0.05+(LARGE(G64:I64,1)+LARGE(G64:I64,2))*0.3+(LARGE(J64:L64,1)+LARGE(J64:L64,2))*0.15))</f>
         <v>0.8680000000000001</v>
       </c>
     </row>
@@ -4268,6 +4310,13 @@
       <c r="K65">
         <v>0.56000000000000005</v>
       </c>
+      <c r="L65">
+        <v>0.51</v>
+      </c>
+      <c r="M65" s="8">
+        <f t="shared" si="10"/>
+        <v>0.64000000000000012</v>
+      </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
@@ -4513,6 +4562,13 @@
       <c r="K72">
         <v>0.75</v>
       </c>
+      <c r="L72">
+        <v>0.81</v>
+      </c>
+      <c r="M72" s="8">
+        <f t="shared" ref="M72" si="11">(((LARGE(D72:F72,1)+LARGE(D72:F72,2))*0.05+(LARGE(G72:I72,1)+LARGE(G72:I72,2))*0.3+(LARGE(J72:L72,1)+LARGE(J72:L72,2))*0.15))</f>
+        <v>0.69199999999999995</v>
+      </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
@@ -4670,6 +4726,9 @@
       <c r="E77">
         <v>0</v>
       </c>
+      <c r="F77">
+        <v>0.96</v>
+      </c>
       <c r="H77" s="5">
         <v>0</v>
       </c>
@@ -4791,7 +4850,7 @@
         <v>0.69</v>
       </c>
       <c r="M80" s="8">
-        <f t="shared" ref="M80" si="7">(((LARGE(D80:F80,1)+LARGE(D80:F80,2))*0.05+(LARGE(G80:I80,1)+LARGE(G80:I80,2))*0.3+(LARGE(J80:L80,1)+LARGE(J80:L80,2))*0.15))</f>
+        <f t="shared" ref="M80" si="12">(((LARGE(D80:F80,1)+LARGE(D80:F80,2))*0.05+(LARGE(G80:I80,1)+LARGE(G80:I80,2))*0.3+(LARGE(J80:L80,1)+LARGE(J80:L80,2))*0.15))</f>
         <v>0.80399999999999994</v>
       </c>
     </row>
@@ -5008,7 +5067,7 @@
         <v>0.82</v>
       </c>
       <c r="M86" s="8">
-        <f t="shared" ref="M86" si="8">(((LARGE(D86:F86,1)+LARGE(D86:F86,2))*0.05+(LARGE(G86:I86,1)+LARGE(G86:I86,2))*0.3+(LARGE(J86:L86,1)+LARGE(J86:L86,2))*0.15))</f>
+        <f t="shared" ref="M86" si="13">(((LARGE(D86:F86,1)+LARGE(D86:F86,2))*0.05+(LARGE(G86:I86,1)+LARGE(G86:I86,2))*0.3+(LARGE(J86:L86,1)+LARGE(J86:L86,2))*0.15))</f>
         <v>0.71349999999999991</v>
       </c>
     </row>
@@ -5221,6 +5280,13 @@
       <c r="K92">
         <v>0.54</v>
       </c>
+      <c r="L92">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M92" s="8">
+        <f t="shared" ref="M92:M93" si="14">(((LARGE(D92:F92,1)+LARGE(D92:F92,2))*0.05+(LARGE(G92:I92,1)+LARGE(G92:I92,2))*0.3+(LARGE(J92:L92,1)+LARGE(J92:L92,2))*0.15))</f>
+        <v>0.628</v>
+      </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
@@ -5256,6 +5322,13 @@
       <c r="K93">
         <v>0.75</v>
       </c>
+      <c r="L93">
+        <v>0.81</v>
+      </c>
+      <c r="M93" s="8">
+        <f t="shared" si="14"/>
+        <v>0.66549999999999998</v>
+      </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
@@ -5470,7 +5543,7 @@
         <v>0.82</v>
       </c>
       <c r="M99" s="8">
-        <f t="shared" ref="M99:M100" si="9">(((LARGE(D99:F99,1)+LARGE(D99:F99,2))*0.05+(LARGE(G99:I99,1)+LARGE(G99:I99,2))*0.3+(LARGE(J99:L99,1)+LARGE(J99:L99,2))*0.15))</f>
+        <f t="shared" ref="M99:M100" si="15">(((LARGE(D99:F99,1)+LARGE(D99:F99,2))*0.05+(LARGE(G99:I99,1)+LARGE(G99:I99,2))*0.3+(LARGE(J99:L99,1)+LARGE(J99:L99,2))*0.15))</f>
         <v>0.7599999999999999</v>
       </c>
     </row>
@@ -5512,7 +5585,7 @@
         <v>0.69</v>
       </c>
       <c r="M100" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.69249999999999989</v>
       </c>
     </row>
@@ -5799,7 +5872,7 @@
         <v>0.46</v>
       </c>
       <c r="M108" s="8">
-        <f t="shared" ref="M108" si="10">(((LARGE(D108:F108,1)+LARGE(D108:F108,2))*0.05+(LARGE(G108:I108,1)+LARGE(G108:I108,2))*0.3+(LARGE(J108:L108,1)+LARGE(J108:L108,2))*0.15))</f>
+        <f t="shared" ref="M108" si="16">(((LARGE(D108:F108,1)+LARGE(D108:F108,2))*0.05+(LARGE(G108:I108,1)+LARGE(G108:I108,2))*0.3+(LARGE(J108:L108,1)+LARGE(J108:L108,2))*0.15))</f>
         <v>0.64200000000000002</v>
       </c>
     </row>
@@ -6186,7 +6259,7 @@
         <v>0.78</v>
       </c>
       <c r="M119" s="8">
-        <f t="shared" ref="M119:M120" si="11">(((LARGE(D119:F119,1)+LARGE(D119:F119,2))*0.05+(LARGE(G119:I119,1)+LARGE(G119:I119,2))*0.3+(LARGE(J119:L119,1)+LARGE(J119:L119,2))*0.15))</f>
+        <f t="shared" ref="M119:M120" si="17">(((LARGE(D119:F119,1)+LARGE(D119:F119,2))*0.05+(LARGE(G119:I119,1)+LARGE(G119:I119,2))*0.3+(LARGE(J119:L119,1)+LARGE(J119:L119,2))*0.15))</f>
         <v>0.61550000000000005</v>
       </c>
     </row>
@@ -6228,7 +6301,7 @@
         <v>0.78</v>
       </c>
       <c r="M120" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.64949999999999997</v>
       </c>
     </row>
@@ -6515,7 +6588,7 @@
         <v>0.5</v>
       </c>
       <c r="M128" s="8">
-        <f t="shared" ref="M128" si="12">(((LARGE(D128:F128,1)+LARGE(D128:F128,2))*0.05+(LARGE(G128:I128,1)+LARGE(G128:I128,2))*0.3+(LARGE(J128:L128,1)+LARGE(J128:L128,2))*0.15))</f>
+        <f t="shared" ref="M128" si="18">(((LARGE(D128:F128,1)+LARGE(D128:F128,2))*0.05+(LARGE(G128:I128,1)+LARGE(G128:I128,2))*0.3+(LARGE(J128:L128,1)+LARGE(J128:L128,2))*0.15))</f>
         <v>0.76649999999999996</v>
       </c>
     </row>
@@ -7117,7 +7190,7 @@
         <v>0.68</v>
       </c>
       <c r="M145" s="8">
-        <f t="shared" ref="M145" si="13">(((LARGE(D145:F145,1)+LARGE(D145:F145,2))*0.05+(LARGE(G145:I145,1)+LARGE(G145:I145,2))*0.3+(LARGE(J145:L145,1)+LARGE(J145:L145,2))*0.15))</f>
+        <f t="shared" ref="M145" si="19">(((LARGE(D145:F145,1)+LARGE(D145:F145,2))*0.05+(LARGE(G145:I145,1)+LARGE(G145:I145,2))*0.3+(LARGE(J145:L145,1)+LARGE(J145:L145,2))*0.15))</f>
         <v>0.76200000000000001</v>
       </c>
     </row>
@@ -7859,7 +7932,7 @@
         <v>0.65</v>
       </c>
       <c r="M166" s="8">
-        <f t="shared" ref="M166" si="14">(((LARGE(D166:F166,1)+LARGE(D166:F166,2))*0.05+(LARGE(G166:I166,1)+LARGE(G166:I166,2))*0.3+(LARGE(J166:L166,1)+LARGE(J166:L166,2))*0.15))</f>
+        <f t="shared" ref="M166" si="20">(((LARGE(D166:F166,1)+LARGE(D166:F166,2))*0.05+(LARGE(G166:I166,1)+LARGE(G166:I166,2))*0.3+(LARGE(J166:L166,1)+LARGE(J166:L166,2))*0.15))</f>
         <v>0.72399999999999998</v>
       </c>
     </row>
@@ -7967,6 +8040,13 @@
       <c r="K169">
         <v>0.67</v>
       </c>
+      <c r="L169">
+        <v>0.51</v>
+      </c>
+      <c r="M169" s="8">
+        <f t="shared" ref="M169" si="21">(((LARGE(D169:F169,1)+LARGE(D169:F169,2))*0.05+(LARGE(G169:I169,1)+LARGE(G169:I169,2))*0.3+(LARGE(J169:L169,1)+LARGE(J169:L169,2))*0.15))</f>
+        <v>0.6855</v>
+      </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
@@ -8072,6 +8152,13 @@
       <c r="K172">
         <v>0.79</v>
       </c>
+      <c r="L172">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M172" s="8">
+        <f t="shared" ref="M172" si="22">(((LARGE(D172:F172,1)+LARGE(D172:F172,2))*0.05+(LARGE(G172:I172,1)+LARGE(G172:I172,2))*0.3+(LARGE(J172:L172,1)+LARGE(J172:L172,2))*0.15))</f>
+        <v>0.61799999999999999</v>
+      </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
@@ -8111,7 +8198,7 @@
         <v>0.61</v>
       </c>
       <c r="M173" s="8">
-        <f t="shared" ref="M173" si="15">(((LARGE(D173:F173,1)+LARGE(D173:F173,2))*0.05+(LARGE(G173:I173,1)+LARGE(G173:I173,2))*0.3+(LARGE(J173:L173,1)+LARGE(J173:L173,2))*0.15))</f>
+        <f t="shared" ref="M173" si="23">(((LARGE(D173:F173,1)+LARGE(D173:F173,2))*0.05+(LARGE(G173:I173,1)+LARGE(G173:I173,2))*0.3+(LARGE(J173:L173,1)+LARGE(J173:L173,2))*0.15))</f>
         <v>0.71</v>
       </c>
     </row>
@@ -8359,6 +8446,13 @@
       <c r="K180">
         <v>0.54</v>
       </c>
+      <c r="L180">
+        <v>0.63</v>
+      </c>
+      <c r="M180" s="8">
+        <f t="shared" ref="M180" si="24">(((LARGE(D180:F180,1)+LARGE(D180:F180,2))*0.05+(LARGE(G180:I180,1)+LARGE(G180:I180,2))*0.3+(LARGE(J180:L180,1)+LARGE(J180:L180,2))*0.15))</f>
+        <v>0.68400000000000005</v>
+      </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
@@ -8464,6 +8558,13 @@
       <c r="K183">
         <v>0.67</v>
       </c>
+      <c r="L183">
+        <v>0.51</v>
+      </c>
+      <c r="M183" s="8">
+        <f t="shared" ref="M183" si="25">(((LARGE(D183:F183,1)+LARGE(D183:F183,2))*0.05+(LARGE(G183:I183,1)+LARGE(G183:I183,2))*0.3+(LARGE(J183:L183,1)+LARGE(J183:L183,2))*0.15))</f>
+        <v>0.65900000000000003</v>
+      </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
@@ -8608,7 +8709,7 @@
         <v>0.61</v>
       </c>
       <c r="M187" s="8">
-        <f t="shared" ref="M187" si="16">(((LARGE(D187:F187,1)+LARGE(D187:F187,2))*0.05+(LARGE(G187:I187,1)+LARGE(G187:I187,2))*0.3+(LARGE(J187:L187,1)+LARGE(J187:L187,2))*0.15))</f>
+        <f t="shared" ref="M187" si="26">(((LARGE(D187:F187,1)+LARGE(D187:F187,2))*0.05+(LARGE(G187:I187,1)+LARGE(G187:I187,2))*0.3+(LARGE(J187:L187,1)+LARGE(J187:L187,2))*0.15))</f>
         <v>0.66149999999999998</v>
       </c>
     </row>
@@ -8790,7 +8891,7 @@
         <v>0.65</v>
       </c>
       <c r="M192" s="8">
-        <f t="shared" ref="M192" si="17">(((LARGE(D192:F192,1)+LARGE(D192:F192,2))*0.05+(LARGE(G192:I192,1)+LARGE(G192:I192,2))*0.3+(LARGE(J192:L192,1)+LARGE(J192:L192,2))*0.15))</f>
+        <f t="shared" ref="M192" si="27">(((LARGE(D192:F192,1)+LARGE(D192:F192,2))*0.05+(LARGE(G192:I192,1)+LARGE(G192:I192,2))*0.3+(LARGE(J192:L192,1)+LARGE(J192:L192,2))*0.15))</f>
         <v>0.64049999999999996</v>
       </c>
     </row>
@@ -8902,7 +9003,7 @@
         <v>0.78</v>
       </c>
       <c r="M195" s="8">
-        <f t="shared" ref="M195" si="18">(((LARGE(D195:F195,1)+LARGE(D195:F195,2))*0.05+(LARGE(G195:I195,1)+LARGE(G195:I195,2))*0.3+(LARGE(J195:L195,1)+LARGE(J195:L195,2))*0.15))</f>
+        <f t="shared" ref="M195" si="28">(((LARGE(D195:F195,1)+LARGE(D195:F195,2))*0.05+(LARGE(G195:I195,1)+LARGE(G195:I195,2))*0.3+(LARGE(J195:L195,1)+LARGE(J195:L195,2))*0.15))</f>
         <v>0.78700000000000003</v>
       </c>
     </row>
@@ -8979,7 +9080,7 @@
         <v>0.77</v>
       </c>
       <c r="M197" s="8">
-        <f t="shared" ref="M197" si="19">(((LARGE(D197:F197,1)+LARGE(D197:F197,2))*0.05+(LARGE(G197:I197,1)+LARGE(G197:I197,2))*0.3+(LARGE(J197:L197,1)+LARGE(J197:L197,2))*0.15))</f>
+        <f t="shared" ref="M197" si="29">(((LARGE(D197:F197,1)+LARGE(D197:F197,2))*0.05+(LARGE(G197:I197,1)+LARGE(G197:I197,2))*0.3+(LARGE(J197:L197,1)+LARGE(J197:L197,2))*0.15))</f>
         <v>0.73450000000000004</v>
       </c>
     </row>
@@ -9157,6 +9258,13 @@
       <c r="K202">
         <v>0.56000000000000005</v>
       </c>
+      <c r="L202">
+        <v>0.63</v>
+      </c>
+      <c r="M202" s="8">
+        <f t="shared" ref="M202" si="30">(((LARGE(D202:F202,1)+LARGE(D202:F202,2))*0.05+(LARGE(G202:I202,1)+LARGE(G202:I202,2))*0.3+(LARGE(J202:L202,1)+LARGE(J202:L202,2))*0.15))</f>
+        <v>0.59000000000000008</v>
+      </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
@@ -9332,6 +9440,13 @@
       <c r="K207">
         <v>0.79</v>
       </c>
+      <c r="L207">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M207" s="8">
+        <f t="shared" ref="M207" si="31">(((LARGE(D207:F207,1)+LARGE(D207:F207,2))*0.05+(LARGE(G207:I207,1)+LARGE(G207:I207,2))*0.3+(LARGE(J207:L207,1)+LARGE(J207:L207,2))*0.15))</f>
+        <v>0.74550000000000005</v>
+      </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
@@ -9406,7 +9521,7 @@
         <v>0.68</v>
       </c>
       <c r="M209" s="8">
-        <f t="shared" ref="M209" si="20">(((LARGE(D209:F209,1)+LARGE(D209:F209,2))*0.05+(LARGE(G209:I209,1)+LARGE(G209:I209,2))*0.3+(LARGE(J209:L209,1)+LARGE(J209:L209,2))*0.15))</f>
+        <f t="shared" ref="M209" si="32">(((LARGE(D209:F209,1)+LARGE(D209:F209,2))*0.05+(LARGE(G209:I209,1)+LARGE(G209:I209,2))*0.3+(LARGE(J209:L209,1)+LARGE(J209:L209,2))*0.15))</f>
         <v>0.81850000000000001</v>
       </c>
     </row>
@@ -9553,7 +9668,7 @@
         <v>0.8</v>
       </c>
       <c r="M213" s="8">
-        <f t="shared" ref="M213" si="21">(((LARGE(D213:F213,1)+LARGE(D213:F213,2))*0.05+(LARGE(G213:I213,1)+LARGE(G213:I213,2))*0.3+(LARGE(J213:L213,1)+LARGE(J213:L213,2))*0.15))</f>
+        <f t="shared" ref="M213" si="33">(((LARGE(D213:F213,1)+LARGE(D213:F213,2))*0.05+(LARGE(G213:I213,1)+LARGE(G213:I213,2))*0.3+(LARGE(J213:L213,1)+LARGE(J213:L213,2))*0.15))</f>
         <v>0.63849999999999996</v>
       </c>
     </row>
@@ -9595,7 +9710,7 @@
         <v>0.54</v>
       </c>
       <c r="M214" s="8">
-        <f t="shared" ref="M214" si="22">(((LARGE(D214:F214,1)+LARGE(D214:F214,2))*0.05+(LARGE(G214:I214,1)+LARGE(G214:I214,2))*0.3+(LARGE(J214:L214,1)+LARGE(J214:L214,2))*0.15))</f>
+        <f t="shared" ref="M214" si="34">(((LARGE(D214:F214,1)+LARGE(D214:F214,2))*0.05+(LARGE(G214:I214,1)+LARGE(G214:I214,2))*0.3+(LARGE(J214:L214,1)+LARGE(J214:L214,2))*0.15))</f>
         <v>0.84700000000000009</v>
       </c>
     </row>
@@ -9812,7 +9927,7 @@
         <v>0.77</v>
       </c>
       <c r="M220" s="8">
-        <f t="shared" ref="M220" si="23">(((LARGE(D220:F220,1)+LARGE(D220:F220,2))*0.05+(LARGE(G220:I220,1)+LARGE(G220:I220,2))*0.3+(LARGE(J220:L220,1)+LARGE(J220:L220,2))*0.15))</f>
+        <f t="shared" ref="M220" si="35">(((LARGE(D220:F220,1)+LARGE(D220:F220,2))*0.05+(LARGE(G220:I220,1)+LARGE(G220:I220,2))*0.3+(LARGE(J220:L220,1)+LARGE(J220:L220,2))*0.15))</f>
         <v>0.7</v>
       </c>
     </row>
@@ -9889,7 +10004,7 @@
         <v>0.54</v>
       </c>
       <c r="M222" s="8">
-        <f t="shared" ref="M222" si="24">(((LARGE(D222:F222,1)+LARGE(D222:F222,2))*0.05+(LARGE(G222:I222,1)+LARGE(G222:I222,2))*0.3+(LARGE(J222:L222,1)+LARGE(J222:L222,2))*0.15))</f>
+        <f t="shared" ref="M222" si="36">(((LARGE(D222:F222,1)+LARGE(D222:F222,2))*0.05+(LARGE(G222:I222,1)+LARGE(G222:I222,2))*0.3+(LARGE(J222:L222,1)+LARGE(J222:L222,2))*0.15))</f>
         <v>0.72299999999999998</v>
       </c>
     </row>
@@ -10141,7 +10256,7 @@
         <v>0.78</v>
       </c>
       <c r="M229" s="8">
-        <f t="shared" ref="M229" si="25">(((LARGE(D229:F229,1)+LARGE(D229:F229,2))*0.05+(LARGE(G229:I229,1)+LARGE(G229:I229,2))*0.3+(LARGE(J229:L229,1)+LARGE(J229:L229,2))*0.15))</f>
+        <f t="shared" ref="M229" si="37">(((LARGE(D229:F229,1)+LARGE(D229:F229,2))*0.05+(LARGE(G229:I229,1)+LARGE(G229:I229,2))*0.3+(LARGE(J229:L229,1)+LARGE(J229:L229,2))*0.15))</f>
         <v>0.73449999999999993</v>
       </c>
     </row>

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60505CDC-DAC9-4B4F-9A76-F04748844147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9F6E73-2A28-E448-9C58-93AF5E29DBBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="960" windowWidth="29360" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -1929,8 +1929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="M72" sqref="M72"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="I144" sqref="I144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -7143,7 +7143,7 @@
         <v>0</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="J144">
         <v>0</v>

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9F6E73-2A28-E448-9C58-93AF5E29DBBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29FAE14-467C-D748-9B04-E079B01FF90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="960" windowWidth="29360" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -1496,12 +1496,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0E6F5"/>
+        <bgColor rgb="FFC0E6F5"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1531,7 +1537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1541,6 +1547,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1929,8 +1938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="I144" sqref="I144"/>
+    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2017,7 +2026,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="M2" s="8">
-        <f t="shared" ref="M2" si="0">(((LARGE(D2:F2,1)+LARGE(D2:F2,2))*0.05+(LARGE(G2:I2,1)+LARGE(G2:I2,2))*0.3+(LARGE(J2:L2,1)+LARGE(J2:L2,2))*0.15))</f>
+        <f t="shared" ref="M2:M3" si="0">(((LARGE(D2:F2,1)+LARGE(D2:F2,2))*0.05+(LARGE(G2:I2,1)+LARGE(G2:I2,2))*0.3+(LARGE(J2:L2,1)+LARGE(J2:L2,2))*0.15))</f>
         <v>0.66849999999999998</v>
       </c>
     </row>
@@ -2055,6 +2064,13 @@
       <c r="K3">
         <v>0.48</v>
       </c>
+      <c r="L3">
+        <v>0.64</v>
+      </c>
+      <c r="M3" s="8">
+        <f t="shared" si="0"/>
+        <v>0.78400000000000003</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2090,6 +2106,7 @@
       <c r="K4">
         <v>0.92</v>
       </c>
+      <c r="M4" s="9"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2440,6 +2457,13 @@
       <c r="K14">
         <v>0</v>
       </c>
+      <c r="L14">
+        <v>0.85</v>
+      </c>
+      <c r="M14" s="8">
+        <f t="shared" ref="M14:M18" si="1">(((LARGE(D14:F14,1)+LARGE(D14:F14,2))*0.05+(LARGE(G14:I14,1)+LARGE(G14:I14,2))*0.3+(LARGE(J14:L14,1)+LARGE(J14:L14,2))*0.15))</f>
+        <v>0.71134466019417486</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2514,7 +2538,7 @@
         <v>0.64</v>
       </c>
       <c r="M16" s="8">
-        <f t="shared" ref="M16:M18" si="1">(((LARGE(D16:F16,1)+LARGE(D16:F16,2))*0.05+(LARGE(G16:I16,1)+LARGE(G16:I16,2))*0.3+(LARGE(J16:L16,1)+LARGE(J16:L16,2))*0.15))</f>
+        <f t="shared" si="1"/>
         <v>0.62250000000000005</v>
       </c>
     </row>
@@ -2881,6 +2905,13 @@
       <c r="K26">
         <v>0</v>
       </c>
+      <c r="L26">
+        <v>0.85</v>
+      </c>
+      <c r="M26" s="8">
+        <f t="shared" ref="M26" si="3">(((LARGE(D26:F26,1)+LARGE(D26:F26,2))*0.05+(LARGE(G26:I26,1)+LARGE(G26:I26,2))*0.3+(LARGE(J26:L26,1)+LARGE(J26:L26,2))*0.15))</f>
+        <v>0.7004999999999999</v>
+      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -2990,7 +3021,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="M29" s="8">
-        <f t="shared" ref="M29" si="3">(((LARGE(D29:F29,1)+LARGE(D29:F29,2))*0.05+(LARGE(G29:I29,1)+LARGE(G29:I29,2))*0.3+(LARGE(J29:L29,1)+LARGE(J29:L29,2))*0.15))</f>
+        <f t="shared" ref="M29" si="4">(((LARGE(D29:F29,1)+LARGE(D29:F29,2))*0.05+(LARGE(G29:I29,1)+LARGE(G29:I29,2))*0.3+(LARGE(J29:L29,1)+LARGE(J29:L29,2))*0.15))</f>
         <v>0.72050000000000003</v>
       </c>
     </row>
@@ -3208,7 +3239,7 @@
         <v>0.8</v>
       </c>
       <c r="M35" s="8">
-        <f t="shared" ref="M34:M35" si="4">(((LARGE(D35:F35,1)+LARGE(D35:F35,2))*0.05+(LARGE(G35:I35,1)+LARGE(G35:I35,2))*0.3+(LARGE(J35:L35,1)+LARGE(J35:L35,2))*0.15))</f>
+        <f t="shared" ref="M34:M35" si="5">(((LARGE(D35:F35,1)+LARGE(D35:F35,2))*0.05+(LARGE(G35:I35,1)+LARGE(G35:I35,2))*0.3+(LARGE(J35:L35,1)+LARGE(J35:L35,2))*0.15))</f>
         <v>0.70705825242718467</v>
       </c>
     </row>
@@ -3565,7 +3596,7 @@
         <v>0.5</v>
       </c>
       <c r="M45" s="8">
-        <f t="shared" ref="M45" si="5">(((LARGE(D45:F45,1)+LARGE(D45:F45,2))*0.05+(LARGE(G45:I45,1)+LARGE(G45:I45,2))*0.3+(LARGE(J45:L45,1)+LARGE(J45:L45,2))*0.15))</f>
+        <f t="shared" ref="M45" si="6">(((LARGE(D45:F45,1)+LARGE(D45:F45,2))*0.05+(LARGE(G45:I45,1)+LARGE(G45:I45,2))*0.3+(LARGE(J45:L45,1)+LARGE(J45:L45,2))*0.15))</f>
         <v>0.77499999999999991</v>
       </c>
     </row>
@@ -3677,7 +3708,7 @@
         <v>0.61</v>
       </c>
       <c r="M48" s="8">
-        <f t="shared" ref="M48" si="6">(((LARGE(D48:F48,1)+LARGE(D48:F48,2))*0.05+(LARGE(G48:I48,1)+LARGE(G48:I48,2))*0.3+(LARGE(J48:L48,1)+LARGE(J48:L48,2))*0.15))</f>
+        <f t="shared" ref="M48" si="7">(((LARGE(D48:F48,1)+LARGE(D48:F48,2))*0.05+(LARGE(G48:I48,1)+LARGE(G48:I48,2))*0.3+(LARGE(J48:L48,1)+LARGE(J48:L48,2))*0.15))</f>
         <v>0.72764563106796121</v>
       </c>
     </row>
@@ -3894,7 +3925,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="M54" s="8">
-        <f t="shared" ref="M54" si="7">(((LARGE(D54:F54,1)+LARGE(D54:F54,2))*0.05+(LARGE(G54:I54,1)+LARGE(G54:I54,2))*0.3+(LARGE(J54:L54,1)+LARGE(J54:L54,2))*0.15))</f>
+        <f t="shared" ref="M54" si="8">(((LARGE(D54:F54,1)+LARGE(D54:F54,2))*0.05+(LARGE(G54:I54,1)+LARGE(G54:I54,2))*0.3+(LARGE(J54:L54,1)+LARGE(J54:L54,2))*0.15))</f>
         <v>0.79939805825242705</v>
       </c>
     </row>
@@ -4111,7 +4142,7 @@
         <v>0.69</v>
       </c>
       <c r="M60" s="8">
-        <f t="shared" ref="M60" si="8">(((LARGE(D60:F60,1)+LARGE(D60:F60,2))*0.05+(LARGE(G60:I60,1)+LARGE(G60:I60,2))*0.3+(LARGE(J60:L60,1)+LARGE(J60:L60,2))*0.15))</f>
+        <f t="shared" ref="M60" si="9">(((LARGE(D60:F60,1)+LARGE(D60:F60,2))*0.05+(LARGE(G60:I60,1)+LARGE(G60:I60,2))*0.3+(LARGE(J60:L60,1)+LARGE(J60:L60,2))*0.15))</f>
         <v>0.80499999999999994</v>
       </c>
     </row>
@@ -4153,7 +4184,7 @@
         <v>0.46</v>
       </c>
       <c r="M61" s="8">
-        <f t="shared" ref="M61:M62" si="9">(((LARGE(D61:F61,1)+LARGE(D61:F61,2))*0.05+(LARGE(G61:I61,1)+LARGE(G61:I61,2))*0.3+(LARGE(J61:L61,1)+LARGE(J61:L61,2))*0.15))</f>
+        <f t="shared" ref="M61:M62" si="10">(((LARGE(D61:F61,1)+LARGE(D61:F61,2))*0.05+(LARGE(G61:I61,1)+LARGE(G61:I61,2))*0.3+(LARGE(J61:L61,1)+LARGE(J61:L61,2))*0.15))</f>
         <v>0.67800000000000005</v>
       </c>
     </row>
@@ -4195,7 +4226,7 @@
         <v>0.51</v>
       </c>
       <c r="M62" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.71350000000000002</v>
       </c>
     </row>
@@ -4272,7 +4303,7 @@
         <v>0.69</v>
       </c>
       <c r="M64" s="8">
-        <f t="shared" ref="M64:M65" si="10">(((LARGE(D64:F64,1)+LARGE(D64:F64,2))*0.05+(LARGE(G64:I64,1)+LARGE(G64:I64,2))*0.3+(LARGE(J64:L64,1)+LARGE(J64:L64,2))*0.15))</f>
+        <f t="shared" ref="M64:M65" si="11">(((LARGE(D64:F64,1)+LARGE(D64:F64,2))*0.05+(LARGE(G64:I64,1)+LARGE(G64:I64,2))*0.3+(LARGE(J64:L64,1)+LARGE(J64:L64,2))*0.15))</f>
         <v>0.8680000000000001</v>
       </c>
     </row>
@@ -4314,7 +4345,7 @@
         <v>0.51</v>
       </c>
       <c r="M65" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.64000000000000012</v>
       </c>
     </row>
@@ -4566,7 +4597,7 @@
         <v>0.81</v>
       </c>
       <c r="M72" s="8">
-        <f t="shared" ref="M72" si="11">(((LARGE(D72:F72,1)+LARGE(D72:F72,2))*0.05+(LARGE(G72:I72,1)+LARGE(G72:I72,2))*0.3+(LARGE(J72:L72,1)+LARGE(J72:L72,2))*0.15))</f>
+        <f t="shared" ref="M72" si="12">(((LARGE(D72:F72,1)+LARGE(D72:F72,2))*0.05+(LARGE(G72:I72,1)+LARGE(G72:I72,2))*0.3+(LARGE(J72:L72,1)+LARGE(J72:L72,2))*0.15))</f>
         <v>0.69199999999999995</v>
       </c>
     </row>
@@ -4850,7 +4881,7 @@
         <v>0.69</v>
       </c>
       <c r="M80" s="8">
-        <f t="shared" ref="M80" si="12">(((LARGE(D80:F80,1)+LARGE(D80:F80,2))*0.05+(LARGE(G80:I80,1)+LARGE(G80:I80,2))*0.3+(LARGE(J80:L80,1)+LARGE(J80:L80,2))*0.15))</f>
+        <f t="shared" ref="M80" si="13">(((LARGE(D80:F80,1)+LARGE(D80:F80,2))*0.05+(LARGE(G80:I80,1)+LARGE(G80:I80,2))*0.3+(LARGE(J80:L80,1)+LARGE(J80:L80,2))*0.15))</f>
         <v>0.80399999999999994</v>
       </c>
     </row>
@@ -5067,7 +5098,7 @@
         <v>0.82</v>
       </c>
       <c r="M86" s="8">
-        <f t="shared" ref="M86" si="13">(((LARGE(D86:F86,1)+LARGE(D86:F86,2))*0.05+(LARGE(G86:I86,1)+LARGE(G86:I86,2))*0.3+(LARGE(J86:L86,1)+LARGE(J86:L86,2))*0.15))</f>
+        <f t="shared" ref="M86" si="14">(((LARGE(D86:F86,1)+LARGE(D86:F86,2))*0.05+(LARGE(G86:I86,1)+LARGE(G86:I86,2))*0.3+(LARGE(J86:L86,1)+LARGE(J86:L86,2))*0.15))</f>
         <v>0.71349999999999991</v>
       </c>
     </row>
@@ -5284,7 +5315,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="M92" s="8">
-        <f t="shared" ref="M92:M93" si="14">(((LARGE(D92:F92,1)+LARGE(D92:F92,2))*0.05+(LARGE(G92:I92,1)+LARGE(G92:I92,2))*0.3+(LARGE(J92:L92,1)+LARGE(J92:L92,2))*0.15))</f>
+        <f t="shared" ref="M92:M93" si="15">(((LARGE(D92:F92,1)+LARGE(D92:F92,2))*0.05+(LARGE(G92:I92,1)+LARGE(G92:I92,2))*0.3+(LARGE(J92:L92,1)+LARGE(J92:L92,2))*0.15))</f>
         <v>0.628</v>
       </c>
     </row>
@@ -5326,7 +5357,7 @@
         <v>0.81</v>
       </c>
       <c r="M93" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.66549999999999998</v>
       </c>
     </row>
@@ -5543,7 +5574,7 @@
         <v>0.82</v>
       </c>
       <c r="M99" s="8">
-        <f t="shared" ref="M99:M100" si="15">(((LARGE(D99:F99,1)+LARGE(D99:F99,2))*0.05+(LARGE(G99:I99,1)+LARGE(G99:I99,2))*0.3+(LARGE(J99:L99,1)+LARGE(J99:L99,2))*0.15))</f>
+        <f t="shared" ref="M99:M100" si="16">(((LARGE(D99:F99,1)+LARGE(D99:F99,2))*0.05+(LARGE(G99:I99,1)+LARGE(G99:I99,2))*0.3+(LARGE(J99:L99,1)+LARGE(J99:L99,2))*0.15))</f>
         <v>0.7599999999999999</v>
       </c>
     </row>
@@ -5585,7 +5616,7 @@
         <v>0.69</v>
       </c>
       <c r="M100" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.69249999999999989</v>
       </c>
     </row>
@@ -5872,7 +5903,7 @@
         <v>0.46</v>
       </c>
       <c r="M108" s="8">
-        <f t="shared" ref="M108" si="16">(((LARGE(D108:F108,1)+LARGE(D108:F108,2))*0.05+(LARGE(G108:I108,1)+LARGE(G108:I108,2))*0.3+(LARGE(J108:L108,1)+LARGE(J108:L108,2))*0.15))</f>
+        <f t="shared" ref="M108" si="17">(((LARGE(D108:F108,1)+LARGE(D108:F108,2))*0.05+(LARGE(G108:I108,1)+LARGE(G108:I108,2))*0.3+(LARGE(J108:L108,1)+LARGE(J108:L108,2))*0.15))</f>
         <v>0.64200000000000002</v>
       </c>
     </row>
@@ -6259,7 +6290,7 @@
         <v>0.78</v>
       </c>
       <c r="M119" s="8">
-        <f t="shared" ref="M119:M120" si="17">(((LARGE(D119:F119,1)+LARGE(D119:F119,2))*0.05+(LARGE(G119:I119,1)+LARGE(G119:I119,2))*0.3+(LARGE(J119:L119,1)+LARGE(J119:L119,2))*0.15))</f>
+        <f t="shared" ref="M119:M120" si="18">(((LARGE(D119:F119,1)+LARGE(D119:F119,2))*0.05+(LARGE(G119:I119,1)+LARGE(G119:I119,2))*0.3+(LARGE(J119:L119,1)+LARGE(J119:L119,2))*0.15))</f>
         <v>0.61550000000000005</v>
       </c>
     </row>
@@ -6301,7 +6332,7 @@
         <v>0.78</v>
       </c>
       <c r="M120" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.64949999999999997</v>
       </c>
     </row>
@@ -6588,7 +6619,7 @@
         <v>0.5</v>
       </c>
       <c r="M128" s="8">
-        <f t="shared" ref="M128" si="18">(((LARGE(D128:F128,1)+LARGE(D128:F128,2))*0.05+(LARGE(G128:I128,1)+LARGE(G128:I128,2))*0.3+(LARGE(J128:L128,1)+LARGE(J128:L128,2))*0.15))</f>
+        <f t="shared" ref="M128" si="19">(((LARGE(D128:F128,1)+LARGE(D128:F128,2))*0.05+(LARGE(G128:I128,1)+LARGE(G128:I128,2))*0.3+(LARGE(J128:L128,1)+LARGE(J128:L128,2))*0.15))</f>
         <v>0.76649999999999996</v>
       </c>
     </row>
@@ -7190,7 +7221,7 @@
         <v>0.68</v>
       </c>
       <c r="M145" s="8">
-        <f t="shared" ref="M145" si="19">(((LARGE(D145:F145,1)+LARGE(D145:F145,2))*0.05+(LARGE(G145:I145,1)+LARGE(G145:I145,2))*0.3+(LARGE(J145:L145,1)+LARGE(J145:L145,2))*0.15))</f>
+        <f t="shared" ref="M145" si="20">(((LARGE(D145:F145,1)+LARGE(D145:F145,2))*0.05+(LARGE(G145:I145,1)+LARGE(G145:I145,2))*0.3+(LARGE(J145:L145,1)+LARGE(J145:L145,2))*0.15))</f>
         <v>0.76200000000000001</v>
       </c>
     </row>
@@ -7788,6 +7819,13 @@
       <c r="K162">
         <v>0.56000000000000005</v>
       </c>
+      <c r="L162">
+        <v>0.6</v>
+      </c>
+      <c r="M162" s="8">
+        <f t="shared" ref="M162" si="21">(((LARGE(D162:F162,1)+LARGE(D162:F162,2))*0.05+(LARGE(G162:I162,1)+LARGE(G162:I162,2))*0.3+(LARGE(J162:L162,1)+LARGE(J162:L162,2))*0.15))</f>
+        <v>0.68700000000000006</v>
+      </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
@@ -7932,7 +7970,7 @@
         <v>0.65</v>
       </c>
       <c r="M166" s="8">
-        <f t="shared" ref="M166" si="20">(((LARGE(D166:F166,1)+LARGE(D166:F166,2))*0.05+(LARGE(G166:I166,1)+LARGE(G166:I166,2))*0.3+(LARGE(J166:L166,1)+LARGE(J166:L166,2))*0.15))</f>
+        <f t="shared" ref="M166" si="22">(((LARGE(D166:F166,1)+LARGE(D166:F166,2))*0.05+(LARGE(G166:I166,1)+LARGE(G166:I166,2))*0.3+(LARGE(J166:L166,1)+LARGE(J166:L166,2))*0.15))</f>
         <v>0.72399999999999998</v>
       </c>
     </row>
@@ -8044,7 +8082,7 @@
         <v>0.51</v>
       </c>
       <c r="M169" s="8">
-        <f t="shared" ref="M169" si="21">(((LARGE(D169:F169,1)+LARGE(D169:F169,2))*0.05+(LARGE(G169:I169,1)+LARGE(G169:I169,2))*0.3+(LARGE(J169:L169,1)+LARGE(J169:L169,2))*0.15))</f>
+        <f t="shared" ref="M169" si="23">(((LARGE(D169:F169,1)+LARGE(D169:F169,2))*0.05+(LARGE(G169:I169,1)+LARGE(G169:I169,2))*0.3+(LARGE(J169:L169,1)+LARGE(J169:L169,2))*0.15))</f>
         <v>0.6855</v>
       </c>
     </row>
@@ -8156,7 +8194,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="M172" s="8">
-        <f t="shared" ref="M172" si="22">(((LARGE(D172:F172,1)+LARGE(D172:F172,2))*0.05+(LARGE(G172:I172,1)+LARGE(G172:I172,2))*0.3+(LARGE(J172:L172,1)+LARGE(J172:L172,2))*0.15))</f>
+        <f t="shared" ref="M172" si="24">(((LARGE(D172:F172,1)+LARGE(D172:F172,2))*0.05+(LARGE(G172:I172,1)+LARGE(G172:I172,2))*0.3+(LARGE(J172:L172,1)+LARGE(J172:L172,2))*0.15))</f>
         <v>0.61799999999999999</v>
       </c>
     </row>
@@ -8198,7 +8236,7 @@
         <v>0.61</v>
       </c>
       <c r="M173" s="8">
-        <f t="shared" ref="M173" si="23">(((LARGE(D173:F173,1)+LARGE(D173:F173,2))*0.05+(LARGE(G173:I173,1)+LARGE(G173:I173,2))*0.3+(LARGE(J173:L173,1)+LARGE(J173:L173,2))*0.15))</f>
+        <f t="shared" ref="M173" si="25">(((LARGE(D173:F173,1)+LARGE(D173:F173,2))*0.05+(LARGE(G173:I173,1)+LARGE(G173:I173,2))*0.3+(LARGE(J173:L173,1)+LARGE(J173:L173,2))*0.15))</f>
         <v>0.71</v>
       </c>
     </row>
@@ -8450,7 +8488,7 @@
         <v>0.63</v>
       </c>
       <c r="M180" s="8">
-        <f t="shared" ref="M180" si="24">(((LARGE(D180:F180,1)+LARGE(D180:F180,2))*0.05+(LARGE(G180:I180,1)+LARGE(G180:I180,2))*0.3+(LARGE(J180:L180,1)+LARGE(J180:L180,2))*0.15))</f>
+        <f t="shared" ref="M180" si="26">(((LARGE(D180:F180,1)+LARGE(D180:F180,2))*0.05+(LARGE(G180:I180,1)+LARGE(G180:I180,2))*0.3+(LARGE(J180:L180,1)+LARGE(J180:L180,2))*0.15))</f>
         <v>0.68400000000000005</v>
       </c>
     </row>
@@ -8562,7 +8600,7 @@
         <v>0.51</v>
       </c>
       <c r="M183" s="8">
-        <f t="shared" ref="M183" si="25">(((LARGE(D183:F183,1)+LARGE(D183:F183,2))*0.05+(LARGE(G183:I183,1)+LARGE(G183:I183,2))*0.3+(LARGE(J183:L183,1)+LARGE(J183:L183,2))*0.15))</f>
+        <f t="shared" ref="M183" si="27">(((LARGE(D183:F183,1)+LARGE(D183:F183,2))*0.05+(LARGE(G183:I183,1)+LARGE(G183:I183,2))*0.3+(LARGE(J183:L183,1)+LARGE(J183:L183,2))*0.15))</f>
         <v>0.65900000000000003</v>
       </c>
     </row>
@@ -8709,7 +8747,7 @@
         <v>0.61</v>
       </c>
       <c r="M187" s="8">
-        <f t="shared" ref="M187" si="26">(((LARGE(D187:F187,1)+LARGE(D187:F187,2))*0.05+(LARGE(G187:I187,1)+LARGE(G187:I187,2))*0.3+(LARGE(J187:L187,1)+LARGE(J187:L187,2))*0.15))</f>
+        <f t="shared" ref="M187" si="28">(((LARGE(D187:F187,1)+LARGE(D187:F187,2))*0.05+(LARGE(G187:I187,1)+LARGE(G187:I187,2))*0.3+(LARGE(J187:L187,1)+LARGE(J187:L187,2))*0.15))</f>
         <v>0.66149999999999998</v>
       </c>
     </row>
@@ -8891,7 +8929,7 @@
         <v>0.65</v>
       </c>
       <c r="M192" s="8">
-        <f t="shared" ref="M192" si="27">(((LARGE(D192:F192,1)+LARGE(D192:F192,2))*0.05+(LARGE(G192:I192,1)+LARGE(G192:I192,2))*0.3+(LARGE(J192:L192,1)+LARGE(J192:L192,2))*0.15))</f>
+        <f t="shared" ref="M192" si="29">(((LARGE(D192:F192,1)+LARGE(D192:F192,2))*0.05+(LARGE(G192:I192,1)+LARGE(G192:I192,2))*0.3+(LARGE(J192:L192,1)+LARGE(J192:L192,2))*0.15))</f>
         <v>0.64049999999999996</v>
       </c>
     </row>
@@ -9003,7 +9041,7 @@
         <v>0.78</v>
       </c>
       <c r="M195" s="8">
-        <f t="shared" ref="M195" si="28">(((LARGE(D195:F195,1)+LARGE(D195:F195,2))*0.05+(LARGE(G195:I195,1)+LARGE(G195:I195,2))*0.3+(LARGE(J195:L195,1)+LARGE(J195:L195,2))*0.15))</f>
+        <f t="shared" ref="M195" si="30">(((LARGE(D195:F195,1)+LARGE(D195:F195,2))*0.05+(LARGE(G195:I195,1)+LARGE(G195:I195,2))*0.3+(LARGE(J195:L195,1)+LARGE(J195:L195,2))*0.15))</f>
         <v>0.78700000000000003</v>
       </c>
     </row>
@@ -9080,7 +9118,7 @@
         <v>0.77</v>
       </c>
       <c r="M197" s="8">
-        <f t="shared" ref="M197" si="29">(((LARGE(D197:F197,1)+LARGE(D197:F197,2))*0.05+(LARGE(G197:I197,1)+LARGE(G197:I197,2))*0.3+(LARGE(J197:L197,1)+LARGE(J197:L197,2))*0.15))</f>
+        <f t="shared" ref="M197" si="31">(((LARGE(D197:F197,1)+LARGE(D197:F197,2))*0.05+(LARGE(G197:I197,1)+LARGE(G197:I197,2))*0.3+(LARGE(J197:L197,1)+LARGE(J197:L197,2))*0.15))</f>
         <v>0.73450000000000004</v>
       </c>
     </row>
@@ -9262,7 +9300,7 @@
         <v>0.63</v>
       </c>
       <c r="M202" s="8">
-        <f t="shared" ref="M202" si="30">(((LARGE(D202:F202,1)+LARGE(D202:F202,2))*0.05+(LARGE(G202:I202,1)+LARGE(G202:I202,2))*0.3+(LARGE(J202:L202,1)+LARGE(J202:L202,2))*0.15))</f>
+        <f t="shared" ref="M202" si="32">(((LARGE(D202:F202,1)+LARGE(D202:F202,2))*0.05+(LARGE(G202:I202,1)+LARGE(G202:I202,2))*0.3+(LARGE(J202:L202,1)+LARGE(J202:L202,2))*0.15))</f>
         <v>0.59000000000000008</v>
       </c>
     </row>
@@ -9370,6 +9408,13 @@
       <c r="K205">
         <v>0.52</v>
       </c>
+      <c r="L205">
+        <v>0.6</v>
+      </c>
+      <c r="M205" s="8">
+        <f t="shared" ref="M205" si="33">(((LARGE(D205:F205,1)+LARGE(D205:F205,2))*0.05+(LARGE(G205:I205,1)+LARGE(G205:I205,2))*0.3+(LARGE(J205:L205,1)+LARGE(J205:L205,2))*0.15))</f>
+        <v>0.65349999999999997</v>
+      </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
@@ -9444,7 +9489,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="M207" s="8">
-        <f t="shared" ref="M207" si="31">(((LARGE(D207:F207,1)+LARGE(D207:F207,2))*0.05+(LARGE(G207:I207,1)+LARGE(G207:I207,2))*0.3+(LARGE(J207:L207,1)+LARGE(J207:L207,2))*0.15))</f>
+        <f t="shared" ref="M207:M208" si="34">(((LARGE(D207:F207,1)+LARGE(D207:F207,2))*0.05+(LARGE(G207:I207,1)+LARGE(G207:I207,2))*0.3+(LARGE(J207:L207,1)+LARGE(J207:L207,2))*0.15))</f>
         <v>0.74550000000000005</v>
       </c>
     </row>
@@ -9482,6 +9527,13 @@
       <c r="K208">
         <v>0.56000000000000005</v>
       </c>
+      <c r="L208">
+        <v>0.6</v>
+      </c>
+      <c r="M208" s="8">
+        <f t="shared" si="34"/>
+        <v>0.69550000000000012</v>
+      </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
@@ -9521,7 +9573,7 @@
         <v>0.68</v>
       </c>
       <c r="M209" s="8">
-        <f t="shared" ref="M209" si="32">(((LARGE(D209:F209,1)+LARGE(D209:F209,2))*0.05+(LARGE(G209:I209,1)+LARGE(G209:I209,2))*0.3+(LARGE(J209:L209,1)+LARGE(J209:L209,2))*0.15))</f>
+        <f t="shared" ref="M209" si="35">(((LARGE(D209:F209,1)+LARGE(D209:F209,2))*0.05+(LARGE(G209:I209,1)+LARGE(G209:I209,2))*0.3+(LARGE(J209:L209,1)+LARGE(J209:L209,2))*0.15))</f>
         <v>0.81850000000000001</v>
       </c>
     </row>
@@ -9668,7 +9720,7 @@
         <v>0.8</v>
       </c>
       <c r="M213" s="8">
-        <f t="shared" ref="M213" si="33">(((LARGE(D213:F213,1)+LARGE(D213:F213,2))*0.05+(LARGE(G213:I213,1)+LARGE(G213:I213,2))*0.3+(LARGE(J213:L213,1)+LARGE(J213:L213,2))*0.15))</f>
+        <f t="shared" ref="M213" si="36">(((LARGE(D213:F213,1)+LARGE(D213:F213,2))*0.05+(LARGE(G213:I213,1)+LARGE(G213:I213,2))*0.3+(LARGE(J213:L213,1)+LARGE(J213:L213,2))*0.15))</f>
         <v>0.63849999999999996</v>
       </c>
     </row>
@@ -9710,7 +9762,7 @@
         <v>0.54</v>
       </c>
       <c r="M214" s="8">
-        <f t="shared" ref="M214" si="34">(((LARGE(D214:F214,1)+LARGE(D214:F214,2))*0.05+(LARGE(G214:I214,1)+LARGE(G214:I214,2))*0.3+(LARGE(J214:L214,1)+LARGE(J214:L214,2))*0.15))</f>
+        <f t="shared" ref="M214" si="37">(((LARGE(D214:F214,1)+LARGE(D214:F214,2))*0.05+(LARGE(G214:I214,1)+LARGE(G214:I214,2))*0.3+(LARGE(J214:L214,1)+LARGE(J214:L214,2))*0.15))</f>
         <v>0.84700000000000009</v>
       </c>
     </row>
@@ -9927,7 +9979,7 @@
         <v>0.77</v>
       </c>
       <c r="M220" s="8">
-        <f t="shared" ref="M220" si="35">(((LARGE(D220:F220,1)+LARGE(D220:F220,2))*0.05+(LARGE(G220:I220,1)+LARGE(G220:I220,2))*0.3+(LARGE(J220:L220,1)+LARGE(J220:L220,2))*0.15))</f>
+        <f t="shared" ref="M220" si="38">(((LARGE(D220:F220,1)+LARGE(D220:F220,2))*0.05+(LARGE(G220:I220,1)+LARGE(G220:I220,2))*0.3+(LARGE(J220:L220,1)+LARGE(J220:L220,2))*0.15))</f>
         <v>0.7</v>
       </c>
     </row>
@@ -10004,7 +10056,7 @@
         <v>0.54</v>
       </c>
       <c r="M222" s="8">
-        <f t="shared" ref="M222" si="36">(((LARGE(D222:F222,1)+LARGE(D222:F222,2))*0.05+(LARGE(G222:I222,1)+LARGE(G222:I222,2))*0.3+(LARGE(J222:L222,1)+LARGE(J222:L222,2))*0.15))</f>
+        <f t="shared" ref="M222" si="39">(((LARGE(D222:F222,1)+LARGE(D222:F222,2))*0.05+(LARGE(G222:I222,1)+LARGE(G222:I222,2))*0.3+(LARGE(J222:L222,1)+LARGE(J222:L222,2))*0.15))</f>
         <v>0.72299999999999998</v>
       </c>
     </row>
@@ -10256,7 +10308,7 @@
         <v>0.78</v>
       </c>
       <c r="M229" s="8">
-        <f t="shared" ref="M229" si="37">(((LARGE(D229:F229,1)+LARGE(D229:F229,2))*0.05+(LARGE(G229:I229,1)+LARGE(G229:I229,2))*0.3+(LARGE(J229:L229,1)+LARGE(J229:L229,2))*0.15))</f>
+        <f t="shared" ref="M229" si="40">(((LARGE(D229:F229,1)+LARGE(D229:F229,2))*0.05+(LARGE(G229:I229,1)+LARGE(G229:I229,2))*0.3+(LARGE(J229:L229,1)+LARGE(J229:L229,2))*0.15))</f>
         <v>0.73449999999999993</v>
       </c>
     </row>

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29FAE14-467C-D748-9B04-E079B01FF90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B45BF2A-8911-AE4F-B361-8936E0135A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="960" windowWidth="29360" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -1938,8 +1938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M231"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="A207" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="M224" sqref="M224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -3164,6 +3164,13 @@
       <c r="K33">
         <v>0.42</v>
       </c>
+      <c r="L33">
+        <v>0.62</v>
+      </c>
+      <c r="M33" s="8">
+        <f t="shared" ref="M33" si="5">(((LARGE(D33:F33,1)+LARGE(D33:F33,2))*0.05+(LARGE(G33:I33,1)+LARGE(G33:I33,2))*0.3+(LARGE(J33:L33,1)+LARGE(J33:L33,2))*0.15))</f>
+        <v>0.63119417475728157</v>
+      </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -3239,7 +3246,7 @@
         <v>0.8</v>
       </c>
       <c r="M35" s="8">
-        <f t="shared" ref="M34:M35" si="5">(((LARGE(D35:F35,1)+LARGE(D35:F35,2))*0.05+(LARGE(G35:I35,1)+LARGE(G35:I35,2))*0.3+(LARGE(J35:L35,1)+LARGE(J35:L35,2))*0.15))</f>
+        <f t="shared" ref="M34:M35" si="6">(((LARGE(D35:F35,1)+LARGE(D35:F35,2))*0.05+(LARGE(G35:I35,1)+LARGE(G35:I35,2))*0.3+(LARGE(J35:L35,1)+LARGE(J35:L35,2))*0.15))</f>
         <v>0.70705825242718467</v>
       </c>
     </row>
@@ -3596,7 +3603,7 @@
         <v>0.5</v>
       </c>
       <c r="M45" s="8">
-        <f t="shared" ref="M45" si="6">(((LARGE(D45:F45,1)+LARGE(D45:F45,2))*0.05+(LARGE(G45:I45,1)+LARGE(G45:I45,2))*0.3+(LARGE(J45:L45,1)+LARGE(J45:L45,2))*0.15))</f>
+        <f t="shared" ref="M45" si="7">(((LARGE(D45:F45,1)+LARGE(D45:F45,2))*0.05+(LARGE(G45:I45,1)+LARGE(G45:I45,2))*0.3+(LARGE(J45:L45,1)+LARGE(J45:L45,2))*0.15))</f>
         <v>0.77499999999999991</v>
       </c>
     </row>
@@ -3708,7 +3715,7 @@
         <v>0.61</v>
       </c>
       <c r="M48" s="8">
-        <f t="shared" ref="M48" si="7">(((LARGE(D48:F48,1)+LARGE(D48:F48,2))*0.05+(LARGE(G48:I48,1)+LARGE(G48:I48,2))*0.3+(LARGE(J48:L48,1)+LARGE(J48:L48,2))*0.15))</f>
+        <f t="shared" ref="M48" si="8">(((LARGE(D48:F48,1)+LARGE(D48:F48,2))*0.05+(LARGE(G48:I48,1)+LARGE(G48:I48,2))*0.3+(LARGE(J48:L48,1)+LARGE(J48:L48,2))*0.15))</f>
         <v>0.72764563106796121</v>
       </c>
     </row>
@@ -3781,6 +3788,13 @@
       <c r="K50">
         <v>0.6</v>
       </c>
+      <c r="L50">
+        <v>0.62</v>
+      </c>
+      <c r="M50" s="8">
+        <f t="shared" ref="M50" si="9">(((LARGE(D50:F50,1)+LARGE(D50:F50,2))*0.05+(LARGE(G50:I50,1)+LARGE(G50:I50,2))*0.3+(LARGE(J50:L50,1)+LARGE(J50:L50,2))*0.15))</f>
+        <v>0.43700000000000006</v>
+      </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -3925,7 +3939,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="M54" s="8">
-        <f t="shared" ref="M54" si="8">(((LARGE(D54:F54,1)+LARGE(D54:F54,2))*0.05+(LARGE(G54:I54,1)+LARGE(G54:I54,2))*0.3+(LARGE(J54:L54,1)+LARGE(J54:L54,2))*0.15))</f>
+        <f t="shared" ref="M54" si="10">(((LARGE(D54:F54,1)+LARGE(D54:F54,2))*0.05+(LARGE(G54:I54,1)+LARGE(G54:I54,2))*0.3+(LARGE(J54:L54,1)+LARGE(J54:L54,2))*0.15))</f>
         <v>0.79939805825242705</v>
       </c>
     </row>
@@ -4142,7 +4156,7 @@
         <v>0.69</v>
       </c>
       <c r="M60" s="8">
-        <f t="shared" ref="M60" si="9">(((LARGE(D60:F60,1)+LARGE(D60:F60,2))*0.05+(LARGE(G60:I60,1)+LARGE(G60:I60,2))*0.3+(LARGE(J60:L60,1)+LARGE(J60:L60,2))*0.15))</f>
+        <f t="shared" ref="M60" si="11">(((LARGE(D60:F60,1)+LARGE(D60:F60,2))*0.05+(LARGE(G60:I60,1)+LARGE(G60:I60,2))*0.3+(LARGE(J60:L60,1)+LARGE(J60:L60,2))*0.15))</f>
         <v>0.80499999999999994</v>
       </c>
     </row>
@@ -4184,7 +4198,7 @@
         <v>0.46</v>
       </c>
       <c r="M61" s="8">
-        <f t="shared" ref="M61:M62" si="10">(((LARGE(D61:F61,1)+LARGE(D61:F61,2))*0.05+(LARGE(G61:I61,1)+LARGE(G61:I61,2))*0.3+(LARGE(J61:L61,1)+LARGE(J61:L61,2))*0.15))</f>
+        <f t="shared" ref="M61:M62" si="12">(((LARGE(D61:F61,1)+LARGE(D61:F61,2))*0.05+(LARGE(G61:I61,1)+LARGE(G61:I61,2))*0.3+(LARGE(J61:L61,1)+LARGE(J61:L61,2))*0.15))</f>
         <v>0.67800000000000005</v>
       </c>
     </row>
@@ -4226,7 +4240,7 @@
         <v>0.51</v>
       </c>
       <c r="M62" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.71350000000000002</v>
       </c>
     </row>
@@ -4303,7 +4317,7 @@
         <v>0.69</v>
       </c>
       <c r="M64" s="8">
-        <f t="shared" ref="M64:M65" si="11">(((LARGE(D64:F64,1)+LARGE(D64:F64,2))*0.05+(LARGE(G64:I64,1)+LARGE(G64:I64,2))*0.3+(LARGE(J64:L64,1)+LARGE(J64:L64,2))*0.15))</f>
+        <f t="shared" ref="M64:M65" si="13">(((LARGE(D64:F64,1)+LARGE(D64:F64,2))*0.05+(LARGE(G64:I64,1)+LARGE(G64:I64,2))*0.3+(LARGE(J64:L64,1)+LARGE(J64:L64,2))*0.15))</f>
         <v>0.8680000000000001</v>
       </c>
     </row>
@@ -4345,7 +4359,7 @@
         <v>0.51</v>
       </c>
       <c r="M65" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.64000000000000012</v>
       </c>
     </row>
@@ -4597,7 +4611,7 @@
         <v>0.81</v>
       </c>
       <c r="M72" s="8">
-        <f t="shared" ref="M72" si="12">(((LARGE(D72:F72,1)+LARGE(D72:F72,2))*0.05+(LARGE(G72:I72,1)+LARGE(G72:I72,2))*0.3+(LARGE(J72:L72,1)+LARGE(J72:L72,2))*0.15))</f>
+        <f t="shared" ref="M72" si="14">(((LARGE(D72:F72,1)+LARGE(D72:F72,2))*0.05+(LARGE(G72:I72,1)+LARGE(G72:I72,2))*0.3+(LARGE(J72:L72,1)+LARGE(J72:L72,2))*0.15))</f>
         <v>0.69199999999999995</v>
       </c>
     </row>
@@ -4881,7 +4895,7 @@
         <v>0.69</v>
       </c>
       <c r="M80" s="8">
-        <f t="shared" ref="M80" si="13">(((LARGE(D80:F80,1)+LARGE(D80:F80,2))*0.05+(LARGE(G80:I80,1)+LARGE(G80:I80,2))*0.3+(LARGE(J80:L80,1)+LARGE(J80:L80,2))*0.15))</f>
+        <f t="shared" ref="M80" si="15">(((LARGE(D80:F80,1)+LARGE(D80:F80,2))*0.05+(LARGE(G80:I80,1)+LARGE(G80:I80,2))*0.3+(LARGE(J80:L80,1)+LARGE(J80:L80,2))*0.15))</f>
         <v>0.80399999999999994</v>
       </c>
     </row>
@@ -5098,7 +5112,7 @@
         <v>0.82</v>
       </c>
       <c r="M86" s="8">
-        <f t="shared" ref="M86" si="14">(((LARGE(D86:F86,1)+LARGE(D86:F86,2))*0.05+(LARGE(G86:I86,1)+LARGE(G86:I86,2))*0.3+(LARGE(J86:L86,1)+LARGE(J86:L86,2))*0.15))</f>
+        <f t="shared" ref="M86" si="16">(((LARGE(D86:F86,1)+LARGE(D86:F86,2))*0.05+(LARGE(G86:I86,1)+LARGE(G86:I86,2))*0.3+(LARGE(J86:L86,1)+LARGE(J86:L86,2))*0.15))</f>
         <v>0.71349999999999991</v>
       </c>
     </row>
@@ -5315,7 +5329,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="M92" s="8">
-        <f t="shared" ref="M92:M93" si="15">(((LARGE(D92:F92,1)+LARGE(D92:F92,2))*0.05+(LARGE(G92:I92,1)+LARGE(G92:I92,2))*0.3+(LARGE(J92:L92,1)+LARGE(J92:L92,2))*0.15))</f>
+        <f t="shared" ref="M92:M93" si="17">(((LARGE(D92:F92,1)+LARGE(D92:F92,2))*0.05+(LARGE(G92:I92,1)+LARGE(G92:I92,2))*0.3+(LARGE(J92:L92,1)+LARGE(J92:L92,2))*0.15))</f>
         <v>0.628</v>
       </c>
     </row>
@@ -5357,7 +5371,7 @@
         <v>0.81</v>
       </c>
       <c r="M93" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.66549999999999998</v>
       </c>
     </row>
@@ -5574,7 +5588,7 @@
         <v>0.82</v>
       </c>
       <c r="M99" s="8">
-        <f t="shared" ref="M99:M100" si="16">(((LARGE(D99:F99,1)+LARGE(D99:F99,2))*0.05+(LARGE(G99:I99,1)+LARGE(G99:I99,2))*0.3+(LARGE(J99:L99,1)+LARGE(J99:L99,2))*0.15))</f>
+        <f t="shared" ref="M99:M100" si="18">(((LARGE(D99:F99,1)+LARGE(D99:F99,2))*0.05+(LARGE(G99:I99,1)+LARGE(G99:I99,2))*0.3+(LARGE(J99:L99,1)+LARGE(J99:L99,2))*0.15))</f>
         <v>0.7599999999999999</v>
       </c>
     </row>
@@ -5616,7 +5630,7 @@
         <v>0.69</v>
       </c>
       <c r="M100" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.69249999999999989</v>
       </c>
     </row>
@@ -5903,7 +5917,7 @@
         <v>0.46</v>
       </c>
       <c r="M108" s="8">
-        <f t="shared" ref="M108" si="17">(((LARGE(D108:F108,1)+LARGE(D108:F108,2))*0.05+(LARGE(G108:I108,1)+LARGE(G108:I108,2))*0.3+(LARGE(J108:L108,1)+LARGE(J108:L108,2))*0.15))</f>
+        <f t="shared" ref="M108" si="19">(((LARGE(D108:F108,1)+LARGE(D108:F108,2))*0.05+(LARGE(G108:I108,1)+LARGE(G108:I108,2))*0.3+(LARGE(J108:L108,1)+LARGE(J108:L108,2))*0.15))</f>
         <v>0.64200000000000002</v>
       </c>
     </row>
@@ -6290,7 +6304,7 @@
         <v>0.78</v>
       </c>
       <c r="M119" s="8">
-        <f t="shared" ref="M119:M120" si="18">(((LARGE(D119:F119,1)+LARGE(D119:F119,2))*0.05+(LARGE(G119:I119,1)+LARGE(G119:I119,2))*0.3+(LARGE(J119:L119,1)+LARGE(J119:L119,2))*0.15))</f>
+        <f t="shared" ref="M119:M120" si="20">(((LARGE(D119:F119,1)+LARGE(D119:F119,2))*0.05+(LARGE(G119:I119,1)+LARGE(G119:I119,2))*0.3+(LARGE(J119:L119,1)+LARGE(J119:L119,2))*0.15))</f>
         <v>0.61550000000000005</v>
       </c>
     </row>
@@ -6332,7 +6346,7 @@
         <v>0.78</v>
       </c>
       <c r="M120" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.64949999999999997</v>
       </c>
     </row>
@@ -6619,7 +6633,7 @@
         <v>0.5</v>
       </c>
       <c r="M128" s="8">
-        <f t="shared" ref="M128" si="19">(((LARGE(D128:F128,1)+LARGE(D128:F128,2))*0.05+(LARGE(G128:I128,1)+LARGE(G128:I128,2))*0.3+(LARGE(J128:L128,1)+LARGE(J128:L128,2))*0.15))</f>
+        <f t="shared" ref="M128" si="21">(((LARGE(D128:F128,1)+LARGE(D128:F128,2))*0.05+(LARGE(G128:I128,1)+LARGE(G128:I128,2))*0.3+(LARGE(J128:L128,1)+LARGE(J128:L128,2))*0.15))</f>
         <v>0.76649999999999996</v>
       </c>
     </row>
@@ -7221,7 +7235,7 @@
         <v>0.68</v>
       </c>
       <c r="M145" s="8">
-        <f t="shared" ref="M145" si="20">(((LARGE(D145:F145,1)+LARGE(D145:F145,2))*0.05+(LARGE(G145:I145,1)+LARGE(G145:I145,2))*0.3+(LARGE(J145:L145,1)+LARGE(J145:L145,2))*0.15))</f>
+        <f t="shared" ref="M145" si="22">(((LARGE(D145:F145,1)+LARGE(D145:F145,2))*0.05+(LARGE(G145:I145,1)+LARGE(G145:I145,2))*0.3+(LARGE(J145:L145,1)+LARGE(J145:L145,2))*0.15))</f>
         <v>0.76200000000000001</v>
       </c>
     </row>
@@ -7823,7 +7837,7 @@
         <v>0.6</v>
       </c>
       <c r="M162" s="8">
-        <f t="shared" ref="M162" si="21">(((LARGE(D162:F162,1)+LARGE(D162:F162,2))*0.05+(LARGE(G162:I162,1)+LARGE(G162:I162,2))*0.3+(LARGE(J162:L162,1)+LARGE(J162:L162,2))*0.15))</f>
+        <f t="shared" ref="M162" si="23">(((LARGE(D162:F162,1)+LARGE(D162:F162,2))*0.05+(LARGE(G162:I162,1)+LARGE(G162:I162,2))*0.3+(LARGE(J162:L162,1)+LARGE(J162:L162,2))*0.15))</f>
         <v>0.68700000000000006</v>
       </c>
     </row>
@@ -7896,6 +7910,13 @@
       <c r="K164">
         <v>0.52</v>
       </c>
+      <c r="L164">
+        <v>0.7</v>
+      </c>
+      <c r="M164" s="8">
+        <f t="shared" ref="M164" si="24">(((LARGE(D164:F164,1)+LARGE(D164:F164,2))*0.05+(LARGE(G164:I164,1)+LARGE(G164:I164,2))*0.3+(LARGE(J164:L164,1)+LARGE(J164:L164,2))*0.15))</f>
+        <v>0.67099999999999993</v>
+      </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
@@ -7970,7 +7991,7 @@
         <v>0.65</v>
       </c>
       <c r="M166" s="8">
-        <f t="shared" ref="M166" si="22">(((LARGE(D166:F166,1)+LARGE(D166:F166,2))*0.05+(LARGE(G166:I166,1)+LARGE(G166:I166,2))*0.3+(LARGE(J166:L166,1)+LARGE(J166:L166,2))*0.15))</f>
+        <f t="shared" ref="M166:M167" si="25">(((LARGE(D166:F166,1)+LARGE(D166:F166,2))*0.05+(LARGE(G166:I166,1)+LARGE(G166:I166,2))*0.3+(LARGE(J166:L166,1)+LARGE(J166:L166,2))*0.15))</f>
         <v>0.72399999999999998</v>
       </c>
     </row>
@@ -8008,6 +8029,13 @@
       <c r="K167">
         <v>0.83</v>
       </c>
+      <c r="L167">
+        <v>0.93</v>
+      </c>
+      <c r="M167" s="8">
+        <f t="shared" si="25"/>
+        <v>0.86950000000000005</v>
+      </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
@@ -8082,7 +8110,7 @@
         <v>0.51</v>
       </c>
       <c r="M169" s="8">
-        <f t="shared" ref="M169" si="23">(((LARGE(D169:F169,1)+LARGE(D169:F169,2))*0.05+(LARGE(G169:I169,1)+LARGE(G169:I169,2))*0.3+(LARGE(J169:L169,1)+LARGE(J169:L169,2))*0.15))</f>
+        <f t="shared" ref="M169" si="26">(((LARGE(D169:F169,1)+LARGE(D169:F169,2))*0.05+(LARGE(G169:I169,1)+LARGE(G169:I169,2))*0.3+(LARGE(J169:L169,1)+LARGE(J169:L169,2))*0.15))</f>
         <v>0.6855</v>
       </c>
     </row>
@@ -8194,7 +8222,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="M172" s="8">
-        <f t="shared" ref="M172" si="24">(((LARGE(D172:F172,1)+LARGE(D172:F172,2))*0.05+(LARGE(G172:I172,1)+LARGE(G172:I172,2))*0.3+(LARGE(J172:L172,1)+LARGE(J172:L172,2))*0.15))</f>
+        <f t="shared" ref="M172" si="27">(((LARGE(D172:F172,1)+LARGE(D172:F172,2))*0.05+(LARGE(G172:I172,1)+LARGE(G172:I172,2))*0.3+(LARGE(J172:L172,1)+LARGE(J172:L172,2))*0.15))</f>
         <v>0.61799999999999999</v>
       </c>
     </row>
@@ -8236,7 +8264,7 @@
         <v>0.61</v>
       </c>
       <c r="M173" s="8">
-        <f t="shared" ref="M173" si="25">(((LARGE(D173:F173,1)+LARGE(D173:F173,2))*0.05+(LARGE(G173:I173,1)+LARGE(G173:I173,2))*0.3+(LARGE(J173:L173,1)+LARGE(J173:L173,2))*0.15))</f>
+        <f t="shared" ref="M173" si="28">(((LARGE(D173:F173,1)+LARGE(D173:F173,2))*0.05+(LARGE(G173:I173,1)+LARGE(G173:I173,2))*0.3+(LARGE(J173:L173,1)+LARGE(J173:L173,2))*0.15))</f>
         <v>0.71</v>
       </c>
     </row>
@@ -8488,7 +8516,7 @@
         <v>0.63</v>
       </c>
       <c r="M180" s="8">
-        <f t="shared" ref="M180" si="26">(((LARGE(D180:F180,1)+LARGE(D180:F180,2))*0.05+(LARGE(G180:I180,1)+LARGE(G180:I180,2))*0.3+(LARGE(J180:L180,1)+LARGE(J180:L180,2))*0.15))</f>
+        <f t="shared" ref="M180" si="29">(((LARGE(D180:F180,1)+LARGE(D180:F180,2))*0.05+(LARGE(G180:I180,1)+LARGE(G180:I180,2))*0.3+(LARGE(J180:L180,1)+LARGE(J180:L180,2))*0.15))</f>
         <v>0.68400000000000005</v>
       </c>
     </row>
@@ -8600,7 +8628,7 @@
         <v>0.51</v>
       </c>
       <c r="M183" s="8">
-        <f t="shared" ref="M183" si="27">(((LARGE(D183:F183,1)+LARGE(D183:F183,2))*0.05+(LARGE(G183:I183,1)+LARGE(G183:I183,2))*0.3+(LARGE(J183:L183,1)+LARGE(J183:L183,2))*0.15))</f>
+        <f t="shared" ref="M183" si="30">(((LARGE(D183:F183,1)+LARGE(D183:F183,2))*0.05+(LARGE(G183:I183,1)+LARGE(G183:I183,2))*0.3+(LARGE(J183:L183,1)+LARGE(J183:L183,2))*0.15))</f>
         <v>0.65900000000000003</v>
       </c>
     </row>
@@ -8747,7 +8775,7 @@
         <v>0.61</v>
       </c>
       <c r="M187" s="8">
-        <f t="shared" ref="M187" si="28">(((LARGE(D187:F187,1)+LARGE(D187:F187,2))*0.05+(LARGE(G187:I187,1)+LARGE(G187:I187,2))*0.3+(LARGE(J187:L187,1)+LARGE(J187:L187,2))*0.15))</f>
+        <f t="shared" ref="M187" si="31">(((LARGE(D187:F187,1)+LARGE(D187:F187,2))*0.05+(LARGE(G187:I187,1)+LARGE(G187:I187,2))*0.3+(LARGE(J187:L187,1)+LARGE(J187:L187,2))*0.15))</f>
         <v>0.66149999999999998</v>
       </c>
     </row>
@@ -8820,6 +8848,13 @@
       <c r="K189">
         <v>0.52</v>
       </c>
+      <c r="L189">
+        <v>0.7</v>
+      </c>
+      <c r="M189" s="8">
+        <f t="shared" ref="M189" si="32">(((LARGE(D189:F189,1)+LARGE(D189:F189,2))*0.05+(LARGE(G189:I189,1)+LARGE(G189:I189,2))*0.3+(LARGE(J189:L189,1)+LARGE(J189:L189,2))*0.15))</f>
+        <v>0.48250000000000004</v>
+      </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
@@ -8929,7 +8964,7 @@
         <v>0.65</v>
       </c>
       <c r="M192" s="8">
-        <f t="shared" ref="M192" si="29">(((LARGE(D192:F192,1)+LARGE(D192:F192,2))*0.05+(LARGE(G192:I192,1)+LARGE(G192:I192,2))*0.3+(LARGE(J192:L192,1)+LARGE(J192:L192,2))*0.15))</f>
+        <f t="shared" ref="M192" si="33">(((LARGE(D192:F192,1)+LARGE(D192:F192,2))*0.05+(LARGE(G192:I192,1)+LARGE(G192:I192,2))*0.3+(LARGE(J192:L192,1)+LARGE(J192:L192,2))*0.15))</f>
         <v>0.64049999999999996</v>
       </c>
     </row>
@@ -9041,7 +9076,7 @@
         <v>0.78</v>
       </c>
       <c r="M195" s="8">
-        <f t="shared" ref="M195" si="30">(((LARGE(D195:F195,1)+LARGE(D195:F195,2))*0.05+(LARGE(G195:I195,1)+LARGE(G195:I195,2))*0.3+(LARGE(J195:L195,1)+LARGE(J195:L195,2))*0.15))</f>
+        <f t="shared" ref="M195" si="34">(((LARGE(D195:F195,1)+LARGE(D195:F195,2))*0.05+(LARGE(G195:I195,1)+LARGE(G195:I195,2))*0.3+(LARGE(J195:L195,1)+LARGE(J195:L195,2))*0.15))</f>
         <v>0.78700000000000003</v>
       </c>
     </row>
@@ -9118,7 +9153,7 @@
         <v>0.77</v>
       </c>
       <c r="M197" s="8">
-        <f t="shared" ref="M197" si="31">(((LARGE(D197:F197,1)+LARGE(D197:F197,2))*0.05+(LARGE(G197:I197,1)+LARGE(G197:I197,2))*0.3+(LARGE(J197:L197,1)+LARGE(J197:L197,2))*0.15))</f>
+        <f t="shared" ref="M197" si="35">(((LARGE(D197:F197,1)+LARGE(D197:F197,2))*0.05+(LARGE(G197:I197,1)+LARGE(G197:I197,2))*0.3+(LARGE(J197:L197,1)+LARGE(J197:L197,2))*0.15))</f>
         <v>0.73450000000000004</v>
       </c>
     </row>
@@ -9226,6 +9261,13 @@
       <c r="K200">
         <v>0.9</v>
       </c>
+      <c r="L200">
+        <v>0.87</v>
+      </c>
+      <c r="M200" s="8">
+        <f t="shared" ref="M200" si="36">(((LARGE(D200:F200,1)+LARGE(D200:F200,2))*0.05+(LARGE(G200:I200,1)+LARGE(G200:I200,2))*0.3+(LARGE(J200:L200,1)+LARGE(J200:L200,2))*0.15))</f>
+        <v>0.69500000000000006</v>
+      </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
@@ -9300,7 +9342,7 @@
         <v>0.63</v>
       </c>
       <c r="M202" s="8">
-        <f t="shared" ref="M202" si="32">(((LARGE(D202:F202,1)+LARGE(D202:F202,2))*0.05+(LARGE(G202:I202,1)+LARGE(G202:I202,2))*0.3+(LARGE(J202:L202,1)+LARGE(J202:L202,2))*0.15))</f>
+        <f t="shared" ref="M202" si="37">(((LARGE(D202:F202,1)+LARGE(D202:F202,2))*0.05+(LARGE(G202:I202,1)+LARGE(G202:I202,2))*0.3+(LARGE(J202:L202,1)+LARGE(J202:L202,2))*0.15))</f>
         <v>0.59000000000000008</v>
       </c>
     </row>
@@ -9412,7 +9454,7 @@
         <v>0.6</v>
       </c>
       <c r="M205" s="8">
-        <f t="shared" ref="M205" si="33">(((LARGE(D205:F205,1)+LARGE(D205:F205,2))*0.05+(LARGE(G205:I205,1)+LARGE(G205:I205,2))*0.3+(LARGE(J205:L205,1)+LARGE(J205:L205,2))*0.15))</f>
+        <f t="shared" ref="M205" si="38">(((LARGE(D205:F205,1)+LARGE(D205:F205,2))*0.05+(LARGE(G205:I205,1)+LARGE(G205:I205,2))*0.3+(LARGE(J205:L205,1)+LARGE(J205:L205,2))*0.15))</f>
         <v>0.65349999999999997</v>
       </c>
     </row>
@@ -9489,7 +9531,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="M207" s="8">
-        <f t="shared" ref="M207:M208" si="34">(((LARGE(D207:F207,1)+LARGE(D207:F207,2))*0.05+(LARGE(G207:I207,1)+LARGE(G207:I207,2))*0.3+(LARGE(J207:L207,1)+LARGE(J207:L207,2))*0.15))</f>
+        <f t="shared" ref="M207:M208" si="39">(((LARGE(D207:F207,1)+LARGE(D207:F207,2))*0.05+(LARGE(G207:I207,1)+LARGE(G207:I207,2))*0.3+(LARGE(J207:L207,1)+LARGE(J207:L207,2))*0.15))</f>
         <v>0.74550000000000005</v>
       </c>
     </row>
@@ -9531,7 +9573,7 @@
         <v>0.6</v>
       </c>
       <c r="M208" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.69550000000000012</v>
       </c>
     </row>
@@ -9573,7 +9615,7 @@
         <v>0.68</v>
       </c>
       <c r="M209" s="8">
-        <f t="shared" ref="M209" si="35">(((LARGE(D209:F209,1)+LARGE(D209:F209,2))*0.05+(LARGE(G209:I209,1)+LARGE(G209:I209,2))*0.3+(LARGE(J209:L209,1)+LARGE(J209:L209,2))*0.15))</f>
+        <f t="shared" ref="M209" si="40">(((LARGE(D209:F209,1)+LARGE(D209:F209,2))*0.05+(LARGE(G209:I209,1)+LARGE(G209:I209,2))*0.3+(LARGE(J209:L209,1)+LARGE(J209:L209,2))*0.15))</f>
         <v>0.81850000000000001</v>
       </c>
     </row>
@@ -9681,6 +9723,13 @@
       <c r="K212">
         <v>0.56000000000000005</v>
       </c>
+      <c r="L212">
+        <v>0.93</v>
+      </c>
+      <c r="M212" s="8">
+        <f t="shared" ref="M212" si="41">(((LARGE(D212:F212,1)+LARGE(D212:F212,2))*0.05+(LARGE(G212:I212,1)+LARGE(G212:I212,2))*0.3+(LARGE(J212:L212,1)+LARGE(J212:L212,2))*0.15))</f>
+        <v>0.70949999999999991</v>
+      </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
@@ -9720,7 +9769,7 @@
         <v>0.8</v>
       </c>
       <c r="M213" s="8">
-        <f t="shared" ref="M213" si="36">(((LARGE(D213:F213,1)+LARGE(D213:F213,2))*0.05+(LARGE(G213:I213,1)+LARGE(G213:I213,2))*0.3+(LARGE(J213:L213,1)+LARGE(J213:L213,2))*0.15))</f>
+        <f t="shared" ref="M213" si="42">(((LARGE(D213:F213,1)+LARGE(D213:F213,2))*0.05+(LARGE(G213:I213,1)+LARGE(G213:I213,2))*0.3+(LARGE(J213:L213,1)+LARGE(J213:L213,2))*0.15))</f>
         <v>0.63849999999999996</v>
       </c>
     </row>
@@ -9762,7 +9811,7 @@
         <v>0.54</v>
       </c>
       <c r="M214" s="8">
-        <f t="shared" ref="M214" si="37">(((LARGE(D214:F214,1)+LARGE(D214:F214,2))*0.05+(LARGE(G214:I214,1)+LARGE(G214:I214,2))*0.3+(LARGE(J214:L214,1)+LARGE(J214:L214,2))*0.15))</f>
+        <f t="shared" ref="M214" si="43">(((LARGE(D214:F214,1)+LARGE(D214:F214,2))*0.05+(LARGE(G214:I214,1)+LARGE(G214:I214,2))*0.3+(LARGE(J214:L214,1)+LARGE(J214:L214,2))*0.15))</f>
         <v>0.84700000000000009</v>
       </c>
     </row>
@@ -9979,7 +10028,7 @@
         <v>0.77</v>
       </c>
       <c r="M220" s="8">
-        <f t="shared" ref="M220" si="38">(((LARGE(D220:F220,1)+LARGE(D220:F220,2))*0.05+(LARGE(G220:I220,1)+LARGE(G220:I220,2))*0.3+(LARGE(J220:L220,1)+LARGE(J220:L220,2))*0.15))</f>
+        <f t="shared" ref="M220" si="44">(((LARGE(D220:F220,1)+LARGE(D220:F220,2))*0.05+(LARGE(G220:I220,1)+LARGE(G220:I220,2))*0.3+(LARGE(J220:L220,1)+LARGE(J220:L220,2))*0.15))</f>
         <v>0.7</v>
       </c>
     </row>
@@ -10056,7 +10105,7 @@
         <v>0.54</v>
       </c>
       <c r="M222" s="8">
-        <f t="shared" ref="M222" si="39">(((LARGE(D222:F222,1)+LARGE(D222:F222,2))*0.05+(LARGE(G222:I222,1)+LARGE(G222:I222,2))*0.3+(LARGE(J222:L222,1)+LARGE(J222:L222,2))*0.15))</f>
+        <f t="shared" ref="M222" si="45">(((LARGE(D222:F222,1)+LARGE(D222:F222,2))*0.05+(LARGE(G222:I222,1)+LARGE(G222:I222,2))*0.3+(LARGE(J222:L222,1)+LARGE(J222:L222,2))*0.15))</f>
         <v>0.72299999999999998</v>
       </c>
     </row>
@@ -10129,6 +10178,13 @@
       <c r="K224">
         <v>0.9</v>
       </c>
+      <c r="L224">
+        <v>0.87</v>
+      </c>
+      <c r="M224" s="8">
+        <f t="shared" ref="M224" si="46">(((LARGE(D224:F224,1)+LARGE(D224:F224,2))*0.05+(LARGE(G224:I224,1)+LARGE(G224:I224,2))*0.3+(LARGE(J224:L224,1)+LARGE(J224:L224,2))*0.15))</f>
+        <v>0.79449999999999998</v>
+      </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
@@ -10308,7 +10364,7 @@
         <v>0.78</v>
       </c>
       <c r="M229" s="8">
-        <f t="shared" ref="M229" si="40">(((LARGE(D229:F229,1)+LARGE(D229:F229,2))*0.05+(LARGE(G229:I229,1)+LARGE(G229:I229,2))*0.3+(LARGE(J229:L229,1)+LARGE(J229:L229,2))*0.15))</f>
+        <f t="shared" ref="M229" si="47">(((LARGE(D229:F229,1)+LARGE(D229:F229,2))*0.05+(LARGE(G229:I229,1)+LARGE(G229:I229,2))*0.3+(LARGE(J229:L229,1)+LARGE(J229:L229,2))*0.15))</f>
         <v>0.73449999999999993</v>
       </c>
     </row>

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B45BF2A-8911-AE4F-B361-8936E0135A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A3CCD4-970E-F742-8EE8-3CC32C3CF53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="960" windowWidth="29360" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -1938,8 +1938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="M224" sqref="M224"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2142,6 +2142,13 @@
       <c r="K5">
         <v>0.69</v>
       </c>
+      <c r="L5">
+        <v>0.77</v>
+      </c>
+      <c r="M5" s="8">
+        <f t="shared" ref="M5" si="1">(((LARGE(D5:F5,1)+LARGE(D5:F5,2))*0.05+(LARGE(G5:I5,1)+LARGE(G5:I5,2))*0.3+(LARGE(J5:L5,1)+LARGE(J5:L5,2))*0.15))</f>
+        <v>0.60799999999999998</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2247,6 +2254,13 @@
       <c r="K8">
         <v>0.48</v>
       </c>
+      <c r="L8">
+        <v>0.46</v>
+      </c>
+      <c r="M8" s="8">
+        <f t="shared" ref="M8" si="2">(((LARGE(D8:F8,1)+LARGE(D8:F8,2))*0.05+(LARGE(G8:I8,1)+LARGE(G8:I8,2))*0.3+(LARGE(J8:L8,1)+LARGE(J8:L8,2))*0.15))</f>
+        <v>0.49833009708737863</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2422,6 +2436,13 @@
       <c r="K13">
         <v>0.69</v>
       </c>
+      <c r="L13">
+        <v>0.81</v>
+      </c>
+      <c r="M13" s="8">
+        <f t="shared" ref="M13" si="3">(((LARGE(D13:F13,1)+LARGE(D13:F13,2))*0.05+(LARGE(G13:I13,1)+LARGE(G13:I13,2))*0.3+(LARGE(J13:L13,1)+LARGE(J13:L13,2))*0.15))</f>
+        <v>0.73799514563106783</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2461,7 +2482,7 @@
         <v>0.85</v>
       </c>
       <c r="M14" s="8">
-        <f t="shared" ref="M14:M18" si="1">(((LARGE(D14:F14,1)+LARGE(D14:F14,2))*0.05+(LARGE(G14:I14,1)+LARGE(G14:I14,2))*0.3+(LARGE(J14:L14,1)+LARGE(J14:L14,2))*0.15))</f>
+        <f t="shared" ref="M14:M18" si="4">(((LARGE(D14:F14,1)+LARGE(D14:F14,2))*0.05+(LARGE(G14:I14,1)+LARGE(G14:I14,2))*0.3+(LARGE(J14:L14,1)+LARGE(J14:L14,2))*0.15))</f>
         <v>0.71134466019417486</v>
       </c>
     </row>
@@ -2538,7 +2559,7 @@
         <v>0.64</v>
       </c>
       <c r="M16" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.62250000000000005</v>
       </c>
     </row>
@@ -2615,7 +2636,7 @@
         <v>0.64</v>
       </c>
       <c r="M18" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.71250000000000002</v>
       </c>
     </row>
@@ -2692,7 +2713,7 @@
         <v>0.61</v>
       </c>
       <c r="M20" s="8">
-        <f t="shared" ref="M20" si="2">(((LARGE(D20:F20,1)+LARGE(D20:F20,2))*0.05+(LARGE(G20:I20,1)+LARGE(G20:I20,2))*0.3+(LARGE(J20:L20,1)+LARGE(J20:L20,2))*0.15))</f>
+        <f t="shared" ref="M20" si="5">(((LARGE(D20:F20,1)+LARGE(D20:F20,2))*0.05+(LARGE(G20:I20,1)+LARGE(G20:I20,2))*0.3+(LARGE(J20:L20,1)+LARGE(J20:L20,2))*0.15))</f>
         <v>0.69264563106796118</v>
       </c>
     </row>
@@ -2835,6 +2856,13 @@
       <c r="K24">
         <v>0.63</v>
       </c>
+      <c r="L24">
+        <v>0.89</v>
+      </c>
+      <c r="M24" s="8">
+        <f t="shared" ref="M24" si="6">(((LARGE(D24:F24,1)+LARGE(D24:F24,2))*0.05+(LARGE(G24:I24,1)+LARGE(G24:I24,2))*0.3+(LARGE(J24:L24,1)+LARGE(J24:L24,2))*0.15))</f>
+        <v>0.69649514563106796</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -2909,7 +2937,7 @@
         <v>0.85</v>
       </c>
       <c r="M26" s="8">
-        <f t="shared" ref="M26" si="3">(((LARGE(D26:F26,1)+LARGE(D26:F26,2))*0.05+(LARGE(G26:I26,1)+LARGE(G26:I26,2))*0.3+(LARGE(J26:L26,1)+LARGE(J26:L26,2))*0.15))</f>
+        <f t="shared" ref="M26" si="7">(((LARGE(D26:F26,1)+LARGE(D26:F26,2))*0.05+(LARGE(G26:I26,1)+LARGE(G26:I26,2))*0.3+(LARGE(J26:L26,1)+LARGE(J26:L26,2))*0.15))</f>
         <v>0.7004999999999999</v>
       </c>
     </row>
@@ -2947,6 +2975,13 @@
       <c r="K27">
         <v>0.48</v>
       </c>
+      <c r="L27">
+        <v>0.46</v>
+      </c>
+      <c r="M27" s="8">
+        <f t="shared" ref="M27:M29" si="8">(((LARGE(D27:F27,1)+LARGE(D27:F27,2))*0.05+(LARGE(G27:I27,1)+LARGE(G27:I27,2))*0.3+(LARGE(J27:L27,1)+LARGE(J27:L27,2))*0.15))</f>
+        <v>0.59750000000000003</v>
+      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -3021,7 +3056,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="M29" s="8">
-        <f t="shared" ref="M29" si="4">(((LARGE(D29:F29,1)+LARGE(D29:F29,2))*0.05+(LARGE(G29:I29,1)+LARGE(G29:I29,2))*0.3+(LARGE(J29:L29,1)+LARGE(J29:L29,2))*0.15))</f>
+        <f t="shared" si="8"/>
         <v>0.72050000000000003</v>
       </c>
     </row>
@@ -3168,7 +3203,7 @@
         <v>0.62</v>
       </c>
       <c r="M33" s="8">
-        <f t="shared" ref="M33" si="5">(((LARGE(D33:F33,1)+LARGE(D33:F33,2))*0.05+(LARGE(G33:I33,1)+LARGE(G33:I33,2))*0.3+(LARGE(J33:L33,1)+LARGE(J33:L33,2))*0.15))</f>
+        <f t="shared" ref="M33" si="9">(((LARGE(D33:F33,1)+LARGE(D33:F33,2))*0.05+(LARGE(G33:I33,1)+LARGE(G33:I33,2))*0.3+(LARGE(J33:L33,1)+LARGE(J33:L33,2))*0.15))</f>
         <v>0.63119417475728157</v>
       </c>
     </row>
@@ -3246,7 +3281,7 @@
         <v>0.8</v>
       </c>
       <c r="M35" s="8">
-        <f t="shared" ref="M34:M35" si="6">(((LARGE(D35:F35,1)+LARGE(D35:F35,2))*0.05+(LARGE(G35:I35,1)+LARGE(G35:I35,2))*0.3+(LARGE(J35:L35,1)+LARGE(J35:L35,2))*0.15))</f>
+        <f t="shared" ref="M34:M35" si="10">(((LARGE(D35:F35,1)+LARGE(D35:F35,2))*0.05+(LARGE(G35:I35,1)+LARGE(G35:I35,2))*0.3+(LARGE(J35:L35,1)+LARGE(J35:L35,2))*0.15))</f>
         <v>0.70705825242718467</v>
       </c>
     </row>
@@ -3389,6 +3424,13 @@
       <c r="K39">
         <v>0.63</v>
       </c>
+      <c r="L39">
+        <v>0.89</v>
+      </c>
+      <c r="M39" s="8">
+        <f t="shared" ref="M39" si="11">(((LARGE(D39:F39,1)+LARGE(D39:F39,2))*0.05+(LARGE(G39:I39,1)+LARGE(G39:I39,2))*0.3+(LARGE(J39:L39,1)+LARGE(J39:L39,2))*0.15))</f>
+        <v>0.874</v>
+      </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -3494,6 +3536,13 @@
       <c r="K42">
         <v>0.69</v>
       </c>
+      <c r="L42">
+        <v>0.81</v>
+      </c>
+      <c r="M42" s="8">
+        <f t="shared" ref="M42" si="12">(((LARGE(D42:F42,1)+LARGE(D42:F42,2))*0.05+(LARGE(G42:I42,1)+LARGE(G42:I42,2))*0.3+(LARGE(J42:L42,1)+LARGE(J42:L42,2))*0.15))</f>
+        <v>0.71982038834951467</v>
+      </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -3603,7 +3652,7 @@
         <v>0.5</v>
       </c>
       <c r="M45" s="8">
-        <f t="shared" ref="M45" si="7">(((LARGE(D45:F45,1)+LARGE(D45:F45,2))*0.05+(LARGE(G45:I45,1)+LARGE(G45:I45,2))*0.3+(LARGE(J45:L45,1)+LARGE(J45:L45,2))*0.15))</f>
+        <f t="shared" ref="M45:M46" si="13">(((LARGE(D45:F45,1)+LARGE(D45:F45,2))*0.05+(LARGE(G45:I45,1)+LARGE(G45:I45,2))*0.3+(LARGE(J45:L45,1)+LARGE(J45:L45,2))*0.15))</f>
         <v>0.77499999999999991</v>
       </c>
     </row>
@@ -3641,6 +3690,13 @@
       <c r="K46">
         <v>0.69</v>
       </c>
+      <c r="L46">
+        <v>0.77</v>
+      </c>
+      <c r="M46" s="8">
+        <f t="shared" si="13"/>
+        <v>0.75362135922330098</v>
+      </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -3715,7 +3771,7 @@
         <v>0.61</v>
       </c>
       <c r="M48" s="8">
-        <f t="shared" ref="M48" si="8">(((LARGE(D48:F48,1)+LARGE(D48:F48,2))*0.05+(LARGE(G48:I48,1)+LARGE(G48:I48,2))*0.3+(LARGE(J48:L48,1)+LARGE(J48:L48,2))*0.15))</f>
+        <f t="shared" ref="M48" si="14">(((LARGE(D48:F48,1)+LARGE(D48:F48,2))*0.05+(LARGE(G48:I48,1)+LARGE(G48:I48,2))*0.3+(LARGE(J48:L48,1)+LARGE(J48:L48,2))*0.15))</f>
         <v>0.72764563106796121</v>
       </c>
     </row>
@@ -3792,7 +3848,7 @@
         <v>0.62</v>
       </c>
       <c r="M50" s="8">
-        <f t="shared" ref="M50" si="9">(((LARGE(D50:F50,1)+LARGE(D50:F50,2))*0.05+(LARGE(G50:I50,1)+LARGE(G50:I50,2))*0.3+(LARGE(J50:L50,1)+LARGE(J50:L50,2))*0.15))</f>
+        <f t="shared" ref="M50" si="15">(((LARGE(D50:F50,1)+LARGE(D50:F50,2))*0.05+(LARGE(G50:I50,1)+LARGE(G50:I50,2))*0.3+(LARGE(J50:L50,1)+LARGE(J50:L50,2))*0.15))</f>
         <v>0.43700000000000006</v>
       </c>
     </row>
@@ -3939,7 +3995,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="M54" s="8">
-        <f t="shared" ref="M54" si="10">(((LARGE(D54:F54,1)+LARGE(D54:F54,2))*0.05+(LARGE(G54:I54,1)+LARGE(G54:I54,2))*0.3+(LARGE(J54:L54,1)+LARGE(J54:L54,2))*0.15))</f>
+        <f t="shared" ref="M54" si="16">(((LARGE(D54:F54,1)+LARGE(D54:F54,2))*0.05+(LARGE(G54:I54,1)+LARGE(G54:I54,2))*0.3+(LARGE(J54:L54,1)+LARGE(J54:L54,2))*0.15))</f>
         <v>0.79939805825242705</v>
       </c>
     </row>
@@ -4156,7 +4212,7 @@
         <v>0.69</v>
       </c>
       <c r="M60" s="8">
-        <f t="shared" ref="M60" si="11">(((LARGE(D60:F60,1)+LARGE(D60:F60,2))*0.05+(LARGE(G60:I60,1)+LARGE(G60:I60,2))*0.3+(LARGE(J60:L60,1)+LARGE(J60:L60,2))*0.15))</f>
+        <f t="shared" ref="M60" si="17">(((LARGE(D60:F60,1)+LARGE(D60:F60,2))*0.05+(LARGE(G60:I60,1)+LARGE(G60:I60,2))*0.3+(LARGE(J60:L60,1)+LARGE(J60:L60,2))*0.15))</f>
         <v>0.80499999999999994</v>
       </c>
     </row>
@@ -4198,7 +4254,7 @@
         <v>0.46</v>
       </c>
       <c r="M61" s="8">
-        <f t="shared" ref="M61:M62" si="12">(((LARGE(D61:F61,1)+LARGE(D61:F61,2))*0.05+(LARGE(G61:I61,1)+LARGE(G61:I61,2))*0.3+(LARGE(J61:L61,1)+LARGE(J61:L61,2))*0.15))</f>
+        <f t="shared" ref="M61:M62" si="18">(((LARGE(D61:F61,1)+LARGE(D61:F61,2))*0.05+(LARGE(G61:I61,1)+LARGE(G61:I61,2))*0.3+(LARGE(J61:L61,1)+LARGE(J61:L61,2))*0.15))</f>
         <v>0.67800000000000005</v>
       </c>
     </row>
@@ -4240,7 +4296,7 @@
         <v>0.51</v>
       </c>
       <c r="M62" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.71350000000000002</v>
       </c>
     </row>
@@ -4317,7 +4373,7 @@
         <v>0.69</v>
       </c>
       <c r="M64" s="8">
-        <f t="shared" ref="M64:M65" si="13">(((LARGE(D64:F64,1)+LARGE(D64:F64,2))*0.05+(LARGE(G64:I64,1)+LARGE(G64:I64,2))*0.3+(LARGE(J64:L64,1)+LARGE(J64:L64,2))*0.15))</f>
+        <f t="shared" ref="M64:M65" si="19">(((LARGE(D64:F64,1)+LARGE(D64:F64,2))*0.05+(LARGE(G64:I64,1)+LARGE(G64:I64,2))*0.3+(LARGE(J64:L64,1)+LARGE(J64:L64,2))*0.15))</f>
         <v>0.8680000000000001</v>
       </c>
     </row>
@@ -4359,7 +4415,7 @@
         <v>0.51</v>
       </c>
       <c r="M65" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.64000000000000012</v>
       </c>
     </row>
@@ -4611,7 +4667,7 @@
         <v>0.81</v>
       </c>
       <c r="M72" s="8">
-        <f t="shared" ref="M72" si="14">(((LARGE(D72:F72,1)+LARGE(D72:F72,2))*0.05+(LARGE(G72:I72,1)+LARGE(G72:I72,2))*0.3+(LARGE(J72:L72,1)+LARGE(J72:L72,2))*0.15))</f>
+        <f t="shared" ref="M72" si="20">(((LARGE(D72:F72,1)+LARGE(D72:F72,2))*0.05+(LARGE(G72:I72,1)+LARGE(G72:I72,2))*0.3+(LARGE(J72:L72,1)+LARGE(J72:L72,2))*0.15))</f>
         <v>0.69199999999999995</v>
       </c>
     </row>
@@ -4895,7 +4951,7 @@
         <v>0.69</v>
       </c>
       <c r="M80" s="8">
-        <f t="shared" ref="M80" si="15">(((LARGE(D80:F80,1)+LARGE(D80:F80,2))*0.05+(LARGE(G80:I80,1)+LARGE(G80:I80,2))*0.3+(LARGE(J80:L80,1)+LARGE(J80:L80,2))*0.15))</f>
+        <f t="shared" ref="M80" si="21">(((LARGE(D80:F80,1)+LARGE(D80:F80,2))*0.05+(LARGE(G80:I80,1)+LARGE(G80:I80,2))*0.3+(LARGE(J80:L80,1)+LARGE(J80:L80,2))*0.15))</f>
         <v>0.80399999999999994</v>
       </c>
     </row>
@@ -5112,7 +5168,7 @@
         <v>0.82</v>
       </c>
       <c r="M86" s="8">
-        <f t="shared" ref="M86" si="16">(((LARGE(D86:F86,1)+LARGE(D86:F86,2))*0.05+(LARGE(G86:I86,1)+LARGE(G86:I86,2))*0.3+(LARGE(J86:L86,1)+LARGE(J86:L86,2))*0.15))</f>
+        <f t="shared" ref="M86" si="22">(((LARGE(D86:F86,1)+LARGE(D86:F86,2))*0.05+(LARGE(G86:I86,1)+LARGE(G86:I86,2))*0.3+(LARGE(J86:L86,1)+LARGE(J86:L86,2))*0.15))</f>
         <v>0.71349999999999991</v>
       </c>
     </row>
@@ -5329,7 +5385,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="M92" s="8">
-        <f t="shared" ref="M92:M93" si="17">(((LARGE(D92:F92,1)+LARGE(D92:F92,2))*0.05+(LARGE(G92:I92,1)+LARGE(G92:I92,2))*0.3+(LARGE(J92:L92,1)+LARGE(J92:L92,2))*0.15))</f>
+        <f t="shared" ref="M92:M93" si="23">(((LARGE(D92:F92,1)+LARGE(D92:F92,2))*0.05+(LARGE(G92:I92,1)+LARGE(G92:I92,2))*0.3+(LARGE(J92:L92,1)+LARGE(J92:L92,2))*0.15))</f>
         <v>0.628</v>
       </c>
     </row>
@@ -5371,7 +5427,7 @@
         <v>0.81</v>
       </c>
       <c r="M93" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.66549999999999998</v>
       </c>
     </row>
@@ -5444,6 +5500,13 @@
       <c r="K95">
         <v>0.71</v>
       </c>
+      <c r="L95">
+        <v>0.73</v>
+      </c>
+      <c r="M95" s="8">
+        <f t="shared" ref="M95" si="24">(((LARGE(D95:F95,1)+LARGE(D95:F95,2))*0.05+(LARGE(G95:I95,1)+LARGE(G95:I95,2))*0.3+(LARGE(J95:L95,1)+LARGE(J95:L95,2))*0.15))</f>
+        <v>0.76200000000000001</v>
+      </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
@@ -5588,7 +5651,7 @@
         <v>0.82</v>
       </c>
       <c r="M99" s="8">
-        <f t="shared" ref="M99:M100" si="18">(((LARGE(D99:F99,1)+LARGE(D99:F99,2))*0.05+(LARGE(G99:I99,1)+LARGE(G99:I99,2))*0.3+(LARGE(J99:L99,1)+LARGE(J99:L99,2))*0.15))</f>
+        <f t="shared" ref="M99:M100" si="25">(((LARGE(D99:F99,1)+LARGE(D99:F99,2))*0.05+(LARGE(G99:I99,1)+LARGE(G99:I99,2))*0.3+(LARGE(J99:L99,1)+LARGE(J99:L99,2))*0.15))</f>
         <v>0.7599999999999999</v>
       </c>
     </row>
@@ -5630,7 +5693,7 @@
         <v>0.69</v>
       </c>
       <c r="M100" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>0.69249999999999989</v>
       </c>
     </row>
@@ -5917,7 +5980,7 @@
         <v>0.46</v>
       </c>
       <c r="M108" s="8">
-        <f t="shared" ref="M108" si="19">(((LARGE(D108:F108,1)+LARGE(D108:F108,2))*0.05+(LARGE(G108:I108,1)+LARGE(G108:I108,2))*0.3+(LARGE(J108:L108,1)+LARGE(J108:L108,2))*0.15))</f>
+        <f t="shared" ref="M108" si="26">(((LARGE(D108:F108,1)+LARGE(D108:F108,2))*0.05+(LARGE(G108:I108,1)+LARGE(G108:I108,2))*0.3+(LARGE(J108:L108,1)+LARGE(J108:L108,2))*0.15))</f>
         <v>0.64200000000000002</v>
       </c>
     </row>
@@ -6160,6 +6223,13 @@
       <c r="K115">
         <v>0.63</v>
       </c>
+      <c r="L115">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M115" s="8">
+        <f t="shared" ref="M115" si="27">(((LARGE(D115:F115,1)+LARGE(D115:F115,2))*0.05+(LARGE(G115:I115,1)+LARGE(G115:I115,2))*0.3+(LARGE(J115:L115,1)+LARGE(J115:L115,2))*0.15))</f>
+        <v>0.67749999999999999</v>
+      </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
@@ -6230,6 +6300,13 @@
       <c r="K117">
         <v>0.67</v>
       </c>
+      <c r="L117">
+        <v>0.64</v>
+      </c>
+      <c r="M117" s="8">
+        <f t="shared" ref="M117" si="28">(((LARGE(D117:F117,1)+LARGE(D117:F117,2))*0.05+(LARGE(G117:I117,1)+LARGE(G117:I117,2))*0.3+(LARGE(J117:L117,1)+LARGE(J117:L117,2))*0.15))</f>
+        <v>0.61150000000000004</v>
+      </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
@@ -6304,7 +6381,7 @@
         <v>0.78</v>
       </c>
       <c r="M119" s="8">
-        <f t="shared" ref="M119:M120" si="20">(((LARGE(D119:F119,1)+LARGE(D119:F119,2))*0.05+(LARGE(G119:I119,1)+LARGE(G119:I119,2))*0.3+(LARGE(J119:L119,1)+LARGE(J119:L119,2))*0.15))</f>
+        <f t="shared" ref="M119:M120" si="29">(((LARGE(D119:F119,1)+LARGE(D119:F119,2))*0.05+(LARGE(G119:I119,1)+LARGE(G119:I119,2))*0.3+(LARGE(J119:L119,1)+LARGE(J119:L119,2))*0.15))</f>
         <v>0.61550000000000005</v>
       </c>
     </row>
@@ -6346,7 +6423,7 @@
         <v>0.78</v>
       </c>
       <c r="M120" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>0.64949999999999997</v>
       </c>
     </row>
@@ -6633,11 +6710,11 @@
         <v>0.5</v>
       </c>
       <c r="M128" s="8">
-        <f t="shared" ref="M128" si="21">(((LARGE(D128:F128,1)+LARGE(D128:F128,2))*0.05+(LARGE(G128:I128,1)+LARGE(G128:I128,2))*0.3+(LARGE(J128:L128,1)+LARGE(J128:L128,2))*0.15))</f>
+        <f t="shared" ref="M128" si="30">(((LARGE(D128:F128,1)+LARGE(D128:F128,2))*0.05+(LARGE(G128:I128,1)+LARGE(G128:I128,2))*0.3+(LARGE(J128:L128,1)+LARGE(J128:L128,2))*0.15))</f>
         <v>0.76649999999999996</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>246</v>
       </c>
@@ -6672,7 +6749,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>248</v>
       </c>
@@ -6707,7 +6784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>250</v>
       </c>
@@ -6742,7 +6819,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>252</v>
       </c>
@@ -6777,7 +6854,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>254</v>
       </c>
@@ -6811,8 +6888,15 @@
       <c r="K133">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L133">
+        <v>0.64</v>
+      </c>
+      <c r="M133" s="8">
+        <f t="shared" ref="M133" si="31">(((LARGE(D133:F133,1)+LARGE(D133:F133,2))*0.05+(LARGE(G133:I133,1)+LARGE(G133:I133,2))*0.3+(LARGE(J133:L133,1)+LARGE(J133:L133,2))*0.15))</f>
+        <v>0.74199999999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>256</v>
       </c>
@@ -6847,7 +6931,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>258</v>
       </c>
@@ -6882,7 +6966,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>260</v>
       </c>
@@ -6917,7 +7001,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>262</v>
       </c>
@@ -6952,7 +7036,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>264</v>
       </c>
@@ -6987,7 +7071,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>266</v>
       </c>
@@ -7022,7 +7106,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>70</v>
       </c>
@@ -7057,7 +7141,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>269</v>
       </c>
@@ -7092,7 +7176,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>271</v>
       </c>
@@ -7127,7 +7211,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>273</v>
       </c>
@@ -7161,8 +7245,15 @@
       <c r="K143">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L143">
+        <v>0.73</v>
+      </c>
+      <c r="M143" s="8">
+        <f t="shared" ref="M143" si="32">(((LARGE(D143:F143,1)+LARGE(D143:F143,2))*0.05+(LARGE(G143:I143,1)+LARGE(G143:I143,2))*0.3+(LARGE(J143:L143,1)+LARGE(J143:L143,2))*0.15))</f>
+        <v>0.6925</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>454</v>
       </c>
@@ -7235,7 +7326,7 @@
         <v>0.68</v>
       </c>
       <c r="M145" s="8">
-        <f t="shared" ref="M145" si="22">(((LARGE(D145:F145,1)+LARGE(D145:F145,2))*0.05+(LARGE(G145:I145,1)+LARGE(G145:I145,2))*0.3+(LARGE(J145:L145,1)+LARGE(J145:L145,2))*0.15))</f>
+        <f t="shared" ref="M145:M146" si="33">(((LARGE(D145:F145,1)+LARGE(D145:F145,2))*0.05+(LARGE(G145:I145,1)+LARGE(G145:I145,2))*0.3+(LARGE(J145:L145,1)+LARGE(J145:L145,2))*0.15))</f>
         <v>0.76200000000000001</v>
       </c>
     </row>
@@ -7273,6 +7364,13 @@
       <c r="K146">
         <v>0.52</v>
       </c>
+      <c r="L146">
+        <v>0.72</v>
+      </c>
+      <c r="M146" s="8">
+        <f t="shared" si="33"/>
+        <v>0.77549999999999997</v>
+      </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
@@ -7483,6 +7581,13 @@
       <c r="K152">
         <v>0.46</v>
       </c>
+      <c r="L152">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M152" s="8">
+        <f t="shared" ref="M152" si="34">(((LARGE(D152:F152,1)+LARGE(D152:F152,2))*0.05+(LARGE(G152:I152,1)+LARGE(G152:I152,2))*0.3+(LARGE(J152:L152,1)+LARGE(J152:L152,2))*0.15))</f>
+        <v>0.624</v>
+      </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
@@ -7763,6 +7868,13 @@
       <c r="K160">
         <v>0.52</v>
       </c>
+      <c r="L160">
+        <v>0.72</v>
+      </c>
+      <c r="M160" s="8">
+        <f t="shared" ref="M160" si="35">(((LARGE(D160:F160,1)+LARGE(D160:F160,2))*0.05+(LARGE(G160:I160,1)+LARGE(G160:I160,2))*0.3+(LARGE(J160:L160,1)+LARGE(J160:L160,2))*0.15))</f>
+        <v>0.66749999999999998</v>
+      </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
@@ -7837,7 +7949,7 @@
         <v>0.6</v>
       </c>
       <c r="M162" s="8">
-        <f t="shared" ref="M162" si="23">(((LARGE(D162:F162,1)+LARGE(D162:F162,2))*0.05+(LARGE(G162:I162,1)+LARGE(G162:I162,2))*0.3+(LARGE(J162:L162,1)+LARGE(J162:L162,2))*0.15))</f>
+        <f t="shared" ref="M162" si="36">(((LARGE(D162:F162,1)+LARGE(D162:F162,2))*0.05+(LARGE(G162:I162,1)+LARGE(G162:I162,2))*0.3+(LARGE(J162:L162,1)+LARGE(J162:L162,2))*0.15))</f>
         <v>0.68700000000000006</v>
       </c>
     </row>
@@ -7914,7 +8026,7 @@
         <v>0.7</v>
       </c>
       <c r="M164" s="8">
-        <f t="shared" ref="M164" si="24">(((LARGE(D164:F164,1)+LARGE(D164:F164,2))*0.05+(LARGE(G164:I164,1)+LARGE(G164:I164,2))*0.3+(LARGE(J164:L164,1)+LARGE(J164:L164,2))*0.15))</f>
+        <f t="shared" ref="M164" si="37">(((LARGE(D164:F164,1)+LARGE(D164:F164,2))*0.05+(LARGE(G164:I164,1)+LARGE(G164:I164,2))*0.3+(LARGE(J164:L164,1)+LARGE(J164:L164,2))*0.15))</f>
         <v>0.67099999999999993</v>
       </c>
     </row>
@@ -7991,7 +8103,7 @@
         <v>0.65</v>
       </c>
       <c r="M166" s="8">
-        <f t="shared" ref="M166:M167" si="25">(((LARGE(D166:F166,1)+LARGE(D166:F166,2))*0.05+(LARGE(G166:I166,1)+LARGE(G166:I166,2))*0.3+(LARGE(J166:L166,1)+LARGE(J166:L166,2))*0.15))</f>
+        <f t="shared" ref="M166:M167" si="38">(((LARGE(D166:F166,1)+LARGE(D166:F166,2))*0.05+(LARGE(G166:I166,1)+LARGE(G166:I166,2))*0.3+(LARGE(J166:L166,1)+LARGE(J166:L166,2))*0.15))</f>
         <v>0.72399999999999998</v>
       </c>
     </row>
@@ -8033,7 +8145,7 @@
         <v>0.93</v>
       </c>
       <c r="M167" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="38"/>
         <v>0.86950000000000005</v>
       </c>
     </row>
@@ -8110,7 +8222,7 @@
         <v>0.51</v>
       </c>
       <c r="M169" s="8">
-        <f t="shared" ref="M169" si="26">(((LARGE(D169:F169,1)+LARGE(D169:F169,2))*0.05+(LARGE(G169:I169,1)+LARGE(G169:I169,2))*0.3+(LARGE(J169:L169,1)+LARGE(J169:L169,2))*0.15))</f>
+        <f t="shared" ref="M169" si="39">(((LARGE(D169:F169,1)+LARGE(D169:F169,2))*0.05+(LARGE(G169:I169,1)+LARGE(G169:I169,2))*0.3+(LARGE(J169:L169,1)+LARGE(J169:L169,2))*0.15))</f>
         <v>0.6855</v>
       </c>
     </row>
@@ -8222,7 +8334,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="M172" s="8">
-        <f t="shared" ref="M172" si="27">(((LARGE(D172:F172,1)+LARGE(D172:F172,2))*0.05+(LARGE(G172:I172,1)+LARGE(G172:I172,2))*0.3+(LARGE(J172:L172,1)+LARGE(J172:L172,2))*0.15))</f>
+        <f t="shared" ref="M172" si="40">(((LARGE(D172:F172,1)+LARGE(D172:F172,2))*0.05+(LARGE(G172:I172,1)+LARGE(G172:I172,2))*0.3+(LARGE(J172:L172,1)+LARGE(J172:L172,2))*0.15))</f>
         <v>0.61799999999999999</v>
       </c>
     </row>
@@ -8264,7 +8376,7 @@
         <v>0.61</v>
       </c>
       <c r="M173" s="8">
-        <f t="shared" ref="M173" si="28">(((LARGE(D173:F173,1)+LARGE(D173:F173,2))*0.05+(LARGE(G173:I173,1)+LARGE(G173:I173,2))*0.3+(LARGE(J173:L173,1)+LARGE(J173:L173,2))*0.15))</f>
+        <f t="shared" ref="M173" si="41">(((LARGE(D173:F173,1)+LARGE(D173:F173,2))*0.05+(LARGE(G173:I173,1)+LARGE(G173:I173,2))*0.3+(LARGE(J173:L173,1)+LARGE(J173:L173,2))*0.15))</f>
         <v>0.71</v>
       </c>
     </row>
@@ -8516,7 +8628,7 @@
         <v>0.63</v>
       </c>
       <c r="M180" s="8">
-        <f t="shared" ref="M180" si="29">(((LARGE(D180:F180,1)+LARGE(D180:F180,2))*0.05+(LARGE(G180:I180,1)+LARGE(G180:I180,2))*0.3+(LARGE(J180:L180,1)+LARGE(J180:L180,2))*0.15))</f>
+        <f t="shared" ref="M180" si="42">(((LARGE(D180:F180,1)+LARGE(D180:F180,2))*0.05+(LARGE(G180:I180,1)+LARGE(G180:I180,2))*0.3+(LARGE(J180:L180,1)+LARGE(J180:L180,2))*0.15))</f>
         <v>0.68400000000000005</v>
       </c>
     </row>
@@ -8628,7 +8740,7 @@
         <v>0.51</v>
       </c>
       <c r="M183" s="8">
-        <f t="shared" ref="M183" si="30">(((LARGE(D183:F183,1)+LARGE(D183:F183,2))*0.05+(LARGE(G183:I183,1)+LARGE(G183:I183,2))*0.3+(LARGE(J183:L183,1)+LARGE(J183:L183,2))*0.15))</f>
+        <f t="shared" ref="M183" si="43">(((LARGE(D183:F183,1)+LARGE(D183:F183,2))*0.05+(LARGE(G183:I183,1)+LARGE(G183:I183,2))*0.3+(LARGE(J183:L183,1)+LARGE(J183:L183,2))*0.15))</f>
         <v>0.65900000000000003</v>
       </c>
     </row>
@@ -8775,7 +8887,7 @@
         <v>0.61</v>
       </c>
       <c r="M187" s="8">
-        <f t="shared" ref="M187" si="31">(((LARGE(D187:F187,1)+LARGE(D187:F187,2))*0.05+(LARGE(G187:I187,1)+LARGE(G187:I187,2))*0.3+(LARGE(J187:L187,1)+LARGE(J187:L187,2))*0.15))</f>
+        <f t="shared" ref="M187" si="44">(((LARGE(D187:F187,1)+LARGE(D187:F187,2))*0.05+(LARGE(G187:I187,1)+LARGE(G187:I187,2))*0.3+(LARGE(J187:L187,1)+LARGE(J187:L187,2))*0.15))</f>
         <v>0.66149999999999998</v>
       </c>
     </row>
@@ -8852,7 +8964,7 @@
         <v>0.7</v>
       </c>
       <c r="M189" s="8">
-        <f t="shared" ref="M189" si="32">(((LARGE(D189:F189,1)+LARGE(D189:F189,2))*0.05+(LARGE(G189:I189,1)+LARGE(G189:I189,2))*0.3+(LARGE(J189:L189,1)+LARGE(J189:L189,2))*0.15))</f>
+        <f t="shared" ref="M189" si="45">(((LARGE(D189:F189,1)+LARGE(D189:F189,2))*0.05+(LARGE(G189:I189,1)+LARGE(G189:I189,2))*0.3+(LARGE(J189:L189,1)+LARGE(J189:L189,2))*0.15))</f>
         <v>0.48250000000000004</v>
       </c>
     </row>
@@ -8964,7 +9076,7 @@
         <v>0.65</v>
       </c>
       <c r="M192" s="8">
-        <f t="shared" ref="M192" si="33">(((LARGE(D192:F192,1)+LARGE(D192:F192,2))*0.05+(LARGE(G192:I192,1)+LARGE(G192:I192,2))*0.3+(LARGE(J192:L192,1)+LARGE(J192:L192,2))*0.15))</f>
+        <f t="shared" ref="M192" si="46">(((LARGE(D192:F192,1)+LARGE(D192:F192,2))*0.05+(LARGE(G192:I192,1)+LARGE(G192:I192,2))*0.3+(LARGE(J192:L192,1)+LARGE(J192:L192,2))*0.15))</f>
         <v>0.64049999999999996</v>
       </c>
     </row>
@@ -9076,7 +9188,7 @@
         <v>0.78</v>
       </c>
       <c r="M195" s="8">
-        <f t="shared" ref="M195" si="34">(((LARGE(D195:F195,1)+LARGE(D195:F195,2))*0.05+(LARGE(G195:I195,1)+LARGE(G195:I195,2))*0.3+(LARGE(J195:L195,1)+LARGE(J195:L195,2))*0.15))</f>
+        <f t="shared" ref="M195" si="47">(((LARGE(D195:F195,1)+LARGE(D195:F195,2))*0.05+(LARGE(G195:I195,1)+LARGE(G195:I195,2))*0.3+(LARGE(J195:L195,1)+LARGE(J195:L195,2))*0.15))</f>
         <v>0.78700000000000003</v>
       </c>
     </row>
@@ -9153,7 +9265,7 @@
         <v>0.77</v>
       </c>
       <c r="M197" s="8">
-        <f t="shared" ref="M197" si="35">(((LARGE(D197:F197,1)+LARGE(D197:F197,2))*0.05+(LARGE(G197:I197,1)+LARGE(G197:I197,2))*0.3+(LARGE(J197:L197,1)+LARGE(J197:L197,2))*0.15))</f>
+        <f t="shared" ref="M197:M198" si="48">(((LARGE(D197:F197,1)+LARGE(D197:F197,2))*0.05+(LARGE(G197:I197,1)+LARGE(G197:I197,2))*0.3+(LARGE(J197:L197,1)+LARGE(J197:L197,2))*0.15))</f>
         <v>0.73450000000000004</v>
       </c>
     </row>
@@ -9191,6 +9303,13 @@
       <c r="K198">
         <v>0.62</v>
       </c>
+      <c r="L198">
+        <v>0.7</v>
+      </c>
+      <c r="M198" s="8">
+        <f t="shared" si="48"/>
+        <v>0.79299999999999993</v>
+      </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
@@ -9265,7 +9384,7 @@
         <v>0.87</v>
       </c>
       <c r="M200" s="8">
-        <f t="shared" ref="M200" si="36">(((LARGE(D200:F200,1)+LARGE(D200:F200,2))*0.05+(LARGE(G200:I200,1)+LARGE(G200:I200,2))*0.3+(LARGE(J200:L200,1)+LARGE(J200:L200,2))*0.15))</f>
+        <f t="shared" ref="M200" si="49">(((LARGE(D200:F200,1)+LARGE(D200:F200,2))*0.05+(LARGE(G200:I200,1)+LARGE(G200:I200,2))*0.3+(LARGE(J200:L200,1)+LARGE(J200:L200,2))*0.15))</f>
         <v>0.69500000000000006</v>
       </c>
     </row>
@@ -9342,7 +9461,7 @@
         <v>0.63</v>
       </c>
       <c r="M202" s="8">
-        <f t="shared" ref="M202" si="37">(((LARGE(D202:F202,1)+LARGE(D202:F202,2))*0.05+(LARGE(G202:I202,1)+LARGE(G202:I202,2))*0.3+(LARGE(J202:L202,1)+LARGE(J202:L202,2))*0.15))</f>
+        <f t="shared" ref="M202" si="50">(((LARGE(D202:F202,1)+LARGE(D202:F202,2))*0.05+(LARGE(G202:I202,1)+LARGE(G202:I202,2))*0.3+(LARGE(J202:L202,1)+LARGE(J202:L202,2))*0.15))</f>
         <v>0.59000000000000008</v>
       </c>
     </row>
@@ -9415,6 +9534,13 @@
       <c r="K204">
         <v>0.62</v>
       </c>
+      <c r="L204">
+        <v>0.7</v>
+      </c>
+      <c r="M204" s="8">
+        <f t="shared" ref="M204" si="51">(((LARGE(D204:F204,1)+LARGE(D204:F204,2))*0.05+(LARGE(G204:I204,1)+LARGE(G204:I204,2))*0.3+(LARGE(J204:L204,1)+LARGE(J204:L204,2))*0.15))</f>
+        <v>0.75349999999999995</v>
+      </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
@@ -9454,7 +9580,7 @@
         <v>0.6</v>
       </c>
       <c r="M205" s="8">
-        <f t="shared" ref="M205" si="38">(((LARGE(D205:F205,1)+LARGE(D205:F205,2))*0.05+(LARGE(G205:I205,1)+LARGE(G205:I205,2))*0.3+(LARGE(J205:L205,1)+LARGE(J205:L205,2))*0.15))</f>
+        <f t="shared" ref="M205" si="52">(((LARGE(D205:F205,1)+LARGE(D205:F205,2))*0.05+(LARGE(G205:I205,1)+LARGE(G205:I205,2))*0.3+(LARGE(J205:L205,1)+LARGE(J205:L205,2))*0.15))</f>
         <v>0.65349999999999997</v>
       </c>
     </row>
@@ -9531,7 +9657,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="M207" s="8">
-        <f t="shared" ref="M207:M208" si="39">(((LARGE(D207:F207,1)+LARGE(D207:F207,2))*0.05+(LARGE(G207:I207,1)+LARGE(G207:I207,2))*0.3+(LARGE(J207:L207,1)+LARGE(J207:L207,2))*0.15))</f>
+        <f t="shared" ref="M207:M208" si="53">(((LARGE(D207:F207,1)+LARGE(D207:F207,2))*0.05+(LARGE(G207:I207,1)+LARGE(G207:I207,2))*0.3+(LARGE(J207:L207,1)+LARGE(J207:L207,2))*0.15))</f>
         <v>0.74550000000000005</v>
       </c>
     </row>
@@ -9573,7 +9699,7 @@
         <v>0.6</v>
       </c>
       <c r="M208" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>0.69550000000000012</v>
       </c>
     </row>
@@ -9615,7 +9741,7 @@
         <v>0.68</v>
       </c>
       <c r="M209" s="8">
-        <f t="shared" ref="M209" si="40">(((LARGE(D209:F209,1)+LARGE(D209:F209,2))*0.05+(LARGE(G209:I209,1)+LARGE(G209:I209,2))*0.3+(LARGE(J209:L209,1)+LARGE(J209:L209,2))*0.15))</f>
+        <f t="shared" ref="M209" si="54">(((LARGE(D209:F209,1)+LARGE(D209:F209,2))*0.05+(LARGE(G209:I209,1)+LARGE(G209:I209,2))*0.3+(LARGE(J209:L209,1)+LARGE(J209:L209,2))*0.15))</f>
         <v>0.81850000000000001</v>
       </c>
     </row>
@@ -9727,7 +9853,7 @@
         <v>0.93</v>
       </c>
       <c r="M212" s="8">
-        <f t="shared" ref="M212" si="41">(((LARGE(D212:F212,1)+LARGE(D212:F212,2))*0.05+(LARGE(G212:I212,1)+LARGE(G212:I212,2))*0.3+(LARGE(J212:L212,1)+LARGE(J212:L212,2))*0.15))</f>
+        <f t="shared" ref="M212" si="55">(((LARGE(D212:F212,1)+LARGE(D212:F212,2))*0.05+(LARGE(G212:I212,1)+LARGE(G212:I212,2))*0.3+(LARGE(J212:L212,1)+LARGE(J212:L212,2))*0.15))</f>
         <v>0.70949999999999991</v>
       </c>
     </row>
@@ -9769,7 +9895,7 @@
         <v>0.8</v>
       </c>
       <c r="M213" s="8">
-        <f t="shared" ref="M213" si="42">(((LARGE(D213:F213,1)+LARGE(D213:F213,2))*0.05+(LARGE(G213:I213,1)+LARGE(G213:I213,2))*0.3+(LARGE(J213:L213,1)+LARGE(J213:L213,2))*0.15))</f>
+        <f t="shared" ref="M213" si="56">(((LARGE(D213:F213,1)+LARGE(D213:F213,2))*0.05+(LARGE(G213:I213,1)+LARGE(G213:I213,2))*0.3+(LARGE(J213:L213,1)+LARGE(J213:L213,2))*0.15))</f>
         <v>0.63849999999999996</v>
       </c>
     </row>
@@ -9811,7 +9937,7 @@
         <v>0.54</v>
       </c>
       <c r="M214" s="8">
-        <f t="shared" ref="M214" si="43">(((LARGE(D214:F214,1)+LARGE(D214:F214,2))*0.05+(LARGE(G214:I214,1)+LARGE(G214:I214,2))*0.3+(LARGE(J214:L214,1)+LARGE(J214:L214,2))*0.15))</f>
+        <f t="shared" ref="M214" si="57">(((LARGE(D214:F214,1)+LARGE(D214:F214,2))*0.05+(LARGE(G214:I214,1)+LARGE(G214:I214,2))*0.3+(LARGE(J214:L214,1)+LARGE(J214:L214,2))*0.15))</f>
         <v>0.84700000000000009</v>
       </c>
     </row>
@@ -10028,7 +10154,7 @@
         <v>0.77</v>
       </c>
       <c r="M220" s="8">
-        <f t="shared" ref="M220" si="44">(((LARGE(D220:F220,1)+LARGE(D220:F220,2))*0.05+(LARGE(G220:I220,1)+LARGE(G220:I220,2))*0.3+(LARGE(J220:L220,1)+LARGE(J220:L220,2))*0.15))</f>
+        <f t="shared" ref="M220" si="58">(((LARGE(D220:F220,1)+LARGE(D220:F220,2))*0.05+(LARGE(G220:I220,1)+LARGE(G220:I220,2))*0.3+(LARGE(J220:L220,1)+LARGE(J220:L220,2))*0.15))</f>
         <v>0.7</v>
       </c>
     </row>
@@ -10105,7 +10231,7 @@
         <v>0.54</v>
       </c>
       <c r="M222" s="8">
-        <f t="shared" ref="M222" si="45">(((LARGE(D222:F222,1)+LARGE(D222:F222,2))*0.05+(LARGE(G222:I222,1)+LARGE(G222:I222,2))*0.3+(LARGE(J222:L222,1)+LARGE(J222:L222,2))*0.15))</f>
+        <f t="shared" ref="M222" si="59">(((LARGE(D222:F222,1)+LARGE(D222:F222,2))*0.05+(LARGE(G222:I222,1)+LARGE(G222:I222,2))*0.3+(LARGE(J222:L222,1)+LARGE(J222:L222,2))*0.15))</f>
         <v>0.72299999999999998</v>
       </c>
     </row>
@@ -10182,7 +10308,7 @@
         <v>0.87</v>
       </c>
       <c r="M224" s="8">
-        <f t="shared" ref="M224" si="46">(((LARGE(D224:F224,1)+LARGE(D224:F224,2))*0.05+(LARGE(G224:I224,1)+LARGE(G224:I224,2))*0.3+(LARGE(J224:L224,1)+LARGE(J224:L224,2))*0.15))</f>
+        <f t="shared" ref="M224" si="60">(((LARGE(D224:F224,1)+LARGE(D224:F224,2))*0.05+(LARGE(G224:I224,1)+LARGE(G224:I224,2))*0.3+(LARGE(J224:L224,1)+LARGE(J224:L224,2))*0.15))</f>
         <v>0.79449999999999998</v>
       </c>
     </row>
@@ -10364,7 +10490,7 @@
         <v>0.78</v>
       </c>
       <c r="M229" s="8">
-        <f t="shared" ref="M229" si="47">(((LARGE(D229:F229,1)+LARGE(D229:F229,2))*0.05+(LARGE(G229:I229,1)+LARGE(G229:I229,2))*0.3+(LARGE(J229:L229,1)+LARGE(J229:L229,2))*0.15))</f>
+        <f t="shared" ref="M229" si="61">(((LARGE(D229:F229,1)+LARGE(D229:F229,2))*0.05+(LARGE(G229:I229,1)+LARGE(G229:I229,2))*0.3+(LARGE(J229:L229,1)+LARGE(J229:L229,2))*0.15))</f>
         <v>0.73449999999999993</v>
       </c>
     </row>

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A3CCD4-970E-F742-8EE8-3CC32C3CF53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C496B14A-5160-DD44-B422-43D3412CED3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="960" windowWidth="29360" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -1938,8 +1938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2520,6 +2520,13 @@
       <c r="K15">
         <v>0.75</v>
       </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" s="8">
+        <f t="shared" si="4"/>
+        <v>0.60499999999999998</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2821,6 +2828,13 @@
       <c r="K23">
         <v>0.48</v>
       </c>
+      <c r="L23">
+        <v>0.54</v>
+      </c>
+      <c r="M23" s="8">
+        <f t="shared" ref="M23" si="6">(((LARGE(D23:F23,1)+LARGE(D23:F23,2))*0.05+(LARGE(G23:I23,1)+LARGE(G23:I23,2))*0.3+(LARGE(J23:L23,1)+LARGE(J23:L23,2))*0.15))</f>
+        <v>0.6915</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -2860,7 +2874,7 @@
         <v>0.89</v>
       </c>
       <c r="M24" s="8">
-        <f t="shared" ref="M24" si="6">(((LARGE(D24:F24,1)+LARGE(D24:F24,2))*0.05+(LARGE(G24:I24,1)+LARGE(G24:I24,2))*0.3+(LARGE(J24:L24,1)+LARGE(J24:L24,2))*0.15))</f>
+        <f t="shared" ref="M24" si="7">(((LARGE(D24:F24,1)+LARGE(D24:F24,2))*0.05+(LARGE(G24:I24,1)+LARGE(G24:I24,2))*0.3+(LARGE(J24:L24,1)+LARGE(J24:L24,2))*0.15))</f>
         <v>0.69649514563106796</v>
       </c>
     </row>
@@ -2937,7 +2951,7 @@
         <v>0.85</v>
       </c>
       <c r="M26" s="8">
-        <f t="shared" ref="M26" si="7">(((LARGE(D26:F26,1)+LARGE(D26:F26,2))*0.05+(LARGE(G26:I26,1)+LARGE(G26:I26,2))*0.3+(LARGE(J26:L26,1)+LARGE(J26:L26,2))*0.15))</f>
+        <f t="shared" ref="M26" si="8">(((LARGE(D26:F26,1)+LARGE(D26:F26,2))*0.05+(LARGE(G26:I26,1)+LARGE(G26:I26,2))*0.3+(LARGE(J26:L26,1)+LARGE(J26:L26,2))*0.15))</f>
         <v>0.7004999999999999</v>
       </c>
     </row>
@@ -2979,7 +2993,7 @@
         <v>0.46</v>
       </c>
       <c r="M27" s="8">
-        <f t="shared" ref="M27:M29" si="8">(((LARGE(D27:F27,1)+LARGE(D27:F27,2))*0.05+(LARGE(G27:I27,1)+LARGE(G27:I27,2))*0.3+(LARGE(J27:L27,1)+LARGE(J27:L27,2))*0.15))</f>
+        <f t="shared" ref="M27:M29" si="9">(((LARGE(D27:F27,1)+LARGE(D27:F27,2))*0.05+(LARGE(G27:I27,1)+LARGE(G27:I27,2))*0.3+(LARGE(J27:L27,1)+LARGE(J27:L27,2))*0.15))</f>
         <v>0.59750000000000003</v>
       </c>
     </row>
@@ -3056,7 +3070,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="M29" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.72050000000000003</v>
       </c>
     </row>
@@ -3203,7 +3217,7 @@
         <v>0.62</v>
       </c>
       <c r="M33" s="8">
-        <f t="shared" ref="M33" si="9">(((LARGE(D33:F33,1)+LARGE(D33:F33,2))*0.05+(LARGE(G33:I33,1)+LARGE(G33:I33,2))*0.3+(LARGE(J33:L33,1)+LARGE(J33:L33,2))*0.15))</f>
+        <f t="shared" ref="M33:M34" si="10">(((LARGE(D33:F33,1)+LARGE(D33:F33,2))*0.05+(LARGE(G33:I33,1)+LARGE(G33:I33,2))*0.3+(LARGE(J33:L33,1)+LARGE(J33:L33,2))*0.15))</f>
         <v>0.63119417475728157</v>
       </c>
     </row>
@@ -3241,7 +3255,13 @@
       <c r="K34">
         <v>0.75</v>
       </c>
-      <c r="M34" s="8"/>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34" s="8">
+        <f t="shared" si="10"/>
+        <v>0.55845631067961177</v>
+      </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -3281,7 +3301,7 @@
         <v>0.8</v>
       </c>
       <c r="M35" s="8">
-        <f t="shared" ref="M34:M35" si="10">(((LARGE(D35:F35,1)+LARGE(D35:F35,2))*0.05+(LARGE(G35:I35,1)+LARGE(G35:I35,2))*0.3+(LARGE(J35:L35,1)+LARGE(J35:L35,2))*0.15))</f>
+        <f t="shared" ref="M34:M35" si="11">(((LARGE(D35:F35,1)+LARGE(D35:F35,2))*0.05+(LARGE(G35:I35,1)+LARGE(G35:I35,2))*0.3+(LARGE(J35:L35,1)+LARGE(J35:L35,2))*0.15))</f>
         <v>0.70705825242718467</v>
       </c>
     </row>
@@ -3389,6 +3409,13 @@
       <c r="K38">
         <v>0.75</v>
       </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38" s="8">
+        <f t="shared" ref="M38" si="12">(((LARGE(D38:F38,1)+LARGE(D38:F38,2))*0.05+(LARGE(G38:I38,1)+LARGE(G38:I38,2))*0.3+(LARGE(J38:L38,1)+LARGE(J38:L38,2))*0.15))</f>
+        <v>0.69200000000000006</v>
+      </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -3428,7 +3455,7 @@
         <v>0.89</v>
       </c>
       <c r="M39" s="8">
-        <f t="shared" ref="M39" si="11">(((LARGE(D39:F39,1)+LARGE(D39:F39,2))*0.05+(LARGE(G39:I39,1)+LARGE(G39:I39,2))*0.3+(LARGE(J39:L39,1)+LARGE(J39:L39,2))*0.15))</f>
+        <f t="shared" ref="M39" si="13">(((LARGE(D39:F39,1)+LARGE(D39:F39,2))*0.05+(LARGE(G39:I39,1)+LARGE(G39:I39,2))*0.3+(LARGE(J39:L39,1)+LARGE(J39:L39,2))*0.15))</f>
         <v>0.874</v>
       </c>
     </row>
@@ -3501,6 +3528,13 @@
       <c r="K41">
         <v>0.63</v>
       </c>
+      <c r="L41">
+        <v>0.54</v>
+      </c>
+      <c r="M41" s="8">
+        <f t="shared" ref="M41:M42" si="14">(((LARGE(D41:F41,1)+LARGE(D41:F41,2))*0.05+(LARGE(G41:I41,1)+LARGE(G41:I41,2))*0.3+(LARGE(J41:L41,1)+LARGE(J41:L41,2))*0.15))</f>
+        <v>0.7619999999999999</v>
+      </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -3540,7 +3574,7 @@
         <v>0.81</v>
       </c>
       <c r="M42" s="8">
-        <f t="shared" ref="M42" si="12">(((LARGE(D42:F42,1)+LARGE(D42:F42,2))*0.05+(LARGE(G42:I42,1)+LARGE(G42:I42,2))*0.3+(LARGE(J42:L42,1)+LARGE(J42:L42,2))*0.15))</f>
+        <f t="shared" si="14"/>
         <v>0.71982038834951467</v>
       </c>
     </row>
@@ -3652,7 +3686,7 @@
         <v>0.5</v>
       </c>
       <c r="M45" s="8">
-        <f t="shared" ref="M45:M46" si="13">(((LARGE(D45:F45,1)+LARGE(D45:F45,2))*0.05+(LARGE(G45:I45,1)+LARGE(G45:I45,2))*0.3+(LARGE(J45:L45,1)+LARGE(J45:L45,2))*0.15))</f>
+        <f t="shared" ref="M45:M46" si="15">(((LARGE(D45:F45,1)+LARGE(D45:F45,2))*0.05+(LARGE(G45:I45,1)+LARGE(G45:I45,2))*0.3+(LARGE(J45:L45,1)+LARGE(J45:L45,2))*0.15))</f>
         <v>0.77499999999999991</v>
       </c>
     </row>
@@ -3694,7 +3728,7 @@
         <v>0.77</v>
       </c>
       <c r="M46" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.75362135922330098</v>
       </c>
     </row>
@@ -3771,7 +3805,7 @@
         <v>0.61</v>
       </c>
       <c r="M48" s="8">
-        <f t="shared" ref="M48" si="14">(((LARGE(D48:F48,1)+LARGE(D48:F48,2))*0.05+(LARGE(G48:I48,1)+LARGE(G48:I48,2))*0.3+(LARGE(J48:L48,1)+LARGE(J48:L48,2))*0.15))</f>
+        <f t="shared" ref="M48:M49" si="16">(((LARGE(D48:F48,1)+LARGE(D48:F48,2))*0.05+(LARGE(G48:I48,1)+LARGE(G48:I48,2))*0.3+(LARGE(J48:L48,1)+LARGE(J48:L48,2))*0.15))</f>
         <v>0.72764563106796121</v>
       </c>
     </row>
@@ -3809,6 +3843,13 @@
       <c r="K49">
         <v>0.63</v>
       </c>
+      <c r="L49">
+        <v>0.54</v>
+      </c>
+      <c r="M49" s="8">
+        <f t="shared" si="16"/>
+        <v>0.73499999999999999</v>
+      </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -3848,7 +3889,7 @@
         <v>0.62</v>
       </c>
       <c r="M50" s="8">
-        <f t="shared" ref="M50" si="15">(((LARGE(D50:F50,1)+LARGE(D50:F50,2))*0.05+(LARGE(G50:I50,1)+LARGE(G50:I50,2))*0.3+(LARGE(J50:L50,1)+LARGE(J50:L50,2))*0.15))</f>
+        <f t="shared" ref="M50" si="17">(((LARGE(D50:F50,1)+LARGE(D50:F50,2))*0.05+(LARGE(G50:I50,1)+LARGE(G50:I50,2))*0.3+(LARGE(J50:L50,1)+LARGE(J50:L50,2))*0.15))</f>
         <v>0.43700000000000006</v>
       </c>
     </row>
@@ -3956,6 +3997,13 @@
       <c r="K53">
         <v>0.51</v>
       </c>
+      <c r="L53">
+        <v>0.54</v>
+      </c>
+      <c r="M53" s="8">
+        <f t="shared" ref="M53" si="18">(((LARGE(D53:F53,1)+LARGE(D53:F53,2))*0.05+(LARGE(G53:I53,1)+LARGE(G53:I53,2))*0.3+(LARGE(J53:L53,1)+LARGE(J53:L53,2))*0.15))</f>
+        <v>0.65469417475728164</v>
+      </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
@@ -3995,7 +4043,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="M54" s="8">
-        <f t="shared" ref="M54" si="16">(((LARGE(D54:F54,1)+LARGE(D54:F54,2))*0.05+(LARGE(G54:I54,1)+LARGE(G54:I54,2))*0.3+(LARGE(J54:L54,1)+LARGE(J54:L54,2))*0.15))</f>
+        <f t="shared" ref="M54" si="19">(((LARGE(D54:F54,1)+LARGE(D54:F54,2))*0.05+(LARGE(G54:I54,1)+LARGE(G54:I54,2))*0.3+(LARGE(J54:L54,1)+LARGE(J54:L54,2))*0.15))</f>
         <v>0.79939805825242705</v>
       </c>
     </row>
@@ -4212,7 +4260,7 @@
         <v>0.69</v>
       </c>
       <c r="M60" s="8">
-        <f t="shared" ref="M60" si="17">(((LARGE(D60:F60,1)+LARGE(D60:F60,2))*0.05+(LARGE(G60:I60,1)+LARGE(G60:I60,2))*0.3+(LARGE(J60:L60,1)+LARGE(J60:L60,2))*0.15))</f>
+        <f t="shared" ref="M60" si="20">(((LARGE(D60:F60,1)+LARGE(D60:F60,2))*0.05+(LARGE(G60:I60,1)+LARGE(G60:I60,2))*0.3+(LARGE(J60:L60,1)+LARGE(J60:L60,2))*0.15))</f>
         <v>0.80499999999999994</v>
       </c>
     </row>
@@ -4254,7 +4302,7 @@
         <v>0.46</v>
       </c>
       <c r="M61" s="8">
-        <f t="shared" ref="M61:M62" si="18">(((LARGE(D61:F61,1)+LARGE(D61:F61,2))*0.05+(LARGE(G61:I61,1)+LARGE(G61:I61,2))*0.3+(LARGE(J61:L61,1)+LARGE(J61:L61,2))*0.15))</f>
+        <f t="shared" ref="M61:M62" si="21">(((LARGE(D61:F61,1)+LARGE(D61:F61,2))*0.05+(LARGE(G61:I61,1)+LARGE(G61:I61,2))*0.3+(LARGE(J61:L61,1)+LARGE(J61:L61,2))*0.15))</f>
         <v>0.67800000000000005</v>
       </c>
     </row>
@@ -4296,7 +4344,7 @@
         <v>0.51</v>
       </c>
       <c r="M62" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.71350000000000002</v>
       </c>
     </row>
@@ -4373,7 +4421,7 @@
         <v>0.69</v>
       </c>
       <c r="M64" s="8">
-        <f t="shared" ref="M64:M65" si="19">(((LARGE(D64:F64,1)+LARGE(D64:F64,2))*0.05+(LARGE(G64:I64,1)+LARGE(G64:I64,2))*0.3+(LARGE(J64:L64,1)+LARGE(J64:L64,2))*0.15))</f>
+        <f t="shared" ref="M64:M65" si="22">(((LARGE(D64:F64,1)+LARGE(D64:F64,2))*0.05+(LARGE(G64:I64,1)+LARGE(G64:I64,2))*0.3+(LARGE(J64:L64,1)+LARGE(J64:L64,2))*0.15))</f>
         <v>0.8680000000000001</v>
       </c>
     </row>
@@ -4415,7 +4463,7 @@
         <v>0.51</v>
       </c>
       <c r="M65" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.64000000000000012</v>
       </c>
     </row>
@@ -4667,7 +4715,7 @@
         <v>0.81</v>
       </c>
       <c r="M72" s="8">
-        <f t="shared" ref="M72" si="20">(((LARGE(D72:F72,1)+LARGE(D72:F72,2))*0.05+(LARGE(G72:I72,1)+LARGE(G72:I72,2))*0.3+(LARGE(J72:L72,1)+LARGE(J72:L72,2))*0.15))</f>
+        <f t="shared" ref="M72:M73" si="23">(((LARGE(D72:F72,1)+LARGE(D72:F72,2))*0.05+(LARGE(G72:I72,1)+LARGE(G72:I72,2))*0.3+(LARGE(J72:L72,1)+LARGE(J72:L72,2))*0.15))</f>
         <v>0.69199999999999995</v>
       </c>
     </row>
@@ -4705,6 +4753,13 @@
       <c r="K73">
         <v>0.5</v>
       </c>
+      <c r="L73">
+        <v>0.62</v>
+      </c>
+      <c r="M73" s="8">
+        <f t="shared" si="23"/>
+        <v>0.62200000000000011</v>
+      </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
@@ -4951,7 +5006,7 @@
         <v>0.69</v>
       </c>
       <c r="M80" s="8">
-        <f t="shared" ref="M80" si="21">(((LARGE(D80:F80,1)+LARGE(D80:F80,2))*0.05+(LARGE(G80:I80,1)+LARGE(G80:I80,2))*0.3+(LARGE(J80:L80,1)+LARGE(J80:L80,2))*0.15))</f>
+        <f t="shared" ref="M80" si="24">(((LARGE(D80:F80,1)+LARGE(D80:F80,2))*0.05+(LARGE(G80:I80,1)+LARGE(G80:I80,2))*0.3+(LARGE(J80:L80,1)+LARGE(J80:L80,2))*0.15))</f>
         <v>0.80399999999999994</v>
       </c>
     </row>
@@ -5094,6 +5149,13 @@
       <c r="K84">
         <v>0.5</v>
       </c>
+      <c r="L84">
+        <v>0.62</v>
+      </c>
+      <c r="M84" s="8">
+        <f t="shared" ref="M84" si="25">(((LARGE(D84:F84,1)+LARGE(D84:F84,2))*0.05+(LARGE(G84:I84,1)+LARGE(G84:I84,2))*0.3+(LARGE(J84:L84,1)+LARGE(J84:L84,2))*0.15))</f>
+        <v>0.45950000000000002</v>
+      </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
@@ -5168,7 +5230,7 @@
         <v>0.82</v>
       </c>
       <c r="M86" s="8">
-        <f t="shared" ref="M86" si="22">(((LARGE(D86:F86,1)+LARGE(D86:F86,2))*0.05+(LARGE(G86:I86,1)+LARGE(G86:I86,2))*0.3+(LARGE(J86:L86,1)+LARGE(J86:L86,2))*0.15))</f>
+        <f t="shared" ref="M86" si="26">(((LARGE(D86:F86,1)+LARGE(D86:F86,2))*0.05+(LARGE(G86:I86,1)+LARGE(G86:I86,2))*0.3+(LARGE(J86:L86,1)+LARGE(J86:L86,2))*0.15))</f>
         <v>0.71349999999999991</v>
       </c>
     </row>
@@ -5385,7 +5447,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="M92" s="8">
-        <f t="shared" ref="M92:M93" si="23">(((LARGE(D92:F92,1)+LARGE(D92:F92,2))*0.05+(LARGE(G92:I92,1)+LARGE(G92:I92,2))*0.3+(LARGE(J92:L92,1)+LARGE(J92:L92,2))*0.15))</f>
+        <f t="shared" ref="M92:M93" si="27">(((LARGE(D92:F92,1)+LARGE(D92:F92,2))*0.05+(LARGE(G92:I92,1)+LARGE(G92:I92,2))*0.3+(LARGE(J92:L92,1)+LARGE(J92:L92,2))*0.15))</f>
         <v>0.628</v>
       </c>
     </row>
@@ -5427,7 +5489,7 @@
         <v>0.81</v>
       </c>
       <c r="M93" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.66549999999999998</v>
       </c>
     </row>
@@ -5504,7 +5566,7 @@
         <v>0.73</v>
       </c>
       <c r="M95" s="8">
-        <f t="shared" ref="M95" si="24">(((LARGE(D95:F95,1)+LARGE(D95:F95,2))*0.05+(LARGE(G95:I95,1)+LARGE(G95:I95,2))*0.3+(LARGE(J95:L95,1)+LARGE(J95:L95,2))*0.15))</f>
+        <f t="shared" ref="M95" si="28">(((LARGE(D95:F95,1)+LARGE(D95:F95,2))*0.05+(LARGE(G95:I95,1)+LARGE(G95:I95,2))*0.3+(LARGE(J95:L95,1)+LARGE(J95:L95,2))*0.15))</f>
         <v>0.76200000000000001</v>
       </c>
     </row>
@@ -5651,7 +5713,7 @@
         <v>0.82</v>
       </c>
       <c r="M99" s="8">
-        <f t="shared" ref="M99:M100" si="25">(((LARGE(D99:F99,1)+LARGE(D99:F99,2))*0.05+(LARGE(G99:I99,1)+LARGE(G99:I99,2))*0.3+(LARGE(J99:L99,1)+LARGE(J99:L99,2))*0.15))</f>
+        <f t="shared" ref="M99:M100" si="29">(((LARGE(D99:F99,1)+LARGE(D99:F99,2))*0.05+(LARGE(G99:I99,1)+LARGE(G99:I99,2))*0.3+(LARGE(J99:L99,1)+LARGE(J99:L99,2))*0.15))</f>
         <v>0.7599999999999999</v>
       </c>
     </row>
@@ -5693,7 +5755,7 @@
         <v>0.69</v>
       </c>
       <c r="M100" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.69249999999999989</v>
       </c>
     </row>
@@ -5980,7 +6042,7 @@
         <v>0.46</v>
       </c>
       <c r="M108" s="8">
-        <f t="shared" ref="M108" si="26">(((LARGE(D108:F108,1)+LARGE(D108:F108,2))*0.05+(LARGE(G108:I108,1)+LARGE(G108:I108,2))*0.3+(LARGE(J108:L108,1)+LARGE(J108:L108,2))*0.15))</f>
+        <f t="shared" ref="M108" si="30">(((LARGE(D108:F108,1)+LARGE(D108:F108,2))*0.05+(LARGE(G108:I108,1)+LARGE(G108:I108,2))*0.3+(LARGE(J108:L108,1)+LARGE(J108:L108,2))*0.15))</f>
         <v>0.64200000000000002</v>
       </c>
     </row>
@@ -6227,7 +6289,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="M115" s="8">
-        <f t="shared" ref="M115" si="27">(((LARGE(D115:F115,1)+LARGE(D115:F115,2))*0.05+(LARGE(G115:I115,1)+LARGE(G115:I115,2))*0.3+(LARGE(J115:L115,1)+LARGE(J115:L115,2))*0.15))</f>
+        <f t="shared" ref="M115" si="31">(((LARGE(D115:F115,1)+LARGE(D115:F115,2))*0.05+(LARGE(G115:I115,1)+LARGE(G115:I115,2))*0.3+(LARGE(J115:L115,1)+LARGE(J115:L115,2))*0.15))</f>
         <v>0.67749999999999999</v>
       </c>
     </row>
@@ -6304,7 +6366,7 @@
         <v>0.64</v>
       </c>
       <c r="M117" s="8">
-        <f t="shared" ref="M117" si="28">(((LARGE(D117:F117,1)+LARGE(D117:F117,2))*0.05+(LARGE(G117:I117,1)+LARGE(G117:I117,2))*0.3+(LARGE(J117:L117,1)+LARGE(J117:L117,2))*0.15))</f>
+        <f t="shared" ref="M117" si="32">(((LARGE(D117:F117,1)+LARGE(D117:F117,2))*0.05+(LARGE(G117:I117,1)+LARGE(G117:I117,2))*0.3+(LARGE(J117:L117,1)+LARGE(J117:L117,2))*0.15))</f>
         <v>0.61150000000000004</v>
       </c>
     </row>
@@ -6381,7 +6443,7 @@
         <v>0.78</v>
       </c>
       <c r="M119" s="8">
-        <f t="shared" ref="M119:M120" si="29">(((LARGE(D119:F119,1)+LARGE(D119:F119,2))*0.05+(LARGE(G119:I119,1)+LARGE(G119:I119,2))*0.3+(LARGE(J119:L119,1)+LARGE(J119:L119,2))*0.15))</f>
+        <f t="shared" ref="M119:M120" si="33">(((LARGE(D119:F119,1)+LARGE(D119:F119,2))*0.05+(LARGE(G119:I119,1)+LARGE(G119:I119,2))*0.3+(LARGE(J119:L119,1)+LARGE(J119:L119,2))*0.15))</f>
         <v>0.61550000000000005</v>
       </c>
     </row>
@@ -6423,7 +6485,7 @@
         <v>0.78</v>
       </c>
       <c r="M120" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.64949999999999997</v>
       </c>
     </row>
@@ -6710,7 +6772,7 @@
         <v>0.5</v>
       </c>
       <c r="M128" s="8">
-        <f t="shared" ref="M128" si="30">(((LARGE(D128:F128,1)+LARGE(D128:F128,2))*0.05+(LARGE(G128:I128,1)+LARGE(G128:I128,2))*0.3+(LARGE(J128:L128,1)+LARGE(J128:L128,2))*0.15))</f>
+        <f t="shared" ref="M128" si="34">(((LARGE(D128:F128,1)+LARGE(D128:F128,2))*0.05+(LARGE(G128:I128,1)+LARGE(G128:I128,2))*0.3+(LARGE(J128:L128,1)+LARGE(J128:L128,2))*0.15))</f>
         <v>0.76649999999999996</v>
       </c>
     </row>
@@ -6892,7 +6954,7 @@
         <v>0.64</v>
       </c>
       <c r="M133" s="8">
-        <f t="shared" ref="M133" si="31">(((LARGE(D133:F133,1)+LARGE(D133:F133,2))*0.05+(LARGE(G133:I133,1)+LARGE(G133:I133,2))*0.3+(LARGE(J133:L133,1)+LARGE(J133:L133,2))*0.15))</f>
+        <f t="shared" ref="M133" si="35">(((LARGE(D133:F133,1)+LARGE(D133:F133,2))*0.05+(LARGE(G133:I133,1)+LARGE(G133:I133,2))*0.3+(LARGE(J133:L133,1)+LARGE(J133:L133,2))*0.15))</f>
         <v>0.74199999999999999</v>
       </c>
     </row>
@@ -7249,7 +7311,7 @@
         <v>0.73</v>
       </c>
       <c r="M143" s="8">
-        <f t="shared" ref="M143" si="32">(((LARGE(D143:F143,1)+LARGE(D143:F143,2))*0.05+(LARGE(G143:I143,1)+LARGE(G143:I143,2))*0.3+(LARGE(J143:L143,1)+LARGE(J143:L143,2))*0.15))</f>
+        <f t="shared" ref="M143" si="36">(((LARGE(D143:F143,1)+LARGE(D143:F143,2))*0.05+(LARGE(G143:I143,1)+LARGE(G143:I143,2))*0.3+(LARGE(J143:L143,1)+LARGE(J143:L143,2))*0.15))</f>
         <v>0.6925</v>
       </c>
     </row>
@@ -7326,7 +7388,7 @@
         <v>0.68</v>
       </c>
       <c r="M145" s="8">
-        <f t="shared" ref="M145:M146" si="33">(((LARGE(D145:F145,1)+LARGE(D145:F145,2))*0.05+(LARGE(G145:I145,1)+LARGE(G145:I145,2))*0.3+(LARGE(J145:L145,1)+LARGE(J145:L145,2))*0.15))</f>
+        <f t="shared" ref="M145:M146" si="37">(((LARGE(D145:F145,1)+LARGE(D145:F145,2))*0.05+(LARGE(G145:I145,1)+LARGE(G145:I145,2))*0.3+(LARGE(J145:L145,1)+LARGE(J145:L145,2))*0.15))</f>
         <v>0.76200000000000001</v>
       </c>
     </row>
@@ -7368,7 +7430,7 @@
         <v>0.72</v>
       </c>
       <c r="M146" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0.77549999999999997</v>
       </c>
     </row>
@@ -7585,7 +7647,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="M152" s="8">
-        <f t="shared" ref="M152" si="34">(((LARGE(D152:F152,1)+LARGE(D152:F152,2))*0.05+(LARGE(G152:I152,1)+LARGE(G152:I152,2))*0.3+(LARGE(J152:L152,1)+LARGE(J152:L152,2))*0.15))</f>
+        <f t="shared" ref="M152" si="38">(((LARGE(D152:F152,1)+LARGE(D152:F152,2))*0.05+(LARGE(G152:I152,1)+LARGE(G152:I152,2))*0.3+(LARGE(J152:L152,1)+LARGE(J152:L152,2))*0.15))</f>
         <v>0.624</v>
       </c>
     </row>
@@ -7872,7 +7934,7 @@
         <v>0.72</v>
       </c>
       <c r="M160" s="8">
-        <f t="shared" ref="M160" si="35">(((LARGE(D160:F160,1)+LARGE(D160:F160,2))*0.05+(LARGE(G160:I160,1)+LARGE(G160:I160,2))*0.3+(LARGE(J160:L160,1)+LARGE(J160:L160,2))*0.15))</f>
+        <f t="shared" ref="M160" si="39">(((LARGE(D160:F160,1)+LARGE(D160:F160,2))*0.05+(LARGE(G160:I160,1)+LARGE(G160:I160,2))*0.3+(LARGE(J160:L160,1)+LARGE(J160:L160,2))*0.15))</f>
         <v>0.66749999999999998</v>
       </c>
     </row>
@@ -7949,7 +8011,7 @@
         <v>0.6</v>
       </c>
       <c r="M162" s="8">
-        <f t="shared" ref="M162" si="36">(((LARGE(D162:F162,1)+LARGE(D162:F162,2))*0.05+(LARGE(G162:I162,1)+LARGE(G162:I162,2))*0.3+(LARGE(J162:L162,1)+LARGE(J162:L162,2))*0.15))</f>
+        <f t="shared" ref="M162" si="40">(((LARGE(D162:F162,1)+LARGE(D162:F162,2))*0.05+(LARGE(G162:I162,1)+LARGE(G162:I162,2))*0.3+(LARGE(J162:L162,1)+LARGE(J162:L162,2))*0.15))</f>
         <v>0.68700000000000006</v>
       </c>
     </row>
@@ -8026,7 +8088,7 @@
         <v>0.7</v>
       </c>
       <c r="M164" s="8">
-        <f t="shared" ref="M164" si="37">(((LARGE(D164:F164,1)+LARGE(D164:F164,2))*0.05+(LARGE(G164:I164,1)+LARGE(G164:I164,2))*0.3+(LARGE(J164:L164,1)+LARGE(J164:L164,2))*0.15))</f>
+        <f t="shared" ref="M164" si="41">(((LARGE(D164:F164,1)+LARGE(D164:F164,2))*0.05+(LARGE(G164:I164,1)+LARGE(G164:I164,2))*0.3+(LARGE(J164:L164,1)+LARGE(J164:L164,2))*0.15))</f>
         <v>0.67099999999999993</v>
       </c>
     </row>
@@ -8103,7 +8165,7 @@
         <v>0.65</v>
       </c>
       <c r="M166" s="8">
-        <f t="shared" ref="M166:M167" si="38">(((LARGE(D166:F166,1)+LARGE(D166:F166,2))*0.05+(LARGE(G166:I166,1)+LARGE(G166:I166,2))*0.3+(LARGE(J166:L166,1)+LARGE(J166:L166,2))*0.15))</f>
+        <f t="shared" ref="M166:M167" si="42">(((LARGE(D166:F166,1)+LARGE(D166:F166,2))*0.05+(LARGE(G166:I166,1)+LARGE(G166:I166,2))*0.3+(LARGE(J166:L166,1)+LARGE(J166:L166,2))*0.15))</f>
         <v>0.72399999999999998</v>
       </c>
     </row>
@@ -8145,7 +8207,7 @@
         <v>0.93</v>
       </c>
       <c r="M167" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0.86950000000000005</v>
       </c>
     </row>
@@ -8222,7 +8284,7 @@
         <v>0.51</v>
       </c>
       <c r="M169" s="8">
-        <f t="shared" ref="M169" si="39">(((LARGE(D169:F169,1)+LARGE(D169:F169,2))*0.05+(LARGE(G169:I169,1)+LARGE(G169:I169,2))*0.3+(LARGE(J169:L169,1)+LARGE(J169:L169,2))*0.15))</f>
+        <f t="shared" ref="M169" si="43">(((LARGE(D169:F169,1)+LARGE(D169:F169,2))*0.05+(LARGE(G169:I169,1)+LARGE(G169:I169,2))*0.3+(LARGE(J169:L169,1)+LARGE(J169:L169,2))*0.15))</f>
         <v>0.6855</v>
       </c>
     </row>
@@ -8334,7 +8396,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="M172" s="8">
-        <f t="shared" ref="M172" si="40">(((LARGE(D172:F172,1)+LARGE(D172:F172,2))*0.05+(LARGE(G172:I172,1)+LARGE(G172:I172,2))*0.3+(LARGE(J172:L172,1)+LARGE(J172:L172,2))*0.15))</f>
+        <f t="shared" ref="M172" si="44">(((LARGE(D172:F172,1)+LARGE(D172:F172,2))*0.05+(LARGE(G172:I172,1)+LARGE(G172:I172,2))*0.3+(LARGE(J172:L172,1)+LARGE(J172:L172,2))*0.15))</f>
         <v>0.61799999999999999</v>
       </c>
     </row>
@@ -8376,7 +8438,7 @@
         <v>0.61</v>
       </c>
       <c r="M173" s="8">
-        <f t="shared" ref="M173" si="41">(((LARGE(D173:F173,1)+LARGE(D173:F173,2))*0.05+(LARGE(G173:I173,1)+LARGE(G173:I173,2))*0.3+(LARGE(J173:L173,1)+LARGE(J173:L173,2))*0.15))</f>
+        <f t="shared" ref="M173" si="45">(((LARGE(D173:F173,1)+LARGE(D173:F173,2))*0.05+(LARGE(G173:I173,1)+LARGE(G173:I173,2))*0.3+(LARGE(J173:L173,1)+LARGE(J173:L173,2))*0.15))</f>
         <v>0.71</v>
       </c>
     </row>
@@ -8628,7 +8690,7 @@
         <v>0.63</v>
       </c>
       <c r="M180" s="8">
-        <f t="shared" ref="M180" si="42">(((LARGE(D180:F180,1)+LARGE(D180:F180,2))*0.05+(LARGE(G180:I180,1)+LARGE(G180:I180,2))*0.3+(LARGE(J180:L180,1)+LARGE(J180:L180,2))*0.15))</f>
+        <f t="shared" ref="M180:M181" si="46">(((LARGE(D180:F180,1)+LARGE(D180:F180,2))*0.05+(LARGE(G180:I180,1)+LARGE(G180:I180,2))*0.3+(LARGE(J180:L180,1)+LARGE(J180:L180,2))*0.15))</f>
         <v>0.68400000000000005</v>
       </c>
     </row>
@@ -8666,6 +8728,13 @@
       <c r="K181">
         <v>0.67</v>
       </c>
+      <c r="L181">
+        <v>0.36</v>
+      </c>
+      <c r="M181" s="8">
+        <f t="shared" si="46"/>
+        <v>0.72850000000000004</v>
+      </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
@@ -8740,7 +8809,7 @@
         <v>0.51</v>
       </c>
       <c r="M183" s="8">
-        <f t="shared" ref="M183" si="43">(((LARGE(D183:F183,1)+LARGE(D183:F183,2))*0.05+(LARGE(G183:I183,1)+LARGE(G183:I183,2))*0.3+(LARGE(J183:L183,1)+LARGE(J183:L183,2))*0.15))</f>
+        <f t="shared" ref="M183:M185" si="47">(((LARGE(D183:F183,1)+LARGE(D183:F183,2))*0.05+(LARGE(G183:I183,1)+LARGE(G183:I183,2))*0.3+(LARGE(J183:L183,1)+LARGE(J183:L183,2))*0.15))</f>
         <v>0.65900000000000003</v>
       </c>
     </row>
@@ -8813,6 +8882,13 @@
       <c r="K185">
         <v>0.67</v>
       </c>
+      <c r="L185">
+        <v>0.64</v>
+      </c>
+      <c r="M185" s="8">
+        <f t="shared" si="47"/>
+        <v>0.72399999999999998</v>
+      </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
@@ -8887,7 +8963,7 @@
         <v>0.61</v>
       </c>
       <c r="M187" s="8">
-        <f t="shared" ref="M187" si="44">(((LARGE(D187:F187,1)+LARGE(D187:F187,2))*0.05+(LARGE(G187:I187,1)+LARGE(G187:I187,2))*0.3+(LARGE(J187:L187,1)+LARGE(J187:L187,2))*0.15))</f>
+        <f t="shared" ref="M187" si="48">(((LARGE(D187:F187,1)+LARGE(D187:F187,2))*0.05+(LARGE(G187:I187,1)+LARGE(G187:I187,2))*0.3+(LARGE(J187:L187,1)+LARGE(J187:L187,2))*0.15))</f>
         <v>0.66149999999999998</v>
       </c>
     </row>
@@ -8964,7 +9040,7 @@
         <v>0.7</v>
       </c>
       <c r="M189" s="8">
-        <f t="shared" ref="M189" si="45">(((LARGE(D189:F189,1)+LARGE(D189:F189,2))*0.05+(LARGE(G189:I189,1)+LARGE(G189:I189,2))*0.3+(LARGE(J189:L189,1)+LARGE(J189:L189,2))*0.15))</f>
+        <f t="shared" ref="M189" si="49">(((LARGE(D189:F189,1)+LARGE(D189:F189,2))*0.05+(LARGE(G189:I189,1)+LARGE(G189:I189,2))*0.3+(LARGE(J189:L189,1)+LARGE(J189:L189,2))*0.15))</f>
         <v>0.48250000000000004</v>
       </c>
     </row>
@@ -9076,7 +9152,7 @@
         <v>0.65</v>
       </c>
       <c r="M192" s="8">
-        <f t="shared" ref="M192" si="46">(((LARGE(D192:F192,1)+LARGE(D192:F192,2))*0.05+(LARGE(G192:I192,1)+LARGE(G192:I192,2))*0.3+(LARGE(J192:L192,1)+LARGE(J192:L192,2))*0.15))</f>
+        <f t="shared" ref="M192" si="50">(((LARGE(D192:F192,1)+LARGE(D192:F192,2))*0.05+(LARGE(G192:I192,1)+LARGE(G192:I192,2))*0.3+(LARGE(J192:L192,1)+LARGE(J192:L192,2))*0.15))</f>
         <v>0.64049999999999996</v>
       </c>
     </row>
@@ -9188,7 +9264,7 @@
         <v>0.78</v>
       </c>
       <c r="M195" s="8">
-        <f t="shared" ref="M195" si="47">(((LARGE(D195:F195,1)+LARGE(D195:F195,2))*0.05+(LARGE(G195:I195,1)+LARGE(G195:I195,2))*0.3+(LARGE(J195:L195,1)+LARGE(J195:L195,2))*0.15))</f>
+        <f t="shared" ref="M195" si="51">(((LARGE(D195:F195,1)+LARGE(D195:F195,2))*0.05+(LARGE(G195:I195,1)+LARGE(G195:I195,2))*0.3+(LARGE(J195:L195,1)+LARGE(J195:L195,2))*0.15))</f>
         <v>0.78700000000000003</v>
       </c>
     </row>
@@ -9265,7 +9341,7 @@
         <v>0.77</v>
       </c>
       <c r="M197" s="8">
-        <f t="shared" ref="M197:M198" si="48">(((LARGE(D197:F197,1)+LARGE(D197:F197,2))*0.05+(LARGE(G197:I197,1)+LARGE(G197:I197,2))*0.3+(LARGE(J197:L197,1)+LARGE(J197:L197,2))*0.15))</f>
+        <f t="shared" ref="M197:M198" si="52">(((LARGE(D197:F197,1)+LARGE(D197:F197,2))*0.05+(LARGE(G197:I197,1)+LARGE(G197:I197,2))*0.3+(LARGE(J197:L197,1)+LARGE(J197:L197,2))*0.15))</f>
         <v>0.73450000000000004</v>
       </c>
     </row>
@@ -9307,7 +9383,7 @@
         <v>0.7</v>
       </c>
       <c r="M198" s="8">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>0.79299999999999993</v>
       </c>
     </row>
@@ -9384,7 +9460,7 @@
         <v>0.87</v>
       </c>
       <c r="M200" s="8">
-        <f t="shared" ref="M200" si="49">(((LARGE(D200:F200,1)+LARGE(D200:F200,2))*0.05+(LARGE(G200:I200,1)+LARGE(G200:I200,2))*0.3+(LARGE(J200:L200,1)+LARGE(J200:L200,2))*0.15))</f>
+        <f t="shared" ref="M200" si="53">(((LARGE(D200:F200,1)+LARGE(D200:F200,2))*0.05+(LARGE(G200:I200,1)+LARGE(G200:I200,2))*0.3+(LARGE(J200:L200,1)+LARGE(J200:L200,2))*0.15))</f>
         <v>0.69500000000000006</v>
       </c>
     </row>
@@ -9461,7 +9537,7 @@
         <v>0.63</v>
       </c>
       <c r="M202" s="8">
-        <f t="shared" ref="M202" si="50">(((LARGE(D202:F202,1)+LARGE(D202:F202,2))*0.05+(LARGE(G202:I202,1)+LARGE(G202:I202,2))*0.3+(LARGE(J202:L202,1)+LARGE(J202:L202,2))*0.15))</f>
+        <f t="shared" ref="M202" si="54">(((LARGE(D202:F202,1)+LARGE(D202:F202,2))*0.05+(LARGE(G202:I202,1)+LARGE(G202:I202,2))*0.3+(LARGE(J202:L202,1)+LARGE(J202:L202,2))*0.15))</f>
         <v>0.59000000000000008</v>
       </c>
     </row>
@@ -9538,7 +9614,7 @@
         <v>0.7</v>
       </c>
       <c r="M204" s="8">
-        <f t="shared" ref="M204" si="51">(((LARGE(D204:F204,1)+LARGE(D204:F204,2))*0.05+(LARGE(G204:I204,1)+LARGE(G204:I204,2))*0.3+(LARGE(J204:L204,1)+LARGE(J204:L204,2))*0.15))</f>
+        <f t="shared" ref="M204" si="55">(((LARGE(D204:F204,1)+LARGE(D204:F204,2))*0.05+(LARGE(G204:I204,1)+LARGE(G204:I204,2))*0.3+(LARGE(J204:L204,1)+LARGE(J204:L204,2))*0.15))</f>
         <v>0.75349999999999995</v>
       </c>
     </row>
@@ -9580,7 +9656,7 @@
         <v>0.6</v>
       </c>
       <c r="M205" s="8">
-        <f t="shared" ref="M205" si="52">(((LARGE(D205:F205,1)+LARGE(D205:F205,2))*0.05+(LARGE(G205:I205,1)+LARGE(G205:I205,2))*0.3+(LARGE(J205:L205,1)+LARGE(J205:L205,2))*0.15))</f>
+        <f t="shared" ref="M205" si="56">(((LARGE(D205:F205,1)+LARGE(D205:F205,2))*0.05+(LARGE(G205:I205,1)+LARGE(G205:I205,2))*0.3+(LARGE(J205:L205,1)+LARGE(J205:L205,2))*0.15))</f>
         <v>0.65349999999999997</v>
       </c>
     </row>
@@ -9657,7 +9733,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="M207" s="8">
-        <f t="shared" ref="M207:M208" si="53">(((LARGE(D207:F207,1)+LARGE(D207:F207,2))*0.05+(LARGE(G207:I207,1)+LARGE(G207:I207,2))*0.3+(LARGE(J207:L207,1)+LARGE(J207:L207,2))*0.15))</f>
+        <f t="shared" ref="M207:M208" si="57">(((LARGE(D207:F207,1)+LARGE(D207:F207,2))*0.05+(LARGE(G207:I207,1)+LARGE(G207:I207,2))*0.3+(LARGE(J207:L207,1)+LARGE(J207:L207,2))*0.15))</f>
         <v>0.74550000000000005</v>
       </c>
     </row>
@@ -9699,7 +9775,7 @@
         <v>0.6</v>
       </c>
       <c r="M208" s="8">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>0.69550000000000012</v>
       </c>
     </row>
@@ -9741,7 +9817,7 @@
         <v>0.68</v>
       </c>
       <c r="M209" s="8">
-        <f t="shared" ref="M209" si="54">(((LARGE(D209:F209,1)+LARGE(D209:F209,2))*0.05+(LARGE(G209:I209,1)+LARGE(G209:I209,2))*0.3+(LARGE(J209:L209,1)+LARGE(J209:L209,2))*0.15))</f>
+        <f t="shared" ref="M209" si="58">(((LARGE(D209:F209,1)+LARGE(D209:F209,2))*0.05+(LARGE(G209:I209,1)+LARGE(G209:I209,2))*0.3+(LARGE(J209:L209,1)+LARGE(J209:L209,2))*0.15))</f>
         <v>0.81850000000000001</v>
       </c>
     </row>
@@ -9853,7 +9929,7 @@
         <v>0.93</v>
       </c>
       <c r="M212" s="8">
-        <f t="shared" ref="M212" si="55">(((LARGE(D212:F212,1)+LARGE(D212:F212,2))*0.05+(LARGE(G212:I212,1)+LARGE(G212:I212,2))*0.3+(LARGE(J212:L212,1)+LARGE(J212:L212,2))*0.15))</f>
+        <f t="shared" ref="M212" si="59">(((LARGE(D212:F212,1)+LARGE(D212:F212,2))*0.05+(LARGE(G212:I212,1)+LARGE(G212:I212,2))*0.3+(LARGE(J212:L212,1)+LARGE(J212:L212,2))*0.15))</f>
         <v>0.70949999999999991</v>
       </c>
     </row>
@@ -9895,7 +9971,7 @@
         <v>0.8</v>
       </c>
       <c r="M213" s="8">
-        <f t="shared" ref="M213" si="56">(((LARGE(D213:F213,1)+LARGE(D213:F213,2))*0.05+(LARGE(G213:I213,1)+LARGE(G213:I213,2))*0.3+(LARGE(J213:L213,1)+LARGE(J213:L213,2))*0.15))</f>
+        <f t="shared" ref="M213" si="60">(((LARGE(D213:F213,1)+LARGE(D213:F213,2))*0.05+(LARGE(G213:I213,1)+LARGE(G213:I213,2))*0.3+(LARGE(J213:L213,1)+LARGE(J213:L213,2))*0.15))</f>
         <v>0.63849999999999996</v>
       </c>
     </row>
@@ -9937,7 +10013,7 @@
         <v>0.54</v>
       </c>
       <c r="M214" s="8">
-        <f t="shared" ref="M214" si="57">(((LARGE(D214:F214,1)+LARGE(D214:F214,2))*0.05+(LARGE(G214:I214,1)+LARGE(G214:I214,2))*0.3+(LARGE(J214:L214,1)+LARGE(J214:L214,2))*0.15))</f>
+        <f t="shared" ref="M214" si="61">(((LARGE(D214:F214,1)+LARGE(D214:F214,2))*0.05+(LARGE(G214:I214,1)+LARGE(G214:I214,2))*0.3+(LARGE(J214:L214,1)+LARGE(J214:L214,2))*0.15))</f>
         <v>0.84700000000000009</v>
       </c>
     </row>
@@ -10045,6 +10121,13 @@
       <c r="K217">
         <v>0.67</v>
       </c>
+      <c r="L217">
+        <v>0.64</v>
+      </c>
+      <c r="M217" s="8">
+        <f t="shared" ref="M217" si="62">(((LARGE(D217:F217,1)+LARGE(D217:F217,2))*0.05+(LARGE(G217:I217,1)+LARGE(G217:I217,2))*0.3+(LARGE(J217:L217,1)+LARGE(J217:L217,2))*0.15))</f>
+        <v>0.77549999999999986</v>
+      </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
@@ -10154,7 +10237,7 @@
         <v>0.77</v>
       </c>
       <c r="M220" s="8">
-        <f t="shared" ref="M220" si="58">(((LARGE(D220:F220,1)+LARGE(D220:F220,2))*0.05+(LARGE(G220:I220,1)+LARGE(G220:I220,2))*0.3+(LARGE(J220:L220,1)+LARGE(J220:L220,2))*0.15))</f>
+        <f t="shared" ref="M220" si="63">(((LARGE(D220:F220,1)+LARGE(D220:F220,2))*0.05+(LARGE(G220:I220,1)+LARGE(G220:I220,2))*0.3+(LARGE(J220:L220,1)+LARGE(J220:L220,2))*0.15))</f>
         <v>0.7</v>
       </c>
     </row>
@@ -10231,7 +10314,7 @@
         <v>0.54</v>
       </c>
       <c r="M222" s="8">
-        <f t="shared" ref="M222" si="59">(((LARGE(D222:F222,1)+LARGE(D222:F222,2))*0.05+(LARGE(G222:I222,1)+LARGE(G222:I222,2))*0.3+(LARGE(J222:L222,1)+LARGE(J222:L222,2))*0.15))</f>
+        <f t="shared" ref="M222" si="64">(((LARGE(D222:F222,1)+LARGE(D222:F222,2))*0.05+(LARGE(G222:I222,1)+LARGE(G222:I222,2))*0.3+(LARGE(J222:L222,1)+LARGE(J222:L222,2))*0.15))</f>
         <v>0.72299999999999998</v>
       </c>
     </row>
@@ -10308,7 +10391,7 @@
         <v>0.87</v>
       </c>
       <c r="M224" s="8">
-        <f t="shared" ref="M224" si="60">(((LARGE(D224:F224,1)+LARGE(D224:F224,2))*0.05+(LARGE(G224:I224,1)+LARGE(G224:I224,2))*0.3+(LARGE(J224:L224,1)+LARGE(J224:L224,2))*0.15))</f>
+        <f t="shared" ref="M224" si="65">(((LARGE(D224:F224,1)+LARGE(D224:F224,2))*0.05+(LARGE(G224:I224,1)+LARGE(G224:I224,2))*0.3+(LARGE(J224:L224,1)+LARGE(J224:L224,2))*0.15))</f>
         <v>0.79449999999999998</v>
       </c>
     </row>
@@ -10490,7 +10573,7 @@
         <v>0.78</v>
       </c>
       <c r="M229" s="8">
-        <f t="shared" ref="M229" si="61">(((LARGE(D229:F229,1)+LARGE(D229:F229,2))*0.05+(LARGE(G229:I229,1)+LARGE(G229:I229,2))*0.3+(LARGE(J229:L229,1)+LARGE(J229:L229,2))*0.15))</f>
+        <f t="shared" ref="M229" si="66">(((LARGE(D229:F229,1)+LARGE(D229:F229,2))*0.05+(LARGE(G229:I229,1)+LARGE(G229:I229,2))*0.3+(LARGE(J229:L229,1)+LARGE(J229:L229,2))*0.15))</f>
         <v>0.73449999999999993</v>
       </c>
     </row>

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C496B14A-5160-DD44-B422-43D3412CED3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A6EA96-A73A-0C46-9F7D-6B591C6475FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="960" windowWidth="29360" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -1938,8 +1938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="M139" sqref="M139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -3031,6 +3031,13 @@
       <c r="K28">
         <v>0.48</v>
       </c>
+      <c r="L28">
+        <v>0.61</v>
+      </c>
+      <c r="M28" s="8">
+        <f t="shared" si="9"/>
+        <v>0.78549999999999998</v>
+      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -3108,6 +3115,13 @@
       <c r="K30">
         <v>0.63</v>
       </c>
+      <c r="L30">
+        <v>0.46</v>
+      </c>
+      <c r="M30" s="8">
+        <f t="shared" ref="M30:M32" si="10">(((LARGE(D30:F30,1)+LARGE(D30:F30,2))*0.05+(LARGE(G30:I30,1)+LARGE(G30:I30,2))*0.3+(LARGE(J30:L30,1)+LARGE(J30:L30,2))*0.15))</f>
+        <v>0.64149999999999996</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -3178,6 +3192,13 @@
       <c r="K32">
         <v>0.48</v>
       </c>
+      <c r="L32">
+        <v>0.61</v>
+      </c>
+      <c r="M32" s="8">
+        <f t="shared" si="10"/>
+        <v>0.58050000000000002</v>
+      </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -3217,7 +3238,7 @@
         <v>0.62</v>
       </c>
       <c r="M33" s="8">
-        <f t="shared" ref="M33:M34" si="10">(((LARGE(D33:F33,1)+LARGE(D33:F33,2))*0.05+(LARGE(G33:I33,1)+LARGE(G33:I33,2))*0.3+(LARGE(J33:L33,1)+LARGE(J33:L33,2))*0.15))</f>
+        <f t="shared" ref="M33:M34" si="11">(((LARGE(D33:F33,1)+LARGE(D33:F33,2))*0.05+(LARGE(G33:I33,1)+LARGE(G33:I33,2))*0.3+(LARGE(J33:L33,1)+LARGE(J33:L33,2))*0.15))</f>
         <v>0.63119417475728157</v>
       </c>
     </row>
@@ -3259,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.55845631067961177</v>
       </c>
     </row>
@@ -3301,7 +3322,7 @@
         <v>0.8</v>
       </c>
       <c r="M35" s="8">
-        <f t="shared" ref="M34:M35" si="11">(((LARGE(D35:F35,1)+LARGE(D35:F35,2))*0.05+(LARGE(G35:I35,1)+LARGE(G35:I35,2))*0.3+(LARGE(J35:L35,1)+LARGE(J35:L35,2))*0.15))</f>
+        <f t="shared" ref="M34:M35" si="12">(((LARGE(D35:F35,1)+LARGE(D35:F35,2))*0.05+(LARGE(G35:I35,1)+LARGE(G35:I35,2))*0.3+(LARGE(J35:L35,1)+LARGE(J35:L35,2))*0.15))</f>
         <v>0.70705825242718467</v>
       </c>
     </row>
@@ -3413,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="8">
-        <f t="shared" ref="M38" si="12">(((LARGE(D38:F38,1)+LARGE(D38:F38,2))*0.05+(LARGE(G38:I38,1)+LARGE(G38:I38,2))*0.3+(LARGE(J38:L38,1)+LARGE(J38:L38,2))*0.15))</f>
+        <f t="shared" ref="M38" si="13">(((LARGE(D38:F38,1)+LARGE(D38:F38,2))*0.05+(LARGE(G38:I38,1)+LARGE(G38:I38,2))*0.3+(LARGE(J38:L38,1)+LARGE(J38:L38,2))*0.15))</f>
         <v>0.69200000000000006</v>
       </c>
     </row>
@@ -3455,7 +3476,7 @@
         <v>0.89</v>
       </c>
       <c r="M39" s="8">
-        <f t="shared" ref="M39" si="13">(((LARGE(D39:F39,1)+LARGE(D39:F39,2))*0.05+(LARGE(G39:I39,1)+LARGE(G39:I39,2))*0.3+(LARGE(J39:L39,1)+LARGE(J39:L39,2))*0.15))</f>
+        <f t="shared" ref="M39" si="14">(((LARGE(D39:F39,1)+LARGE(D39:F39,2))*0.05+(LARGE(G39:I39,1)+LARGE(G39:I39,2))*0.3+(LARGE(J39:L39,1)+LARGE(J39:L39,2))*0.15))</f>
         <v>0.874</v>
       </c>
     </row>
@@ -3532,7 +3553,7 @@
         <v>0.54</v>
       </c>
       <c r="M41" s="8">
-        <f t="shared" ref="M41:M42" si="14">(((LARGE(D41:F41,1)+LARGE(D41:F41,2))*0.05+(LARGE(G41:I41,1)+LARGE(G41:I41,2))*0.3+(LARGE(J41:L41,1)+LARGE(J41:L41,2))*0.15))</f>
+        <f t="shared" ref="M41:M42" si="15">(((LARGE(D41:F41,1)+LARGE(D41:F41,2))*0.05+(LARGE(G41:I41,1)+LARGE(G41:I41,2))*0.3+(LARGE(J41:L41,1)+LARGE(J41:L41,2))*0.15))</f>
         <v>0.7619999999999999</v>
       </c>
     </row>
@@ -3574,7 +3595,7 @@
         <v>0.81</v>
       </c>
       <c r="M42" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.71982038834951467</v>
       </c>
     </row>
@@ -3686,7 +3707,7 @@
         <v>0.5</v>
       </c>
       <c r="M45" s="8">
-        <f t="shared" ref="M45:M46" si="15">(((LARGE(D45:F45,1)+LARGE(D45:F45,2))*0.05+(LARGE(G45:I45,1)+LARGE(G45:I45,2))*0.3+(LARGE(J45:L45,1)+LARGE(J45:L45,2))*0.15))</f>
+        <f t="shared" ref="M45:M46" si="16">(((LARGE(D45:F45,1)+LARGE(D45:F45,2))*0.05+(LARGE(G45:I45,1)+LARGE(G45:I45,2))*0.3+(LARGE(J45:L45,1)+LARGE(J45:L45,2))*0.15))</f>
         <v>0.77499999999999991</v>
       </c>
     </row>
@@ -3728,7 +3749,7 @@
         <v>0.77</v>
       </c>
       <c r="M46" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.75362135922330098</v>
       </c>
     </row>
@@ -3805,7 +3826,7 @@
         <v>0.61</v>
       </c>
       <c r="M48" s="8">
-        <f t="shared" ref="M48:M49" si="16">(((LARGE(D48:F48,1)+LARGE(D48:F48,2))*0.05+(LARGE(G48:I48,1)+LARGE(G48:I48,2))*0.3+(LARGE(J48:L48,1)+LARGE(J48:L48,2))*0.15))</f>
+        <f t="shared" ref="M48:M49" si="17">(((LARGE(D48:F48,1)+LARGE(D48:F48,2))*0.05+(LARGE(G48:I48,1)+LARGE(G48:I48,2))*0.3+(LARGE(J48:L48,1)+LARGE(J48:L48,2))*0.15))</f>
         <v>0.72764563106796121</v>
       </c>
     </row>
@@ -3847,7 +3868,7 @@
         <v>0.54</v>
       </c>
       <c r="M49" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.73499999999999999</v>
       </c>
     </row>
@@ -3889,7 +3910,7 @@
         <v>0.62</v>
       </c>
       <c r="M50" s="8">
-        <f t="shared" ref="M50" si="17">(((LARGE(D50:F50,1)+LARGE(D50:F50,2))*0.05+(LARGE(G50:I50,1)+LARGE(G50:I50,2))*0.3+(LARGE(J50:L50,1)+LARGE(J50:L50,2))*0.15))</f>
+        <f t="shared" ref="M50" si="18">(((LARGE(D50:F50,1)+LARGE(D50:F50,2))*0.05+(LARGE(G50:I50,1)+LARGE(G50:I50,2))*0.3+(LARGE(J50:L50,1)+LARGE(J50:L50,2))*0.15))</f>
         <v>0.43700000000000006</v>
       </c>
     </row>
@@ -3962,6 +3983,13 @@
       <c r="K52">
         <v>0.63</v>
       </c>
+      <c r="L52">
+        <v>0.46</v>
+      </c>
+      <c r="M52" s="8">
+        <f t="shared" ref="M52" si="19">(((LARGE(D52:F52,1)+LARGE(D52:F52,2))*0.05+(LARGE(G52:I52,1)+LARGE(G52:I52,2))*0.3+(LARGE(J52:L52,1)+LARGE(J52:L52,2))*0.15))</f>
+        <v>0.69614563106796112</v>
+      </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -4001,7 +4029,7 @@
         <v>0.54</v>
       </c>
       <c r="M53" s="8">
-        <f t="shared" ref="M53" si="18">(((LARGE(D53:F53,1)+LARGE(D53:F53,2))*0.05+(LARGE(G53:I53,1)+LARGE(G53:I53,2))*0.3+(LARGE(J53:L53,1)+LARGE(J53:L53,2))*0.15))</f>
+        <f t="shared" ref="M53" si="20">(((LARGE(D53:F53,1)+LARGE(D53:F53,2))*0.05+(LARGE(G53:I53,1)+LARGE(G53:I53,2))*0.3+(LARGE(J53:L53,1)+LARGE(J53:L53,2))*0.15))</f>
         <v>0.65469417475728164</v>
       </c>
     </row>
@@ -4043,7 +4071,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="M54" s="8">
-        <f t="shared" ref="M54" si="19">(((LARGE(D54:F54,1)+LARGE(D54:F54,2))*0.05+(LARGE(G54:I54,1)+LARGE(G54:I54,2))*0.3+(LARGE(J54:L54,1)+LARGE(J54:L54,2))*0.15))</f>
+        <f t="shared" ref="M54" si="21">(((LARGE(D54:F54,1)+LARGE(D54:F54,2))*0.05+(LARGE(G54:I54,1)+LARGE(G54:I54,2))*0.3+(LARGE(J54:L54,1)+LARGE(J54:L54,2))*0.15))</f>
         <v>0.79939805825242705</v>
       </c>
     </row>
@@ -4260,7 +4288,7 @@
         <v>0.69</v>
       </c>
       <c r="M60" s="8">
-        <f t="shared" ref="M60" si="20">(((LARGE(D60:F60,1)+LARGE(D60:F60,2))*0.05+(LARGE(G60:I60,1)+LARGE(G60:I60,2))*0.3+(LARGE(J60:L60,1)+LARGE(J60:L60,2))*0.15))</f>
+        <f t="shared" ref="M60" si="22">(((LARGE(D60:F60,1)+LARGE(D60:F60,2))*0.05+(LARGE(G60:I60,1)+LARGE(G60:I60,2))*0.3+(LARGE(J60:L60,1)+LARGE(J60:L60,2))*0.15))</f>
         <v>0.80499999999999994</v>
       </c>
     </row>
@@ -4302,7 +4330,7 @@
         <v>0.46</v>
       </c>
       <c r="M61" s="8">
-        <f t="shared" ref="M61:M62" si="21">(((LARGE(D61:F61,1)+LARGE(D61:F61,2))*0.05+(LARGE(G61:I61,1)+LARGE(G61:I61,2))*0.3+(LARGE(J61:L61,1)+LARGE(J61:L61,2))*0.15))</f>
+        <f t="shared" ref="M61:M62" si="23">(((LARGE(D61:F61,1)+LARGE(D61:F61,2))*0.05+(LARGE(G61:I61,1)+LARGE(G61:I61,2))*0.3+(LARGE(J61:L61,1)+LARGE(J61:L61,2))*0.15))</f>
         <v>0.67800000000000005</v>
       </c>
     </row>
@@ -4344,7 +4372,7 @@
         <v>0.51</v>
       </c>
       <c r="M62" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.71350000000000002</v>
       </c>
     </row>
@@ -4421,7 +4449,7 @@
         <v>0.69</v>
       </c>
       <c r="M64" s="8">
-        <f t="shared" ref="M64:M65" si="22">(((LARGE(D64:F64,1)+LARGE(D64:F64,2))*0.05+(LARGE(G64:I64,1)+LARGE(G64:I64,2))*0.3+(LARGE(J64:L64,1)+LARGE(J64:L64,2))*0.15))</f>
+        <f t="shared" ref="M64:M65" si="24">(((LARGE(D64:F64,1)+LARGE(D64:F64,2))*0.05+(LARGE(G64:I64,1)+LARGE(G64:I64,2))*0.3+(LARGE(J64:L64,1)+LARGE(J64:L64,2))*0.15))</f>
         <v>0.8680000000000001</v>
       </c>
     </row>
@@ -4463,7 +4491,7 @@
         <v>0.51</v>
       </c>
       <c r="M65" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.64000000000000012</v>
       </c>
     </row>
@@ -4715,7 +4743,7 @@
         <v>0.81</v>
       </c>
       <c r="M72" s="8">
-        <f t="shared" ref="M72:M73" si="23">(((LARGE(D72:F72,1)+LARGE(D72:F72,2))*0.05+(LARGE(G72:I72,1)+LARGE(G72:I72,2))*0.3+(LARGE(J72:L72,1)+LARGE(J72:L72,2))*0.15))</f>
+        <f t="shared" ref="M72:M73" si="25">(((LARGE(D72:F72,1)+LARGE(D72:F72,2))*0.05+(LARGE(G72:I72,1)+LARGE(G72:I72,2))*0.3+(LARGE(J72:L72,1)+LARGE(J72:L72,2))*0.15))</f>
         <v>0.69199999999999995</v>
       </c>
     </row>
@@ -4757,7 +4785,7 @@
         <v>0.62</v>
       </c>
       <c r="M73" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.62200000000000011</v>
       </c>
     </row>
@@ -5006,7 +5034,7 @@
         <v>0.69</v>
       </c>
       <c r="M80" s="8">
-        <f t="shared" ref="M80" si="24">(((LARGE(D80:F80,1)+LARGE(D80:F80,2))*0.05+(LARGE(G80:I80,1)+LARGE(G80:I80,2))*0.3+(LARGE(J80:L80,1)+LARGE(J80:L80,2))*0.15))</f>
+        <f t="shared" ref="M80" si="26">(((LARGE(D80:F80,1)+LARGE(D80:F80,2))*0.05+(LARGE(G80:I80,1)+LARGE(G80:I80,2))*0.3+(LARGE(J80:L80,1)+LARGE(J80:L80,2))*0.15))</f>
         <v>0.80399999999999994</v>
       </c>
     </row>
@@ -5153,7 +5181,7 @@
         <v>0.62</v>
       </c>
       <c r="M84" s="8">
-        <f t="shared" ref="M84" si="25">(((LARGE(D84:F84,1)+LARGE(D84:F84,2))*0.05+(LARGE(G84:I84,1)+LARGE(G84:I84,2))*0.3+(LARGE(J84:L84,1)+LARGE(J84:L84,2))*0.15))</f>
+        <f t="shared" ref="M84" si="27">(((LARGE(D84:F84,1)+LARGE(D84:F84,2))*0.05+(LARGE(G84:I84,1)+LARGE(G84:I84,2))*0.3+(LARGE(J84:L84,1)+LARGE(J84:L84,2))*0.15))</f>
         <v>0.45950000000000002</v>
       </c>
     </row>
@@ -5230,7 +5258,7 @@
         <v>0.82</v>
       </c>
       <c r="M86" s="8">
-        <f t="shared" ref="M86" si="26">(((LARGE(D86:F86,1)+LARGE(D86:F86,2))*0.05+(LARGE(G86:I86,1)+LARGE(G86:I86,2))*0.3+(LARGE(J86:L86,1)+LARGE(J86:L86,2))*0.15))</f>
+        <f t="shared" ref="M86" si="28">(((LARGE(D86:F86,1)+LARGE(D86:F86,2))*0.05+(LARGE(G86:I86,1)+LARGE(G86:I86,2))*0.3+(LARGE(J86:L86,1)+LARGE(J86:L86,2))*0.15))</f>
         <v>0.71349999999999991</v>
       </c>
     </row>
@@ -5447,7 +5475,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="M92" s="8">
-        <f t="shared" ref="M92:M93" si="27">(((LARGE(D92:F92,1)+LARGE(D92:F92,2))*0.05+(LARGE(G92:I92,1)+LARGE(G92:I92,2))*0.3+(LARGE(J92:L92,1)+LARGE(J92:L92,2))*0.15))</f>
+        <f t="shared" ref="M92:M93" si="29">(((LARGE(D92:F92,1)+LARGE(D92:F92,2))*0.05+(LARGE(G92:I92,1)+LARGE(G92:I92,2))*0.3+(LARGE(J92:L92,1)+LARGE(J92:L92,2))*0.15))</f>
         <v>0.628</v>
       </c>
     </row>
@@ -5489,7 +5517,7 @@
         <v>0.81</v>
       </c>
       <c r="M93" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.66549999999999998</v>
       </c>
     </row>
@@ -5566,7 +5594,7 @@
         <v>0.73</v>
       </c>
       <c r="M95" s="8">
-        <f t="shared" ref="M95" si="28">(((LARGE(D95:F95,1)+LARGE(D95:F95,2))*0.05+(LARGE(G95:I95,1)+LARGE(G95:I95,2))*0.3+(LARGE(J95:L95,1)+LARGE(J95:L95,2))*0.15))</f>
+        <f t="shared" ref="M95" si="30">(((LARGE(D95:F95,1)+LARGE(D95:F95,2))*0.05+(LARGE(G95:I95,1)+LARGE(G95:I95,2))*0.3+(LARGE(J95:L95,1)+LARGE(J95:L95,2))*0.15))</f>
         <v>0.76200000000000001</v>
       </c>
     </row>
@@ -5713,7 +5741,7 @@
         <v>0.82</v>
       </c>
       <c r="M99" s="8">
-        <f t="shared" ref="M99:M100" si="29">(((LARGE(D99:F99,1)+LARGE(D99:F99,2))*0.05+(LARGE(G99:I99,1)+LARGE(G99:I99,2))*0.3+(LARGE(J99:L99,1)+LARGE(J99:L99,2))*0.15))</f>
+        <f t="shared" ref="M99:M100" si="31">(((LARGE(D99:F99,1)+LARGE(D99:F99,2))*0.05+(LARGE(G99:I99,1)+LARGE(G99:I99,2))*0.3+(LARGE(J99:L99,1)+LARGE(J99:L99,2))*0.15))</f>
         <v>0.7599999999999999</v>
       </c>
     </row>
@@ -5755,7 +5783,7 @@
         <v>0.69</v>
       </c>
       <c r="M100" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.69249999999999989</v>
       </c>
     </row>
@@ -6042,7 +6070,7 @@
         <v>0.46</v>
       </c>
       <c r="M108" s="8">
-        <f t="shared" ref="M108" si="30">(((LARGE(D108:F108,1)+LARGE(D108:F108,2))*0.05+(LARGE(G108:I108,1)+LARGE(G108:I108,2))*0.3+(LARGE(J108:L108,1)+LARGE(J108:L108,2))*0.15))</f>
+        <f t="shared" ref="M108" si="32">(((LARGE(D108:F108,1)+LARGE(D108:F108,2))*0.05+(LARGE(G108:I108,1)+LARGE(G108:I108,2))*0.3+(LARGE(J108:L108,1)+LARGE(J108:L108,2))*0.15))</f>
         <v>0.64200000000000002</v>
       </c>
     </row>
@@ -6215,6 +6243,13 @@
       <c r="K113">
         <v>0.56000000000000005</v>
       </c>
+      <c r="L113">
+        <v>0.47</v>
+      </c>
+      <c r="M113" s="8">
+        <f t="shared" ref="M113" si="33">(((LARGE(D113:F113,1)+LARGE(D113:F113,2))*0.05+(LARGE(G113:I113,1)+LARGE(G113:I113,2))*0.3+(LARGE(J113:L113,1)+LARGE(J113:L113,2))*0.15))</f>
+        <v>0.68149999999999999</v>
+      </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
@@ -6289,7 +6324,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="M115" s="8">
-        <f t="shared" ref="M115" si="31">(((LARGE(D115:F115,1)+LARGE(D115:F115,2))*0.05+(LARGE(G115:I115,1)+LARGE(G115:I115,2))*0.3+(LARGE(J115:L115,1)+LARGE(J115:L115,2))*0.15))</f>
+        <f t="shared" ref="M115" si="34">(((LARGE(D115:F115,1)+LARGE(D115:F115,2))*0.05+(LARGE(G115:I115,1)+LARGE(G115:I115,2))*0.3+(LARGE(J115:L115,1)+LARGE(J115:L115,2))*0.15))</f>
         <v>0.67749999999999999</v>
       </c>
     </row>
@@ -6366,7 +6401,7 @@
         <v>0.64</v>
       </c>
       <c r="M117" s="8">
-        <f t="shared" ref="M117" si="32">(((LARGE(D117:F117,1)+LARGE(D117:F117,2))*0.05+(LARGE(G117:I117,1)+LARGE(G117:I117,2))*0.3+(LARGE(J117:L117,1)+LARGE(J117:L117,2))*0.15))</f>
+        <f t="shared" ref="M117" si="35">(((LARGE(D117:F117,1)+LARGE(D117:F117,2))*0.05+(LARGE(G117:I117,1)+LARGE(G117:I117,2))*0.3+(LARGE(J117:L117,1)+LARGE(J117:L117,2))*0.15))</f>
         <v>0.61150000000000004</v>
       </c>
     </row>
@@ -6443,7 +6478,7 @@
         <v>0.78</v>
       </c>
       <c r="M119" s="8">
-        <f t="shared" ref="M119:M120" si="33">(((LARGE(D119:F119,1)+LARGE(D119:F119,2))*0.05+(LARGE(G119:I119,1)+LARGE(G119:I119,2))*0.3+(LARGE(J119:L119,1)+LARGE(J119:L119,2))*0.15))</f>
+        <f t="shared" ref="M119:M120" si="36">(((LARGE(D119:F119,1)+LARGE(D119:F119,2))*0.05+(LARGE(G119:I119,1)+LARGE(G119:I119,2))*0.3+(LARGE(J119:L119,1)+LARGE(J119:L119,2))*0.15))</f>
         <v>0.61550000000000005</v>
       </c>
     </row>
@@ -6485,7 +6520,7 @@
         <v>0.78</v>
       </c>
       <c r="M120" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.64949999999999997</v>
       </c>
     </row>
@@ -6772,7 +6807,7 @@
         <v>0.5</v>
       </c>
       <c r="M128" s="8">
-        <f t="shared" ref="M128" si="34">(((LARGE(D128:F128,1)+LARGE(D128:F128,2))*0.05+(LARGE(G128:I128,1)+LARGE(G128:I128,2))*0.3+(LARGE(J128:L128,1)+LARGE(J128:L128,2))*0.15))</f>
+        <f t="shared" ref="M128" si="37">(((LARGE(D128:F128,1)+LARGE(D128:F128,2))*0.05+(LARGE(G128:I128,1)+LARGE(G128:I128,2))*0.3+(LARGE(J128:L128,1)+LARGE(J128:L128,2))*0.15))</f>
         <v>0.76649999999999996</v>
       </c>
     </row>
@@ -6915,6 +6950,13 @@
       <c r="K132">
         <v>0.67</v>
       </c>
+      <c r="L132">
+        <v>0.66</v>
+      </c>
+      <c r="M132" s="8">
+        <f t="shared" ref="M132" si="38">(((LARGE(D132:F132,1)+LARGE(D132:F132,2))*0.05+(LARGE(G132:I132,1)+LARGE(G132:I132,2))*0.3+(LARGE(J132:L132,1)+LARGE(J132:L132,2))*0.15))</f>
+        <v>0.63300000000000001</v>
+      </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
@@ -6954,7 +6996,7 @@
         <v>0.64</v>
       </c>
       <c r="M133" s="8">
-        <f t="shared" ref="M133" si="35">(((LARGE(D133:F133,1)+LARGE(D133:F133,2))*0.05+(LARGE(G133:I133,1)+LARGE(G133:I133,2))*0.3+(LARGE(J133:L133,1)+LARGE(J133:L133,2))*0.15))</f>
+        <f t="shared" ref="M133" si="39">(((LARGE(D133:F133,1)+LARGE(D133:F133,2))*0.05+(LARGE(G133:I133,1)+LARGE(G133:I133,2))*0.3+(LARGE(J133:L133,1)+LARGE(J133:L133,2))*0.15))</f>
         <v>0.74199999999999999</v>
       </c>
     </row>
@@ -7167,6 +7209,13 @@
       <c r="K139">
         <v>0.56000000000000005</v>
       </c>
+      <c r="L139">
+        <v>0.47</v>
+      </c>
+      <c r="M139" s="8">
+        <f t="shared" ref="M139" si="40">(((LARGE(D139:F139,1)+LARGE(D139:F139,2))*0.05+(LARGE(G139:I139,1)+LARGE(G139:I139,2))*0.3+(LARGE(J139:L139,1)+LARGE(J139:L139,2))*0.15))</f>
+        <v>0.71450000000000002</v>
+      </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
@@ -7202,6 +7251,13 @@
       <c r="K140">
         <v>0.52</v>
       </c>
+      <c r="L140">
+        <v>0.66</v>
+      </c>
+      <c r="M140" s="8">
+        <f t="shared" ref="M140" si="41">(((LARGE(D140:F140,1)+LARGE(D140:F140,2))*0.05+(LARGE(G140:I140,1)+LARGE(G140:I140,2))*0.3+(LARGE(J140:L140,1)+LARGE(J140:L140,2))*0.15))</f>
+        <v>0.67999999999999994</v>
+      </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
@@ -7311,7 +7367,7 @@
         <v>0.73</v>
       </c>
       <c r="M143" s="8">
-        <f t="shared" ref="M143" si="36">(((LARGE(D143:F143,1)+LARGE(D143:F143,2))*0.05+(LARGE(G143:I143,1)+LARGE(G143:I143,2))*0.3+(LARGE(J143:L143,1)+LARGE(J143:L143,2))*0.15))</f>
+        <f t="shared" ref="M143" si="42">(((LARGE(D143:F143,1)+LARGE(D143:F143,2))*0.05+(LARGE(G143:I143,1)+LARGE(G143:I143,2))*0.3+(LARGE(J143:L143,1)+LARGE(J143:L143,2))*0.15))</f>
         <v>0.6925</v>
       </c>
     </row>
@@ -7388,7 +7444,7 @@
         <v>0.68</v>
       </c>
       <c r="M145" s="8">
-        <f t="shared" ref="M145:M146" si="37">(((LARGE(D145:F145,1)+LARGE(D145:F145,2))*0.05+(LARGE(G145:I145,1)+LARGE(G145:I145,2))*0.3+(LARGE(J145:L145,1)+LARGE(J145:L145,2))*0.15))</f>
+        <f t="shared" ref="M145:M146" si="43">(((LARGE(D145:F145,1)+LARGE(D145:F145,2))*0.05+(LARGE(G145:I145,1)+LARGE(G145:I145,2))*0.3+(LARGE(J145:L145,1)+LARGE(J145:L145,2))*0.15))</f>
         <v>0.76200000000000001</v>
       </c>
     </row>
@@ -7430,7 +7486,7 @@
         <v>0.72</v>
       </c>
       <c r="M146" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>0.77549999999999997</v>
       </c>
     </row>
@@ -7647,7 +7703,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="M152" s="8">
-        <f t="shared" ref="M152" si="38">(((LARGE(D152:F152,1)+LARGE(D152:F152,2))*0.05+(LARGE(G152:I152,1)+LARGE(G152:I152,2))*0.3+(LARGE(J152:L152,1)+LARGE(J152:L152,2))*0.15))</f>
+        <f t="shared" ref="M152" si="44">(((LARGE(D152:F152,1)+LARGE(D152:F152,2))*0.05+(LARGE(G152:I152,1)+LARGE(G152:I152,2))*0.3+(LARGE(J152:L152,1)+LARGE(J152:L152,2))*0.15))</f>
         <v>0.624</v>
       </c>
     </row>
@@ -7934,7 +7990,7 @@
         <v>0.72</v>
       </c>
       <c r="M160" s="8">
-        <f t="shared" ref="M160" si="39">(((LARGE(D160:F160,1)+LARGE(D160:F160,2))*0.05+(LARGE(G160:I160,1)+LARGE(G160:I160,2))*0.3+(LARGE(J160:L160,1)+LARGE(J160:L160,2))*0.15))</f>
+        <f t="shared" ref="M160" si="45">(((LARGE(D160:F160,1)+LARGE(D160:F160,2))*0.05+(LARGE(G160:I160,1)+LARGE(G160:I160,2))*0.3+(LARGE(J160:L160,1)+LARGE(J160:L160,2))*0.15))</f>
         <v>0.66749999999999998</v>
       </c>
     </row>
@@ -8011,7 +8067,7 @@
         <v>0.6</v>
       </c>
       <c r="M162" s="8">
-        <f t="shared" ref="M162" si="40">(((LARGE(D162:F162,1)+LARGE(D162:F162,2))*0.05+(LARGE(G162:I162,1)+LARGE(G162:I162,2))*0.3+(LARGE(J162:L162,1)+LARGE(J162:L162,2))*0.15))</f>
+        <f t="shared" ref="M162" si="46">(((LARGE(D162:F162,1)+LARGE(D162:F162,2))*0.05+(LARGE(G162:I162,1)+LARGE(G162:I162,2))*0.3+(LARGE(J162:L162,1)+LARGE(J162:L162,2))*0.15))</f>
         <v>0.68700000000000006</v>
       </c>
     </row>
@@ -8088,7 +8144,7 @@
         <v>0.7</v>
       </c>
       <c r="M164" s="8">
-        <f t="shared" ref="M164" si="41">(((LARGE(D164:F164,1)+LARGE(D164:F164,2))*0.05+(LARGE(G164:I164,1)+LARGE(G164:I164,2))*0.3+(LARGE(J164:L164,1)+LARGE(J164:L164,2))*0.15))</f>
+        <f t="shared" ref="M164" si="47">(((LARGE(D164:F164,1)+LARGE(D164:F164,2))*0.05+(LARGE(G164:I164,1)+LARGE(G164:I164,2))*0.3+(LARGE(J164:L164,1)+LARGE(J164:L164,2))*0.15))</f>
         <v>0.67099999999999993</v>
       </c>
     </row>
@@ -8165,7 +8221,7 @@
         <v>0.65</v>
       </c>
       <c r="M166" s="8">
-        <f t="shared" ref="M166:M167" si="42">(((LARGE(D166:F166,1)+LARGE(D166:F166,2))*0.05+(LARGE(G166:I166,1)+LARGE(G166:I166,2))*0.3+(LARGE(J166:L166,1)+LARGE(J166:L166,2))*0.15))</f>
+        <f t="shared" ref="M166:M167" si="48">(((LARGE(D166:F166,1)+LARGE(D166:F166,2))*0.05+(LARGE(G166:I166,1)+LARGE(G166:I166,2))*0.3+(LARGE(J166:L166,1)+LARGE(J166:L166,2))*0.15))</f>
         <v>0.72399999999999998</v>
       </c>
     </row>
@@ -8207,7 +8263,7 @@
         <v>0.93</v>
       </c>
       <c r="M167" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>0.86950000000000005</v>
       </c>
     </row>
@@ -8284,7 +8340,7 @@
         <v>0.51</v>
       </c>
       <c r="M169" s="8">
-        <f t="shared" ref="M169" si="43">(((LARGE(D169:F169,1)+LARGE(D169:F169,2))*0.05+(LARGE(G169:I169,1)+LARGE(G169:I169,2))*0.3+(LARGE(J169:L169,1)+LARGE(J169:L169,2))*0.15))</f>
+        <f t="shared" ref="M169" si="49">(((LARGE(D169:F169,1)+LARGE(D169:F169,2))*0.05+(LARGE(G169:I169,1)+LARGE(G169:I169,2))*0.3+(LARGE(J169:L169,1)+LARGE(J169:L169,2))*0.15))</f>
         <v>0.6855</v>
       </c>
     </row>
@@ -8396,7 +8452,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="M172" s="8">
-        <f t="shared" ref="M172" si="44">(((LARGE(D172:F172,1)+LARGE(D172:F172,2))*0.05+(LARGE(G172:I172,1)+LARGE(G172:I172,2))*0.3+(LARGE(J172:L172,1)+LARGE(J172:L172,2))*0.15))</f>
+        <f t="shared" ref="M172" si="50">(((LARGE(D172:F172,1)+LARGE(D172:F172,2))*0.05+(LARGE(G172:I172,1)+LARGE(G172:I172,2))*0.3+(LARGE(J172:L172,1)+LARGE(J172:L172,2))*0.15))</f>
         <v>0.61799999999999999</v>
       </c>
     </row>
@@ -8438,7 +8494,7 @@
         <v>0.61</v>
       </c>
       <c r="M173" s="8">
-        <f t="shared" ref="M173" si="45">(((LARGE(D173:F173,1)+LARGE(D173:F173,2))*0.05+(LARGE(G173:I173,1)+LARGE(G173:I173,2))*0.3+(LARGE(J173:L173,1)+LARGE(J173:L173,2))*0.15))</f>
+        <f t="shared" ref="M173" si="51">(((LARGE(D173:F173,1)+LARGE(D173:F173,2))*0.05+(LARGE(G173:I173,1)+LARGE(G173:I173,2))*0.3+(LARGE(J173:L173,1)+LARGE(J173:L173,2))*0.15))</f>
         <v>0.71</v>
       </c>
     </row>
@@ -8690,7 +8746,7 @@
         <v>0.63</v>
       </c>
       <c r="M180" s="8">
-        <f t="shared" ref="M180:M181" si="46">(((LARGE(D180:F180,1)+LARGE(D180:F180,2))*0.05+(LARGE(G180:I180,1)+LARGE(G180:I180,2))*0.3+(LARGE(J180:L180,1)+LARGE(J180:L180,2))*0.15))</f>
+        <f t="shared" ref="M180:M181" si="52">(((LARGE(D180:F180,1)+LARGE(D180:F180,2))*0.05+(LARGE(G180:I180,1)+LARGE(G180:I180,2))*0.3+(LARGE(J180:L180,1)+LARGE(J180:L180,2))*0.15))</f>
         <v>0.68400000000000005</v>
       </c>
     </row>
@@ -8732,7 +8788,7 @@
         <v>0.36</v>
       </c>
       <c r="M181" s="8">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>0.72850000000000004</v>
       </c>
     </row>
@@ -8809,7 +8865,7 @@
         <v>0.51</v>
       </c>
       <c r="M183" s="8">
-        <f t="shared" ref="M183:M185" si="47">(((LARGE(D183:F183,1)+LARGE(D183:F183,2))*0.05+(LARGE(G183:I183,1)+LARGE(G183:I183,2))*0.3+(LARGE(J183:L183,1)+LARGE(J183:L183,2))*0.15))</f>
+        <f t="shared" ref="M183:M185" si="53">(((LARGE(D183:F183,1)+LARGE(D183:F183,2))*0.05+(LARGE(G183:I183,1)+LARGE(G183:I183,2))*0.3+(LARGE(J183:L183,1)+LARGE(J183:L183,2))*0.15))</f>
         <v>0.65900000000000003</v>
       </c>
     </row>
@@ -8886,7 +8942,7 @@
         <v>0.64</v>
       </c>
       <c r="M185" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0.72399999999999998</v>
       </c>
     </row>
@@ -8963,7 +9019,7 @@
         <v>0.61</v>
       </c>
       <c r="M187" s="8">
-        <f t="shared" ref="M187" si="48">(((LARGE(D187:F187,1)+LARGE(D187:F187,2))*0.05+(LARGE(G187:I187,1)+LARGE(G187:I187,2))*0.3+(LARGE(J187:L187,1)+LARGE(J187:L187,2))*0.15))</f>
+        <f t="shared" ref="M187" si="54">(((LARGE(D187:F187,1)+LARGE(D187:F187,2))*0.05+(LARGE(G187:I187,1)+LARGE(G187:I187,2))*0.3+(LARGE(J187:L187,1)+LARGE(J187:L187,2))*0.15))</f>
         <v>0.66149999999999998</v>
       </c>
     </row>
@@ -9040,7 +9096,7 @@
         <v>0.7</v>
       </c>
       <c r="M189" s="8">
-        <f t="shared" ref="M189" si="49">(((LARGE(D189:F189,1)+LARGE(D189:F189,2))*0.05+(LARGE(G189:I189,1)+LARGE(G189:I189,2))*0.3+(LARGE(J189:L189,1)+LARGE(J189:L189,2))*0.15))</f>
+        <f t="shared" ref="M189" si="55">(((LARGE(D189:F189,1)+LARGE(D189:F189,2))*0.05+(LARGE(G189:I189,1)+LARGE(G189:I189,2))*0.3+(LARGE(J189:L189,1)+LARGE(J189:L189,2))*0.15))</f>
         <v>0.48250000000000004</v>
       </c>
     </row>
@@ -9152,7 +9208,7 @@
         <v>0.65</v>
       </c>
       <c r="M192" s="8">
-        <f t="shared" ref="M192" si="50">(((LARGE(D192:F192,1)+LARGE(D192:F192,2))*0.05+(LARGE(G192:I192,1)+LARGE(G192:I192,2))*0.3+(LARGE(J192:L192,1)+LARGE(J192:L192,2))*0.15))</f>
+        <f t="shared" ref="M192" si="56">(((LARGE(D192:F192,1)+LARGE(D192:F192,2))*0.05+(LARGE(G192:I192,1)+LARGE(G192:I192,2))*0.3+(LARGE(J192:L192,1)+LARGE(J192:L192,2))*0.15))</f>
         <v>0.64049999999999996</v>
       </c>
     </row>
@@ -9264,7 +9320,7 @@
         <v>0.78</v>
       </c>
       <c r="M195" s="8">
-        <f t="shared" ref="M195" si="51">(((LARGE(D195:F195,1)+LARGE(D195:F195,2))*0.05+(LARGE(G195:I195,1)+LARGE(G195:I195,2))*0.3+(LARGE(J195:L195,1)+LARGE(J195:L195,2))*0.15))</f>
+        <f t="shared" ref="M195" si="57">(((LARGE(D195:F195,1)+LARGE(D195:F195,2))*0.05+(LARGE(G195:I195,1)+LARGE(G195:I195,2))*0.3+(LARGE(J195:L195,1)+LARGE(J195:L195,2))*0.15))</f>
         <v>0.78700000000000003</v>
       </c>
     </row>
@@ -9341,7 +9397,7 @@
         <v>0.77</v>
       </c>
       <c r="M197" s="8">
-        <f t="shared" ref="M197:M198" si="52">(((LARGE(D197:F197,1)+LARGE(D197:F197,2))*0.05+(LARGE(G197:I197,1)+LARGE(G197:I197,2))*0.3+(LARGE(J197:L197,1)+LARGE(J197:L197,2))*0.15))</f>
+        <f t="shared" ref="M197:M198" si="58">(((LARGE(D197:F197,1)+LARGE(D197:F197,2))*0.05+(LARGE(G197:I197,1)+LARGE(G197:I197,2))*0.3+(LARGE(J197:L197,1)+LARGE(J197:L197,2))*0.15))</f>
         <v>0.73450000000000004</v>
       </c>
     </row>
@@ -9383,7 +9439,7 @@
         <v>0.7</v>
       </c>
       <c r="M198" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.79299999999999993</v>
       </c>
     </row>
@@ -9460,7 +9516,7 @@
         <v>0.87</v>
       </c>
       <c r="M200" s="8">
-        <f t="shared" ref="M200" si="53">(((LARGE(D200:F200,1)+LARGE(D200:F200,2))*0.05+(LARGE(G200:I200,1)+LARGE(G200:I200,2))*0.3+(LARGE(J200:L200,1)+LARGE(J200:L200,2))*0.15))</f>
+        <f t="shared" ref="M200" si="59">(((LARGE(D200:F200,1)+LARGE(D200:F200,2))*0.05+(LARGE(G200:I200,1)+LARGE(G200:I200,2))*0.3+(LARGE(J200:L200,1)+LARGE(J200:L200,2))*0.15))</f>
         <v>0.69500000000000006</v>
       </c>
     </row>
@@ -9537,7 +9593,7 @@
         <v>0.63</v>
       </c>
       <c r="M202" s="8">
-        <f t="shared" ref="M202" si="54">(((LARGE(D202:F202,1)+LARGE(D202:F202,2))*0.05+(LARGE(G202:I202,1)+LARGE(G202:I202,2))*0.3+(LARGE(J202:L202,1)+LARGE(J202:L202,2))*0.15))</f>
+        <f t="shared" ref="M202" si="60">(((LARGE(D202:F202,1)+LARGE(D202:F202,2))*0.05+(LARGE(G202:I202,1)+LARGE(G202:I202,2))*0.3+(LARGE(J202:L202,1)+LARGE(J202:L202,2))*0.15))</f>
         <v>0.59000000000000008</v>
       </c>
     </row>
@@ -9614,7 +9670,7 @@
         <v>0.7</v>
       </c>
       <c r="M204" s="8">
-        <f t="shared" ref="M204" si="55">(((LARGE(D204:F204,1)+LARGE(D204:F204,2))*0.05+(LARGE(G204:I204,1)+LARGE(G204:I204,2))*0.3+(LARGE(J204:L204,1)+LARGE(J204:L204,2))*0.15))</f>
+        <f t="shared" ref="M204" si="61">(((LARGE(D204:F204,1)+LARGE(D204:F204,2))*0.05+(LARGE(G204:I204,1)+LARGE(G204:I204,2))*0.3+(LARGE(J204:L204,1)+LARGE(J204:L204,2))*0.15))</f>
         <v>0.75349999999999995</v>
       </c>
     </row>
@@ -9656,7 +9712,7 @@
         <v>0.6</v>
       </c>
       <c r="M205" s="8">
-        <f t="shared" ref="M205" si="56">(((LARGE(D205:F205,1)+LARGE(D205:F205,2))*0.05+(LARGE(G205:I205,1)+LARGE(G205:I205,2))*0.3+(LARGE(J205:L205,1)+LARGE(J205:L205,2))*0.15))</f>
+        <f t="shared" ref="M205" si="62">(((LARGE(D205:F205,1)+LARGE(D205:F205,2))*0.05+(LARGE(G205:I205,1)+LARGE(G205:I205,2))*0.3+(LARGE(J205:L205,1)+LARGE(J205:L205,2))*0.15))</f>
         <v>0.65349999999999997</v>
       </c>
     </row>
@@ -9733,7 +9789,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="M207" s="8">
-        <f t="shared" ref="M207:M208" si="57">(((LARGE(D207:F207,1)+LARGE(D207:F207,2))*0.05+(LARGE(G207:I207,1)+LARGE(G207:I207,2))*0.3+(LARGE(J207:L207,1)+LARGE(J207:L207,2))*0.15))</f>
+        <f t="shared" ref="M207:M208" si="63">(((LARGE(D207:F207,1)+LARGE(D207:F207,2))*0.05+(LARGE(G207:I207,1)+LARGE(G207:I207,2))*0.3+(LARGE(J207:L207,1)+LARGE(J207:L207,2))*0.15))</f>
         <v>0.74550000000000005</v>
       </c>
     </row>
@@ -9775,7 +9831,7 @@
         <v>0.6</v>
       </c>
       <c r="M208" s="8">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>0.69550000000000012</v>
       </c>
     </row>
@@ -9817,7 +9873,7 @@
         <v>0.68</v>
       </c>
       <c r="M209" s="8">
-        <f t="shared" ref="M209" si="58">(((LARGE(D209:F209,1)+LARGE(D209:F209,2))*0.05+(LARGE(G209:I209,1)+LARGE(G209:I209,2))*0.3+(LARGE(J209:L209,1)+LARGE(J209:L209,2))*0.15))</f>
+        <f t="shared" ref="M209" si="64">(((LARGE(D209:F209,1)+LARGE(D209:F209,2))*0.05+(LARGE(G209:I209,1)+LARGE(G209:I209,2))*0.3+(LARGE(J209:L209,1)+LARGE(J209:L209,2))*0.15))</f>
         <v>0.81850000000000001</v>
       </c>
     </row>
@@ -9929,7 +9985,7 @@
         <v>0.93</v>
       </c>
       <c r="M212" s="8">
-        <f t="shared" ref="M212" si="59">(((LARGE(D212:F212,1)+LARGE(D212:F212,2))*0.05+(LARGE(G212:I212,1)+LARGE(G212:I212,2))*0.3+(LARGE(J212:L212,1)+LARGE(J212:L212,2))*0.15))</f>
+        <f t="shared" ref="M212" si="65">(((LARGE(D212:F212,1)+LARGE(D212:F212,2))*0.05+(LARGE(G212:I212,1)+LARGE(G212:I212,2))*0.3+(LARGE(J212:L212,1)+LARGE(J212:L212,2))*0.15))</f>
         <v>0.70949999999999991</v>
       </c>
     </row>
@@ -9971,7 +10027,7 @@
         <v>0.8</v>
       </c>
       <c r="M213" s="8">
-        <f t="shared" ref="M213" si="60">(((LARGE(D213:F213,1)+LARGE(D213:F213,2))*0.05+(LARGE(G213:I213,1)+LARGE(G213:I213,2))*0.3+(LARGE(J213:L213,1)+LARGE(J213:L213,2))*0.15))</f>
+        <f t="shared" ref="M213" si="66">(((LARGE(D213:F213,1)+LARGE(D213:F213,2))*0.05+(LARGE(G213:I213,1)+LARGE(G213:I213,2))*0.3+(LARGE(J213:L213,1)+LARGE(J213:L213,2))*0.15))</f>
         <v>0.63849999999999996</v>
       </c>
     </row>
@@ -10013,7 +10069,7 @@
         <v>0.54</v>
       </c>
       <c r="M214" s="8">
-        <f t="shared" ref="M214" si="61">(((LARGE(D214:F214,1)+LARGE(D214:F214,2))*0.05+(LARGE(G214:I214,1)+LARGE(G214:I214,2))*0.3+(LARGE(J214:L214,1)+LARGE(J214:L214,2))*0.15))</f>
+        <f t="shared" ref="M214" si="67">(((LARGE(D214:F214,1)+LARGE(D214:F214,2))*0.05+(LARGE(G214:I214,1)+LARGE(G214:I214,2))*0.3+(LARGE(J214:L214,1)+LARGE(J214:L214,2))*0.15))</f>
         <v>0.84700000000000009</v>
       </c>
     </row>
@@ -10125,7 +10181,7 @@
         <v>0.64</v>
       </c>
       <c r="M217" s="8">
-        <f t="shared" ref="M217" si="62">(((LARGE(D217:F217,1)+LARGE(D217:F217,2))*0.05+(LARGE(G217:I217,1)+LARGE(G217:I217,2))*0.3+(LARGE(J217:L217,1)+LARGE(J217:L217,2))*0.15))</f>
+        <f t="shared" ref="M217" si="68">(((LARGE(D217:F217,1)+LARGE(D217:F217,2))*0.05+(LARGE(G217:I217,1)+LARGE(G217:I217,2))*0.3+(LARGE(J217:L217,1)+LARGE(J217:L217,2))*0.15))</f>
         <v>0.77549999999999986</v>
       </c>
     </row>
@@ -10237,7 +10293,7 @@
         <v>0.77</v>
       </c>
       <c r="M220" s="8">
-        <f t="shared" ref="M220" si="63">(((LARGE(D220:F220,1)+LARGE(D220:F220,2))*0.05+(LARGE(G220:I220,1)+LARGE(G220:I220,2))*0.3+(LARGE(J220:L220,1)+LARGE(J220:L220,2))*0.15))</f>
+        <f t="shared" ref="M220" si="69">(((LARGE(D220:F220,1)+LARGE(D220:F220,2))*0.05+(LARGE(G220:I220,1)+LARGE(G220:I220,2))*0.3+(LARGE(J220:L220,1)+LARGE(J220:L220,2))*0.15))</f>
         <v>0.7</v>
       </c>
     </row>
@@ -10314,7 +10370,7 @@
         <v>0.54</v>
       </c>
       <c r="M222" s="8">
-        <f t="shared" ref="M222" si="64">(((LARGE(D222:F222,1)+LARGE(D222:F222,2))*0.05+(LARGE(G222:I222,1)+LARGE(G222:I222,2))*0.3+(LARGE(J222:L222,1)+LARGE(J222:L222,2))*0.15))</f>
+        <f t="shared" ref="M222" si="70">(((LARGE(D222:F222,1)+LARGE(D222:F222,2))*0.05+(LARGE(G222:I222,1)+LARGE(G222:I222,2))*0.3+(LARGE(J222:L222,1)+LARGE(J222:L222,2))*0.15))</f>
         <v>0.72299999999999998</v>
       </c>
     </row>
@@ -10391,7 +10447,7 @@
         <v>0.87</v>
       </c>
       <c r="M224" s="8">
-        <f t="shared" ref="M224" si="65">(((LARGE(D224:F224,1)+LARGE(D224:F224,2))*0.05+(LARGE(G224:I224,1)+LARGE(G224:I224,2))*0.3+(LARGE(J224:L224,1)+LARGE(J224:L224,2))*0.15))</f>
+        <f t="shared" ref="M224" si="71">(((LARGE(D224:F224,1)+LARGE(D224:F224,2))*0.05+(LARGE(G224:I224,1)+LARGE(G224:I224,2))*0.3+(LARGE(J224:L224,1)+LARGE(J224:L224,2))*0.15))</f>
         <v>0.79449999999999998</v>
       </c>
     </row>
@@ -10573,7 +10629,7 @@
         <v>0.78</v>
       </c>
       <c r="M229" s="8">
-        <f t="shared" ref="M229" si="66">(((LARGE(D229:F229,1)+LARGE(D229:F229,2))*0.05+(LARGE(G229:I229,1)+LARGE(G229:I229,2))*0.3+(LARGE(J229:L229,1)+LARGE(J229:L229,2))*0.15))</f>
+        <f t="shared" ref="M229" si="72">(((LARGE(D229:F229,1)+LARGE(D229:F229,2))*0.05+(LARGE(G229:I229,1)+LARGE(G229:I229,2))*0.3+(LARGE(J229:L229,1)+LARGE(J229:L229,2))*0.15))</f>
         <v>0.73449999999999993</v>
       </c>
     </row>

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A6EA96-A73A-0C46-9F7D-6B591C6475FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F3B41D-9324-0D4D-B261-B2FE7D485F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="960" windowWidth="29360" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -1938,8 +1938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="M139" sqref="M139"/>
+    <sheetView tabSelected="1" topLeftCell="A211" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="L228" sqref="L228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -4071,7 +4071,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="M54" s="8">
-        <f t="shared" ref="M54" si="21">(((LARGE(D54:F54,1)+LARGE(D54:F54,2))*0.05+(LARGE(G54:I54,1)+LARGE(G54:I54,2))*0.3+(LARGE(J54:L54,1)+LARGE(J54:L54,2))*0.15))</f>
+        <f t="shared" ref="M54:M55" si="21">(((LARGE(D54:F54,1)+LARGE(D54:F54,2))*0.05+(LARGE(G54:I54,1)+LARGE(G54:I54,2))*0.3+(LARGE(J54:L54,1)+LARGE(J54:L54,2))*0.15))</f>
         <v>0.79939805825242705</v>
       </c>
     </row>
@@ -4109,6 +4109,13 @@
       <c r="K55">
         <v>0.46</v>
       </c>
+      <c r="L55">
+        <v>0.74</v>
+      </c>
+      <c r="M55" s="8">
+        <f t="shared" si="21"/>
+        <v>0.72750000000000004</v>
+      </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -4564,6 +4571,13 @@
       <c r="K67">
         <v>0.33</v>
       </c>
+      <c r="L67">
+        <v>0.66</v>
+      </c>
+      <c r="M67" s="8">
+        <f t="shared" ref="M67" si="25">(((LARGE(D67:F67,1)+LARGE(D67:F67,2))*0.05+(LARGE(G67:I67,1)+LARGE(G67:I67,2))*0.3+(LARGE(J67:L67,1)+LARGE(J67:L67,2))*0.15))</f>
+        <v>0.74649999999999994</v>
+      </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
@@ -4743,7 +4757,7 @@
         <v>0.81</v>
       </c>
       <c r="M72" s="8">
-        <f t="shared" ref="M72:M73" si="25">(((LARGE(D72:F72,1)+LARGE(D72:F72,2))*0.05+(LARGE(G72:I72,1)+LARGE(G72:I72,2))*0.3+(LARGE(J72:L72,1)+LARGE(J72:L72,2))*0.15))</f>
+        <f t="shared" ref="M72:M73" si="26">(((LARGE(D72:F72,1)+LARGE(D72:F72,2))*0.05+(LARGE(G72:I72,1)+LARGE(G72:I72,2))*0.3+(LARGE(J72:L72,1)+LARGE(J72:L72,2))*0.15))</f>
         <v>0.69199999999999995</v>
       </c>
     </row>
@@ -4785,7 +4799,7 @@
         <v>0.62</v>
       </c>
       <c r="M73" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.62200000000000011</v>
       </c>
     </row>
@@ -4893,6 +4907,13 @@
       <c r="K76">
         <v>0.46</v>
       </c>
+      <c r="L76">
+        <v>0.76</v>
+      </c>
+      <c r="M76" s="8">
+        <f t="shared" ref="M76:M77" si="27">(((LARGE(D76:F76,1)+LARGE(D76:F76,2))*0.05+(LARGE(G76:I76,1)+LARGE(G76:I76,2))*0.3+(LARGE(J76:L76,1)+LARGE(J76:L76,2))*0.15))</f>
+        <v>0.77399999999999991</v>
+      </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
@@ -4925,6 +4946,10 @@
       <c r="K77">
         <v>0</v>
       </c>
+      <c r="L77">
+        <v>0.7</v>
+      </c>
+      <c r="M77" s="8"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
@@ -5034,7 +5059,7 @@
         <v>0.69</v>
       </c>
       <c r="M80" s="8">
-        <f t="shared" ref="M80" si="26">(((LARGE(D80:F80,1)+LARGE(D80:F80,2))*0.05+(LARGE(G80:I80,1)+LARGE(G80:I80,2))*0.3+(LARGE(J80:L80,1)+LARGE(J80:L80,2))*0.15))</f>
+        <f t="shared" ref="M80" si="28">(((LARGE(D80:F80,1)+LARGE(D80:F80,2))*0.05+(LARGE(G80:I80,1)+LARGE(G80:I80,2))*0.3+(LARGE(J80:L80,1)+LARGE(J80:L80,2))*0.15))</f>
         <v>0.80399999999999994</v>
       </c>
     </row>
@@ -5181,7 +5206,7 @@
         <v>0.62</v>
       </c>
       <c r="M84" s="8">
-        <f t="shared" ref="M84" si="27">(((LARGE(D84:F84,1)+LARGE(D84:F84,2))*0.05+(LARGE(G84:I84,1)+LARGE(G84:I84,2))*0.3+(LARGE(J84:L84,1)+LARGE(J84:L84,2))*0.15))</f>
+        <f t="shared" ref="M84" si="29">(((LARGE(D84:F84,1)+LARGE(D84:F84,2))*0.05+(LARGE(G84:I84,1)+LARGE(G84:I84,2))*0.3+(LARGE(J84:L84,1)+LARGE(J84:L84,2))*0.15))</f>
         <v>0.45950000000000002</v>
       </c>
     </row>
@@ -5258,7 +5283,7 @@
         <v>0.82</v>
       </c>
       <c r="M86" s="8">
-        <f t="shared" ref="M86" si="28">(((LARGE(D86:F86,1)+LARGE(D86:F86,2))*0.05+(LARGE(G86:I86,1)+LARGE(G86:I86,2))*0.3+(LARGE(J86:L86,1)+LARGE(J86:L86,2))*0.15))</f>
+        <f t="shared" ref="M86" si="30">(((LARGE(D86:F86,1)+LARGE(D86:F86,2))*0.05+(LARGE(G86:I86,1)+LARGE(G86:I86,2))*0.3+(LARGE(J86:L86,1)+LARGE(J86:L86,2))*0.15))</f>
         <v>0.71349999999999991</v>
       </c>
     </row>
@@ -5331,6 +5356,13 @@
       <c r="K88">
         <v>0.54</v>
       </c>
+      <c r="L88">
+        <v>0.69</v>
+      </c>
+      <c r="M88" s="8">
+        <f t="shared" ref="M88" si="31">(((LARGE(D88:F88,1)+LARGE(D88:F88,2))*0.05+(LARGE(G88:I88,1)+LARGE(G88:I88,2))*0.3+(LARGE(J88:L88,1)+LARGE(J88:L88,2))*0.15))</f>
+        <v>0.58799999999999997</v>
+      </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
@@ -5436,6 +5468,13 @@
       <c r="K91">
         <v>0.69</v>
       </c>
+      <c r="L91">
+        <v>0.69</v>
+      </c>
+      <c r="M91" s="8">
+        <f t="shared" ref="M91" si="32">(((LARGE(D91:F91,1)+LARGE(D91:F91,2))*0.05+(LARGE(G91:I91,1)+LARGE(G91:I91,2))*0.3+(LARGE(J91:L91,1)+LARGE(J91:L91,2))*0.15))</f>
+        <v>0.6845</v>
+      </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
@@ -5475,7 +5514,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="M92" s="8">
-        <f t="shared" ref="M92:M93" si="29">(((LARGE(D92:F92,1)+LARGE(D92:F92,2))*0.05+(LARGE(G92:I92,1)+LARGE(G92:I92,2))*0.3+(LARGE(J92:L92,1)+LARGE(J92:L92,2))*0.15))</f>
+        <f t="shared" ref="M92:M93" si="33">(((LARGE(D92:F92,1)+LARGE(D92:F92,2))*0.05+(LARGE(G92:I92,1)+LARGE(G92:I92,2))*0.3+(LARGE(J92:L92,1)+LARGE(J92:L92,2))*0.15))</f>
         <v>0.628</v>
       </c>
     </row>
@@ -5517,7 +5556,7 @@
         <v>0.81</v>
       </c>
       <c r="M93" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.66549999999999998</v>
       </c>
     </row>
@@ -5594,7 +5633,7 @@
         <v>0.73</v>
       </c>
       <c r="M95" s="8">
-        <f t="shared" ref="M95" si="30">(((LARGE(D95:F95,1)+LARGE(D95:F95,2))*0.05+(LARGE(G95:I95,1)+LARGE(G95:I95,2))*0.3+(LARGE(J95:L95,1)+LARGE(J95:L95,2))*0.15))</f>
+        <f t="shared" ref="M95:M96" si="34">(((LARGE(D95:F95,1)+LARGE(D95:F95,2))*0.05+(LARGE(G95:I95,1)+LARGE(G95:I95,2))*0.3+(LARGE(J95:L95,1)+LARGE(J95:L95,2))*0.15))</f>
         <v>0.76200000000000001</v>
       </c>
     </row>
@@ -5632,6 +5671,13 @@
       <c r="K96">
         <v>0.5</v>
       </c>
+      <c r="L96">
+        <v>0.66</v>
+      </c>
+      <c r="M96" s="8">
+        <f t="shared" si="34"/>
+        <v>0.61699999999999999</v>
+      </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
@@ -5741,7 +5787,7 @@
         <v>0.82</v>
       </c>
       <c r="M99" s="8">
-        <f t="shared" ref="M99:M100" si="31">(((LARGE(D99:F99,1)+LARGE(D99:F99,2))*0.05+(LARGE(G99:I99,1)+LARGE(G99:I99,2))*0.3+(LARGE(J99:L99,1)+LARGE(J99:L99,2))*0.15))</f>
+        <f t="shared" ref="M99:M100" si="35">(((LARGE(D99:F99,1)+LARGE(D99:F99,2))*0.05+(LARGE(G99:I99,1)+LARGE(G99:I99,2))*0.3+(LARGE(J99:L99,1)+LARGE(J99:L99,2))*0.15))</f>
         <v>0.7599999999999999</v>
       </c>
     </row>
@@ -5783,7 +5829,7 @@
         <v>0.69</v>
       </c>
       <c r="M100" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0.69249999999999989</v>
       </c>
     </row>
@@ -5996,6 +6042,13 @@
       <c r="K106">
         <v>0.46</v>
       </c>
+      <c r="L106">
+        <v>0.85</v>
+      </c>
+      <c r="M106" s="8">
+        <f t="shared" ref="M106" si="36">(((LARGE(D106:F106,1)+LARGE(D106:F106,2))*0.05+(LARGE(G106:I106,1)+LARGE(G106:I106,2))*0.3+(LARGE(J106:L106,1)+LARGE(J106:L106,2))*0.15))</f>
+        <v>0.72599999999999998</v>
+      </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
@@ -6070,7 +6123,7 @@
         <v>0.46</v>
       </c>
       <c r="M108" s="8">
-        <f t="shared" ref="M108" si="32">(((LARGE(D108:F108,1)+LARGE(D108:F108,2))*0.05+(LARGE(G108:I108,1)+LARGE(G108:I108,2))*0.3+(LARGE(J108:L108,1)+LARGE(J108:L108,2))*0.15))</f>
+        <f t="shared" ref="M108:M109" si="37">(((LARGE(D108:F108,1)+LARGE(D108:F108,2))*0.05+(LARGE(G108:I108,1)+LARGE(G108:I108,2))*0.3+(LARGE(J108:L108,1)+LARGE(J108:L108,2))*0.15))</f>
         <v>0.64200000000000002</v>
       </c>
     </row>
@@ -6108,6 +6161,13 @@
       <c r="K109">
         <v>0.77</v>
       </c>
+      <c r="L109">
+        <v>0.85</v>
+      </c>
+      <c r="M109" s="8">
+        <f t="shared" si="37"/>
+        <v>0.69499999999999995</v>
+      </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
@@ -6143,6 +6203,13 @@
       <c r="K110">
         <v>0.46</v>
       </c>
+      <c r="L110">
+        <v>0.65</v>
+      </c>
+      <c r="M110" s="8">
+        <f t="shared" ref="M110" si="38">(((LARGE(D110:F110,1)+LARGE(D110:F110,2))*0.05+(LARGE(G110:I110,1)+LARGE(G110:I110,2))*0.3+(LARGE(J110:L110,1)+LARGE(J110:L110,2))*0.15))</f>
+        <v>0.70599999999999996</v>
+      </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
@@ -6247,7 +6314,7 @@
         <v>0.47</v>
       </c>
       <c r="M113" s="8">
-        <f t="shared" ref="M113" si="33">(((LARGE(D113:F113,1)+LARGE(D113:F113,2))*0.05+(LARGE(G113:I113,1)+LARGE(G113:I113,2))*0.3+(LARGE(J113:L113,1)+LARGE(J113:L113,2))*0.15))</f>
+        <f t="shared" ref="M113:M114" si="39">(((LARGE(D113:F113,1)+LARGE(D113:F113,2))*0.05+(LARGE(G113:I113,1)+LARGE(G113:I113,2))*0.3+(LARGE(J113:L113,1)+LARGE(J113:L113,2))*0.15))</f>
         <v>0.68149999999999999</v>
       </c>
     </row>
@@ -6285,6 +6352,13 @@
       <c r="K114">
         <v>0.46</v>
       </c>
+      <c r="L114">
+        <v>0.68</v>
+      </c>
+      <c r="M114" s="8">
+        <f t="shared" si="39"/>
+        <v>0.59650000000000003</v>
+      </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
@@ -6324,7 +6398,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="M115" s="8">
-        <f t="shared" ref="M115" si="34">(((LARGE(D115:F115,1)+LARGE(D115:F115,2))*0.05+(LARGE(G115:I115,1)+LARGE(G115:I115,2))*0.3+(LARGE(J115:L115,1)+LARGE(J115:L115,2))*0.15))</f>
+        <f t="shared" ref="M115" si="40">(((LARGE(D115:F115,1)+LARGE(D115:F115,2))*0.05+(LARGE(G115:I115,1)+LARGE(G115:I115,2))*0.3+(LARGE(J115:L115,1)+LARGE(J115:L115,2))*0.15))</f>
         <v>0.67749999999999999</v>
       </c>
     </row>
@@ -6401,7 +6475,7 @@
         <v>0.64</v>
       </c>
       <c r="M117" s="8">
-        <f t="shared" ref="M117" si="35">(((LARGE(D117:F117,1)+LARGE(D117:F117,2))*0.05+(LARGE(G117:I117,1)+LARGE(G117:I117,2))*0.3+(LARGE(J117:L117,1)+LARGE(J117:L117,2))*0.15))</f>
+        <f t="shared" ref="M117" si="41">(((LARGE(D117:F117,1)+LARGE(D117:F117,2))*0.05+(LARGE(G117:I117,1)+LARGE(G117:I117,2))*0.3+(LARGE(J117:L117,1)+LARGE(J117:L117,2))*0.15))</f>
         <v>0.61150000000000004</v>
       </c>
     </row>
@@ -6478,7 +6552,7 @@
         <v>0.78</v>
       </c>
       <c r="M119" s="8">
-        <f t="shared" ref="M119:M120" si="36">(((LARGE(D119:F119,1)+LARGE(D119:F119,2))*0.05+(LARGE(G119:I119,1)+LARGE(G119:I119,2))*0.3+(LARGE(J119:L119,1)+LARGE(J119:L119,2))*0.15))</f>
+        <f t="shared" ref="M119:M120" si="42">(((LARGE(D119:F119,1)+LARGE(D119:F119,2))*0.05+(LARGE(G119:I119,1)+LARGE(G119:I119,2))*0.3+(LARGE(J119:L119,1)+LARGE(J119:L119,2))*0.15))</f>
         <v>0.61550000000000005</v>
       </c>
     </row>
@@ -6520,7 +6594,7 @@
         <v>0.78</v>
       </c>
       <c r="M120" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>0.64949999999999997</v>
       </c>
     </row>
@@ -6807,7 +6881,7 @@
         <v>0.5</v>
       </c>
       <c r="M128" s="8">
-        <f t="shared" ref="M128" si="37">(((LARGE(D128:F128,1)+LARGE(D128:F128,2))*0.05+(LARGE(G128:I128,1)+LARGE(G128:I128,2))*0.3+(LARGE(J128:L128,1)+LARGE(J128:L128,2))*0.15))</f>
+        <f t="shared" ref="M128" si="43">(((LARGE(D128:F128,1)+LARGE(D128:F128,2))*0.05+(LARGE(G128:I128,1)+LARGE(G128:I128,2))*0.3+(LARGE(J128:L128,1)+LARGE(J128:L128,2))*0.15))</f>
         <v>0.76649999999999996</v>
       </c>
     </row>
@@ -6954,7 +7028,7 @@
         <v>0.66</v>
       </c>
       <c r="M132" s="8">
-        <f t="shared" ref="M132" si="38">(((LARGE(D132:F132,1)+LARGE(D132:F132,2))*0.05+(LARGE(G132:I132,1)+LARGE(G132:I132,2))*0.3+(LARGE(J132:L132,1)+LARGE(J132:L132,2))*0.15))</f>
+        <f t="shared" ref="M132" si="44">(((LARGE(D132:F132,1)+LARGE(D132:F132,2))*0.05+(LARGE(G132:I132,1)+LARGE(G132:I132,2))*0.3+(LARGE(J132:L132,1)+LARGE(J132:L132,2))*0.15))</f>
         <v>0.63300000000000001</v>
       </c>
     </row>
@@ -6996,7 +7070,7 @@
         <v>0.64</v>
       </c>
       <c r="M133" s="8">
-        <f t="shared" ref="M133" si="39">(((LARGE(D133:F133,1)+LARGE(D133:F133,2))*0.05+(LARGE(G133:I133,1)+LARGE(G133:I133,2))*0.3+(LARGE(J133:L133,1)+LARGE(J133:L133,2))*0.15))</f>
+        <f t="shared" ref="M133" si="45">(((LARGE(D133:F133,1)+LARGE(D133:F133,2))*0.05+(LARGE(G133:I133,1)+LARGE(G133:I133,2))*0.3+(LARGE(J133:L133,1)+LARGE(J133:L133,2))*0.15))</f>
         <v>0.74199999999999999</v>
       </c>
     </row>
@@ -7213,7 +7287,7 @@
         <v>0.47</v>
       </c>
       <c r="M139" s="8">
-        <f t="shared" ref="M139" si="40">(((LARGE(D139:F139,1)+LARGE(D139:F139,2))*0.05+(LARGE(G139:I139,1)+LARGE(G139:I139,2))*0.3+(LARGE(J139:L139,1)+LARGE(J139:L139,2))*0.15))</f>
+        <f t="shared" ref="M139" si="46">(((LARGE(D139:F139,1)+LARGE(D139:F139,2))*0.05+(LARGE(G139:I139,1)+LARGE(G139:I139,2))*0.3+(LARGE(J139:L139,1)+LARGE(J139:L139,2))*0.15))</f>
         <v>0.71450000000000002</v>
       </c>
     </row>
@@ -7255,7 +7329,7 @@
         <v>0.66</v>
       </c>
       <c r="M140" s="8">
-        <f t="shared" ref="M140" si="41">(((LARGE(D140:F140,1)+LARGE(D140:F140,2))*0.05+(LARGE(G140:I140,1)+LARGE(G140:I140,2))*0.3+(LARGE(J140:L140,1)+LARGE(J140:L140,2))*0.15))</f>
+        <f t="shared" ref="M140" si="47">(((LARGE(D140:F140,1)+LARGE(D140:F140,2))*0.05+(LARGE(G140:I140,1)+LARGE(G140:I140,2))*0.3+(LARGE(J140:L140,1)+LARGE(J140:L140,2))*0.15))</f>
         <v>0.67999999999999994</v>
       </c>
     </row>
@@ -7367,7 +7441,7 @@
         <v>0.73</v>
       </c>
       <c r="M143" s="8">
-        <f t="shared" ref="M143" si="42">(((LARGE(D143:F143,1)+LARGE(D143:F143,2))*0.05+(LARGE(G143:I143,1)+LARGE(G143:I143,2))*0.3+(LARGE(J143:L143,1)+LARGE(J143:L143,2))*0.15))</f>
+        <f t="shared" ref="M143" si="48">(((LARGE(D143:F143,1)+LARGE(D143:F143,2))*0.05+(LARGE(G143:I143,1)+LARGE(G143:I143,2))*0.3+(LARGE(J143:L143,1)+LARGE(J143:L143,2))*0.15))</f>
         <v>0.6925</v>
       </c>
     </row>
@@ -7444,7 +7518,7 @@
         <v>0.68</v>
       </c>
       <c r="M145" s="8">
-        <f t="shared" ref="M145:M146" si="43">(((LARGE(D145:F145,1)+LARGE(D145:F145,2))*0.05+(LARGE(G145:I145,1)+LARGE(G145:I145,2))*0.3+(LARGE(J145:L145,1)+LARGE(J145:L145,2))*0.15))</f>
+        <f t="shared" ref="M145:M146" si="49">(((LARGE(D145:F145,1)+LARGE(D145:F145,2))*0.05+(LARGE(G145:I145,1)+LARGE(G145:I145,2))*0.3+(LARGE(J145:L145,1)+LARGE(J145:L145,2))*0.15))</f>
         <v>0.76200000000000001</v>
       </c>
     </row>
@@ -7486,7 +7560,7 @@
         <v>0.72</v>
       </c>
       <c r="M146" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0.77549999999999997</v>
       </c>
     </row>
@@ -7594,6 +7668,13 @@
       <c r="K149">
         <v>0.46</v>
       </c>
+      <c r="L149">
+        <v>0.65</v>
+      </c>
+      <c r="M149" s="8">
+        <f t="shared" ref="M149" si="50">(((LARGE(D149:F149,1)+LARGE(D149:F149,2))*0.05+(LARGE(G149:I149,1)+LARGE(G149:I149,2))*0.3+(LARGE(J149:L149,1)+LARGE(J149:L149,2))*0.15))</f>
+        <v>0.58299999999999996</v>
+      </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
@@ -7703,7 +7784,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="M152" s="8">
-        <f t="shared" ref="M152" si="44">(((LARGE(D152:F152,1)+LARGE(D152:F152,2))*0.05+(LARGE(G152:I152,1)+LARGE(G152:I152,2))*0.3+(LARGE(J152:L152,1)+LARGE(J152:L152,2))*0.15))</f>
+        <f t="shared" ref="M152" si="51">(((LARGE(D152:F152,1)+LARGE(D152:F152,2))*0.05+(LARGE(G152:I152,1)+LARGE(G152:I152,2))*0.3+(LARGE(J152:L152,1)+LARGE(J152:L152,2))*0.15))</f>
         <v>0.624</v>
       </c>
     </row>
@@ -7990,7 +8071,7 @@
         <v>0.72</v>
       </c>
       <c r="M160" s="8">
-        <f t="shared" ref="M160" si="45">(((LARGE(D160:F160,1)+LARGE(D160:F160,2))*0.05+(LARGE(G160:I160,1)+LARGE(G160:I160,2))*0.3+(LARGE(J160:L160,1)+LARGE(J160:L160,2))*0.15))</f>
+        <f t="shared" ref="M160" si="52">(((LARGE(D160:F160,1)+LARGE(D160:F160,2))*0.05+(LARGE(G160:I160,1)+LARGE(G160:I160,2))*0.3+(LARGE(J160:L160,1)+LARGE(J160:L160,2))*0.15))</f>
         <v>0.66749999999999998</v>
       </c>
     </row>
@@ -8067,7 +8148,7 @@
         <v>0.6</v>
       </c>
       <c r="M162" s="8">
-        <f t="shared" ref="M162" si="46">(((LARGE(D162:F162,1)+LARGE(D162:F162,2))*0.05+(LARGE(G162:I162,1)+LARGE(G162:I162,2))*0.3+(LARGE(J162:L162,1)+LARGE(J162:L162,2))*0.15))</f>
+        <f t="shared" ref="M162:M163" si="53">(((LARGE(D162:F162,1)+LARGE(D162:F162,2))*0.05+(LARGE(G162:I162,1)+LARGE(G162:I162,2))*0.3+(LARGE(J162:L162,1)+LARGE(J162:L162,2))*0.15))</f>
         <v>0.68700000000000006</v>
       </c>
     </row>
@@ -8105,6 +8186,13 @@
       <c r="K163">
         <v>0.79</v>
       </c>
+      <c r="L163">
+        <v>0.59</v>
+      </c>
+      <c r="M163" s="8">
+        <f t="shared" si="53"/>
+        <v>0.77799999999999991</v>
+      </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
@@ -8144,7 +8232,7 @@
         <v>0.7</v>
       </c>
       <c r="M164" s="8">
-        <f t="shared" ref="M164" si="47">(((LARGE(D164:F164,1)+LARGE(D164:F164,2))*0.05+(LARGE(G164:I164,1)+LARGE(G164:I164,2))*0.3+(LARGE(J164:L164,1)+LARGE(J164:L164,2))*0.15))</f>
+        <f t="shared" ref="M164" si="54">(((LARGE(D164:F164,1)+LARGE(D164:F164,2))*0.05+(LARGE(G164:I164,1)+LARGE(G164:I164,2))*0.3+(LARGE(J164:L164,1)+LARGE(J164:L164,2))*0.15))</f>
         <v>0.67099999999999993</v>
       </c>
     </row>
@@ -8221,7 +8309,7 @@
         <v>0.65</v>
       </c>
       <c r="M166" s="8">
-        <f t="shared" ref="M166:M167" si="48">(((LARGE(D166:F166,1)+LARGE(D166:F166,2))*0.05+(LARGE(G166:I166,1)+LARGE(G166:I166,2))*0.3+(LARGE(J166:L166,1)+LARGE(J166:L166,2))*0.15))</f>
+        <f t="shared" ref="M166:M167" si="55">(((LARGE(D166:F166,1)+LARGE(D166:F166,2))*0.05+(LARGE(G166:I166,1)+LARGE(G166:I166,2))*0.3+(LARGE(J166:L166,1)+LARGE(J166:L166,2))*0.15))</f>
         <v>0.72399999999999998</v>
       </c>
     </row>
@@ -8263,7 +8351,7 @@
         <v>0.93</v>
       </c>
       <c r="M167" s="8">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>0.86950000000000005</v>
       </c>
     </row>
@@ -8340,7 +8428,7 @@
         <v>0.51</v>
       </c>
       <c r="M169" s="8">
-        <f t="shared" ref="M169" si="49">(((LARGE(D169:F169,1)+LARGE(D169:F169,2))*0.05+(LARGE(G169:I169,1)+LARGE(G169:I169,2))*0.3+(LARGE(J169:L169,1)+LARGE(J169:L169,2))*0.15))</f>
+        <f t="shared" ref="M169:M170" si="56">(((LARGE(D169:F169,1)+LARGE(D169:F169,2))*0.05+(LARGE(G169:I169,1)+LARGE(G169:I169,2))*0.3+(LARGE(J169:L169,1)+LARGE(J169:L169,2))*0.15))</f>
         <v>0.6855</v>
       </c>
     </row>
@@ -8378,6 +8466,13 @@
       <c r="K170">
         <v>0.67</v>
       </c>
+      <c r="L170">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M170" s="8">
+        <f t="shared" si="56"/>
+        <v>0.66149999999999998</v>
+      </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
@@ -8413,6 +8508,13 @@
       <c r="K171">
         <v>0.56000000000000005</v>
       </c>
+      <c r="L171">
+        <v>0.69</v>
+      </c>
+      <c r="M171" s="8">
+        <f t="shared" ref="M171" si="57">(((LARGE(D171:F171,1)+LARGE(D171:F171,2))*0.05+(LARGE(G171:I171,1)+LARGE(G171:I171,2))*0.3+(LARGE(J171:L171,1)+LARGE(J171:L171,2))*0.15))</f>
+        <v>0.6855</v>
+      </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
@@ -8452,7 +8554,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="M172" s="8">
-        <f t="shared" ref="M172" si="50">(((LARGE(D172:F172,1)+LARGE(D172:F172,2))*0.05+(LARGE(G172:I172,1)+LARGE(G172:I172,2))*0.3+(LARGE(J172:L172,1)+LARGE(J172:L172,2))*0.15))</f>
+        <f t="shared" ref="M172" si="58">(((LARGE(D172:F172,1)+LARGE(D172:F172,2))*0.05+(LARGE(G172:I172,1)+LARGE(G172:I172,2))*0.3+(LARGE(J172:L172,1)+LARGE(J172:L172,2))*0.15))</f>
         <v>0.61799999999999999</v>
       </c>
     </row>
@@ -8494,7 +8596,7 @@
         <v>0.61</v>
       </c>
       <c r="M173" s="8">
-        <f t="shared" ref="M173" si="51">(((LARGE(D173:F173,1)+LARGE(D173:F173,2))*0.05+(LARGE(G173:I173,1)+LARGE(G173:I173,2))*0.3+(LARGE(J173:L173,1)+LARGE(J173:L173,2))*0.15))</f>
+        <f t="shared" ref="M173" si="59">(((LARGE(D173:F173,1)+LARGE(D173:F173,2))*0.05+(LARGE(G173:I173,1)+LARGE(G173:I173,2))*0.3+(LARGE(J173:L173,1)+LARGE(J173:L173,2))*0.15))</f>
         <v>0.71</v>
       </c>
     </row>
@@ -8567,6 +8669,13 @@
       <c r="K175">
         <v>0.54</v>
       </c>
+      <c r="L175">
+        <v>0.49</v>
+      </c>
+      <c r="M175" s="8">
+        <f t="shared" ref="M175" si="60">(((LARGE(D175:F175,1)+LARGE(D175:F175,2))*0.05+(LARGE(G175:I175,1)+LARGE(G175:I175,2))*0.3+(LARGE(J175:L175,1)+LARGE(J175:L175,2))*0.15))</f>
+        <v>0.70800000000000007</v>
+      </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
@@ -8746,7 +8855,7 @@
         <v>0.63</v>
       </c>
       <c r="M180" s="8">
-        <f t="shared" ref="M180:M181" si="52">(((LARGE(D180:F180,1)+LARGE(D180:F180,2))*0.05+(LARGE(G180:I180,1)+LARGE(G180:I180,2))*0.3+(LARGE(J180:L180,1)+LARGE(J180:L180,2))*0.15))</f>
+        <f t="shared" ref="M180:M181" si="61">(((LARGE(D180:F180,1)+LARGE(D180:F180,2))*0.05+(LARGE(G180:I180,1)+LARGE(G180:I180,2))*0.3+(LARGE(J180:L180,1)+LARGE(J180:L180,2))*0.15))</f>
         <v>0.68400000000000005</v>
       </c>
     </row>
@@ -8788,7 +8897,7 @@
         <v>0.36</v>
       </c>
       <c r="M181" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="61"/>
         <v>0.72850000000000004</v>
       </c>
     </row>
@@ -8865,7 +8974,7 @@
         <v>0.51</v>
       </c>
       <c r="M183" s="8">
-        <f t="shared" ref="M183:M185" si="53">(((LARGE(D183:F183,1)+LARGE(D183:F183,2))*0.05+(LARGE(G183:I183,1)+LARGE(G183:I183,2))*0.3+(LARGE(J183:L183,1)+LARGE(J183:L183,2))*0.15))</f>
+        <f t="shared" ref="M183:M185" si="62">(((LARGE(D183:F183,1)+LARGE(D183:F183,2))*0.05+(LARGE(G183:I183,1)+LARGE(G183:I183,2))*0.3+(LARGE(J183:L183,1)+LARGE(J183:L183,2))*0.15))</f>
         <v>0.65900000000000003</v>
       </c>
     </row>
@@ -8942,7 +9051,7 @@
         <v>0.64</v>
       </c>
       <c r="M185" s="8">
-        <f t="shared" si="53"/>
+        <f t="shared" si="62"/>
         <v>0.72399999999999998</v>
       </c>
     </row>
@@ -9019,7 +9128,7 @@
         <v>0.61</v>
       </c>
       <c r="M187" s="8">
-        <f t="shared" ref="M187" si="54">(((LARGE(D187:F187,1)+LARGE(D187:F187,2))*0.05+(LARGE(G187:I187,1)+LARGE(G187:I187,2))*0.3+(LARGE(J187:L187,1)+LARGE(J187:L187,2))*0.15))</f>
+        <f t="shared" ref="M187:M188" si="63">(((LARGE(D187:F187,1)+LARGE(D187:F187,2))*0.05+(LARGE(G187:I187,1)+LARGE(G187:I187,2))*0.3+(LARGE(J187:L187,1)+LARGE(J187:L187,2))*0.15))</f>
         <v>0.66149999999999998</v>
       </c>
     </row>
@@ -9057,6 +9166,13 @@
       <c r="K188">
         <v>0.54</v>
       </c>
+      <c r="L188">
+        <v>0.49</v>
+      </c>
+      <c r="M188" s="8">
+        <f t="shared" si="63"/>
+        <v>0.63</v>
+      </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
@@ -9096,7 +9212,7 @@
         <v>0.7</v>
       </c>
       <c r="M189" s="8">
-        <f t="shared" ref="M189" si="55">(((LARGE(D189:F189,1)+LARGE(D189:F189,2))*0.05+(LARGE(G189:I189,1)+LARGE(G189:I189,2))*0.3+(LARGE(J189:L189,1)+LARGE(J189:L189,2))*0.15))</f>
+        <f t="shared" ref="M189" si="64">(((LARGE(D189:F189,1)+LARGE(D189:F189,2))*0.05+(LARGE(G189:I189,1)+LARGE(G189:I189,2))*0.3+(LARGE(J189:L189,1)+LARGE(J189:L189,2))*0.15))</f>
         <v>0.48250000000000004</v>
       </c>
     </row>
@@ -9208,7 +9324,7 @@
         <v>0.65</v>
       </c>
       <c r="M192" s="8">
-        <f t="shared" ref="M192" si="56">(((LARGE(D192:F192,1)+LARGE(D192:F192,2))*0.05+(LARGE(G192:I192,1)+LARGE(G192:I192,2))*0.3+(LARGE(J192:L192,1)+LARGE(J192:L192,2))*0.15))</f>
+        <f t="shared" ref="M192" si="65">(((LARGE(D192:F192,1)+LARGE(D192:F192,2))*0.05+(LARGE(G192:I192,1)+LARGE(G192:I192,2))*0.3+(LARGE(J192:L192,1)+LARGE(J192:L192,2))*0.15))</f>
         <v>0.64049999999999996</v>
       </c>
     </row>
@@ -9320,7 +9436,7 @@
         <v>0.78</v>
       </c>
       <c r="M195" s="8">
-        <f t="shared" ref="M195" si="57">(((LARGE(D195:F195,1)+LARGE(D195:F195,2))*0.05+(LARGE(G195:I195,1)+LARGE(G195:I195,2))*0.3+(LARGE(J195:L195,1)+LARGE(J195:L195,2))*0.15))</f>
+        <f t="shared" ref="M195:M196" si="66">(((LARGE(D195:F195,1)+LARGE(D195:F195,2))*0.05+(LARGE(G195:I195,1)+LARGE(G195:I195,2))*0.3+(LARGE(J195:L195,1)+LARGE(J195:L195,2))*0.15))</f>
         <v>0.78700000000000003</v>
       </c>
     </row>
@@ -9358,6 +9474,13 @@
       <c r="K196">
         <v>0.56000000000000005</v>
       </c>
+      <c r="L196">
+        <v>0.69</v>
+      </c>
+      <c r="M196" s="8">
+        <f t="shared" si="66"/>
+        <v>0.67349999999999999</v>
+      </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
@@ -9397,7 +9520,7 @@
         <v>0.77</v>
       </c>
       <c r="M197" s="8">
-        <f t="shared" ref="M197:M198" si="58">(((LARGE(D197:F197,1)+LARGE(D197:F197,2))*0.05+(LARGE(G197:I197,1)+LARGE(G197:I197,2))*0.3+(LARGE(J197:L197,1)+LARGE(J197:L197,2))*0.15))</f>
+        <f t="shared" ref="M197:M199" si="67">(((LARGE(D197:F197,1)+LARGE(D197:F197,2))*0.05+(LARGE(G197:I197,1)+LARGE(G197:I197,2))*0.3+(LARGE(J197:L197,1)+LARGE(J197:L197,2))*0.15))</f>
         <v>0.73450000000000004</v>
       </c>
     </row>
@@ -9439,7 +9562,7 @@
         <v>0.7</v>
       </c>
       <c r="M198" s="8">
-        <f t="shared" si="58"/>
+        <f t="shared" si="67"/>
         <v>0.79299999999999993</v>
       </c>
     </row>
@@ -9477,6 +9600,13 @@
       <c r="K199">
         <v>0.85</v>
       </c>
+      <c r="L199">
+        <v>0.68</v>
+      </c>
+      <c r="M199" s="8">
+        <f t="shared" si="67"/>
+        <v>0.77</v>
+      </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
@@ -9516,7 +9646,7 @@
         <v>0.87</v>
       </c>
       <c r="M200" s="8">
-        <f t="shared" ref="M200" si="59">(((LARGE(D200:F200,1)+LARGE(D200:F200,2))*0.05+(LARGE(G200:I200,1)+LARGE(G200:I200,2))*0.3+(LARGE(J200:L200,1)+LARGE(J200:L200,2))*0.15))</f>
+        <f t="shared" ref="M200:M201" si="68">(((LARGE(D200:F200,1)+LARGE(D200:F200,2))*0.05+(LARGE(G200:I200,1)+LARGE(G200:I200,2))*0.3+(LARGE(J200:L200,1)+LARGE(J200:L200,2))*0.15))</f>
         <v>0.69500000000000006</v>
       </c>
     </row>
@@ -9554,6 +9684,13 @@
       <c r="K201">
         <v>0.56000000000000005</v>
       </c>
+      <c r="L201">
+        <v>0.7</v>
+      </c>
+      <c r="M201" s="8">
+        <f t="shared" si="68"/>
+        <v>0.71550000000000002</v>
+      </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
@@ -9593,7 +9730,7 @@
         <v>0.63</v>
       </c>
       <c r="M202" s="8">
-        <f t="shared" ref="M202" si="60">(((LARGE(D202:F202,1)+LARGE(D202:F202,2))*0.05+(LARGE(G202:I202,1)+LARGE(G202:I202,2))*0.3+(LARGE(J202:L202,1)+LARGE(J202:L202,2))*0.15))</f>
+        <f t="shared" ref="M202" si="69">(((LARGE(D202:F202,1)+LARGE(D202:F202,2))*0.05+(LARGE(G202:I202,1)+LARGE(G202:I202,2))*0.3+(LARGE(J202:L202,1)+LARGE(J202:L202,2))*0.15))</f>
         <v>0.59000000000000008</v>
       </c>
     </row>
@@ -9670,7 +9807,7 @@
         <v>0.7</v>
       </c>
       <c r="M204" s="8">
-        <f t="shared" ref="M204" si="61">(((LARGE(D204:F204,1)+LARGE(D204:F204,2))*0.05+(LARGE(G204:I204,1)+LARGE(G204:I204,2))*0.3+(LARGE(J204:L204,1)+LARGE(J204:L204,2))*0.15))</f>
+        <f t="shared" ref="M204" si="70">(((LARGE(D204:F204,1)+LARGE(D204:F204,2))*0.05+(LARGE(G204:I204,1)+LARGE(G204:I204,2))*0.3+(LARGE(J204:L204,1)+LARGE(J204:L204,2))*0.15))</f>
         <v>0.75349999999999995</v>
       </c>
     </row>
@@ -9712,7 +9849,7 @@
         <v>0.6</v>
       </c>
       <c r="M205" s="8">
-        <f t="shared" ref="M205" si="62">(((LARGE(D205:F205,1)+LARGE(D205:F205,2))*0.05+(LARGE(G205:I205,1)+LARGE(G205:I205,2))*0.3+(LARGE(J205:L205,1)+LARGE(J205:L205,2))*0.15))</f>
+        <f t="shared" ref="M205:M206" si="71">(((LARGE(D205:F205,1)+LARGE(D205:F205,2))*0.05+(LARGE(G205:I205,1)+LARGE(G205:I205,2))*0.3+(LARGE(J205:L205,1)+LARGE(J205:L205,2))*0.15))</f>
         <v>0.65349999999999997</v>
       </c>
     </row>
@@ -9750,6 +9887,13 @@
       <c r="K206">
         <v>0.48</v>
       </c>
+      <c r="L206">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M206" s="8">
+        <f t="shared" si="71"/>
+        <v>0.53800000000000003</v>
+      </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
@@ -9789,7 +9933,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="M207" s="8">
-        <f t="shared" ref="M207:M208" si="63">(((LARGE(D207:F207,1)+LARGE(D207:F207,2))*0.05+(LARGE(G207:I207,1)+LARGE(G207:I207,2))*0.3+(LARGE(J207:L207,1)+LARGE(J207:L207,2))*0.15))</f>
+        <f t="shared" ref="M207:M208" si="72">(((LARGE(D207:F207,1)+LARGE(D207:F207,2))*0.05+(LARGE(G207:I207,1)+LARGE(G207:I207,2))*0.3+(LARGE(J207:L207,1)+LARGE(J207:L207,2))*0.15))</f>
         <v>0.74550000000000005</v>
       </c>
     </row>
@@ -9831,7 +9975,7 @@
         <v>0.6</v>
       </c>
       <c r="M208" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v>0.69550000000000012</v>
       </c>
     </row>
@@ -9873,7 +10017,7 @@
         <v>0.68</v>
       </c>
       <c r="M209" s="8">
-        <f t="shared" ref="M209" si="64">(((LARGE(D209:F209,1)+LARGE(D209:F209,2))*0.05+(LARGE(G209:I209,1)+LARGE(G209:I209,2))*0.3+(LARGE(J209:L209,1)+LARGE(J209:L209,2))*0.15))</f>
+        <f t="shared" ref="M209:M210" si="73">(((LARGE(D209:F209,1)+LARGE(D209:F209,2))*0.05+(LARGE(G209:I209,1)+LARGE(G209:I209,2))*0.3+(LARGE(J209:L209,1)+LARGE(J209:L209,2))*0.15))</f>
         <v>0.81850000000000001</v>
       </c>
     </row>
@@ -9911,6 +10055,13 @@
       <c r="K210">
         <v>0.79</v>
       </c>
+      <c r="L210">
+        <v>0.59</v>
+      </c>
+      <c r="M210" s="8">
+        <f t="shared" si="73"/>
+        <v>0.75800000000000001</v>
+      </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
@@ -9985,7 +10136,7 @@
         <v>0.93</v>
       </c>
       <c r="M212" s="8">
-        <f t="shared" ref="M212" si="65">(((LARGE(D212:F212,1)+LARGE(D212:F212,2))*0.05+(LARGE(G212:I212,1)+LARGE(G212:I212,2))*0.3+(LARGE(J212:L212,1)+LARGE(J212:L212,2))*0.15))</f>
+        <f t="shared" ref="M212" si="74">(((LARGE(D212:F212,1)+LARGE(D212:F212,2))*0.05+(LARGE(G212:I212,1)+LARGE(G212:I212,2))*0.3+(LARGE(J212:L212,1)+LARGE(J212:L212,2))*0.15))</f>
         <v>0.70949999999999991</v>
       </c>
     </row>
@@ -10027,7 +10178,7 @@
         <v>0.8</v>
       </c>
       <c r="M213" s="8">
-        <f t="shared" ref="M213" si="66">(((LARGE(D213:F213,1)+LARGE(D213:F213,2))*0.05+(LARGE(G213:I213,1)+LARGE(G213:I213,2))*0.3+(LARGE(J213:L213,1)+LARGE(J213:L213,2))*0.15))</f>
+        <f t="shared" ref="M213" si="75">(((LARGE(D213:F213,1)+LARGE(D213:F213,2))*0.05+(LARGE(G213:I213,1)+LARGE(G213:I213,2))*0.3+(LARGE(J213:L213,1)+LARGE(J213:L213,2))*0.15))</f>
         <v>0.63849999999999996</v>
       </c>
     </row>
@@ -10069,7 +10220,7 @@
         <v>0.54</v>
       </c>
       <c r="M214" s="8">
-        <f t="shared" ref="M214" si="67">(((LARGE(D214:F214,1)+LARGE(D214:F214,2))*0.05+(LARGE(G214:I214,1)+LARGE(G214:I214,2))*0.3+(LARGE(J214:L214,1)+LARGE(J214:L214,2))*0.15))</f>
+        <f t="shared" ref="M214" si="76">(((LARGE(D214:F214,1)+LARGE(D214:F214,2))*0.05+(LARGE(G214:I214,1)+LARGE(G214:I214,2))*0.3+(LARGE(J214:L214,1)+LARGE(J214:L214,2))*0.15))</f>
         <v>0.84700000000000009</v>
       </c>
     </row>
@@ -10181,7 +10332,7 @@
         <v>0.64</v>
       </c>
       <c r="M217" s="8">
-        <f t="shared" ref="M217" si="68">(((LARGE(D217:F217,1)+LARGE(D217:F217,2))*0.05+(LARGE(G217:I217,1)+LARGE(G217:I217,2))*0.3+(LARGE(J217:L217,1)+LARGE(J217:L217,2))*0.15))</f>
+        <f t="shared" ref="M217" si="77">(((LARGE(D217:F217,1)+LARGE(D217:F217,2))*0.05+(LARGE(G217:I217,1)+LARGE(G217:I217,2))*0.3+(LARGE(J217:L217,1)+LARGE(J217:L217,2))*0.15))</f>
         <v>0.77549999999999986</v>
       </c>
     </row>
@@ -10293,7 +10444,7 @@
         <v>0.77</v>
       </c>
       <c r="M220" s="8">
-        <f t="shared" ref="M220" si="69">(((LARGE(D220:F220,1)+LARGE(D220:F220,2))*0.05+(LARGE(G220:I220,1)+LARGE(G220:I220,2))*0.3+(LARGE(J220:L220,1)+LARGE(J220:L220,2))*0.15))</f>
+        <f t="shared" ref="M220" si="78">(((LARGE(D220:F220,1)+LARGE(D220:F220,2))*0.05+(LARGE(G220:I220,1)+LARGE(G220:I220,2))*0.3+(LARGE(J220:L220,1)+LARGE(J220:L220,2))*0.15))</f>
         <v>0.7</v>
       </c>
     </row>
@@ -10370,7 +10521,7 @@
         <v>0.54</v>
       </c>
       <c r="M222" s="8">
-        <f t="shared" ref="M222" si="70">(((LARGE(D222:F222,1)+LARGE(D222:F222,2))*0.05+(LARGE(G222:I222,1)+LARGE(G222:I222,2))*0.3+(LARGE(J222:L222,1)+LARGE(J222:L222,2))*0.15))</f>
+        <f t="shared" ref="M222" si="79">(((LARGE(D222:F222,1)+LARGE(D222:F222,2))*0.05+(LARGE(G222:I222,1)+LARGE(G222:I222,2))*0.3+(LARGE(J222:L222,1)+LARGE(J222:L222,2))*0.15))</f>
         <v>0.72299999999999998</v>
       </c>
     </row>
@@ -10447,7 +10598,7 @@
         <v>0.87</v>
       </c>
       <c r="M224" s="8">
-        <f t="shared" ref="M224" si="71">(((LARGE(D224:F224,1)+LARGE(D224:F224,2))*0.05+(LARGE(G224:I224,1)+LARGE(G224:I224,2))*0.3+(LARGE(J224:L224,1)+LARGE(J224:L224,2))*0.15))</f>
+        <f t="shared" ref="M224:M225" si="80">(((LARGE(D224:F224,1)+LARGE(D224:F224,2))*0.05+(LARGE(G224:I224,1)+LARGE(G224:I224,2))*0.3+(LARGE(J224:L224,1)+LARGE(J224:L224,2))*0.15))</f>
         <v>0.79449999999999998</v>
       </c>
     </row>
@@ -10485,6 +10636,13 @@
       <c r="K225">
         <v>0.56000000000000005</v>
       </c>
+      <c r="L225">
+        <v>0.7</v>
+      </c>
+      <c r="M225" s="8">
+        <f t="shared" si="80"/>
+        <v>0.66100000000000003</v>
+      </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
@@ -10555,6 +10713,13 @@
       <c r="K227">
         <v>0.52</v>
       </c>
+      <c r="L227">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M227" s="8">
+        <f t="shared" ref="M227" si="81">(((LARGE(D227:F227,1)+LARGE(D227:F227,2))*0.05+(LARGE(G227:I227,1)+LARGE(G227:I227,2))*0.3+(LARGE(J227:L227,1)+LARGE(J227:L227,2))*0.15))</f>
+        <v>0.64749999999999996</v>
+      </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
@@ -10629,7 +10794,7 @@
         <v>0.78</v>
       </c>
       <c r="M229" s="8">
-        <f t="shared" ref="M229" si="72">(((LARGE(D229:F229,1)+LARGE(D229:F229,2))*0.05+(LARGE(G229:I229,1)+LARGE(G229:I229,2))*0.3+(LARGE(J229:L229,1)+LARGE(J229:L229,2))*0.15))</f>
+        <f t="shared" ref="M229" si="82">(((LARGE(D229:F229,1)+LARGE(D229:F229,2))*0.05+(LARGE(G229:I229,1)+LARGE(G229:I229,2))*0.3+(LARGE(J229:L229,1)+LARGE(J229:L229,2))*0.15))</f>
         <v>0.73449999999999993</v>
       </c>
     </row>

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F3B41D-9324-0D4D-B261-B2FE7D485F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABB0305-A48F-484E-9B2E-73A079815041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="960" windowWidth="29360" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -1938,8 +1938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="L228" sqref="L228"/>
+    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="M154" sqref="M154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2219,6 +2219,13 @@
       <c r="K7">
         <v>0</v>
       </c>
+      <c r="L7">
+        <v>0.61</v>
+      </c>
+      <c r="M7" s="8">
+        <f t="shared" ref="M7" si="2">(((LARGE(D7:F7,1)+LARGE(D7:F7,2))*0.05+(LARGE(G7:I7,1)+LARGE(G7:I7,2))*0.3+(LARGE(J7:L7,1)+LARGE(J7:L7,2))*0.15))</f>
+        <v>0.72214563106796126</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2258,7 +2265,7 @@
         <v>0.46</v>
       </c>
       <c r="M8" s="8">
-        <f t="shared" ref="M8" si="2">(((LARGE(D8:F8,1)+LARGE(D8:F8,2))*0.05+(LARGE(G8:I8,1)+LARGE(G8:I8,2))*0.3+(LARGE(J8:L8,1)+LARGE(J8:L8,2))*0.15))</f>
+        <f t="shared" ref="M8" si="3">(((LARGE(D8:F8,1)+LARGE(D8:F8,2))*0.05+(LARGE(G8:I8,1)+LARGE(G8:I8,2))*0.3+(LARGE(J8:L8,1)+LARGE(J8:L8,2))*0.15))</f>
         <v>0.49833009708737863</v>
       </c>
     </row>
@@ -2440,7 +2447,7 @@
         <v>0.81</v>
       </c>
       <c r="M13" s="8">
-        <f t="shared" ref="M13" si="3">(((LARGE(D13:F13,1)+LARGE(D13:F13,2))*0.05+(LARGE(G13:I13,1)+LARGE(G13:I13,2))*0.3+(LARGE(J13:L13,1)+LARGE(J13:L13,2))*0.15))</f>
+        <f t="shared" ref="M13" si="4">(((LARGE(D13:F13,1)+LARGE(D13:F13,2))*0.05+(LARGE(G13:I13,1)+LARGE(G13:I13,2))*0.3+(LARGE(J13:L13,1)+LARGE(J13:L13,2))*0.15))</f>
         <v>0.73799514563106783</v>
       </c>
     </row>
@@ -2482,7 +2489,7 @@
         <v>0.85</v>
       </c>
       <c r="M14" s="8">
-        <f t="shared" ref="M14:M18" si="4">(((LARGE(D14:F14,1)+LARGE(D14:F14,2))*0.05+(LARGE(G14:I14,1)+LARGE(G14:I14,2))*0.3+(LARGE(J14:L14,1)+LARGE(J14:L14,2))*0.15))</f>
+        <f t="shared" ref="M14:M18" si="5">(((LARGE(D14:F14,1)+LARGE(D14:F14,2))*0.05+(LARGE(G14:I14,1)+LARGE(G14:I14,2))*0.3+(LARGE(J14:L14,1)+LARGE(J14:L14,2))*0.15))</f>
         <v>0.71134466019417486</v>
       </c>
     </row>
@@ -2524,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.60499999999999998</v>
       </c>
     </row>
@@ -2566,7 +2573,7 @@
         <v>0.64</v>
       </c>
       <c r="M16" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.62250000000000005</v>
       </c>
     </row>
@@ -2643,7 +2650,7 @@
         <v>0.64</v>
       </c>
       <c r="M18" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.71250000000000002</v>
       </c>
     </row>
@@ -2720,7 +2727,7 @@
         <v>0.61</v>
       </c>
       <c r="M20" s="8">
-        <f t="shared" ref="M20" si="5">(((LARGE(D20:F20,1)+LARGE(D20:F20,2))*0.05+(LARGE(G20:I20,1)+LARGE(G20:I20,2))*0.3+(LARGE(J20:L20,1)+LARGE(J20:L20,2))*0.15))</f>
+        <f t="shared" ref="M20" si="6">(((LARGE(D20:F20,1)+LARGE(D20:F20,2))*0.05+(LARGE(G20:I20,1)+LARGE(G20:I20,2))*0.3+(LARGE(J20:L20,1)+LARGE(J20:L20,2))*0.15))</f>
         <v>0.69264563106796118</v>
       </c>
     </row>
@@ -2832,7 +2839,7 @@
         <v>0.54</v>
       </c>
       <c r="M23" s="8">
-        <f t="shared" ref="M23" si="6">(((LARGE(D23:F23,1)+LARGE(D23:F23,2))*0.05+(LARGE(G23:I23,1)+LARGE(G23:I23,2))*0.3+(LARGE(J23:L23,1)+LARGE(J23:L23,2))*0.15))</f>
+        <f t="shared" ref="M23" si="7">(((LARGE(D23:F23,1)+LARGE(D23:F23,2))*0.05+(LARGE(G23:I23,1)+LARGE(G23:I23,2))*0.3+(LARGE(J23:L23,1)+LARGE(J23:L23,2))*0.15))</f>
         <v>0.6915</v>
       </c>
     </row>
@@ -2874,7 +2881,7 @@
         <v>0.89</v>
       </c>
       <c r="M24" s="8">
-        <f t="shared" ref="M24" si="7">(((LARGE(D24:F24,1)+LARGE(D24:F24,2))*0.05+(LARGE(G24:I24,1)+LARGE(G24:I24,2))*0.3+(LARGE(J24:L24,1)+LARGE(J24:L24,2))*0.15))</f>
+        <f t="shared" ref="M24" si="8">(((LARGE(D24:F24,1)+LARGE(D24:F24,2))*0.05+(LARGE(G24:I24,1)+LARGE(G24:I24,2))*0.3+(LARGE(J24:L24,1)+LARGE(J24:L24,2))*0.15))</f>
         <v>0.69649514563106796</v>
       </c>
     </row>
@@ -2951,7 +2958,7 @@
         <v>0.85</v>
       </c>
       <c r="M26" s="8">
-        <f t="shared" ref="M26" si="8">(((LARGE(D26:F26,1)+LARGE(D26:F26,2))*0.05+(LARGE(G26:I26,1)+LARGE(G26:I26,2))*0.3+(LARGE(J26:L26,1)+LARGE(J26:L26,2))*0.15))</f>
+        <f t="shared" ref="M26" si="9">(((LARGE(D26:F26,1)+LARGE(D26:F26,2))*0.05+(LARGE(G26:I26,1)+LARGE(G26:I26,2))*0.3+(LARGE(J26:L26,1)+LARGE(J26:L26,2))*0.15))</f>
         <v>0.7004999999999999</v>
       </c>
     </row>
@@ -2993,7 +3000,7 @@
         <v>0.46</v>
       </c>
       <c r="M27" s="8">
-        <f t="shared" ref="M27:M29" si="9">(((LARGE(D27:F27,1)+LARGE(D27:F27,2))*0.05+(LARGE(G27:I27,1)+LARGE(G27:I27,2))*0.3+(LARGE(J27:L27,1)+LARGE(J27:L27,2))*0.15))</f>
+        <f t="shared" ref="M27:M29" si="10">(((LARGE(D27:F27,1)+LARGE(D27:F27,2))*0.05+(LARGE(G27:I27,1)+LARGE(G27:I27,2))*0.3+(LARGE(J27:L27,1)+LARGE(J27:L27,2))*0.15))</f>
         <v>0.59750000000000003</v>
       </c>
     </row>
@@ -3035,7 +3042,7 @@
         <v>0.61</v>
       </c>
       <c r="M28" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.78549999999999998</v>
       </c>
     </row>
@@ -3077,7 +3084,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="M29" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.72050000000000003</v>
       </c>
     </row>
@@ -3119,7 +3126,7 @@
         <v>0.46</v>
       </c>
       <c r="M30" s="8">
-        <f t="shared" ref="M30:M32" si="10">(((LARGE(D30:F30,1)+LARGE(D30:F30,2))*0.05+(LARGE(G30:I30,1)+LARGE(G30:I30,2))*0.3+(LARGE(J30:L30,1)+LARGE(J30:L30,2))*0.15))</f>
+        <f t="shared" ref="M30:M32" si="11">(((LARGE(D30:F30,1)+LARGE(D30:F30,2))*0.05+(LARGE(G30:I30,1)+LARGE(G30:I30,2))*0.3+(LARGE(J30:L30,1)+LARGE(J30:L30,2))*0.15))</f>
         <v>0.64149999999999996</v>
       </c>
     </row>
@@ -3196,7 +3203,7 @@
         <v>0.61</v>
       </c>
       <c r="M32" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.58050000000000002</v>
       </c>
     </row>
@@ -3238,7 +3245,7 @@
         <v>0.62</v>
       </c>
       <c r="M33" s="8">
-        <f t="shared" ref="M33:M34" si="11">(((LARGE(D33:F33,1)+LARGE(D33:F33,2))*0.05+(LARGE(G33:I33,1)+LARGE(G33:I33,2))*0.3+(LARGE(J33:L33,1)+LARGE(J33:L33,2))*0.15))</f>
+        <f t="shared" ref="M33:M34" si="12">(((LARGE(D33:F33,1)+LARGE(D33:F33,2))*0.05+(LARGE(G33:I33,1)+LARGE(G33:I33,2))*0.3+(LARGE(J33:L33,1)+LARGE(J33:L33,2))*0.15))</f>
         <v>0.63119417475728157</v>
       </c>
     </row>
@@ -3280,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.55845631067961177</v>
       </c>
     </row>
@@ -3322,7 +3329,7 @@
         <v>0.8</v>
       </c>
       <c r="M35" s="8">
-        <f t="shared" ref="M34:M35" si="12">(((LARGE(D35:F35,1)+LARGE(D35:F35,2))*0.05+(LARGE(G35:I35,1)+LARGE(G35:I35,2))*0.3+(LARGE(J35:L35,1)+LARGE(J35:L35,2))*0.15))</f>
+        <f t="shared" ref="M34:M35" si="13">(((LARGE(D35:F35,1)+LARGE(D35:F35,2))*0.05+(LARGE(G35:I35,1)+LARGE(G35:I35,2))*0.3+(LARGE(J35:L35,1)+LARGE(J35:L35,2))*0.15))</f>
         <v>0.70705825242718467</v>
       </c>
     </row>
@@ -3434,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="8">
-        <f t="shared" ref="M38" si="13">(((LARGE(D38:F38,1)+LARGE(D38:F38,2))*0.05+(LARGE(G38:I38,1)+LARGE(G38:I38,2))*0.3+(LARGE(J38:L38,1)+LARGE(J38:L38,2))*0.15))</f>
+        <f t="shared" ref="M38" si="14">(((LARGE(D38:F38,1)+LARGE(D38:F38,2))*0.05+(LARGE(G38:I38,1)+LARGE(G38:I38,2))*0.3+(LARGE(J38:L38,1)+LARGE(J38:L38,2))*0.15))</f>
         <v>0.69200000000000006</v>
       </c>
     </row>
@@ -3476,7 +3483,7 @@
         <v>0.89</v>
       </c>
       <c r="M39" s="8">
-        <f t="shared" ref="M39" si="14">(((LARGE(D39:F39,1)+LARGE(D39:F39,2))*0.05+(LARGE(G39:I39,1)+LARGE(G39:I39,2))*0.3+(LARGE(J39:L39,1)+LARGE(J39:L39,2))*0.15))</f>
+        <f t="shared" ref="M39" si="15">(((LARGE(D39:F39,1)+LARGE(D39:F39,2))*0.05+(LARGE(G39:I39,1)+LARGE(G39:I39,2))*0.3+(LARGE(J39:L39,1)+LARGE(J39:L39,2))*0.15))</f>
         <v>0.874</v>
       </c>
     </row>
@@ -3553,7 +3560,7 @@
         <v>0.54</v>
       </c>
       <c r="M41" s="8">
-        <f t="shared" ref="M41:M42" si="15">(((LARGE(D41:F41,1)+LARGE(D41:F41,2))*0.05+(LARGE(G41:I41,1)+LARGE(G41:I41,2))*0.3+(LARGE(J41:L41,1)+LARGE(J41:L41,2))*0.15))</f>
+        <f t="shared" ref="M41:M42" si="16">(((LARGE(D41:F41,1)+LARGE(D41:F41,2))*0.05+(LARGE(G41:I41,1)+LARGE(G41:I41,2))*0.3+(LARGE(J41:L41,1)+LARGE(J41:L41,2))*0.15))</f>
         <v>0.7619999999999999</v>
       </c>
     </row>
@@ -3595,7 +3602,7 @@
         <v>0.81</v>
       </c>
       <c r="M42" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.71982038834951467</v>
       </c>
     </row>
@@ -3668,6 +3675,13 @@
       <c r="K44">
         <v>0</v>
       </c>
+      <c r="L44">
+        <v>0.61</v>
+      </c>
+      <c r="M44" s="8">
+        <f t="shared" ref="M44:M46" si="17">(((LARGE(D44:F44,1)+LARGE(D44:F44,2))*0.05+(LARGE(G44:I44,1)+LARGE(G44:I44,2))*0.3+(LARGE(J44:L44,1)+LARGE(J44:L44,2))*0.15))</f>
+        <v>0.71679611650485453</v>
+      </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -3707,7 +3721,7 @@
         <v>0.5</v>
       </c>
       <c r="M45" s="8">
-        <f t="shared" ref="M45:M46" si="16">(((LARGE(D45:F45,1)+LARGE(D45:F45,2))*0.05+(LARGE(G45:I45,1)+LARGE(G45:I45,2))*0.3+(LARGE(J45:L45,1)+LARGE(J45:L45,2))*0.15))</f>
+        <f t="shared" si="17"/>
         <v>0.77499999999999991</v>
       </c>
     </row>
@@ -3749,7 +3763,7 @@
         <v>0.77</v>
       </c>
       <c r="M46" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.75362135922330098</v>
       </c>
     </row>
@@ -3826,7 +3840,7 @@
         <v>0.61</v>
       </c>
       <c r="M48" s="8">
-        <f t="shared" ref="M48:M49" si="17">(((LARGE(D48:F48,1)+LARGE(D48:F48,2))*0.05+(LARGE(G48:I48,1)+LARGE(G48:I48,2))*0.3+(LARGE(J48:L48,1)+LARGE(J48:L48,2))*0.15))</f>
+        <f t="shared" ref="M48:M49" si="18">(((LARGE(D48:F48,1)+LARGE(D48:F48,2))*0.05+(LARGE(G48:I48,1)+LARGE(G48:I48,2))*0.3+(LARGE(J48:L48,1)+LARGE(J48:L48,2))*0.15))</f>
         <v>0.72764563106796121</v>
       </c>
     </row>
@@ -3868,7 +3882,7 @@
         <v>0.54</v>
       </c>
       <c r="M49" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.73499999999999999</v>
       </c>
     </row>
@@ -3910,7 +3924,7 @@
         <v>0.62</v>
       </c>
       <c r="M50" s="8">
-        <f t="shared" ref="M50" si="18">(((LARGE(D50:F50,1)+LARGE(D50:F50,2))*0.05+(LARGE(G50:I50,1)+LARGE(G50:I50,2))*0.3+(LARGE(J50:L50,1)+LARGE(J50:L50,2))*0.15))</f>
+        <f t="shared" ref="M50" si="19">(((LARGE(D50:F50,1)+LARGE(D50:F50,2))*0.05+(LARGE(G50:I50,1)+LARGE(G50:I50,2))*0.3+(LARGE(J50:L50,1)+LARGE(J50:L50,2))*0.15))</f>
         <v>0.43700000000000006</v>
       </c>
     </row>
@@ -3987,7 +4001,7 @@
         <v>0.46</v>
       </c>
       <c r="M52" s="8">
-        <f t="shared" ref="M52" si="19">(((LARGE(D52:F52,1)+LARGE(D52:F52,2))*0.05+(LARGE(G52:I52,1)+LARGE(G52:I52,2))*0.3+(LARGE(J52:L52,1)+LARGE(J52:L52,2))*0.15))</f>
+        <f t="shared" ref="M52" si="20">(((LARGE(D52:F52,1)+LARGE(D52:F52,2))*0.05+(LARGE(G52:I52,1)+LARGE(G52:I52,2))*0.3+(LARGE(J52:L52,1)+LARGE(J52:L52,2))*0.15))</f>
         <v>0.69614563106796112</v>
       </c>
     </row>
@@ -4029,7 +4043,7 @@
         <v>0.54</v>
       </c>
       <c r="M53" s="8">
-        <f t="shared" ref="M53" si="20">(((LARGE(D53:F53,1)+LARGE(D53:F53,2))*0.05+(LARGE(G53:I53,1)+LARGE(G53:I53,2))*0.3+(LARGE(J53:L53,1)+LARGE(J53:L53,2))*0.15))</f>
+        <f t="shared" ref="M53" si="21">(((LARGE(D53:F53,1)+LARGE(D53:F53,2))*0.05+(LARGE(G53:I53,1)+LARGE(G53:I53,2))*0.3+(LARGE(J53:L53,1)+LARGE(J53:L53,2))*0.15))</f>
         <v>0.65469417475728164</v>
       </c>
     </row>
@@ -4071,7 +4085,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="M54" s="8">
-        <f t="shared" ref="M54:M55" si="21">(((LARGE(D54:F54,1)+LARGE(D54:F54,2))*0.05+(LARGE(G54:I54,1)+LARGE(G54:I54,2))*0.3+(LARGE(J54:L54,1)+LARGE(J54:L54,2))*0.15))</f>
+        <f t="shared" ref="M54:M55" si="22">(((LARGE(D54:F54,1)+LARGE(D54:F54,2))*0.05+(LARGE(G54:I54,1)+LARGE(G54:I54,2))*0.3+(LARGE(J54:L54,1)+LARGE(J54:L54,2))*0.15))</f>
         <v>0.79939805825242705</v>
       </c>
     </row>
@@ -4113,7 +4127,7 @@
         <v>0.74</v>
       </c>
       <c r="M55" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.72750000000000004</v>
       </c>
     </row>
@@ -4295,7 +4309,7 @@
         <v>0.69</v>
       </c>
       <c r="M60" s="8">
-        <f t="shared" ref="M60" si="22">(((LARGE(D60:F60,1)+LARGE(D60:F60,2))*0.05+(LARGE(G60:I60,1)+LARGE(G60:I60,2))*0.3+(LARGE(J60:L60,1)+LARGE(J60:L60,2))*0.15))</f>
+        <f t="shared" ref="M60" si="23">(((LARGE(D60:F60,1)+LARGE(D60:F60,2))*0.05+(LARGE(G60:I60,1)+LARGE(G60:I60,2))*0.3+(LARGE(J60:L60,1)+LARGE(J60:L60,2))*0.15))</f>
         <v>0.80499999999999994</v>
       </c>
     </row>
@@ -4337,7 +4351,7 @@
         <v>0.46</v>
       </c>
       <c r="M61" s="8">
-        <f t="shared" ref="M61:M62" si="23">(((LARGE(D61:F61,1)+LARGE(D61:F61,2))*0.05+(LARGE(G61:I61,1)+LARGE(G61:I61,2))*0.3+(LARGE(J61:L61,1)+LARGE(J61:L61,2))*0.15))</f>
+        <f t="shared" ref="M61:M62" si="24">(((LARGE(D61:F61,1)+LARGE(D61:F61,2))*0.05+(LARGE(G61:I61,1)+LARGE(G61:I61,2))*0.3+(LARGE(J61:L61,1)+LARGE(J61:L61,2))*0.15))</f>
         <v>0.67800000000000005</v>
       </c>
     </row>
@@ -4379,7 +4393,7 @@
         <v>0.51</v>
       </c>
       <c r="M62" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.71350000000000002</v>
       </c>
     </row>
@@ -4456,7 +4470,7 @@
         <v>0.69</v>
       </c>
       <c r="M64" s="8">
-        <f t="shared" ref="M64:M65" si="24">(((LARGE(D64:F64,1)+LARGE(D64:F64,2))*0.05+(LARGE(G64:I64,1)+LARGE(G64:I64,2))*0.3+(LARGE(J64:L64,1)+LARGE(J64:L64,2))*0.15))</f>
+        <f t="shared" ref="M64:M65" si="25">(((LARGE(D64:F64,1)+LARGE(D64:F64,2))*0.05+(LARGE(G64:I64,1)+LARGE(G64:I64,2))*0.3+(LARGE(J64:L64,1)+LARGE(J64:L64,2))*0.15))</f>
         <v>0.8680000000000001</v>
       </c>
     </row>
@@ -4498,7 +4512,7 @@
         <v>0.51</v>
       </c>
       <c r="M65" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.64000000000000012</v>
       </c>
     </row>
@@ -4575,7 +4589,7 @@
         <v>0.66</v>
       </c>
       <c r="M67" s="8">
-        <f t="shared" ref="M67" si="25">(((LARGE(D67:F67,1)+LARGE(D67:F67,2))*0.05+(LARGE(G67:I67,1)+LARGE(G67:I67,2))*0.3+(LARGE(J67:L67,1)+LARGE(J67:L67,2))*0.15))</f>
+        <f t="shared" ref="M67" si="26">(((LARGE(D67:F67,1)+LARGE(D67:F67,2))*0.05+(LARGE(G67:I67,1)+LARGE(G67:I67,2))*0.3+(LARGE(J67:L67,1)+LARGE(J67:L67,2))*0.15))</f>
         <v>0.74649999999999994</v>
       </c>
     </row>
@@ -4757,7 +4771,7 @@
         <v>0.81</v>
       </c>
       <c r="M72" s="8">
-        <f t="shared" ref="M72:M73" si="26">(((LARGE(D72:F72,1)+LARGE(D72:F72,2))*0.05+(LARGE(G72:I72,1)+LARGE(G72:I72,2))*0.3+(LARGE(J72:L72,1)+LARGE(J72:L72,2))*0.15))</f>
+        <f t="shared" ref="M72:M73" si="27">(((LARGE(D72:F72,1)+LARGE(D72:F72,2))*0.05+(LARGE(G72:I72,1)+LARGE(G72:I72,2))*0.3+(LARGE(J72:L72,1)+LARGE(J72:L72,2))*0.15))</f>
         <v>0.69199999999999995</v>
       </c>
     </row>
@@ -4799,7 +4813,7 @@
         <v>0.62</v>
       </c>
       <c r="M73" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.62200000000000011</v>
       </c>
     </row>
@@ -4911,7 +4925,7 @@
         <v>0.76</v>
       </c>
       <c r="M76" s="8">
-        <f t="shared" ref="M76:M77" si="27">(((LARGE(D76:F76,1)+LARGE(D76:F76,2))*0.05+(LARGE(G76:I76,1)+LARGE(G76:I76,2))*0.3+(LARGE(J76:L76,1)+LARGE(J76:L76,2))*0.15))</f>
+        <f t="shared" ref="M76:M77" si="28">(((LARGE(D76:F76,1)+LARGE(D76:F76,2))*0.05+(LARGE(G76:I76,1)+LARGE(G76:I76,2))*0.3+(LARGE(J76:L76,1)+LARGE(J76:L76,2))*0.15))</f>
         <v>0.77399999999999991</v>
       </c>
     </row>
@@ -5059,7 +5073,7 @@
         <v>0.69</v>
       </c>
       <c r="M80" s="8">
-        <f t="shared" ref="M80" si="28">(((LARGE(D80:F80,1)+LARGE(D80:F80,2))*0.05+(LARGE(G80:I80,1)+LARGE(G80:I80,2))*0.3+(LARGE(J80:L80,1)+LARGE(J80:L80,2))*0.15))</f>
+        <f t="shared" ref="M80:M81" si="29">(((LARGE(D80:F80,1)+LARGE(D80:F80,2))*0.05+(LARGE(G80:I80,1)+LARGE(G80:I80,2))*0.3+(LARGE(J80:L80,1)+LARGE(J80:L80,2))*0.15))</f>
         <v>0.80399999999999994</v>
       </c>
     </row>
@@ -5097,6 +5111,13 @@
       <c r="K81">
         <v>0.56000000000000005</v>
       </c>
+      <c r="L81">
+        <v>0.6</v>
+      </c>
+      <c r="M81" s="8">
+        <f t="shared" si="29"/>
+        <v>0.85050000000000003</v>
+      </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
@@ -5167,6 +5188,13 @@
       <c r="K83">
         <v>0.67</v>
       </c>
+      <c r="L83">
+        <v>0.8</v>
+      </c>
+      <c r="M83" s="8">
+        <f t="shared" ref="M83" si="30">(((LARGE(D83:F83,1)+LARGE(D83:F83,2))*0.05+(LARGE(G83:I83,1)+LARGE(G83:I83,2))*0.3+(LARGE(J83:L83,1)+LARGE(J83:L83,2))*0.15))</f>
+        <v>0.751</v>
+      </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -5206,7 +5234,7 @@
         <v>0.62</v>
       </c>
       <c r="M84" s="8">
-        <f t="shared" ref="M84" si="29">(((LARGE(D84:F84,1)+LARGE(D84:F84,2))*0.05+(LARGE(G84:I84,1)+LARGE(G84:I84,2))*0.3+(LARGE(J84:L84,1)+LARGE(J84:L84,2))*0.15))</f>
+        <f t="shared" ref="M84" si="31">(((LARGE(D84:F84,1)+LARGE(D84:F84,2))*0.05+(LARGE(G84:I84,1)+LARGE(G84:I84,2))*0.3+(LARGE(J84:L84,1)+LARGE(J84:L84,2))*0.15))</f>
         <v>0.45950000000000002</v>
       </c>
     </row>
@@ -5283,7 +5311,7 @@
         <v>0.82</v>
       </c>
       <c r="M86" s="8">
-        <f t="shared" ref="M86" si="30">(((LARGE(D86:F86,1)+LARGE(D86:F86,2))*0.05+(LARGE(G86:I86,1)+LARGE(G86:I86,2))*0.3+(LARGE(J86:L86,1)+LARGE(J86:L86,2))*0.15))</f>
+        <f t="shared" ref="M86" si="32">(((LARGE(D86:F86,1)+LARGE(D86:F86,2))*0.05+(LARGE(G86:I86,1)+LARGE(G86:I86,2))*0.3+(LARGE(J86:L86,1)+LARGE(J86:L86,2))*0.15))</f>
         <v>0.71349999999999991</v>
       </c>
     </row>
@@ -5360,7 +5388,7 @@
         <v>0.69</v>
       </c>
       <c r="M88" s="8">
-        <f t="shared" ref="M88" si="31">(((LARGE(D88:F88,1)+LARGE(D88:F88,2))*0.05+(LARGE(G88:I88,1)+LARGE(G88:I88,2))*0.3+(LARGE(J88:L88,1)+LARGE(J88:L88,2))*0.15))</f>
+        <f t="shared" ref="M88" si="33">(((LARGE(D88:F88,1)+LARGE(D88:F88,2))*0.05+(LARGE(G88:I88,1)+LARGE(G88:I88,2))*0.3+(LARGE(J88:L88,1)+LARGE(J88:L88,2))*0.15))</f>
         <v>0.58799999999999997</v>
       </c>
     </row>
@@ -5472,7 +5500,7 @@
         <v>0.69</v>
       </c>
       <c r="M91" s="8">
-        <f t="shared" ref="M91" si="32">(((LARGE(D91:F91,1)+LARGE(D91:F91,2))*0.05+(LARGE(G91:I91,1)+LARGE(G91:I91,2))*0.3+(LARGE(J91:L91,1)+LARGE(J91:L91,2))*0.15))</f>
+        <f t="shared" ref="M91" si="34">(((LARGE(D91:F91,1)+LARGE(D91:F91,2))*0.05+(LARGE(G91:I91,1)+LARGE(G91:I91,2))*0.3+(LARGE(J91:L91,1)+LARGE(J91:L91,2))*0.15))</f>
         <v>0.6845</v>
       </c>
     </row>
@@ -5514,7 +5542,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="M92" s="8">
-        <f t="shared" ref="M92:M93" si="33">(((LARGE(D92:F92,1)+LARGE(D92:F92,2))*0.05+(LARGE(G92:I92,1)+LARGE(G92:I92,2))*0.3+(LARGE(J92:L92,1)+LARGE(J92:L92,2))*0.15))</f>
+        <f t="shared" ref="M92:M93" si="35">(((LARGE(D92:F92,1)+LARGE(D92:F92,2))*0.05+(LARGE(G92:I92,1)+LARGE(G92:I92,2))*0.3+(LARGE(J92:L92,1)+LARGE(J92:L92,2))*0.15))</f>
         <v>0.628</v>
       </c>
     </row>
@@ -5556,7 +5584,7 @@
         <v>0.81</v>
       </c>
       <c r="M93" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.66549999999999998</v>
       </c>
     </row>
@@ -5633,7 +5661,7 @@
         <v>0.73</v>
       </c>
       <c r="M95" s="8">
-        <f t="shared" ref="M95:M96" si="34">(((LARGE(D95:F95,1)+LARGE(D95:F95,2))*0.05+(LARGE(G95:I95,1)+LARGE(G95:I95,2))*0.3+(LARGE(J95:L95,1)+LARGE(J95:L95,2))*0.15))</f>
+        <f t="shared" ref="M95:M96" si="36">(((LARGE(D95:F95,1)+LARGE(D95:F95,2))*0.05+(LARGE(G95:I95,1)+LARGE(G95:I95,2))*0.3+(LARGE(J95:L95,1)+LARGE(J95:L95,2))*0.15))</f>
         <v>0.76200000000000001</v>
       </c>
     </row>
@@ -5675,7 +5703,7 @@
         <v>0.66</v>
       </c>
       <c r="M96" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.61699999999999999</v>
       </c>
     </row>
@@ -5748,6 +5776,13 @@
       <c r="K98">
         <v>0.67</v>
       </c>
+      <c r="L98">
+        <v>0.8</v>
+      </c>
+      <c r="M98" s="8">
+        <f t="shared" ref="M98" si="37">(((LARGE(D98:F98,1)+LARGE(D98:F98,2))*0.05+(LARGE(G98:I98,1)+LARGE(G98:I98,2))*0.3+(LARGE(J98:L98,1)+LARGE(J98:L98,2))*0.15))</f>
+        <v>0.79549999999999987</v>
+      </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
@@ -5787,7 +5822,7 @@
         <v>0.82</v>
       </c>
       <c r="M99" s="8">
-        <f t="shared" ref="M99:M100" si="35">(((LARGE(D99:F99,1)+LARGE(D99:F99,2))*0.05+(LARGE(G99:I99,1)+LARGE(G99:I99,2))*0.3+(LARGE(J99:L99,1)+LARGE(J99:L99,2))*0.15))</f>
+        <f t="shared" ref="M99:M100" si="38">(((LARGE(D99:F99,1)+LARGE(D99:F99,2))*0.05+(LARGE(G99:I99,1)+LARGE(G99:I99,2))*0.3+(LARGE(J99:L99,1)+LARGE(J99:L99,2))*0.15))</f>
         <v>0.7599999999999999</v>
       </c>
     </row>
@@ -5829,7 +5864,7 @@
         <v>0.69</v>
       </c>
       <c r="M100" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.69249999999999989</v>
       </c>
     </row>
@@ -5902,6 +5937,13 @@
       <c r="K102">
         <v>0.56000000000000005</v>
       </c>
+      <c r="L102">
+        <v>0.6</v>
+      </c>
+      <c r="M102" s="8">
+        <f t="shared" ref="M102" si="39">(((LARGE(D102:F102,1)+LARGE(D102:F102,2))*0.05+(LARGE(G102:I102,1)+LARGE(G102:I102,2))*0.3+(LARGE(J102:L102,1)+LARGE(J102:L102,2))*0.15))</f>
+        <v>0.71550000000000002</v>
+      </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
@@ -6046,7 +6088,7 @@
         <v>0.85</v>
       </c>
       <c r="M106" s="8">
-        <f t="shared" ref="M106" si="36">(((LARGE(D106:F106,1)+LARGE(D106:F106,2))*0.05+(LARGE(G106:I106,1)+LARGE(G106:I106,2))*0.3+(LARGE(J106:L106,1)+LARGE(J106:L106,2))*0.15))</f>
+        <f t="shared" ref="M106" si="40">(((LARGE(D106:F106,1)+LARGE(D106:F106,2))*0.05+(LARGE(G106:I106,1)+LARGE(G106:I106,2))*0.3+(LARGE(J106:L106,1)+LARGE(J106:L106,2))*0.15))</f>
         <v>0.72599999999999998</v>
       </c>
     </row>
@@ -6123,7 +6165,7 @@
         <v>0.46</v>
       </c>
       <c r="M108" s="8">
-        <f t="shared" ref="M108:M109" si="37">(((LARGE(D108:F108,1)+LARGE(D108:F108,2))*0.05+(LARGE(G108:I108,1)+LARGE(G108:I108,2))*0.3+(LARGE(J108:L108,1)+LARGE(J108:L108,2))*0.15))</f>
+        <f t="shared" ref="M108:M109" si="41">(((LARGE(D108:F108,1)+LARGE(D108:F108,2))*0.05+(LARGE(G108:I108,1)+LARGE(G108:I108,2))*0.3+(LARGE(J108:L108,1)+LARGE(J108:L108,2))*0.15))</f>
         <v>0.64200000000000002</v>
       </c>
     </row>
@@ -6165,7 +6207,7 @@
         <v>0.85</v>
       </c>
       <c r="M109" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0.69499999999999995</v>
       </c>
     </row>
@@ -6207,7 +6249,7 @@
         <v>0.65</v>
       </c>
       <c r="M110" s="8">
-        <f t="shared" ref="M110" si="38">(((LARGE(D110:F110,1)+LARGE(D110:F110,2))*0.05+(LARGE(G110:I110,1)+LARGE(G110:I110,2))*0.3+(LARGE(J110:L110,1)+LARGE(J110:L110,2))*0.15))</f>
+        <f t="shared" ref="M110" si="42">(((LARGE(D110:F110,1)+LARGE(D110:F110,2))*0.05+(LARGE(G110:I110,1)+LARGE(G110:I110,2))*0.3+(LARGE(J110:L110,1)+LARGE(J110:L110,2))*0.15))</f>
         <v>0.70599999999999996</v>
       </c>
     </row>
@@ -6314,7 +6356,7 @@
         <v>0.47</v>
       </c>
       <c r="M113" s="8">
-        <f t="shared" ref="M113:M114" si="39">(((LARGE(D113:F113,1)+LARGE(D113:F113,2))*0.05+(LARGE(G113:I113,1)+LARGE(G113:I113,2))*0.3+(LARGE(J113:L113,1)+LARGE(J113:L113,2))*0.15))</f>
+        <f t="shared" ref="M113:M114" si="43">(((LARGE(D113:F113,1)+LARGE(D113:F113,2))*0.05+(LARGE(G113:I113,1)+LARGE(G113:I113,2))*0.3+(LARGE(J113:L113,1)+LARGE(J113:L113,2))*0.15))</f>
         <v>0.68149999999999999</v>
       </c>
     </row>
@@ -6356,7 +6398,7 @@
         <v>0.68</v>
       </c>
       <c r="M114" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0.59650000000000003</v>
       </c>
     </row>
@@ -6398,7 +6440,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="M115" s="8">
-        <f t="shared" ref="M115" si="40">(((LARGE(D115:F115,1)+LARGE(D115:F115,2))*0.05+(LARGE(G115:I115,1)+LARGE(G115:I115,2))*0.3+(LARGE(J115:L115,1)+LARGE(J115:L115,2))*0.15))</f>
+        <f t="shared" ref="M115" si="44">(((LARGE(D115:F115,1)+LARGE(D115:F115,2))*0.05+(LARGE(G115:I115,1)+LARGE(G115:I115,2))*0.3+(LARGE(J115:L115,1)+LARGE(J115:L115,2))*0.15))</f>
         <v>0.67749999999999999</v>
       </c>
     </row>
@@ -6475,7 +6517,7 @@
         <v>0.64</v>
       </c>
       <c r="M117" s="8">
-        <f t="shared" ref="M117" si="41">(((LARGE(D117:F117,1)+LARGE(D117:F117,2))*0.05+(LARGE(G117:I117,1)+LARGE(G117:I117,2))*0.3+(LARGE(J117:L117,1)+LARGE(J117:L117,2))*0.15))</f>
+        <f t="shared" ref="M117" si="45">(((LARGE(D117:F117,1)+LARGE(D117:F117,2))*0.05+(LARGE(G117:I117,1)+LARGE(G117:I117,2))*0.3+(LARGE(J117:L117,1)+LARGE(J117:L117,2))*0.15))</f>
         <v>0.61150000000000004</v>
       </c>
     </row>
@@ -6552,7 +6594,7 @@
         <v>0.78</v>
       </c>
       <c r="M119" s="8">
-        <f t="shared" ref="M119:M120" si="42">(((LARGE(D119:F119,1)+LARGE(D119:F119,2))*0.05+(LARGE(G119:I119,1)+LARGE(G119:I119,2))*0.3+(LARGE(J119:L119,1)+LARGE(J119:L119,2))*0.15))</f>
+        <f t="shared" ref="M119:M120" si="46">(((LARGE(D119:F119,1)+LARGE(D119:F119,2))*0.05+(LARGE(G119:I119,1)+LARGE(G119:I119,2))*0.3+(LARGE(J119:L119,1)+LARGE(J119:L119,2))*0.15))</f>
         <v>0.61550000000000005</v>
       </c>
     </row>
@@ -6594,7 +6636,7 @@
         <v>0.78</v>
       </c>
       <c r="M120" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0.64949999999999997</v>
       </c>
     </row>
@@ -6667,6 +6709,13 @@
       <c r="K122">
         <v>0.67</v>
       </c>
+      <c r="L122">
+        <v>0.39</v>
+      </c>
+      <c r="M122" s="8">
+        <f t="shared" ref="M122" si="47">(((LARGE(D122:F122,1)+LARGE(D122:F122,2))*0.05+(LARGE(G122:I122,1)+LARGE(G122:I122,2))*0.3+(LARGE(J122:L122,1)+LARGE(J122:L122,2))*0.15))</f>
+        <v>0.64300000000000002</v>
+      </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
@@ -6881,7 +6930,7 @@
         <v>0.5</v>
       </c>
       <c r="M128" s="8">
-        <f t="shared" ref="M128" si="43">(((LARGE(D128:F128,1)+LARGE(D128:F128,2))*0.05+(LARGE(G128:I128,1)+LARGE(G128:I128,2))*0.3+(LARGE(J128:L128,1)+LARGE(J128:L128,2))*0.15))</f>
+        <f t="shared" ref="M128" si="48">(((LARGE(D128:F128,1)+LARGE(D128:F128,2))*0.05+(LARGE(G128:I128,1)+LARGE(G128:I128,2))*0.3+(LARGE(J128:L128,1)+LARGE(J128:L128,2))*0.15))</f>
         <v>0.76649999999999996</v>
       </c>
     </row>
@@ -7028,7 +7077,7 @@
         <v>0.66</v>
       </c>
       <c r="M132" s="8">
-        <f t="shared" ref="M132" si="44">(((LARGE(D132:F132,1)+LARGE(D132:F132,2))*0.05+(LARGE(G132:I132,1)+LARGE(G132:I132,2))*0.3+(LARGE(J132:L132,1)+LARGE(J132:L132,2))*0.15))</f>
+        <f t="shared" ref="M132" si="49">(((LARGE(D132:F132,1)+LARGE(D132:F132,2))*0.05+(LARGE(G132:I132,1)+LARGE(G132:I132,2))*0.3+(LARGE(J132:L132,1)+LARGE(J132:L132,2))*0.15))</f>
         <v>0.63300000000000001</v>
       </c>
     </row>
@@ -7070,7 +7119,7 @@
         <v>0.64</v>
       </c>
       <c r="M133" s="8">
-        <f t="shared" ref="M133" si="45">(((LARGE(D133:F133,1)+LARGE(D133:F133,2))*0.05+(LARGE(G133:I133,1)+LARGE(G133:I133,2))*0.3+(LARGE(J133:L133,1)+LARGE(J133:L133,2))*0.15))</f>
+        <f t="shared" ref="M133" si="50">(((LARGE(D133:F133,1)+LARGE(D133:F133,2))*0.05+(LARGE(G133:I133,1)+LARGE(G133:I133,2))*0.3+(LARGE(J133:L133,1)+LARGE(J133:L133,2))*0.15))</f>
         <v>0.74199999999999999</v>
       </c>
     </row>
@@ -7248,6 +7297,13 @@
       <c r="K138">
         <v>0.46</v>
       </c>
+      <c r="L138">
+        <v>0.86</v>
+      </c>
+      <c r="M138" s="8">
+        <f t="shared" ref="M138" si="51">(((LARGE(D138:F138,1)+LARGE(D138:F138,2))*0.05+(LARGE(G138:I138,1)+LARGE(G138:I138,2))*0.3+(LARGE(J138:L138,1)+LARGE(J138:L138,2))*0.15))</f>
+        <v>0.71099999999999997</v>
+      </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
@@ -7287,7 +7343,7 @@
         <v>0.47</v>
       </c>
       <c r="M139" s="8">
-        <f t="shared" ref="M139" si="46">(((LARGE(D139:F139,1)+LARGE(D139:F139,2))*0.05+(LARGE(G139:I139,1)+LARGE(G139:I139,2))*0.3+(LARGE(J139:L139,1)+LARGE(J139:L139,2))*0.15))</f>
+        <f t="shared" ref="M139" si="52">(((LARGE(D139:F139,1)+LARGE(D139:F139,2))*0.05+(LARGE(G139:I139,1)+LARGE(G139:I139,2))*0.3+(LARGE(J139:L139,1)+LARGE(J139:L139,2))*0.15))</f>
         <v>0.71450000000000002</v>
       </c>
     </row>
@@ -7329,7 +7385,7 @@
         <v>0.66</v>
       </c>
       <c r="M140" s="8">
-        <f t="shared" ref="M140" si="47">(((LARGE(D140:F140,1)+LARGE(D140:F140,2))*0.05+(LARGE(G140:I140,1)+LARGE(G140:I140,2))*0.3+(LARGE(J140:L140,1)+LARGE(J140:L140,2))*0.15))</f>
+        <f t="shared" ref="M140" si="53">(((LARGE(D140:F140,1)+LARGE(D140:F140,2))*0.05+(LARGE(G140:I140,1)+LARGE(G140:I140,2))*0.3+(LARGE(J140:L140,1)+LARGE(J140:L140,2))*0.15))</f>
         <v>0.67999999999999994</v>
       </c>
     </row>
@@ -7441,7 +7497,7 @@
         <v>0.73</v>
       </c>
       <c r="M143" s="8">
-        <f t="shared" ref="M143" si="48">(((LARGE(D143:F143,1)+LARGE(D143:F143,2))*0.05+(LARGE(G143:I143,1)+LARGE(G143:I143,2))*0.3+(LARGE(J143:L143,1)+LARGE(J143:L143,2))*0.15))</f>
+        <f t="shared" ref="M143" si="54">(((LARGE(D143:F143,1)+LARGE(D143:F143,2))*0.05+(LARGE(G143:I143,1)+LARGE(G143:I143,2))*0.3+(LARGE(J143:L143,1)+LARGE(J143:L143,2))*0.15))</f>
         <v>0.6925</v>
       </c>
     </row>
@@ -7518,7 +7574,7 @@
         <v>0.68</v>
       </c>
       <c r="M145" s="8">
-        <f t="shared" ref="M145:M146" si="49">(((LARGE(D145:F145,1)+LARGE(D145:F145,2))*0.05+(LARGE(G145:I145,1)+LARGE(G145:I145,2))*0.3+(LARGE(J145:L145,1)+LARGE(J145:L145,2))*0.15))</f>
+        <f t="shared" ref="M145:M146" si="55">(((LARGE(D145:F145,1)+LARGE(D145:F145,2))*0.05+(LARGE(G145:I145,1)+LARGE(G145:I145,2))*0.3+(LARGE(J145:L145,1)+LARGE(J145:L145,2))*0.15))</f>
         <v>0.76200000000000001</v>
       </c>
     </row>
@@ -7560,7 +7616,7 @@
         <v>0.72</v>
       </c>
       <c r="M146" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>0.77549999999999997</v>
       </c>
     </row>
@@ -7672,7 +7728,7 @@
         <v>0.65</v>
       </c>
       <c r="M149" s="8">
-        <f t="shared" ref="M149" si="50">(((LARGE(D149:F149,1)+LARGE(D149:F149,2))*0.05+(LARGE(G149:I149,1)+LARGE(G149:I149,2))*0.3+(LARGE(J149:L149,1)+LARGE(J149:L149,2))*0.15))</f>
+        <f t="shared" ref="M149" si="56">(((LARGE(D149:F149,1)+LARGE(D149:F149,2))*0.05+(LARGE(G149:I149,1)+LARGE(G149:I149,2))*0.3+(LARGE(J149:L149,1)+LARGE(J149:L149,2))*0.15))</f>
         <v>0.58299999999999996</v>
       </c>
     </row>
@@ -7784,7 +7840,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="M152" s="8">
-        <f t="shared" ref="M152" si="51">(((LARGE(D152:F152,1)+LARGE(D152:F152,2))*0.05+(LARGE(G152:I152,1)+LARGE(G152:I152,2))*0.3+(LARGE(J152:L152,1)+LARGE(J152:L152,2))*0.15))</f>
+        <f t="shared" ref="M152" si="57">(((LARGE(D152:F152,1)+LARGE(D152:F152,2))*0.05+(LARGE(G152:I152,1)+LARGE(G152:I152,2))*0.3+(LARGE(J152:L152,1)+LARGE(J152:L152,2))*0.15))</f>
         <v>0.624</v>
       </c>
     </row>
@@ -7857,6 +7913,13 @@
       <c r="K154">
         <v>0.56000000000000005</v>
       </c>
+      <c r="L154">
+        <v>0.39</v>
+      </c>
+      <c r="M154" s="8">
+        <f t="shared" ref="M154" si="58">(((LARGE(D154:F154,1)+LARGE(D154:F154,2))*0.05+(LARGE(G154:I154,1)+LARGE(G154:I154,2))*0.3+(LARGE(J154:L154,1)+LARGE(J154:L154,2))*0.15))</f>
+        <v>0.71950000000000003</v>
+      </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
@@ -8032,6 +8095,13 @@
       <c r="K159">
         <v>0.46</v>
       </c>
+      <c r="L159">
+        <v>0.86</v>
+      </c>
+      <c r="M159" s="8">
+        <f t="shared" ref="M159" si="59">(((LARGE(D159:F159,1)+LARGE(D159:F159,2))*0.05+(LARGE(G159:I159,1)+LARGE(G159:I159,2))*0.3+(LARGE(J159:L159,1)+LARGE(J159:L159,2))*0.15))</f>
+        <v>0.73349999999999993</v>
+      </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
@@ -8071,7 +8141,7 @@
         <v>0.72</v>
       </c>
       <c r="M160" s="8">
-        <f t="shared" ref="M160" si="52">(((LARGE(D160:F160,1)+LARGE(D160:F160,2))*0.05+(LARGE(G160:I160,1)+LARGE(G160:I160,2))*0.3+(LARGE(J160:L160,1)+LARGE(J160:L160,2))*0.15))</f>
+        <f t="shared" ref="M160:M161" si="60">(((LARGE(D160:F160,1)+LARGE(D160:F160,2))*0.05+(LARGE(G160:I160,1)+LARGE(G160:I160,2))*0.3+(LARGE(J160:L160,1)+LARGE(J160:L160,2))*0.15))</f>
         <v>0.66749999999999998</v>
       </c>
     </row>
@@ -8109,6 +8179,13 @@
       <c r="K161">
         <v>0.37</v>
       </c>
+      <c r="L161">
+        <v>0.69</v>
+      </c>
+      <c r="M161" s="8">
+        <f t="shared" si="60"/>
+        <v>0.75600000000000001</v>
+      </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
@@ -8148,7 +8225,7 @@
         <v>0.6</v>
       </c>
       <c r="M162" s="8">
-        <f t="shared" ref="M162:M163" si="53">(((LARGE(D162:F162,1)+LARGE(D162:F162,2))*0.05+(LARGE(G162:I162,1)+LARGE(G162:I162,2))*0.3+(LARGE(J162:L162,1)+LARGE(J162:L162,2))*0.15))</f>
+        <f t="shared" ref="M162:M163" si="61">(((LARGE(D162:F162,1)+LARGE(D162:F162,2))*0.05+(LARGE(G162:I162,1)+LARGE(G162:I162,2))*0.3+(LARGE(J162:L162,1)+LARGE(J162:L162,2))*0.15))</f>
         <v>0.68700000000000006</v>
       </c>
     </row>
@@ -8190,7 +8267,7 @@
         <v>0.59</v>
       </c>
       <c r="M163" s="8">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>0.77799999999999991</v>
       </c>
     </row>
@@ -8232,7 +8309,7 @@
         <v>0.7</v>
       </c>
       <c r="M164" s="8">
-        <f t="shared" ref="M164" si="54">(((LARGE(D164:F164,1)+LARGE(D164:F164,2))*0.05+(LARGE(G164:I164,1)+LARGE(G164:I164,2))*0.3+(LARGE(J164:L164,1)+LARGE(J164:L164,2))*0.15))</f>
+        <f t="shared" ref="M164" si="62">(((LARGE(D164:F164,1)+LARGE(D164:F164,2))*0.05+(LARGE(G164:I164,1)+LARGE(G164:I164,2))*0.3+(LARGE(J164:L164,1)+LARGE(J164:L164,2))*0.15))</f>
         <v>0.67099999999999993</v>
       </c>
     </row>
@@ -8309,7 +8386,7 @@
         <v>0.65</v>
       </c>
       <c r="M166" s="8">
-        <f t="shared" ref="M166:M167" si="55">(((LARGE(D166:F166,1)+LARGE(D166:F166,2))*0.05+(LARGE(G166:I166,1)+LARGE(G166:I166,2))*0.3+(LARGE(J166:L166,1)+LARGE(J166:L166,2))*0.15))</f>
+        <f t="shared" ref="M166:M167" si="63">(((LARGE(D166:F166,1)+LARGE(D166:F166,2))*0.05+(LARGE(G166:I166,1)+LARGE(G166:I166,2))*0.3+(LARGE(J166:L166,1)+LARGE(J166:L166,2))*0.15))</f>
         <v>0.72399999999999998</v>
       </c>
     </row>
@@ -8351,7 +8428,7 @@
         <v>0.93</v>
       </c>
       <c r="M167" s="8">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>0.86950000000000005</v>
       </c>
     </row>
@@ -8428,7 +8505,7 @@
         <v>0.51</v>
       </c>
       <c r="M169" s="8">
-        <f t="shared" ref="M169:M170" si="56">(((LARGE(D169:F169,1)+LARGE(D169:F169,2))*0.05+(LARGE(G169:I169,1)+LARGE(G169:I169,2))*0.3+(LARGE(J169:L169,1)+LARGE(J169:L169,2))*0.15))</f>
+        <f t="shared" ref="M169:M170" si="64">(((LARGE(D169:F169,1)+LARGE(D169:F169,2))*0.05+(LARGE(G169:I169,1)+LARGE(G169:I169,2))*0.3+(LARGE(J169:L169,1)+LARGE(J169:L169,2))*0.15))</f>
         <v>0.6855</v>
       </c>
     </row>
@@ -8470,7 +8547,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="M170" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>0.66149999999999998</v>
       </c>
     </row>
@@ -8512,7 +8589,7 @@
         <v>0.69</v>
       </c>
       <c r="M171" s="8">
-        <f t="shared" ref="M171" si="57">(((LARGE(D171:F171,1)+LARGE(D171:F171,2))*0.05+(LARGE(G171:I171,1)+LARGE(G171:I171,2))*0.3+(LARGE(J171:L171,1)+LARGE(J171:L171,2))*0.15))</f>
+        <f t="shared" ref="M171" si="65">(((LARGE(D171:F171,1)+LARGE(D171:F171,2))*0.05+(LARGE(G171:I171,1)+LARGE(G171:I171,2))*0.3+(LARGE(J171:L171,1)+LARGE(J171:L171,2))*0.15))</f>
         <v>0.6855</v>
       </c>
     </row>
@@ -8554,7 +8631,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="M172" s="8">
-        <f t="shared" ref="M172" si="58">(((LARGE(D172:F172,1)+LARGE(D172:F172,2))*0.05+(LARGE(G172:I172,1)+LARGE(G172:I172,2))*0.3+(LARGE(J172:L172,1)+LARGE(J172:L172,2))*0.15))</f>
+        <f t="shared" ref="M172" si="66">(((LARGE(D172:F172,1)+LARGE(D172:F172,2))*0.05+(LARGE(G172:I172,1)+LARGE(G172:I172,2))*0.3+(LARGE(J172:L172,1)+LARGE(J172:L172,2))*0.15))</f>
         <v>0.61799999999999999</v>
       </c>
     </row>
@@ -8596,7 +8673,7 @@
         <v>0.61</v>
       </c>
       <c r="M173" s="8">
-        <f t="shared" ref="M173" si="59">(((LARGE(D173:F173,1)+LARGE(D173:F173,2))*0.05+(LARGE(G173:I173,1)+LARGE(G173:I173,2))*0.3+(LARGE(J173:L173,1)+LARGE(J173:L173,2))*0.15))</f>
+        <f t="shared" ref="M173" si="67">(((LARGE(D173:F173,1)+LARGE(D173:F173,2))*0.05+(LARGE(G173:I173,1)+LARGE(G173:I173,2))*0.3+(LARGE(J173:L173,1)+LARGE(J173:L173,2))*0.15))</f>
         <v>0.71</v>
       </c>
     </row>
@@ -8673,7 +8750,7 @@
         <v>0.49</v>
       </c>
       <c r="M175" s="8">
-        <f t="shared" ref="M175" si="60">(((LARGE(D175:F175,1)+LARGE(D175:F175,2))*0.05+(LARGE(G175:I175,1)+LARGE(G175:I175,2))*0.3+(LARGE(J175:L175,1)+LARGE(J175:L175,2))*0.15))</f>
+        <f t="shared" ref="M175:M176" si="68">(((LARGE(D175:F175,1)+LARGE(D175:F175,2))*0.05+(LARGE(G175:I175,1)+LARGE(G175:I175,2))*0.3+(LARGE(J175:L175,1)+LARGE(J175:L175,2))*0.15))</f>
         <v>0.70800000000000007</v>
       </c>
     </row>
@@ -8711,6 +8788,13 @@
       <c r="K176">
         <v>0.79</v>
       </c>
+      <c r="L176">
+        <v>0.62</v>
+      </c>
+      <c r="M176" s="8">
+        <f t="shared" si="68"/>
+        <v>0.71199999999999997</v>
+      </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
@@ -8855,7 +8939,7 @@
         <v>0.63</v>
       </c>
       <c r="M180" s="8">
-        <f t="shared" ref="M180:M181" si="61">(((LARGE(D180:F180,1)+LARGE(D180:F180,2))*0.05+(LARGE(G180:I180,1)+LARGE(G180:I180,2))*0.3+(LARGE(J180:L180,1)+LARGE(J180:L180,2))*0.15))</f>
+        <f t="shared" ref="M180:M181" si="69">(((LARGE(D180:F180,1)+LARGE(D180:F180,2))*0.05+(LARGE(G180:I180,1)+LARGE(G180:I180,2))*0.3+(LARGE(J180:L180,1)+LARGE(J180:L180,2))*0.15))</f>
         <v>0.68400000000000005</v>
       </c>
     </row>
@@ -8897,7 +8981,7 @@
         <v>0.36</v>
       </c>
       <c r="M181" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>0.72850000000000004</v>
       </c>
     </row>
@@ -8974,7 +9058,7 @@
         <v>0.51</v>
       </c>
       <c r="M183" s="8">
-        <f t="shared" ref="M183:M185" si="62">(((LARGE(D183:F183,1)+LARGE(D183:F183,2))*0.05+(LARGE(G183:I183,1)+LARGE(G183:I183,2))*0.3+(LARGE(J183:L183,1)+LARGE(J183:L183,2))*0.15))</f>
+        <f t="shared" ref="M183:M185" si="70">(((LARGE(D183:F183,1)+LARGE(D183:F183,2))*0.05+(LARGE(G183:I183,1)+LARGE(G183:I183,2))*0.3+(LARGE(J183:L183,1)+LARGE(J183:L183,2))*0.15))</f>
         <v>0.65900000000000003</v>
       </c>
     </row>
@@ -9051,7 +9135,7 @@
         <v>0.64</v>
       </c>
       <c r="M185" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>0.72399999999999998</v>
       </c>
     </row>
@@ -9128,7 +9212,7 @@
         <v>0.61</v>
       </c>
       <c r="M187" s="8">
-        <f t="shared" ref="M187:M188" si="63">(((LARGE(D187:F187,1)+LARGE(D187:F187,2))*0.05+(LARGE(G187:I187,1)+LARGE(G187:I187,2))*0.3+(LARGE(J187:L187,1)+LARGE(J187:L187,2))*0.15))</f>
+        <f t="shared" ref="M187:M188" si="71">(((LARGE(D187:F187,1)+LARGE(D187:F187,2))*0.05+(LARGE(G187:I187,1)+LARGE(G187:I187,2))*0.3+(LARGE(J187:L187,1)+LARGE(J187:L187,2))*0.15))</f>
         <v>0.66149999999999998</v>
       </c>
     </row>
@@ -9170,7 +9254,7 @@
         <v>0.49</v>
       </c>
       <c r="M188" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>0.63</v>
       </c>
     </row>
@@ -9212,7 +9296,7 @@
         <v>0.7</v>
       </c>
       <c r="M189" s="8">
-        <f t="shared" ref="M189" si="64">(((LARGE(D189:F189,1)+LARGE(D189:F189,2))*0.05+(LARGE(G189:I189,1)+LARGE(G189:I189,2))*0.3+(LARGE(J189:L189,1)+LARGE(J189:L189,2))*0.15))</f>
+        <f t="shared" ref="M189" si="72">(((LARGE(D189:F189,1)+LARGE(D189:F189,2))*0.05+(LARGE(G189:I189,1)+LARGE(G189:I189,2))*0.3+(LARGE(J189:L189,1)+LARGE(J189:L189,2))*0.15))</f>
         <v>0.48250000000000004</v>
       </c>
     </row>
@@ -9324,7 +9408,7 @@
         <v>0.65</v>
       </c>
       <c r="M192" s="8">
-        <f t="shared" ref="M192" si="65">(((LARGE(D192:F192,1)+LARGE(D192:F192,2))*0.05+(LARGE(G192:I192,1)+LARGE(G192:I192,2))*0.3+(LARGE(J192:L192,1)+LARGE(J192:L192,2))*0.15))</f>
+        <f t="shared" ref="M192:M193" si="73">(((LARGE(D192:F192,1)+LARGE(D192:F192,2))*0.05+(LARGE(G192:I192,1)+LARGE(G192:I192,2))*0.3+(LARGE(J192:L192,1)+LARGE(J192:L192,2))*0.15))</f>
         <v>0.64049999999999996</v>
       </c>
     </row>
@@ -9362,6 +9446,13 @@
       <c r="K193">
         <v>0.37</v>
       </c>
+      <c r="L193">
+        <v>0.69</v>
+      </c>
+      <c r="M193" s="8">
+        <f t="shared" si="73"/>
+        <v>0.77100000000000002</v>
+      </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
@@ -9436,7 +9527,7 @@
         <v>0.78</v>
       </c>
       <c r="M195" s="8">
-        <f t="shared" ref="M195:M196" si="66">(((LARGE(D195:F195,1)+LARGE(D195:F195,2))*0.05+(LARGE(G195:I195,1)+LARGE(G195:I195,2))*0.3+(LARGE(J195:L195,1)+LARGE(J195:L195,2))*0.15))</f>
+        <f t="shared" ref="M195:M196" si="74">(((LARGE(D195:F195,1)+LARGE(D195:F195,2))*0.05+(LARGE(G195:I195,1)+LARGE(G195:I195,2))*0.3+(LARGE(J195:L195,1)+LARGE(J195:L195,2))*0.15))</f>
         <v>0.78700000000000003</v>
       </c>
     </row>
@@ -9478,7 +9569,7 @@
         <v>0.69</v>
       </c>
       <c r="M196" s="8">
-        <f t="shared" si="66"/>
+        <f t="shared" si="74"/>
         <v>0.67349999999999999</v>
       </c>
     </row>
@@ -9520,7 +9611,7 @@
         <v>0.77</v>
       </c>
       <c r="M197" s="8">
-        <f t="shared" ref="M197:M199" si="67">(((LARGE(D197:F197,1)+LARGE(D197:F197,2))*0.05+(LARGE(G197:I197,1)+LARGE(G197:I197,2))*0.3+(LARGE(J197:L197,1)+LARGE(J197:L197,2))*0.15))</f>
+        <f t="shared" ref="M197:M199" si="75">(((LARGE(D197:F197,1)+LARGE(D197:F197,2))*0.05+(LARGE(G197:I197,1)+LARGE(G197:I197,2))*0.3+(LARGE(J197:L197,1)+LARGE(J197:L197,2))*0.15))</f>
         <v>0.73450000000000004</v>
       </c>
     </row>
@@ -9562,7 +9653,7 @@
         <v>0.7</v>
       </c>
       <c r="M198" s="8">
-        <f t="shared" si="67"/>
+        <f t="shared" si="75"/>
         <v>0.79299999999999993</v>
       </c>
     </row>
@@ -9604,7 +9695,7 @@
         <v>0.68</v>
       </c>
       <c r="M199" s="8">
-        <f t="shared" si="67"/>
+        <f t="shared" si="75"/>
         <v>0.77</v>
       </c>
     </row>
@@ -9646,7 +9737,7 @@
         <v>0.87</v>
       </c>
       <c r="M200" s="8">
-        <f t="shared" ref="M200:M201" si="68">(((LARGE(D200:F200,1)+LARGE(D200:F200,2))*0.05+(LARGE(G200:I200,1)+LARGE(G200:I200,2))*0.3+(LARGE(J200:L200,1)+LARGE(J200:L200,2))*0.15))</f>
+        <f t="shared" ref="M200:M201" si="76">(((LARGE(D200:F200,1)+LARGE(D200:F200,2))*0.05+(LARGE(G200:I200,1)+LARGE(G200:I200,2))*0.3+(LARGE(J200:L200,1)+LARGE(J200:L200,2))*0.15))</f>
         <v>0.69500000000000006</v>
       </c>
     </row>
@@ -9688,7 +9779,7 @@
         <v>0.7</v>
       </c>
       <c r="M201" s="8">
-        <f t="shared" si="68"/>
+        <f t="shared" si="76"/>
         <v>0.71550000000000002</v>
       </c>
     </row>
@@ -9730,7 +9821,7 @@
         <v>0.63</v>
       </c>
       <c r="M202" s="8">
-        <f t="shared" ref="M202" si="69">(((LARGE(D202:F202,1)+LARGE(D202:F202,2))*0.05+(LARGE(G202:I202,1)+LARGE(G202:I202,2))*0.3+(LARGE(J202:L202,1)+LARGE(J202:L202,2))*0.15))</f>
+        <f t="shared" ref="M202:M203" si="77">(((LARGE(D202:F202,1)+LARGE(D202:F202,2))*0.05+(LARGE(G202:I202,1)+LARGE(G202:I202,2))*0.3+(LARGE(J202:L202,1)+LARGE(J202:L202,2))*0.15))</f>
         <v>0.59000000000000008</v>
       </c>
     </row>
@@ -9768,6 +9859,13 @@
       <c r="K203">
         <v>0.81</v>
       </c>
+      <c r="L203">
+        <v>0.65</v>
+      </c>
+      <c r="M203" s="8">
+        <f t="shared" si="77"/>
+        <v>0.69199999999999995</v>
+      </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
@@ -9807,7 +9905,7 @@
         <v>0.7</v>
       </c>
       <c r="M204" s="8">
-        <f t="shared" ref="M204" si="70">(((LARGE(D204:F204,1)+LARGE(D204:F204,2))*0.05+(LARGE(G204:I204,1)+LARGE(G204:I204,2))*0.3+(LARGE(J204:L204,1)+LARGE(J204:L204,2))*0.15))</f>
+        <f t="shared" ref="M204" si="78">(((LARGE(D204:F204,1)+LARGE(D204:F204,2))*0.05+(LARGE(G204:I204,1)+LARGE(G204:I204,2))*0.3+(LARGE(J204:L204,1)+LARGE(J204:L204,2))*0.15))</f>
         <v>0.75349999999999995</v>
       </c>
     </row>
@@ -9849,7 +9947,7 @@
         <v>0.6</v>
       </c>
       <c r="M205" s="8">
-        <f t="shared" ref="M205:M206" si="71">(((LARGE(D205:F205,1)+LARGE(D205:F205,2))*0.05+(LARGE(G205:I205,1)+LARGE(G205:I205,2))*0.3+(LARGE(J205:L205,1)+LARGE(J205:L205,2))*0.15))</f>
+        <f t="shared" ref="M205:M206" si="79">(((LARGE(D205:F205,1)+LARGE(D205:F205,2))*0.05+(LARGE(G205:I205,1)+LARGE(G205:I205,2))*0.3+(LARGE(J205:L205,1)+LARGE(J205:L205,2))*0.15))</f>
         <v>0.65349999999999997</v>
       </c>
     </row>
@@ -9891,7 +9989,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="M206" s="8">
-        <f t="shared" si="71"/>
+        <f t="shared" si="79"/>
         <v>0.53800000000000003</v>
       </c>
     </row>
@@ -9933,7 +10031,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="M207" s="8">
-        <f t="shared" ref="M207:M208" si="72">(((LARGE(D207:F207,1)+LARGE(D207:F207,2))*0.05+(LARGE(G207:I207,1)+LARGE(G207:I207,2))*0.3+(LARGE(J207:L207,1)+LARGE(J207:L207,2))*0.15))</f>
+        <f t="shared" ref="M207:M208" si="80">(((LARGE(D207:F207,1)+LARGE(D207:F207,2))*0.05+(LARGE(G207:I207,1)+LARGE(G207:I207,2))*0.3+(LARGE(J207:L207,1)+LARGE(J207:L207,2))*0.15))</f>
         <v>0.74550000000000005</v>
       </c>
     </row>
@@ -9975,7 +10073,7 @@
         <v>0.6</v>
       </c>
       <c r="M208" s="8">
-        <f t="shared" si="72"/>
+        <f t="shared" si="80"/>
         <v>0.69550000000000012</v>
       </c>
     </row>
@@ -10017,7 +10115,7 @@
         <v>0.68</v>
       </c>
       <c r="M209" s="8">
-        <f t="shared" ref="M209:M210" si="73">(((LARGE(D209:F209,1)+LARGE(D209:F209,2))*0.05+(LARGE(G209:I209,1)+LARGE(G209:I209,2))*0.3+(LARGE(J209:L209,1)+LARGE(J209:L209,2))*0.15))</f>
+        <f t="shared" ref="M209:M210" si="81">(((LARGE(D209:F209,1)+LARGE(D209:F209,2))*0.05+(LARGE(G209:I209,1)+LARGE(G209:I209,2))*0.3+(LARGE(J209:L209,1)+LARGE(J209:L209,2))*0.15))</f>
         <v>0.81850000000000001</v>
       </c>
     </row>
@@ -10059,7 +10157,7 @@
         <v>0.59</v>
       </c>
       <c r="M210" s="8">
-        <f t="shared" si="73"/>
+        <f t="shared" si="81"/>
         <v>0.75800000000000001</v>
       </c>
     </row>
@@ -10136,7 +10234,7 @@
         <v>0.93</v>
       </c>
       <c r="M212" s="8">
-        <f t="shared" ref="M212" si="74">(((LARGE(D212:F212,1)+LARGE(D212:F212,2))*0.05+(LARGE(G212:I212,1)+LARGE(G212:I212,2))*0.3+(LARGE(J212:L212,1)+LARGE(J212:L212,2))*0.15))</f>
+        <f t="shared" ref="M212" si="82">(((LARGE(D212:F212,1)+LARGE(D212:F212,2))*0.05+(LARGE(G212:I212,1)+LARGE(G212:I212,2))*0.3+(LARGE(J212:L212,1)+LARGE(J212:L212,2))*0.15))</f>
         <v>0.70949999999999991</v>
       </c>
     </row>
@@ -10178,7 +10276,7 @@
         <v>0.8</v>
       </c>
       <c r="M213" s="8">
-        <f t="shared" ref="M213" si="75">(((LARGE(D213:F213,1)+LARGE(D213:F213,2))*0.05+(LARGE(G213:I213,1)+LARGE(G213:I213,2))*0.3+(LARGE(J213:L213,1)+LARGE(J213:L213,2))*0.15))</f>
+        <f t="shared" ref="M213" si="83">(((LARGE(D213:F213,1)+LARGE(D213:F213,2))*0.05+(LARGE(G213:I213,1)+LARGE(G213:I213,2))*0.3+(LARGE(J213:L213,1)+LARGE(J213:L213,2))*0.15))</f>
         <v>0.63849999999999996</v>
       </c>
     </row>
@@ -10220,7 +10318,7 @@
         <v>0.54</v>
       </c>
       <c r="M214" s="8">
-        <f t="shared" ref="M214" si="76">(((LARGE(D214:F214,1)+LARGE(D214:F214,2))*0.05+(LARGE(G214:I214,1)+LARGE(G214:I214,2))*0.3+(LARGE(J214:L214,1)+LARGE(J214:L214,2))*0.15))</f>
+        <f t="shared" ref="M214" si="84">(((LARGE(D214:F214,1)+LARGE(D214:F214,2))*0.05+(LARGE(G214:I214,1)+LARGE(G214:I214,2))*0.3+(LARGE(J214:L214,1)+LARGE(J214:L214,2))*0.15))</f>
         <v>0.84700000000000009</v>
       </c>
     </row>
@@ -10293,6 +10391,13 @@
       <c r="K216">
         <v>0.79</v>
       </c>
+      <c r="L216">
+        <v>0.62</v>
+      </c>
+      <c r="M216" s="8">
+        <f t="shared" ref="M216:M217" si="85">(((LARGE(D216:F216,1)+LARGE(D216:F216,2))*0.05+(LARGE(G216:I216,1)+LARGE(G216:I216,2))*0.3+(LARGE(J216:L216,1)+LARGE(J216:L216,2))*0.15))</f>
+        <v>0.66100000000000003</v>
+      </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
@@ -10332,7 +10437,7 @@
         <v>0.64</v>
       </c>
       <c r="M217" s="8">
-        <f t="shared" ref="M217" si="77">(((LARGE(D217:F217,1)+LARGE(D217:F217,2))*0.05+(LARGE(G217:I217,1)+LARGE(G217:I217,2))*0.3+(LARGE(J217:L217,1)+LARGE(J217:L217,2))*0.15))</f>
+        <f t="shared" si="85"/>
         <v>0.77549999999999986</v>
       </c>
     </row>
@@ -10444,7 +10549,7 @@
         <v>0.77</v>
       </c>
       <c r="M220" s="8">
-        <f t="shared" ref="M220" si="78">(((LARGE(D220:F220,1)+LARGE(D220:F220,2))*0.05+(LARGE(G220:I220,1)+LARGE(G220:I220,2))*0.3+(LARGE(J220:L220,1)+LARGE(J220:L220,2))*0.15))</f>
+        <f t="shared" ref="M220" si="86">(((LARGE(D220:F220,1)+LARGE(D220:F220,2))*0.05+(LARGE(G220:I220,1)+LARGE(G220:I220,2))*0.3+(LARGE(J220:L220,1)+LARGE(J220:L220,2))*0.15))</f>
         <v>0.7</v>
       </c>
     </row>
@@ -10521,7 +10626,7 @@
         <v>0.54</v>
       </c>
       <c r="M222" s="8">
-        <f t="shared" ref="M222" si="79">(((LARGE(D222:F222,1)+LARGE(D222:F222,2))*0.05+(LARGE(G222:I222,1)+LARGE(G222:I222,2))*0.3+(LARGE(J222:L222,1)+LARGE(J222:L222,2))*0.15))</f>
+        <f t="shared" ref="M222" si="87">(((LARGE(D222:F222,1)+LARGE(D222:F222,2))*0.05+(LARGE(G222:I222,1)+LARGE(G222:I222,2))*0.3+(LARGE(J222:L222,1)+LARGE(J222:L222,2))*0.15))</f>
         <v>0.72299999999999998</v>
       </c>
     </row>
@@ -10598,7 +10703,7 @@
         <v>0.87</v>
       </c>
       <c r="M224" s="8">
-        <f t="shared" ref="M224:M225" si="80">(((LARGE(D224:F224,1)+LARGE(D224:F224,2))*0.05+(LARGE(G224:I224,1)+LARGE(G224:I224,2))*0.3+(LARGE(J224:L224,1)+LARGE(J224:L224,2))*0.15))</f>
+        <f t="shared" ref="M224:M225" si="88">(((LARGE(D224:F224,1)+LARGE(D224:F224,2))*0.05+(LARGE(G224:I224,1)+LARGE(G224:I224,2))*0.3+(LARGE(J224:L224,1)+LARGE(J224:L224,2))*0.15))</f>
         <v>0.79449999999999998</v>
       </c>
     </row>
@@ -10640,7 +10745,7 @@
         <v>0.7</v>
       </c>
       <c r="M225" s="8">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>0.66100000000000003</v>
       </c>
     </row>
@@ -10717,7 +10822,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="M227" s="8">
-        <f t="shared" ref="M227" si="81">(((LARGE(D227:F227,1)+LARGE(D227:F227,2))*0.05+(LARGE(G227:I227,1)+LARGE(G227:I227,2))*0.3+(LARGE(J227:L227,1)+LARGE(J227:L227,2))*0.15))</f>
+        <f t="shared" ref="M227" si="89">(((LARGE(D227:F227,1)+LARGE(D227:F227,2))*0.05+(LARGE(G227:I227,1)+LARGE(G227:I227,2))*0.3+(LARGE(J227:L227,1)+LARGE(J227:L227,2))*0.15))</f>
         <v>0.64749999999999996</v>
       </c>
     </row>
@@ -10794,7 +10899,7 @@
         <v>0.78</v>
       </c>
       <c r="M229" s="8">
-        <f t="shared" ref="M229" si="82">(((LARGE(D229:F229,1)+LARGE(D229:F229,2))*0.05+(LARGE(G229:I229,1)+LARGE(G229:I229,2))*0.3+(LARGE(J229:L229,1)+LARGE(J229:L229,2))*0.15))</f>
+        <f t="shared" ref="M229" si="90">(((LARGE(D229:F229,1)+LARGE(D229:F229,2))*0.05+(LARGE(G229:I229,1)+LARGE(G229:I229,2))*0.3+(LARGE(J229:L229,1)+LARGE(J229:L229,2))*0.15))</f>
         <v>0.73449999999999993</v>
       </c>
     </row>

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABB0305-A48F-484E-9B2E-73A079815041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504D3158-62C1-484C-879D-DA36FDD99509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="960" windowWidth="29360" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -1938,8 +1938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="M154" sqref="M154"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -4948,6 +4948,9 @@
       <c r="F77">
         <v>0.96</v>
       </c>
+      <c r="G77">
+        <v>0.35</v>
+      </c>
       <c r="H77" s="5">
         <v>0</v>
       </c>
@@ -4963,7 +4966,10 @@
       <c r="L77">
         <v>0.7</v>
       </c>
-      <c r="M77" s="8"/>
+      <c r="M77" s="8">
+        <f t="shared" si="28"/>
+        <v>0.495</v>
+      </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504D3158-62C1-484C-879D-DA36FDD99509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543E2DDD-BF9D-3244-9A9B-776C54FA35C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="960" windowWidth="29360" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -1938,8 +1938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -3329,7 +3329,7 @@
         <v>0.8</v>
       </c>
       <c r="M35" s="8">
-        <f t="shared" ref="M34:M35" si="13">(((LARGE(D35:F35,1)+LARGE(D35:F35,2))*0.05+(LARGE(G35:I35,1)+LARGE(G35:I35,2))*0.3+(LARGE(J35:L35,1)+LARGE(J35:L35,2))*0.15))</f>
+        <f t="shared" ref="M34:M36" si="13">(((LARGE(D35:F35,1)+LARGE(D35:F35,2))*0.05+(LARGE(G35:I35,1)+LARGE(G35:I35,2))*0.3+(LARGE(J35:L35,1)+LARGE(J35:L35,2))*0.15))</f>
         <v>0.70705825242718467</v>
       </c>
     </row>
@@ -3367,6 +3367,13 @@
       <c r="K36">
         <v>0</v>
       </c>
+      <c r="L36">
+        <v>0.53</v>
+      </c>
+      <c r="M36" s="8">
+        <f t="shared" si="13"/>
+        <v>0.67249514563106794</v>
+      </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -6600,7 +6607,7 @@
         <v>0.78</v>
       </c>
       <c r="M119" s="8">
-        <f t="shared" ref="M119:M120" si="46">(((LARGE(D119:F119,1)+LARGE(D119:F119,2))*0.05+(LARGE(G119:I119,1)+LARGE(G119:I119,2))*0.3+(LARGE(J119:L119,1)+LARGE(J119:L119,2))*0.15))</f>
+        <f t="shared" ref="M119:M121" si="46">(((LARGE(D119:F119,1)+LARGE(D119:F119,2))*0.05+(LARGE(G119:I119,1)+LARGE(G119:I119,2))*0.3+(LARGE(J119:L119,1)+LARGE(J119:L119,2))*0.15))</f>
         <v>0.61550000000000005</v>
       </c>
     </row>
@@ -6680,6 +6687,13 @@
       <c r="K121">
         <v>0.63</v>
       </c>
+      <c r="L121">
+        <v>0.53</v>
+      </c>
+      <c r="M121" s="8">
+        <f t="shared" si="46"/>
+        <v>0.69650000000000001</v>
+      </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
@@ -8906,6 +8920,13 @@
       <c r="K179">
         <v>0.85</v>
       </c>
+      <c r="L179">
+        <v>0.49</v>
+      </c>
+      <c r="M179" s="8">
+        <f t="shared" ref="M179" si="69">(((LARGE(D179:F179,1)+LARGE(D179:F179,2))*0.05+(LARGE(G179:I179,1)+LARGE(G179:I179,2))*0.3+(LARGE(J179:L179,1)+LARGE(J179:L179,2))*0.15))</f>
+        <v>0.74849999999999994</v>
+      </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
@@ -8945,7 +8966,7 @@
         <v>0.63</v>
       </c>
       <c r="M180" s="8">
-        <f t="shared" ref="M180:M181" si="69">(((LARGE(D180:F180,1)+LARGE(D180:F180,2))*0.05+(LARGE(G180:I180,1)+LARGE(G180:I180,2))*0.3+(LARGE(J180:L180,1)+LARGE(J180:L180,2))*0.15))</f>
+        <f t="shared" ref="M180:M181" si="70">(((LARGE(D180:F180,1)+LARGE(D180:F180,2))*0.05+(LARGE(G180:I180,1)+LARGE(G180:I180,2))*0.3+(LARGE(J180:L180,1)+LARGE(J180:L180,2))*0.15))</f>
         <v>0.68400000000000005</v>
       </c>
     </row>
@@ -8987,7 +9008,7 @@
         <v>0.36</v>
       </c>
       <c r="M181" s="8">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>0.72850000000000004</v>
       </c>
     </row>
@@ -9064,7 +9085,7 @@
         <v>0.51</v>
       </c>
       <c r="M183" s="8">
-        <f t="shared" ref="M183:M185" si="70">(((LARGE(D183:F183,1)+LARGE(D183:F183,2))*0.05+(LARGE(G183:I183,1)+LARGE(G183:I183,2))*0.3+(LARGE(J183:L183,1)+LARGE(J183:L183,2))*0.15))</f>
+        <f t="shared" ref="M183:M185" si="71">(((LARGE(D183:F183,1)+LARGE(D183:F183,2))*0.05+(LARGE(G183:I183,1)+LARGE(G183:I183,2))*0.3+(LARGE(J183:L183,1)+LARGE(J183:L183,2))*0.15))</f>
         <v>0.65900000000000003</v>
       </c>
     </row>
@@ -9102,6 +9123,13 @@
       <c r="K184">
         <v>0.52</v>
       </c>
+      <c r="L184">
+        <v>0.49</v>
+      </c>
+      <c r="M184" s="8">
+        <f t="shared" si="71"/>
+        <v>0.74950000000000006</v>
+      </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
@@ -9141,7 +9169,7 @@
         <v>0.64</v>
       </c>
       <c r="M185" s="8">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.72399999999999998</v>
       </c>
     </row>
@@ -9218,7 +9246,7 @@
         <v>0.61</v>
       </c>
       <c r="M187" s="8">
-        <f t="shared" ref="M187:M188" si="71">(((LARGE(D187:F187,1)+LARGE(D187:F187,2))*0.05+(LARGE(G187:I187,1)+LARGE(G187:I187,2))*0.3+(LARGE(J187:L187,1)+LARGE(J187:L187,2))*0.15))</f>
+        <f t="shared" ref="M187:M188" si="72">(((LARGE(D187:F187,1)+LARGE(D187:F187,2))*0.05+(LARGE(G187:I187,1)+LARGE(G187:I187,2))*0.3+(LARGE(J187:L187,1)+LARGE(J187:L187,2))*0.15))</f>
         <v>0.66149999999999998</v>
       </c>
     </row>
@@ -9260,7 +9288,7 @@
         <v>0.49</v>
       </c>
       <c r="M188" s="8">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0.63</v>
       </c>
     </row>
@@ -9302,7 +9330,7 @@
         <v>0.7</v>
       </c>
       <c r="M189" s="8">
-        <f t="shared" ref="M189" si="72">(((LARGE(D189:F189,1)+LARGE(D189:F189,2))*0.05+(LARGE(G189:I189,1)+LARGE(G189:I189,2))*0.3+(LARGE(J189:L189,1)+LARGE(J189:L189,2))*0.15))</f>
+        <f t="shared" ref="M189" si="73">(((LARGE(D189:F189,1)+LARGE(D189:F189,2))*0.05+(LARGE(G189:I189,1)+LARGE(G189:I189,2))*0.3+(LARGE(J189:L189,1)+LARGE(J189:L189,2))*0.15))</f>
         <v>0.48250000000000004</v>
       </c>
     </row>
@@ -9414,7 +9442,7 @@
         <v>0.65</v>
       </c>
       <c r="M192" s="8">
-        <f t="shared" ref="M192:M193" si="73">(((LARGE(D192:F192,1)+LARGE(D192:F192,2))*0.05+(LARGE(G192:I192,1)+LARGE(G192:I192,2))*0.3+(LARGE(J192:L192,1)+LARGE(J192:L192,2))*0.15))</f>
+        <f t="shared" ref="M192:M193" si="74">(((LARGE(D192:F192,1)+LARGE(D192:F192,2))*0.05+(LARGE(G192:I192,1)+LARGE(G192:I192,2))*0.3+(LARGE(J192:L192,1)+LARGE(J192:L192,2))*0.15))</f>
         <v>0.64049999999999996</v>
       </c>
     </row>
@@ -9456,7 +9484,7 @@
         <v>0.69</v>
       </c>
       <c r="M193" s="8">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.77100000000000002</v>
       </c>
     </row>
@@ -9533,7 +9561,7 @@
         <v>0.78</v>
       </c>
       <c r="M195" s="8">
-        <f t="shared" ref="M195:M196" si="74">(((LARGE(D195:F195,1)+LARGE(D195:F195,2))*0.05+(LARGE(G195:I195,1)+LARGE(G195:I195,2))*0.3+(LARGE(J195:L195,1)+LARGE(J195:L195,2))*0.15))</f>
+        <f t="shared" ref="M195:M196" si="75">(((LARGE(D195:F195,1)+LARGE(D195:F195,2))*0.05+(LARGE(G195:I195,1)+LARGE(G195:I195,2))*0.3+(LARGE(J195:L195,1)+LARGE(J195:L195,2))*0.15))</f>
         <v>0.78700000000000003</v>
       </c>
     </row>
@@ -9575,7 +9603,7 @@
         <v>0.69</v>
       </c>
       <c r="M196" s="8">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.67349999999999999</v>
       </c>
     </row>
@@ -9617,7 +9645,7 @@
         <v>0.77</v>
       </c>
       <c r="M197" s="8">
-        <f t="shared" ref="M197:M199" si="75">(((LARGE(D197:F197,1)+LARGE(D197:F197,2))*0.05+(LARGE(G197:I197,1)+LARGE(G197:I197,2))*0.3+(LARGE(J197:L197,1)+LARGE(J197:L197,2))*0.15))</f>
+        <f t="shared" ref="M197:M199" si="76">(((LARGE(D197:F197,1)+LARGE(D197:F197,2))*0.05+(LARGE(G197:I197,1)+LARGE(G197:I197,2))*0.3+(LARGE(J197:L197,1)+LARGE(J197:L197,2))*0.15))</f>
         <v>0.73450000000000004</v>
       </c>
     </row>
@@ -9659,7 +9687,7 @@
         <v>0.7</v>
       </c>
       <c r="M198" s="8">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.79299999999999993</v>
       </c>
     </row>
@@ -9701,7 +9729,7 @@
         <v>0.68</v>
       </c>
       <c r="M199" s="8">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.77</v>
       </c>
     </row>
@@ -9743,7 +9771,7 @@
         <v>0.87</v>
       </c>
       <c r="M200" s="8">
-        <f t="shared" ref="M200:M201" si="76">(((LARGE(D200:F200,1)+LARGE(D200:F200,2))*0.05+(LARGE(G200:I200,1)+LARGE(G200:I200,2))*0.3+(LARGE(J200:L200,1)+LARGE(J200:L200,2))*0.15))</f>
+        <f t="shared" ref="M200:M201" si="77">(((LARGE(D200:F200,1)+LARGE(D200:F200,2))*0.05+(LARGE(G200:I200,1)+LARGE(G200:I200,2))*0.3+(LARGE(J200:L200,1)+LARGE(J200:L200,2))*0.15))</f>
         <v>0.69500000000000006</v>
       </c>
     </row>
@@ -9785,7 +9813,7 @@
         <v>0.7</v>
       </c>
       <c r="M201" s="8">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.71550000000000002</v>
       </c>
     </row>
@@ -9827,7 +9855,7 @@
         <v>0.63</v>
       </c>
       <c r="M202" s="8">
-        <f t="shared" ref="M202:M203" si="77">(((LARGE(D202:F202,1)+LARGE(D202:F202,2))*0.05+(LARGE(G202:I202,1)+LARGE(G202:I202,2))*0.3+(LARGE(J202:L202,1)+LARGE(J202:L202,2))*0.15))</f>
+        <f t="shared" ref="M202:M203" si="78">(((LARGE(D202:F202,1)+LARGE(D202:F202,2))*0.05+(LARGE(G202:I202,1)+LARGE(G202:I202,2))*0.3+(LARGE(J202:L202,1)+LARGE(J202:L202,2))*0.15))</f>
         <v>0.59000000000000008</v>
       </c>
     </row>
@@ -9869,7 +9897,7 @@
         <v>0.65</v>
       </c>
       <c r="M203" s="8">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0.69199999999999995</v>
       </c>
     </row>
@@ -9911,7 +9939,7 @@
         <v>0.7</v>
       </c>
       <c r="M204" s="8">
-        <f t="shared" ref="M204" si="78">(((LARGE(D204:F204,1)+LARGE(D204:F204,2))*0.05+(LARGE(G204:I204,1)+LARGE(G204:I204,2))*0.3+(LARGE(J204:L204,1)+LARGE(J204:L204,2))*0.15))</f>
+        <f t="shared" ref="M204" si="79">(((LARGE(D204:F204,1)+LARGE(D204:F204,2))*0.05+(LARGE(G204:I204,1)+LARGE(G204:I204,2))*0.3+(LARGE(J204:L204,1)+LARGE(J204:L204,2))*0.15))</f>
         <v>0.75349999999999995</v>
       </c>
     </row>
@@ -9953,7 +9981,7 @@
         <v>0.6</v>
       </c>
       <c r="M205" s="8">
-        <f t="shared" ref="M205:M206" si="79">(((LARGE(D205:F205,1)+LARGE(D205:F205,2))*0.05+(LARGE(G205:I205,1)+LARGE(G205:I205,2))*0.3+(LARGE(J205:L205,1)+LARGE(J205:L205,2))*0.15))</f>
+        <f t="shared" ref="M205:M206" si="80">(((LARGE(D205:F205,1)+LARGE(D205:F205,2))*0.05+(LARGE(G205:I205,1)+LARGE(G205:I205,2))*0.3+(LARGE(J205:L205,1)+LARGE(J205:L205,2))*0.15))</f>
         <v>0.65349999999999997</v>
       </c>
     </row>
@@ -9995,7 +10023,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="M206" s="8">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0.53800000000000003</v>
       </c>
     </row>
@@ -10037,7 +10065,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="M207" s="8">
-        <f t="shared" ref="M207:M208" si="80">(((LARGE(D207:F207,1)+LARGE(D207:F207,2))*0.05+(LARGE(G207:I207,1)+LARGE(G207:I207,2))*0.3+(LARGE(J207:L207,1)+LARGE(J207:L207,2))*0.15))</f>
+        <f t="shared" ref="M207:M208" si="81">(((LARGE(D207:F207,1)+LARGE(D207:F207,2))*0.05+(LARGE(G207:I207,1)+LARGE(G207:I207,2))*0.3+(LARGE(J207:L207,1)+LARGE(J207:L207,2))*0.15))</f>
         <v>0.74550000000000005</v>
       </c>
     </row>
@@ -10079,7 +10107,7 @@
         <v>0.6</v>
       </c>
       <c r="M208" s="8">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0.69550000000000012</v>
       </c>
     </row>
@@ -10121,7 +10149,7 @@
         <v>0.68</v>
       </c>
       <c r="M209" s="8">
-        <f t="shared" ref="M209:M210" si="81">(((LARGE(D209:F209,1)+LARGE(D209:F209,2))*0.05+(LARGE(G209:I209,1)+LARGE(G209:I209,2))*0.3+(LARGE(J209:L209,1)+LARGE(J209:L209,2))*0.15))</f>
+        <f t="shared" ref="M209:M210" si="82">(((LARGE(D209:F209,1)+LARGE(D209:F209,2))*0.05+(LARGE(G209:I209,1)+LARGE(G209:I209,2))*0.3+(LARGE(J209:L209,1)+LARGE(J209:L209,2))*0.15))</f>
         <v>0.81850000000000001</v>
       </c>
     </row>
@@ -10163,7 +10191,7 @@
         <v>0.59</v>
       </c>
       <c r="M210" s="8">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0.75800000000000001</v>
       </c>
     </row>
@@ -10240,7 +10268,7 @@
         <v>0.93</v>
       </c>
       <c r="M212" s="8">
-        <f t="shared" ref="M212" si="82">(((LARGE(D212:F212,1)+LARGE(D212:F212,2))*0.05+(LARGE(G212:I212,1)+LARGE(G212:I212,2))*0.3+(LARGE(J212:L212,1)+LARGE(J212:L212,2))*0.15))</f>
+        <f t="shared" ref="M212" si="83">(((LARGE(D212:F212,1)+LARGE(D212:F212,2))*0.05+(LARGE(G212:I212,1)+LARGE(G212:I212,2))*0.3+(LARGE(J212:L212,1)+LARGE(J212:L212,2))*0.15))</f>
         <v>0.70949999999999991</v>
       </c>
     </row>
@@ -10282,7 +10310,7 @@
         <v>0.8</v>
       </c>
       <c r="M213" s="8">
-        <f t="shared" ref="M213" si="83">(((LARGE(D213:F213,1)+LARGE(D213:F213,2))*0.05+(LARGE(G213:I213,1)+LARGE(G213:I213,2))*0.3+(LARGE(J213:L213,1)+LARGE(J213:L213,2))*0.15))</f>
+        <f t="shared" ref="M213" si="84">(((LARGE(D213:F213,1)+LARGE(D213:F213,2))*0.05+(LARGE(G213:I213,1)+LARGE(G213:I213,2))*0.3+(LARGE(J213:L213,1)+LARGE(J213:L213,2))*0.15))</f>
         <v>0.63849999999999996</v>
       </c>
     </row>
@@ -10324,7 +10352,7 @@
         <v>0.54</v>
       </c>
       <c r="M214" s="8">
-        <f t="shared" ref="M214" si="84">(((LARGE(D214:F214,1)+LARGE(D214:F214,2))*0.05+(LARGE(G214:I214,1)+LARGE(G214:I214,2))*0.3+(LARGE(J214:L214,1)+LARGE(J214:L214,2))*0.15))</f>
+        <f t="shared" ref="M214" si="85">(((LARGE(D214:F214,1)+LARGE(D214:F214,2))*0.05+(LARGE(G214:I214,1)+LARGE(G214:I214,2))*0.3+(LARGE(J214:L214,1)+LARGE(J214:L214,2))*0.15))</f>
         <v>0.84700000000000009</v>
       </c>
     </row>
@@ -10401,7 +10429,7 @@
         <v>0.62</v>
       </c>
       <c r="M216" s="8">
-        <f t="shared" ref="M216:M217" si="85">(((LARGE(D216:F216,1)+LARGE(D216:F216,2))*0.05+(LARGE(G216:I216,1)+LARGE(G216:I216,2))*0.3+(LARGE(J216:L216,1)+LARGE(J216:L216,2))*0.15))</f>
+        <f t="shared" ref="M216:M217" si="86">(((LARGE(D216:F216,1)+LARGE(D216:F216,2))*0.05+(LARGE(G216:I216,1)+LARGE(G216:I216,2))*0.3+(LARGE(J216:L216,1)+LARGE(J216:L216,2))*0.15))</f>
         <v>0.66100000000000003</v>
       </c>
     </row>
@@ -10443,7 +10471,7 @@
         <v>0.64</v>
       </c>
       <c r="M217" s="8">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>0.77549999999999986</v>
       </c>
     </row>
@@ -10555,7 +10583,7 @@
         <v>0.77</v>
       </c>
       <c r="M220" s="8">
-        <f t="shared" ref="M220" si="86">(((LARGE(D220:F220,1)+LARGE(D220:F220,2))*0.05+(LARGE(G220:I220,1)+LARGE(G220:I220,2))*0.3+(LARGE(J220:L220,1)+LARGE(J220:L220,2))*0.15))</f>
+        <f t="shared" ref="M220" si="87">(((LARGE(D220:F220,1)+LARGE(D220:F220,2))*0.05+(LARGE(G220:I220,1)+LARGE(G220:I220,2))*0.3+(LARGE(J220:L220,1)+LARGE(J220:L220,2))*0.15))</f>
         <v>0.7</v>
       </c>
     </row>
@@ -10632,7 +10660,7 @@
         <v>0.54</v>
       </c>
       <c r="M222" s="8">
-        <f t="shared" ref="M222" si="87">(((LARGE(D222:F222,1)+LARGE(D222:F222,2))*0.05+(LARGE(G222:I222,1)+LARGE(G222:I222,2))*0.3+(LARGE(J222:L222,1)+LARGE(J222:L222,2))*0.15))</f>
+        <f t="shared" ref="M222" si="88">(((LARGE(D222:F222,1)+LARGE(D222:F222,2))*0.05+(LARGE(G222:I222,1)+LARGE(G222:I222,2))*0.3+(LARGE(J222:L222,1)+LARGE(J222:L222,2))*0.15))</f>
         <v>0.72299999999999998</v>
       </c>
     </row>
@@ -10709,7 +10737,7 @@
         <v>0.87</v>
       </c>
       <c r="M224" s="8">
-        <f t="shared" ref="M224:M225" si="88">(((LARGE(D224:F224,1)+LARGE(D224:F224,2))*0.05+(LARGE(G224:I224,1)+LARGE(G224:I224,2))*0.3+(LARGE(J224:L224,1)+LARGE(J224:L224,2))*0.15))</f>
+        <f t="shared" ref="M224:M225" si="89">(((LARGE(D224:F224,1)+LARGE(D224:F224,2))*0.05+(LARGE(G224:I224,1)+LARGE(G224:I224,2))*0.3+(LARGE(J224:L224,1)+LARGE(J224:L224,2))*0.15))</f>
         <v>0.79449999999999998</v>
       </c>
     </row>
@@ -10751,7 +10779,7 @@
         <v>0.7</v>
       </c>
       <c r="M225" s="8">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>0.66100000000000003</v>
       </c>
     </row>
@@ -10828,7 +10856,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="M227" s="8">
-        <f t="shared" ref="M227" si="89">(((LARGE(D227:F227,1)+LARGE(D227:F227,2))*0.05+(LARGE(G227:I227,1)+LARGE(G227:I227,2))*0.3+(LARGE(J227:L227,1)+LARGE(J227:L227,2))*0.15))</f>
+        <f t="shared" ref="M227" si="90">(((LARGE(D227:F227,1)+LARGE(D227:F227,2))*0.05+(LARGE(G227:I227,1)+LARGE(G227:I227,2))*0.3+(LARGE(J227:L227,1)+LARGE(J227:L227,2))*0.15))</f>
         <v>0.64749999999999996</v>
       </c>
     </row>
@@ -10905,7 +10933,7 @@
         <v>0.78</v>
       </c>
       <c r="M229" s="8">
-        <f t="shared" ref="M229" si="90">(((LARGE(D229:F229,1)+LARGE(D229:F229,2))*0.05+(LARGE(G229:I229,1)+LARGE(G229:I229,2))*0.3+(LARGE(J229:L229,1)+LARGE(J229:L229,2))*0.15))</f>
+        <f t="shared" ref="M229" si="91">(((LARGE(D229:F229,1)+LARGE(D229:F229,2))*0.05+(LARGE(G229:I229,1)+LARGE(G229:I229,2))*0.3+(LARGE(J229:L229,1)+LARGE(J229:L229,2))*0.15))</f>
         <v>0.73449999999999993</v>
       </c>
     </row>

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543E2DDD-BF9D-3244-9A9B-776C54FA35C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97BAEDE-FD0A-2F44-934E-8999CDEA48E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="960" windowWidth="29360" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -1938,8 +1938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="M88" sqref="M88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2265,7 +2265,7 @@
         <v>0.46</v>
       </c>
       <c r="M8" s="8">
-        <f t="shared" ref="M8" si="3">(((LARGE(D8:F8,1)+LARGE(D8:F8,2))*0.05+(LARGE(G8:I8,1)+LARGE(G8:I8,2))*0.3+(LARGE(J8:L8,1)+LARGE(J8:L8,2))*0.15))</f>
+        <f t="shared" ref="M8:M9" si="3">(((LARGE(D8:F8,1)+LARGE(D8:F8,2))*0.05+(LARGE(G8:I8,1)+LARGE(G8:I8,2))*0.3+(LARGE(J8:L8,1)+LARGE(J8:L8,2))*0.15))</f>
         <v>0.49833009708737863</v>
       </c>
     </row>
@@ -2303,6 +2303,13 @@
       <c r="K9">
         <v>0.42</v>
       </c>
+      <c r="L9">
+        <v>0.61</v>
+      </c>
+      <c r="M9" s="8">
+        <f t="shared" si="3"/>
+        <v>0.72099999999999997</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3164,6 +3171,13 @@
       <c r="K31">
         <v>0.54</v>
       </c>
+      <c r="L31">
+        <v>0.82</v>
+      </c>
+      <c r="M31" s="8">
+        <f t="shared" si="11"/>
+        <v>0.749</v>
+      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -3329,7 +3343,7 @@
         <v>0.8</v>
       </c>
       <c r="M35" s="8">
-        <f t="shared" ref="M34:M36" si="13">(((LARGE(D35:F35,1)+LARGE(D35:F35,2))*0.05+(LARGE(G35:I35,1)+LARGE(G35:I35,2))*0.3+(LARGE(J35:L35,1)+LARGE(J35:L35,2))*0.15))</f>
+        <f t="shared" ref="M34:M37" si="13">(((LARGE(D35:F35,1)+LARGE(D35:F35,2))*0.05+(LARGE(G35:I35,1)+LARGE(G35:I35,2))*0.3+(LARGE(J35:L35,1)+LARGE(J35:L35,2))*0.15))</f>
         <v>0.70705825242718467</v>
       </c>
     </row>
@@ -3409,6 +3423,13 @@
       <c r="K37">
         <v>0.4</v>
       </c>
+      <c r="L37">
+        <v>0.45</v>
+      </c>
+      <c r="M37" s="8">
+        <f t="shared" si="13"/>
+        <v>0.60099999999999998</v>
+      </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -3528,6 +3549,13 @@
       <c r="K40">
         <v>0.42</v>
       </c>
+      <c r="L40">
+        <v>0.61</v>
+      </c>
+      <c r="M40" s="8">
+        <f t="shared" ref="M40:M42" si="16">(((LARGE(D40:F40,1)+LARGE(D40:F40,2))*0.05+(LARGE(G40:I40,1)+LARGE(G40:I40,2))*0.3+(LARGE(J40:L40,1)+LARGE(J40:L40,2))*0.15))</f>
+        <v>0.80800000000000005</v>
+      </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -3567,7 +3595,7 @@
         <v>0.54</v>
       </c>
       <c r="M41" s="8">
-        <f t="shared" ref="M41:M42" si="16">(((LARGE(D41:F41,1)+LARGE(D41:F41,2))*0.05+(LARGE(G41:I41,1)+LARGE(G41:I41,2))*0.3+(LARGE(J41:L41,1)+LARGE(J41:L41,2))*0.15))</f>
+        <f t="shared" si="16"/>
         <v>0.7619999999999999</v>
       </c>
     </row>
@@ -4242,6 +4270,13 @@
       <c r="K58">
         <v>0.46</v>
       </c>
+      <c r="L58">
+        <v>0.74</v>
+      </c>
+      <c r="M58" s="8">
+        <f t="shared" ref="M58" si="23">(((LARGE(D58:F58,1)+LARGE(D58:F58,2))*0.05+(LARGE(G58:I58,1)+LARGE(G58:I58,2))*0.3+(LARGE(J58:L58,1)+LARGE(J58:L58,2))*0.15))</f>
+        <v>0.77399999999999991</v>
+      </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
@@ -4316,7 +4351,7 @@
         <v>0.69</v>
       </c>
       <c r="M60" s="8">
-        <f t="shared" ref="M60" si="23">(((LARGE(D60:F60,1)+LARGE(D60:F60,2))*0.05+(LARGE(G60:I60,1)+LARGE(G60:I60,2))*0.3+(LARGE(J60:L60,1)+LARGE(J60:L60,2))*0.15))</f>
+        <f t="shared" ref="M60" si="24">(((LARGE(D60:F60,1)+LARGE(D60:F60,2))*0.05+(LARGE(G60:I60,1)+LARGE(G60:I60,2))*0.3+(LARGE(J60:L60,1)+LARGE(J60:L60,2))*0.15))</f>
         <v>0.80499999999999994</v>
       </c>
     </row>
@@ -4358,7 +4393,7 @@
         <v>0.46</v>
       </c>
       <c r="M61" s="8">
-        <f t="shared" ref="M61:M62" si="24">(((LARGE(D61:F61,1)+LARGE(D61:F61,2))*0.05+(LARGE(G61:I61,1)+LARGE(G61:I61,2))*0.3+(LARGE(J61:L61,1)+LARGE(J61:L61,2))*0.15))</f>
+        <f t="shared" ref="M61:M62" si="25">(((LARGE(D61:F61,1)+LARGE(D61:F61,2))*0.05+(LARGE(G61:I61,1)+LARGE(G61:I61,2))*0.3+(LARGE(J61:L61,1)+LARGE(J61:L61,2))*0.15))</f>
         <v>0.67800000000000005</v>
       </c>
     </row>
@@ -4400,7 +4435,7 @@
         <v>0.51</v>
       </c>
       <c r="M62" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.71350000000000002</v>
       </c>
     </row>
@@ -4477,7 +4512,7 @@
         <v>0.69</v>
       </c>
       <c r="M64" s="8">
-        <f t="shared" ref="M64:M65" si="25">(((LARGE(D64:F64,1)+LARGE(D64:F64,2))*0.05+(LARGE(G64:I64,1)+LARGE(G64:I64,2))*0.3+(LARGE(J64:L64,1)+LARGE(J64:L64,2))*0.15))</f>
+        <f t="shared" ref="M64:M66" si="26">(((LARGE(D64:F64,1)+LARGE(D64:F64,2))*0.05+(LARGE(G64:I64,1)+LARGE(G64:I64,2))*0.3+(LARGE(J64:L64,1)+LARGE(J64:L64,2))*0.15))</f>
         <v>0.8680000000000001</v>
       </c>
     </row>
@@ -4519,7 +4554,7 @@
         <v>0.51</v>
       </c>
       <c r="M65" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.64000000000000012</v>
       </c>
     </row>
@@ -4557,6 +4592,13 @@
       <c r="K66">
         <v>0.69</v>
       </c>
+      <c r="L66">
+        <v>0.45</v>
+      </c>
+      <c r="M66" s="8">
+        <f t="shared" si="26"/>
+        <v>0.50800000000000001</v>
+      </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
@@ -4596,7 +4638,7 @@
         <v>0.66</v>
       </c>
       <c r="M67" s="8">
-        <f t="shared" ref="M67" si="26">(((LARGE(D67:F67,1)+LARGE(D67:F67,2))*0.05+(LARGE(G67:I67,1)+LARGE(G67:I67,2))*0.3+(LARGE(J67:L67,1)+LARGE(J67:L67,2))*0.15))</f>
+        <f t="shared" ref="M67:M68" si="27">(((LARGE(D67:F67,1)+LARGE(D67:F67,2))*0.05+(LARGE(G67:I67,1)+LARGE(G67:I67,2))*0.3+(LARGE(J67:L67,1)+LARGE(J67:L67,2))*0.15))</f>
         <v>0.74649999999999994</v>
       </c>
     </row>
@@ -4634,6 +4676,13 @@
       <c r="K68">
         <v>0.33</v>
       </c>
+      <c r="L68">
+        <v>0.76</v>
+      </c>
+      <c r="M68" s="8">
+        <f t="shared" si="27"/>
+        <v>0.7024999999999999</v>
+      </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
@@ -4739,6 +4788,13 @@
       <c r="K71">
         <v>0.46</v>
       </c>
+      <c r="L71">
+        <v>0.59</v>
+      </c>
+      <c r="M71" s="8">
+        <f t="shared" ref="M71" si="28">(((LARGE(D71:F71,1)+LARGE(D71:F71,2))*0.05+(LARGE(G71:I71,1)+LARGE(G71:I71,2))*0.3+(LARGE(J71:L71,1)+LARGE(J71:L71,2))*0.15))</f>
+        <v>0.65949999999999998</v>
+      </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
@@ -4778,7 +4834,7 @@
         <v>0.81</v>
       </c>
       <c r="M72" s="8">
-        <f t="shared" ref="M72:M73" si="27">(((LARGE(D72:F72,1)+LARGE(D72:F72,2))*0.05+(LARGE(G72:I72,1)+LARGE(G72:I72,2))*0.3+(LARGE(J72:L72,1)+LARGE(J72:L72,2))*0.15))</f>
+        <f t="shared" ref="M72:M73" si="29">(((LARGE(D72:F72,1)+LARGE(D72:F72,2))*0.05+(LARGE(G72:I72,1)+LARGE(G72:I72,2))*0.3+(LARGE(J72:L72,1)+LARGE(J72:L72,2))*0.15))</f>
         <v>0.69199999999999995</v>
       </c>
     </row>
@@ -4820,7 +4876,7 @@
         <v>0.62</v>
       </c>
       <c r="M73" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.62200000000000011</v>
       </c>
     </row>
@@ -4893,6 +4949,13 @@
       <c r="K75">
         <v>0.33</v>
       </c>
+      <c r="L75">
+        <v>0.76</v>
+      </c>
+      <c r="M75" s="8">
+        <f t="shared" ref="M75" si="30">(((LARGE(D75:F75,1)+LARGE(D75:F75,2))*0.05+(LARGE(G75:I75,1)+LARGE(G75:I75,2))*0.3+(LARGE(J75:L75,1)+LARGE(J75:L75,2))*0.15))</f>
+        <v>0.72450000000000003</v>
+      </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
@@ -4932,7 +4995,7 @@
         <v>0.76</v>
       </c>
       <c r="M76" s="8">
-        <f t="shared" ref="M76:M77" si="28">(((LARGE(D76:F76,1)+LARGE(D76:F76,2))*0.05+(LARGE(G76:I76,1)+LARGE(G76:I76,2))*0.3+(LARGE(J76:L76,1)+LARGE(J76:L76,2))*0.15))</f>
+        <f t="shared" ref="M76:M77" si="31">(((LARGE(D76:F76,1)+LARGE(D76:F76,2))*0.05+(LARGE(G76:I76,1)+LARGE(G76:I76,2))*0.3+(LARGE(J76:L76,1)+LARGE(J76:L76,2))*0.15))</f>
         <v>0.77399999999999991</v>
       </c>
     </row>
@@ -4974,7 +5037,7 @@
         <v>0.7</v>
       </c>
       <c r="M77" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.495</v>
       </c>
     </row>
@@ -5086,7 +5149,7 @@
         <v>0.69</v>
       </c>
       <c r="M80" s="8">
-        <f t="shared" ref="M80:M81" si="29">(((LARGE(D80:F80,1)+LARGE(D80:F80,2))*0.05+(LARGE(G80:I80,1)+LARGE(G80:I80,2))*0.3+(LARGE(J80:L80,1)+LARGE(J80:L80,2))*0.15))</f>
+        <f t="shared" ref="M80:M82" si="32">(((LARGE(D80:F80,1)+LARGE(D80:F80,2))*0.05+(LARGE(G80:I80,1)+LARGE(G80:I80,2))*0.3+(LARGE(J80:L80,1)+LARGE(J80:L80,2))*0.15))</f>
         <v>0.80399999999999994</v>
       </c>
     </row>
@@ -5128,7 +5191,7 @@
         <v>0.6</v>
       </c>
       <c r="M81" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.85050000000000003</v>
       </c>
     </row>
@@ -5166,6 +5229,13 @@
       <c r="K82">
         <v>0.54</v>
       </c>
+      <c r="L82">
+        <v>0.82</v>
+      </c>
+      <c r="M82" s="8">
+        <f t="shared" si="32"/>
+        <v>0.74500000000000011</v>
+      </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
@@ -5205,7 +5275,7 @@
         <v>0.8</v>
       </c>
       <c r="M83" s="8">
-        <f t="shared" ref="M83" si="30">(((LARGE(D83:F83,1)+LARGE(D83:F83,2))*0.05+(LARGE(G83:I83,1)+LARGE(G83:I83,2))*0.3+(LARGE(J83:L83,1)+LARGE(J83:L83,2))*0.15))</f>
+        <f t="shared" ref="M83" si="33">(((LARGE(D83:F83,1)+LARGE(D83:F83,2))*0.05+(LARGE(G83:I83,1)+LARGE(G83:I83,2))*0.3+(LARGE(J83:L83,1)+LARGE(J83:L83,2))*0.15))</f>
         <v>0.751</v>
       </c>
     </row>
@@ -5247,7 +5317,7 @@
         <v>0.62</v>
       </c>
       <c r="M84" s="8">
-        <f t="shared" ref="M84" si="31">(((LARGE(D84:F84,1)+LARGE(D84:F84,2))*0.05+(LARGE(G84:I84,1)+LARGE(G84:I84,2))*0.3+(LARGE(J84:L84,1)+LARGE(J84:L84,2))*0.15))</f>
+        <f t="shared" ref="M84:M85" si="34">(((LARGE(D84:F84,1)+LARGE(D84:F84,2))*0.05+(LARGE(G84:I84,1)+LARGE(G84:I84,2))*0.3+(LARGE(J84:L84,1)+LARGE(J84:L84,2))*0.15))</f>
         <v>0.45950000000000002</v>
       </c>
     </row>
@@ -5285,6 +5355,13 @@
       <c r="K85">
         <v>0.46</v>
       </c>
+      <c r="L85">
+        <v>0.59</v>
+      </c>
+      <c r="M85" s="8">
+        <f t="shared" si="34"/>
+        <v>0.78499999999999992</v>
+      </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
@@ -5324,7 +5401,7 @@
         <v>0.82</v>
       </c>
       <c r="M86" s="8">
-        <f t="shared" ref="M86" si="32">(((LARGE(D86:F86,1)+LARGE(D86:F86,2))*0.05+(LARGE(G86:I86,1)+LARGE(G86:I86,2))*0.3+(LARGE(J86:L86,1)+LARGE(J86:L86,2))*0.15))</f>
+        <f t="shared" ref="M86:M87" si="35">(((LARGE(D86:F86,1)+LARGE(D86:F86,2))*0.05+(LARGE(G86:I86,1)+LARGE(G86:I86,2))*0.3+(LARGE(J86:L86,1)+LARGE(J86:L86,2))*0.15))</f>
         <v>0.71349999999999991</v>
       </c>
     </row>
@@ -5362,6 +5439,13 @@
       <c r="K87">
         <v>0.33</v>
       </c>
+      <c r="L87">
+        <v>0.77</v>
+      </c>
+      <c r="M87" s="8">
+        <f t="shared" si="35"/>
+        <v>0.78449999999999998</v>
+      </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
@@ -5401,7 +5485,7 @@
         <v>0.69</v>
       </c>
       <c r="M88" s="8">
-        <f t="shared" ref="M88" si="33">(((LARGE(D88:F88,1)+LARGE(D88:F88,2))*0.05+(LARGE(G88:I88,1)+LARGE(G88:I88,2))*0.3+(LARGE(J88:L88,1)+LARGE(J88:L88,2))*0.15))</f>
+        <f t="shared" ref="M88" si="36">(((LARGE(D88:F88,1)+LARGE(D88:F88,2))*0.05+(LARGE(G88:I88,1)+LARGE(G88:I88,2))*0.3+(LARGE(J88:L88,1)+LARGE(J88:L88,2))*0.15))</f>
         <v>0.58799999999999997</v>
       </c>
     </row>
@@ -5513,7 +5597,7 @@
         <v>0.69</v>
       </c>
       <c r="M91" s="8">
-        <f t="shared" ref="M91" si="34">(((LARGE(D91:F91,1)+LARGE(D91:F91,2))*0.05+(LARGE(G91:I91,1)+LARGE(G91:I91,2))*0.3+(LARGE(J91:L91,1)+LARGE(J91:L91,2))*0.15))</f>
+        <f t="shared" ref="M91" si="37">(((LARGE(D91:F91,1)+LARGE(D91:F91,2))*0.05+(LARGE(G91:I91,1)+LARGE(G91:I91,2))*0.3+(LARGE(J91:L91,1)+LARGE(J91:L91,2))*0.15))</f>
         <v>0.6845</v>
       </c>
     </row>
@@ -5555,7 +5639,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="M92" s="8">
-        <f t="shared" ref="M92:M93" si="35">(((LARGE(D92:F92,1)+LARGE(D92:F92,2))*0.05+(LARGE(G92:I92,1)+LARGE(G92:I92,2))*0.3+(LARGE(J92:L92,1)+LARGE(J92:L92,2))*0.15))</f>
+        <f t="shared" ref="M92:M94" si="38">(((LARGE(D92:F92,1)+LARGE(D92:F92,2))*0.05+(LARGE(G92:I92,1)+LARGE(G92:I92,2))*0.3+(LARGE(J92:L92,1)+LARGE(J92:L92,2))*0.15))</f>
         <v>0.628</v>
       </c>
     </row>
@@ -5597,7 +5681,7 @@
         <v>0.81</v>
       </c>
       <c r="M93" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.66549999999999998</v>
       </c>
     </row>
@@ -5635,6 +5719,13 @@
       <c r="K94">
         <v>0.75</v>
       </c>
+      <c r="L94">
+        <v>0.82</v>
+      </c>
+      <c r="M94" s="8">
+        <f t="shared" si="38"/>
+        <v>0.74899999999999989</v>
+      </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
@@ -5674,7 +5765,7 @@
         <v>0.73</v>
       </c>
       <c r="M95" s="8">
-        <f t="shared" ref="M95:M96" si="36">(((LARGE(D95:F95,1)+LARGE(D95:F95,2))*0.05+(LARGE(G95:I95,1)+LARGE(G95:I95,2))*0.3+(LARGE(J95:L95,1)+LARGE(J95:L95,2))*0.15))</f>
+        <f t="shared" ref="M95:M97" si="39">(((LARGE(D95:F95,1)+LARGE(D95:F95,2))*0.05+(LARGE(G95:I95,1)+LARGE(G95:I95,2))*0.3+(LARGE(J95:L95,1)+LARGE(J95:L95,2))*0.15))</f>
         <v>0.76200000000000001</v>
       </c>
     </row>
@@ -5716,7 +5807,7 @@
         <v>0.66</v>
       </c>
       <c r="M96" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0.61699999999999999</v>
       </c>
     </row>
@@ -5754,6 +5845,13 @@
       <c r="K97">
         <v>0.33</v>
       </c>
+      <c r="L97">
+        <v>0.82</v>
+      </c>
+      <c r="M97" s="8">
+        <f t="shared" si="39"/>
+        <v>0.67349999999999999</v>
+      </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
@@ -5793,7 +5891,7 @@
         <v>0.8</v>
       </c>
       <c r="M98" s="8">
-        <f t="shared" ref="M98" si="37">(((LARGE(D98:F98,1)+LARGE(D98:F98,2))*0.05+(LARGE(G98:I98,1)+LARGE(G98:I98,2))*0.3+(LARGE(J98:L98,1)+LARGE(J98:L98,2))*0.15))</f>
+        <f t="shared" ref="M98" si="40">(((LARGE(D98:F98,1)+LARGE(D98:F98,2))*0.05+(LARGE(G98:I98,1)+LARGE(G98:I98,2))*0.3+(LARGE(J98:L98,1)+LARGE(J98:L98,2))*0.15))</f>
         <v>0.79549999999999987</v>
       </c>
     </row>
@@ -5835,7 +5933,7 @@
         <v>0.82</v>
       </c>
       <c r="M99" s="8">
-        <f t="shared" ref="M99:M100" si="38">(((LARGE(D99:F99,1)+LARGE(D99:F99,2))*0.05+(LARGE(G99:I99,1)+LARGE(G99:I99,2))*0.3+(LARGE(J99:L99,1)+LARGE(J99:L99,2))*0.15))</f>
+        <f t="shared" ref="M99:M101" si="41">(((LARGE(D99:F99,1)+LARGE(D99:F99,2))*0.05+(LARGE(G99:I99,1)+LARGE(G99:I99,2))*0.3+(LARGE(J99:L99,1)+LARGE(J99:L99,2))*0.15))</f>
         <v>0.7599999999999999</v>
       </c>
     </row>
@@ -5877,7 +5975,7 @@
         <v>0.69</v>
       </c>
       <c r="M100" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.69249999999999989</v>
       </c>
     </row>
@@ -5915,6 +6013,13 @@
       <c r="K101">
         <v>0.46</v>
       </c>
+      <c r="L101">
+        <v>0.74</v>
+      </c>
+      <c r="M101" s="8">
+        <f t="shared" si="41"/>
+        <v>0.75249999999999995</v>
+      </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
@@ -5954,7 +6059,7 @@
         <v>0.6</v>
       </c>
       <c r="M102" s="8">
-        <f t="shared" ref="M102" si="39">(((LARGE(D102:F102,1)+LARGE(D102:F102,2))*0.05+(LARGE(G102:I102,1)+LARGE(G102:I102,2))*0.3+(LARGE(J102:L102,1)+LARGE(J102:L102,2))*0.15))</f>
+        <f t="shared" ref="M102" si="42">(((LARGE(D102:F102,1)+LARGE(D102:F102,2))*0.05+(LARGE(G102:I102,1)+LARGE(G102:I102,2))*0.3+(LARGE(J102:L102,1)+LARGE(J102:L102,2))*0.15))</f>
         <v>0.71550000000000002</v>
       </c>
     </row>
@@ -6027,6 +6132,13 @@
       <c r="K104">
         <v>0.46</v>
       </c>
+      <c r="L104">
+        <v>0.71</v>
+      </c>
+      <c r="M104" s="8">
+        <f t="shared" ref="M104:M106" si="43">(((LARGE(D104:F104,1)+LARGE(D104:F104,2))*0.05+(LARGE(G104:I104,1)+LARGE(G104:I104,2))*0.3+(LARGE(J104:L104,1)+LARGE(J104:L104,2))*0.15))</f>
+        <v>0.65300000000000002</v>
+      </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
@@ -6062,6 +6174,13 @@
       <c r="K105">
         <v>0.85</v>
       </c>
+      <c r="L105">
+        <v>0.85</v>
+      </c>
+      <c r="M105" s="8">
+        <f t="shared" si="43"/>
+        <v>0.77850000000000008</v>
+      </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
@@ -6101,7 +6220,7 @@
         <v>0.85</v>
       </c>
       <c r="M106" s="8">
-        <f t="shared" ref="M106" si="40">(((LARGE(D106:F106,1)+LARGE(D106:F106,2))*0.05+(LARGE(G106:I106,1)+LARGE(G106:I106,2))*0.3+(LARGE(J106:L106,1)+LARGE(J106:L106,2))*0.15))</f>
+        <f t="shared" si="43"/>
         <v>0.72599999999999998</v>
       </c>
     </row>
@@ -6178,7 +6297,7 @@
         <v>0.46</v>
       </c>
       <c r="M108" s="8">
-        <f t="shared" ref="M108:M109" si="41">(((LARGE(D108:F108,1)+LARGE(D108:F108,2))*0.05+(LARGE(G108:I108,1)+LARGE(G108:I108,2))*0.3+(LARGE(J108:L108,1)+LARGE(J108:L108,2))*0.15))</f>
+        <f t="shared" ref="M108:M109" si="44">(((LARGE(D108:F108,1)+LARGE(D108:F108,2))*0.05+(LARGE(G108:I108,1)+LARGE(G108:I108,2))*0.3+(LARGE(J108:L108,1)+LARGE(J108:L108,2))*0.15))</f>
         <v>0.64200000000000002</v>
       </c>
     </row>
@@ -6220,7 +6339,7 @@
         <v>0.85</v>
       </c>
       <c r="M109" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.69499999999999995</v>
       </c>
     </row>
@@ -6262,7 +6381,7 @@
         <v>0.65</v>
       </c>
       <c r="M110" s="8">
-        <f t="shared" ref="M110" si="42">(((LARGE(D110:F110,1)+LARGE(D110:F110,2))*0.05+(LARGE(G110:I110,1)+LARGE(G110:I110,2))*0.3+(LARGE(J110:L110,1)+LARGE(J110:L110,2))*0.15))</f>
+        <f t="shared" ref="M110" si="45">(((LARGE(D110:F110,1)+LARGE(D110:F110,2))*0.05+(LARGE(G110:I110,1)+LARGE(G110:I110,2))*0.3+(LARGE(J110:L110,1)+LARGE(J110:L110,2))*0.15))</f>
         <v>0.70599999999999996</v>
       </c>
     </row>
@@ -6330,6 +6449,13 @@
       <c r="K112">
         <v>0.85</v>
       </c>
+      <c r="L112">
+        <v>0.85</v>
+      </c>
+      <c r="M112" s="8">
+        <f t="shared" ref="M112:M114" si="46">(((LARGE(D112:F112,1)+LARGE(D112:F112,2))*0.05+(LARGE(G112:I112,1)+LARGE(G112:I112,2))*0.3+(LARGE(J112:L112,1)+LARGE(J112:L112,2))*0.15))</f>
+        <v>0.79249999999999998</v>
+      </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
@@ -6369,7 +6495,7 @@
         <v>0.47</v>
       </c>
       <c r="M113" s="8">
-        <f t="shared" ref="M113:M114" si="43">(((LARGE(D113:F113,1)+LARGE(D113:F113,2))*0.05+(LARGE(G113:I113,1)+LARGE(G113:I113,2))*0.3+(LARGE(J113:L113,1)+LARGE(J113:L113,2))*0.15))</f>
+        <f t="shared" si="46"/>
         <v>0.68149999999999999</v>
       </c>
     </row>
@@ -6411,7 +6537,7 @@
         <v>0.68</v>
       </c>
       <c r="M114" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0.59650000000000003</v>
       </c>
     </row>
@@ -6453,7 +6579,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="M115" s="8">
-        <f t="shared" ref="M115" si="44">(((LARGE(D115:F115,1)+LARGE(D115:F115,2))*0.05+(LARGE(G115:I115,1)+LARGE(G115:I115,2))*0.3+(LARGE(J115:L115,1)+LARGE(J115:L115,2))*0.15))</f>
+        <f t="shared" ref="M115:M116" si="47">(((LARGE(D115:F115,1)+LARGE(D115:F115,2))*0.05+(LARGE(G115:I115,1)+LARGE(G115:I115,2))*0.3+(LARGE(J115:L115,1)+LARGE(J115:L115,2))*0.15))</f>
         <v>0.67749999999999999</v>
       </c>
     </row>
@@ -6491,6 +6617,13 @@
       <c r="K116">
         <v>0.52</v>
       </c>
+      <c r="L116">
+        <v>0.77</v>
+      </c>
+      <c r="M116" s="8">
+        <f t="shared" si="47"/>
+        <v>0.63800000000000001</v>
+      </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
@@ -6530,7 +6663,7 @@
         <v>0.64</v>
       </c>
       <c r="M117" s="8">
-        <f t="shared" ref="M117" si="45">(((LARGE(D117:F117,1)+LARGE(D117:F117,2))*0.05+(LARGE(G117:I117,1)+LARGE(G117:I117,2))*0.3+(LARGE(J117:L117,1)+LARGE(J117:L117,2))*0.15))</f>
+        <f t="shared" ref="M117:M118" si="48">(((LARGE(D117:F117,1)+LARGE(D117:F117,2))*0.05+(LARGE(G117:I117,1)+LARGE(G117:I117,2))*0.3+(LARGE(J117:L117,1)+LARGE(J117:L117,2))*0.15))</f>
         <v>0.61150000000000004</v>
       </c>
     </row>
@@ -6568,6 +6701,13 @@
       <c r="K118">
         <v>0.71</v>
       </c>
+      <c r="L118">
+        <v>0.54</v>
+      </c>
+      <c r="M118" s="8">
+        <f t="shared" si="48"/>
+        <v>0.63</v>
+      </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
@@ -6607,7 +6747,7 @@
         <v>0.78</v>
       </c>
       <c r="M119" s="8">
-        <f t="shared" ref="M119:M121" si="46">(((LARGE(D119:F119,1)+LARGE(D119:F119,2))*0.05+(LARGE(G119:I119,1)+LARGE(G119:I119,2))*0.3+(LARGE(J119:L119,1)+LARGE(J119:L119,2))*0.15))</f>
+        <f t="shared" ref="M119:M121" si="49">(((LARGE(D119:F119,1)+LARGE(D119:F119,2))*0.05+(LARGE(G119:I119,1)+LARGE(G119:I119,2))*0.3+(LARGE(J119:L119,1)+LARGE(J119:L119,2))*0.15))</f>
         <v>0.61550000000000005</v>
       </c>
     </row>
@@ -6649,7 +6789,7 @@
         <v>0.78</v>
       </c>
       <c r="M120" s="8">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0.64949999999999997</v>
       </c>
     </row>
@@ -6691,7 +6831,7 @@
         <v>0.53</v>
       </c>
       <c r="M121" s="8">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0.69650000000000001</v>
       </c>
     </row>
@@ -6733,7 +6873,7 @@
         <v>0.39</v>
       </c>
       <c r="M122" s="8">
-        <f t="shared" ref="M122" si="47">(((LARGE(D122:F122,1)+LARGE(D122:F122,2))*0.05+(LARGE(G122:I122,1)+LARGE(G122:I122,2))*0.3+(LARGE(J122:L122,1)+LARGE(J122:L122,2))*0.15))</f>
+        <f t="shared" ref="M122:M124" si="50">(((LARGE(D122:F122,1)+LARGE(D122:F122,2))*0.05+(LARGE(G122:I122,1)+LARGE(G122:I122,2))*0.3+(LARGE(J122:L122,1)+LARGE(J122:L122,2))*0.15))</f>
         <v>0.64300000000000002</v>
       </c>
     </row>
@@ -6771,6 +6911,13 @@
       <c r="K123">
         <v>0.77</v>
       </c>
+      <c r="L123">
+        <v>0.76</v>
+      </c>
+      <c r="M123" s="8">
+        <f t="shared" si="50"/>
+        <v>0.72799999999999998</v>
+      </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
@@ -6806,6 +6953,13 @@
       <c r="K124">
         <v>0.85</v>
       </c>
+      <c r="L124">
+        <v>0.76</v>
+      </c>
+      <c r="M124" s="8">
+        <f t="shared" si="50"/>
+        <v>0.68099999999999994</v>
+      </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
@@ -6841,6 +6995,13 @@
       <c r="K125">
         <v>0.85</v>
       </c>
+      <c r="L125">
+        <v>0.72</v>
+      </c>
+      <c r="M125" s="8">
+        <f t="shared" ref="M125" si="51">(((LARGE(D125:F125,1)+LARGE(D125:F125,2))*0.05+(LARGE(G125:I125,1)+LARGE(G125:I125,2))*0.3+(LARGE(J125:L125,1)+LARGE(J125:L125,2))*0.15))</f>
+        <v>0.8274999999999999</v>
+      </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
@@ -6950,7 +7111,7 @@
         <v>0.5</v>
       </c>
       <c r="M128" s="8">
-        <f t="shared" ref="M128" si="48">(((LARGE(D128:F128,1)+LARGE(D128:F128,2))*0.05+(LARGE(G128:I128,1)+LARGE(G128:I128,2))*0.3+(LARGE(J128:L128,1)+LARGE(J128:L128,2))*0.15))</f>
+        <f t="shared" ref="M128" si="52">(((LARGE(D128:F128,1)+LARGE(D128:F128,2))*0.05+(LARGE(G128:I128,1)+LARGE(G128:I128,2))*0.3+(LARGE(J128:L128,1)+LARGE(J128:L128,2))*0.15))</f>
         <v>0.76649999999999996</v>
       </c>
     </row>
@@ -7097,7 +7258,7 @@
         <v>0.66</v>
       </c>
       <c r="M132" s="8">
-        <f t="shared" ref="M132" si="49">(((LARGE(D132:F132,1)+LARGE(D132:F132,2))*0.05+(LARGE(G132:I132,1)+LARGE(G132:I132,2))*0.3+(LARGE(J132:L132,1)+LARGE(J132:L132,2))*0.15))</f>
+        <f t="shared" ref="M132" si="53">(((LARGE(D132:F132,1)+LARGE(D132:F132,2))*0.05+(LARGE(G132:I132,1)+LARGE(G132:I132,2))*0.3+(LARGE(J132:L132,1)+LARGE(J132:L132,2))*0.15))</f>
         <v>0.63300000000000001</v>
       </c>
     </row>
@@ -7139,7 +7300,7 @@
         <v>0.64</v>
       </c>
       <c r="M133" s="8">
-        <f t="shared" ref="M133" si="50">(((LARGE(D133:F133,1)+LARGE(D133:F133,2))*0.05+(LARGE(G133:I133,1)+LARGE(G133:I133,2))*0.3+(LARGE(J133:L133,1)+LARGE(J133:L133,2))*0.15))</f>
+        <f t="shared" ref="M133:M135" si="54">(((LARGE(D133:F133,1)+LARGE(D133:F133,2))*0.05+(LARGE(G133:I133,1)+LARGE(G133:I133,2))*0.3+(LARGE(J133:L133,1)+LARGE(J133:L133,2))*0.15))</f>
         <v>0.74199999999999999</v>
       </c>
     </row>
@@ -7177,6 +7338,13 @@
       <c r="K134">
         <v>0.77</v>
       </c>
+      <c r="L134">
+        <v>0.71</v>
+      </c>
+      <c r="M134" s="8">
+        <f t="shared" si="54"/>
+        <v>0.79449999999999998</v>
+      </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
@@ -7212,6 +7380,13 @@
       <c r="K135">
         <v>0.67</v>
       </c>
+      <c r="L135">
+        <v>0.22</v>
+      </c>
+      <c r="M135" s="8">
+        <f t="shared" si="54"/>
+        <v>0.80449999999999999</v>
+      </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
@@ -7247,6 +7422,13 @@
       <c r="K136">
         <v>0.85</v>
       </c>
+      <c r="L136">
+        <v>0.72</v>
+      </c>
+      <c r="M136" s="8">
+        <f t="shared" ref="M136" si="55">(((LARGE(D136:F136,1)+LARGE(D136:F136,2))*0.05+(LARGE(G136:I136,1)+LARGE(G136:I136,2))*0.3+(LARGE(J136:L136,1)+LARGE(J136:L136,2))*0.15))</f>
+        <v>0.79149999999999987</v>
+      </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
@@ -7321,7 +7503,7 @@
         <v>0.86</v>
       </c>
       <c r="M138" s="8">
-        <f t="shared" ref="M138" si="51">(((LARGE(D138:F138,1)+LARGE(D138:F138,2))*0.05+(LARGE(G138:I138,1)+LARGE(G138:I138,2))*0.3+(LARGE(J138:L138,1)+LARGE(J138:L138,2))*0.15))</f>
+        <f t="shared" ref="M138" si="56">(((LARGE(D138:F138,1)+LARGE(D138:F138,2))*0.05+(LARGE(G138:I138,1)+LARGE(G138:I138,2))*0.3+(LARGE(J138:L138,1)+LARGE(J138:L138,2))*0.15))</f>
         <v>0.71099999999999997</v>
       </c>
     </row>
@@ -7363,7 +7545,7 @@
         <v>0.47</v>
       </c>
       <c r="M139" s="8">
-        <f t="shared" ref="M139" si="52">(((LARGE(D139:F139,1)+LARGE(D139:F139,2))*0.05+(LARGE(G139:I139,1)+LARGE(G139:I139,2))*0.3+(LARGE(J139:L139,1)+LARGE(J139:L139,2))*0.15))</f>
+        <f t="shared" ref="M139" si="57">(((LARGE(D139:F139,1)+LARGE(D139:F139,2))*0.05+(LARGE(G139:I139,1)+LARGE(G139:I139,2))*0.3+(LARGE(J139:L139,1)+LARGE(J139:L139,2))*0.15))</f>
         <v>0.71450000000000002</v>
       </c>
     </row>
@@ -7405,7 +7587,7 @@
         <v>0.66</v>
       </c>
       <c r="M140" s="8">
-        <f t="shared" ref="M140" si="53">(((LARGE(D140:F140,1)+LARGE(D140:F140,2))*0.05+(LARGE(G140:I140,1)+LARGE(G140:I140,2))*0.3+(LARGE(J140:L140,1)+LARGE(J140:L140,2))*0.15))</f>
+        <f t="shared" ref="M140:M141" si="58">(((LARGE(D140:F140,1)+LARGE(D140:F140,2))*0.05+(LARGE(G140:I140,1)+LARGE(G140:I140,2))*0.3+(LARGE(J140:L140,1)+LARGE(J140:L140,2))*0.15))</f>
         <v>0.67999999999999994</v>
       </c>
     </row>
@@ -7443,6 +7625,13 @@
       <c r="K141">
         <v>0.67</v>
       </c>
+      <c r="L141">
+        <v>0.22</v>
+      </c>
+      <c r="M141" s="8">
+        <f t="shared" si="58"/>
+        <v>0.83800000000000008</v>
+      </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
@@ -7517,7 +7706,7 @@
         <v>0.73</v>
       </c>
       <c r="M143" s="8">
-        <f t="shared" ref="M143" si="54">(((LARGE(D143:F143,1)+LARGE(D143:F143,2))*0.05+(LARGE(G143:I143,1)+LARGE(G143:I143,2))*0.3+(LARGE(J143:L143,1)+LARGE(J143:L143,2))*0.15))</f>
+        <f t="shared" ref="M143" si="59">(((LARGE(D143:F143,1)+LARGE(D143:F143,2))*0.05+(LARGE(G143:I143,1)+LARGE(G143:I143,2))*0.3+(LARGE(J143:L143,1)+LARGE(J143:L143,2))*0.15))</f>
         <v>0.6925</v>
       </c>
     </row>
@@ -7594,7 +7783,7 @@
         <v>0.68</v>
       </c>
       <c r="M145" s="8">
-        <f t="shared" ref="M145:M146" si="55">(((LARGE(D145:F145,1)+LARGE(D145:F145,2))*0.05+(LARGE(G145:I145,1)+LARGE(G145:I145,2))*0.3+(LARGE(J145:L145,1)+LARGE(J145:L145,2))*0.15))</f>
+        <f t="shared" ref="M145:M146" si="60">(((LARGE(D145:F145,1)+LARGE(D145:F145,2))*0.05+(LARGE(G145:I145,1)+LARGE(G145:I145,2))*0.3+(LARGE(J145:L145,1)+LARGE(J145:L145,2))*0.15))</f>
         <v>0.76200000000000001</v>
       </c>
     </row>
@@ -7636,7 +7825,7 @@
         <v>0.72</v>
       </c>
       <c r="M146" s="8">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>0.77549999999999997</v>
       </c>
     </row>
@@ -7748,7 +7937,7 @@
         <v>0.65</v>
       </c>
       <c r="M149" s="8">
-        <f t="shared" ref="M149" si="56">(((LARGE(D149:F149,1)+LARGE(D149:F149,2))*0.05+(LARGE(G149:I149,1)+LARGE(G149:I149,2))*0.3+(LARGE(J149:L149,1)+LARGE(J149:L149,2))*0.15))</f>
+        <f t="shared" ref="M149:M150" si="61">(((LARGE(D149:F149,1)+LARGE(D149:F149,2))*0.05+(LARGE(G149:I149,1)+LARGE(G149:I149,2))*0.3+(LARGE(J149:L149,1)+LARGE(J149:L149,2))*0.15))</f>
         <v>0.58299999999999996</v>
       </c>
     </row>
@@ -7786,6 +7975,13 @@
       <c r="K150">
         <v>0.62</v>
       </c>
+      <c r="L150">
+        <v>0.77</v>
+      </c>
+      <c r="M150" s="8">
+        <f t="shared" si="61"/>
+        <v>0.62</v>
+      </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
@@ -7860,7 +8056,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="M152" s="8">
-        <f t="shared" ref="M152" si="57">(((LARGE(D152:F152,1)+LARGE(D152:F152,2))*0.05+(LARGE(G152:I152,1)+LARGE(G152:I152,2))*0.3+(LARGE(J152:L152,1)+LARGE(J152:L152,2))*0.15))</f>
+        <f t="shared" ref="M152" si="62">(((LARGE(D152:F152,1)+LARGE(D152:F152,2))*0.05+(LARGE(G152:I152,1)+LARGE(G152:I152,2))*0.3+(LARGE(J152:L152,1)+LARGE(J152:L152,2))*0.15))</f>
         <v>0.624</v>
       </c>
     </row>
@@ -7937,7 +8133,7 @@
         <v>0.39</v>
       </c>
       <c r="M154" s="8">
-        <f t="shared" ref="M154" si="58">(((LARGE(D154:F154,1)+LARGE(D154:F154,2))*0.05+(LARGE(G154:I154,1)+LARGE(G154:I154,2))*0.3+(LARGE(J154:L154,1)+LARGE(J154:L154,2))*0.15))</f>
+        <f t="shared" ref="M154" si="63">(((LARGE(D154:F154,1)+LARGE(D154:F154,2))*0.05+(LARGE(G154:I154,1)+LARGE(G154:I154,2))*0.3+(LARGE(J154:L154,1)+LARGE(J154:L154,2))*0.15))</f>
         <v>0.71950000000000003</v>
       </c>
     </row>
@@ -8045,6 +8241,13 @@
       <c r="K157">
         <v>0.63</v>
       </c>
+      <c r="L157">
+        <v>0.54</v>
+      </c>
+      <c r="M157" s="8">
+        <f t="shared" ref="M157" si="64">(((LARGE(D157:F157,1)+LARGE(D157:F157,2))*0.05+(LARGE(G157:I157,1)+LARGE(G157:I157,2))*0.3+(LARGE(J157:L157,1)+LARGE(J157:L157,2))*0.15))</f>
+        <v>0.80199999999999994</v>
+      </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
@@ -8119,7 +8322,7 @@
         <v>0.86</v>
       </c>
       <c r="M159" s="8">
-        <f t="shared" ref="M159" si="59">(((LARGE(D159:F159,1)+LARGE(D159:F159,2))*0.05+(LARGE(G159:I159,1)+LARGE(G159:I159,2))*0.3+(LARGE(J159:L159,1)+LARGE(J159:L159,2))*0.15))</f>
+        <f t="shared" ref="M159" si="65">(((LARGE(D159:F159,1)+LARGE(D159:F159,2))*0.05+(LARGE(G159:I159,1)+LARGE(G159:I159,2))*0.3+(LARGE(J159:L159,1)+LARGE(J159:L159,2))*0.15))</f>
         <v>0.73349999999999993</v>
       </c>
     </row>
@@ -8161,7 +8364,7 @@
         <v>0.72</v>
       </c>
       <c r="M160" s="8">
-        <f t="shared" ref="M160:M161" si="60">(((LARGE(D160:F160,1)+LARGE(D160:F160,2))*0.05+(LARGE(G160:I160,1)+LARGE(G160:I160,2))*0.3+(LARGE(J160:L160,1)+LARGE(J160:L160,2))*0.15))</f>
+        <f t="shared" ref="M160:M161" si="66">(((LARGE(D160:F160,1)+LARGE(D160:F160,2))*0.05+(LARGE(G160:I160,1)+LARGE(G160:I160,2))*0.3+(LARGE(J160:L160,1)+LARGE(J160:L160,2))*0.15))</f>
         <v>0.66749999999999998</v>
       </c>
     </row>
@@ -8203,7 +8406,7 @@
         <v>0.69</v>
       </c>
       <c r="M161" s="8">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>0.75600000000000001</v>
       </c>
     </row>
@@ -8245,7 +8448,7 @@
         <v>0.6</v>
       </c>
       <c r="M162" s="8">
-        <f t="shared" ref="M162:M163" si="61">(((LARGE(D162:F162,1)+LARGE(D162:F162,2))*0.05+(LARGE(G162:I162,1)+LARGE(G162:I162,2))*0.3+(LARGE(J162:L162,1)+LARGE(J162:L162,2))*0.15))</f>
+        <f t="shared" ref="M162:M163" si="67">(((LARGE(D162:F162,1)+LARGE(D162:F162,2))*0.05+(LARGE(G162:I162,1)+LARGE(G162:I162,2))*0.3+(LARGE(J162:L162,1)+LARGE(J162:L162,2))*0.15))</f>
         <v>0.68700000000000006</v>
       </c>
     </row>
@@ -8287,7 +8490,7 @@
         <v>0.59</v>
       </c>
       <c r="M163" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>0.77799999999999991</v>
       </c>
     </row>
@@ -8329,7 +8532,7 @@
         <v>0.7</v>
       </c>
       <c r="M164" s="8">
-        <f t="shared" ref="M164" si="62">(((LARGE(D164:F164,1)+LARGE(D164:F164,2))*0.05+(LARGE(G164:I164,1)+LARGE(G164:I164,2))*0.3+(LARGE(J164:L164,1)+LARGE(J164:L164,2))*0.15))</f>
+        <f t="shared" ref="M164:M165" si="68">(((LARGE(D164:F164,1)+LARGE(D164:F164,2))*0.05+(LARGE(G164:I164,1)+LARGE(G164:I164,2))*0.3+(LARGE(J164:L164,1)+LARGE(J164:L164,2))*0.15))</f>
         <v>0.67099999999999993</v>
       </c>
     </row>
@@ -8367,6 +8570,13 @@
       <c r="K165">
         <v>0.67</v>
       </c>
+      <c r="L165">
+        <v>0.59</v>
+      </c>
+      <c r="M165" s="8">
+        <f t="shared" si="68"/>
+        <v>0.72749999999999992</v>
+      </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
@@ -8406,7 +8616,7 @@
         <v>0.65</v>
       </c>
       <c r="M166" s="8">
-        <f t="shared" ref="M166:M167" si="63">(((LARGE(D166:F166,1)+LARGE(D166:F166,2))*0.05+(LARGE(G166:I166,1)+LARGE(G166:I166,2))*0.3+(LARGE(J166:L166,1)+LARGE(J166:L166,2))*0.15))</f>
+        <f t="shared" ref="M166:M167" si="69">(((LARGE(D166:F166,1)+LARGE(D166:F166,2))*0.05+(LARGE(G166:I166,1)+LARGE(G166:I166,2))*0.3+(LARGE(J166:L166,1)+LARGE(J166:L166,2))*0.15))</f>
         <v>0.72399999999999998</v>
       </c>
     </row>
@@ -8448,7 +8658,7 @@
         <v>0.93</v>
       </c>
       <c r="M167" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>0.86950000000000005</v>
       </c>
     </row>
@@ -8486,6 +8696,13 @@
       <c r="K168">
         <v>0.56000000000000005</v>
       </c>
+      <c r="L168">
+        <v>0.7</v>
+      </c>
+      <c r="M168" s="8">
+        <f t="shared" ref="M168:M170" si="70">(((LARGE(D168:F168,1)+LARGE(D168:F168,2))*0.05+(LARGE(G168:I168,1)+LARGE(G168:I168,2))*0.3+(LARGE(J168:L168,1)+LARGE(J168:L168,2))*0.15))</f>
+        <v>0.7679999999999999</v>
+      </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
@@ -8525,7 +8742,7 @@
         <v>0.51</v>
       </c>
       <c r="M169" s="8">
-        <f t="shared" ref="M169:M170" si="64">(((LARGE(D169:F169,1)+LARGE(D169:F169,2))*0.05+(LARGE(G169:I169,1)+LARGE(G169:I169,2))*0.3+(LARGE(J169:L169,1)+LARGE(J169:L169,2))*0.15))</f>
+        <f t="shared" si="70"/>
         <v>0.6855</v>
       </c>
     </row>
@@ -8567,7 +8784,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="M170" s="8">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>0.66149999999999998</v>
       </c>
     </row>
@@ -8609,7 +8826,7 @@
         <v>0.69</v>
       </c>
       <c r="M171" s="8">
-        <f t="shared" ref="M171" si="65">(((LARGE(D171:F171,1)+LARGE(D171:F171,2))*0.05+(LARGE(G171:I171,1)+LARGE(G171:I171,2))*0.3+(LARGE(J171:L171,1)+LARGE(J171:L171,2))*0.15))</f>
+        <f t="shared" ref="M171" si="71">(((LARGE(D171:F171,1)+LARGE(D171:F171,2))*0.05+(LARGE(G171:I171,1)+LARGE(G171:I171,2))*0.3+(LARGE(J171:L171,1)+LARGE(J171:L171,2))*0.15))</f>
         <v>0.6855</v>
       </c>
     </row>
@@ -8651,7 +8868,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="M172" s="8">
-        <f t="shared" ref="M172" si="66">(((LARGE(D172:F172,1)+LARGE(D172:F172,2))*0.05+(LARGE(G172:I172,1)+LARGE(G172:I172,2))*0.3+(LARGE(J172:L172,1)+LARGE(J172:L172,2))*0.15))</f>
+        <f t="shared" ref="M172" si="72">(((LARGE(D172:F172,1)+LARGE(D172:F172,2))*0.05+(LARGE(G172:I172,1)+LARGE(G172:I172,2))*0.3+(LARGE(J172:L172,1)+LARGE(J172:L172,2))*0.15))</f>
         <v>0.61799999999999999</v>
       </c>
     </row>
@@ -8693,7 +8910,7 @@
         <v>0.61</v>
       </c>
       <c r="M173" s="8">
-        <f t="shared" ref="M173" si="67">(((LARGE(D173:F173,1)+LARGE(D173:F173,2))*0.05+(LARGE(G173:I173,1)+LARGE(G173:I173,2))*0.3+(LARGE(J173:L173,1)+LARGE(J173:L173,2))*0.15))</f>
+        <f t="shared" ref="M173" si="73">(((LARGE(D173:F173,1)+LARGE(D173:F173,2))*0.05+(LARGE(G173:I173,1)+LARGE(G173:I173,2))*0.3+(LARGE(J173:L173,1)+LARGE(J173:L173,2))*0.15))</f>
         <v>0.71</v>
       </c>
     </row>
@@ -8770,7 +8987,7 @@
         <v>0.49</v>
       </c>
       <c r="M175" s="8">
-        <f t="shared" ref="M175:M176" si="68">(((LARGE(D175:F175,1)+LARGE(D175:F175,2))*0.05+(LARGE(G175:I175,1)+LARGE(G175:I175,2))*0.3+(LARGE(J175:L175,1)+LARGE(J175:L175,2))*0.15))</f>
+        <f t="shared" ref="M175:M176" si="74">(((LARGE(D175:F175,1)+LARGE(D175:F175,2))*0.05+(LARGE(G175:I175,1)+LARGE(G175:I175,2))*0.3+(LARGE(J175:L175,1)+LARGE(J175:L175,2))*0.15))</f>
         <v>0.70800000000000007</v>
       </c>
     </row>
@@ -8812,7 +9029,7 @@
         <v>0.62</v>
       </c>
       <c r="M176" s="8">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>0.71199999999999997</v>
       </c>
     </row>
@@ -8924,7 +9141,7 @@
         <v>0.49</v>
       </c>
       <c r="M179" s="8">
-        <f t="shared" ref="M179" si="69">(((LARGE(D179:F179,1)+LARGE(D179:F179,2))*0.05+(LARGE(G179:I179,1)+LARGE(G179:I179,2))*0.3+(LARGE(J179:L179,1)+LARGE(J179:L179,2))*0.15))</f>
+        <f t="shared" ref="M179" si="75">(((LARGE(D179:F179,1)+LARGE(D179:F179,2))*0.05+(LARGE(G179:I179,1)+LARGE(G179:I179,2))*0.3+(LARGE(J179:L179,1)+LARGE(J179:L179,2))*0.15))</f>
         <v>0.74849999999999994</v>
       </c>
     </row>
@@ -8966,7 +9183,7 @@
         <v>0.63</v>
       </c>
       <c r="M180" s="8">
-        <f t="shared" ref="M180:M181" si="70">(((LARGE(D180:F180,1)+LARGE(D180:F180,2))*0.05+(LARGE(G180:I180,1)+LARGE(G180:I180,2))*0.3+(LARGE(J180:L180,1)+LARGE(J180:L180,2))*0.15))</f>
+        <f t="shared" ref="M180:M181" si="76">(((LARGE(D180:F180,1)+LARGE(D180:F180,2))*0.05+(LARGE(G180:I180,1)+LARGE(G180:I180,2))*0.3+(LARGE(J180:L180,1)+LARGE(J180:L180,2))*0.15))</f>
         <v>0.68400000000000005</v>
       </c>
     </row>
@@ -9008,7 +9225,7 @@
         <v>0.36</v>
       </c>
       <c r="M181" s="8">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>0.72850000000000004</v>
       </c>
     </row>
@@ -9085,7 +9302,7 @@
         <v>0.51</v>
       </c>
       <c r="M183" s="8">
-        <f t="shared" ref="M183:M185" si="71">(((LARGE(D183:F183,1)+LARGE(D183:F183,2))*0.05+(LARGE(G183:I183,1)+LARGE(G183:I183,2))*0.3+(LARGE(J183:L183,1)+LARGE(J183:L183,2))*0.15))</f>
+        <f t="shared" ref="M183:M186" si="77">(((LARGE(D183:F183,1)+LARGE(D183:F183,2))*0.05+(LARGE(G183:I183,1)+LARGE(G183:I183,2))*0.3+(LARGE(J183:L183,1)+LARGE(J183:L183,2))*0.15))</f>
         <v>0.65900000000000003</v>
       </c>
     </row>
@@ -9127,7 +9344,7 @@
         <v>0.49</v>
       </c>
       <c r="M184" s="8">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>0.74950000000000006</v>
       </c>
     </row>
@@ -9169,7 +9386,7 @@
         <v>0.64</v>
       </c>
       <c r="M185" s="8">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>0.72399999999999998</v>
       </c>
     </row>
@@ -9207,6 +9424,13 @@
       <c r="K186">
         <v>0.67</v>
       </c>
+      <c r="L186">
+        <v>0.59</v>
+      </c>
+      <c r="M186" s="8">
+        <f t="shared" si="77"/>
+        <v>0.76600000000000001</v>
+      </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
@@ -9246,7 +9470,7 @@
         <v>0.61</v>
       </c>
       <c r="M187" s="8">
-        <f t="shared" ref="M187:M188" si="72">(((LARGE(D187:F187,1)+LARGE(D187:F187,2))*0.05+(LARGE(G187:I187,1)+LARGE(G187:I187,2))*0.3+(LARGE(J187:L187,1)+LARGE(J187:L187,2))*0.15))</f>
+        <f t="shared" ref="M187:M188" si="78">(((LARGE(D187:F187,1)+LARGE(D187:F187,2))*0.05+(LARGE(G187:I187,1)+LARGE(G187:I187,2))*0.3+(LARGE(J187:L187,1)+LARGE(J187:L187,2))*0.15))</f>
         <v>0.66149999999999998</v>
       </c>
     </row>
@@ -9288,7 +9512,7 @@
         <v>0.49</v>
       </c>
       <c r="M188" s="8">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>0.63</v>
       </c>
     </row>
@@ -9330,7 +9554,7 @@
         <v>0.7</v>
       </c>
       <c r="M189" s="8">
-        <f t="shared" ref="M189" si="73">(((LARGE(D189:F189,1)+LARGE(D189:F189,2))*0.05+(LARGE(G189:I189,1)+LARGE(G189:I189,2))*0.3+(LARGE(J189:L189,1)+LARGE(J189:L189,2))*0.15))</f>
+        <f t="shared" ref="M189" si="79">(((LARGE(D189:F189,1)+LARGE(D189:F189,2))*0.05+(LARGE(G189:I189,1)+LARGE(G189:I189,2))*0.3+(LARGE(J189:L189,1)+LARGE(J189:L189,2))*0.15))</f>
         <v>0.48250000000000004</v>
       </c>
     </row>
@@ -9442,7 +9666,7 @@
         <v>0.65</v>
       </c>
       <c r="M192" s="8">
-        <f t="shared" ref="M192:M193" si="74">(((LARGE(D192:F192,1)+LARGE(D192:F192,2))*0.05+(LARGE(G192:I192,1)+LARGE(G192:I192,2))*0.3+(LARGE(J192:L192,1)+LARGE(J192:L192,2))*0.15))</f>
+        <f t="shared" ref="M192:M193" si="80">(((LARGE(D192:F192,1)+LARGE(D192:F192,2))*0.05+(LARGE(G192:I192,1)+LARGE(G192:I192,2))*0.3+(LARGE(J192:L192,1)+LARGE(J192:L192,2))*0.15))</f>
         <v>0.64049999999999996</v>
       </c>
     </row>
@@ -9484,7 +9708,7 @@
         <v>0.69</v>
       </c>
       <c r="M193" s="8">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>0.77100000000000002</v>
       </c>
     </row>
@@ -9561,7 +9785,7 @@
         <v>0.78</v>
       </c>
       <c r="M195" s="8">
-        <f t="shared" ref="M195:M196" si="75">(((LARGE(D195:F195,1)+LARGE(D195:F195,2))*0.05+(LARGE(G195:I195,1)+LARGE(G195:I195,2))*0.3+(LARGE(J195:L195,1)+LARGE(J195:L195,2))*0.15))</f>
+        <f t="shared" ref="M195:M196" si="81">(((LARGE(D195:F195,1)+LARGE(D195:F195,2))*0.05+(LARGE(G195:I195,1)+LARGE(G195:I195,2))*0.3+(LARGE(J195:L195,1)+LARGE(J195:L195,2))*0.15))</f>
         <v>0.78700000000000003</v>
       </c>
     </row>
@@ -9603,7 +9827,7 @@
         <v>0.69</v>
       </c>
       <c r="M196" s="8">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>0.67349999999999999</v>
       </c>
     </row>
@@ -9645,7 +9869,7 @@
         <v>0.77</v>
       </c>
       <c r="M197" s="8">
-        <f t="shared" ref="M197:M199" si="76">(((LARGE(D197:F197,1)+LARGE(D197:F197,2))*0.05+(LARGE(G197:I197,1)+LARGE(G197:I197,2))*0.3+(LARGE(J197:L197,1)+LARGE(J197:L197,2))*0.15))</f>
+        <f t="shared" ref="M197:M199" si="82">(((LARGE(D197:F197,1)+LARGE(D197:F197,2))*0.05+(LARGE(G197:I197,1)+LARGE(G197:I197,2))*0.3+(LARGE(J197:L197,1)+LARGE(J197:L197,2))*0.15))</f>
         <v>0.73450000000000004</v>
       </c>
     </row>
@@ -9687,7 +9911,7 @@
         <v>0.7</v>
       </c>
       <c r="M198" s="8">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>0.79299999999999993</v>
       </c>
     </row>
@@ -9729,7 +9953,7 @@
         <v>0.68</v>
       </c>
       <c r="M199" s="8">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>0.77</v>
       </c>
     </row>
@@ -9771,7 +9995,7 @@
         <v>0.87</v>
       </c>
       <c r="M200" s="8">
-        <f t="shared" ref="M200:M201" si="77">(((LARGE(D200:F200,1)+LARGE(D200:F200,2))*0.05+(LARGE(G200:I200,1)+LARGE(G200:I200,2))*0.3+(LARGE(J200:L200,1)+LARGE(J200:L200,2))*0.15))</f>
+        <f t="shared" ref="M200:M201" si="83">(((LARGE(D200:F200,1)+LARGE(D200:F200,2))*0.05+(LARGE(G200:I200,1)+LARGE(G200:I200,2))*0.3+(LARGE(J200:L200,1)+LARGE(J200:L200,2))*0.15))</f>
         <v>0.69500000000000006</v>
       </c>
     </row>
@@ -9813,7 +10037,7 @@
         <v>0.7</v>
       </c>
       <c r="M201" s="8">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>0.71550000000000002</v>
       </c>
     </row>
@@ -9855,7 +10079,7 @@
         <v>0.63</v>
       </c>
       <c r="M202" s="8">
-        <f t="shared" ref="M202:M203" si="78">(((LARGE(D202:F202,1)+LARGE(D202:F202,2))*0.05+(LARGE(G202:I202,1)+LARGE(G202:I202,2))*0.3+(LARGE(J202:L202,1)+LARGE(J202:L202,2))*0.15))</f>
+        <f t="shared" ref="M202:M203" si="84">(((LARGE(D202:F202,1)+LARGE(D202:F202,2))*0.05+(LARGE(G202:I202,1)+LARGE(G202:I202,2))*0.3+(LARGE(J202:L202,1)+LARGE(J202:L202,2))*0.15))</f>
         <v>0.59000000000000008</v>
       </c>
     </row>
@@ -9897,7 +10121,7 @@
         <v>0.65</v>
       </c>
       <c r="M203" s="8">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>0.69199999999999995</v>
       </c>
     </row>
@@ -9939,7 +10163,7 @@
         <v>0.7</v>
       </c>
       <c r="M204" s="8">
-        <f t="shared" ref="M204" si="79">(((LARGE(D204:F204,1)+LARGE(D204:F204,2))*0.05+(LARGE(G204:I204,1)+LARGE(G204:I204,2))*0.3+(LARGE(J204:L204,1)+LARGE(J204:L204,2))*0.15))</f>
+        <f t="shared" ref="M204" si="85">(((LARGE(D204:F204,1)+LARGE(D204:F204,2))*0.05+(LARGE(G204:I204,1)+LARGE(G204:I204,2))*0.3+(LARGE(J204:L204,1)+LARGE(J204:L204,2))*0.15))</f>
         <v>0.75349999999999995</v>
       </c>
     </row>
@@ -9981,7 +10205,7 @@
         <v>0.6</v>
       </c>
       <c r="M205" s="8">
-        <f t="shared" ref="M205:M206" si="80">(((LARGE(D205:F205,1)+LARGE(D205:F205,2))*0.05+(LARGE(G205:I205,1)+LARGE(G205:I205,2))*0.3+(LARGE(J205:L205,1)+LARGE(J205:L205,2))*0.15))</f>
+        <f t="shared" ref="M205:M206" si="86">(((LARGE(D205:F205,1)+LARGE(D205:F205,2))*0.05+(LARGE(G205:I205,1)+LARGE(G205:I205,2))*0.3+(LARGE(J205:L205,1)+LARGE(J205:L205,2))*0.15))</f>
         <v>0.65349999999999997</v>
       </c>
     </row>
@@ -10023,7 +10247,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="M206" s="8">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>0.53800000000000003</v>
       </c>
     </row>
@@ -10065,7 +10289,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="M207" s="8">
-        <f t="shared" ref="M207:M208" si="81">(((LARGE(D207:F207,1)+LARGE(D207:F207,2))*0.05+(LARGE(G207:I207,1)+LARGE(G207:I207,2))*0.3+(LARGE(J207:L207,1)+LARGE(J207:L207,2))*0.15))</f>
+        <f t="shared" ref="M207:M208" si="87">(((LARGE(D207:F207,1)+LARGE(D207:F207,2))*0.05+(LARGE(G207:I207,1)+LARGE(G207:I207,2))*0.3+(LARGE(J207:L207,1)+LARGE(J207:L207,2))*0.15))</f>
         <v>0.74550000000000005</v>
       </c>
     </row>
@@ -10107,7 +10331,7 @@
         <v>0.6</v>
       </c>
       <c r="M208" s="8">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>0.69550000000000012</v>
       </c>
     </row>
@@ -10149,7 +10373,7 @@
         <v>0.68</v>
       </c>
       <c r="M209" s="8">
-        <f t="shared" ref="M209:M210" si="82">(((LARGE(D209:F209,1)+LARGE(D209:F209,2))*0.05+(LARGE(G209:I209,1)+LARGE(G209:I209,2))*0.3+(LARGE(J209:L209,1)+LARGE(J209:L209,2))*0.15))</f>
+        <f t="shared" ref="M209:M210" si="88">(((LARGE(D209:F209,1)+LARGE(D209:F209,2))*0.05+(LARGE(G209:I209,1)+LARGE(G209:I209,2))*0.3+(LARGE(J209:L209,1)+LARGE(J209:L209,2))*0.15))</f>
         <v>0.81850000000000001</v>
       </c>
     </row>
@@ -10191,7 +10415,7 @@
         <v>0.59</v>
       </c>
       <c r="M210" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>0.75800000000000001</v>
       </c>
     </row>
@@ -10268,7 +10492,7 @@
         <v>0.93</v>
       </c>
       <c r="M212" s="8">
-        <f t="shared" ref="M212" si="83">(((LARGE(D212:F212,1)+LARGE(D212:F212,2))*0.05+(LARGE(G212:I212,1)+LARGE(G212:I212,2))*0.3+(LARGE(J212:L212,1)+LARGE(J212:L212,2))*0.15))</f>
+        <f t="shared" ref="M212" si="89">(((LARGE(D212:F212,1)+LARGE(D212:F212,2))*0.05+(LARGE(G212:I212,1)+LARGE(G212:I212,2))*0.3+(LARGE(J212:L212,1)+LARGE(J212:L212,2))*0.15))</f>
         <v>0.70949999999999991</v>
       </c>
     </row>
@@ -10310,7 +10534,7 @@
         <v>0.8</v>
       </c>
       <c r="M213" s="8">
-        <f t="shared" ref="M213" si="84">(((LARGE(D213:F213,1)+LARGE(D213:F213,2))*0.05+(LARGE(G213:I213,1)+LARGE(G213:I213,2))*0.3+(LARGE(J213:L213,1)+LARGE(J213:L213,2))*0.15))</f>
+        <f t="shared" ref="M213" si="90">(((LARGE(D213:F213,1)+LARGE(D213:F213,2))*0.05+(LARGE(G213:I213,1)+LARGE(G213:I213,2))*0.3+(LARGE(J213:L213,1)+LARGE(J213:L213,2))*0.15))</f>
         <v>0.63849999999999996</v>
       </c>
     </row>
@@ -10352,7 +10576,7 @@
         <v>0.54</v>
       </c>
       <c r="M214" s="8">
-        <f t="shared" ref="M214" si="85">(((LARGE(D214:F214,1)+LARGE(D214:F214,2))*0.05+(LARGE(G214:I214,1)+LARGE(G214:I214,2))*0.3+(LARGE(J214:L214,1)+LARGE(J214:L214,2))*0.15))</f>
+        <f t="shared" ref="M214" si="91">(((LARGE(D214:F214,1)+LARGE(D214:F214,2))*0.05+(LARGE(G214:I214,1)+LARGE(G214:I214,2))*0.3+(LARGE(J214:L214,1)+LARGE(J214:L214,2))*0.15))</f>
         <v>0.84700000000000009</v>
       </c>
     </row>
@@ -10429,7 +10653,7 @@
         <v>0.62</v>
       </c>
       <c r="M216" s="8">
-        <f t="shared" ref="M216:M217" si="86">(((LARGE(D216:F216,1)+LARGE(D216:F216,2))*0.05+(LARGE(G216:I216,1)+LARGE(G216:I216,2))*0.3+(LARGE(J216:L216,1)+LARGE(J216:L216,2))*0.15))</f>
+        <f t="shared" ref="M216:M218" si="92">(((LARGE(D216:F216,1)+LARGE(D216:F216,2))*0.05+(LARGE(G216:I216,1)+LARGE(G216:I216,2))*0.3+(LARGE(J216:L216,1)+LARGE(J216:L216,2))*0.15))</f>
         <v>0.66100000000000003</v>
       </c>
     </row>
@@ -10471,7 +10695,7 @@
         <v>0.64</v>
       </c>
       <c r="M217" s="8">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>0.77549999999999986</v>
       </c>
     </row>
@@ -10509,6 +10733,13 @@
       <c r="K218">
         <v>0.67</v>
       </c>
+      <c r="L218">
+        <v>0.51</v>
+      </c>
+      <c r="M218" s="8">
+        <f t="shared" si="92"/>
+        <v>0.66400000000000015</v>
+      </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
@@ -10583,7 +10814,7 @@
         <v>0.77</v>
       </c>
       <c r="M220" s="8">
-        <f t="shared" ref="M220" si="87">(((LARGE(D220:F220,1)+LARGE(D220:F220,2))*0.05+(LARGE(G220:I220,1)+LARGE(G220:I220,2))*0.3+(LARGE(J220:L220,1)+LARGE(J220:L220,2))*0.15))</f>
+        <f t="shared" ref="M220" si="93">(((LARGE(D220:F220,1)+LARGE(D220:F220,2))*0.05+(LARGE(G220:I220,1)+LARGE(G220:I220,2))*0.3+(LARGE(J220:L220,1)+LARGE(J220:L220,2))*0.15))</f>
         <v>0.7</v>
       </c>
     </row>
@@ -10660,7 +10891,7 @@
         <v>0.54</v>
       </c>
       <c r="M222" s="8">
-        <f t="shared" ref="M222" si="88">(((LARGE(D222:F222,1)+LARGE(D222:F222,2))*0.05+(LARGE(G222:I222,1)+LARGE(G222:I222,2))*0.3+(LARGE(J222:L222,1)+LARGE(J222:L222,2))*0.15))</f>
+        <f t="shared" ref="M222:M223" si="94">(((LARGE(D222:F222,1)+LARGE(D222:F222,2))*0.05+(LARGE(G222:I222,1)+LARGE(G222:I222,2))*0.3+(LARGE(J222:L222,1)+LARGE(J222:L222,2))*0.15))</f>
         <v>0.72299999999999998</v>
       </c>
     </row>
@@ -10698,6 +10929,13 @@
       <c r="K223">
         <v>0.56000000000000005</v>
       </c>
+      <c r="L223">
+        <v>0.7</v>
+      </c>
+      <c r="M223" s="8">
+        <f t="shared" si="94"/>
+        <v>0.71599999999999997</v>
+      </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
@@ -10737,7 +10975,7 @@
         <v>0.87</v>
       </c>
       <c r="M224" s="8">
-        <f t="shared" ref="M224:M225" si="89">(((LARGE(D224:F224,1)+LARGE(D224:F224,2))*0.05+(LARGE(G224:I224,1)+LARGE(G224:I224,2))*0.3+(LARGE(J224:L224,1)+LARGE(J224:L224,2))*0.15))</f>
+        <f t="shared" ref="M224:M226" si="95">(((LARGE(D224:F224,1)+LARGE(D224:F224,2))*0.05+(LARGE(G224:I224,1)+LARGE(G224:I224,2))*0.3+(LARGE(J224:L224,1)+LARGE(J224:L224,2))*0.15))</f>
         <v>0.79449999999999998</v>
       </c>
     </row>
@@ -10779,7 +11017,7 @@
         <v>0.7</v>
       </c>
       <c r="M225" s="8">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>0.66100000000000003</v>
       </c>
     </row>
@@ -10817,6 +11055,13 @@
       <c r="K226">
         <v>0.54</v>
       </c>
+      <c r="L226">
+        <v>0.73</v>
+      </c>
+      <c r="M226" s="8">
+        <f t="shared" si="95"/>
+        <v>0.58200000000000007</v>
+      </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
@@ -10856,7 +11101,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="M227" s="8">
-        <f t="shared" ref="M227" si="90">(((LARGE(D227:F227,1)+LARGE(D227:F227,2))*0.05+(LARGE(G227:I227,1)+LARGE(G227:I227,2))*0.3+(LARGE(J227:L227,1)+LARGE(J227:L227,2))*0.15))</f>
+        <f t="shared" ref="M227" si="96">(((LARGE(D227:F227,1)+LARGE(D227:F227,2))*0.05+(LARGE(G227:I227,1)+LARGE(G227:I227,2))*0.3+(LARGE(J227:L227,1)+LARGE(J227:L227,2))*0.15))</f>
         <v>0.64749999999999996</v>
       </c>
     </row>
@@ -10933,7 +11178,7 @@
         <v>0.78</v>
       </c>
       <c r="M229" s="8">
-        <f t="shared" ref="M229" si="91">(((LARGE(D229:F229,1)+LARGE(D229:F229,2))*0.05+(LARGE(G229:I229,1)+LARGE(G229:I229,2))*0.3+(LARGE(J229:L229,1)+LARGE(J229:L229,2))*0.15))</f>
+        <f t="shared" ref="M229:M231" si="97">(((LARGE(D229:F229,1)+LARGE(D229:F229,2))*0.05+(LARGE(G229:I229,1)+LARGE(G229:I229,2))*0.3+(LARGE(J229:L229,1)+LARGE(J229:L229,2))*0.15))</f>
         <v>0.73449999999999993</v>
       </c>
     </row>
@@ -10971,6 +11216,13 @@
       <c r="K230">
         <v>0.37</v>
       </c>
+      <c r="L230">
+        <v>0.01</v>
+      </c>
+      <c r="M230" s="8">
+        <f t="shared" si="97"/>
+        <v>0.68399999999999994</v>
+      </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
@@ -11005,6 +11257,13 @@
       </c>
       <c r="K231">
         <v>0.54</v>
+      </c>
+      <c r="L231">
+        <v>0.73</v>
+      </c>
+      <c r="M231" s="8">
+        <f t="shared" si="97"/>
+        <v>0.64400000000000013</v>
       </c>
     </row>
   </sheetData>

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97BAEDE-FD0A-2F44-934E-8999CDEA48E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC861973-3EC6-D54B-A529-282C84514D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="960" windowWidth="29360" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -1496,18 +1496,12 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC0E6F5"/>
-        <bgColor rgb="FFC0E6F5"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1537,7 +1531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1547,9 +1541,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1938,8 +1929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="M88" sqref="M88"/>
+    <sheetView tabSelected="1" topLeftCell="A212" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="L234" sqref="L234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2026,7 +2017,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="M2" s="8">
-        <f t="shared" ref="M2:M3" si="0">(((LARGE(D2:F2,1)+LARGE(D2:F2,2))*0.05+(LARGE(G2:I2,1)+LARGE(G2:I2,2))*0.3+(LARGE(J2:L2,1)+LARGE(J2:L2,2))*0.15))</f>
+        <f t="shared" ref="M2:M65" si="0">(((LARGE(D2:F2,1)+LARGE(D2:F2,2))*0.05+(LARGE(G2:I2,1)+LARGE(G2:I2,2))*0.3+(LARGE(J2:L2,1)+LARGE(J2:L2,2))*0.15))</f>
         <v>0.66849999999999998</v>
       </c>
     </row>
@@ -2106,7 +2097,13 @@
       <c r="K4">
         <v>0.92</v>
       </c>
-      <c r="M4" s="9"/>
+      <c r="L4">
+        <v>0.86</v>
+      </c>
+      <c r="M4" s="8">
+        <f t="shared" si="0"/>
+        <v>0.8105</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2146,7 +2143,7 @@
         <v>0.77</v>
       </c>
       <c r="M5" s="8">
-        <f t="shared" ref="M5" si="1">(((LARGE(D5:F5,1)+LARGE(D5:F5,2))*0.05+(LARGE(G5:I5,1)+LARGE(G5:I5,2))*0.3+(LARGE(J5:L5,1)+LARGE(J5:L5,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.60799999999999998</v>
       </c>
     </row>
@@ -2184,6 +2181,13 @@
       <c r="K6">
         <v>0.92</v>
       </c>
+      <c r="L6">
+        <v>0.86</v>
+      </c>
+      <c r="M6" s="8">
+        <f t="shared" si="0"/>
+        <v>0.83877184466019439</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2223,7 +2227,7 @@
         <v>0.61</v>
       </c>
       <c r="M7" s="8">
-        <f t="shared" ref="M7" si="2">(((LARGE(D7:F7,1)+LARGE(D7:F7,2))*0.05+(LARGE(G7:I7,1)+LARGE(G7:I7,2))*0.3+(LARGE(J7:L7,1)+LARGE(J7:L7,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.72214563106796126</v>
       </c>
     </row>
@@ -2265,7 +2269,7 @@
         <v>0.46</v>
       </c>
       <c r="M8" s="8">
-        <f t="shared" ref="M8:M9" si="3">(((LARGE(D8:F8,1)+LARGE(D8:F8,2))*0.05+(LARGE(G8:I8,1)+LARGE(G8:I8,2))*0.3+(LARGE(J8:L8,1)+LARGE(J8:L8,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.49833009708737863</v>
       </c>
     </row>
@@ -2307,7 +2311,7 @@
         <v>0.61</v>
       </c>
       <c r="M9" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.72099999999999997</v>
       </c>
     </row>
@@ -2345,6 +2349,13 @@
       <c r="K10">
         <v>0</v>
       </c>
+      <c r="L10">
+        <v>0.81</v>
+      </c>
+      <c r="M10" s="8">
+        <f t="shared" si="0"/>
+        <v>0.64300000000000002</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2380,6 +2391,13 @@
       <c r="K11">
         <v>0.92</v>
       </c>
+      <c r="L11">
+        <v>0.86</v>
+      </c>
+      <c r="M11" s="8">
+        <f t="shared" si="0"/>
+        <v>0.90311165048543685</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2415,6 +2433,13 @@
       <c r="K12">
         <v>0.69</v>
       </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="8">
+        <f t="shared" si="0"/>
+        <v>0.83650000000000002</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2454,7 +2479,7 @@
         <v>0.81</v>
       </c>
       <c r="M13" s="8">
-        <f t="shared" ref="M13" si="4">(((LARGE(D13:F13,1)+LARGE(D13:F13,2))*0.05+(LARGE(G13:I13,1)+LARGE(G13:I13,2))*0.3+(LARGE(J13:L13,1)+LARGE(J13:L13,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.73799514563106783</v>
       </c>
     </row>
@@ -2496,7 +2521,7 @@
         <v>0.85</v>
       </c>
       <c r="M14" s="8">
-        <f t="shared" ref="M14:M18" si="5">(((LARGE(D14:F14,1)+LARGE(D14:F14,2))*0.05+(LARGE(G14:I14,1)+LARGE(G14:I14,2))*0.3+(LARGE(J14:L14,1)+LARGE(J14:L14,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.71134466019417486</v>
       </c>
     </row>
@@ -2535,11 +2560,11 @@
         <v>0.75</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="M15" s="8">
-        <f t="shared" si="5"/>
-        <v>0.60499999999999998</v>
+        <f t="shared" si="0"/>
+        <v>0.65599999999999992</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -2580,7 +2605,7 @@
         <v>0.64</v>
       </c>
       <c r="M16" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0.62250000000000005</v>
       </c>
     </row>
@@ -2618,6 +2643,13 @@
       <c r="K17">
         <v>0.75</v>
       </c>
+      <c r="L17">
+        <v>0.73</v>
+      </c>
+      <c r="M17" s="8">
+        <f t="shared" si="0"/>
+        <v>0.66700000000000004</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -2657,7 +2689,7 @@
         <v>0.64</v>
       </c>
       <c r="M18" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0.71250000000000002</v>
       </c>
     </row>
@@ -2695,6 +2727,13 @@
       <c r="K19">
         <v>0.42</v>
       </c>
+      <c r="L19">
+        <v>0.59</v>
+      </c>
+      <c r="M19" s="8">
+        <f t="shared" si="0"/>
+        <v>0.3067669902912622</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -2734,7 +2773,7 @@
         <v>0.61</v>
       </c>
       <c r="M20" s="8">
-        <f t="shared" ref="M20" si="6">(((LARGE(D20:F20,1)+LARGE(D20:F20,2))*0.05+(LARGE(G20:I20,1)+LARGE(G20:I20,2))*0.3+(LARGE(J20:L20,1)+LARGE(J20:L20,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.69264563106796118</v>
       </c>
     </row>
@@ -2772,6 +2811,13 @@
       <c r="K21">
         <v>0.92</v>
       </c>
+      <c r="L21">
+        <v>0.78</v>
+      </c>
+      <c r="M21" s="8">
+        <f t="shared" si="0"/>
+        <v>0.8254999999999999</v>
+      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -2807,6 +2853,13 @@
       <c r="K22">
         <v>0.42</v>
       </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22" s="8">
+        <f t="shared" si="0"/>
+        <v>0.57280582524271839</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -2846,7 +2899,7 @@
         <v>0.54</v>
       </c>
       <c r="M23" s="8">
-        <f t="shared" ref="M23" si="7">(((LARGE(D23:F23,1)+LARGE(D23:F23,2))*0.05+(LARGE(G23:I23,1)+LARGE(G23:I23,2))*0.3+(LARGE(J23:L23,1)+LARGE(J23:L23,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.6915</v>
       </c>
     </row>
@@ -2888,7 +2941,7 @@
         <v>0.89</v>
       </c>
       <c r="M24" s="8">
-        <f t="shared" ref="M24" si="8">(((LARGE(D24:F24,1)+LARGE(D24:F24,2))*0.05+(LARGE(G24:I24,1)+LARGE(G24:I24,2))*0.3+(LARGE(J24:L24,1)+LARGE(J24:L24,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.69649514563106796</v>
       </c>
     </row>
@@ -2926,6 +2979,13 @@
       <c r="K25">
         <v>0.92</v>
       </c>
+      <c r="L25">
+        <v>0.78</v>
+      </c>
+      <c r="M25" s="8">
+        <f t="shared" si="0"/>
+        <v>0.7589999999999999</v>
+      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -2965,7 +3025,7 @@
         <v>0.85</v>
       </c>
       <c r="M26" s="8">
-        <f t="shared" ref="M26" si="9">(((LARGE(D26:F26,1)+LARGE(D26:F26,2))*0.05+(LARGE(G26:I26,1)+LARGE(G26:I26,2))*0.3+(LARGE(J26:L26,1)+LARGE(J26:L26,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.7004999999999999</v>
       </c>
     </row>
@@ -3007,7 +3067,7 @@
         <v>0.46</v>
       </c>
       <c r="M27" s="8">
-        <f t="shared" ref="M27:M29" si="10">(((LARGE(D27:F27,1)+LARGE(D27:F27,2))*0.05+(LARGE(G27:I27,1)+LARGE(G27:I27,2))*0.3+(LARGE(J27:L27,1)+LARGE(J27:L27,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.59750000000000003</v>
       </c>
     </row>
@@ -3049,7 +3109,7 @@
         <v>0.61</v>
       </c>
       <c r="M28" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0.78549999999999998</v>
       </c>
     </row>
@@ -3091,7 +3151,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="M29" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0.72050000000000003</v>
       </c>
     </row>
@@ -3133,7 +3193,7 @@
         <v>0.46</v>
       </c>
       <c r="M30" s="8">
-        <f t="shared" ref="M30:M32" si="11">(((LARGE(D30:F30,1)+LARGE(D30:F30,2))*0.05+(LARGE(G30:I30,1)+LARGE(G30:I30,2))*0.3+(LARGE(J30:L30,1)+LARGE(J30:L30,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.64149999999999996</v>
       </c>
     </row>
@@ -3175,7 +3235,7 @@
         <v>0.82</v>
       </c>
       <c r="M31" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="0"/>
         <v>0.749</v>
       </c>
     </row>
@@ -3217,7 +3277,7 @@
         <v>0.61</v>
       </c>
       <c r="M32" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="0"/>
         <v>0.58050000000000002</v>
       </c>
     </row>
@@ -3259,7 +3319,7 @@
         <v>0.62</v>
       </c>
       <c r="M33" s="8">
-        <f t="shared" ref="M33:M34" si="12">(((LARGE(D33:F33,1)+LARGE(D33:F33,2))*0.05+(LARGE(G33:I33,1)+LARGE(G33:I33,2))*0.3+(LARGE(J33:L33,1)+LARGE(J33:L33,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.63119417475728157</v>
       </c>
     </row>
@@ -3301,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>0.55845631067961177</v>
       </c>
     </row>
@@ -3343,7 +3403,7 @@
         <v>0.8</v>
       </c>
       <c r="M35" s="8">
-        <f t="shared" ref="M34:M37" si="13">(((LARGE(D35:F35,1)+LARGE(D35:F35,2))*0.05+(LARGE(G35:I35,1)+LARGE(G35:I35,2))*0.3+(LARGE(J35:L35,1)+LARGE(J35:L35,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.70705825242718467</v>
       </c>
     </row>
@@ -3385,7 +3445,7 @@
         <v>0.53</v>
       </c>
       <c r="M36" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="0"/>
         <v>0.67249514563106794</v>
       </c>
     </row>
@@ -3427,7 +3487,7 @@
         <v>0.45</v>
       </c>
       <c r="M37" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="0"/>
         <v>0.60099999999999998</v>
       </c>
     </row>
@@ -3469,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="8">
-        <f t="shared" ref="M38" si="14">(((LARGE(D38:F38,1)+LARGE(D38:F38,2))*0.05+(LARGE(G38:I38,1)+LARGE(G38:I38,2))*0.3+(LARGE(J38:L38,1)+LARGE(J38:L38,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.69200000000000006</v>
       </c>
     </row>
@@ -3511,7 +3571,7 @@
         <v>0.89</v>
       </c>
       <c r="M39" s="8">
-        <f t="shared" ref="M39" si="15">(((LARGE(D39:F39,1)+LARGE(D39:F39,2))*0.05+(LARGE(G39:I39,1)+LARGE(G39:I39,2))*0.3+(LARGE(J39:L39,1)+LARGE(J39:L39,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.874</v>
       </c>
     </row>
@@ -3553,7 +3613,7 @@
         <v>0.61</v>
       </c>
       <c r="M40" s="8">
-        <f t="shared" ref="M40:M42" si="16">(((LARGE(D40:F40,1)+LARGE(D40:F40,2))*0.05+(LARGE(G40:I40,1)+LARGE(G40:I40,2))*0.3+(LARGE(J40:L40,1)+LARGE(J40:L40,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.80800000000000005</v>
       </c>
     </row>
@@ -3595,7 +3655,7 @@
         <v>0.54</v>
       </c>
       <c r="M41" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="0"/>
         <v>0.7619999999999999</v>
       </c>
     </row>
@@ -3637,7 +3697,7 @@
         <v>0.81</v>
       </c>
       <c r="M42" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="0"/>
         <v>0.71982038834951467</v>
       </c>
     </row>
@@ -3675,6 +3735,13 @@
       <c r="K43">
         <v>0.69</v>
       </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43" s="8">
+        <f t="shared" si="0"/>
+        <v>0.74099514563106794</v>
+      </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -3714,7 +3781,7 @@
         <v>0.61</v>
       </c>
       <c r="M44" s="8">
-        <f t="shared" ref="M44:M46" si="17">(((LARGE(D44:F44,1)+LARGE(D44:F44,2))*0.05+(LARGE(G44:I44,1)+LARGE(G44:I44,2))*0.3+(LARGE(J44:L44,1)+LARGE(J44:L44,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.71679611650485453</v>
       </c>
     </row>
@@ -3756,7 +3823,7 @@
         <v>0.5</v>
       </c>
       <c r="M45" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="0"/>
         <v>0.77499999999999991</v>
       </c>
     </row>
@@ -3798,7 +3865,7 @@
         <v>0.77</v>
       </c>
       <c r="M46" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="0"/>
         <v>0.75362135922330098</v>
       </c>
     </row>
@@ -3836,6 +3903,13 @@
       <c r="K47">
         <v>0</v>
       </c>
+      <c r="L47">
+        <v>0.91</v>
+      </c>
+      <c r="M47" s="8">
+        <f t="shared" si="0"/>
+        <v>0.77920873786407752</v>
+      </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -3875,7 +3949,7 @@
         <v>0.61</v>
       </c>
       <c r="M48" s="8">
-        <f t="shared" ref="M48:M49" si="18">(((LARGE(D48:F48,1)+LARGE(D48:F48,2))*0.05+(LARGE(G48:I48,1)+LARGE(G48:I48,2))*0.3+(LARGE(J48:L48,1)+LARGE(J48:L48,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.72764563106796121</v>
       </c>
     </row>
@@ -3917,7 +3991,7 @@
         <v>0.54</v>
       </c>
       <c r="M49" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="0"/>
         <v>0.73499999999999999</v>
       </c>
     </row>
@@ -3959,7 +4033,7 @@
         <v>0.62</v>
       </c>
       <c r="M50" s="8">
-        <f t="shared" ref="M50" si="19">(((LARGE(D50:F50,1)+LARGE(D50:F50,2))*0.05+(LARGE(G50:I50,1)+LARGE(G50:I50,2))*0.3+(LARGE(J50:L50,1)+LARGE(J50:L50,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.43700000000000006</v>
       </c>
     </row>
@@ -3997,6 +4071,13 @@
       <c r="K51">
         <v>0.92</v>
       </c>
+      <c r="L51">
+        <v>0.86</v>
+      </c>
+      <c r="M51" s="8">
+        <f t="shared" si="0"/>
+        <v>0.87450000000000006</v>
+      </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -4036,7 +4117,7 @@
         <v>0.46</v>
       </c>
       <c r="M52" s="8">
-        <f t="shared" ref="M52" si="20">(((LARGE(D52:F52,1)+LARGE(D52:F52,2))*0.05+(LARGE(G52:I52,1)+LARGE(G52:I52,2))*0.3+(LARGE(J52:L52,1)+LARGE(J52:L52,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.69614563106796112</v>
       </c>
     </row>
@@ -4078,7 +4159,7 @@
         <v>0.54</v>
       </c>
       <c r="M53" s="8">
-        <f t="shared" ref="M53" si="21">(((LARGE(D53:F53,1)+LARGE(D53:F53,2))*0.05+(LARGE(G53:I53,1)+LARGE(G53:I53,2))*0.3+(LARGE(J53:L53,1)+LARGE(J53:L53,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.65469417475728164</v>
       </c>
     </row>
@@ -4120,7 +4201,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="M54" s="8">
-        <f t="shared" ref="M54:M55" si="22">(((LARGE(D54:F54,1)+LARGE(D54:F54,2))*0.05+(LARGE(G54:I54,1)+LARGE(G54:I54,2))*0.3+(LARGE(J54:L54,1)+LARGE(J54:L54,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.79939805825242705</v>
       </c>
     </row>
@@ -4162,7 +4243,7 @@
         <v>0.74</v>
       </c>
       <c r="M55" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="0"/>
         <v>0.72750000000000004</v>
       </c>
     </row>
@@ -4200,6 +4281,13 @@
       <c r="K56">
         <v>0.73</v>
       </c>
+      <c r="L56">
+        <v>0.68</v>
+      </c>
+      <c r="M56" s="8">
+        <f t="shared" si="0"/>
+        <v>0.67749999999999999</v>
+      </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
@@ -4235,6 +4323,13 @@
       <c r="K57">
         <v>0.56000000000000005</v>
       </c>
+      <c r="L57">
+        <v>0.54</v>
+      </c>
+      <c r="M57" s="8">
+        <f t="shared" si="0"/>
+        <v>0.67600000000000005</v>
+      </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -4274,7 +4369,7 @@
         <v>0.74</v>
       </c>
       <c r="M58" s="8">
-        <f t="shared" ref="M58" si="23">(((LARGE(D58:F58,1)+LARGE(D58:F58,2))*0.05+(LARGE(G58:I58,1)+LARGE(G58:I58,2))*0.3+(LARGE(J58:L58,1)+LARGE(J58:L58,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.77399999999999991</v>
       </c>
     </row>
@@ -4312,6 +4407,13 @@
       <c r="K59">
         <v>0.75</v>
       </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59" s="8">
+        <f t="shared" si="0"/>
+        <v>0.63650000000000007</v>
+      </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
@@ -4351,7 +4453,7 @@
         <v>0.69</v>
       </c>
       <c r="M60" s="8">
-        <f t="shared" ref="M60" si="24">(((LARGE(D60:F60,1)+LARGE(D60:F60,2))*0.05+(LARGE(G60:I60,1)+LARGE(G60:I60,2))*0.3+(LARGE(J60:L60,1)+LARGE(J60:L60,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.80499999999999994</v>
       </c>
     </row>
@@ -4393,7 +4495,7 @@
         <v>0.46</v>
       </c>
       <c r="M61" s="8">
-        <f t="shared" ref="M61:M62" si="25">(((LARGE(D61:F61,1)+LARGE(D61:F61,2))*0.05+(LARGE(G61:I61,1)+LARGE(G61:I61,2))*0.3+(LARGE(J61:L61,1)+LARGE(J61:L61,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.67800000000000005</v>
       </c>
     </row>
@@ -4435,7 +4537,7 @@
         <v>0.51</v>
       </c>
       <c r="M62" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="0"/>
         <v>0.71350000000000002</v>
       </c>
     </row>
@@ -4473,6 +4575,13 @@
       <c r="K63">
         <v>0.75</v>
       </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63" s="8">
+        <f t="shared" si="0"/>
+        <v>0.66349999999999998</v>
+      </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -4512,7 +4621,7 @@
         <v>0.69</v>
       </c>
       <c r="M64" s="8">
-        <f t="shared" ref="M64:M66" si="26">(((LARGE(D64:F64,1)+LARGE(D64:F64,2))*0.05+(LARGE(G64:I64,1)+LARGE(G64:I64,2))*0.3+(LARGE(J64:L64,1)+LARGE(J64:L64,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.8680000000000001</v>
       </c>
     </row>
@@ -4554,7 +4663,7 @@
         <v>0.51</v>
       </c>
       <c r="M65" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="0"/>
         <v>0.64000000000000012</v>
       </c>
     </row>
@@ -4596,7 +4705,7 @@
         <v>0.45</v>
       </c>
       <c r="M66" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="M66:M129" si="1">(((LARGE(D66:F66,1)+LARGE(D66:F66,2))*0.05+(LARGE(G66:I66,1)+LARGE(G66:I66,2))*0.3+(LARGE(J66:L66,1)+LARGE(J66:L66,2))*0.15))</f>
         <v>0.50800000000000001</v>
       </c>
     </row>
@@ -4638,7 +4747,7 @@
         <v>0.66</v>
       </c>
       <c r="M67" s="8">
-        <f t="shared" ref="M67:M68" si="27">(((LARGE(D67:F67,1)+LARGE(D67:F67,2))*0.05+(LARGE(G67:I67,1)+LARGE(G67:I67,2))*0.3+(LARGE(J67:L67,1)+LARGE(J67:L67,2))*0.15))</f>
+        <f t="shared" si="1"/>
         <v>0.74649999999999994</v>
       </c>
     </row>
@@ -4680,7 +4789,7 @@
         <v>0.76</v>
       </c>
       <c r="M68" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="1"/>
         <v>0.7024999999999999</v>
       </c>
     </row>
@@ -4718,6 +4827,13 @@
       <c r="K69">
         <v>0.67</v>
       </c>
+      <c r="L69">
+        <v>0.81</v>
+      </c>
+      <c r="M69" s="8">
+        <f t="shared" si="1"/>
+        <v>0.69</v>
+      </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
@@ -4753,6 +4869,13 @@
       <c r="K70">
         <v>0.73</v>
       </c>
+      <c r="L70">
+        <v>0.68</v>
+      </c>
+      <c r="M70" s="8">
+        <f t="shared" si="1"/>
+        <v>0.70150000000000001</v>
+      </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
@@ -4792,7 +4915,7 @@
         <v>0.59</v>
       </c>
       <c r="M71" s="8">
-        <f t="shared" ref="M71" si="28">(((LARGE(D71:F71,1)+LARGE(D71:F71,2))*0.05+(LARGE(G71:I71,1)+LARGE(G71:I71,2))*0.3+(LARGE(J71:L71,1)+LARGE(J71:L71,2))*0.15))</f>
+        <f t="shared" si="1"/>
         <v>0.65949999999999998</v>
       </c>
     </row>
@@ -4834,7 +4957,7 @@
         <v>0.81</v>
       </c>
       <c r="M72" s="8">
-        <f t="shared" ref="M72:M73" si="29">(((LARGE(D72:F72,1)+LARGE(D72:F72,2))*0.05+(LARGE(G72:I72,1)+LARGE(G72:I72,2))*0.3+(LARGE(J72:L72,1)+LARGE(J72:L72,2))*0.15))</f>
+        <f t="shared" si="1"/>
         <v>0.69199999999999995</v>
       </c>
     </row>
@@ -4876,7 +4999,7 @@
         <v>0.62</v>
       </c>
       <c r="M73" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="1"/>
         <v>0.62200000000000011</v>
       </c>
     </row>
@@ -4914,6 +5037,13 @@
       <c r="K74">
         <v>0.56000000000000005</v>
       </c>
+      <c r="L74">
+        <v>0.54</v>
+      </c>
+      <c r="M74" s="8">
+        <f t="shared" si="1"/>
+        <v>0.71400000000000008</v>
+      </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
@@ -4953,7 +5083,7 @@
         <v>0.76</v>
       </c>
       <c r="M75" s="8">
-        <f t="shared" ref="M75" si="30">(((LARGE(D75:F75,1)+LARGE(D75:F75,2))*0.05+(LARGE(G75:I75,1)+LARGE(G75:I75,2))*0.3+(LARGE(J75:L75,1)+LARGE(J75:L75,2))*0.15))</f>
+        <f t="shared" si="1"/>
         <v>0.72450000000000003</v>
       </c>
     </row>
@@ -4995,7 +5125,7 @@
         <v>0.76</v>
       </c>
       <c r="M76" s="8">
-        <f t="shared" ref="M76:M77" si="31">(((LARGE(D76:F76,1)+LARGE(D76:F76,2))*0.05+(LARGE(G76:I76,1)+LARGE(G76:I76,2))*0.3+(LARGE(J76:L76,1)+LARGE(J76:L76,2))*0.15))</f>
+        <f t="shared" si="1"/>
         <v>0.77399999999999991</v>
       </c>
     </row>
@@ -5037,7 +5167,7 @@
         <v>0.7</v>
       </c>
       <c r="M77" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="1"/>
         <v>0.495</v>
       </c>
     </row>
@@ -5075,6 +5205,13 @@
       <c r="K78">
         <v>0</v>
       </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78" s="8">
+        <f t="shared" si="1"/>
+        <v>0.19650000000000001</v>
+      </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
@@ -5110,6 +5247,13 @@
       <c r="K79">
         <v>0.73</v>
       </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79" s="8">
+        <f t="shared" si="1"/>
+        <v>0.77200000000000002</v>
+      </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
@@ -5149,7 +5293,7 @@
         <v>0.69</v>
       </c>
       <c r="M80" s="8">
-        <f t="shared" ref="M80:M82" si="32">(((LARGE(D80:F80,1)+LARGE(D80:F80,2))*0.05+(LARGE(G80:I80,1)+LARGE(G80:I80,2))*0.3+(LARGE(J80:L80,1)+LARGE(J80:L80,2))*0.15))</f>
+        <f t="shared" si="1"/>
         <v>0.80399999999999994</v>
       </c>
     </row>
@@ -5191,7 +5335,7 @@
         <v>0.6</v>
       </c>
       <c r="M81" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>0.85050000000000003</v>
       </c>
     </row>
@@ -5233,7 +5377,7 @@
         <v>0.82</v>
       </c>
       <c r="M82" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>0.74500000000000011</v>
       </c>
     </row>
@@ -5275,7 +5419,7 @@
         <v>0.8</v>
       </c>
       <c r="M83" s="8">
-        <f t="shared" ref="M83" si="33">(((LARGE(D83:F83,1)+LARGE(D83:F83,2))*0.05+(LARGE(G83:I83,1)+LARGE(G83:I83,2))*0.3+(LARGE(J83:L83,1)+LARGE(J83:L83,2))*0.15))</f>
+        <f t="shared" si="1"/>
         <v>0.751</v>
       </c>
     </row>
@@ -5317,7 +5461,7 @@
         <v>0.62</v>
       </c>
       <c r="M84" s="8">
-        <f t="shared" ref="M84:M85" si="34">(((LARGE(D84:F84,1)+LARGE(D84:F84,2))*0.05+(LARGE(G84:I84,1)+LARGE(G84:I84,2))*0.3+(LARGE(J84:L84,1)+LARGE(J84:L84,2))*0.15))</f>
+        <f t="shared" si="1"/>
         <v>0.45950000000000002</v>
       </c>
     </row>
@@ -5359,7 +5503,7 @@
         <v>0.59</v>
       </c>
       <c r="M85" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="1"/>
         <v>0.78499999999999992</v>
       </c>
     </row>
@@ -5401,7 +5545,7 @@
         <v>0.82</v>
       </c>
       <c r="M86" s="8">
-        <f t="shared" ref="M86:M87" si="35">(((LARGE(D86:F86,1)+LARGE(D86:F86,2))*0.05+(LARGE(G86:I86,1)+LARGE(G86:I86,2))*0.3+(LARGE(J86:L86,1)+LARGE(J86:L86,2))*0.15))</f>
+        <f t="shared" si="1"/>
         <v>0.71349999999999991</v>
       </c>
     </row>
@@ -5443,7 +5587,7 @@
         <v>0.77</v>
       </c>
       <c r="M87" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="1"/>
         <v>0.78449999999999998</v>
       </c>
     </row>
@@ -5485,7 +5629,7 @@
         <v>0.69</v>
       </c>
       <c r="M88" s="8">
-        <f t="shared" ref="M88" si="36">(((LARGE(D88:F88,1)+LARGE(D88:F88,2))*0.05+(LARGE(G88:I88,1)+LARGE(G88:I88,2))*0.3+(LARGE(J88:L88,1)+LARGE(J88:L88,2))*0.15))</f>
+        <f t="shared" si="1"/>
         <v>0.58799999999999997</v>
       </c>
     </row>
@@ -5523,6 +5667,13 @@
       <c r="K89">
         <v>0.5</v>
       </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89" s="8">
+        <f t="shared" si="1"/>
+        <v>0.64649999999999996</v>
+      </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
@@ -5558,6 +5709,13 @@
       <c r="K90">
         <v>0.69</v>
       </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90" s="8">
+        <f t="shared" si="1"/>
+        <v>0.53</v>
+      </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
@@ -5597,7 +5755,7 @@
         <v>0.69</v>
       </c>
       <c r="M91" s="8">
-        <f t="shared" ref="M91" si="37">(((LARGE(D91:F91,1)+LARGE(D91:F91,2))*0.05+(LARGE(G91:I91,1)+LARGE(G91:I91,2))*0.3+(LARGE(J91:L91,1)+LARGE(J91:L91,2))*0.15))</f>
+        <f t="shared" si="1"/>
         <v>0.6845</v>
       </c>
     </row>
@@ -5639,7 +5797,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="M92" s="8">
-        <f t="shared" ref="M92:M94" si="38">(((LARGE(D92:F92,1)+LARGE(D92:F92,2))*0.05+(LARGE(G92:I92,1)+LARGE(G92:I92,2))*0.3+(LARGE(J92:L92,1)+LARGE(J92:L92,2))*0.15))</f>
+        <f t="shared" si="1"/>
         <v>0.628</v>
       </c>
     </row>
@@ -5681,7 +5839,7 @@
         <v>0.81</v>
       </c>
       <c r="M93" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="1"/>
         <v>0.66549999999999998</v>
       </c>
     </row>
@@ -5723,7 +5881,7 @@
         <v>0.82</v>
       </c>
       <c r="M94" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="1"/>
         <v>0.74899999999999989</v>
       </c>
     </row>
@@ -5765,7 +5923,7 @@
         <v>0.73</v>
       </c>
       <c r="M95" s="8">
-        <f t="shared" ref="M95:M97" si="39">(((LARGE(D95:F95,1)+LARGE(D95:F95,2))*0.05+(LARGE(G95:I95,1)+LARGE(G95:I95,2))*0.3+(LARGE(J95:L95,1)+LARGE(J95:L95,2))*0.15))</f>
+        <f t="shared" si="1"/>
         <v>0.76200000000000001</v>
       </c>
     </row>
@@ -5807,7 +5965,7 @@
         <v>0.66</v>
       </c>
       <c r="M96" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="1"/>
         <v>0.61699999999999999</v>
       </c>
     </row>
@@ -5849,7 +6007,7 @@
         <v>0.82</v>
       </c>
       <c r="M97" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="1"/>
         <v>0.67349999999999999</v>
       </c>
     </row>
@@ -5891,7 +6049,7 @@
         <v>0.8</v>
       </c>
       <c r="M98" s="8">
-        <f t="shared" ref="M98" si="40">(((LARGE(D98:F98,1)+LARGE(D98:F98,2))*0.05+(LARGE(G98:I98,1)+LARGE(G98:I98,2))*0.3+(LARGE(J98:L98,1)+LARGE(J98:L98,2))*0.15))</f>
+        <f t="shared" si="1"/>
         <v>0.79549999999999987</v>
       </c>
     </row>
@@ -5933,7 +6091,7 @@
         <v>0.82</v>
       </c>
       <c r="M99" s="8">
-        <f t="shared" ref="M99:M101" si="41">(((LARGE(D99:F99,1)+LARGE(D99:F99,2))*0.05+(LARGE(G99:I99,1)+LARGE(G99:I99,2))*0.3+(LARGE(J99:L99,1)+LARGE(J99:L99,2))*0.15))</f>
+        <f t="shared" si="1"/>
         <v>0.7599999999999999</v>
       </c>
     </row>
@@ -5975,7 +6133,7 @@
         <v>0.69</v>
       </c>
       <c r="M100" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="1"/>
         <v>0.69249999999999989</v>
       </c>
     </row>
@@ -6017,7 +6175,7 @@
         <v>0.74</v>
       </c>
       <c r="M101" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="1"/>
         <v>0.75249999999999995</v>
       </c>
     </row>
@@ -6059,7 +6217,7 @@
         <v>0.6</v>
       </c>
       <c r="M102" s="8">
-        <f t="shared" ref="M102" si="42">(((LARGE(D102:F102,1)+LARGE(D102:F102,2))*0.05+(LARGE(G102:I102,1)+LARGE(G102:I102,2))*0.3+(LARGE(J102:L102,1)+LARGE(J102:L102,2))*0.15))</f>
+        <f t="shared" si="1"/>
         <v>0.71550000000000002</v>
       </c>
     </row>
@@ -6097,6 +6255,13 @@
       <c r="K103">
         <v>0.69</v>
       </c>
+      <c r="L103">
+        <v>0.81</v>
+      </c>
+      <c r="M103" s="8">
+        <f t="shared" si="1"/>
+        <v>0.72700000000000009</v>
+      </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
@@ -6136,7 +6301,7 @@
         <v>0.71</v>
       </c>
       <c r="M104" s="8">
-        <f t="shared" ref="M104:M106" si="43">(((LARGE(D104:F104,1)+LARGE(D104:F104,2))*0.05+(LARGE(G104:I104,1)+LARGE(G104:I104,2))*0.3+(LARGE(J104:L104,1)+LARGE(J104:L104,2))*0.15))</f>
+        <f t="shared" si="1"/>
         <v>0.65300000000000002</v>
       </c>
     </row>
@@ -6178,7 +6343,7 @@
         <v>0.85</v>
       </c>
       <c r="M105" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="1"/>
         <v>0.77850000000000008</v>
       </c>
     </row>
@@ -6220,7 +6385,7 @@
         <v>0.85</v>
       </c>
       <c r="M106" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="1"/>
         <v>0.72599999999999998</v>
       </c>
     </row>
@@ -6258,6 +6423,13 @@
       <c r="K107">
         <v>0.56000000000000005</v>
       </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107" s="8">
+        <f t="shared" si="1"/>
+        <v>0.71650000000000003</v>
+      </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
@@ -6297,7 +6469,7 @@
         <v>0.46</v>
       </c>
       <c r="M108" s="8">
-        <f t="shared" ref="M108:M109" si="44">(((LARGE(D108:F108,1)+LARGE(D108:F108,2))*0.05+(LARGE(G108:I108,1)+LARGE(G108:I108,2))*0.3+(LARGE(J108:L108,1)+LARGE(J108:L108,2))*0.15))</f>
+        <f t="shared" si="1"/>
         <v>0.64200000000000002</v>
       </c>
     </row>
@@ -6339,7 +6511,7 @@
         <v>0.85</v>
       </c>
       <c r="M109" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="1"/>
         <v>0.69499999999999995</v>
       </c>
     </row>
@@ -6381,7 +6553,7 @@
         <v>0.65</v>
       </c>
       <c r="M110" s="8">
-        <f t="shared" ref="M110" si="45">(((LARGE(D110:F110,1)+LARGE(D110:F110,2))*0.05+(LARGE(G110:I110,1)+LARGE(G110:I110,2))*0.3+(LARGE(J110:L110,1)+LARGE(J110:L110,2))*0.15))</f>
+        <f t="shared" si="1"/>
         <v>0.70599999999999996</v>
       </c>
     </row>
@@ -6411,8 +6583,18 @@
       <c r="I111">
         <v>0.82</v>
       </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
       <c r="K111">
         <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111" s="8">
+        <f t="shared" si="1"/>
+        <v>0.34199999999999997</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -6453,7 +6635,7 @@
         <v>0.85</v>
       </c>
       <c r="M112" s="8">
-        <f t="shared" ref="M112:M114" si="46">(((LARGE(D112:F112,1)+LARGE(D112:F112,2))*0.05+(LARGE(G112:I112,1)+LARGE(G112:I112,2))*0.3+(LARGE(J112:L112,1)+LARGE(J112:L112,2))*0.15))</f>
+        <f t="shared" si="1"/>
         <v>0.79249999999999998</v>
       </c>
     </row>
@@ -6495,7 +6677,7 @@
         <v>0.47</v>
       </c>
       <c r="M113" s="8">
-        <f t="shared" si="46"/>
+        <f t="shared" si="1"/>
         <v>0.68149999999999999</v>
       </c>
     </row>
@@ -6537,7 +6719,7 @@
         <v>0.68</v>
       </c>
       <c r="M114" s="8">
-        <f t="shared" si="46"/>
+        <f t="shared" si="1"/>
         <v>0.59650000000000003</v>
       </c>
     </row>
@@ -6579,7 +6761,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="M115" s="8">
-        <f t="shared" ref="M115:M116" si="47">(((LARGE(D115:F115,1)+LARGE(D115:F115,2))*0.05+(LARGE(G115:I115,1)+LARGE(G115:I115,2))*0.3+(LARGE(J115:L115,1)+LARGE(J115:L115,2))*0.15))</f>
+        <f t="shared" si="1"/>
         <v>0.67749999999999999</v>
       </c>
     </row>
@@ -6621,7 +6803,7 @@
         <v>0.77</v>
       </c>
       <c r="M116" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="1"/>
         <v>0.63800000000000001</v>
       </c>
     </row>
@@ -6663,7 +6845,7 @@
         <v>0.64</v>
       </c>
       <c r="M117" s="8">
-        <f t="shared" ref="M117:M118" si="48">(((LARGE(D117:F117,1)+LARGE(D117:F117,2))*0.05+(LARGE(G117:I117,1)+LARGE(G117:I117,2))*0.3+(LARGE(J117:L117,1)+LARGE(J117:L117,2))*0.15))</f>
+        <f t="shared" si="1"/>
         <v>0.61150000000000004</v>
       </c>
     </row>
@@ -6705,7 +6887,7 @@
         <v>0.54</v>
       </c>
       <c r="M118" s="8">
-        <f t="shared" si="48"/>
+        <f t="shared" si="1"/>
         <v>0.63</v>
       </c>
     </row>
@@ -6747,7 +6929,7 @@
         <v>0.78</v>
       </c>
       <c r="M119" s="8">
-        <f t="shared" ref="M119:M121" si="49">(((LARGE(D119:F119,1)+LARGE(D119:F119,2))*0.05+(LARGE(G119:I119,1)+LARGE(G119:I119,2))*0.3+(LARGE(J119:L119,1)+LARGE(J119:L119,2))*0.15))</f>
+        <f t="shared" si="1"/>
         <v>0.61550000000000005</v>
       </c>
     </row>
@@ -6789,7 +6971,7 @@
         <v>0.78</v>
       </c>
       <c r="M120" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="1"/>
         <v>0.64949999999999997</v>
       </c>
     </row>
@@ -6831,7 +7013,7 @@
         <v>0.53</v>
       </c>
       <c r="M121" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="1"/>
         <v>0.69650000000000001</v>
       </c>
     </row>
@@ -6873,7 +7055,7 @@
         <v>0.39</v>
       </c>
       <c r="M122" s="8">
-        <f t="shared" ref="M122:M124" si="50">(((LARGE(D122:F122,1)+LARGE(D122:F122,2))*0.05+(LARGE(G122:I122,1)+LARGE(G122:I122,2))*0.3+(LARGE(J122:L122,1)+LARGE(J122:L122,2))*0.15))</f>
+        <f t="shared" si="1"/>
         <v>0.64300000000000002</v>
       </c>
     </row>
@@ -6915,7 +7097,7 @@
         <v>0.76</v>
       </c>
       <c r="M123" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="1"/>
         <v>0.72799999999999998</v>
       </c>
     </row>
@@ -6957,7 +7139,7 @@
         <v>0.76</v>
       </c>
       <c r="M124" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="1"/>
         <v>0.68099999999999994</v>
       </c>
     </row>
@@ -6999,7 +7181,7 @@
         <v>0.72</v>
       </c>
       <c r="M125" s="8">
-        <f t="shared" ref="M125" si="51">(((LARGE(D125:F125,1)+LARGE(D125:F125,2))*0.05+(LARGE(G125:I125,1)+LARGE(G125:I125,2))*0.3+(LARGE(J125:L125,1)+LARGE(J125:L125,2))*0.15))</f>
+        <f t="shared" si="1"/>
         <v>0.8274999999999999</v>
       </c>
     </row>
@@ -7037,6 +7219,13 @@
       <c r="K126">
         <v>0.52</v>
       </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126" s="8">
+        <f t="shared" si="1"/>
+        <v>0.64549999999999996</v>
+      </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
@@ -7072,6 +7261,13 @@
       <c r="K127">
         <v>0.77</v>
       </c>
+      <c r="L127">
+        <v>0.91</v>
+      </c>
+      <c r="M127" s="8">
+        <f t="shared" si="1"/>
+        <v>0.85599999999999998</v>
+      </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
@@ -7111,7 +7307,7 @@
         <v>0.5</v>
       </c>
       <c r="M128" s="8">
-        <f t="shared" ref="M128" si="52">(((LARGE(D128:F128,1)+LARGE(D128:F128,2))*0.05+(LARGE(G128:I128,1)+LARGE(G128:I128,2))*0.3+(LARGE(J128:L128,1)+LARGE(J128:L128,2))*0.15))</f>
+        <f t="shared" si="1"/>
         <v>0.76649999999999996</v>
       </c>
     </row>
@@ -7149,6 +7345,13 @@
       <c r="K129">
         <v>0.77</v>
       </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129" s="8">
+        <f t="shared" si="1"/>
+        <v>0.74399999999999999</v>
+      </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
@@ -7184,6 +7387,13 @@
       <c r="K130">
         <v>0</v>
       </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130" s="8">
+        <f t="shared" ref="M130:M193" si="2">(((LARGE(D130:F130,1)+LARGE(D130:F130,2))*0.05+(LARGE(G130:I130,1)+LARGE(G130:I130,2))*0.3+(LARGE(J130:L130,1)+LARGE(J130:L130,2))*0.15))</f>
+        <v>0.217</v>
+      </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
@@ -7219,6 +7429,13 @@
       <c r="K131">
         <v>0.56000000000000005</v>
       </c>
+      <c r="L131">
+        <v>0.68</v>
+      </c>
+      <c r="M131" s="8">
+        <f t="shared" si="2"/>
+        <v>0.70900000000000007</v>
+      </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
@@ -7258,7 +7475,7 @@
         <v>0.66</v>
       </c>
       <c r="M132" s="8">
-        <f t="shared" ref="M132" si="53">(((LARGE(D132:F132,1)+LARGE(D132:F132,2))*0.05+(LARGE(G132:I132,1)+LARGE(G132:I132,2))*0.3+(LARGE(J132:L132,1)+LARGE(J132:L132,2))*0.15))</f>
+        <f t="shared" si="2"/>
         <v>0.63300000000000001</v>
       </c>
     </row>
@@ -7300,7 +7517,7 @@
         <v>0.64</v>
       </c>
       <c r="M133" s="8">
-        <f t="shared" ref="M133:M135" si="54">(((LARGE(D133:F133,1)+LARGE(D133:F133,2))*0.05+(LARGE(G133:I133,1)+LARGE(G133:I133,2))*0.3+(LARGE(J133:L133,1)+LARGE(J133:L133,2))*0.15))</f>
+        <f t="shared" si="2"/>
         <v>0.74199999999999999</v>
       </c>
     </row>
@@ -7342,7 +7559,7 @@
         <v>0.71</v>
       </c>
       <c r="M134" s="8">
-        <f t="shared" si="54"/>
+        <f t="shared" si="2"/>
         <v>0.79449999999999998</v>
       </c>
     </row>
@@ -7384,7 +7601,7 @@
         <v>0.22</v>
       </c>
       <c r="M135" s="8">
-        <f t="shared" si="54"/>
+        <f t="shared" si="2"/>
         <v>0.80449999999999999</v>
       </c>
     </row>
@@ -7426,7 +7643,7 @@
         <v>0.72</v>
       </c>
       <c r="M136" s="8">
-        <f t="shared" ref="M136" si="55">(((LARGE(D136:F136,1)+LARGE(D136:F136,2))*0.05+(LARGE(G136:I136,1)+LARGE(G136:I136,2))*0.3+(LARGE(J136:L136,1)+LARGE(J136:L136,2))*0.15))</f>
+        <f t="shared" si="2"/>
         <v>0.79149999999999987</v>
       </c>
     </row>
@@ -7464,6 +7681,13 @@
       <c r="K137">
         <v>0.63</v>
       </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137" s="8">
+        <f t="shared" si="2"/>
+        <v>0.76249999999999996</v>
+      </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
@@ -7503,7 +7727,7 @@
         <v>0.86</v>
       </c>
       <c r="M138" s="8">
-        <f t="shared" ref="M138" si="56">(((LARGE(D138:F138,1)+LARGE(D138:F138,2))*0.05+(LARGE(G138:I138,1)+LARGE(G138:I138,2))*0.3+(LARGE(J138:L138,1)+LARGE(J138:L138,2))*0.15))</f>
+        <f t="shared" si="2"/>
         <v>0.71099999999999997</v>
       </c>
     </row>
@@ -7545,7 +7769,7 @@
         <v>0.47</v>
       </c>
       <c r="M139" s="8">
-        <f t="shared" ref="M139" si="57">(((LARGE(D139:F139,1)+LARGE(D139:F139,2))*0.05+(LARGE(G139:I139,1)+LARGE(G139:I139,2))*0.3+(LARGE(J139:L139,1)+LARGE(J139:L139,2))*0.15))</f>
+        <f t="shared" si="2"/>
         <v>0.71450000000000002</v>
       </c>
     </row>
@@ -7587,7 +7811,7 @@
         <v>0.66</v>
       </c>
       <c r="M140" s="8">
-        <f t="shared" ref="M140:M141" si="58">(((LARGE(D140:F140,1)+LARGE(D140:F140,2))*0.05+(LARGE(G140:I140,1)+LARGE(G140:I140,2))*0.3+(LARGE(J140:L140,1)+LARGE(J140:L140,2))*0.15))</f>
+        <f t="shared" si="2"/>
         <v>0.67999999999999994</v>
       </c>
     </row>
@@ -7629,7 +7853,7 @@
         <v>0.22</v>
       </c>
       <c r="M141" s="8">
-        <f t="shared" si="58"/>
+        <f t="shared" si="2"/>
         <v>0.83800000000000008</v>
       </c>
     </row>
@@ -7667,6 +7891,13 @@
       <c r="K142">
         <v>0.48</v>
       </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142" s="8">
+        <f t="shared" si="2"/>
+        <v>0.73249999999999993</v>
+      </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
@@ -7706,7 +7937,7 @@
         <v>0.73</v>
       </c>
       <c r="M143" s="8">
-        <f t="shared" ref="M143" si="59">(((LARGE(D143:F143,1)+LARGE(D143:F143,2))*0.05+(LARGE(G143:I143,1)+LARGE(G143:I143,2))*0.3+(LARGE(J143:L143,1)+LARGE(J143:L143,2))*0.15))</f>
+        <f t="shared" si="2"/>
         <v>0.6925</v>
       </c>
     </row>
@@ -7744,6 +7975,13 @@
       <c r="K144">
         <v>0.35</v>
       </c>
+      <c r="L144">
+        <v>0.47</v>
+      </c>
+      <c r="M144" s="8">
+        <f t="shared" si="2"/>
+        <v>0.55200000000000005</v>
+      </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
@@ -7783,7 +8021,7 @@
         <v>0.68</v>
       </c>
       <c r="M145" s="8">
-        <f t="shared" ref="M145:M146" si="60">(((LARGE(D145:F145,1)+LARGE(D145:F145,2))*0.05+(LARGE(G145:I145,1)+LARGE(G145:I145,2))*0.3+(LARGE(J145:L145,1)+LARGE(J145:L145,2))*0.15))</f>
+        <f t="shared" si="2"/>
         <v>0.76200000000000001</v>
       </c>
     </row>
@@ -7825,7 +8063,7 @@
         <v>0.72</v>
       </c>
       <c r="M146" s="8">
-        <f t="shared" si="60"/>
+        <f t="shared" si="2"/>
         <v>0.77549999999999997</v>
       </c>
     </row>
@@ -7863,6 +8101,13 @@
       <c r="K147">
         <v>0.63</v>
       </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147" s="8">
+        <f t="shared" si="2"/>
+        <v>0.70699999999999996</v>
+      </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
@@ -7898,6 +8143,13 @@
       <c r="K148">
         <v>0.85</v>
       </c>
+      <c r="L148">
+        <v>0.91</v>
+      </c>
+      <c r="M148" s="8">
+        <f t="shared" si="2"/>
+        <v>0.875</v>
+      </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
@@ -7937,7 +8189,7 @@
         <v>0.65</v>
       </c>
       <c r="M149" s="8">
-        <f t="shared" ref="M149:M150" si="61">(((LARGE(D149:F149,1)+LARGE(D149:F149,2))*0.05+(LARGE(G149:I149,1)+LARGE(G149:I149,2))*0.3+(LARGE(J149:L149,1)+LARGE(J149:L149,2))*0.15))</f>
+        <f t="shared" si="2"/>
         <v>0.58299999999999996</v>
       </c>
     </row>
@@ -7979,7 +8231,7 @@
         <v>0.77</v>
       </c>
       <c r="M150" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="2"/>
         <v>0.62</v>
       </c>
     </row>
@@ -8017,6 +8269,13 @@
       <c r="K151">
         <v>0.46</v>
       </c>
+      <c r="L151">
+        <v>0.68</v>
+      </c>
+      <c r="M151" s="8">
+        <f t="shared" si="2"/>
+        <v>0.60550000000000004</v>
+      </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
@@ -8056,7 +8315,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="M152" s="8">
-        <f t="shared" ref="M152" si="62">(((LARGE(D152:F152,1)+LARGE(D152:F152,2))*0.05+(LARGE(G152:I152,1)+LARGE(G152:I152,2))*0.3+(LARGE(J152:L152,1)+LARGE(J152:L152,2))*0.15))</f>
+        <f t="shared" si="2"/>
         <v>0.624</v>
       </c>
     </row>
@@ -8094,6 +8353,13 @@
       <c r="K153">
         <v>0.52</v>
       </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153" s="8">
+        <f t="shared" si="2"/>
+        <v>0.74150000000000005</v>
+      </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
@@ -8133,7 +8399,7 @@
         <v>0.39</v>
       </c>
       <c r="M154" s="8">
-        <f t="shared" ref="M154" si="63">(((LARGE(D154:F154,1)+LARGE(D154:F154,2))*0.05+(LARGE(G154:I154,1)+LARGE(G154:I154,2))*0.3+(LARGE(J154:L154,1)+LARGE(J154:L154,2))*0.15))</f>
+        <f t="shared" si="2"/>
         <v>0.71950000000000003</v>
       </c>
     </row>
@@ -8171,6 +8437,13 @@
       <c r="K155">
         <v>0.77</v>
       </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155" s="8">
+        <f t="shared" si="2"/>
+        <v>0.69450000000000001</v>
+      </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
@@ -8206,6 +8479,13 @@
       <c r="K156">
         <v>0.46</v>
       </c>
+      <c r="L156">
+        <v>0.84</v>
+      </c>
+      <c r="M156" s="8">
+        <f t="shared" si="2"/>
+        <v>0.79799999999999982</v>
+      </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
@@ -8245,7 +8525,7 @@
         <v>0.54</v>
       </c>
       <c r="M157" s="8">
-        <f t="shared" ref="M157" si="64">(((LARGE(D157:F157,1)+LARGE(D157:F157,2))*0.05+(LARGE(G157:I157,1)+LARGE(G157:I157,2))*0.3+(LARGE(J157:L157,1)+LARGE(J157:L157,2))*0.15))</f>
+        <f t="shared" si="2"/>
         <v>0.80199999999999994</v>
       </c>
     </row>
@@ -8283,6 +8563,13 @@
       <c r="K158">
         <v>0.46</v>
       </c>
+      <c r="L158">
+        <v>0.84</v>
+      </c>
+      <c r="M158" s="8">
+        <f t="shared" si="2"/>
+        <v>0.74199999999999988</v>
+      </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
@@ -8322,7 +8609,7 @@
         <v>0.86</v>
       </c>
       <c r="M159" s="8">
-        <f t="shared" ref="M159" si="65">(((LARGE(D159:F159,1)+LARGE(D159:F159,2))*0.05+(LARGE(G159:I159,1)+LARGE(G159:I159,2))*0.3+(LARGE(J159:L159,1)+LARGE(J159:L159,2))*0.15))</f>
+        <f t="shared" si="2"/>
         <v>0.73349999999999993</v>
       </c>
     </row>
@@ -8364,7 +8651,7 @@
         <v>0.72</v>
       </c>
       <c r="M160" s="8">
-        <f t="shared" ref="M160:M161" si="66">(((LARGE(D160:F160,1)+LARGE(D160:F160,2))*0.05+(LARGE(G160:I160,1)+LARGE(G160:I160,2))*0.3+(LARGE(J160:L160,1)+LARGE(J160:L160,2))*0.15))</f>
+        <f t="shared" si="2"/>
         <v>0.66749999999999998</v>
       </c>
     </row>
@@ -8406,7 +8693,7 @@
         <v>0.69</v>
       </c>
       <c r="M161" s="8">
-        <f t="shared" si="66"/>
+        <f t="shared" si="2"/>
         <v>0.75600000000000001</v>
       </c>
     </row>
@@ -8448,7 +8735,7 @@
         <v>0.6</v>
       </c>
       <c r="M162" s="8">
-        <f t="shared" ref="M162:M163" si="67">(((LARGE(D162:F162,1)+LARGE(D162:F162,2))*0.05+(LARGE(G162:I162,1)+LARGE(G162:I162,2))*0.3+(LARGE(J162:L162,1)+LARGE(J162:L162,2))*0.15))</f>
+        <f t="shared" si="2"/>
         <v>0.68700000000000006</v>
       </c>
     </row>
@@ -8490,7 +8777,7 @@
         <v>0.59</v>
       </c>
       <c r="M163" s="8">
-        <f t="shared" si="67"/>
+        <f t="shared" si="2"/>
         <v>0.77799999999999991</v>
       </c>
     </row>
@@ -8532,7 +8819,7 @@
         <v>0.7</v>
       </c>
       <c r="M164" s="8">
-        <f t="shared" ref="M164:M165" si="68">(((LARGE(D164:F164,1)+LARGE(D164:F164,2))*0.05+(LARGE(G164:I164,1)+LARGE(G164:I164,2))*0.3+(LARGE(J164:L164,1)+LARGE(J164:L164,2))*0.15))</f>
+        <f t="shared" si="2"/>
         <v>0.67099999999999993</v>
       </c>
     </row>
@@ -8574,7 +8861,7 @@
         <v>0.59</v>
       </c>
       <c r="M165" s="8">
-        <f t="shared" si="68"/>
+        <f t="shared" si="2"/>
         <v>0.72749999999999992</v>
       </c>
     </row>
@@ -8616,7 +8903,7 @@
         <v>0.65</v>
       </c>
       <c r="M166" s="8">
-        <f t="shared" ref="M166:M167" si="69">(((LARGE(D166:F166,1)+LARGE(D166:F166,2))*0.05+(LARGE(G166:I166,1)+LARGE(G166:I166,2))*0.3+(LARGE(J166:L166,1)+LARGE(J166:L166,2))*0.15))</f>
+        <f t="shared" si="2"/>
         <v>0.72399999999999998</v>
       </c>
     </row>
@@ -8658,7 +8945,7 @@
         <v>0.93</v>
       </c>
       <c r="M167" s="8">
-        <f t="shared" si="69"/>
+        <f t="shared" si="2"/>
         <v>0.86950000000000005</v>
       </c>
     </row>
@@ -8700,7 +8987,7 @@
         <v>0.7</v>
       </c>
       <c r="M168" s="8">
-        <f t="shared" ref="M168:M170" si="70">(((LARGE(D168:F168,1)+LARGE(D168:F168,2))*0.05+(LARGE(G168:I168,1)+LARGE(G168:I168,2))*0.3+(LARGE(J168:L168,1)+LARGE(J168:L168,2))*0.15))</f>
+        <f t="shared" si="2"/>
         <v>0.7679999999999999</v>
       </c>
     </row>
@@ -8742,7 +9029,7 @@
         <v>0.51</v>
       </c>
       <c r="M169" s="8">
-        <f t="shared" si="70"/>
+        <f t="shared" si="2"/>
         <v>0.6855</v>
       </c>
     </row>
@@ -8784,7 +9071,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="M170" s="8">
-        <f t="shared" si="70"/>
+        <f t="shared" si="2"/>
         <v>0.66149999999999998</v>
       </c>
     </row>
@@ -8826,7 +9113,7 @@
         <v>0.69</v>
       </c>
       <c r="M171" s="8">
-        <f t="shared" ref="M171" si="71">(((LARGE(D171:F171,1)+LARGE(D171:F171,2))*0.05+(LARGE(G171:I171,1)+LARGE(G171:I171,2))*0.3+(LARGE(J171:L171,1)+LARGE(J171:L171,2))*0.15))</f>
+        <f t="shared" si="2"/>
         <v>0.6855</v>
       </c>
     </row>
@@ -8868,7 +9155,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="M172" s="8">
-        <f t="shared" ref="M172" si="72">(((LARGE(D172:F172,1)+LARGE(D172:F172,2))*0.05+(LARGE(G172:I172,1)+LARGE(G172:I172,2))*0.3+(LARGE(J172:L172,1)+LARGE(J172:L172,2))*0.15))</f>
+        <f t="shared" si="2"/>
         <v>0.61799999999999999</v>
       </c>
     </row>
@@ -8910,7 +9197,7 @@
         <v>0.61</v>
       </c>
       <c r="M173" s="8">
-        <f t="shared" ref="M173" si="73">(((LARGE(D173:F173,1)+LARGE(D173:F173,2))*0.05+(LARGE(G173:I173,1)+LARGE(G173:I173,2))*0.3+(LARGE(J173:L173,1)+LARGE(J173:L173,2))*0.15))</f>
+        <f t="shared" si="2"/>
         <v>0.71</v>
       </c>
     </row>
@@ -8948,6 +9235,13 @@
       <c r="K174">
         <v>0.69</v>
       </c>
+      <c r="L174">
+        <v>0</v>
+      </c>
+      <c r="M174" s="8">
+        <f t="shared" si="2"/>
+        <v>0.47150000000000003</v>
+      </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
@@ -8987,7 +9281,7 @@
         <v>0.49</v>
       </c>
       <c r="M175" s="8">
-        <f t="shared" ref="M175:M176" si="74">(((LARGE(D175:F175,1)+LARGE(D175:F175,2))*0.05+(LARGE(G175:I175,1)+LARGE(G175:I175,2))*0.3+(LARGE(J175:L175,1)+LARGE(J175:L175,2))*0.15))</f>
+        <f t="shared" si="2"/>
         <v>0.70800000000000007</v>
       </c>
     </row>
@@ -9029,7 +9323,7 @@
         <v>0.62</v>
       </c>
       <c r="M176" s="8">
-        <f t="shared" si="74"/>
+        <f t="shared" si="2"/>
         <v>0.71199999999999997</v>
       </c>
     </row>
@@ -9067,6 +9361,13 @@
       <c r="K177">
         <v>0.9</v>
       </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+      <c r="M177" s="8">
+        <f t="shared" si="2"/>
+        <v>0.73199999999999998</v>
+      </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
@@ -9102,6 +9403,13 @@
       <c r="K178">
         <v>0.37</v>
       </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
+      <c r="M178" s="8">
+        <f t="shared" si="2"/>
+        <v>0.70199999999999996</v>
+      </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
@@ -9141,7 +9449,7 @@
         <v>0.49</v>
       </c>
       <c r="M179" s="8">
-        <f t="shared" ref="M179" si="75">(((LARGE(D179:F179,1)+LARGE(D179:F179,2))*0.05+(LARGE(G179:I179,1)+LARGE(G179:I179,2))*0.3+(LARGE(J179:L179,1)+LARGE(J179:L179,2))*0.15))</f>
+        <f t="shared" si="2"/>
         <v>0.74849999999999994</v>
       </c>
     </row>
@@ -9183,7 +9491,7 @@
         <v>0.63</v>
       </c>
       <c r="M180" s="8">
-        <f t="shared" ref="M180:M181" si="76">(((LARGE(D180:F180,1)+LARGE(D180:F180,2))*0.05+(LARGE(G180:I180,1)+LARGE(G180:I180,2))*0.3+(LARGE(J180:L180,1)+LARGE(J180:L180,2))*0.15))</f>
+        <f t="shared" si="2"/>
         <v>0.68400000000000005</v>
       </c>
     </row>
@@ -9225,7 +9533,7 @@
         <v>0.36</v>
       </c>
       <c r="M181" s="8">
-        <f t="shared" si="76"/>
+        <f t="shared" si="2"/>
         <v>0.72850000000000004</v>
       </c>
     </row>
@@ -9263,6 +9571,13 @@
       <c r="K182">
         <v>0.67</v>
       </c>
+      <c r="L182">
+        <v>0</v>
+      </c>
+      <c r="M182" s="8">
+        <f t="shared" si="2"/>
+        <v>0.73450000000000004</v>
+      </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
@@ -9302,7 +9617,7 @@
         <v>0.51</v>
       </c>
       <c r="M183" s="8">
-        <f t="shared" ref="M183:M186" si="77">(((LARGE(D183:F183,1)+LARGE(D183:F183,2))*0.05+(LARGE(G183:I183,1)+LARGE(G183:I183,2))*0.3+(LARGE(J183:L183,1)+LARGE(J183:L183,2))*0.15))</f>
+        <f t="shared" si="2"/>
         <v>0.65900000000000003</v>
       </c>
     </row>
@@ -9344,7 +9659,7 @@
         <v>0.49</v>
       </c>
       <c r="M184" s="8">
-        <f t="shared" si="77"/>
+        <f t="shared" si="2"/>
         <v>0.74950000000000006</v>
       </c>
     </row>
@@ -9386,7 +9701,7 @@
         <v>0.64</v>
       </c>
       <c r="M185" s="8">
-        <f t="shared" si="77"/>
+        <f t="shared" si="2"/>
         <v>0.72399999999999998</v>
       </c>
     </row>
@@ -9428,7 +9743,7 @@
         <v>0.59</v>
       </c>
       <c r="M186" s="8">
-        <f t="shared" si="77"/>
+        <f t="shared" si="2"/>
         <v>0.76600000000000001</v>
       </c>
     </row>
@@ -9470,7 +9785,7 @@
         <v>0.61</v>
       </c>
       <c r="M187" s="8">
-        <f t="shared" ref="M187:M188" si="78">(((LARGE(D187:F187,1)+LARGE(D187:F187,2))*0.05+(LARGE(G187:I187,1)+LARGE(G187:I187,2))*0.3+(LARGE(J187:L187,1)+LARGE(J187:L187,2))*0.15))</f>
+        <f t="shared" si="2"/>
         <v>0.66149999999999998</v>
       </c>
     </row>
@@ -9512,7 +9827,7 @@
         <v>0.49</v>
       </c>
       <c r="M188" s="8">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>0.63</v>
       </c>
     </row>
@@ -9554,7 +9869,7 @@
         <v>0.7</v>
       </c>
       <c r="M189" s="8">
-        <f t="shared" ref="M189" si="79">(((LARGE(D189:F189,1)+LARGE(D189:F189,2))*0.05+(LARGE(G189:I189,1)+LARGE(G189:I189,2))*0.3+(LARGE(J189:L189,1)+LARGE(J189:L189,2))*0.15))</f>
+        <f t="shared" si="2"/>
         <v>0.48250000000000004</v>
       </c>
     </row>
@@ -9592,6 +9907,13 @@
       <c r="K190">
         <v>0.9</v>
       </c>
+      <c r="L190">
+        <v>0</v>
+      </c>
+      <c r="M190" s="8">
+        <f t="shared" si="2"/>
+        <v>0.83099999999999996</v>
+      </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
@@ -9627,6 +9949,13 @@
       <c r="K191">
         <v>0.37</v>
       </c>
+      <c r="L191">
+        <v>0</v>
+      </c>
+      <c r="M191" s="8">
+        <f t="shared" si="2"/>
+        <v>0.73199999999999998</v>
+      </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
@@ -9666,7 +9995,7 @@
         <v>0.65</v>
       </c>
       <c r="M192" s="8">
-        <f t="shared" ref="M192:M193" si="80">(((LARGE(D192:F192,1)+LARGE(D192:F192,2))*0.05+(LARGE(G192:I192,1)+LARGE(G192:I192,2))*0.3+(LARGE(J192:L192,1)+LARGE(J192:L192,2))*0.15))</f>
+        <f t="shared" si="2"/>
         <v>0.64049999999999996</v>
       </c>
     </row>
@@ -9708,7 +10037,7 @@
         <v>0.69</v>
       </c>
       <c r="M193" s="8">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>0.77100000000000002</v>
       </c>
     </row>
@@ -9746,6 +10075,13 @@
       <c r="K194">
         <v>0.85</v>
       </c>
+      <c r="L194">
+        <v>0</v>
+      </c>
+      <c r="M194" s="8">
+        <f t="shared" ref="M194:M231" si="3">(((LARGE(D194:F194,1)+LARGE(D194:F194,2))*0.05+(LARGE(G194:I194,1)+LARGE(G194:I194,2))*0.3+(LARGE(J194:L194,1)+LARGE(J194:L194,2))*0.15))</f>
+        <v>0.65300000000000002</v>
+      </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
@@ -9785,7 +10121,7 @@
         <v>0.78</v>
       </c>
       <c r="M195" s="8">
-        <f t="shared" ref="M195:M196" si="81">(((LARGE(D195:F195,1)+LARGE(D195:F195,2))*0.05+(LARGE(G195:I195,1)+LARGE(G195:I195,2))*0.3+(LARGE(J195:L195,1)+LARGE(J195:L195,2))*0.15))</f>
+        <f t="shared" si="3"/>
         <v>0.78700000000000003</v>
       </c>
     </row>
@@ -9827,7 +10163,7 @@
         <v>0.69</v>
       </c>
       <c r="M196" s="8">
-        <f t="shared" si="81"/>
+        <f t="shared" si="3"/>
         <v>0.67349999999999999</v>
       </c>
     </row>
@@ -9869,7 +10205,7 @@
         <v>0.77</v>
       </c>
       <c r="M197" s="8">
-        <f t="shared" ref="M197:M199" si="82">(((LARGE(D197:F197,1)+LARGE(D197:F197,2))*0.05+(LARGE(G197:I197,1)+LARGE(G197:I197,2))*0.3+(LARGE(J197:L197,1)+LARGE(J197:L197,2))*0.15))</f>
+        <f t="shared" si="3"/>
         <v>0.73450000000000004</v>
       </c>
     </row>
@@ -9911,7 +10247,7 @@
         <v>0.7</v>
       </c>
       <c r="M198" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="3"/>
         <v>0.79299999999999993</v>
       </c>
     </row>
@@ -9953,7 +10289,7 @@
         <v>0.68</v>
       </c>
       <c r="M199" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="3"/>
         <v>0.77</v>
       </c>
     </row>
@@ -9995,7 +10331,7 @@
         <v>0.87</v>
       </c>
       <c r="M200" s="8">
-        <f t="shared" ref="M200:M201" si="83">(((LARGE(D200:F200,1)+LARGE(D200:F200,2))*0.05+(LARGE(G200:I200,1)+LARGE(G200:I200,2))*0.3+(LARGE(J200:L200,1)+LARGE(J200:L200,2))*0.15))</f>
+        <f t="shared" si="3"/>
         <v>0.69500000000000006</v>
       </c>
     </row>
@@ -10037,7 +10373,7 @@
         <v>0.7</v>
       </c>
       <c r="M201" s="8">
-        <f t="shared" si="83"/>
+        <f t="shared" si="3"/>
         <v>0.71550000000000002</v>
       </c>
     </row>
@@ -10079,7 +10415,7 @@
         <v>0.63</v>
       </c>
       <c r="M202" s="8">
-        <f t="shared" ref="M202:M203" si="84">(((LARGE(D202:F202,1)+LARGE(D202:F202,2))*0.05+(LARGE(G202:I202,1)+LARGE(G202:I202,2))*0.3+(LARGE(J202:L202,1)+LARGE(J202:L202,2))*0.15))</f>
+        <f t="shared" si="3"/>
         <v>0.59000000000000008</v>
       </c>
     </row>
@@ -10121,7 +10457,7 @@
         <v>0.65</v>
       </c>
       <c r="M203" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="3"/>
         <v>0.69199999999999995</v>
       </c>
     </row>
@@ -10163,7 +10499,7 @@
         <v>0.7</v>
       </c>
       <c r="M204" s="8">
-        <f t="shared" ref="M204" si="85">(((LARGE(D204:F204,1)+LARGE(D204:F204,2))*0.05+(LARGE(G204:I204,1)+LARGE(G204:I204,2))*0.3+(LARGE(J204:L204,1)+LARGE(J204:L204,2))*0.15))</f>
+        <f t="shared" si="3"/>
         <v>0.75349999999999995</v>
       </c>
     </row>
@@ -10205,7 +10541,7 @@
         <v>0.6</v>
       </c>
       <c r="M205" s="8">
-        <f t="shared" ref="M205:M206" si="86">(((LARGE(D205:F205,1)+LARGE(D205:F205,2))*0.05+(LARGE(G205:I205,1)+LARGE(G205:I205,2))*0.3+(LARGE(J205:L205,1)+LARGE(J205:L205,2))*0.15))</f>
+        <f t="shared" si="3"/>
         <v>0.65349999999999997</v>
       </c>
     </row>
@@ -10247,7 +10583,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="M206" s="8">
-        <f t="shared" si="86"/>
+        <f t="shared" si="3"/>
         <v>0.53800000000000003</v>
       </c>
     </row>
@@ -10289,7 +10625,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="M207" s="8">
-        <f t="shared" ref="M207:M208" si="87">(((LARGE(D207:F207,1)+LARGE(D207:F207,2))*0.05+(LARGE(G207:I207,1)+LARGE(G207:I207,2))*0.3+(LARGE(J207:L207,1)+LARGE(J207:L207,2))*0.15))</f>
+        <f t="shared" si="3"/>
         <v>0.74550000000000005</v>
       </c>
     </row>
@@ -10331,7 +10667,7 @@
         <v>0.6</v>
       </c>
       <c r="M208" s="8">
-        <f t="shared" si="87"/>
+        <f t="shared" si="3"/>
         <v>0.69550000000000012</v>
       </c>
     </row>
@@ -10373,7 +10709,7 @@
         <v>0.68</v>
       </c>
       <c r="M209" s="8">
-        <f t="shared" ref="M209:M210" si="88">(((LARGE(D209:F209,1)+LARGE(D209:F209,2))*0.05+(LARGE(G209:I209,1)+LARGE(G209:I209,2))*0.3+(LARGE(J209:L209,1)+LARGE(J209:L209,2))*0.15))</f>
+        <f t="shared" si="3"/>
         <v>0.81850000000000001</v>
       </c>
     </row>
@@ -10415,7 +10751,7 @@
         <v>0.59</v>
       </c>
       <c r="M210" s="8">
-        <f t="shared" si="88"/>
+        <f t="shared" si="3"/>
         <v>0.75800000000000001</v>
       </c>
     </row>
@@ -10453,6 +10789,13 @@
       <c r="K211">
         <v>0.9</v>
       </c>
+      <c r="L211">
+        <v>0</v>
+      </c>
+      <c r="M211" s="8">
+        <f t="shared" si="3"/>
+        <v>0.84699999999999998</v>
+      </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
@@ -10492,7 +10835,7 @@
         <v>0.93</v>
       </c>
       <c r="M212" s="8">
-        <f t="shared" ref="M212" si="89">(((LARGE(D212:F212,1)+LARGE(D212:F212,2))*0.05+(LARGE(G212:I212,1)+LARGE(G212:I212,2))*0.3+(LARGE(J212:L212,1)+LARGE(J212:L212,2))*0.15))</f>
+        <f t="shared" si="3"/>
         <v>0.70949999999999991</v>
       </c>
     </row>
@@ -10534,7 +10877,7 @@
         <v>0.8</v>
       </c>
       <c r="M213" s="8">
-        <f t="shared" ref="M213" si="90">(((LARGE(D213:F213,1)+LARGE(D213:F213,2))*0.05+(LARGE(G213:I213,1)+LARGE(G213:I213,2))*0.3+(LARGE(J213:L213,1)+LARGE(J213:L213,2))*0.15))</f>
+        <f t="shared" si="3"/>
         <v>0.63849999999999996</v>
       </c>
     </row>
@@ -10576,7 +10919,7 @@
         <v>0.54</v>
       </c>
       <c r="M214" s="8">
-        <f t="shared" ref="M214" si="91">(((LARGE(D214:F214,1)+LARGE(D214:F214,2))*0.05+(LARGE(G214:I214,1)+LARGE(G214:I214,2))*0.3+(LARGE(J214:L214,1)+LARGE(J214:L214,2))*0.15))</f>
+        <f t="shared" si="3"/>
         <v>0.84700000000000009</v>
       </c>
     </row>
@@ -10614,6 +10957,13 @@
       <c r="K215">
         <v>0.85</v>
       </c>
+      <c r="L215">
+        <v>0</v>
+      </c>
+      <c r="M215" s="8">
+        <f t="shared" si="3"/>
+        <v>0.67700000000000005</v>
+      </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
@@ -10653,7 +11003,7 @@
         <v>0.62</v>
       </c>
       <c r="M216" s="8">
-        <f t="shared" ref="M216:M218" si="92">(((LARGE(D216:F216,1)+LARGE(D216:F216,2))*0.05+(LARGE(G216:I216,1)+LARGE(G216:I216,2))*0.3+(LARGE(J216:L216,1)+LARGE(J216:L216,2))*0.15))</f>
+        <f t="shared" si="3"/>
         <v>0.66100000000000003</v>
       </c>
     </row>
@@ -10695,7 +11045,7 @@
         <v>0.64</v>
       </c>
       <c r="M217" s="8">
-        <f t="shared" si="92"/>
+        <f t="shared" si="3"/>
         <v>0.77549999999999986</v>
       </c>
     </row>
@@ -10737,7 +11087,7 @@
         <v>0.51</v>
       </c>
       <c r="M218" s="8">
-        <f t="shared" si="92"/>
+        <f t="shared" si="3"/>
         <v>0.66400000000000015</v>
       </c>
     </row>
@@ -10775,6 +11125,13 @@
       <c r="K219">
         <v>0.67</v>
       </c>
+      <c r="L219">
+        <v>0</v>
+      </c>
+      <c r="M219" s="8">
+        <f t="shared" si="3"/>
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
@@ -10814,7 +11171,7 @@
         <v>0.77</v>
       </c>
       <c r="M220" s="8">
-        <f t="shared" ref="M220" si="93">(((LARGE(D220:F220,1)+LARGE(D220:F220,2))*0.05+(LARGE(G220:I220,1)+LARGE(G220:I220,2))*0.3+(LARGE(J220:L220,1)+LARGE(J220:L220,2))*0.15))</f>
+        <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
     </row>
@@ -10852,6 +11209,13 @@
       <c r="K221">
         <v>0</v>
       </c>
+      <c r="L221">
+        <v>0</v>
+      </c>
+      <c r="M221" s="8">
+        <f t="shared" si="3"/>
+        <v>0.39250000000000002</v>
+      </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
@@ -10891,7 +11255,7 @@
         <v>0.54</v>
       </c>
       <c r="M222" s="8">
-        <f t="shared" ref="M222:M223" si="94">(((LARGE(D222:F222,1)+LARGE(D222:F222,2))*0.05+(LARGE(G222:I222,1)+LARGE(G222:I222,2))*0.3+(LARGE(J222:L222,1)+LARGE(J222:L222,2))*0.15))</f>
+        <f t="shared" si="3"/>
         <v>0.72299999999999998</v>
       </c>
     </row>
@@ -10933,7 +11297,7 @@
         <v>0.7</v>
       </c>
       <c r="M223" s="8">
-        <f t="shared" si="94"/>
+        <f t="shared" si="3"/>
         <v>0.71599999999999997</v>
       </c>
     </row>
@@ -10975,7 +11339,7 @@
         <v>0.87</v>
       </c>
       <c r="M224" s="8">
-        <f t="shared" ref="M224:M226" si="95">(((LARGE(D224:F224,1)+LARGE(D224:F224,2))*0.05+(LARGE(G224:I224,1)+LARGE(G224:I224,2))*0.3+(LARGE(J224:L224,1)+LARGE(J224:L224,2))*0.15))</f>
+        <f t="shared" si="3"/>
         <v>0.79449999999999998</v>
       </c>
     </row>
@@ -11017,7 +11381,7 @@
         <v>0.7</v>
       </c>
       <c r="M225" s="8">
-        <f t="shared" si="95"/>
+        <f t="shared" si="3"/>
         <v>0.66100000000000003</v>
       </c>
     </row>
@@ -11059,7 +11423,7 @@
         <v>0.73</v>
       </c>
       <c r="M226" s="8">
-        <f t="shared" si="95"/>
+        <f t="shared" si="3"/>
         <v>0.58200000000000007</v>
       </c>
     </row>
@@ -11101,7 +11465,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="M227" s="8">
-        <f t="shared" ref="M227" si="96">(((LARGE(D227:F227,1)+LARGE(D227:F227,2))*0.05+(LARGE(G227:I227,1)+LARGE(G227:I227,2))*0.3+(LARGE(J227:L227,1)+LARGE(J227:L227,2))*0.15))</f>
+        <f t="shared" si="3"/>
         <v>0.64749999999999996</v>
       </c>
     </row>
@@ -11139,6 +11503,13 @@
       <c r="K228">
         <v>0.85</v>
       </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228" s="8">
+        <f t="shared" si="3"/>
+        <v>0.78149999999999997</v>
+      </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
@@ -11178,7 +11549,7 @@
         <v>0.78</v>
       </c>
       <c r="M229" s="8">
-        <f t="shared" ref="M229:M231" si="97">(((LARGE(D229:F229,1)+LARGE(D229:F229,2))*0.05+(LARGE(G229:I229,1)+LARGE(G229:I229,2))*0.3+(LARGE(J229:L229,1)+LARGE(J229:L229,2))*0.15))</f>
+        <f t="shared" si="3"/>
         <v>0.73449999999999993</v>
       </c>
     </row>
@@ -11220,7 +11591,7 @@
         <v>0.01</v>
       </c>
       <c r="M230" s="8">
-        <f t="shared" si="97"/>
+        <f t="shared" si="3"/>
         <v>0.68399999999999994</v>
       </c>
     </row>
@@ -11262,7 +11633,7 @@
         <v>0.73</v>
       </c>
       <c r="M231" s="8">
-        <f t="shared" si="97"/>
+        <f t="shared" si="3"/>
         <v>0.64400000000000013</v>
       </c>
     </row>

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC861973-3EC6-D54B-A529-282C84514D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A8E4EA-2BE6-FF4E-B06A-98903C99C3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="960" windowWidth="29360" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -1929,8 +1929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="L234" sqref="L234"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="J50">
         <v>0.8</v>
@@ -4034,7 +4034,7 @@
       </c>
       <c r="M50" s="8">
         <f t="shared" si="0"/>
-        <v>0.43700000000000006</v>
+        <v>0.55100000000000005</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A8E4EA-2BE6-FF4E-B06A-98903C99C3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B50F32-506F-3B4C-B1AF-C6FB16452C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="960" windowWidth="29360" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -1929,8 +1929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2017,7 +2017,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="M2" s="8">
-        <f t="shared" ref="M2:M65" si="0">(((LARGE(D2:F2,1)+LARGE(D2:F2,2))*0.05+(LARGE(G2:I2,1)+LARGE(G2:I2,2))*0.3+(LARGE(J2:L2,1)+LARGE(J2:L2,2))*0.15))</f>
+        <f>(((LARGE(D2:F2,1)+LARGE(D2:F2,2))*0.05+(LARGE(G2:I2,1)+LARGE(G2:I2,2))*0.3+(LARGE(J2:L2,1)+LARGE(J2:L2,2))*0.15))</f>
         <v>0.66849999999999998</v>
       </c>
     </row>
@@ -2059,7 +2059,7 @@
         <v>0.64</v>
       </c>
       <c r="M3" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D3:F3,1)+LARGE(D3:F3,2))*0.05+(LARGE(G3:I3,1)+LARGE(G3:I3,2))*0.3+(LARGE(J3:L3,1)+LARGE(J3:L3,2))*0.15))</f>
         <v>0.78400000000000003</v>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
         <v>0.86</v>
       </c>
       <c r="M4" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D4:F4,1)+LARGE(D4:F4,2))*0.05+(LARGE(G4:I4,1)+LARGE(G4:I4,2))*0.3+(LARGE(J4:L4,1)+LARGE(J4:L4,2))*0.15))</f>
         <v>0.8105</v>
       </c>
     </row>
@@ -2143,7 +2143,7 @@
         <v>0.77</v>
       </c>
       <c r="M5" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D5:F5,1)+LARGE(D5:F5,2))*0.05+(LARGE(G5:I5,1)+LARGE(G5:I5,2))*0.3+(LARGE(J5:L5,1)+LARGE(J5:L5,2))*0.15))</f>
         <v>0.60799999999999998</v>
       </c>
     </row>
@@ -2185,7 +2185,7 @@
         <v>0.86</v>
       </c>
       <c r="M6" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D6:F6,1)+LARGE(D6:F6,2))*0.05+(LARGE(G6:I6,1)+LARGE(G6:I6,2))*0.3+(LARGE(J6:L6,1)+LARGE(J6:L6,2))*0.15))</f>
         <v>0.83877184466019439</v>
       </c>
     </row>
@@ -2227,7 +2227,7 @@
         <v>0.61</v>
       </c>
       <c r="M7" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D7:F7,1)+LARGE(D7:F7,2))*0.05+(LARGE(G7:I7,1)+LARGE(G7:I7,2))*0.3+(LARGE(J7:L7,1)+LARGE(J7:L7,2))*0.15))</f>
         <v>0.72214563106796126</v>
       </c>
     </row>
@@ -2269,7 +2269,7 @@
         <v>0.46</v>
       </c>
       <c r="M8" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D8:F8,1)+LARGE(D8:F8,2))*0.05+(LARGE(G8:I8,1)+LARGE(G8:I8,2))*0.3+(LARGE(J8:L8,1)+LARGE(J8:L8,2))*0.15))</f>
         <v>0.49833009708737863</v>
       </c>
     </row>
@@ -2311,7 +2311,7 @@
         <v>0.61</v>
       </c>
       <c r="M9" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D9:F9,1)+LARGE(D9:F9,2))*0.05+(LARGE(G9:I9,1)+LARGE(G9:I9,2))*0.3+(LARGE(J9:L9,1)+LARGE(J9:L9,2))*0.15))</f>
         <v>0.72099999999999997</v>
       </c>
     </row>
@@ -2353,7 +2353,7 @@
         <v>0.81</v>
       </c>
       <c r="M10" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D10:F10,1)+LARGE(D10:F10,2))*0.05+(LARGE(G10:I10,1)+LARGE(G10:I10,2))*0.3+(LARGE(J10:L10,1)+LARGE(J10:L10,2))*0.15))</f>
         <v>0.64300000000000002</v>
       </c>
     </row>
@@ -2395,7 +2395,7 @@
         <v>0.86</v>
       </c>
       <c r="M11" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D11:F11,1)+LARGE(D11:F11,2))*0.05+(LARGE(G11:I11,1)+LARGE(G11:I11,2))*0.3+(LARGE(J11:L11,1)+LARGE(J11:L11,2))*0.15))</f>
         <v>0.90311165048543685</v>
       </c>
     </row>
@@ -2437,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D12:F12,1)+LARGE(D12:F12,2))*0.05+(LARGE(G12:I12,1)+LARGE(G12:I12,2))*0.3+(LARGE(J12:L12,1)+LARGE(J12:L12,2))*0.15))</f>
         <v>0.83650000000000002</v>
       </c>
     </row>
@@ -2479,7 +2479,7 @@
         <v>0.81</v>
       </c>
       <c r="M13" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D13:F13,1)+LARGE(D13:F13,2))*0.05+(LARGE(G13:I13,1)+LARGE(G13:I13,2))*0.3+(LARGE(J13:L13,1)+LARGE(J13:L13,2))*0.15))</f>
         <v>0.73799514563106783</v>
       </c>
     </row>
@@ -2521,7 +2521,7 @@
         <v>0.85</v>
       </c>
       <c r="M14" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D14:F14,1)+LARGE(D14:F14,2))*0.05+(LARGE(G14:I14,1)+LARGE(G14:I14,2))*0.3+(LARGE(J14:L14,1)+LARGE(J14:L14,2))*0.15))</f>
         <v>0.71134466019417486</v>
       </c>
     </row>
@@ -2563,7 +2563,7 @@
         <v>0.73</v>
       </c>
       <c r="M15" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D15:F15,1)+LARGE(D15:F15,2))*0.05+(LARGE(G15:I15,1)+LARGE(G15:I15,2))*0.3+(LARGE(J15:L15,1)+LARGE(J15:L15,2))*0.15))</f>
         <v>0.65599999999999992</v>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
         <v>0.64</v>
       </c>
       <c r="M16" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D16:F16,1)+LARGE(D16:F16,2))*0.05+(LARGE(G16:I16,1)+LARGE(G16:I16,2))*0.3+(LARGE(J16:L16,1)+LARGE(J16:L16,2))*0.15))</f>
         <v>0.62250000000000005</v>
       </c>
     </row>
@@ -2647,7 +2647,7 @@
         <v>0.73</v>
       </c>
       <c r="M17" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D17:F17,1)+LARGE(D17:F17,2))*0.05+(LARGE(G17:I17,1)+LARGE(G17:I17,2))*0.3+(LARGE(J17:L17,1)+LARGE(J17:L17,2))*0.15))</f>
         <v>0.66700000000000004</v>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
         <v>0.64</v>
       </c>
       <c r="M18" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D18:F18,1)+LARGE(D18:F18,2))*0.05+(LARGE(G18:I18,1)+LARGE(G18:I18,2))*0.3+(LARGE(J18:L18,1)+LARGE(J18:L18,2))*0.15))</f>
         <v>0.71250000000000002</v>
       </c>
     </row>
@@ -2731,7 +2731,7 @@
         <v>0.59</v>
       </c>
       <c r="M19" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D19:F19,1)+LARGE(D19:F19,2))*0.05+(LARGE(G19:I19,1)+LARGE(G19:I19,2))*0.3+(LARGE(J19:L19,1)+LARGE(J19:L19,2))*0.15))</f>
         <v>0.3067669902912622</v>
       </c>
     </row>
@@ -2773,7 +2773,7 @@
         <v>0.61</v>
       </c>
       <c r="M20" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D20:F20,1)+LARGE(D20:F20,2))*0.05+(LARGE(G20:I20,1)+LARGE(G20:I20,2))*0.3+(LARGE(J20:L20,1)+LARGE(J20:L20,2))*0.15))</f>
         <v>0.69264563106796118</v>
       </c>
     </row>
@@ -2815,7 +2815,7 @@
         <v>0.78</v>
       </c>
       <c r="M21" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D21:F21,1)+LARGE(D21:F21,2))*0.05+(LARGE(G21:I21,1)+LARGE(G21:I21,2))*0.3+(LARGE(J21:L21,1)+LARGE(J21:L21,2))*0.15))</f>
         <v>0.8254999999999999</v>
       </c>
     </row>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D22:F22,1)+LARGE(D22:F22,2))*0.05+(LARGE(G22:I22,1)+LARGE(G22:I22,2))*0.3+(LARGE(J22:L22,1)+LARGE(J22:L22,2))*0.15))</f>
         <v>0.57280582524271839</v>
       </c>
     </row>
@@ -2899,7 +2899,7 @@
         <v>0.54</v>
       </c>
       <c r="M23" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D23:F23,1)+LARGE(D23:F23,2))*0.05+(LARGE(G23:I23,1)+LARGE(G23:I23,2))*0.3+(LARGE(J23:L23,1)+LARGE(J23:L23,2))*0.15))</f>
         <v>0.6915</v>
       </c>
     </row>
@@ -2941,7 +2941,7 @@
         <v>0.89</v>
       </c>
       <c r="M24" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D24:F24,1)+LARGE(D24:F24,2))*0.05+(LARGE(G24:I24,1)+LARGE(G24:I24,2))*0.3+(LARGE(J24:L24,1)+LARGE(J24:L24,2))*0.15))</f>
         <v>0.69649514563106796</v>
       </c>
     </row>
@@ -2983,7 +2983,7 @@
         <v>0.78</v>
       </c>
       <c r="M25" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D25:F25,1)+LARGE(D25:F25,2))*0.05+(LARGE(G25:I25,1)+LARGE(G25:I25,2))*0.3+(LARGE(J25:L25,1)+LARGE(J25:L25,2))*0.15))</f>
         <v>0.7589999999999999</v>
       </c>
     </row>
@@ -3025,7 +3025,7 @@
         <v>0.85</v>
       </c>
       <c r="M26" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D26:F26,1)+LARGE(D26:F26,2))*0.05+(LARGE(G26:I26,1)+LARGE(G26:I26,2))*0.3+(LARGE(J26:L26,1)+LARGE(J26:L26,2))*0.15))</f>
         <v>0.7004999999999999</v>
       </c>
     </row>
@@ -3067,7 +3067,7 @@
         <v>0.46</v>
       </c>
       <c r="M27" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D27:F27,1)+LARGE(D27:F27,2))*0.05+(LARGE(G27:I27,1)+LARGE(G27:I27,2))*0.3+(LARGE(J27:L27,1)+LARGE(J27:L27,2))*0.15))</f>
         <v>0.59750000000000003</v>
       </c>
     </row>
@@ -3109,7 +3109,7 @@
         <v>0.61</v>
       </c>
       <c r="M28" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D28:F28,1)+LARGE(D28:F28,2))*0.05+(LARGE(G28:I28,1)+LARGE(G28:I28,2))*0.3+(LARGE(J28:L28,1)+LARGE(J28:L28,2))*0.15))</f>
         <v>0.78549999999999998</v>
       </c>
     </row>
@@ -3151,7 +3151,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="M29" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D29:F29,1)+LARGE(D29:F29,2))*0.05+(LARGE(G29:I29,1)+LARGE(G29:I29,2))*0.3+(LARGE(J29:L29,1)+LARGE(J29:L29,2))*0.15))</f>
         <v>0.72050000000000003</v>
       </c>
     </row>
@@ -3193,7 +3193,7 @@
         <v>0.46</v>
       </c>
       <c r="M30" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D30:F30,1)+LARGE(D30:F30,2))*0.05+(LARGE(G30:I30,1)+LARGE(G30:I30,2))*0.3+(LARGE(J30:L30,1)+LARGE(J30:L30,2))*0.15))</f>
         <v>0.64149999999999996</v>
       </c>
     </row>
@@ -3235,7 +3235,7 @@
         <v>0.82</v>
       </c>
       <c r="M31" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D31:F31,1)+LARGE(D31:F31,2))*0.05+(LARGE(G31:I31,1)+LARGE(G31:I31,2))*0.3+(LARGE(J31:L31,1)+LARGE(J31:L31,2))*0.15))</f>
         <v>0.749</v>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
         <v>0.61</v>
       </c>
       <c r="M32" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D32:F32,1)+LARGE(D32:F32,2))*0.05+(LARGE(G32:I32,1)+LARGE(G32:I32,2))*0.3+(LARGE(J32:L32,1)+LARGE(J32:L32,2))*0.15))</f>
         <v>0.58050000000000002</v>
       </c>
     </row>
@@ -3319,7 +3319,7 @@
         <v>0.62</v>
       </c>
       <c r="M33" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D33:F33,1)+LARGE(D33:F33,2))*0.05+(LARGE(G33:I33,1)+LARGE(G33:I33,2))*0.3+(LARGE(J33:L33,1)+LARGE(J33:L33,2))*0.15))</f>
         <v>0.63119417475728157</v>
       </c>
     </row>
@@ -3361,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D34:F34,1)+LARGE(D34:F34,2))*0.05+(LARGE(G34:I34,1)+LARGE(G34:I34,2))*0.3+(LARGE(J34:L34,1)+LARGE(J34:L34,2))*0.15))</f>
         <v>0.55845631067961177</v>
       </c>
     </row>
@@ -3403,7 +3403,7 @@
         <v>0.8</v>
       </c>
       <c r="M35" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D35:F35,1)+LARGE(D35:F35,2))*0.05+(LARGE(G35:I35,1)+LARGE(G35:I35,2))*0.3+(LARGE(J35:L35,1)+LARGE(J35:L35,2))*0.15))</f>
         <v>0.70705825242718467</v>
       </c>
     </row>
@@ -3445,7 +3445,7 @@
         <v>0.53</v>
       </c>
       <c r="M36" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D36:F36,1)+LARGE(D36:F36,2))*0.05+(LARGE(G36:I36,1)+LARGE(G36:I36,2))*0.3+(LARGE(J36:L36,1)+LARGE(J36:L36,2))*0.15))</f>
         <v>0.67249514563106794</v>
       </c>
     </row>
@@ -3487,7 +3487,7 @@
         <v>0.45</v>
       </c>
       <c r="M37" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D37:F37,1)+LARGE(D37:F37,2))*0.05+(LARGE(G37:I37,1)+LARGE(G37:I37,2))*0.3+(LARGE(J37:L37,1)+LARGE(J37:L37,2))*0.15))</f>
         <v>0.60099999999999998</v>
       </c>
     </row>
@@ -3529,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D38:F38,1)+LARGE(D38:F38,2))*0.05+(LARGE(G38:I38,1)+LARGE(G38:I38,2))*0.3+(LARGE(J38:L38,1)+LARGE(J38:L38,2))*0.15))</f>
         <v>0.69200000000000006</v>
       </c>
     </row>
@@ -3571,7 +3571,7 @@
         <v>0.89</v>
       </c>
       <c r="M39" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D39:F39,1)+LARGE(D39:F39,2))*0.05+(LARGE(G39:I39,1)+LARGE(G39:I39,2))*0.3+(LARGE(J39:L39,1)+LARGE(J39:L39,2))*0.15))</f>
         <v>0.874</v>
       </c>
     </row>
@@ -3613,7 +3613,7 @@
         <v>0.61</v>
       </c>
       <c r="M40" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D40:F40,1)+LARGE(D40:F40,2))*0.05+(LARGE(G40:I40,1)+LARGE(G40:I40,2))*0.3+(LARGE(J40:L40,1)+LARGE(J40:L40,2))*0.15))</f>
         <v>0.80800000000000005</v>
       </c>
     </row>
@@ -3655,7 +3655,7 @@
         <v>0.54</v>
       </c>
       <c r="M41" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D41:F41,1)+LARGE(D41:F41,2))*0.05+(LARGE(G41:I41,1)+LARGE(G41:I41,2))*0.3+(LARGE(J41:L41,1)+LARGE(J41:L41,2))*0.15))</f>
         <v>0.7619999999999999</v>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
         <v>0.81</v>
       </c>
       <c r="M42" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D42:F42,1)+LARGE(D42:F42,2))*0.05+(LARGE(G42:I42,1)+LARGE(G42:I42,2))*0.3+(LARGE(J42:L42,1)+LARGE(J42:L42,2))*0.15))</f>
         <v>0.71982038834951467</v>
       </c>
     </row>
@@ -3739,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D43:F43,1)+LARGE(D43:F43,2))*0.05+(LARGE(G43:I43,1)+LARGE(G43:I43,2))*0.3+(LARGE(J43:L43,1)+LARGE(J43:L43,2))*0.15))</f>
         <v>0.74099514563106794</v>
       </c>
     </row>
@@ -3781,7 +3781,7 @@
         <v>0.61</v>
       </c>
       <c r="M44" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D44:F44,1)+LARGE(D44:F44,2))*0.05+(LARGE(G44:I44,1)+LARGE(G44:I44,2))*0.3+(LARGE(J44:L44,1)+LARGE(J44:L44,2))*0.15))</f>
         <v>0.71679611650485453</v>
       </c>
     </row>
@@ -3823,7 +3823,7 @@
         <v>0.5</v>
       </c>
       <c r="M45" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D45:F45,1)+LARGE(D45:F45,2))*0.05+(LARGE(G45:I45,1)+LARGE(G45:I45,2))*0.3+(LARGE(J45:L45,1)+LARGE(J45:L45,2))*0.15))</f>
         <v>0.77499999999999991</v>
       </c>
     </row>
@@ -3865,7 +3865,7 @@
         <v>0.77</v>
       </c>
       <c r="M46" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D46:F46,1)+LARGE(D46:F46,2))*0.05+(LARGE(G46:I46,1)+LARGE(G46:I46,2))*0.3+(LARGE(J46:L46,1)+LARGE(J46:L46,2))*0.15))</f>
         <v>0.75362135922330098</v>
       </c>
     </row>
@@ -3907,7 +3907,7 @@
         <v>0.91</v>
       </c>
       <c r="M47" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D47:F47,1)+LARGE(D47:F47,2))*0.05+(LARGE(G47:I47,1)+LARGE(G47:I47,2))*0.3+(LARGE(J47:L47,1)+LARGE(J47:L47,2))*0.15))</f>
         <v>0.77920873786407752</v>
       </c>
     </row>
@@ -3949,7 +3949,7 @@
         <v>0.61</v>
       </c>
       <c r="M48" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D48:F48,1)+LARGE(D48:F48,2))*0.05+(LARGE(G48:I48,1)+LARGE(G48:I48,2))*0.3+(LARGE(J48:L48,1)+LARGE(J48:L48,2))*0.15))</f>
         <v>0.72764563106796121</v>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
         <v>0.54</v>
       </c>
       <c r="M49" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D49:F49,1)+LARGE(D49:F49,2))*0.05+(LARGE(G49:I49,1)+LARGE(G49:I49,2))*0.3+(LARGE(J49:L49,1)+LARGE(J49:L49,2))*0.15))</f>
         <v>0.73499999999999999</v>
       </c>
     </row>
@@ -4033,7 +4033,7 @@
         <v>0.62</v>
       </c>
       <c r="M50" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D50:F50,1)+LARGE(D50:F50,2))*0.05+(LARGE(G50:I50,1)+LARGE(G50:I50,2))*0.3+(LARGE(J50:L50,1)+LARGE(J50:L50,2))*0.15))</f>
         <v>0.55100000000000005</v>
       </c>
     </row>
@@ -4075,7 +4075,7 @@
         <v>0.86</v>
       </c>
       <c r="M51" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D51:F51,1)+LARGE(D51:F51,2))*0.05+(LARGE(G51:I51,1)+LARGE(G51:I51,2))*0.3+(LARGE(J51:L51,1)+LARGE(J51:L51,2))*0.15))</f>
         <v>0.87450000000000006</v>
       </c>
     </row>
@@ -4117,7 +4117,7 @@
         <v>0.46</v>
       </c>
       <c r="M52" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D52:F52,1)+LARGE(D52:F52,2))*0.05+(LARGE(G52:I52,1)+LARGE(G52:I52,2))*0.3+(LARGE(J52:L52,1)+LARGE(J52:L52,2))*0.15))</f>
         <v>0.69614563106796112</v>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
         <v>0.54</v>
       </c>
       <c r="M53" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D53:F53,1)+LARGE(D53:F53,2))*0.05+(LARGE(G53:I53,1)+LARGE(G53:I53,2))*0.3+(LARGE(J53:L53,1)+LARGE(J53:L53,2))*0.15))</f>
         <v>0.65469417475728164</v>
       </c>
     </row>
@@ -4201,7 +4201,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="M54" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D54:F54,1)+LARGE(D54:F54,2))*0.05+(LARGE(G54:I54,1)+LARGE(G54:I54,2))*0.3+(LARGE(J54:L54,1)+LARGE(J54:L54,2))*0.15))</f>
         <v>0.79939805825242705</v>
       </c>
     </row>
@@ -4243,7 +4243,7 @@
         <v>0.74</v>
       </c>
       <c r="M55" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D55:F55,1)+LARGE(D55:F55,2))*0.05+(LARGE(G55:I55,1)+LARGE(G55:I55,2))*0.3+(LARGE(J55:L55,1)+LARGE(J55:L55,2))*0.15))</f>
         <v>0.72750000000000004</v>
       </c>
     </row>
@@ -4285,7 +4285,7 @@
         <v>0.68</v>
       </c>
       <c r="M56" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D56:F56,1)+LARGE(D56:F56,2))*0.05+(LARGE(G56:I56,1)+LARGE(G56:I56,2))*0.3+(LARGE(J56:L56,1)+LARGE(J56:L56,2))*0.15))</f>
         <v>0.67749999999999999</v>
       </c>
     </row>
@@ -4327,7 +4327,7 @@
         <v>0.54</v>
       </c>
       <c r="M57" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D57:F57,1)+LARGE(D57:F57,2))*0.05+(LARGE(G57:I57,1)+LARGE(G57:I57,2))*0.3+(LARGE(J57:L57,1)+LARGE(J57:L57,2))*0.15))</f>
         <v>0.67600000000000005</v>
       </c>
     </row>
@@ -4369,7 +4369,7 @@
         <v>0.74</v>
       </c>
       <c r="M58" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D58:F58,1)+LARGE(D58:F58,2))*0.05+(LARGE(G58:I58,1)+LARGE(G58:I58,2))*0.3+(LARGE(J58:L58,1)+LARGE(J58:L58,2))*0.15))</f>
         <v>0.77399999999999991</v>
       </c>
     </row>
@@ -4411,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="M59" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D59:F59,1)+LARGE(D59:F59,2))*0.05+(LARGE(G59:I59,1)+LARGE(G59:I59,2))*0.3+(LARGE(J59:L59,1)+LARGE(J59:L59,2))*0.15))</f>
         <v>0.63650000000000007</v>
       </c>
     </row>
@@ -4453,289 +4453,289 @@
         <v>0.69</v>
       </c>
       <c r="M60" s="8">
-        <f t="shared" si="0"/>
+        <f>(((LARGE(D60:F60,1)+LARGE(D60:F60,2))*0.05+(LARGE(G60:I60,1)+LARGE(G60:I60,2))*0.3+(LARGE(J60:L60,1)+LARGE(J60:L60,2))*0.15))</f>
         <v>0.80499999999999994</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C61" t="s">
         <v>106</v>
       </c>
       <c r="D61" s="5">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="G61">
-        <v>0.59</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H61" s="5">
-        <v>0.47</v>
+        <v>0.7</v>
       </c>
       <c r="I61">
-        <v>0.53</v>
+        <v>0.66</v>
       </c>
       <c r="J61">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="K61">
-        <v>0.77</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="L61">
-        <v>0.46</v>
+        <v>0.51</v>
       </c>
       <c r="M61" s="8">
-        <f t="shared" si="0"/>
-        <v>0.67800000000000005</v>
+        <f>(((LARGE(D61:F61,1)+LARGE(D61:F61,2))*0.05+(LARGE(G61:I61,1)+LARGE(G61:I61,2))*0.3+(LARGE(J61:L61,1)+LARGE(J61:L61,2))*0.15))</f>
+        <v>0.71350000000000002</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C62" t="s">
         <v>106</v>
       </c>
       <c r="D62" s="5">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
         <v>0.93</v>
       </c>
-      <c r="F62">
-        <v>0.95</v>
-      </c>
       <c r="G62">
-        <v>0.56000000000000005</v>
+        <v>0.44</v>
       </c>
       <c r="H62" s="5">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="I62">
-        <v>0.66</v>
+        <v>0.76</v>
       </c>
       <c r="J62">
-        <v>0.85</v>
+        <v>0.63</v>
       </c>
       <c r="K62">
-        <v>0.56000000000000005</v>
+        <v>0.75</v>
       </c>
       <c r="L62">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="M62" s="8">
-        <f t="shared" si="0"/>
-        <v>0.71350000000000002</v>
+        <f>(((LARGE(D62:F62,1)+LARGE(D62:F62,2))*0.05+(LARGE(G62:I62,1)+LARGE(G62:I62,2))*0.3+(LARGE(J62:L62,1)+LARGE(J62:L62,2))*0.15))</f>
+        <v>0.66349999999999998</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C63" t="s">
         <v>106</v>
       </c>
       <c r="D63" s="5">
-        <v>0.75</v>
+        <v>0.97</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
       <c r="F63">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="G63">
-        <v>0.44</v>
+        <v>0.73</v>
       </c>
       <c r="H63" s="5">
-        <v>0.4</v>
+        <v>0.94</v>
       </c>
       <c r="I63">
-        <v>0.76</v>
+        <v>0.87</v>
       </c>
       <c r="J63">
-        <v>0.63</v>
+        <v>0.78</v>
       </c>
       <c r="K63">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>0.69</v>
       </c>
       <c r="M63" s="8">
-        <f t="shared" si="0"/>
-        <v>0.66349999999999998</v>
+        <f>(((LARGE(D63:F63,1)+LARGE(D63:F63,2))*0.05+(LARGE(G63:I63,1)+LARGE(G63:I63,2))*0.3+(LARGE(J63:L63,1)+LARGE(J63:L63,2))*0.15))</f>
+        <v>0.8680000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C64" t="s">
         <v>106</v>
       </c>
       <c r="D64" s="5">
-        <v>0.97</v>
+        <v>0.86</v>
       </c>
       <c r="E64">
         <v>1</v>
       </c>
       <c r="F64">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="G64">
-        <v>0.73</v>
+        <v>0.68</v>
       </c>
       <c r="H64" s="5">
-        <v>0.94</v>
+        <v>0.43</v>
       </c>
       <c r="I64">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="J64">
-        <v>0.78</v>
+        <v>0.85</v>
       </c>
       <c r="K64">
-        <v>0.73</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="L64">
-        <v>0.69</v>
+        <v>0.51</v>
       </c>
       <c r="M64" s="8">
-        <f t="shared" si="0"/>
-        <v>0.8680000000000001</v>
+        <f>(((LARGE(D64:F64,1)+LARGE(D64:F64,2))*0.05+(LARGE(G64:I64,1)+LARGE(G64:I64,2))*0.3+(LARGE(J64:L64,1)+LARGE(J64:L64,2))*0.15))</f>
+        <v>0.64000000000000012</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>126</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="C65" t="s">
         <v>106</v>
       </c>
       <c r="D65" s="5">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="F65">
-        <v>0.91</v>
+        <v>0.82</v>
       </c>
       <c r="G65">
-        <v>0.68</v>
+        <v>0.52</v>
       </c>
       <c r="H65" s="5">
-        <v>0.43</v>
+        <v>0.19</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65">
-        <v>0.85</v>
+        <v>0.74</v>
       </c>
       <c r="K65">
-        <v>0.56000000000000005</v>
+        <v>0.69</v>
       </c>
       <c r="L65">
-        <v>0.51</v>
+        <v>0.45</v>
       </c>
       <c r="M65" s="8">
-        <f t="shared" si="0"/>
-        <v>0.64000000000000012</v>
+        <f>(((LARGE(D65:F65,1)+LARGE(D65:F65,2))*0.05+(LARGE(G65:I65,1)+LARGE(G65:I65,2))*0.3+(LARGE(J65:L65,1)+LARGE(J65:L65,2))*0.15))</f>
+        <v>0.50800000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>128</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="C66" t="s">
         <v>106</v>
       </c>
       <c r="D66" s="5">
-        <v>0</v>
+        <v>0.81</v>
       </c>
       <c r="E66">
-        <v>0.79</v>
+        <v>0.98</v>
       </c>
       <c r="F66">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>0.52</v>
+        <v>0.65</v>
       </c>
       <c r="H66" s="5">
-        <v>0.19</v>
+        <v>0.6</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="J66">
         <v>0.74</v>
       </c>
       <c r="K66">
-        <v>0.69</v>
+        <v>0.33</v>
       </c>
       <c r="L66">
-        <v>0.45</v>
+        <v>0.66</v>
       </c>
       <c r="M66" s="8">
-        <f t="shared" ref="M66:M129" si="1">(((LARGE(D66:F66,1)+LARGE(D66:F66,2))*0.05+(LARGE(G66:I66,1)+LARGE(G66:I66,2))*0.3+(LARGE(J66:L66,1)+LARGE(J66:L66,2))*0.15))</f>
-        <v>0.50800000000000001</v>
+        <f>(((LARGE(D66:F66,1)+LARGE(D66:F66,2))*0.05+(LARGE(G66:I66,1)+LARGE(G66:I66,2))*0.3+(LARGE(J66:L66,1)+LARGE(J66:L66,2))*0.15))</f>
+        <v>0.74649999999999994</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C67" t="s">
         <v>106</v>
       </c>
       <c r="D67" s="5">
-        <v>0.81</v>
+        <v>0.89</v>
       </c>
       <c r="E67">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="G67">
-        <v>0.65</v>
+        <v>0.44</v>
       </c>
       <c r="H67" s="5">
-        <v>0.6</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="I67">
-        <v>0.84</v>
+        <v>0.71</v>
       </c>
       <c r="J67">
         <v>0.74</v>
@@ -4744,397 +4744,397 @@
         <v>0.33</v>
       </c>
       <c r="L67">
-        <v>0.66</v>
+        <v>0.76</v>
       </c>
       <c r="M67" s="8">
-        <f t="shared" si="1"/>
-        <v>0.74649999999999994</v>
+        <f>(((LARGE(D67:F67,1)+LARGE(D67:F67,2))*0.05+(LARGE(G67:I67,1)+LARGE(G67:I67,2))*0.3+(LARGE(J67:L67,1)+LARGE(J67:L67,2))*0.15))</f>
+        <v>0.7024999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>133</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="C68" t="s">
         <v>106</v>
       </c>
       <c r="D68" s="5">
-        <v>0.89</v>
+        <v>0.72</v>
       </c>
       <c r="E68">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F68">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="G68">
-        <v>0.44</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H68" s="5">
-        <v>0.56999999999999995</v>
+        <v>0.61</v>
       </c>
       <c r="I68">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="J68">
-        <v>0.74</v>
+        <v>0.83</v>
       </c>
       <c r="K68">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="L68">
-        <v>0.76</v>
+        <v>0.81</v>
       </c>
       <c r="M68" s="8">
-        <f t="shared" si="1"/>
-        <v>0.7024999999999999</v>
+        <f>(((LARGE(D68:F68,1)+LARGE(D68:F68,2))*0.05+(LARGE(G68:I68,1)+LARGE(G68:I68,2))*0.3+(LARGE(J68:L68,1)+LARGE(J68:L68,2))*0.15))</f>
+        <v>0.69</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>137</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="C69" t="s">
         <v>106</v>
       </c>
       <c r="D69" s="5">
-        <v>0.72</v>
+        <v>1</v>
       </c>
       <c r="E69">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="G69">
-        <v>0.56000000000000005</v>
+        <v>0.61</v>
       </c>
       <c r="H69" s="5">
-        <v>0.61</v>
+        <v>0.64</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J69">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="K69">
-        <v>0.67</v>
+        <v>0.73</v>
       </c>
       <c r="L69">
-        <v>0.81</v>
+        <v>0.68</v>
       </c>
       <c r="M69" s="8">
-        <f t="shared" si="1"/>
-        <v>0.69</v>
+        <f>(((LARGE(D69:F69,1)+LARGE(D69:F69,2))*0.05+(LARGE(G69:I69,1)+LARGE(G69:I69,2))*0.3+(LARGE(J69:L69,1)+LARGE(J69:L69,2))*0.15))</f>
+        <v>0.70150000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C70" t="s">
         <v>106</v>
       </c>
       <c r="D70" s="5">
-        <v>1</v>
+        <v>0.94</v>
       </c>
       <c r="E70">
         <v>1</v>
       </c>
       <c r="F70">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="G70">
-        <v>0.61</v>
+        <v>0.46</v>
       </c>
       <c r="H70" s="5">
-        <v>0.64</v>
+        <v>0.49</v>
       </c>
       <c r="I70">
-        <v>0.5</v>
+        <v>0.71</v>
       </c>
       <c r="J70">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="K70">
-        <v>0.73</v>
+        <v>0.46</v>
       </c>
       <c r="L70">
-        <v>0.68</v>
+        <v>0.59</v>
       </c>
       <c r="M70" s="8">
-        <f t="shared" si="1"/>
-        <v>0.70150000000000001</v>
+        <f>(((LARGE(D70:F70,1)+LARGE(D70:F70,2))*0.05+(LARGE(G70:I70,1)+LARGE(G70:I70,2))*0.3+(LARGE(J70:L70,1)+LARGE(J70:L70,2))*0.15))</f>
+        <v>0.65949999999999998</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C71" t="s">
         <v>106</v>
       </c>
       <c r="D71" s="5">
-        <v>0.94</v>
+        <v>0.83</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="F71">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>0.46</v>
+        <v>0.65</v>
       </c>
       <c r="H71" s="5">
-        <v>0.49</v>
+        <v>0.61</v>
       </c>
       <c r="I71">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="J71">
-        <v>0.76</v>
+        <v>0.63</v>
       </c>
       <c r="K71">
-        <v>0.46</v>
+        <v>0.75</v>
       </c>
       <c r="L71">
-        <v>0.59</v>
+        <v>0.81</v>
       </c>
       <c r="M71" s="8">
-        <f t="shared" si="1"/>
-        <v>0.65949999999999998</v>
+        <f>(((LARGE(D71:F71,1)+LARGE(D71:F71,2))*0.05+(LARGE(G71:I71,1)+LARGE(G71:I71,2))*0.3+(LARGE(J71:L71,1)+LARGE(J71:L71,2))*0.15))</f>
+        <v>0.69199999999999995</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C72" t="s">
         <v>106</v>
       </c>
       <c r="D72" s="5">
-        <v>0.83</v>
+        <v>0.72</v>
       </c>
       <c r="E72">
-        <v>0.77</v>
+        <v>0.95</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="G72">
         <v>0.65</v>
       </c>
       <c r="H72" s="5">
-        <v>0.61</v>
+        <v>0.3</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="J72">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="K72">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="L72">
-        <v>0.81</v>
+        <v>0.62</v>
       </c>
       <c r="M72" s="8">
-        <f t="shared" si="1"/>
-        <v>0.69199999999999995</v>
+        <f>(((LARGE(D72:F72,1)+LARGE(D72:F72,2))*0.05+(LARGE(G72:I72,1)+LARGE(G72:I72,2))*0.3+(LARGE(J72:L72,1)+LARGE(J72:L72,2))*0.15))</f>
+        <v>0.62200000000000011</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C73" t="s">
         <v>106</v>
       </c>
       <c r="D73" s="5">
-        <v>0.72</v>
+        <v>0.94</v>
       </c>
       <c r="E73">
         <v>0.95</v>
       </c>
       <c r="F73">
-        <v>0.72</v>
+        <v>1</v>
       </c>
       <c r="G73">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="H73" s="5">
-        <v>0.3</v>
+        <v>0.69</v>
       </c>
       <c r="I73">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="J73">
-        <v>0.65</v>
+        <v>0.85</v>
       </c>
       <c r="K73">
-        <v>0.5</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="L73">
-        <v>0.62</v>
+        <v>0.54</v>
       </c>
       <c r="M73" s="8">
-        <f t="shared" si="1"/>
-        <v>0.62200000000000011</v>
+        <f>(((LARGE(D73:F73,1)+LARGE(D73:F73,2))*0.05+(LARGE(G73:I73,1)+LARGE(G73:I73,2))*0.3+(LARGE(J73:L73,1)+LARGE(J73:L73,2))*0.15))</f>
+        <v>0.71400000000000008</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>147</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="C74" t="s">
         <v>106</v>
       </c>
       <c r="D74" s="5">
-        <v>0.94</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="G74">
-        <v>0.66</v>
+        <v>0.7</v>
       </c>
       <c r="H74" s="5">
-        <v>0.69</v>
+        <v>0.65</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74">
-        <v>0.85</v>
+        <v>0.74</v>
       </c>
       <c r="K74">
-        <v>0.56000000000000005</v>
+        <v>0.33</v>
       </c>
       <c r="L74">
-        <v>0.54</v>
+        <v>0.76</v>
       </c>
       <c r="M74" s="8">
-        <f t="shared" si="1"/>
-        <v>0.71400000000000008</v>
+        <f>(((LARGE(D74:F74,1)+LARGE(D74:F74,2))*0.05+(LARGE(G74:I74,1)+LARGE(G74:I74,2))*0.3+(LARGE(J74:L74,1)+LARGE(J74:L74,2))*0.15))</f>
+        <v>0.72450000000000003</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>149</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="C75" t="s">
         <v>106</v>
       </c>
       <c r="D75" s="5">
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="E75">
         <v>0.98</v>
       </c>
       <c r="F75">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="G75">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="H75" s="5">
-        <v>0.65</v>
+        <v>0.53</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="J75">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="K75">
-        <v>0.33</v>
+        <v>0.46</v>
       </c>
       <c r="L75">
         <v>0.76</v>
       </c>
       <c r="M75" s="8">
-        <f t="shared" si="1"/>
-        <v>0.72450000000000003</v>
+        <f>(((LARGE(D75:F75,1)+LARGE(D75:F75,2))*0.05+(LARGE(G75:I75,1)+LARGE(G75:I75,2))*0.3+(LARGE(J75:L75,1)+LARGE(J75:L75,2))*0.15))</f>
+        <v>0.77399999999999991</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>151</v>
+        <v>466</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>152</v>
+        <v>467</v>
       </c>
       <c r="C76" t="s">
         <v>106</v>
       </c>
       <c r="D76" s="5">
-        <v>0.94</v>
+        <v>0</v>
       </c>
       <c r="E76">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="G76">
-        <v>0.68</v>
+        <v>0.35</v>
       </c>
       <c r="H76" s="5">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="J76">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="K76">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="L76">
-        <v>0.76</v>
+        <v>0.7</v>
       </c>
       <c r="M76" s="8">
-        <f t="shared" si="1"/>
-        <v>0.77399999999999991</v>
+        <f>(((LARGE(D76:F76,1)+LARGE(D76:F76,2))*0.05+(LARGE(G76:I76,1)+LARGE(G76:I76,2))*0.3+(LARGE(J76:L76,1)+LARGE(J76:L76,2))*0.15))</f>
+        <v>0.495</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="C77" t="s">
         <v>106</v>
@@ -5146,79 +5146,79 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="H77" s="5">
         <v>0</v>
       </c>
       <c r="I77">
-        <v>0.79</v>
+        <v>0.26</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="K77">
         <v>0</v>
       </c>
       <c r="L77">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="M77" s="8">
-        <f t="shared" si="1"/>
-        <v>0.495</v>
+        <f>(((LARGE(D77:F77,1)+LARGE(D77:F77,2))*0.05+(LARGE(G77:I77,1)+LARGE(G77:I77,2))*0.3+(LARGE(J77:L77,1)+LARGE(J77:L77,2))*0.15))</f>
+        <v>0.19650000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>452</v>
+        <v>153</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>453</v>
+        <v>154</v>
       </c>
       <c r="C78" t="s">
         <v>106</v>
       </c>
       <c r="D78" s="5">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="G78">
-        <v>0.2</v>
+        <v>0.75</v>
       </c>
       <c r="H78" s="5">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="I78">
-        <v>0.26</v>
+        <v>0.74</v>
       </c>
       <c r="J78">
-        <v>0.39</v>
+        <v>0.78</v>
       </c>
       <c r="K78">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="L78">
-        <v>0</v>
+        <v>0.69</v>
       </c>
       <c r="M78" s="8">
-        <f t="shared" si="1"/>
-        <v>0.19650000000000001</v>
+        <f>(((LARGE(D78:F78,1)+LARGE(D78:F78,2))*0.05+(LARGE(G78:I78,1)+LARGE(G78:I78,2))*0.3+(LARGE(J78:L78,1)+LARGE(J78:L78,2))*0.15))</f>
+        <v>0.77200000000000002</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C79" t="s">
         <v>106</v>
@@ -5227,481 +5227,481 @@
         <v>0.97</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="F79">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="G79">
-        <v>0.75</v>
+        <v>0.82</v>
       </c>
       <c r="H79" s="5">
-        <v>0.73</v>
+        <v>0.82</v>
       </c>
       <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
         <v>0.74</v>
       </c>
-      <c r="J79">
-        <v>0.78</v>
-      </c>
       <c r="K79">
-        <v>0.73</v>
+        <v>0.33</v>
       </c>
       <c r="L79">
-        <v>0</v>
+        <v>0.69</v>
       </c>
       <c r="M79" s="8">
-        <f t="shared" si="1"/>
-        <v>0.77200000000000002</v>
+        <f>(((LARGE(D79:F79,1)+LARGE(D79:F79,2))*0.05+(LARGE(G79:I79,1)+LARGE(G79:I79,2))*0.3+(LARGE(J79:L79,1)+LARGE(J79:L79,2))*0.15))</f>
+        <v>0.80399999999999994</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>155</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="C80" t="s">
         <v>106</v>
       </c>
       <c r="D80" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="E80">
+        <v>0.95</v>
+      </c>
+      <c r="F80">
         <v>0.97</v>
       </c>
-      <c r="E80">
-        <v>0.98</v>
-      </c>
-      <c r="F80">
-        <v>0.88</v>
-      </c>
       <c r="G80">
-        <v>0.82</v>
+        <v>0.73</v>
       </c>
       <c r="H80" s="5">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="J80">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="K80">
-        <v>0.33</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="L80">
-        <v>0.69</v>
+        <v>0.6</v>
       </c>
       <c r="M80" s="8">
-        <f t="shared" si="1"/>
-        <v>0.80399999999999994</v>
+        <f>(((LARGE(D80:F80,1)+LARGE(D80:F80,2))*0.05+(LARGE(G80:I80,1)+LARGE(G80:I80,2))*0.3+(LARGE(J80:L80,1)+LARGE(J80:L80,2))*0.15))</f>
+        <v>0.85050000000000003</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>157</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="C81" t="s">
         <v>106</v>
       </c>
       <c r="D81" s="5">
-        <v>0.94</v>
+        <v>0.69</v>
       </c>
       <c r="E81">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F81">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G81">
-        <v>0.73</v>
+        <v>0.54</v>
       </c>
       <c r="H81" s="5">
-        <v>0.86</v>
+        <v>0.69</v>
       </c>
       <c r="I81">
-        <v>0.93</v>
+        <v>0.62</v>
       </c>
       <c r="J81">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="K81">
-        <v>0.56000000000000005</v>
+        <v>0.54</v>
       </c>
       <c r="L81">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="M81" s="8">
-        <f t="shared" si="1"/>
-        <v>0.85050000000000003</v>
+        <f>(((LARGE(D81:F81,1)+LARGE(D81:F81,2))*0.05+(LARGE(G81:I81,1)+LARGE(G81:I81,2))*0.3+(LARGE(J81:L81,1)+LARGE(J81:L81,2))*0.15))</f>
+        <v>0.74500000000000011</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>159</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="C82" t="s">
         <v>106</v>
       </c>
       <c r="D82" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="E82">
+        <v>0.98</v>
+      </c>
+      <c r="F82">
+        <v>0.93</v>
+      </c>
+      <c r="G82">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H82" s="5">
+        <v>0.68</v>
+      </c>
+      <c r="I82">
         <v>0.69</v>
       </c>
-      <c r="E82">
-        <v>0.91</v>
-      </c>
-      <c r="F82">
-        <v>1</v>
-      </c>
-      <c r="G82">
-        <v>0.54</v>
-      </c>
-      <c r="H82" s="5">
-        <v>0.69</v>
-      </c>
-      <c r="I82">
-        <v>0.62</v>
-      </c>
       <c r="J82">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="K82">
-        <v>0.54</v>
+        <v>0.67</v>
       </c>
       <c r="L82">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="M82" s="8">
-        <f t="shared" si="1"/>
-        <v>0.74500000000000011</v>
+        <f>(((LARGE(D82:F82,1)+LARGE(D82:F82,2))*0.05+(LARGE(G82:I82,1)+LARGE(G82:I82,2))*0.3+(LARGE(J82:L82,1)+LARGE(J82:L82,2))*0.15))</f>
+        <v>0.751</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>161</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="C83" t="s">
         <v>106</v>
       </c>
       <c r="D83" s="5">
-        <v>0.92</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E83">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="F83">
-        <v>0.93</v>
+        <v>0.77</v>
       </c>
       <c r="G83">
-        <v>0.55000000000000004</v>
+        <v>0.38</v>
       </c>
       <c r="H83" s="5">
-        <v>0.68</v>
+        <v>0.22</v>
       </c>
       <c r="I83">
-        <v>0.69</v>
+        <v>0.26</v>
       </c>
       <c r="J83">
-        <v>0.83</v>
+        <v>0.65</v>
       </c>
       <c r="K83">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="L83">
-        <v>0.8</v>
+        <v>0.62</v>
       </c>
       <c r="M83" s="8">
-        <f t="shared" si="1"/>
-        <v>0.751</v>
+        <f>(((LARGE(D83:F83,1)+LARGE(D83:F83,2))*0.05+(LARGE(G83:I83,1)+LARGE(G83:I83,2))*0.3+(LARGE(J83:L83,1)+LARGE(J83:L83,2))*0.15))</f>
+        <v>0.45950000000000002</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C84" t="s">
         <v>106</v>
       </c>
       <c r="D84" s="5">
-        <v>0.56000000000000005</v>
+        <v>0.94</v>
       </c>
       <c r="E84">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="F84">
-        <v>0.77</v>
+        <v>0.99</v>
       </c>
       <c r="G84">
-        <v>0.38</v>
+        <v>0.72</v>
       </c>
       <c r="H84" s="5">
-        <v>0.22</v>
+        <v>0.89</v>
       </c>
       <c r="I84">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="J84">
-        <v>0.65</v>
+        <v>0.76</v>
       </c>
       <c r="K84">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="L84">
-        <v>0.62</v>
+        <v>0.59</v>
       </c>
       <c r="M84" s="8">
-        <f t="shared" si="1"/>
-        <v>0.45950000000000002</v>
+        <f>(((LARGE(D84:F84,1)+LARGE(D84:F84,2))*0.05+(LARGE(G84:I84,1)+LARGE(G84:I84,2))*0.3+(LARGE(J84:L84,1)+LARGE(J84:L84,2))*0.15))</f>
+        <v>0.78499999999999992</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C85" t="s">
         <v>106</v>
       </c>
       <c r="D85" s="5">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="F85">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="G85">
-        <v>0.72</v>
+        <v>0.61</v>
       </c>
       <c r="H85" s="5">
-        <v>0.89</v>
+        <v>0.63</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85">
-        <v>0.76</v>
+        <v>0.83</v>
       </c>
       <c r="K85">
-        <v>0.46</v>
+        <v>0.67</v>
       </c>
       <c r="L85">
-        <v>0.59</v>
+        <v>0.82</v>
       </c>
       <c r="M85" s="8">
-        <f t="shared" si="1"/>
-        <v>0.78499999999999992</v>
+        <f>(((LARGE(D85:F85,1)+LARGE(D85:F85,2))*0.05+(LARGE(G85:I85,1)+LARGE(G85:I85,2))*0.3+(LARGE(J85:L85,1)+LARGE(J85:L85,2))*0.15))</f>
+        <v>0.71349999999999991</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C86" t="s">
         <v>106</v>
       </c>
       <c r="D86" s="5">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="E86">
-        <v>0.91</v>
+        <v>0.98</v>
       </c>
       <c r="F86">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="G86">
-        <v>0.61</v>
+        <v>0.72</v>
       </c>
       <c r="H86" s="5">
         <v>0.63</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>0.81</v>
       </c>
       <c r="J86">
-        <v>0.83</v>
+        <v>0.74</v>
       </c>
       <c r="K86">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="L86">
-        <v>0.82</v>
+        <v>0.77</v>
       </c>
       <c r="M86" s="8">
-        <f t="shared" si="1"/>
-        <v>0.71349999999999991</v>
+        <f>(((LARGE(D86:F86,1)+LARGE(D86:F86,2))*0.05+(LARGE(G86:I86,1)+LARGE(G86:I86,2))*0.3+(LARGE(J86:L86,1)+LARGE(J86:L86,2))*0.15))</f>
+        <v>0.78449999999999998</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>171</v>
+        <v>451</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
       <c r="C87" t="s">
         <v>106</v>
       </c>
       <c r="D87" s="5">
-        <v>1</v>
+        <v>0.61</v>
       </c>
       <c r="E87">
         <v>0.98</v>
       </c>
       <c r="F87">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="G87">
-        <v>0.72</v>
+        <v>0.62</v>
       </c>
       <c r="H87" s="5">
-        <v>0.63</v>
+        <v>0.3</v>
       </c>
       <c r="I87">
-        <v>0.81</v>
+        <v>0</v>
       </c>
       <c r="J87">
         <v>0.74</v>
       </c>
       <c r="K87">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="L87">
-        <v>0.77</v>
+        <v>0.69</v>
       </c>
       <c r="M87" s="8">
-        <f t="shared" si="1"/>
-        <v>0.78449999999999998</v>
+        <f>(((LARGE(D87:F87,1)+LARGE(D87:F87,2))*0.05+(LARGE(G87:I87,1)+LARGE(G87:I87,2))*0.3+(LARGE(J87:L87,1)+LARGE(J87:L87,2))*0.15))</f>
+        <v>0.58799999999999997</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>451</v>
+        <v>68</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="C88" t="s">
         <v>106</v>
       </c>
       <c r="D88" s="5">
-        <v>0.61</v>
+        <v>0.94</v>
       </c>
       <c r="E88">
-        <v>0.98</v>
+        <v>0.86</v>
       </c>
       <c r="F88">
-        <v>0.97</v>
+        <v>0.77</v>
       </c>
       <c r="G88">
-        <v>0.62</v>
+        <v>0.7</v>
       </c>
       <c r="H88" s="5">
-        <v>0.3</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88">
-        <v>0.74</v>
+        <v>0.65</v>
       </c>
       <c r="K88">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="L88">
-        <v>0.69</v>
+        <v>0</v>
       </c>
       <c r="M88" s="8">
-        <f t="shared" si="1"/>
-        <v>0.58799999999999997</v>
+        <f>(((LARGE(D88:F88,1)+LARGE(D88:F88,2))*0.05+(LARGE(G88:I88,1)+LARGE(G88:I88,2))*0.3+(LARGE(J88:L88,1)+LARGE(J88:L88,2))*0.15))</f>
+        <v>0.64649999999999996</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>68</v>
+        <v>174</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C89" t="s">
         <v>106</v>
       </c>
       <c r="D89" s="5">
-        <v>0.94</v>
+        <v>0.53</v>
       </c>
       <c r="E89">
-        <v>0.86</v>
+        <v>0.74</v>
       </c>
       <c r="F89">
-        <v>0.77</v>
+        <v>0.59</v>
       </c>
       <c r="G89">
-        <v>0.7</v>
+        <v>0.51</v>
       </c>
       <c r="H89" s="5">
-        <v>0.57999999999999996</v>
+        <v>0.32</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89">
-        <v>0.65</v>
+        <v>0.74</v>
       </c>
       <c r="K89">
-        <v>0.5</v>
+        <v>0.69</v>
       </c>
       <c r="L89">
         <v>0</v>
       </c>
       <c r="M89" s="8">
-        <f t="shared" si="1"/>
-        <v>0.64649999999999996</v>
+        <f>(((LARGE(D89:F89,1)+LARGE(D89:F89,2))*0.05+(LARGE(G89:I89,1)+LARGE(G89:I89,2))*0.3+(LARGE(J89:L89,1)+LARGE(J89:L89,2))*0.15))</f>
+        <v>0.53</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C90" t="s">
         <v>106</v>
       </c>
       <c r="D90" s="5">
-        <v>0.53</v>
+        <v>0.81</v>
       </c>
       <c r="E90">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
       <c r="F90">
-        <v>0.59</v>
+        <v>0.73</v>
       </c>
       <c r="G90">
-        <v>0.51</v>
+        <v>0.63</v>
       </c>
       <c r="H90" s="5">
-        <v>0.32</v>
+        <v>0.44</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="J90">
         <v>0.74</v>
@@ -5710,124 +5710,124 @@
         <v>0.69</v>
       </c>
       <c r="L90">
-        <v>0</v>
+        <v>0.69</v>
       </c>
       <c r="M90" s="8">
-        <f t="shared" si="1"/>
-        <v>0.53</v>
+        <f>(((LARGE(D90:F90,1)+LARGE(D90:F90,2))*0.05+(LARGE(G90:I90,1)+LARGE(G90:I90,2))*0.3+(LARGE(J90:L90,1)+LARGE(J90:L90,2))*0.15))</f>
+        <v>0.6845</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C91" t="s">
         <v>106</v>
       </c>
       <c r="D91" s="5">
-        <v>0.81</v>
+        <v>0.72</v>
       </c>
       <c r="E91">
-        <v>0.72</v>
+        <v>0.95</v>
       </c>
       <c r="F91">
-        <v>0.73</v>
+        <v>0.93</v>
       </c>
       <c r="G91">
-        <v>0.63</v>
+        <v>0.52</v>
       </c>
       <c r="H91" s="5">
-        <v>0.44</v>
+        <v>0.53</v>
       </c>
       <c r="I91">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="J91">
-        <v>0.74</v>
+        <v>0.89</v>
       </c>
       <c r="K91">
-        <v>0.69</v>
+        <v>0.54</v>
       </c>
       <c r="L91">
-        <v>0.69</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="M91" s="8">
-        <f t="shared" si="1"/>
-        <v>0.6845</v>
+        <f>(((LARGE(D91:F91,1)+LARGE(D91:F91,2))*0.05+(LARGE(G91:I91,1)+LARGE(G91:I91,2))*0.3+(LARGE(J91:L91,1)+LARGE(J91:L91,2))*0.15))</f>
+        <v>0.628</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C92" t="s">
         <v>106</v>
       </c>
       <c r="D92" s="5">
-        <v>0.72</v>
+        <v>0.81</v>
       </c>
       <c r="E92">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F92">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="G92">
-        <v>0.52</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H92" s="5">
-        <v>0.53</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="J92">
-        <v>0.89</v>
+        <v>0.63</v>
       </c>
       <c r="K92">
-        <v>0.54</v>
+        <v>0.75</v>
       </c>
       <c r="L92">
-        <v>0.56999999999999995</v>
+        <v>0.81</v>
       </c>
       <c r="M92" s="8">
-        <f t="shared" si="1"/>
-        <v>0.628</v>
+        <f>(((LARGE(D92:F92,1)+LARGE(D92:F92,2))*0.05+(LARGE(G92:I92,1)+LARGE(G92:I92,2))*0.3+(LARGE(J92:L92,1)+LARGE(J92:L92,2))*0.15))</f>
+        <v>0.66549999999999998</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C93" t="s">
         <v>106</v>
       </c>
       <c r="D93" s="5">
-        <v>0.81</v>
+        <v>0.94</v>
       </c>
       <c r="E93">
         <v>0.93</v>
       </c>
       <c r="F93">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="G93">
-        <v>0.56000000000000005</v>
+        <v>0.62</v>
       </c>
       <c r="H93" s="5">
-        <v>0.55000000000000004</v>
+        <v>0.51</v>
       </c>
       <c r="I93">
-        <v>0.56999999999999995</v>
+        <v>0.78</v>
       </c>
       <c r="J93">
         <v>0.63</v>
@@ -5836,103 +5836,103 @@
         <v>0.75</v>
       </c>
       <c r="L93">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="M93" s="8">
-        <f t="shared" si="1"/>
-        <v>0.66549999999999998</v>
+        <f>(((LARGE(D93:F93,1)+LARGE(D93:F93,2))*0.05+(LARGE(G93:I93,1)+LARGE(G93:I93,2))*0.3+(LARGE(J93:L93,1)+LARGE(J93:L93,2))*0.15))</f>
+        <v>0.74899999999999989</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>182</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="C94" t="s">
         <v>106</v>
       </c>
       <c r="D94" s="5">
-        <v>0.94</v>
+        <v>0.86</v>
       </c>
       <c r="E94">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F94">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="G94">
-        <v>0.62</v>
+        <v>0.7</v>
       </c>
       <c r="H94" s="5">
-        <v>0.51</v>
+        <v>0.66</v>
       </c>
       <c r="I94">
         <v>0.78</v>
       </c>
       <c r="J94">
-        <v>0.63</v>
+        <v>0.74</v>
       </c>
       <c r="K94">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="L94">
-        <v>0.82</v>
+        <v>0.73</v>
       </c>
       <c r="M94" s="8">
-        <f t="shared" si="1"/>
-        <v>0.74899999999999989</v>
+        <f>(((LARGE(D94:F94,1)+LARGE(D94:F94,2))*0.05+(LARGE(G94:I94,1)+LARGE(G94:I94,2))*0.3+(LARGE(J94:L94,1)+LARGE(J94:L94,2))*0.15))</f>
+        <v>0.76200000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>184</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="C95" t="s">
         <v>106</v>
       </c>
       <c r="D95" s="5">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="E95">
         <v>0.95</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="G95">
-        <v>0.7</v>
+        <v>0.32</v>
       </c>
       <c r="H95" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="I95">
         <v>0.66</v>
       </c>
-      <c r="I95">
-        <v>0.78</v>
-      </c>
       <c r="J95">
-        <v>0.74</v>
+        <v>0.65</v>
       </c>
       <c r="K95">
-        <v>0.71</v>
+        <v>0.5</v>
       </c>
       <c r="L95">
-        <v>0.73</v>
+        <v>0.66</v>
       </c>
       <c r="M95" s="8">
-        <f t="shared" si="1"/>
-        <v>0.76200000000000001</v>
+        <f>(((LARGE(D95:F95,1)+LARGE(D95:F95,2))*0.05+(LARGE(G95:I95,1)+LARGE(G95:I95,2))*0.3+(LARGE(J95:L95,1)+LARGE(J95:L95,2))*0.15))</f>
+        <v>0.61699999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>186</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="C96" t="s">
         <v>106</v>
@@ -5941,100 +5941,100 @@
         <v>0.75</v>
       </c>
       <c r="E96">
-        <v>0.95</v>
+        <v>0.7</v>
       </c>
       <c r="F96">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="G96">
-        <v>0.32</v>
+        <v>0.51</v>
       </c>
       <c r="H96" s="5">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="I96">
-        <v>0.66</v>
+        <v>0.63</v>
       </c>
       <c r="J96">
-        <v>0.65</v>
+        <v>0.74</v>
       </c>
       <c r="K96">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="L96">
-        <v>0.66</v>
+        <v>0.82</v>
       </c>
       <c r="M96" s="8">
-        <f t="shared" si="1"/>
-        <v>0.61699999999999999</v>
+        <f>(((LARGE(D96:F96,1)+LARGE(D96:F96,2))*0.05+(LARGE(G96:I96,1)+LARGE(G96:I96,2))*0.3+(LARGE(J96:L96,1)+LARGE(J96:L96,2))*0.15))</f>
+        <v>0.67349999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C97" t="s">
         <v>106</v>
       </c>
       <c r="D97" s="5">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="E97">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
       <c r="F97">
-        <v>0.72</v>
+        <v>0.85</v>
       </c>
       <c r="G97">
-        <v>0.51</v>
+        <v>0.69</v>
       </c>
       <c r="H97" s="5">
-        <v>0.59</v>
+        <v>0.84</v>
       </c>
       <c r="I97">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="J97">
-        <v>0.74</v>
+        <v>0.83</v>
       </c>
       <c r="K97">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="L97">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="M97" s="8">
-        <f t="shared" si="1"/>
-        <v>0.67349999999999999</v>
+        <f>(((LARGE(D97:F97,1)+LARGE(D97:F97,2))*0.05+(LARGE(G97:I97,1)+LARGE(G97:I97,2))*0.3+(LARGE(J97:L97,1)+LARGE(J97:L97,2))*0.15))</f>
+        <v>0.79549999999999987</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>190</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="C98" t="s">
         <v>106</v>
       </c>
       <c r="D98" s="5">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="E98">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="F98">
-        <v>0.85</v>
+        <v>0.92</v>
       </c>
       <c r="G98">
-        <v>0.69</v>
+        <v>0.72</v>
       </c>
       <c r="H98" s="5">
-        <v>0.84</v>
+        <v>0.66</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -6046,103 +6046,103 @@
         <v>0.67</v>
       </c>
       <c r="L98">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="M98" s="8">
-        <f t="shared" si="1"/>
-        <v>0.79549999999999987</v>
+        <f>(((LARGE(D98:F98,1)+LARGE(D98:F98,2))*0.05+(LARGE(G98:I98,1)+LARGE(G98:I98,2))*0.3+(LARGE(J98:L98,1)+LARGE(J98:L98,2))*0.15))</f>
+        <v>0.7599999999999999</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
       </c>
       <c r="D99" s="5">
-        <v>0.97</v>
+        <v>0.81</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="F99">
-        <v>0.92</v>
+        <v>0.77</v>
       </c>
       <c r="G99">
-        <v>0.72</v>
+        <v>0.69</v>
       </c>
       <c r="H99" s="5">
-        <v>0.66</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="J99">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="K99">
-        <v>0.67</v>
+        <v>0.73</v>
       </c>
       <c r="L99">
-        <v>0.82</v>
+        <v>0.69</v>
       </c>
       <c r="M99" s="8">
-        <f t="shared" si="1"/>
-        <v>0.7599999999999999</v>
+        <f>(((LARGE(D99:F99,1)+LARGE(D99:F99,2))*0.05+(LARGE(G99:I99,1)+LARGE(G99:I99,2))*0.3+(LARGE(J99:L99,1)+LARGE(J99:L99,2))*0.15))</f>
+        <v>0.69249999999999989</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>196</v>
+        <v>450</v>
       </c>
       <c r="C100" t="s">
         <v>106</v>
       </c>
       <c r="D100" s="5">
-        <v>0.81</v>
+        <v>0.94</v>
       </c>
       <c r="E100">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F100">
-        <v>0.77</v>
+        <v>0.86</v>
       </c>
       <c r="G100">
-        <v>0.69</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H100" s="5">
         <v>0.56999999999999995</v>
       </c>
       <c r="I100">
-        <v>0.34</v>
+        <v>0.87</v>
       </c>
       <c r="J100">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="K100">
-        <v>0.73</v>
+        <v>0.46</v>
       </c>
       <c r="L100">
-        <v>0.69</v>
+        <v>0.74</v>
       </c>
       <c r="M100" s="8">
-        <f t="shared" si="1"/>
-        <v>0.69249999999999989</v>
+        <f>(((LARGE(D100:F100,1)+LARGE(D100:F100,2))*0.05+(LARGE(G100:I100,1)+LARGE(G100:I100,2))*0.3+(LARGE(J100:L100,1)+LARGE(J100:L100,2))*0.15))</f>
+        <v>0.75249999999999995</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>450</v>
+        <v>199</v>
       </c>
       <c r="C101" t="s">
         <v>106</v>
@@ -6151,744 +6151,744 @@
         <v>0.94</v>
       </c>
       <c r="E101">
-        <v>0.91</v>
+        <v>0.98</v>
       </c>
       <c r="F101">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="G101">
-        <v>0.57999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="H101" s="5">
-        <v>0.56999999999999995</v>
+        <v>0.64</v>
       </c>
       <c r="I101">
-        <v>0.87</v>
+        <v>0.38</v>
       </c>
       <c r="J101">
-        <v>0.76</v>
+        <v>0.85</v>
       </c>
       <c r="K101">
-        <v>0.46</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="L101">
-        <v>0.74</v>
+        <v>0.6</v>
       </c>
       <c r="M101" s="8">
-        <f t="shared" si="1"/>
-        <v>0.75249999999999995</v>
+        <f>(((LARGE(D101:F101,1)+LARGE(D101:F101,2))*0.05+(LARGE(G101:I101,1)+LARGE(G101:I101,2))*0.3+(LARGE(J101:L101,1)+LARGE(J101:L101,2))*0.15))</f>
+        <v>0.71550000000000002</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C102" t="s">
         <v>106</v>
       </c>
       <c r="D102" s="5">
-        <v>0.94</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E102">
-        <v>0.98</v>
+        <v>0.84</v>
       </c>
       <c r="F102">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="G102">
-        <v>0.7</v>
+        <v>0.59</v>
       </c>
       <c r="H102" s="5">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="I102">
-        <v>0.38</v>
+        <v>0.76</v>
       </c>
       <c r="J102">
-        <v>0.85</v>
+        <v>0.74</v>
       </c>
       <c r="K102">
-        <v>0.56000000000000005</v>
+        <v>0.69</v>
       </c>
       <c r="L102">
-        <v>0.6</v>
+        <v>0.81</v>
       </c>
       <c r="M102" s="8">
-        <f t="shared" si="1"/>
-        <v>0.71550000000000002</v>
+        <f>(((LARGE(D102:F102,1)+LARGE(D102:F102,2))*0.05+(LARGE(G102:I102,1)+LARGE(G102:I102,2))*0.3+(LARGE(J102:L102,1)+LARGE(J102:L102,2))*0.15))</f>
+        <v>0.72700000000000009</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C103" t="s">
-        <v>106</v>
+        <v>203</v>
       </c>
       <c r="D103" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="E103">
+        <v>0.86</v>
+      </c>
+      <c r="F103">
+        <v>0.92</v>
+      </c>
+      <c r="G103">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E103">
-        <v>0.84</v>
-      </c>
-      <c r="F103">
-        <v>0.95</v>
-      </c>
-      <c r="G103">
-        <v>0.59</v>
-      </c>
       <c r="H103" s="5">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="I103">
-        <v>0.76</v>
+        <v>0.66</v>
       </c>
       <c r="J103">
-        <v>0.74</v>
+        <v>0.46</v>
       </c>
       <c r="K103">
-        <v>0.69</v>
+        <v>0.46</v>
       </c>
       <c r="L103">
-        <v>0.81</v>
+        <v>0.71</v>
       </c>
       <c r="M103" s="8">
-        <f t="shared" si="1"/>
-        <v>0.72700000000000009</v>
+        <f>(((LARGE(D103:F103,1)+LARGE(D103:F103,2))*0.05+(LARGE(G103:I103,1)+LARGE(G103:I103,2))*0.3+(LARGE(J103:L103,1)+LARGE(J103:L103,2))*0.15))</f>
+        <v>0.65300000000000002</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C104" t="s">
         <v>203</v>
       </c>
       <c r="D104" s="5">
-        <v>0.89</v>
+        <v>0.94</v>
       </c>
       <c r="E104">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="F104">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="G104">
-        <v>0.57999999999999996</v>
+        <v>0.51</v>
       </c>
       <c r="H104" s="5">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="I104">
-        <v>0.66</v>
+        <v>0.78</v>
       </c>
       <c r="J104">
-        <v>0.46</v>
+        <v>0.69</v>
       </c>
       <c r="K104">
-        <v>0.46</v>
+        <v>0.85</v>
       </c>
       <c r="L104">
-        <v>0.71</v>
+        <v>0.85</v>
       </c>
       <c r="M104" s="8">
-        <f t="shared" si="1"/>
-        <v>0.65300000000000002</v>
+        <f>(((LARGE(D104:F104,1)+LARGE(D104:F104,2))*0.05+(LARGE(G104:I104,1)+LARGE(G104:I104,2))*0.3+(LARGE(J104:L104,1)+LARGE(J104:L104,2))*0.15))</f>
+        <v>0.77850000000000008</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>205</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="C105" t="s">
         <v>203</v>
       </c>
       <c r="D105" s="5">
-        <v>0.94</v>
+        <v>0.75</v>
       </c>
       <c r="E105">
+        <v>0.91</v>
+      </c>
+      <c r="F105">
         <v>0.95</v>
       </c>
-      <c r="F105">
-        <v>0.93</v>
-      </c>
       <c r="G105">
-        <v>0.51</v>
+        <v>0.66</v>
       </c>
       <c r="H105" s="5">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
       <c r="I105">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="J105">
         <v>0.69</v>
       </c>
       <c r="K105">
-        <v>0.85</v>
+        <v>0.46</v>
       </c>
       <c r="L105">
         <v>0.85</v>
       </c>
       <c r="M105" s="8">
-        <f t="shared" si="1"/>
-        <v>0.77850000000000008</v>
+        <f>(((LARGE(D105:F105,1)+LARGE(D105:F105,2))*0.05+(LARGE(G105:I105,1)+LARGE(G105:I105,2))*0.3+(LARGE(J105:L105,1)+LARGE(J105:L105,2))*0.15))</f>
+        <v>0.72599999999999998</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>207</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="C106" t="s">
         <v>203</v>
       </c>
       <c r="D106" s="5">
-        <v>0.75</v>
+        <v>0.97</v>
       </c>
       <c r="E106">
+        <v>0.86</v>
+      </c>
+      <c r="F106">
         <v>0.91</v>
       </c>
-      <c r="F106">
-        <v>0.95</v>
-      </c>
       <c r="G106">
-        <v>0.66</v>
+        <v>0.54</v>
       </c>
       <c r="H106" s="5">
-        <v>0.68</v>
+        <v>0.38</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="J106">
         <v>0.69</v>
       </c>
       <c r="K106">
-        <v>0.46</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="L106">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="M106" s="8">
-        <f t="shared" si="1"/>
-        <v>0.72599999999999998</v>
+        <f>(((LARGE(D106:F106,1)+LARGE(D106:F106,2))*0.05+(LARGE(G106:I106,1)+LARGE(G106:I106,2))*0.3+(LARGE(J106:L106,1)+LARGE(J106:L106,2))*0.15))</f>
+        <v>0.71650000000000003</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C107" t="s">
         <v>203</v>
       </c>
       <c r="D107" s="5">
-        <v>0.97</v>
+        <v>0.75</v>
       </c>
       <c r="E107">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="F107">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G107">
-        <v>0.54</v>
+        <v>0.43</v>
       </c>
       <c r="H107" s="5">
-        <v>0.38</v>
+        <v>0.46</v>
       </c>
       <c r="I107">
-        <v>0.91</v>
+        <v>0.78</v>
       </c>
       <c r="J107">
         <v>0.69</v>
       </c>
       <c r="K107">
-        <v>0.56000000000000005</v>
+        <v>0.46</v>
       </c>
       <c r="L107">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="M107" s="8">
-        <f t="shared" si="1"/>
-        <v>0.71650000000000003</v>
+        <f>(((LARGE(D107:F107,1)+LARGE(D107:F107,2))*0.05+(LARGE(G107:I107,1)+LARGE(G107:I107,2))*0.3+(LARGE(J107:L107,1)+LARGE(J107:L107,2))*0.15))</f>
+        <v>0.64200000000000002</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C108" t="s">
         <v>203</v>
       </c>
       <c r="D108" s="5">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="E108">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="G108">
-        <v>0.43</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H108" s="5">
-        <v>0.46</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="I108">
-        <v>0.78</v>
+        <v>0.24</v>
       </c>
       <c r="J108">
-        <v>0.69</v>
+        <v>0.87</v>
       </c>
       <c r="K108">
-        <v>0.46</v>
+        <v>0.77</v>
       </c>
       <c r="L108">
-        <v>0.46</v>
+        <v>0.85</v>
       </c>
       <c r="M108" s="8">
-        <f t="shared" si="1"/>
-        <v>0.64200000000000002</v>
+        <f>(((LARGE(D108:F108,1)+LARGE(D108:F108,2))*0.05+(LARGE(G108:I108,1)+LARGE(G108:I108,2))*0.3+(LARGE(J108:L108,1)+LARGE(J108:L108,2))*0.15))</f>
+        <v>0.69499999999999995</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C109" t="s">
         <v>203</v>
       </c>
       <c r="D109" s="5">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="E109">
-        <v>0.98</v>
+        <v>0.88</v>
       </c>
       <c r="F109">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="G109">
-        <v>0.56999999999999995</v>
+        <v>0.7</v>
       </c>
       <c r="H109" s="5">
-        <v>0.56999999999999995</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>0.24</v>
+        <v>0.79</v>
       </c>
       <c r="J109">
-        <v>0.87</v>
+        <v>0.46</v>
       </c>
       <c r="K109">
-        <v>0.77</v>
+        <v>0.46</v>
       </c>
       <c r="L109">
-        <v>0.85</v>
+        <v>0.65</v>
       </c>
       <c r="M109" s="8">
-        <f t="shared" si="1"/>
-        <v>0.69499999999999995</v>
+        <f>(((LARGE(D109:F109,1)+LARGE(D109:F109,2))*0.05+(LARGE(G109:I109,1)+LARGE(G109:I109,2))*0.3+(LARGE(J109:L109,1)+LARGE(J109:L109,2))*0.15))</f>
+        <v>0.70599999999999996</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>215</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>216</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="B110" s="2"/>
       <c r="C110" t="s">
         <v>203</v>
       </c>
       <c r="D110" s="5">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="E110">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="G110">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="H110" s="5">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="I110">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
       <c r="J110">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="K110">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="L110">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="M110" s="8">
-        <f t="shared" si="1"/>
-        <v>0.70599999999999996</v>
+        <f>(((LARGE(D110:F110,1)+LARGE(D110:F110,2))*0.05+(LARGE(G110:I110,1)+LARGE(G110:I110,2))*0.3+(LARGE(J110:L110,1)+LARGE(J110:L110,2))*0.15))</f>
+        <v>0.34199999999999997</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>468</v>
-      </c>
-      <c r="B111" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>218</v>
+      </c>
       <c r="C111" t="s">
         <v>203</v>
       </c>
       <c r="D111" s="5">
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H111" s="5">
-        <v>0.32</v>
+        <v>0.79</v>
       </c>
       <c r="I111">
-        <v>0.82</v>
+        <v>0.69</v>
       </c>
       <c r="J111">
-        <v>0</v>
+        <v>0.69</v>
       </c>
       <c r="K111">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="L111">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="M111" s="8">
-        <f t="shared" si="1"/>
-        <v>0.34199999999999997</v>
+        <f>(((LARGE(D111:F111,1)+LARGE(D111:F111,2))*0.05+(LARGE(G111:I111,1)+LARGE(G111:I111,2))*0.3+(LARGE(J111:L111,1)+LARGE(J111:L111,2))*0.15))</f>
+        <v>0.79249999999999998</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C112" t="s">
         <v>203</v>
       </c>
       <c r="D112" s="5">
-        <v>0.94</v>
+        <v>0.97</v>
       </c>
       <c r="E112">
         <v>0.93</v>
       </c>
       <c r="F112">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="G112">
-        <v>0.57999999999999996</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H112" s="5">
-        <v>0.79</v>
+        <v>0.37</v>
       </c>
       <c r="I112">
-        <v>0.69</v>
+        <v>0.76</v>
       </c>
       <c r="J112">
         <v>0.69</v>
       </c>
       <c r="K112">
-        <v>0.85</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="L112">
-        <v>0.85</v>
+        <v>0.47</v>
       </c>
       <c r="M112" s="8">
-        <f t="shared" si="1"/>
-        <v>0.79249999999999998</v>
+        <f>(((LARGE(D112:F112,1)+LARGE(D112:F112,2))*0.05+(LARGE(G112:I112,1)+LARGE(G112:I112,2))*0.3+(LARGE(J112:L112,1)+LARGE(J112:L112,2))*0.15))</f>
+        <v>0.68149999999999999</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C113" t="s">
         <v>203</v>
       </c>
       <c r="D113" s="5">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="E113">
-        <v>0.93</v>
+        <v>0.84</v>
       </c>
       <c r="F113">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="G113">
         <v>0.56999999999999995</v>
       </c>
       <c r="H113" s="5">
-        <v>0.37</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="I113">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="J113">
-        <v>0.69</v>
+        <v>0.46</v>
       </c>
       <c r="K113">
-        <v>0.56000000000000005</v>
+        <v>0.46</v>
       </c>
       <c r="L113">
-        <v>0.47</v>
+        <v>0.68</v>
       </c>
       <c r="M113" s="8">
-        <f t="shared" si="1"/>
-        <v>0.68149999999999999</v>
+        <f>(((LARGE(D113:F113,1)+LARGE(D113:F113,2))*0.05+(LARGE(G113:I113,1)+LARGE(G113:I113,2))*0.3+(LARGE(J113:L113,1)+LARGE(J113:L113,2))*0.15))</f>
+        <v>0.59650000000000003</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C114" t="s">
         <v>203</v>
       </c>
       <c r="D114" s="5">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="E114">
-        <v>0.84</v>
+        <v>0.98</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>0.81</v>
       </c>
       <c r="G114">
-        <v>0.56999999999999995</v>
+        <v>0.45</v>
       </c>
       <c r="H114" s="5">
-        <v>0.56000000000000005</v>
+        <v>0.34</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="J114">
-        <v>0.46</v>
+        <v>0.83</v>
       </c>
       <c r="K114">
-        <v>0.46</v>
+        <v>0.63</v>
       </c>
       <c r="L114">
-        <v>0.68</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="M114" s="8">
-        <f t="shared" si="1"/>
-        <v>0.59650000000000003</v>
+        <f>(((LARGE(D114:F114,1)+LARGE(D114:F114,2))*0.05+(LARGE(G114:I114,1)+LARGE(G114:I114,2))*0.3+(LARGE(J114:L114,1)+LARGE(J114:L114,2))*0.15))</f>
+        <v>0.67749999999999999</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>223</v>
+        <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C115" t="s">
         <v>203</v>
       </c>
       <c r="D115" s="5">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="E115">
-        <v>0.98</v>
+        <v>0.88</v>
       </c>
       <c r="F115">
-        <v>0.81</v>
+        <v>0.93</v>
       </c>
       <c r="G115">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="H115" s="5">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="I115">
+        <v>0.62</v>
+      </c>
+      <c r="J115">
         <v>0.78</v>
       </c>
-      <c r="J115">
-        <v>0.83</v>
-      </c>
       <c r="K115">
-        <v>0.63</v>
+        <v>0.52</v>
       </c>
       <c r="L115">
-        <v>0.55000000000000004</v>
+        <v>0.77</v>
       </c>
       <c r="M115" s="8">
-        <f t="shared" si="1"/>
-        <v>0.67749999999999999</v>
+        <f>(((LARGE(D115:F115,1)+LARGE(D115:F115,2))*0.05+(LARGE(G115:I115,1)+LARGE(G115:I115,2))*0.3+(LARGE(J115:L115,1)+LARGE(J115:L115,2))*0.15))</f>
+        <v>0.63800000000000001</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>114</v>
+        <v>226</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C116" t="s">
         <v>203</v>
       </c>
       <c r="D116" s="5">
-        <v>0.78</v>
+        <v>0.92</v>
       </c>
       <c r="E116">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="F116">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="G116">
-        <v>0.43</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H116" s="5">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="I116">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="J116">
-        <v>0.78</v>
+        <v>0.65</v>
       </c>
       <c r="K116">
-        <v>0.52</v>
+        <v>0.67</v>
       </c>
       <c r="L116">
-        <v>0.77</v>
+        <v>0.64</v>
       </c>
       <c r="M116" s="8">
-        <f t="shared" si="1"/>
-        <v>0.63800000000000001</v>
+        <f>(((LARGE(D116:F116,1)+LARGE(D116:F116,2))*0.05+(LARGE(G116:I116,1)+LARGE(G116:I116,2))*0.3+(LARGE(J116:L116,1)+LARGE(J116:L116,2))*0.15))</f>
+        <v>0.61150000000000004</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C117" t="s">
         <v>203</v>
       </c>
       <c r="D117" s="5">
-        <v>0.92</v>
+        <v>0.78</v>
       </c>
       <c r="E117">
+        <v>0.84</v>
+      </c>
+      <c r="F117">
         <v>0.93</v>
       </c>
-      <c r="F117">
-        <v>0.91</v>
-      </c>
       <c r="G117">
-        <v>0.55000000000000004</v>
+        <v>0.36</v>
       </c>
       <c r="H117" s="5">
-        <v>0.52</v>
+        <v>0.42</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="J117">
-        <v>0.65</v>
+        <v>0.74</v>
       </c>
       <c r="K117">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="L117">
-        <v>0.64</v>
+        <v>0.54</v>
       </c>
       <c r="M117" s="8">
-        <f t="shared" si="1"/>
-        <v>0.61150000000000004</v>
+        <f>(((LARGE(D117:F117,1)+LARGE(D117:F117,2))*0.05+(LARGE(G117:I117,1)+LARGE(G117:I117,2))*0.3+(LARGE(J117:L117,1)+LARGE(J117:L117,2))*0.15))</f>
+        <v>0.63</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>228</v>
+        <v>118</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>229</v>
+        <v>119</v>
       </c>
       <c r="C118" t="s">
         <v>203</v>
       </c>
       <c r="D118" s="5">
-        <v>0.78</v>
+        <v>0.92</v>
       </c>
       <c r="E118">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="F118">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="G118">
-        <v>0.36</v>
+        <v>0.59</v>
       </c>
       <c r="H118" s="5">
-        <v>0.42</v>
+        <v>0.47</v>
       </c>
       <c r="I118">
-        <v>0.66</v>
+        <v>0.53</v>
       </c>
       <c r="J118">
-        <v>0.74</v>
+        <v>0.87</v>
       </c>
       <c r="K118">
-        <v>0.71</v>
+        <v>0.77</v>
       </c>
       <c r="L118">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
       <c r="M118" s="8">
-        <f t="shared" si="1"/>
-        <v>0.63</v>
+        <f>(((LARGE(D118:F118,1)+LARGE(D118:F118,2))*0.05+(LARGE(G118:I118,1)+LARGE(G118:I118,2))*0.3+(LARGE(J118:L118,1)+LARGE(J118:L118,2))*0.15))</f>
+        <v>0.67800000000000005</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -6929,7 +6929,7 @@
         <v>0.78</v>
       </c>
       <c r="M119" s="8">
-        <f t="shared" si="1"/>
+        <f>(((LARGE(D119:F119,1)+LARGE(D119:F119,2))*0.05+(LARGE(G119:I119,1)+LARGE(G119:I119,2))*0.3+(LARGE(J119:L119,1)+LARGE(J119:L119,2))*0.15))</f>
         <v>0.61550000000000005</v>
       </c>
     </row>
@@ -6971,7 +6971,7 @@
         <v>0.78</v>
       </c>
       <c r="M120" s="8">
-        <f t="shared" si="1"/>
+        <f>(((LARGE(D120:F120,1)+LARGE(D120:F120,2))*0.05+(LARGE(G120:I120,1)+LARGE(G120:I120,2))*0.3+(LARGE(J120:L120,1)+LARGE(J120:L120,2))*0.15))</f>
         <v>0.64949999999999997</v>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
         <v>0.53</v>
       </c>
       <c r="M121" s="8">
-        <f t="shared" si="1"/>
+        <f>(((LARGE(D121:F121,1)+LARGE(D121:F121,2))*0.05+(LARGE(G121:I121,1)+LARGE(G121:I121,2))*0.3+(LARGE(J121:L121,1)+LARGE(J121:L121,2))*0.15))</f>
         <v>0.69650000000000001</v>
       </c>
     </row>
@@ -7055,7 +7055,7 @@
         <v>0.39</v>
       </c>
       <c r="M122" s="8">
-        <f t="shared" si="1"/>
+        <f>(((LARGE(D122:F122,1)+LARGE(D122:F122,2))*0.05+(LARGE(G122:I122,1)+LARGE(G122:I122,2))*0.3+(LARGE(J122:L122,1)+LARGE(J122:L122,2))*0.15))</f>
         <v>0.64300000000000002</v>
       </c>
     </row>
@@ -7097,7 +7097,7 @@
         <v>0.76</v>
       </c>
       <c r="M123" s="8">
-        <f t="shared" si="1"/>
+        <f>(((LARGE(D123:F123,1)+LARGE(D123:F123,2))*0.05+(LARGE(G123:I123,1)+LARGE(G123:I123,2))*0.3+(LARGE(J123:L123,1)+LARGE(J123:L123,2))*0.15))</f>
         <v>0.72799999999999998</v>
       </c>
     </row>
@@ -7139,7 +7139,7 @@
         <v>0.76</v>
       </c>
       <c r="M124" s="8">
-        <f t="shared" si="1"/>
+        <f>(((LARGE(D124:F124,1)+LARGE(D124:F124,2))*0.05+(LARGE(G124:I124,1)+LARGE(G124:I124,2))*0.3+(LARGE(J124:L124,1)+LARGE(J124:L124,2))*0.15))</f>
         <v>0.68099999999999994</v>
       </c>
     </row>
@@ -7181,7 +7181,7 @@
         <v>0.72</v>
       </c>
       <c r="M125" s="8">
-        <f t="shared" si="1"/>
+        <f>(((LARGE(D125:F125,1)+LARGE(D125:F125,2))*0.05+(LARGE(G125:I125,1)+LARGE(G125:I125,2))*0.3+(LARGE(J125:L125,1)+LARGE(J125:L125,2))*0.15))</f>
         <v>0.8274999999999999</v>
       </c>
     </row>
@@ -7223,7 +7223,7 @@
         <v>0</v>
       </c>
       <c r="M126" s="8">
-        <f t="shared" si="1"/>
+        <f>(((LARGE(D126:F126,1)+LARGE(D126:F126,2))*0.05+(LARGE(G126:I126,1)+LARGE(G126:I126,2))*0.3+(LARGE(J126:L126,1)+LARGE(J126:L126,2))*0.15))</f>
         <v>0.64549999999999996</v>
       </c>
     </row>
@@ -7265,7 +7265,7 @@
         <v>0.91</v>
       </c>
       <c r="M127" s="8">
-        <f t="shared" si="1"/>
+        <f>(((LARGE(D127:F127,1)+LARGE(D127:F127,2))*0.05+(LARGE(G127:I127,1)+LARGE(G127:I127,2))*0.3+(LARGE(J127:L127,1)+LARGE(J127:L127,2))*0.15))</f>
         <v>0.85599999999999998</v>
       </c>
     </row>
@@ -7307,7 +7307,7 @@
         <v>0.5</v>
       </c>
       <c r="M128" s="8">
-        <f t="shared" si="1"/>
+        <f>(((LARGE(D128:F128,1)+LARGE(D128:F128,2))*0.05+(LARGE(G128:I128,1)+LARGE(G128:I128,2))*0.3+(LARGE(J128:L128,1)+LARGE(J128:L128,2))*0.15))</f>
         <v>0.76649999999999996</v>
       </c>
     </row>
@@ -7349,7 +7349,7 @@
         <v>0</v>
       </c>
       <c r="M129" s="8">
-        <f t="shared" si="1"/>
+        <f>(((LARGE(D129:F129,1)+LARGE(D129:F129,2))*0.05+(LARGE(G129:I129,1)+LARGE(G129:I129,2))*0.3+(LARGE(J129:L129,1)+LARGE(J129:L129,2))*0.15))</f>
         <v>0.74399999999999999</v>
       </c>
     </row>
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="M130" s="8">
-        <f t="shared" ref="M130:M193" si="2">(((LARGE(D130:F130,1)+LARGE(D130:F130,2))*0.05+(LARGE(G130:I130,1)+LARGE(G130:I130,2))*0.3+(LARGE(J130:L130,1)+LARGE(J130:L130,2))*0.15))</f>
+        <f>(((LARGE(D130:F130,1)+LARGE(D130:F130,2))*0.05+(LARGE(G130:I130,1)+LARGE(G130:I130,2))*0.3+(LARGE(J130:L130,1)+LARGE(J130:L130,2))*0.15))</f>
         <v>0.217</v>
       </c>
     </row>
@@ -7433,7 +7433,7 @@
         <v>0.68</v>
       </c>
       <c r="M131" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D131:F131,1)+LARGE(D131:F131,2))*0.05+(LARGE(G131:I131,1)+LARGE(G131:I131,2))*0.3+(LARGE(J131:L131,1)+LARGE(J131:L131,2))*0.15))</f>
         <v>0.70900000000000007</v>
       </c>
     </row>
@@ -7475,7 +7475,7 @@
         <v>0.66</v>
       </c>
       <c r="M132" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D132:F132,1)+LARGE(D132:F132,2))*0.05+(LARGE(G132:I132,1)+LARGE(G132:I132,2))*0.3+(LARGE(J132:L132,1)+LARGE(J132:L132,2))*0.15))</f>
         <v>0.63300000000000001</v>
       </c>
     </row>
@@ -7517,7 +7517,7 @@
         <v>0.64</v>
       </c>
       <c r="M133" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D133:F133,1)+LARGE(D133:F133,2))*0.05+(LARGE(G133:I133,1)+LARGE(G133:I133,2))*0.3+(LARGE(J133:L133,1)+LARGE(J133:L133,2))*0.15))</f>
         <v>0.74199999999999999</v>
       </c>
     </row>
@@ -7559,7 +7559,7 @@
         <v>0.71</v>
       </c>
       <c r="M134" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D134:F134,1)+LARGE(D134:F134,2))*0.05+(LARGE(G134:I134,1)+LARGE(G134:I134,2))*0.3+(LARGE(J134:L134,1)+LARGE(J134:L134,2))*0.15))</f>
         <v>0.79449999999999998</v>
       </c>
     </row>
@@ -7601,7 +7601,7 @@
         <v>0.22</v>
       </c>
       <c r="M135" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D135:F135,1)+LARGE(D135:F135,2))*0.05+(LARGE(G135:I135,1)+LARGE(G135:I135,2))*0.3+(LARGE(J135:L135,1)+LARGE(J135:L135,2))*0.15))</f>
         <v>0.80449999999999999</v>
       </c>
     </row>
@@ -7643,7 +7643,7 @@
         <v>0.72</v>
       </c>
       <c r="M136" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D136:F136,1)+LARGE(D136:F136,2))*0.05+(LARGE(G136:I136,1)+LARGE(G136:I136,2))*0.3+(LARGE(J136:L136,1)+LARGE(J136:L136,2))*0.15))</f>
         <v>0.79149999999999987</v>
       </c>
     </row>
@@ -7685,7 +7685,7 @@
         <v>0</v>
       </c>
       <c r="M137" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D137:F137,1)+LARGE(D137:F137,2))*0.05+(LARGE(G137:I137,1)+LARGE(G137:I137,2))*0.3+(LARGE(J137:L137,1)+LARGE(J137:L137,2))*0.15))</f>
         <v>0.76249999999999996</v>
       </c>
     </row>
@@ -7727,7 +7727,7 @@
         <v>0.86</v>
       </c>
       <c r="M138" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D138:F138,1)+LARGE(D138:F138,2))*0.05+(LARGE(G138:I138,1)+LARGE(G138:I138,2))*0.3+(LARGE(J138:L138,1)+LARGE(J138:L138,2))*0.15))</f>
         <v>0.71099999999999997</v>
       </c>
     </row>
@@ -7769,7 +7769,7 @@
         <v>0.47</v>
       </c>
       <c r="M139" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D139:F139,1)+LARGE(D139:F139,2))*0.05+(LARGE(G139:I139,1)+LARGE(G139:I139,2))*0.3+(LARGE(J139:L139,1)+LARGE(J139:L139,2))*0.15))</f>
         <v>0.71450000000000002</v>
       </c>
     </row>
@@ -7811,7 +7811,7 @@
         <v>0.66</v>
       </c>
       <c r="M140" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D140:F140,1)+LARGE(D140:F140,2))*0.05+(LARGE(G140:I140,1)+LARGE(G140:I140,2))*0.3+(LARGE(J140:L140,1)+LARGE(J140:L140,2))*0.15))</f>
         <v>0.67999999999999994</v>
       </c>
     </row>
@@ -7853,7 +7853,7 @@
         <v>0.22</v>
       </c>
       <c r="M141" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D141:F141,1)+LARGE(D141:F141,2))*0.05+(LARGE(G141:I141,1)+LARGE(G141:I141,2))*0.3+(LARGE(J141:L141,1)+LARGE(J141:L141,2))*0.15))</f>
         <v>0.83800000000000008</v>
       </c>
     </row>
@@ -7895,7 +7895,7 @@
         <v>0</v>
       </c>
       <c r="M142" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D142:F142,1)+LARGE(D142:F142,2))*0.05+(LARGE(G142:I142,1)+LARGE(G142:I142,2))*0.3+(LARGE(J142:L142,1)+LARGE(J142:L142,2))*0.15))</f>
         <v>0.73249999999999993</v>
       </c>
     </row>
@@ -7937,7 +7937,7 @@
         <v>0.73</v>
       </c>
       <c r="M143" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D143:F143,1)+LARGE(D143:F143,2))*0.05+(LARGE(G143:I143,1)+LARGE(G143:I143,2))*0.3+(LARGE(J143:L143,1)+LARGE(J143:L143,2))*0.15))</f>
         <v>0.6925</v>
       </c>
     </row>
@@ -7979,7 +7979,7 @@
         <v>0.47</v>
       </c>
       <c r="M144" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D144:F144,1)+LARGE(D144:F144,2))*0.05+(LARGE(G144:I144,1)+LARGE(G144:I144,2))*0.3+(LARGE(J144:L144,1)+LARGE(J144:L144,2))*0.15))</f>
         <v>0.55200000000000005</v>
       </c>
     </row>
@@ -8021,7 +8021,7 @@
         <v>0.68</v>
       </c>
       <c r="M145" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D145:F145,1)+LARGE(D145:F145,2))*0.05+(LARGE(G145:I145,1)+LARGE(G145:I145,2))*0.3+(LARGE(J145:L145,1)+LARGE(J145:L145,2))*0.15))</f>
         <v>0.76200000000000001</v>
       </c>
     </row>
@@ -8063,7 +8063,7 @@
         <v>0.72</v>
       </c>
       <c r="M146" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D146:F146,1)+LARGE(D146:F146,2))*0.05+(LARGE(G146:I146,1)+LARGE(G146:I146,2))*0.3+(LARGE(J146:L146,1)+LARGE(J146:L146,2))*0.15))</f>
         <v>0.77549999999999997</v>
       </c>
     </row>
@@ -8105,7 +8105,7 @@
         <v>0</v>
       </c>
       <c r="M147" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D147:F147,1)+LARGE(D147:F147,2))*0.05+(LARGE(G147:I147,1)+LARGE(G147:I147,2))*0.3+(LARGE(J147:L147,1)+LARGE(J147:L147,2))*0.15))</f>
         <v>0.70699999999999996</v>
       </c>
     </row>
@@ -8147,7 +8147,7 @@
         <v>0.91</v>
       </c>
       <c r="M148" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D148:F148,1)+LARGE(D148:F148,2))*0.05+(LARGE(G148:I148,1)+LARGE(G148:I148,2))*0.3+(LARGE(J148:L148,1)+LARGE(J148:L148,2))*0.15))</f>
         <v>0.875</v>
       </c>
     </row>
@@ -8189,7 +8189,7 @@
         <v>0.65</v>
       </c>
       <c r="M149" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D149:F149,1)+LARGE(D149:F149,2))*0.05+(LARGE(G149:I149,1)+LARGE(G149:I149,2))*0.3+(LARGE(J149:L149,1)+LARGE(J149:L149,2))*0.15))</f>
         <v>0.58299999999999996</v>
       </c>
     </row>
@@ -8231,7 +8231,7 @@
         <v>0.77</v>
       </c>
       <c r="M150" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D150:F150,1)+LARGE(D150:F150,2))*0.05+(LARGE(G150:I150,1)+LARGE(G150:I150,2))*0.3+(LARGE(J150:L150,1)+LARGE(J150:L150,2))*0.15))</f>
         <v>0.62</v>
       </c>
     </row>
@@ -8273,7 +8273,7 @@
         <v>0.68</v>
       </c>
       <c r="M151" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D151:F151,1)+LARGE(D151:F151,2))*0.05+(LARGE(G151:I151,1)+LARGE(G151:I151,2))*0.3+(LARGE(J151:L151,1)+LARGE(J151:L151,2))*0.15))</f>
         <v>0.60550000000000004</v>
       </c>
     </row>
@@ -8315,7 +8315,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="M152" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D152:F152,1)+LARGE(D152:F152,2))*0.05+(LARGE(G152:I152,1)+LARGE(G152:I152,2))*0.3+(LARGE(J152:L152,1)+LARGE(J152:L152,2))*0.15))</f>
         <v>0.624</v>
       </c>
     </row>
@@ -8357,7 +8357,7 @@
         <v>0</v>
       </c>
       <c r="M153" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D153:F153,1)+LARGE(D153:F153,2))*0.05+(LARGE(G153:I153,1)+LARGE(G153:I153,2))*0.3+(LARGE(J153:L153,1)+LARGE(J153:L153,2))*0.15))</f>
         <v>0.74150000000000005</v>
       </c>
     </row>
@@ -8399,7 +8399,7 @@
         <v>0.39</v>
       </c>
       <c r="M154" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D154:F154,1)+LARGE(D154:F154,2))*0.05+(LARGE(G154:I154,1)+LARGE(G154:I154,2))*0.3+(LARGE(J154:L154,1)+LARGE(J154:L154,2))*0.15))</f>
         <v>0.71950000000000003</v>
       </c>
     </row>
@@ -8441,7 +8441,7 @@
         <v>0</v>
       </c>
       <c r="M155" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D155:F155,1)+LARGE(D155:F155,2))*0.05+(LARGE(G155:I155,1)+LARGE(G155:I155,2))*0.3+(LARGE(J155:L155,1)+LARGE(J155:L155,2))*0.15))</f>
         <v>0.69450000000000001</v>
       </c>
     </row>
@@ -8483,7 +8483,7 @@
         <v>0.84</v>
       </c>
       <c r="M156" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D156:F156,1)+LARGE(D156:F156,2))*0.05+(LARGE(G156:I156,1)+LARGE(G156:I156,2))*0.3+(LARGE(J156:L156,1)+LARGE(J156:L156,2))*0.15))</f>
         <v>0.79799999999999982</v>
       </c>
     </row>
@@ -8525,7 +8525,7 @@
         <v>0.54</v>
       </c>
       <c r="M157" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D157:F157,1)+LARGE(D157:F157,2))*0.05+(LARGE(G157:I157,1)+LARGE(G157:I157,2))*0.3+(LARGE(J157:L157,1)+LARGE(J157:L157,2))*0.15))</f>
         <v>0.80199999999999994</v>
       </c>
     </row>
@@ -8567,7 +8567,7 @@
         <v>0.84</v>
       </c>
       <c r="M158" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D158:F158,1)+LARGE(D158:F158,2))*0.05+(LARGE(G158:I158,1)+LARGE(G158:I158,2))*0.3+(LARGE(J158:L158,1)+LARGE(J158:L158,2))*0.15))</f>
         <v>0.74199999999999988</v>
       </c>
     </row>
@@ -8609,7 +8609,7 @@
         <v>0.86</v>
       </c>
       <c r="M159" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D159:F159,1)+LARGE(D159:F159,2))*0.05+(LARGE(G159:I159,1)+LARGE(G159:I159,2))*0.3+(LARGE(J159:L159,1)+LARGE(J159:L159,2))*0.15))</f>
         <v>0.73349999999999993</v>
       </c>
     </row>
@@ -8651,7 +8651,7 @@
         <v>0.72</v>
       </c>
       <c r="M160" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D160:F160,1)+LARGE(D160:F160,2))*0.05+(LARGE(G160:I160,1)+LARGE(G160:I160,2))*0.3+(LARGE(J160:L160,1)+LARGE(J160:L160,2))*0.15))</f>
         <v>0.66749999999999998</v>
       </c>
     </row>
@@ -8693,7 +8693,7 @@
         <v>0.69</v>
       </c>
       <c r="M161" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D161:F161,1)+LARGE(D161:F161,2))*0.05+(LARGE(G161:I161,1)+LARGE(G161:I161,2))*0.3+(LARGE(J161:L161,1)+LARGE(J161:L161,2))*0.15))</f>
         <v>0.75600000000000001</v>
       </c>
     </row>
@@ -8735,7 +8735,7 @@
         <v>0.6</v>
       </c>
       <c r="M162" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D162:F162,1)+LARGE(D162:F162,2))*0.05+(LARGE(G162:I162,1)+LARGE(G162:I162,2))*0.3+(LARGE(J162:L162,1)+LARGE(J162:L162,2))*0.15))</f>
         <v>0.68700000000000006</v>
       </c>
     </row>
@@ -8777,7 +8777,7 @@
         <v>0.59</v>
       </c>
       <c r="M163" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D163:F163,1)+LARGE(D163:F163,2))*0.05+(LARGE(G163:I163,1)+LARGE(G163:I163,2))*0.3+(LARGE(J163:L163,1)+LARGE(J163:L163,2))*0.15))</f>
         <v>0.77799999999999991</v>
       </c>
     </row>
@@ -8819,7 +8819,7 @@
         <v>0.7</v>
       </c>
       <c r="M164" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D164:F164,1)+LARGE(D164:F164,2))*0.05+(LARGE(G164:I164,1)+LARGE(G164:I164,2))*0.3+(LARGE(J164:L164,1)+LARGE(J164:L164,2))*0.15))</f>
         <v>0.67099999999999993</v>
       </c>
     </row>
@@ -8861,7 +8861,7 @@
         <v>0.59</v>
       </c>
       <c r="M165" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D165:F165,1)+LARGE(D165:F165,2))*0.05+(LARGE(G165:I165,1)+LARGE(G165:I165,2))*0.3+(LARGE(J165:L165,1)+LARGE(J165:L165,2))*0.15))</f>
         <v>0.72749999999999992</v>
       </c>
     </row>
@@ -8903,7 +8903,7 @@
         <v>0.65</v>
       </c>
       <c r="M166" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D166:F166,1)+LARGE(D166:F166,2))*0.05+(LARGE(G166:I166,1)+LARGE(G166:I166,2))*0.3+(LARGE(J166:L166,1)+LARGE(J166:L166,2))*0.15))</f>
         <v>0.72399999999999998</v>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
         <v>0.93</v>
       </c>
       <c r="M167" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D167:F167,1)+LARGE(D167:F167,2))*0.05+(LARGE(G167:I167,1)+LARGE(G167:I167,2))*0.3+(LARGE(J167:L167,1)+LARGE(J167:L167,2))*0.15))</f>
         <v>0.86950000000000005</v>
       </c>
     </row>
@@ -8987,7 +8987,7 @@
         <v>0.7</v>
       </c>
       <c r="M168" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D168:F168,1)+LARGE(D168:F168,2))*0.05+(LARGE(G168:I168,1)+LARGE(G168:I168,2))*0.3+(LARGE(J168:L168,1)+LARGE(J168:L168,2))*0.15))</f>
         <v>0.7679999999999999</v>
       </c>
     </row>
@@ -9029,7 +9029,7 @@
         <v>0.51</v>
       </c>
       <c r="M169" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D169:F169,1)+LARGE(D169:F169,2))*0.05+(LARGE(G169:I169,1)+LARGE(G169:I169,2))*0.3+(LARGE(J169:L169,1)+LARGE(J169:L169,2))*0.15))</f>
         <v>0.6855</v>
       </c>
     </row>
@@ -9071,7 +9071,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="M170" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D170:F170,1)+LARGE(D170:F170,2))*0.05+(LARGE(G170:I170,1)+LARGE(G170:I170,2))*0.3+(LARGE(J170:L170,1)+LARGE(J170:L170,2))*0.15))</f>
         <v>0.66149999999999998</v>
       </c>
     </row>
@@ -9113,7 +9113,7 @@
         <v>0.69</v>
       </c>
       <c r="M171" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D171:F171,1)+LARGE(D171:F171,2))*0.05+(LARGE(G171:I171,1)+LARGE(G171:I171,2))*0.3+(LARGE(J171:L171,1)+LARGE(J171:L171,2))*0.15))</f>
         <v>0.6855</v>
       </c>
     </row>
@@ -9155,7 +9155,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="M172" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D172:F172,1)+LARGE(D172:F172,2))*0.05+(LARGE(G172:I172,1)+LARGE(G172:I172,2))*0.3+(LARGE(J172:L172,1)+LARGE(J172:L172,2))*0.15))</f>
         <v>0.61799999999999999</v>
       </c>
     </row>
@@ -9197,7 +9197,7 @@
         <v>0.61</v>
       </c>
       <c r="M173" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D173:F173,1)+LARGE(D173:F173,2))*0.05+(LARGE(G173:I173,1)+LARGE(G173:I173,2))*0.3+(LARGE(J173:L173,1)+LARGE(J173:L173,2))*0.15))</f>
         <v>0.71</v>
       </c>
     </row>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="M174" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D174:F174,1)+LARGE(D174:F174,2))*0.05+(LARGE(G174:I174,1)+LARGE(G174:I174,2))*0.3+(LARGE(J174:L174,1)+LARGE(J174:L174,2))*0.15))</f>
         <v>0.47150000000000003</v>
       </c>
     </row>
@@ -9281,7 +9281,7 @@
         <v>0.49</v>
       </c>
       <c r="M175" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D175:F175,1)+LARGE(D175:F175,2))*0.05+(LARGE(G175:I175,1)+LARGE(G175:I175,2))*0.3+(LARGE(J175:L175,1)+LARGE(J175:L175,2))*0.15))</f>
         <v>0.70800000000000007</v>
       </c>
     </row>
@@ -9323,7 +9323,7 @@
         <v>0.62</v>
       </c>
       <c r="M176" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D176:F176,1)+LARGE(D176:F176,2))*0.05+(LARGE(G176:I176,1)+LARGE(G176:I176,2))*0.3+(LARGE(J176:L176,1)+LARGE(J176:L176,2))*0.15))</f>
         <v>0.71199999999999997</v>
       </c>
     </row>
@@ -9365,7 +9365,7 @@
         <v>0</v>
       </c>
       <c r="M177" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D177:F177,1)+LARGE(D177:F177,2))*0.05+(LARGE(G177:I177,1)+LARGE(G177:I177,2))*0.3+(LARGE(J177:L177,1)+LARGE(J177:L177,2))*0.15))</f>
         <v>0.73199999999999998</v>
       </c>
     </row>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M178" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D178:F178,1)+LARGE(D178:F178,2))*0.05+(LARGE(G178:I178,1)+LARGE(G178:I178,2))*0.3+(LARGE(J178:L178,1)+LARGE(J178:L178,2))*0.15))</f>
         <v>0.70199999999999996</v>
       </c>
     </row>
@@ -9449,7 +9449,7 @@
         <v>0.49</v>
       </c>
       <c r="M179" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D179:F179,1)+LARGE(D179:F179,2))*0.05+(LARGE(G179:I179,1)+LARGE(G179:I179,2))*0.3+(LARGE(J179:L179,1)+LARGE(J179:L179,2))*0.15))</f>
         <v>0.74849999999999994</v>
       </c>
     </row>
@@ -9491,7 +9491,7 @@
         <v>0.63</v>
       </c>
       <c r="M180" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D180:F180,1)+LARGE(D180:F180,2))*0.05+(LARGE(G180:I180,1)+LARGE(G180:I180,2))*0.3+(LARGE(J180:L180,1)+LARGE(J180:L180,2))*0.15))</f>
         <v>0.68400000000000005</v>
       </c>
     </row>
@@ -9533,7 +9533,7 @@
         <v>0.36</v>
       </c>
       <c r="M181" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D181:F181,1)+LARGE(D181:F181,2))*0.05+(LARGE(G181:I181,1)+LARGE(G181:I181,2))*0.3+(LARGE(J181:L181,1)+LARGE(J181:L181,2))*0.15))</f>
         <v>0.72850000000000004</v>
       </c>
     </row>
@@ -9575,7 +9575,7 @@
         <v>0</v>
       </c>
       <c r="M182" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D182:F182,1)+LARGE(D182:F182,2))*0.05+(LARGE(G182:I182,1)+LARGE(G182:I182,2))*0.3+(LARGE(J182:L182,1)+LARGE(J182:L182,2))*0.15))</f>
         <v>0.73450000000000004</v>
       </c>
     </row>
@@ -9617,7 +9617,7 @@
         <v>0.51</v>
       </c>
       <c r="M183" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D183:F183,1)+LARGE(D183:F183,2))*0.05+(LARGE(G183:I183,1)+LARGE(G183:I183,2))*0.3+(LARGE(J183:L183,1)+LARGE(J183:L183,2))*0.15))</f>
         <v>0.65900000000000003</v>
       </c>
     </row>
@@ -9659,7 +9659,7 @@
         <v>0.49</v>
       </c>
       <c r="M184" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D184:F184,1)+LARGE(D184:F184,2))*0.05+(LARGE(G184:I184,1)+LARGE(G184:I184,2))*0.3+(LARGE(J184:L184,1)+LARGE(J184:L184,2))*0.15))</f>
         <v>0.74950000000000006</v>
       </c>
     </row>
@@ -9701,7 +9701,7 @@
         <v>0.64</v>
       </c>
       <c r="M185" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D185:F185,1)+LARGE(D185:F185,2))*0.05+(LARGE(G185:I185,1)+LARGE(G185:I185,2))*0.3+(LARGE(J185:L185,1)+LARGE(J185:L185,2))*0.15))</f>
         <v>0.72399999999999998</v>
       </c>
     </row>
@@ -9743,7 +9743,7 @@
         <v>0.59</v>
       </c>
       <c r="M186" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D186:F186,1)+LARGE(D186:F186,2))*0.05+(LARGE(G186:I186,1)+LARGE(G186:I186,2))*0.3+(LARGE(J186:L186,1)+LARGE(J186:L186,2))*0.15))</f>
         <v>0.76600000000000001</v>
       </c>
     </row>
@@ -9785,7 +9785,7 @@
         <v>0.61</v>
       </c>
       <c r="M187" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D187:F187,1)+LARGE(D187:F187,2))*0.05+(LARGE(G187:I187,1)+LARGE(G187:I187,2))*0.3+(LARGE(J187:L187,1)+LARGE(J187:L187,2))*0.15))</f>
         <v>0.66149999999999998</v>
       </c>
     </row>
@@ -9827,7 +9827,7 @@
         <v>0.49</v>
       </c>
       <c r="M188" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D188:F188,1)+LARGE(D188:F188,2))*0.05+(LARGE(G188:I188,1)+LARGE(G188:I188,2))*0.3+(LARGE(J188:L188,1)+LARGE(J188:L188,2))*0.15))</f>
         <v>0.63</v>
       </c>
     </row>
@@ -9869,7 +9869,7 @@
         <v>0.7</v>
       </c>
       <c r="M189" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D189:F189,1)+LARGE(D189:F189,2))*0.05+(LARGE(G189:I189,1)+LARGE(G189:I189,2))*0.3+(LARGE(J189:L189,1)+LARGE(J189:L189,2))*0.15))</f>
         <v>0.48250000000000004</v>
       </c>
     </row>
@@ -9911,7 +9911,7 @@
         <v>0</v>
       </c>
       <c r="M190" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D190:F190,1)+LARGE(D190:F190,2))*0.05+(LARGE(G190:I190,1)+LARGE(G190:I190,2))*0.3+(LARGE(J190:L190,1)+LARGE(J190:L190,2))*0.15))</f>
         <v>0.83099999999999996</v>
       </c>
     </row>
@@ -9953,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="M191" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D191:F191,1)+LARGE(D191:F191,2))*0.05+(LARGE(G191:I191,1)+LARGE(G191:I191,2))*0.3+(LARGE(J191:L191,1)+LARGE(J191:L191,2))*0.15))</f>
         <v>0.73199999999999998</v>
       </c>
     </row>
@@ -9995,7 +9995,7 @@
         <v>0.65</v>
       </c>
       <c r="M192" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D192:F192,1)+LARGE(D192:F192,2))*0.05+(LARGE(G192:I192,1)+LARGE(G192:I192,2))*0.3+(LARGE(J192:L192,1)+LARGE(J192:L192,2))*0.15))</f>
         <v>0.64049999999999996</v>
       </c>
     </row>
@@ -10037,7 +10037,7 @@
         <v>0.69</v>
       </c>
       <c r="M193" s="8">
-        <f t="shared" si="2"/>
+        <f>(((LARGE(D193:F193,1)+LARGE(D193:F193,2))*0.05+(LARGE(G193:I193,1)+LARGE(G193:I193,2))*0.3+(LARGE(J193:L193,1)+LARGE(J193:L193,2))*0.15))</f>
         <v>0.77100000000000002</v>
       </c>
     </row>
@@ -10079,7 +10079,7 @@
         <v>0</v>
       </c>
       <c r="M194" s="8">
-        <f t="shared" ref="M194:M231" si="3">(((LARGE(D194:F194,1)+LARGE(D194:F194,2))*0.05+(LARGE(G194:I194,1)+LARGE(G194:I194,2))*0.3+(LARGE(J194:L194,1)+LARGE(J194:L194,2))*0.15))</f>
+        <f>(((LARGE(D194:F194,1)+LARGE(D194:F194,2))*0.05+(LARGE(G194:I194,1)+LARGE(G194:I194,2))*0.3+(LARGE(J194:L194,1)+LARGE(J194:L194,2))*0.15))</f>
         <v>0.65300000000000002</v>
       </c>
     </row>
@@ -10121,7 +10121,7 @@
         <v>0.78</v>
       </c>
       <c r="M195" s="8">
-        <f t="shared" si="3"/>
+        <f>(((LARGE(D195:F195,1)+LARGE(D195:F195,2))*0.05+(LARGE(G195:I195,1)+LARGE(G195:I195,2))*0.3+(LARGE(J195:L195,1)+LARGE(J195:L195,2))*0.15))</f>
         <v>0.78700000000000003</v>
       </c>
     </row>
@@ -10163,7 +10163,7 @@
         <v>0.69</v>
       </c>
       <c r="M196" s="8">
-        <f t="shared" si="3"/>
+        <f>(((LARGE(D196:F196,1)+LARGE(D196:F196,2))*0.05+(LARGE(G196:I196,1)+LARGE(G196:I196,2))*0.3+(LARGE(J196:L196,1)+LARGE(J196:L196,2))*0.15))</f>
         <v>0.67349999999999999</v>
       </c>
     </row>
@@ -10205,7 +10205,7 @@
         <v>0.77</v>
       </c>
       <c r="M197" s="8">
-        <f t="shared" si="3"/>
+        <f>(((LARGE(D197:F197,1)+LARGE(D197:F197,2))*0.05+(LARGE(G197:I197,1)+LARGE(G197:I197,2))*0.3+(LARGE(J197:L197,1)+LARGE(J197:L197,2))*0.15))</f>
         <v>0.73450000000000004</v>
       </c>
     </row>
@@ -10247,7 +10247,7 @@
         <v>0.7</v>
       </c>
       <c r="M198" s="8">
-        <f t="shared" si="3"/>
+        <f>(((LARGE(D198:F198,1)+LARGE(D198:F198,2))*0.05+(LARGE(G198:I198,1)+LARGE(G198:I198,2))*0.3+(LARGE(J198:L198,1)+LARGE(J198:L198,2))*0.15))</f>
         <v>0.79299999999999993</v>
       </c>
     </row>
@@ -10289,7 +10289,7 @@
         <v>0.68</v>
       </c>
       <c r="M199" s="8">
-        <f t="shared" si="3"/>
+        <f>(((LARGE(D199:F199,1)+LARGE(D199:F199,2))*0.05+(LARGE(G199:I199,1)+LARGE(G199:I199,2))*0.3+(LARGE(J199:L199,1)+LARGE(J199:L199,2))*0.15))</f>
         <v>0.77</v>
       </c>
     </row>
@@ -10331,7 +10331,7 @@
         <v>0.87</v>
       </c>
       <c r="M200" s="8">
-        <f t="shared" si="3"/>
+        <f>(((LARGE(D200:F200,1)+LARGE(D200:F200,2))*0.05+(LARGE(G200:I200,1)+LARGE(G200:I200,2))*0.3+(LARGE(J200:L200,1)+LARGE(J200:L200,2))*0.15))</f>
         <v>0.69500000000000006</v>
       </c>
     </row>
@@ -10373,7 +10373,7 @@
         <v>0.7</v>
       </c>
       <c r="M201" s="8">
-        <f t="shared" si="3"/>
+        <f>(((LARGE(D201:F201,1)+LARGE(D201:F201,2))*0.05+(LARGE(G201:I201,1)+LARGE(G201:I201,2))*0.3+(LARGE(J201:L201,1)+LARGE(J201:L201,2))*0.15))</f>
         <v>0.71550000000000002</v>
       </c>
     </row>
@@ -10415,7 +10415,7 @@
         <v>0.63</v>
       </c>
       <c r="M202" s="8">
-        <f t="shared" si="3"/>
+        <f>(((LARGE(D202:F202,1)+LARGE(D202:F202,2))*0.05+(LARGE(G202:I202,1)+LARGE(G202:I202,2))*0.3+(LARGE(J202:L202,1)+LARGE(J202:L202,2))*0.15))</f>
         <v>0.59000000000000008</v>
       </c>
     </row>
@@ -10457,7 +10457,7 @@
         <v>0.65</v>
       </c>
       <c r="M203" s="8">
-        <f t="shared" si="3"/>
+        <f>(((LARGE(D203:F203,1)+LARGE(D203:F203,2))*0.05+(LARGE(G203:I203,1)+LARGE(G203:I203,2))*0.3+(LARGE(J203:L203,1)+LARGE(J203:L203,2))*0.15))</f>
         <v>0.69199999999999995</v>
       </c>
     </row>
@@ -10499,7 +10499,7 @@
         <v>0.7</v>
       </c>
       <c r="M204" s="8">
-        <f t="shared" si="3"/>
+        <f>(((LARGE(D204:F204,1)+LARGE(D204:F204,2))*0.05+(LARGE(G204:I204,1)+LARGE(G204:I204,2))*0.3+(LARGE(J204:L204,1)+LARGE(J204:L204,2))*0.15))</f>
         <v>0.75349999999999995</v>
       </c>
     </row>
@@ -10541,7 +10541,7 @@
         <v>0.6</v>
       </c>
       <c r="M205" s="8">
-        <f t="shared" si="3"/>
+        <f>(((LARGE(D205:F205,1)+LARGE(D205:F205,2))*0.05+(LARGE(G205:I205,1)+LARGE(G205:I205,2))*0.3+(LARGE(J205:L205,1)+LARGE(J205:L205,2))*0.15))</f>
         <v>0.65349999999999997</v>
       </c>
     </row>
@@ -10583,7 +10583,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="M206" s="8">
-        <f t="shared" si="3"/>
+        <f>(((LARGE(D206:F206,1)+LARGE(D206:F206,2))*0.05+(LARGE(G206:I206,1)+LARGE(G206:I206,2))*0.3+(LARGE(J206:L206,1)+LARGE(J206:L206,2))*0.15))</f>
         <v>0.53800000000000003</v>
       </c>
     </row>
@@ -10625,7 +10625,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="M207" s="8">
-        <f t="shared" si="3"/>
+        <f>(((LARGE(D207:F207,1)+LARGE(D207:F207,2))*0.05+(LARGE(G207:I207,1)+LARGE(G207:I207,2))*0.3+(LARGE(J207:L207,1)+LARGE(J207:L207,2))*0.15))</f>
         <v>0.74550000000000005</v>
       </c>
     </row>
@@ -10667,7 +10667,7 @@
         <v>0.6</v>
       </c>
       <c r="M208" s="8">
-        <f t="shared" si="3"/>
+        <f>(((LARGE(D208:F208,1)+LARGE(D208:F208,2))*0.05+(LARGE(G208:I208,1)+LARGE(G208:I208,2))*0.3+(LARGE(J208:L208,1)+LARGE(J208:L208,2))*0.15))</f>
         <v>0.69550000000000012</v>
       </c>
     </row>
@@ -10709,7 +10709,7 @@
         <v>0.68</v>
       </c>
       <c r="M209" s="8">
-        <f t="shared" si="3"/>
+        <f>(((LARGE(D209:F209,1)+LARGE(D209:F209,2))*0.05+(LARGE(G209:I209,1)+LARGE(G209:I209,2))*0.3+(LARGE(J209:L209,1)+LARGE(J209:L209,2))*0.15))</f>
         <v>0.81850000000000001</v>
       </c>
     </row>
@@ -10751,7 +10751,7 @@
         <v>0.59</v>
       </c>
       <c r="M210" s="8">
-        <f t="shared" si="3"/>
+        <f>(((LARGE(D210:F210,1)+LARGE(D210:F210,2))*0.05+(LARGE(G210:I210,1)+LARGE(G210:I210,2))*0.3+(LARGE(J210:L210,1)+LARGE(J210:L210,2))*0.15))</f>
         <v>0.75800000000000001</v>
       </c>
     </row>
@@ -10793,7 +10793,7 @@
         <v>0</v>
       </c>
       <c r="M211" s="8">
-        <f t="shared" si="3"/>
+        <f>(((LARGE(D211:F211,1)+LARGE(D211:F211,2))*0.05+(LARGE(G211:I211,1)+LARGE(G211:I211,2))*0.3+(LARGE(J211:L211,1)+LARGE(J211:L211,2))*0.15))</f>
         <v>0.84699999999999998</v>
       </c>
     </row>
@@ -10835,7 +10835,7 @@
         <v>0.93</v>
       </c>
       <c r="M212" s="8">
-        <f t="shared" si="3"/>
+        <f>(((LARGE(D212:F212,1)+LARGE(D212:F212,2))*0.05+(LARGE(G212:I212,1)+LARGE(G212:I212,2))*0.3+(LARGE(J212:L212,1)+LARGE(J212:L212,2))*0.15))</f>
         <v>0.70949999999999991</v>
       </c>
     </row>
@@ -10877,7 +10877,7 @@
         <v>0.8</v>
       </c>
       <c r="M213" s="8">
-        <f t="shared" si="3"/>
+        <f>(((LARGE(D213:F213,1)+LARGE(D213:F213,2))*0.05+(LARGE(G213:I213,1)+LARGE(G213:I213,2))*0.3+(LARGE(J213:L213,1)+LARGE(J213:L213,2))*0.15))</f>
         <v>0.63849999999999996</v>
       </c>
     </row>
@@ -10919,7 +10919,7 @@
         <v>0.54</v>
       </c>
       <c r="M214" s="8">
-        <f t="shared" si="3"/>
+        <f>(((LARGE(D214:F214,1)+LARGE(D214:F214,2))*0.05+(LARGE(G214:I214,1)+LARGE(G214:I214,2))*0.3+(LARGE(J214:L214,1)+LARGE(J214:L214,2))*0.15))</f>
         <v>0.84700000000000009</v>
       </c>
     </row>
@@ -10961,7 +10961,7 @@
         <v>0</v>
       </c>
       <c r="M215" s="8">
-        <f t="shared" si="3"/>
+        <f>(((LARGE(D215:F215,1)+LARGE(D215:F215,2))*0.05+(LARGE(G215:I215,1)+LARGE(G215:I215,2))*0.3+(LARGE(J215:L215,1)+LARGE(J215:L215,2))*0.15))</f>
         <v>0.67700000000000005</v>
       </c>
     </row>
@@ -11003,7 +11003,7 @@
         <v>0.62</v>
       </c>
       <c r="M216" s="8">
-        <f t="shared" si="3"/>
+        <f>(((LARGE(D216:F216,1)+LARGE(D216:F216,2))*0.05+(LARGE(G216:I216,1)+LARGE(G216:I216,2))*0.3+(LARGE(J216:L216,1)+LARGE(J216:L216,2))*0.15))</f>
         <v>0.66100000000000003</v>
       </c>
     </row>
@@ -11045,7 +11045,7 @@
         <v>0.64</v>
       </c>
       <c r="M217" s="8">
-        <f t="shared" si="3"/>
+        <f>(((LARGE(D217:F217,1)+LARGE(D217:F217,2))*0.05+(LARGE(G217:I217,1)+LARGE(G217:I217,2))*0.3+(LARGE(J217:L217,1)+LARGE(J217:L217,2))*0.15))</f>
         <v>0.77549999999999986</v>
       </c>
     </row>
@@ -11087,7 +11087,7 @@
         <v>0.51</v>
       </c>
       <c r="M218" s="8">
-        <f t="shared" si="3"/>
+        <f>(((LARGE(D218:F218,1)+LARGE(D218:F218,2))*0.05+(LARGE(G218:I218,1)+LARGE(G218:I218,2))*0.3+(LARGE(J218:L218,1)+LARGE(J218:L218,2))*0.15))</f>
         <v>0.66400000000000015</v>
       </c>
     </row>
@@ -11129,7 +11129,7 @@
         <v>0</v>
       </c>
       <c r="M219" s="8">
-        <f t="shared" si="3"/>
+        <f>(((LARGE(D219:F219,1)+LARGE(D219:F219,2))*0.05+(LARGE(G219:I219,1)+LARGE(G219:I219,2))*0.3+(LARGE(J219:L219,1)+LARGE(J219:L219,2))*0.15))</f>
         <v>0.3125</v>
       </c>
     </row>
@@ -11171,7 +11171,7 @@
         <v>0.77</v>
       </c>
       <c r="M220" s="8">
-        <f t="shared" si="3"/>
+        <f>(((LARGE(D220:F220,1)+LARGE(D220:F220,2))*0.05+(LARGE(G220:I220,1)+LARGE(G220:I220,2))*0.3+(LARGE(J220:L220,1)+LARGE(J220:L220,2))*0.15))</f>
         <v>0.7</v>
       </c>
     </row>
@@ -11213,7 +11213,7 @@
         <v>0</v>
       </c>
       <c r="M221" s="8">
-        <f t="shared" si="3"/>
+        <f>(((LARGE(D221:F221,1)+LARGE(D221:F221,2))*0.05+(LARGE(G221:I221,1)+LARGE(G221:I221,2))*0.3+(LARGE(J221:L221,1)+LARGE(J221:L221,2))*0.15))</f>
         <v>0.39250000000000002</v>
       </c>
     </row>
@@ -11255,7 +11255,7 @@
         <v>0.54</v>
       </c>
       <c r="M222" s="8">
-        <f t="shared" si="3"/>
+        <f>(((LARGE(D222:F222,1)+LARGE(D222:F222,2))*0.05+(LARGE(G222:I222,1)+LARGE(G222:I222,2))*0.3+(LARGE(J222:L222,1)+LARGE(J222:L222,2))*0.15))</f>
         <v>0.72299999999999998</v>
       </c>
     </row>
@@ -11297,7 +11297,7 @@
         <v>0.7</v>
       </c>
       <c r="M223" s="8">
-        <f t="shared" si="3"/>
+        <f>(((LARGE(D223:F223,1)+LARGE(D223:F223,2))*0.05+(LARGE(G223:I223,1)+LARGE(G223:I223,2))*0.3+(LARGE(J223:L223,1)+LARGE(J223:L223,2))*0.15))</f>
         <v>0.71599999999999997</v>
       </c>
     </row>
@@ -11339,7 +11339,7 @@
         <v>0.87</v>
       </c>
       <c r="M224" s="8">
-        <f t="shared" si="3"/>
+        <f>(((LARGE(D224:F224,1)+LARGE(D224:F224,2))*0.05+(LARGE(G224:I224,1)+LARGE(G224:I224,2))*0.3+(LARGE(J224:L224,1)+LARGE(J224:L224,2))*0.15))</f>
         <v>0.79449999999999998</v>
       </c>
     </row>
@@ -11381,7 +11381,7 @@
         <v>0.7</v>
       </c>
       <c r="M225" s="8">
-        <f t="shared" si="3"/>
+        <f>(((LARGE(D225:F225,1)+LARGE(D225:F225,2))*0.05+(LARGE(G225:I225,1)+LARGE(G225:I225,2))*0.3+(LARGE(J225:L225,1)+LARGE(J225:L225,2))*0.15))</f>
         <v>0.66100000000000003</v>
       </c>
     </row>
@@ -11423,7 +11423,7 @@
         <v>0.73</v>
       </c>
       <c r="M226" s="8">
-        <f t="shared" si="3"/>
+        <f>(((LARGE(D226:F226,1)+LARGE(D226:F226,2))*0.05+(LARGE(G226:I226,1)+LARGE(G226:I226,2))*0.3+(LARGE(J226:L226,1)+LARGE(J226:L226,2))*0.15))</f>
         <v>0.58200000000000007</v>
       </c>
     </row>
@@ -11465,7 +11465,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="M227" s="8">
-        <f t="shared" si="3"/>
+        <f>(((LARGE(D227:F227,1)+LARGE(D227:F227,2))*0.05+(LARGE(G227:I227,1)+LARGE(G227:I227,2))*0.3+(LARGE(J227:L227,1)+LARGE(J227:L227,2))*0.15))</f>
         <v>0.64749999999999996</v>
       </c>
     </row>
@@ -11507,7 +11507,7 @@
         <v>0</v>
       </c>
       <c r="M228" s="8">
-        <f t="shared" si="3"/>
+        <f>(((LARGE(D228:F228,1)+LARGE(D228:F228,2))*0.05+(LARGE(G228:I228,1)+LARGE(G228:I228,2))*0.3+(LARGE(J228:L228,1)+LARGE(J228:L228,2))*0.15))</f>
         <v>0.78149999999999997</v>
       </c>
     </row>
@@ -11549,7 +11549,7 @@
         <v>0.78</v>
       </c>
       <c r="M229" s="8">
-        <f t="shared" si="3"/>
+        <f>(((LARGE(D229:F229,1)+LARGE(D229:F229,2))*0.05+(LARGE(G229:I229,1)+LARGE(G229:I229,2))*0.3+(LARGE(J229:L229,1)+LARGE(J229:L229,2))*0.15))</f>
         <v>0.73449999999999993</v>
       </c>
     </row>
@@ -11591,7 +11591,7 @@
         <v>0.01</v>
       </c>
       <c r="M230" s="8">
-        <f t="shared" si="3"/>
+        <f>(((LARGE(D230:F230,1)+LARGE(D230:F230,2))*0.05+(LARGE(G230:I230,1)+LARGE(G230:I230,2))*0.3+(LARGE(J230:L230,1)+LARGE(J230:L230,2))*0.15))</f>
         <v>0.68399999999999994</v>
       </c>
     </row>
@@ -11633,7 +11633,7 @@
         <v>0.73</v>
       </c>
       <c r="M231" s="8">
-        <f t="shared" si="3"/>
+        <f>(((LARGE(D231:F231,1)+LARGE(D231:F231,2))*0.05+(LARGE(G231:I231,1)+LARGE(G231:I231,2))*0.3+(LARGE(J231:L231,1)+LARGE(J231:L231,2))*0.15))</f>
         <v>0.64400000000000013</v>
       </c>
     </row>

--- a/cw11042025.xlsx
+++ b/cw11042025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B50F32-506F-3B4C-B1AF-C6FB16452C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0E8E42-768D-5745-ADA9-F2AC4E350C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="960" windowWidth="29360" windowHeight="16940" xr2:uid="{EC16AC82-7674-0540-BCFF-830B59CE68F0}"/>
   </bookViews>
@@ -1929,7 +1929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD7F812-EED8-C54E-9DE9-E7B571F78166}">
   <dimension ref="A1:M231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
